--- a/Project/code/intermediate/models/0002_ViT_strong_1/results_0.0000_max_val/individual_clip_results.xlsx
+++ b/Project/code/intermediate/models/0002_ViT_strong_1/results_0.0000_max_val/individual_clip_results.xlsx
@@ -605,11 +605,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.1499425321817398, 0.12698186933994293, 0.44683459401130676, 0.5493555665016174, 0.6665990948677063, 0.8551313877105713, 0.8548175692558289, 0.6129555702209473, 0.2971179783344269, 0.2914784848690033, 0.511417806148529, 0.32773444056510925, 0.21468104422092438, 0.1846201866865158, 0.14529365301132202, 0.15192921459674835, 0.14667460322380066, 0.1780708283185959, 0.17225438356399536, 0.24513915181159973, 0.19691705703735352, 0.1687466949224472, 0.1380148082971573, 0.19022126495838165, 0.1811627298593521, 0.1881037801504135, 0.2796430289745331, 0.20135347545146942, 0.12650258839130402, 0.8010879755020142, 0.8624413013458252, 0.6144586801528931, 0.5158937573432922, 0.47308987379074097, 0.49883583188056946, 0.6936022043228149, 0.5538604259490967, 0.387046754360199, 0.3900390565395355, 0.30497217178344727, 0.31842222809791565, 0.27410390973091125, 0.27069565653800964, 0.21654292941093445, 0.27934741973876953, 0.21492813527584076, 0.22055818140506744, 0.31064531207084656, 0.2922879159450531, 0.2682088017463684, 0.3839946985244751, 0.32529062032699585, 0.35434430837631226, 0.2940610647201538, 0.176517054438591, 0.16343222558498383, 0.10071290284395218, 0.14632391929626465, 0.22091054916381836, 0.8392255902290344, 0.6860224008560181, 0.6884007453918457, 0.5587091445922852, 0.27675506472587585, 0.2967973053455353, 0.4960407316684723, 0.5161408185958862, 0.381829172372818, 0.134873166680336, 0.14105689525604248, 0.11102572828531265, 0.16275514662265778, 0.21742723882198334, 0.2476842999458313, 0.1598612368106842, 0.1852356642484665, 0.23576359450817108, 0.3208100199699402, 0.2923542857170105, 0.20812784135341644, 0.4414007365703583, 0.43590158224105835, 0.4165063798427582, 0.2812870442867279, 0.1716993749141693, 0.15934981405735016, 0.20544099807739258, 0.1640319675207138, 0.17533241212368011, 0.18662673234939575, 0.224587082862854, 0.22019727528095245, 0.27273330092430115, 0.2504994869232178, 0.2150302231311798, 0.17150402069091797, 0.2706694006919861, 0.24198749661445618, 0.24839343130588531, 0.367656409740448, 0.24959561228752136, 0.1265181005001068, 0.10055544972419739, 0.08915166556835175, 0.17376257479190826, 0.17601746320724487, 0.1457359343767166, 0.14890697598457336, 0.13314978778362274, 0.10901691764593124, 0.10191166400909424, 0.11051494628190994, 0.16493363678455353, 0.29048067331314087, 0.2452620565891266, 0.23783715069293976, 0.14712750911712646, 0.13177771866321564, 0.12677055597305298, 0.1464347541332245, 0.166843444108963, 0.15030542016029358, 0.1770315021276474, 0.20000547170639038, 0.236772358417511, 0.21432051062583923, 0.2516174614429474, 0.2970293462276459, 0.36716940999031067, 0.3034553527832031, 0.19736577570438385, 0.13779684901237488, 0.09457074850797653, 0.0727735161781311, 0.14192457497119904, 0.22676095366477966, 0.2615439295768738, 0.25001487135887146, 0.2387189120054245, 0.23796892166137695, 0.36457210779190063, 0.20597781240940094, 0.2886574864387512, 0.3895682394504547, 0.26031118631362915, 0.20533835887908936, 0.19498898088932037, 0.19639526307582855]</t>
+          <t>[0.08722944557666779, 0.07300824671983719, 0.31573620438575745, 0.4273243844509125, 0.6002709865570068, 0.7936146259307861, 0.840340793132782, 0.5892826914787292, 0.25590980052948, 0.27716201543807983, 0.49985191226005554, 0.18071021139621735, 0.13489769399166107, 0.1347966492176056, 0.1146107017993927, 0.10242465883493423, 0.09292041510343552, 0.13785357773303986, 0.15980491042137146, 0.2926865518093109, 0.21718299388885498, 0.1733722686767578, 0.16419516503810883, 0.23533481359481812, 0.1737315058708191, 0.16521944105625153, 0.2829514443874359, 0.16235046088695526, 0.0866432711482048, 0.8254343867301941, 0.9026663899421692, 0.7729997634887695, 0.5138165354728699, 0.37220823764801025, 0.5195595622062683, 0.7831251621246338, 0.6571159362792969, 0.3071686923503876, 0.3120899796485901, 0.24102821946144104, 0.24161691963672638, 0.19928567111492157, 0.18026582896709442, 0.17761163413524628, 0.19658730924129486, 0.14584051072597504, 0.1776861697435379, 0.22375106811523438, 0.18454457819461823, 0.18381711840629578, 0.3185541331768036, 0.23739749193191528, 0.23577165603637695, 0.16847141087055206, 0.1266348958015442, 0.12316995114088058, 0.08343059569597244, 0.11079906672239304, 0.17358332872390747, 0.8070728778839111, 0.6452407240867615, 0.6200069785118103, 0.4218499958515167, 0.20896650850772858, 0.24903398752212524, 0.4828033745288849, 0.502679705619812, 0.249480202794075, 0.09243965148925781, 0.10920405387878418, 0.05866488441824913, 0.1416352093219757, 0.19352632761001587, 0.22066202759742737, 0.1432320922613144, 0.13102099299430847, 0.1902894824743271, 0.2551020383834839, 0.2800747752189636, 0.2121000736951828, 0.4060071110725403, 0.3977057635784149, 0.37237057089805603, 0.2174915224313736, 0.10999379307031631, 0.09843889623880386, 0.1258724182844162, 0.09787247329950333, 0.10549500584602356, 0.1464018076658249, 0.17938371002674103, 0.15278571844100952, 0.22707201540470123, 0.23361077904701233, 0.18670153617858887, 0.11915893107652664, 0.15022170543670654, 0.14943109452724457, 0.1584804207086563, 0.31751781702041626, 0.18066677451133728, 0.0648757666349411, 0.042819030582904816, 0.04344356805086136, 0.07622259110212326, 0.06963806599378586, 0.05590265244245529, 0.0705711841583252, 0.0714101567864418, 0.05323316156864166, 0.039526648819446564, 0.040568556636571884, 0.07140392810106277, 0.16306734085083008, 0.12990699708461761, 0.11873359233140945, 0.062211211770772934, 0.06189020350575447, 0.05284149572253227, 0.08201203495264053, 0.09567224979400635, 0.0778893381357193, 0.10572804510593414, 0.12764936685562134, 0.16569280624389648, 0.1327812224626541, 0.16694428026676178, 0.19597111642360687, 0.3248337209224701, 0.2582102119922638, 0.12424343824386597, 0.05776510760188103, 0.03670961782336235, 0.027490926906466484, 0.054011937230825424, 0.11727297306060791, 0.13721974194049835, 0.17593708634376526, 0.22505085170269012, 0.27689430117607117, 0.27617496252059937, 0.13943882286548615, 0.1886027604341507, 0.24508829414844513, 0.10736632347106934, 0.09948725998401642, 0.09510774165391922, 0.09597655385732651]</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8624413013458252</v>
+        <v>0.9026663899421692</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -623,10 +623,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.267755999986548</v>
+        <v>1.339234600003692</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008565918918828026</v>
+        <v>0.00904888243245738</v>
       </c>
     </row>
     <row r="3">
@@ -645,11 +645,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.32895487546920776, 0.3842078149318695, 0.35920384526252747, 0.3574974536895752, 0.2611860930919647, 0.44191819429397583, 0.5173441171646118, 0.6089465022087097, 0.40491753816604614, 0.48103365302085876, 0.4146336019039154, 0.4121731221675873, 0.4733964800834656, 0.45205220580101013, 0.3680427074432373, 0.22323718667030334, 0.47258666157722473, 0.5959827303886414, 0.7031245231628418, 0.5550169944763184, 0.34223634004592896, 0.3924492299556732, 0.42915308475494385, 0.38164272904396057, 0.40598052740097046, 0.5084686279296875, 0.393771767616272, 0.3530690371990204, 0.24214738607406616, 0.2372327595949173, 0.18255263566970825, 0.35342517495155334, 0.25059592723846436, 0.31183624267578125, 0.27943897247314453, 0.1908372938632965, 0.1928633451461792, 0.28249597549438477, 0.2728100121021271, 0.24196861684322357, 0.09458576142787933, 0.051524970680475235, 0.07542353868484497, 0.1886211484670639, 0.14648433029651642, 0.09539745002985, 0.3729156255722046, 0.3688252866268158, 0.2845647633075714, 0.1307879239320755, 0.10973557829856873, 0.0707160159945488, 0.11627412587404251, 0.17131675779819489, 0.17531627416610718, 0.30857908725738525, 0.22358405590057373, 0.20046274363994598, 0.22818294167518616, 0.22561553120613098, 0.23483984172344208, 0.2040742188692093, 0.09715235978364944, 0.11132659018039703, 0.33496516942977905, 0.427273154258728, 0.4756411910057068, 0.3613584637641907, 0.17647282779216766, 0.1346443146467209, 0.4032110571861267, 0.31232550740242004, 0.21854352951049805, 0.1418951004743576, 0.17150893807411194, 0.17632779479026794, 0.15423893928527832, 0.2087186872959137, 0.22391769289970398, 0.28099387884140015, 0.27439332008361816, 0.23637337982654572, 0.32846805453300476, 0.22531969845294952, 0.24136072397232056, 0.16552390158176422, 0.1318264901638031, 0.12535615265369415, 0.29341256618499756, 0.29251301288604736, 0.24349243938922882, 0.5296186208724976, 0.4509057402610779, 0.488863468170166, 0.3180970251560211, 0.2860560119152069, 0.20520947873592377, 0.272558331489563, 0.24200695753097534, 0.24409323930740356, 0.45076122879981995, 0.4374125897884369, 0.3733428120613098, 0.3844476342201233, 0.31963032484054565, 0.2953706383705139, 0.28689223527908325, 0.2485767900943756, 0.2412119060754776, 0.2036365568637848, 0.20006735622882843, 0.1409994661808014, 0.170469269156456, 0.24835482239723206, 0.239215686917305, 0.19734139740467072, 0.16544479131698608, 0.17403990030288696, 0.20471391081809998, 0.22644662857055664, 0.18045465648174286, 0.2027570903301239, 0.25215399265289307, 0.27571746706962585, 0.29186949133872986, 0.20200146734714508, 0.17563213407993317, 0.2399836778640747, 0.2165360152721405, 0.23920424282550812, 0.26389437913894653, 0.2252742052078247, 0.26342275738716125, 0.30133363604545593, 0.3365379571914673, 0.30009499192237854, 0.29963961243629456, 0.3329152464866638, 0.4654273986816406, 0.46320971846580505, 0.4907573163509369, 0.33077648282051086, 0.36013084650039673, 0.27214327454566956, 0.2557089328765869, 0.4383852183818817, 0.4377785325050354]</t>
+          <t>[0.26210635900497437, 0.35763391852378845, 0.3613687753677368, 0.32228371500968933, 0.2653238773345947, 0.5022014379501343, 0.5999583601951599, 0.5804656147956848, 0.3557765483856201, 0.4495423138141632, 0.44639092683792114, 0.49171748757362366, 0.6153712868690491, 0.5320562124252319, 0.3846678137779236, 0.15302762389183044, 0.4797234833240509, 0.6501833200454712, 0.7994914650917053, 0.5306931734085083, 0.2696484625339508, 0.3163580000400543, 0.5355345010757446, 0.44394052028656006, 0.46009591221809387, 0.5743252038955688, 0.4829670786857605, 0.47833743691444397, 0.24993263185024261, 0.20705899596214294, 0.13937419652938843, 0.4337276816368103, 0.3095410466194153, 0.373080313205719, 0.2986631691455841, 0.16356751322746277, 0.18393263220787048, 0.293095201253891, 0.26375478506088257, 0.23076851665973663, 0.08205845206975937, 0.03878524526953697, 0.051758233457803726, 0.15911445021629333, 0.10994550585746765, 0.07576747238636017, 0.3554169237613678, 0.3614839017391205, 0.2458498179912567, 0.07265360653400421, 0.06064771115779877, 0.03659018501639366, 0.08136970549821854, 0.16555114090442657, 0.1328119933605194, 0.26057466864585876, 0.12124708294868469, 0.10656169056892395, 0.1911386400461197, 0.15074282884597778, 0.1737215518951416, 0.1280270218849182, 0.04071163758635521, 0.046518463641405106, 0.18137963116168976, 0.3135017454624176, 0.42873474955558777, 0.4598058760166168, 0.23030298948287964, 0.14287948608398438, 0.47186529636383057, 0.3140122890472412, 0.2634066641330719, 0.2032548040151596, 0.1610203981399536, 0.12812569737434387, 0.1285945177078247, 0.23104114830493927, 0.23122383654117584, 0.32166653871536255, 0.28219321370124817, 0.22889642417430878, 0.35355842113494873, 0.17264100909233093, 0.18108560144901276, 0.14148472249507904, 0.11218386143445969, 0.0932549312710762, 0.31541430950164795, 0.2723373472690582, 0.22188282012939453, 0.4823247492313385, 0.3707030117511749, 0.4638640880584717, 0.33010727167129517, 0.27012911438941956, 0.17988929152488708, 0.24938565492630005, 0.23070383071899414, 0.19812355935573578, 0.4934283494949341, 0.4376832842826843, 0.34665438532829285, 0.35913071036338806, 0.2339499592781067, 0.20128098130226135, 0.27401643991470337, 0.2263154685497284, 0.20625858008861542, 0.1687500774860382, 0.16084875166416168, 0.10341320186853409, 0.15192736685276031, 0.22094415128231049, 0.20192015171051025, 0.12268166244029999, 0.09678465873003006, 0.11812073737382889, 0.174026221036911, 0.15860332548618317, 0.10960868000984192, 0.17731548845767975, 0.21416912972927094, 0.22475790977478027, 0.1956997662782669, 0.1097303256392479, 0.09864044934511185, 0.1618845909833908, 0.1267060935497284, 0.19916418194770813, 0.25621727108955383, 0.17550991475582123, 0.25724050402641296, 0.2680603861808777, 0.28324228525161743, 0.21210716664791107, 0.19381670653820038, 0.2714286148548126, 0.47797533869743347, 0.43308836221694946, 0.48194220662117004, 0.2943379580974579, 0.28632357716560364, 0.22386282682418823, 0.18734398484230042, 0.4785465896129608, 0.47795793414115906]</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.7031245231628418</v>
+        <v>0.7994914650917053</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.8460159999958705</v>
+        <v>0.8615062000026228</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005755210884325649</v>
+        <v>0.005860586394575666</v>
       </c>
     </row>
     <row r="4">
@@ -685,11 +685,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0.9772671461105347, 0.9816060662269592, 0.9890308976173401, 0.9842551946640015, 0.9792301058769226, 0.9776999354362488, 0.9850775599479675, 0.9441346526145935, 0.9675337672233582, 0.9918150305747986, 0.9930830001831055, 0.989550769329071, 0.9623175859451294, 0.7570192217826843, 0.6830055713653564, 0.725529134273529, 0.6956596970558167, 0.736625611782074, 0.7381873726844788, 0.7372300028800964, 0.9835899472236633, 0.9854416847229004, 0.9882282614707947, 0.8387972116470337, 0.834336519241333, 0.910931408405304, 0.9852228164672852, 0.9905339479446411, 0.9925271272659302, 0.9864019751548767, 0.940081775188446, 0.9495540261268616, 0.741490364074707, 0.6083164215087891, 0.5738371014595032, 0.7866317629814148, 0.9255223870277405, 0.8528080582618713, 0.9776754379272461, 0.9861867427825928, 0.9782352447509766, 0.7907372713088989, 0.6037459373474121, 0.5869944095611572, 0.5401862263679504, 0.599353015422821, 0.725168764591217, 0.8543071746826172, 0.8370239734649658, 0.8905968070030212, 0.9594886898994446, 0.9783306121826172, 0.9846698045730591, 0.9917565584182739, 0.9775528907775879, 0.9541918635368347, 0.9844991564750671, 0.983619749546051, 0.9850503206253052, 0.9868385195732117, 0.992110550403595, 0.9937958717346191, 0.9823624491691589, 0.9827316403388977, 0.9742329120635986, 0.9900169968605042, 0.9904780387878418, 0.9885733127593994, 0.9877479076385498, 0.9820350408554077, 0.9770206212997437, 0.9856805801391602, 0.9857262372970581, 0.9861754775047302, 0.984891414642334, 0.9689916372299194, 0.9428024888038635, 0.6003850698471069, 0.597750723361969, 0.674750030040741, 0.8995490670204163, 0.8635101914405823, 0.9518234729766846, 0.9846120476722717, 0.9847428798675537, 0.974489152431488, 0.45729324221611023, 0.4108533263206482, 0.6048435568809509, 0.7597148418426514, 0.7160384654998779, 0.802225649356842, 0.8204581141471863, 0.9237219095230103, 0.8619694113731384, 0.9259782433509827, 0.9500590562820435, 0.9134657382965088, 0.9531082510948181, 0.9444584250450134, 0.9323813319206238, 0.8561473488807678, 0.693955659866333, 0.7629740834236145, 0.9635129570960999, 0.943548321723938, 0.9207364320755005, 0.8986865282058716, 0.8054531216621399, 0.7428361773490906, 0.8639671802520752, 0.9277815222740173, 0.8132563829421997, 0.5546177625656128, 0.6412218809127808, 0.6661470532417297, 0.7349708080291748, 0.6025795340538025, 0.6859462261199951, 0.496727854013443, 0.3834865093231201, 0.3317982852458954, 0.41180551052093506, 0.3772207498550415, 0.3672944903373718, 0.4044067859649658, 0.3975979685783386, 0.5475900173187256, 0.5781882405281067, 0.5369963645935059, 0.5434667468070984, 0.5456066727638245, 0.3609219491481781, 0.28450557589530945, 0.24370260536670685, 0.2558019757270813, 0.2302386313676834, 0.24191488325595856, 0.27456730604171753, 0.3554367423057556, 0.35922548174858093, 0.3228793740272522, 0.3568374216556549, 0.33491137623786926, 0.3476720452308655, 0.35174277424812317, 0.35276108980178833]</t>
+          <t>[0.9904019236564636, 0.9908959269523621, 0.9954491257667542, 0.9935454726219177, 0.9918879866600037, 0.9929819107055664, 0.9928836822509766, 0.982928991317749, 0.9939805269241333, 0.9962862730026245, 0.99639493227005, 0.9963456988334656, 0.9903077483177185, 0.9077352285385132, 0.8676544427871704, 0.893112301826477, 0.8204382061958313, 0.8343508243560791, 0.8338079452514648, 0.8078199028968811, 0.9894325733184814, 0.9899466633796692, 0.9934123158454895, 0.9064202904701233, 0.9361673593521118, 0.9691420793533325, 0.9916566610336304, 0.9947953820228577, 0.9954231381416321, 0.9882336854934692, 0.9560890793800354, 0.968559980392456, 0.858886182308197, 0.7498562335968018, 0.7165378332138062, 0.920015275478363, 0.9725027084350586, 0.9454309344291687, 0.9922217726707458, 0.994814932346344, 0.9922999143600464, 0.9239977598190308, 0.7741470336914062, 0.7595928907394409, 0.7607818245887756, 0.7979379296302795, 0.8521965742111206, 0.9199724793434143, 0.9211031794548035, 0.9488300085067749, 0.9746531844139099, 0.9813372492790222, 0.985714316368103, 0.9899152517318726, 0.9843630194664001, 0.9694449305534363, 0.9909890294075012, 0.9907940030097961, 0.989956259727478, 0.9905270338058472, 0.9926077127456665, 0.993996262550354, 0.9849982857704163, 0.9799662232398987, 0.9772821664810181, 0.9912919402122498, 0.9913971424102783, 0.9908046722412109, 0.9891876578330994, 0.9859734773635864, 0.9819465279579163, 0.9896851778030396, 0.9889045357704163, 0.9919742941856384, 0.9898123145103455, 0.9784414172172546, 0.9682166576385498, 0.7853801250457764, 0.7352502942085266, 0.7934685349464417, 0.9400593042373657, 0.8967742919921875, 0.9633068442344666, 0.9910551309585571, 0.9912660717964172, 0.9874990582466125, 0.6033874154090881, 0.5688197016716003, 0.7422433495521545, 0.8765953183174133, 0.852399468421936, 0.9136728048324585, 0.9130083918571472, 0.9671145081520081, 0.9078148603439331, 0.9622039794921875, 0.9775151610374451, 0.9626184105873108, 0.9840733408927917, 0.9814668297767639, 0.9775975346565247, 0.9038511514663696, 0.7173409461975098, 0.8338583707809448, 0.9825740456581116, 0.9693231582641602, 0.9664316177368164, 0.9589162468910217, 0.8925856351852417, 0.8444010615348816, 0.9380588531494141, 0.9618081450462341, 0.8888887166976929, 0.6777092814445496, 0.7139769792556763, 0.707371175289154, 0.8522597551345825, 0.7550042867660522, 0.7827267646789551, 0.707205057144165, 0.5820090174674988, 0.46071872115135193, 0.5406618118286133, 0.5347315073013306, 0.4942549169063568, 0.6710743308067322, 0.6520705819129944, 0.8031254410743713, 0.785835325717926, 0.73714280128479, 0.7407207489013672, 0.8140583038330078, 0.5320901870727539, 0.3749822676181793, 0.2652082145214081, 0.26480284333229065, 0.2287610024213791, 0.269461065530777, 0.31980040669441223, 0.49134451150894165, 0.4545428454875946, 0.3850851058959961, 0.47815102338790894, 0.4292493164539337, 0.3992787003517151, 0.4155846834182739, 0.41618812084198]</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.9937958717346191</v>
+        <v>0.99639493227005</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.8715785999957006</v>
+        <v>0.8948552000074415</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005929106122419732</v>
+        <v>0.006087450340186677</v>
       </c>
     </row>
     <row r="5">
@@ -725,11 +725,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.9963866472244263, 0.9963064193725586, 0.9971069693565369, 0.9964323043823242, 0.9953393936157227, 0.9951595664024353, 0.9938457608222961, 0.9499226212501526, 0.9211438298225403, 0.9866849780082703, 0.980684220790863, 0.9570461511611938, 0.9635716080665588, 0.9706409573554993, 0.9411560893058777, 0.9437429904937744, 0.8320255279541016, 0.8758705258369446, 0.9256070256233215, 0.9045095443725586, 0.9248678684234619, 0.8853371143341064, 0.8811951875686646, 0.8481078147888184, 0.9913251399993896, 0.9805945754051208, 0.9863553643226624, 0.9914717078208923, 0.9890788197517395, 0.9758031368255615, 0.9937559366226196, 0.9933329224586487, 0.9956046342849731, 0.9946793913841248, 0.9941444993019104, 0.9936969876289368, 0.9817187190055847, 0.9741360545158386, 0.9719300866127014, 0.9286785125732422, 0.9414575695991516, 0.8980170488357544, 0.9444366097450256, 0.8833814859390259, 0.8489930033683777, 0.7879793047904968, 0.8360653519630432, 0.7569085955619812, 0.7004226446151733, 0.6335932016372681, 0.730259895324707, 0.9145551323890686, 0.8770126104354858, 0.8412458896636963, 0.9224827289581299, 0.9129930138587952, 0.9620636105537415, 0.9714127779006958, 0.9809101223945618, 0.9863112568855286, 0.9929212927818298, 0.9918839931488037, 0.9899966716766357, 0.9852210879325867, 0.976966917514801, 0.9650611877441406, 0.9809550642967224, 0.9863025546073914, 0.9904358983039856, 0.9803717732429504, 0.9640780687332153, 0.9294677376747131, 0.9594648480415344, 0.8425458669662476, 0.8132306933403015, 0.8617901802062988, 0.9053130149841309, 0.8201192617416382, 0.7430132627487183, 0.7589300870895386, 0.7447492480278015, 0.8628830313682556, 0.7974655032157898, 0.9102122187614441, 0.8471766114234924, 0.7622668743133545, 0.808487057685852, 0.9519672393798828, 0.9246103763580322, 0.898756742477417, 0.9686795473098755, 0.9511953592300415, 0.9404643177986145, 0.8827170133590698, 0.8444087505340576, 0.7215011119842529, 0.5273070931434631, 0.531424343585968, 0.4821068048477173, 0.7172038555145264, 0.703822672367096, 0.6785820722579956, 0.7131179571151733, 0.6019082069396973, 0.6760425567626953, 0.5773835182189941, 0.4961048364639282, 0.5519571304321289, 0.9344934821128845, 0.9607191681861877, 0.9469960927963257, 0.9908831715583801, 0.980928361415863, 0.9782123565673828, 0.9704407453536987, 0.9497956037521362, 0.934655487537384, 0.9672259092330933, 0.9129617214202881, 0.906413733959198, 0.9875763654708862, 0.9938791990280151, 0.9943335056304932, 0.9541573524475098, 0.74244225025177, 0.619223415851593, 0.41884732246398926, 0.36273062229156494, 0.34926939010620117, 0.4787308871746063, 0.40036436915397644, 0.33619239926338196, 0.6122958660125732, 0.7275218963623047, 0.7901075482368469, 0.8016835451126099, 0.71698397397995, 0.582132875919342, 0.6883553266525269, 0.7519230246543884, 0.654144287109375, 0.5710147619247437, 0.5698680281639099, 0.6680077314376831, 0.7521547079086304, 0.7135735750198364, 0.7131547331809998]</t>
+          <t>[0.9964045286178589, 0.9964487552642822, 0.9969899654388428, 0.9969942569732666, 0.9966832995414734, 0.9964721202850342, 0.9946488738059998, 0.9725604057312012, 0.9484823942184448, 0.9893758296966553, 0.9894009232521057, 0.9673486948013306, 0.9678810834884644, 0.9733017086982727, 0.9456021785736084, 0.9528147578239441, 0.8060013055801392, 0.8606995940208435, 0.9460277557373047, 0.9419500827789307, 0.9548223614692688, 0.913371741771698, 0.919942319393158, 0.9176036715507507, 0.994379460811615, 0.9854744672775269, 0.9904449582099915, 0.9922307133674622, 0.9898518323898315, 0.9787902235984802, 0.9946349859237671, 0.9951091408729553, 0.9966825842857361, 0.9958782196044922, 0.9957308173179626, 0.9958664178848267, 0.9911547899246216, 0.989613950252533, 0.9891442656517029, 0.956839382648468, 0.9621564149856567, 0.9440760016441345, 0.9623239636421204, 0.8961862325668335, 0.8590853810310364, 0.8240898847579956, 0.8636223077774048, 0.8199339509010315, 0.7572542428970337, 0.6474767923355103, 0.6800092458724976, 0.95395827293396, 0.901143491268158, 0.8684983253479004, 0.9557197093963623, 0.9450955986976624, 0.9754729866981506, 0.9845662713050842, 0.9864593744277954, 0.988298237323761, 0.9925203323364258, 0.992576003074646, 0.9908490180969238, 0.9920156002044678, 0.9886391162872314, 0.9830099940299988, 0.9835219383239746, 0.9894379377365112, 0.9923149943351746, 0.9892454147338867, 0.9832159876823425, 0.9724170565605164, 0.9743583798408508, 0.9259180426597595, 0.8972592949867249, 0.9390289187431335, 0.9413453340530396, 0.884002685546875, 0.8167901635169983, 0.8378416299819946, 0.8040043115615845, 0.9360637068748474, 0.8409866690635681, 0.9297308325767517, 0.912316620349884, 0.8428401947021484, 0.8924715518951416, 0.983472466468811, 0.9720549583435059, 0.9636262059211731, 0.9853099584579468, 0.9710502624511719, 0.9573826789855957, 0.9190157055854797, 0.877985417842865, 0.8191766142845154, 0.6879542469978333, 0.6855108141899109, 0.6513763666152954, 0.8600623607635498, 0.8729037046432495, 0.8685798645019531, 0.8727863430976868, 0.7004020810127258, 0.8019675612449646, 0.6980670094490051, 0.5544031262397766, 0.6099039912223816, 0.9634975790977478, 0.9701026678085327, 0.9502291679382324, 0.9918485879898071, 0.9833618998527527, 0.9822600483894348, 0.9741896986961365, 0.958063542842865, 0.9505534768104553, 0.9888706803321838, 0.9636852145195007, 0.9574725031852722, 0.9935929179191589, 0.9961692690849304, 0.9963197708129883, 0.987506628036499, 0.8662233352661133, 0.7851998209953308, 0.44530269503593445, 0.3447304666042328, 0.33978378772735596, 0.5783712863922119, 0.458836168050766, 0.3531045615673065, 0.7765868306159973, 0.8787396550178528, 0.9175539016723633, 0.9243393540382385, 0.8352854251861572, 0.6998717784881592, 0.638966977596283, 0.7404923439025879, 0.5670642852783203, 0.4185752868652344, 0.4612829089164734, 0.6304690837860107, 0.7237306237220764, 0.662422239780426, 0.6622254848480225]</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.9971069693565369</v>
+        <v>0.9969942569732666</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.8370037999993656</v>
+        <v>0.8958940000011353</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005693903401356229</v>
+        <v>0.006094517006810444</v>
       </c>
     </row>
     <row r="6">
@@ -765,11 +765,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.4001586139202118, 0.491717666387558, 0.6422263979911804, 0.6243472099304199, 0.6919729113578796, 0.7483236193656921, 0.7600868940353394, 0.7564395666122437, 0.7512655258178711, 0.8397080898284912, 0.8591485023498535, 0.7889949679374695, 0.7408378720283508, 0.6791120767593384, 0.46661391854286194, 0.5464965105056763, 0.5806407332420349, 0.38777127861976624, 0.3425622284412384, 0.41683223843574524, 0.4922299087047577, 0.5189802050590515, 0.5075719356536865, 0.8103317022323608, 0.7712580561637878, 0.7393599152565002, 0.49461817741394043, 0.4319094121456146, 0.5554032325744629, 0.642062783241272, 0.4307725131511688, 0.42403513193130493, 0.6762029528617859, 0.7336170673370361, 0.7842554450035095, 0.5850404500961304, 0.680801510810852, 0.6664299368858337, 0.857813835144043, 0.858024537563324, 0.7650776505470276, 0.4541487991809845, 0.5789276361465454, 0.6600127220153809, 0.8072987794876099, 0.7262446284294128, 0.7907885909080505, 0.518754780292511, 0.6635988354682922, 0.5152872800827026, 0.4311377704143524, 0.37044331431388855, 0.40124571323394775, 0.5081425309181213, 0.4152061343193054, 0.6197718381881714, 0.9380037784576416, 0.8459252119064331, 0.7974992394447327, 0.8256129026412964, 0.7773001790046692, 0.8753708600997925, 0.880072832107544, 0.8464545011520386, 0.7200453877449036, 0.5791998505592346, 0.6560296416282654, 0.5374499559402466, 0.5988409519195557, 0.5939014554023743]</t>
+          <t>[0.31392285227775574, 0.427285373210907, 0.6960902214050293, 0.665778398513794, 0.7331743240356445, 0.7636279463768005, 0.7444944381713867, 0.7596988081932068, 0.7667691111564636, 0.8667082190513611, 0.8476289510726929, 0.7538480162620544, 0.7713766694068909, 0.6978210806846619, 0.5090881586074829, 0.5602930188179016, 0.6227390766143799, 0.37503376603126526, 0.3417713940143585, 0.4175197184085846, 0.4420454502105713, 0.4852326810359955, 0.45603880286216736, 0.7319449186325073, 0.6629482507705688, 0.6049183011054993, 0.5295960903167725, 0.43635275959968567, 0.5375642776489258, 0.734197199344635, 0.44483765959739685, 0.37970981001853943, 0.6335301995277405, 0.75620037317276, 0.8212092518806458, 0.5979745388031006, 0.7549053430557251, 0.7431278228759766, 0.8754561543464661, 0.8183829188346863, 0.7337917685508728, 0.48223161697387695, 0.6028110980987549, 0.6556217670440674, 0.8323779106140137, 0.6855025291442871, 0.8049023151397705, 0.5468436479568481, 0.7024350762367249, 0.556887149810791, 0.42923492193222046, 0.3654075860977173, 0.4043997824192047, 0.44584786891937256, 0.3591148257255554, 0.6283211708068848, 0.9663847088813782, 0.8897366523742676, 0.8722215294837952, 0.8828300833702087, 0.8532941937446594, 0.9200475215911865, 0.8891176581382751, 0.8725627660751343, 0.8233509063720703, 0.6590327620506287, 0.7229312658309937, 0.6079437136650085, 0.7517925500869751, 0.7469069361686707]</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.9380037784576416</v>
+        <v>0.9663847088813782</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -783,10 +783,10 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.4064502000110224</v>
+        <v>0.4365535999968415</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005806431428728891</v>
+        <v>0.006236479999954879</v>
       </c>
     </row>
     <row r="7">
@@ -805,11 +805,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[0.7375394105911255, 0.7936391830444336, 0.9333130121231079, 0.946584165096283, 0.9298737645149231, 0.8621810078620911, 0.8304824829101562, 0.7799451351165771, 0.6609563231468201, 0.45501595735549927, 0.39011773467063904, 0.3603864312171936, 0.4909884035587311, 0.3858723044395447, 0.3755143880844116, 0.29482221603393555, 0.32315704226493835, 0.5014474987983704, 0.3328581154346466, 0.3642401099205017, 0.3943321704864502, 0.42525628209114075, 0.46891292929649353, 0.8476896286010742, 0.7665374279022217, 0.9264625310897827, 0.9725364446640015, 0.9573403000831604, 0.9581509828567505, 0.9531018733978271, 0.9686440825462341, 0.9523251056671143, 0.7295953631401062, 0.630911648273468, 0.6849011778831482, 0.758997917175293, 0.787364661693573, 0.7287668585777283, 0.5119288563728333, 0.4093008041381836, 0.36428311467170715, 0.4234791100025177, 0.43717265129089355, 0.3627496063709259, 0.22058840095996857, 0.23947402834892273, 0.21972332894802094, 0.39275166392326355, 0.5562965273857117, 0.5948902368545532, 0.48740628361701965, 0.40588781237602234, 0.36308038234710693, 0.9370645880699158, 0.9411102533340454, 0.9465997815132141, 0.9619471430778503, 0.9654422402381897, 0.9223628640174866, 0.47529444098472595, 0.4872531592845917, 0.4117692708969116, 0.549380898475647, 0.5024850368499756, 0.5117203593254089, 0.5084698796272278, 0.338685005903244, 0.4133455455303192, 0.679006814956665, 0.7680469751358032, 0.7810015678405762, 0.7640401124954224, 0.7238833904266357, 0.7833450436592102, 0.7961498498916626, 0.685322642326355, 0.7819496393203735, 0.7569069266319275, 0.6553666591644287, 0.5418539643287659, 0.94983971118927, 0.9807947278022766, 0.9852922558784485, 0.8800202012062073, 0.8435091972351074, 0.8364213705062866, 0.5331045985221863, 0.5434094667434692, 0.558155357837677, 0.8532352447509766, 0.7752239108085632, 0.8051151037216187, 0.911108136177063, 0.9041740894317627, 0.6943016052246094, 0.6505180597305298, 0.5731852054595947, 0.45989638566970825, 0.5258128643035889, 0.3988102972507477, 0.49275991320610046, 0.8067204356193542, 0.7490596175193787, 0.7628936767578125, 0.8058434724807739, 0.883267879486084, 0.9198289513587952, 0.9747886657714844, 0.9631372094154358, 0.9355744123458862, 0.9391831159591675, 0.9281591773033142, 0.9354547262191772, 0.8013584017753601, 0.7610747218132019, 0.7141275405883789, 0.7124500870704651, 0.7828254699707031, 0.4879867732524872, 0.5772714018821716, 0.7125704288482666, 0.5657128095626831, 0.22240935266017914, 0.2425418645143509, 0.2605781853199005, 0.25218716263771057, 0.20847181975841522, 0.21774736046791077, 0.3804531693458557, 0.3810180425643921, 0.4925724267959595, 0.49422407150268555]</t>
+          <t>[0.7355936765670776, 0.8253152370452881, 0.9581269025802612, 0.9716633558273315, 0.9662567377090454, 0.8737666606903076, 0.8328734636306763, 0.7980663776397705, 0.6390407681465149, 0.3478355407714844, 0.25407883524894714, 0.2190176248550415, 0.3643319010734558, 0.2774289548397064, 0.24401582777500153, 0.191262885928154, 0.24363918602466583, 0.4334412217140198, 0.2580918073654175, 0.30197253823280334, 0.1774405688047409, 0.25170090794563293, 0.32893940806388855, 0.8526323437690735, 0.7450613975524902, 0.9306650161743164, 0.9669151902198792, 0.9355039596557617, 0.9393384456634521, 0.9596155881881714, 0.9779550433158875, 0.9706535339355469, 0.597069501876831, 0.5468460917472839, 0.6148315668106079, 0.7762352824211121, 0.805971622467041, 0.6575654149055481, 0.32506608963012695, 0.21612153947353363, 0.19687768816947937, 0.26258817315101624, 0.2781484127044678, 0.1971765011548996, 0.09860581904649734, 0.10769511759281158, 0.1336466521024704, 0.24359332025051117, 0.41877949237823486, 0.5074766278266907, 0.33744198083877563, 0.2809199392795563, 0.26602301001548767, 0.9589846730232239, 0.9573667049407959, 0.9646840691566467, 0.972713828086853, 0.9734696745872498, 0.9405901432037354, 0.37198585271835327, 0.30857643485069275, 0.22426487505435944, 0.2774500250816345, 0.2531038522720337, 0.198167085647583, 0.35803499817848206, 0.2716667056083679, 0.3708529472351074, 0.6128822565078735, 0.6755456328392029, 0.6028943657875061, 0.5683685541152954, 0.550707221031189, 0.6626037359237671, 0.7270668745040894, 0.6467108726501465, 0.730280876159668, 0.6579514741897583, 0.5152459740638733, 0.35476186871528625, 0.9543610215187073, 0.9831616878509521, 0.9887474179267883, 0.9208497405052185, 0.8881551027297974, 0.8411973714828491, 0.45840832591056824, 0.47852352261543274, 0.5473564267158508, 0.9130671620368958, 0.8445054888725281, 0.8638923168182373, 0.9444072842597961, 0.8998314142227173, 0.5747418999671936, 0.5425981879234314, 0.48289984464645386, 0.3456123173236847, 0.4795977473258972, 0.3878229260444641, 0.5449973344802856, 0.8760560154914856, 0.7972115874290466, 0.7915055155754089, 0.872976541519165, 0.9057554602622986, 0.9353966116905212, 0.9738287925720215, 0.9624757170677185, 0.9294814467430115, 0.9506232738494873, 0.9349644780158997, 0.9355847239494324, 0.7898336052894592, 0.712493360042572, 0.6569527983665466, 0.6066106557846069, 0.641330897808075, 0.28773435950279236, 0.4411066472530365, 0.5995706915855408, 0.4349706768989563, 0.14087624847888947, 0.13363517820835114, 0.16113203763961792, 0.09779951721429825, 0.05702940747141838, 0.08731617033481598, 0.20766393840312958, 0.17294205725193024, 0.3318811357021332, 0.333705872297287]</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.9852922558784485</v>
+        <v>0.9887474179267883</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.7334261999931186</v>
+        <v>0.7749112000019522</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005556259090856959</v>
+        <v>0.005870539393954184</v>
       </c>
     </row>
     <row r="8">
@@ -845,11 +845,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0.9959413409233093, 0.9966585636138916, 0.9962013363838196, 0.9975962042808533, 0.9975796341896057, 0.997061550617218, 0.996374785900116, 0.9969913959503174, 0.9973987340927124, 0.9967643022537231, 0.9970431923866272, 0.9960073828697205, 0.9961971044540405, 0.9964728951454163, 0.9960604310035706, 0.9969469904899597, 0.9955667853355408, 0.9966478943824768, 0.997539758682251, 0.9977546334266663, 0.9973611235618591, 0.997568666934967, 0.9965266585350037, 0.9962278604507446, 0.9971393346786499, 0.9967424273490906, 0.9962596893310547, 0.9978122711181641, 0.9967460632324219, 0.9968177080154419, 0.9965152740478516, 0.9965775609016418, 0.9963969588279724, 0.9971640706062317, 0.9962510466575623, 0.9962522387504578, 0.995783805847168, 0.9964017868041992, 0.9965505599975586, 0.9970953464508057, 0.9961504936218262, 0.9954100251197815, 0.9983141422271729, 0.9977473616600037, 0.99750155210495, 0.9972700476646423, 0.996131181716919, 0.9964458346366882, 0.9966124892234802, 0.9967554211616516, 0.9968289732933044, 0.9961913824081421, 0.9947525262832642, 0.9920463562011719, 0.9961968660354614, 0.9957411289215088, 0.9959415793418884, 0.9968936443328857, 0.9973379969596863, 0.997287392616272, 0.9971745014190674, 0.9969232678413391, 0.9962456822395325, 0.9961016178131104, 0.9955736398696899, 0.9950514435768127, 0.9958844780921936, 0.9977043271064758, 0.998332679271698, 0.9979323148727417, 0.9962937235832214, 0.9967447519302368, 0.998580813407898, 0.9977260231971741, 0.9974570870399475, 0.9977485537528992, 0.9963566064834595, 0.9963082075119019, 0.9978442192077637, 0.9966424703598022, 0.9975226521492004, 0.9977942705154419, 0.9970519542694092, 0.9979683756828308, 0.9983147382736206, 0.9971743822097778, 0.9970943927764893, 0.998024582862854, 0.9981424808502197, 0.9969730377197266, 0.99798583984375, 0.9973539113998413, 0.9982423782348633, 0.9983325600624084, 0.9975420236587524, 0.9975661039352417, 0.9980300068855286, 0.9976116418838501, 0.9974161386489868, 0.9981108903884888, 0.9973549842834473, 0.9971113204956055, 0.9960179924964905, 0.9956988096237183, 0.9974536299705505, 0.998281717300415, 0.9980319142341614, 0.9982149600982666, 0.9981430768966675, 0.9980582594871521, 0.998084545135498, 0.9975549578666687, 0.9968197345733643, 0.9970489144325256, 0.9980002045631409, 0.9968959093093872, 0.9965619444847107, 0.9978640675544739, 0.9974203109741211, 0.9968804121017456, 0.9970918893814087, 0.997051477432251, 0.9978680610656738, 0.9971809387207031, 0.9969090819358826, 0.9964817762374878, 0.9974441528320312, 0.997089684009552, 0.9973714351654053, 0.9981986880302429, 0.9981855750083923]</t>
+          <t>[0.9964193105697632, 0.9969815611839294, 0.996637225151062, 0.9972461462020874, 0.9973288774490356, 0.9969338178634644, 0.9970888495445251, 0.9973891377449036, 0.9977906942367554, 0.996350884437561, 0.9966721534729004, 0.9963791966438293, 0.9973353743553162, 0.9974666833877563, 0.9973141551017761, 0.9977479577064514, 0.996839165687561, 0.9976274371147156, 0.9976081848144531, 0.9975948929786682, 0.9963207244873047, 0.9974831938743591, 0.9967283010482788, 0.9970647692680359, 0.9975329637527466, 0.997144877910614, 0.9966608285903931, 0.9975515007972717, 0.9957199692726135, 0.9954231381416321, 0.9957718253135681, 0.9962383508682251, 0.996181845664978, 0.9962001442909241, 0.9955838322639465, 0.9960921406745911, 0.9962809681892395, 0.9963604807853699, 0.9968898892402649, 0.9974493384361267, 0.9964512586593628, 0.9960466027259827, 0.9984232187271118, 0.9979907274246216, 0.9977422952651978, 0.9974644184112549, 0.9956820011138916, 0.9961735606193542, 0.9956344962120056, 0.9961496591567993, 0.9963279366493225, 0.9965200424194336, 0.9954785704612732, 0.9937893748283386, 0.9967195391654968, 0.9964392781257629, 0.996408998966217, 0.9967504739761353, 0.9969172477722168, 0.9971721768379211, 0.9970589876174927, 0.9972409009933472, 0.996669352054596, 0.9962944388389587, 0.9956142902374268, 0.9951632022857666, 0.9954290390014648, 0.9969887137413025, 0.9981580376625061, 0.9981377124786377, 0.9969171285629272, 0.9975520968437195, 0.9986400008201599, 0.9980431795120239, 0.9972037076950073, 0.9966421127319336, 0.9931190013885498, 0.9928735494613647, 0.9970809817314148, 0.9939437508583069, 0.9956778883934021, 0.9973934888839722, 0.9970511198043823, 0.9981119632720947, 0.9981716871261597, 0.9967492818832397, 0.9970046877861023, 0.9982410669326782, 0.9982069730758667, 0.997075080871582, 0.9977565407752991, 0.996780276298523, 0.9981175661087036, 0.998595654964447, 0.9977176189422607, 0.9977483153343201, 0.9979782700538635, 0.9970195889472961, 0.9966703057289124, 0.9978640675544739, 0.9972077012062073, 0.9974275231361389, 0.9971585273742676, 0.9968711733818054, 0.9977158308029175, 0.9978669881820679, 0.9976465106010437, 0.9978918433189392, 0.9978675842285156, 0.9980233907699585, 0.9977039694786072, 0.9970614314079285, 0.9948776960372925, 0.9960153698921204, 0.9969261288642883, 0.9956121444702148, 0.995305597782135, 0.9973524808883667, 0.9966312050819397, 0.9958756566047668, 0.9973657727241516, 0.9973816275596619, 0.9984317421913147, 0.9974663257598877, 0.9977471232414246, 0.9972550272941589, 0.9972662925720215, 0.9965524673461914, 0.9971721768379211, 0.9980483055114746, 0.9980366826057434]</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.9985808134078979</v>
+        <v>0.9986400008201599</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.734184999979334</v>
+        <v>0.7454998000030173</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005604465648697206</v>
+        <v>0.005690838167961964</v>
       </c>
     </row>
     <row r="9">
@@ -885,11 +885,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[0.17385229468345642, 0.162048801779747, 0.1034013032913208, 0.26385781168937683, 0.19029352068901062, 0.22503353655338287, 0.3170892000198364, 0.3507147431373596, 0.27475422620773315, 0.2475709468126297, 0.2572290003299713, 0.29282712936401367, 0.6112847924232483, 0.5460830926895142, 0.6999234557151794, 0.7567394375801086, 0.6243128180503845, 0.5175293684005737, 0.4491543769836426, 0.5679723024368286, 0.5399029850959778, 0.8982075452804565, 0.8334758877754211, 0.8130899667739868, 0.7892290949821472, 0.6906218528747559, 0.6832834482192993, 0.7517027854919434, 0.6808997392654419, 0.7745231986045837, 0.6703730821609497, 0.7040611505508423, 0.6723349094390869, 0.9386699795722961, 0.8845905661582947, 0.8052268624305725, 0.6463958024978638, 0.6260901689529419, 0.4787765443325043, 0.6829708218574524, 0.5374372601509094, 0.6896014213562012, 0.7524551153182983, 0.6203857660293579, 0.5438392162322998, 0.5696873664855957, 0.5364283919334412, 0.5418171286582947, 0.5994394421577454, 0.526784360408783, 0.5182347297668457, 0.6624011993408203, 0.6653586626052856, 0.6720012426376343, 0.6293749809265137, 0.5216986536979675, 0.545820415019989, 0.36592549085617065, 0.27233847975730896, 0.22186078131198883, 0.4463125467300415, 0.6480247974395752, 0.6315293312072754, 0.6488409638404846, 0.5035654306411743, 0.4183596968650818, 0.4302993416786194, 0.5003101229667664, 0.5582013726234436, 0.5446643233299255, 0.5470511317253113, 0.4394727945327759, 0.5672089457511902, 0.8174929022789001, 0.8155229687690735, 0.793491780757904, 0.7735847234725952, 0.799572765827179, 0.7519996762275696, 0.71119624376297, 0.668563723564148, 0.6435021162033081, 0.6171084642410278, 0.7250177264213562, 0.6217668056488037, 0.5316964387893677, 0.4439820647239685, 0.6155245304107666, 0.5408638715744019, 0.6208631992340088, 0.5930534601211548, 0.647057831287384, 0.6648733019828796, 0.5525446534156799, 0.45180726051330566, 0.6549894213676453, 0.6925917863845825, 0.7538692951202393, 0.8016806244850159, 0.7286053895950317, 0.5608695149421692, 0.6625471115112305, 0.6440187692642212, 0.544812023639679, 0.6737378835678101, 0.5701709389686584, 0.4724297821521759, 0.4511319398880005, 0.6551217436790466, 0.47220057249069214, 0.6308247447013855, 0.7624159455299377, 0.6995121240615845, 0.5785077810287476, 0.4455988109111786, 0.4443379044532776, 0.45966726541519165, 0.49255555868148804, 0.5465335845947266, 0.6603614091873169, 0.54069983959198, 0.382536381483078, 0.5045055747032166, 0.6950819492340088, 0.7059184312820435, 0.6309642195701599, 0.7866779565811157, 0.6965497136116028, 0.747005820274353, 0.6963204145431519, 0.5977128148078918, 0.5959104895591736]</t>
+          <t>[0.13753865659236908, 0.11203743517398834, 0.07229436933994293, 0.24478097259998322, 0.16387690603733063, 0.15997695922851562, 0.22898003458976746, 0.2763674855232239, 0.16801229119300842, 0.1280585378408432, 0.12811891734600067, 0.15542715787887573, 0.5115903615951538, 0.44066116213798523, 0.6459774971008301, 0.7450377345085144, 0.6120059490203857, 0.48114827275276184, 0.27727892994880676, 0.35455894470214844, 0.37313058972358704, 0.898228108882904, 0.8055521845817566, 0.7831947803497314, 0.6764919757843018, 0.5363033413887024, 0.5708402395248413, 0.669184684753418, 0.5595541000366211, 0.7185505032539368, 0.5570387840270996, 0.5619136095046997, 0.5377213954925537, 0.9461640119552612, 0.8779633641242981, 0.7838395237922668, 0.4988536834716797, 0.48353734612464905, 0.32834237813949585, 0.5066773891448975, 0.3387469947338104, 0.49091798067092896, 0.668006181716919, 0.5378320217132568, 0.48461177945137024, 0.4123556315898895, 0.3792631924152374, 0.38511016964912415, 0.45089900493621826, 0.4057927131652832, 0.3518853485584259, 0.5260295271873474, 0.5048878788948059, 0.5792882442474365, 0.47240692377090454, 0.31878119707107544, 0.3561064600944519, 0.21968494355678558, 0.13163432478904724, 0.10843944549560547, 0.33749473094940186, 0.5703513622283936, 0.48479822278022766, 0.5387421250343323, 0.326066792011261, 0.255024790763855, 0.23074589669704437, 0.3399178385734558, 0.38520485162734985, 0.3050464391708374, 0.2741580605506897, 0.19362591207027435, 0.3880811333656311, 0.7200669050216675, 0.7041325569152832, 0.6228406429290771, 0.5555461049079895, 0.5805662870407104, 0.6027469038963318, 0.5220836997032166, 0.45407384634017944, 0.46734508872032166, 0.43759116530418396, 0.6007465124130249, 0.5875779986381531, 0.48618587851524353, 0.40458980202674866, 0.6325273513793945, 0.5246985554695129, 0.5277439951896667, 0.5206723809242249, 0.5695039629936218, 0.6249641180038452, 0.4451395869255066, 0.3308659493923187, 0.5247806310653687, 0.508517324924469, 0.5610232949256897, 0.6796568632125854, 0.537682056427002, 0.39378732442855835, 0.5088660717010498, 0.36610597372055054, 0.29420116543769836, 0.4033127725124359, 0.35454854369163513, 0.28142818808555603, 0.299889475107193, 0.47022321820259094, 0.3028353452682495, 0.3952290415763855, 0.6053653955459595, 0.4996676445007324, 0.36465394496917725, 0.3064219653606415, 0.32719969749450684, 0.3465612828731537, 0.3395856022834778, 0.41319623589515686, 0.5541558265686035, 0.41717812418937683, 0.27209535241127014, 0.3520553708076477, 0.5777063369750977, 0.5837259888648987, 0.5526557564735413, 0.6984624266624451, 0.6111358404159546, 0.7074860334396362, 0.6783372163772583, 0.5145958065986633, 0.5124799013137817]</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.9386699795722961</v>
+        <v>0.9461640119552612</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.748509600001853</v>
+        <v>0.7645177000085823</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00567052727274131</v>
+        <v>0.005791800757640775</v>
       </c>
     </row>
     <row r="10">
@@ -925,11 +925,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[0.9744802713394165, 0.9878266453742981, 0.9880244135856628, 0.9786435961723328, 0.9768393635749817, 0.9761754870414734, 0.9621521234512329, 0.9707520008087158, 0.9643509984016418, 0.9827305674552917, 0.9567830562591553, 0.9478909373283386, 0.9749084115028381, 0.9640696048736572, 0.9691192507743835, 0.9752717614173889, 0.680282473564148, 0.6729801893234253, 0.9677121639251709, 0.9760180711746216, 0.9932102560997009, 0.9934019446372986, 0.9929558038711548, 0.9835875630378723, 0.4336215853691101, 0.2990038990974426, 0.9201396703720093, 0.9727981686592102, 0.988646388053894, 0.983814001083374, 0.9813831448554993, 0.9283834099769592, 0.22332090139389038, 0.17393523454666138, 0.16387136280536652, 0.1643742322921753, 0.23223252594470978, 0.13908736407756805, 0.17615576088428497, 0.12804481387138367, 0.21584552526474, 0.5439338088035583, 0.29302674531936646, 0.3453124165534973, 0.9008450508117676, 0.9657689332962036, 0.9740100502967834, 0.9835429191589355, 0.9883628487586975, 0.9885923862457275, 0.9909465312957764, 0.9893733859062195, 0.9805742502212524, 0.9877068400382996, 0.9831086993217468, 0.9744659066200256, 0.8896809816360474, 0.477825403213501, 0.1726709008216858, 0.1990438550710678, 0.2015363723039627, 0.260606586933136, 0.2124321311712265, 0.21184368431568146, 0.17704196274280548, 0.621017336845398, 0.9746609926223755, 0.959527313709259, 0.9718504548072815, 0.9732392430305481, 0.9680327773094177, 0.9654873609542847, 0.9605547189712524, 0.9507064819335938, 0.9909722805023193, 0.9937026500701904, 0.9929752349853516, 0.9912095069885254, 0.9711913466453552, 0.9154240489006042, 0.9705881476402283, 0.9667105078697205, 0.9602504968643188, 0.5671655535697937, 0.31853368878364563, 0.27189120650291443, 0.4397273361682892, 0.41553011536598206, 0.30001991987228394, 0.410874605178833, 0.608671247959137, 0.5914563536643982, 0.9792425632476807, 0.988722562789917, 0.9838708639144897, 0.9565832018852234, 0.9647763967514038, 0.9378504753112793, 0.9720110297203064, 0.9825289249420166, 0.9821116924285889, 0.977323055267334, 0.9812084436416626, 0.9814919829368591, 0.9599177837371826, 0.9649695754051208, 0.9438941478729248, 0.5680702328681946, 0.4790787398815155, 0.7160601615905762, 0.9023295640945435, 0.7558463215827942, 0.7285354137420654, 0.9378530383110046, 0.937498927116394, 0.9170418381690979, 0.9202559590339661, 0.8473072052001953, 0.7935392260551453, 0.7277955412864685, 0.7297160029411316, 0.6474632024765015, 0.9452786445617676, 0.9501022696495056, 0.833551824092865, 0.5024315118789673, 0.7247021794319153, 0.7804547548294067, 0.9582071304321289, 0.9747055172920227, 0.974577784538269]</t>
+          <t>[0.9833637475967407, 0.989938497543335, 0.9856253266334534, 0.9800558686256409, 0.9824383854866028, 0.9725624918937683, 0.9557628035545349, 0.9717569351196289, 0.9637952446937561, 0.9826112389564514, 0.9619709849357605, 0.9549537897109985, 0.9749802350997925, 0.9728557467460632, 0.9834802746772766, 0.9850254654884338, 0.8245114684104919, 0.891836404800415, 0.9764173030853271, 0.9782384634017944, 0.9917247295379639, 0.9918023943901062, 0.991664707660675, 0.9888688325881958, 0.6678376793861389, 0.526561439037323, 0.9333916306495667, 0.9681337475776672, 0.9830478429794312, 0.9824805855751038, 0.9821316003799438, 0.9418706297874451, 0.24410906434059143, 0.14882226288318634, 0.14129860699176788, 0.27422603964805603, 0.33035311102867126, 0.13855621218681335, 0.1771569550037384, 0.09963894635438919, 0.19612321257591248, 0.6490808725357056, 0.4644056558609009, 0.4502747356891632, 0.9322430491447449, 0.9718096852302551, 0.9686643481254578, 0.978143572807312, 0.9853495955467224, 0.9843029975891113, 0.9896717071533203, 0.9868342280387878, 0.9718603491783142, 0.9813798069953918, 0.976325273513794, 0.9687400460243225, 0.8791075944900513, 0.6449486017227173, 0.1917741447687149, 0.24616719782352448, 0.20143890380859375, 0.30772700905799866, 0.21333883702754974, 0.21707123517990112, 0.17098507285118103, 0.742965042591095, 0.9784702062606812, 0.9635152220726013, 0.9749793410301208, 0.9694361090660095, 0.959168553352356, 0.924894392490387, 0.9254827499389648, 0.9208133816719055, 0.9900835752487183, 0.9943706393241882, 0.9944438338279724, 0.990340530872345, 0.9741464853286743, 0.9104323387145996, 0.9639604091644287, 0.9688277840614319, 0.9712346196174622, 0.856475830078125, 0.5999392867088318, 0.45213595032691956, 0.6093773245811462, 0.5897518396377563, 0.39482685923576355, 0.4389163851737976, 0.7110368609428406, 0.6113213300704956, 0.9883252382278442, 0.9923700094223022, 0.9896783828735352, 0.9767974019050598, 0.9804030656814575, 0.9501371383666992, 0.9701876044273376, 0.983786404132843, 0.9824615120887756, 0.9777265191078186, 0.9821141362190247, 0.9818713665008545, 0.954596757888794, 0.9641631245613098, 0.9479129910469055, 0.6204710602760315, 0.5422472357749939, 0.8810619711875916, 0.9571706056594849, 0.8795028924942017, 0.8584648966789246, 0.9689890742301941, 0.9675145149230957, 0.9587491154670715, 0.9447313547134399, 0.9150670170783997, 0.9052024483680725, 0.8867592811584473, 0.8538095355033875, 0.7999228239059448, 0.9664732813835144, 0.9749611020088196, 0.9210528135299683, 0.6388823986053467, 0.8784351944923401, 0.8927179574966431, 0.9735522270202637, 0.9822825193405151, 0.9822438359260559]</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.9937026500701904</v>
+        <v>0.9944438338279724</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.7554187999921851</v>
+        <v>0.7402755999937654</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005766555725131184</v>
+        <v>0.005650958778578362</v>
       </c>
     </row>
     <row r="11">
@@ -965,11 +965,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[0.5619871020317078, 0.6079169511795044, 0.6228604912757874, 0.5806198120117188, 0.7945775389671326, 0.886920154094696, 0.9105128645896912, 0.8207012414932251, 0.7596116662025452, 0.604995846748352, 0.7237083315849304, 0.680736780166626, 0.38528627157211304, 0.41301342844963074, 0.41124993562698364, 0.33171936869621277, 0.5148287415504456, 0.41332879662513733, 0.4557885229587555, 0.5040568113327026, 0.3539477586746216, 0.31302884221076965, 0.5044246912002563, 0.34907275438308716, 0.3700287342071533, 0.4759797155857086, 0.7360668778419495, 0.6358286738395691, 0.4765327274799347, 0.33713433146476746, 0.254603773355484, 0.3715907335281372, 0.32684120535850525, 0.3278667628765106, 0.22083167731761932, 0.228329598903656, 0.24581293761730194, 0.6607881784439087, 0.518876850605011, 0.6115579605102539, 0.7012267708778381, 0.527276873588562, 0.5766562223434448, 0.42682650685310364, 0.6077479124069214, 0.8205476403236389, 0.8382787108421326, 0.6352543830871582, 0.579196572303772, 0.8822522759437561, 0.862586259841919, 0.8228567242622375, 0.9341054558753967, 0.8761918544769287, 0.8690235614776611, 0.9386641979217529, 0.8929511308670044, 0.910865068435669, 0.3813594579696655, 0.4042513966560364, 0.7306188344955444, 0.8639379143714905, 0.5576359033584595, 0.8193788528442383, 0.7669428586959839, 0.3522813022136688, 0.23191440105438232, 0.32782992720603943, 0.19904574751853943, 0.21101999282836914, 0.28707489371299744, 0.22503145039081573, 0.5196106433868408, 0.6751345992088318, 0.6006624698638916, 0.5540938377380371, 0.2183050960302353, 0.08931628614664078, 0.07428903132677078, 0.09958071261644363, 0.0863814502954483, 0.07632996141910553, 0.12486010044813156, 0.20727935433387756, 0.21990236639976501, 0.18001112341880798, 0.13856954872608185, 0.09463115781545639, 0.17574091255664825, 0.17738205194473267, 0.15021000802516937, 0.17210514843463898, 0.30974164605140686, 0.4517863392829895, 0.5508759021759033, 0.7357580065727234, 0.8008028268814087, 0.6412621736526489, 0.6658020615577698, 0.5603240132331848, 0.8114829659461975, 0.8062988519668579, 0.7943032383918762, 0.24995127320289612, 0.298360139131546, 0.30250197649002075, 0.19002293050289154, 0.17200128734111786, 0.15926650166511536, 0.3626789152622223, 0.27104246616363525, 0.35266831517219543, 0.8418965935707092, 0.8691912293434143, 0.8638028502464294, 0.4241182804107666, 0.4914097487926483, 0.40297284722328186, 0.625899076461792, 0.5203803181648254, 0.39903688430786133, 0.29993605613708496, 0.3162347674369812, 0.2710339426994324, 0.44001296162605286, 0.5231945514678955, 0.5729884505271912, 0.5843583941459656, 0.2223617285490036, 0.14846204221248627, 0.14883263409137726]</t>
+          <t>[0.6108106970787048, 0.713038444519043, 0.7108725905418396, 0.6510677337646484, 0.8120088577270508, 0.9062618613243103, 0.939919114112854, 0.8053809404373169, 0.7410602569580078, 0.5601843595504761, 0.7236950993537903, 0.5321786999702454, 0.19578734040260315, 0.13955844938755035, 0.10263140499591827, 0.11917206645011902, 0.3042728900909424, 0.18299336731433868, 0.22370757162570953, 0.30450913310050964, 0.15618005394935608, 0.13432371616363525, 0.36434033513069153, 0.26578131318092346, 0.30223387479782104, 0.48698195815086365, 0.735983669757843, 0.6337053775787354, 0.3809160888195038, 0.22921234369277954, 0.12994372844696045, 0.17779392004013062, 0.11203578114509583, 0.09628500789403915, 0.07228061556816101, 0.10954245924949646, 0.12243621796369553, 0.5649230480194092, 0.3238297402858734, 0.5194383859634399, 0.5783543586730957, 0.47182416915893555, 0.5531150698661804, 0.34808459877967834, 0.6218445897102356, 0.8008020520210266, 0.8737268447875977, 0.5969494581222534, 0.5497621893882751, 0.9346997737884521, 0.9309597015380859, 0.8764681220054626, 0.9603679180145264, 0.9194425940513611, 0.91568922996521, 0.964948296546936, 0.9089226722717285, 0.9362675547599792, 0.3656527101993561, 0.4939381778240204, 0.8742262125015259, 0.9255260229110718, 0.5826714634895325, 0.8691982626914978, 0.8464804887771606, 0.3853899836540222, 0.2294863611459732, 0.28675922751426697, 0.13365809619426727, 0.1810557246208191, 0.3049856722354889, 0.20567940175533295, 0.5276168584823608, 0.822634756565094, 0.7942348718643188, 0.8295449018478394, 0.5269973278045654, 0.12148960679769516, 0.0731358677148819, 0.10889598727226257, 0.10110322386026382, 0.09043513983488083, 0.2741468846797943, 0.5840676426887512, 0.48048070073127747, 0.28720515966415405, 0.20748819410800934, 0.13779588043689728, 0.2825108468532562, 0.35505610704421997, 0.2511141896247864, 0.27009275555610657, 0.5111363530158997, 0.6599936485290527, 0.6702757477760315, 0.7937285304069519, 0.8330153822898865, 0.6903209686279297, 0.7275667786598206, 0.6410242319107056, 0.9310005307197571, 0.9090001583099365, 0.8902133107185364, 0.24522817134857178, 0.24709558486938477, 0.28675585985183716, 0.12001579999923706, 0.08802422881126404, 0.07781165093183517, 0.4708999693393707, 0.37463611364364624, 0.5313591361045837, 0.9443221092224121, 0.9254381060600281, 0.9298856258392334, 0.4730880856513977, 0.5977525115013123, 0.4538055658340454, 0.6992948055267334, 0.554533839225769, 0.43100255727767944, 0.32297611236572266, 0.32485318183898926, 0.2656792998313904, 0.4538092613220215, 0.5579926371574402, 0.5385702848434448, 0.5971145033836365, 0.23178035020828247, 0.15877211093902588, 0.15947303175926208]</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.9386641979217529</v>
+        <v>0.964948296546936</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.7390710999898147</v>
+        <v>0.7375708000035957</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005641764122059654</v>
+        <v>0.005630311450409127</v>
       </c>
     </row>
     <row r="12">
@@ -1005,11 +1005,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[0.9886264204978943, 0.9707366228103638, 0.95570969581604, 0.9676437377929688, 0.9511228799819946, 0.947882890701294, 0.968434751033783, 0.9656004905700684, 0.9552726149559021, 0.9800195693969727, 0.9784608483314514, 0.984919548034668, 0.9891021251678467, 0.9879639148712158, 0.9854000210762024, 0.990394651889801, 0.9916632175445557, 0.991611659526825, 0.9944407343864441, 0.9930262565612793, 0.9895517230033875, 0.9868469834327698, 0.9876939058303833, 0.9896076321601868, 0.9895268678665161, 0.9901434183120728, 0.9941972494125366, 0.9860045313835144, 0.9677544832229614, 0.976394772529602, 0.9864422082901001, 0.9836359620094299, 0.9854576587677002, 0.9887551069259644, 0.988499104976654, 0.9830631017684937, 0.9760633111000061, 0.9755723476409912, 0.974344789981842, 0.9893213510513306, 0.9865266680717468, 0.9877127408981323, 0.9915953278541565, 0.9949148893356323, 0.9937378168106079, 0.9893100261688232, 0.9848878383636475, 0.9747815132141113, 0.9878165125846863, 0.9866166114807129, 0.9766026139259338, 0.9809797406196594, 0.9806947708129883, 0.9828961491584778, 0.983875036239624, 0.9738053679466248, 0.9541631937026978, 0.9658844470977783, 0.9441055059432983, 0.9388590455055237, 0.9622724056243896, 0.9708113670349121, 0.975508451461792, 0.9354409575462341, 0.9318799376487732, 0.9512198567390442, 0.9802535772323608, 0.9908574223518372, 0.9882264733314514, 0.9926389455795288, 0.9914690852165222, 0.991370677947998, 0.9920669794082642, 0.9923303723335266, 0.9912609457969666, 0.9875698685646057, 0.9753414988517761, 0.9621909856796265, 0.9897789359092712, 0.9908058047294617, 0.9934222102165222, 0.9845888018608093, 0.977618932723999, 0.9793780446052551, 0.9749378561973572, 0.9777966141700745, 0.9775713086128235, 0.9793511629104614, 0.9620488286018372, 0.9492142796516418, 0.9801409840583801, 0.9564496874809265, 0.9561058878898621, 0.9635924696922302, 0.9677497744560242, 0.9743921160697937, 0.9928746223449707, 0.9905948638916016, 0.9909862279891968, 0.9923479557037354, 0.9915223121643066, 0.9908421039581299, 0.9922698736190796, 0.9910277724266052, 0.9879095554351807, 0.9844840168952942, 0.9831176996231079, 0.9865846633911133, 0.9863538146018982, 0.9791014194488525, 0.9749307036399841, 0.9635255932807922, 0.9595091938972473, 0.9660946726799011, 0.976918637752533, 0.9637506604194641, 0.957695722579956, 0.9595458507537842, 0.9331286549568176, 0.9679673314094543, 0.9901612997055054, 0.990170419216156, 0.9907577037811279, 0.9907264709472656, 0.9920135140419006, 0.9853304624557495, 0.9850384593009949, 0.9844025373458862, 0.9738446474075317, 0.9892947673797607, 0.9895012974739075, 0.9894770383834839]</t>
+          <t>[0.9845032691955566, 0.9434533715248108, 0.9281354546546936, 0.9595864415168762, 0.94330894947052, 0.9511221051216125, 0.9672581553459167, 0.9644498229026794, 0.9613728523254395, 0.9810479879379272, 0.9752110242843628, 0.9834560751914978, 0.9887785315513611, 0.9902645349502563, 0.9867957830429077, 0.9922428727149963, 0.992576003074646, 0.9915392994880676, 0.9952113032341003, 0.9937053322792053, 0.9900556802749634, 0.9804690480232239, 0.9827654957771301, 0.9888082146644592, 0.9869197010993958, 0.9878302216529846, 0.9951541423797607, 0.9758618474006653, 0.9335536956787109, 0.9472454786300659, 0.9845118522644043, 0.9836305379867554, 0.9837252497673035, 0.9875648617744446, 0.987409770488739, 0.9820923805236816, 0.9765084385871887, 0.9792744517326355, 0.9790363907814026, 0.9896668195724487, 0.9860127568244934, 0.9861400127410889, 0.9924841523170471, 0.9960646033287048, 0.9954121708869934, 0.9876658916473389, 0.9801212549209595, 0.9648637175559998, 0.9862871766090393, 0.9837678074836731, 0.9674538969993591, 0.9736325740814209, 0.979013204574585, 0.9814870357513428, 0.9842910766601562, 0.9780728220939636, 0.9478299617767334, 0.9636268615722656, 0.9422438740730286, 0.9129692316055298, 0.9551156759262085, 0.9677473306655884, 0.9716798067092896, 0.9328157901763916, 0.9513689279556274, 0.9668453931808472, 0.9777390360832214, 0.9898087978363037, 0.9864621758460999, 0.9931989312171936, 0.9922558069229126, 0.9914358258247375, 0.9915518760681152, 0.9922566413879395, 0.9903280138969421, 0.9861891865730286, 0.9671034812927246, 0.950976550579071, 0.9902021288871765, 0.9899752736091614, 0.9926018118858337, 0.9838179349899292, 0.9726478457450867, 0.9754683971405029, 0.96291184425354, 0.9559950232505798, 0.9619697332382202, 0.9724542498588562, 0.9488508105278015, 0.9414190053939819, 0.969386100769043, 0.9548527002334595, 0.9350715279579163, 0.9471957683563232, 0.9485395550727844, 0.9600176215171814, 0.9933383464813232, 0.990714430809021, 0.9900072813034058, 0.9928419589996338, 0.9923797845840454, 0.9908952713012695, 0.9917578101158142, 0.9903968572616577, 0.9865995645523071, 0.981978714466095, 0.981489360332489, 0.983763575553894, 0.9820965528488159, 0.969925582408905, 0.9673841595649719, 0.9605602025985718, 0.9481679797172546, 0.95720374584198, 0.9644981622695923, 0.9475387334823608, 0.9356355667114258, 0.9399217367172241, 0.9136428236961365, 0.9605912566184998, 0.9909883141517639, 0.99159836769104, 0.9911407828330994, 0.9927043914794922, 0.9932659864425659, 0.9866596460342407, 0.9840821027755737, 0.9810367822647095, 0.9649304151535034, 0.9893752336502075, 0.9902495741844177, 0.9902556538581848]</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.9949148893356323</v>
+        <v>0.9960646033287048</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.7296738000004552</v>
+        <v>0.7505195999983698</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005527831818185266</v>
+        <v>0.005685754545442195</v>
       </c>
     </row>
     <row r="13">
@@ -1045,11 +1045,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[0.9534119963645935, 0.9384520649909973, 0.733328640460968, 0.5242565870285034, 0.3391662836074829, 0.5786800384521484, 0.30013787746429443, 0.4614276885986328, 0.7021809816360474, 0.49457475543022156, 0.7404623627662659, 0.6661523580551147, 0.3684750497341156, 0.6807889342308044, 0.9593276977539062, 0.9064215421676636, 0.9500030875205994, 0.9857351183891296, 0.9861937165260315, 0.983920156955719, 0.9758846759796143, 0.9818241000175476, 0.9527634978294373, 0.9198662638664246, 0.9345455765724182, 0.9171422123908997, 0.9486793279647827, 0.9496697783470154, 0.9005452394485474, 0.6801604628562927, 0.5687843561172485, 0.4336863160133362, 0.4226928651332855, 0.5328309535980225, 0.4598291516304016, 0.4278593361377716, 0.3950069844722748, 0.8085136413574219, 0.9657552242279053, 0.9716501235961914, 0.9867332577705383, 0.9861953258514404, 0.9819605350494385, 0.9730159640312195, 0.9854899644851685, 0.984923243522644, 0.9809532761573792, 0.990319013595581, 0.9900734424591064, 0.982980489730835, 0.9828932881355286, 0.9830551147460938, 0.9807505011558533, 0.9452263712882996, 0.4335605204105377, 0.37334346771240234, 0.6670356392860413, 0.7206439971923828, 0.480048805475235, 0.3817581832408905, 0.3397158682346344, 0.7716559171676636, 0.9528058767318726, 0.9503235816955566, 0.9583339095115662, 0.9858466982841492, 0.9736758470535278, 0.9796718955039978, 0.983946681022644, 0.9852764010429382, 0.9809133410453796, 0.9794924259185791, 0.9799196720123291, 0.9763426184654236, 0.9872722029685974, 0.9843676686286926, 0.9853964447975159, 0.9843817353248596, 0.9797602295875549, 0.9812167882919312, 0.9919438362121582, 0.9854564070701599, 0.9457597136497498, 0.9637110233306885, 0.8660637736320496, 0.7174044847488403, 0.5132139325141907, 0.2772202491760254, 0.23221507668495178, 0.2790139615535736, 0.4315536320209503, 0.6070971488952637, 0.7303961515426636, 0.6200492978096008, 0.6067594289779663, 0.9361162781715393, 0.9480388760566711, 0.9336304664611816, 0.9274519085884094, 0.8823857307434082, 0.888995349407196, 0.6971390247344971, 0.7040629982948303, 0.7896425127983093, 0.7972890138626099, 0.8319878578186035, 0.6729249358177185, 0.6647234559059143, 0.6586444973945618, 0.6856452822685242, 0.8344737887382507, 0.786244809627533, 0.7101479172706604, 0.7944746017456055, 0.5778009295463562, 0.5417804718017578, 0.503700852394104, 0.5201840996742249, 0.5277280211448669, 0.7098791599273682, 0.777280330657959, 0.8134040236473083, 0.9503630995750427, 0.9616044163703918, 0.9738681316375732, 0.9780765175819397, 0.9766751527786255, 0.9524905681610107, 0.9791783094406128, 0.982867956161499, 0.9827889800071716]</t>
+          <t>[0.9445464015007019, 0.9349505305290222, 0.7306726574897766, 0.534270703792572, 0.3575485944747925, 0.6634414196014404, 0.3589000701904297, 0.5640579462051392, 0.7366518378257751, 0.5610669255256653, 0.8616195321083069, 0.7006099820137024, 0.3982059955596924, 0.7071858644485474, 0.9555416107177734, 0.8871060609817505, 0.9416578412055969, 0.9839396476745605, 0.9848245978355408, 0.9841545820236206, 0.9822746515274048, 0.9854819774627686, 0.9671065807342529, 0.9268911480903625, 0.9192934632301331, 0.9044511318206787, 0.9607831239700317, 0.9623157978057861, 0.9342663884162903, 0.7704560160636902, 0.7010595798492432, 0.5536586046218872, 0.625877320766449, 0.7089170217514038, 0.6015586256980896, 0.6674609780311584, 0.49192991852760315, 0.8919861316680908, 0.9767122864723206, 0.973691463470459, 0.9876745343208313, 0.9857119917869568, 0.9799737930297852, 0.968418538570404, 0.9828706979751587, 0.9799756407737732, 0.9794279932975769, 0.9922865629196167, 0.9913771152496338, 0.976302981376648, 0.9866616129875183, 0.9884876608848572, 0.9886690974235535, 0.9616155624389648, 0.42624467611312866, 0.30261239409446716, 0.8412122130393982, 0.892961859703064, 0.7314375042915344, 0.5902962684631348, 0.4406789541244507, 0.8447856903076172, 0.9568580389022827, 0.9445114731788635, 0.9518294334411621, 0.9849564433097839, 0.9686397314071655, 0.9710167646408081, 0.975491464138031, 0.9806933999061584, 0.975393533706665, 0.9718092679977417, 0.9747417569160461, 0.9706413745880127, 0.9870225787162781, 0.9853131175041199, 0.9858512282371521, 0.9813730716705322, 0.9788631796836853, 0.9808048605918884, 0.9928714632987976, 0.9903408885002136, 0.9594458937644958, 0.9758867025375366, 0.9113832116127014, 0.7781189680099487, 0.4707603454589844, 0.21593788266181946, 0.21299435198307037, 0.36696720123291016, 0.573021411895752, 0.778905987739563, 0.8483835458755493, 0.7025787234306335, 0.5609711408615112, 0.9399479627609253, 0.9604203104972839, 0.9525953531265259, 0.9397943615913391, 0.8947581052780151, 0.9033100605010986, 0.753507673740387, 0.8052720427513123, 0.8369066119194031, 0.8635446429252625, 0.8937165141105652, 0.7791046500205994, 0.6804779171943665, 0.6969246864318848, 0.7297638654708862, 0.8984199166297913, 0.8186179399490356, 0.7050502300262451, 0.8188164830207825, 0.6484168767929077, 0.6183931231498718, 0.6200745105743408, 0.703533947467804, 0.6609353423118591, 0.853132426738739, 0.8653523325920105, 0.8761947751045227, 0.9352412223815918, 0.9643898010253906, 0.9747412800788879, 0.9795063734054565, 0.9785349369049072, 0.9401335120201111, 0.979074239730835, 0.9803157448768616, 0.9802891612052917]</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.9919438362121582</v>
+        <v>0.9928714632987976</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.7396189999999478</v>
+        <v>0.7373755000007804</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005645946564885098</v>
+        <v>0.00562882061069298</v>
       </c>
     </row>
     <row r="14">
@@ -1085,11 +1085,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[0.9907812476158142, 0.9886977672576904, 0.9880934357643127, 0.9848796725273132, 0.9819896221160889, 0.975683867931366, 0.9829064011573792, 0.9710260033607483, 0.9637545347213745, 0.9848344326019287, 0.9703158140182495, 0.9625074863433838, 0.958219587802887, 0.9592147469520569, 0.9664629101753235, 0.9784521460533142, 0.9730303883552551, 0.9628168344497681, 0.8722845911979675, 0.7177630066871643, 0.8390863537788391, 0.9594312906265259, 0.957124650478363, 0.9552441239356995, 0.9527236819267273, 0.9526995420455933, 0.9274592399597168, 0.9654732346534729, 0.9530723094940186, 0.9497563242912292, 0.9106106162071228, 0.9292938113212585, 0.9265443086624146, 0.9082483649253845, 0.8232706785202026, 0.7975051403045654, 0.91820228099823, 0.9193232655525208, 0.9080201387405396, 0.8629496097564697, 0.8264544010162354, 0.8617631793022156, 0.8960604667663574, 0.8643127083778381, 0.8807008862495422, 0.9064079523086548, 0.5706144571304321, 0.5743837952613831, 0.7468345165252686, 0.862521767616272, 0.8714809417724609, 0.8966588973999023, 0.8976778388023376, 0.8692967891693115, 0.8827675580978394, 0.9119816422462463, 0.9307922720909119, 0.9281836152076721, 0.8985733389854431, 0.8695675730705261, 0.9546211361885071, 0.8965083360671997, 0.9232259392738342, 0.8430728912353516, 0.8875873684883118, 0.8938342928886414, 0.9076358079910278, 0.9149379730224609, 0.9394792914390564, 0.9824089407920837, 0.9538629055023193, 0.9685140252113342, 0.9724066853523254, 0.9560502767562866, 0.9266246557235718, 0.9617108106613159, 0.9690760374069214, 0.9595867991447449, 0.9690653085708618, 0.9651607871055603, 0.9475528001785278, 0.9761147499084473, 0.9770156145095825, 0.9690755605697632, 0.9757054448127747, 0.9766435027122498, 0.9529403448104858, 0.859218418598175, 0.9527108669281006, 0.9280776381492615, 0.790755033493042, 0.6604896187782288, 0.34637996554374695, 0.7501662373542786, 0.7155812978744507, 0.905902087688446, 0.981097936630249, 0.9813697338104248, 0.9895319938659668, 0.9836834073066711, 0.9753790497779846, 0.9812414646148682, 0.9845370054244995, 0.9763559103012085, 0.9604631066322327, 0.9625081419944763, 0.9533654451370239, 0.929806649684906, 0.987989068031311, 0.9897226095199585, 0.9864563941955566, 0.9566776752471924, 0.9595579504966736, 0.9600513577461243, 0.9780043959617615, 0.9761658310890198, 0.9596649408340454, 0.9143927693367004, 0.8958826661109924, 0.8477084040641785, 0.9658166170120239, 0.9827809929847717, 0.9768034219741821, 0.9808119535446167, 0.9698427319526672, 0.9328348636627197, 0.946825385093689, 0.8720037341117859, 0.9227551221847534, 0.9720066785812378, 0.9717298746109009]</t>
+          <t>[0.9851046204566956, 0.9817771315574646, 0.9756065011024475, 0.957916259765625, 0.9644294381141663, 0.9552648663520813, 0.9732312560081482, 0.9403080940246582, 0.923986554145813, 0.9764587879180908, 0.9523531198501587, 0.929004430770874, 0.9110369682312012, 0.9215723872184753, 0.9469509720802307, 0.966881275177002, 0.9577070474624634, 0.9393821358680725, 0.8388859033584595, 0.6919906139373779, 0.8441300392150879, 0.9563795924186707, 0.9514558911323547, 0.9564833045005798, 0.9452845454216003, 0.9392790198326111, 0.9259470701217651, 0.96002596616745, 0.9480988383293152, 0.9515423774719238, 0.8848723769187927, 0.9161986708641052, 0.914826512336731, 0.7595714330673218, 0.5496637225151062, 0.4366390109062195, 0.8329972624778748, 0.82608562707901, 0.8416849970817566, 0.6994724273681641, 0.6171842813491821, 0.7257141470909119, 0.785602867603302, 0.7158986926078796, 0.8176314234733582, 0.9316304326057434, 0.6045765280723572, 0.5628886818885803, 0.7792409062385559, 0.8766764402389526, 0.8872058987617493, 0.8666023015975952, 0.9025329947471619, 0.8233990669250488, 0.8142320513725281, 0.8253136277198792, 0.861035943031311, 0.8887253999710083, 0.8441054224967957, 0.7772907018661499, 0.938334047794342, 0.8578589558601379, 0.8914844393730164, 0.7997379302978516, 0.8586187958717346, 0.8586695194244385, 0.8328152894973755, 0.8387279510498047, 0.8959949016571045, 0.9732890725135803, 0.9474126696586609, 0.9614742398262024, 0.962524950504303, 0.9461143016815186, 0.8863943219184875, 0.9243482351303101, 0.945140540599823, 0.91910320520401, 0.93263840675354, 0.9456400275230408, 0.9263017177581787, 0.9698842167854309, 0.9629374146461487, 0.9569221138954163, 0.9740517735481262, 0.9833319187164307, 0.9642372727394104, 0.9251417517662048, 0.9740651249885559, 0.959044873714447, 0.9298405051231384, 0.8141972422599792, 0.4309738576412201, 0.9099512100219727, 0.8751680850982666, 0.9405848383903503, 0.9809777736663818, 0.9813030362129211, 0.9890608787536621, 0.9812658429145813, 0.9693949818611145, 0.9780187606811523, 0.9796567559242249, 0.9721574783325195, 0.9615318775177002, 0.9753246307373047, 0.9739156365394592, 0.9616764187812805, 0.990740180015564, 0.9888908863067627, 0.9862203598022461, 0.942805826663971, 0.957720935344696, 0.9700769782066345, 0.9826050996780396, 0.9778863191604614, 0.963121235370636, 0.9050326347351074, 0.9026328921318054, 0.8065450191497803, 0.9304917454719543, 0.9648186564445496, 0.9476606845855713, 0.9761216640472412, 0.9710617065429688, 0.9246397018432617, 0.9172425866127014, 0.780134916305542, 0.9006420373916626, 0.9759198427200317, 0.9758122563362122]</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.9907812476158142</v>
+        <v>0.990740180015564</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.7324819999921601</v>
+        <v>0.738611500011757</v>
       </c>
       <c r="J14" t="n">
-        <v>0.005591465648795115</v>
+        <v>0.005638255725280588</v>
       </c>
     </row>
     <row r="15">
@@ -1125,11 +1125,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0.8865711688995361, 0.47073957324028015, 0.22483409941196442, 0.22360478341579437, 0.607269287109375, 0.9201418161392212, 0.9824582934379578, 0.9908233880996704, 0.9936795234680176, 0.9937459230422974, 0.9893262386322021, 0.9849773645401001, 0.9803855419158936, 0.9924696087837219, 0.9917689561843872, 0.9934651255607605, 0.9877222180366516, 0.9623186588287354, 0.9811514019966125, 0.9791361689567566, 0.9659436345100403, 0.9220682382583618, 0.40879470109939575, 0.4207034111022949, 0.3894338309764862, 0.9597997069358826, 0.9686172604560852, 0.9854656457901001, 0.9872683882713318, 0.9833643436431885, 0.96201092004776, 0.962326169013977, 0.7990617752075195, 0.8458152413368225, 0.9936235547065735, 0.9953528642654419, 0.9943344593048096, 0.9897493720054626, 0.9885839223861694, 0.9906586408615112, 0.9899116158485413, 0.9919226169586182, 0.9924484491348267, 0.9828395247459412, 0.8808846473693848, 0.6836881637573242, 0.863844633102417, 0.8731935620307922, 0.8190984129905701, 0.5380784869194031, 0.2146778106689453, 0.31375542283058167, 0.24722057580947876, 0.24286985397338867, 0.18753397464752197, 0.8275212049484253, 0.9234816431999207, 0.9574267864227295, 0.9537903666496277, 0.96932452917099, 0.9519383311271667, 0.9651384353637695, 0.9876009225845337, 0.987953782081604, 0.9851593375205994, 0.9856465458869934, 0.9859636425971985, 0.9900804162025452, 0.9895288348197937, 0.9920823574066162, 0.9824280142784119, 0.9598407745361328, 0.76164710521698, 0.5952004194259644, 0.21330593526363373, 0.0951123982667923, 0.10454759001731873, 0.09866663068532944, 0.13318051397800446, 0.5200781226158142, 0.7136868834495544, 0.7805896401405334, 0.9579315185546875, 0.9533736705780029, 0.9237443208694458, 0.3150721788406372, 0.24602267146110535, 0.28660669922828674, 0.825707197189331, 0.9635909199714661, 0.9724536538124084, 0.9895400404930115, 0.9898523688316345, 0.9899730682373047, 0.9883221983909607, 0.9852069020271301, 0.985559344291687, 0.9831310510635376, 0.949413537979126, 0.6975481510162354, 0.6971714496612549, 0.8356663584709167, 0.8797446489334106, 0.8874638080596924, 0.8897225856781006, 0.9393236041069031, 0.9738219976425171, 0.9802013039588928, 0.9329434633255005, 0.6610522866249084, 0.31881988048553467, 0.1544877141714096, 0.14058789610862732, 0.12082400918006897, 0.1512194126844406, 0.4871844947338104, 0.605315625667572, 0.7475466132164001, 0.9486028552055359, 0.9699668288230896, 0.9719911217689514, 0.9704543352127075, 0.9431332349777222, 0.931507408618927, 0.961770236492157, 0.9411633610725403, 0.9023293852806091, 0.8838934898376465, 0.9078311920166016, 0.9360277056694031, 0.934951663017273]</t>
+          <t>[0.8854296207427979, 0.6519474387168884, 0.33712318539619446, 0.3035092055797577, 0.797444760799408, 0.9511508941650391, 0.9883827567100525, 0.9919946193695068, 0.9943099021911621, 0.994100034236908, 0.9869130849838257, 0.9794914722442627, 0.9717338681221008, 0.9904927611351013, 0.9907786846160889, 0.9939303398132324, 0.9895083904266357, 0.9716936349868774, 0.9827545285224915, 0.9749954342842102, 0.9625139832496643, 0.9401161074638367, 0.4620085060596466, 0.4471258819103241, 0.3893464207649231, 0.9584153294563293, 0.9625383019447327, 0.9801533222198486, 0.9884420037269592, 0.9849089980125427, 0.9703758358955383, 0.9813473224639893, 0.9107400178909302, 0.9403221011161804, 0.9939258694648743, 0.9954211115837097, 0.9937790036201477, 0.9877480268478394, 0.9831768274307251, 0.9866334199905396, 0.9881263971328735, 0.9908955693244934, 0.9924155473709106, 0.9866260886192322, 0.9259199500083923, 0.6905807256698608, 0.8974258899688721, 0.9039026498794556, 0.8737261295318604, 0.6981387734413147, 0.3020518124103546, 0.40543892979621887, 0.33896151185035706, 0.3429360091686249, 0.2451002597808838, 0.895507276058197, 0.925130307674408, 0.9668991565704346, 0.9635477066040039, 0.9777156710624695, 0.9747899174690247, 0.9827094078063965, 0.9905868172645569, 0.989482045173645, 0.9832057356834412, 0.9844469428062439, 0.9795141220092773, 0.9871413707733154, 0.9845527410507202, 0.9922131896018982, 0.9870870113372803, 0.9736927151679993, 0.8602926731109619, 0.6686286330223083, 0.1629491150379181, 0.05369429662823677, 0.060815997421741486, 0.05257287248969078, 0.08907900005578995, 0.48498740792274475, 0.6028589010238647, 0.7349058389663696, 0.9642049074172974, 0.9631634950637817, 0.9447648525238037, 0.32928359508514404, 0.2446240484714508, 0.2836971580982208, 0.846753716468811, 0.96294766664505, 0.9689245820045471, 0.9903444647789001, 0.9900493621826172, 0.9903472661972046, 0.9882748126983643, 0.9851412773132324, 0.98542320728302, 0.9831023812294006, 0.9603276252746582, 0.7337557077407837, 0.7829099297523499, 0.8603277206420898, 0.8873883485794067, 0.878588080406189, 0.8897682428359985, 0.9489060044288635, 0.9768487811088562, 0.9809562563896179, 0.9343454837799072, 0.7793866395950317, 0.5110762715339661, 0.1664249300956726, 0.10782985389232635, 0.07368212938308716, 0.10207389295101166, 0.5420525074005127, 0.6151459813117981, 0.7740796208381653, 0.9336944818496704, 0.9645184278488159, 0.9678413271903992, 0.9622366428375244, 0.9330624938011169, 0.9172357320785522, 0.96720951795578, 0.9452189207077026, 0.9165018796920776, 0.9109801650047302, 0.9281790256500244, 0.9495793581008911, 0.9489132165908813]</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.9953528642654419</v>
+        <v>0.9954211115837097</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.7281060999957845</v>
+        <v>0.7315873000043212</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005558061832028889</v>
+        <v>0.005584635877895581</v>
       </c>
     </row>
     <row r="16">
@@ -1165,11 +1165,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[0.9930167198181152, 0.9702023267745972, 0.9012976288795471, 0.8795869946479797, 0.901957631111145, 0.8532243967056274, 0.9003036618232727, 0.8992156386375427, 0.9844748973846436, 0.9968960285186768, 0.9962205290794373, 0.9966458678245544, 0.9926183819770813, 0.986723005771637, 0.9803322553634644, 0.9805724620819092, 0.9752826690673828, 0.9720342755317688, 0.9542280435562134, 0.9419203400611877, 0.9698352217674255, 0.9950577020645142, 0.9927338361740112, 0.990365743637085, 0.9948881268501282, 0.9957504272460938, 0.994449257850647, 0.9791861176490784, 0.9792091846466064, 0.9471653699874878, 0.8643759489059448, 0.8540560007095337, 0.9055739045143127, 0.9700340628623962, 0.9428427815437317, 0.9451072812080383, 0.991409957408905, 0.9923133254051208, 0.9947622418403625, 0.998011589050293, 0.9940398931503296, 0.9953399896621704, 0.9975680708885193, 0.9967535138130188, 0.9957852959632874, 0.9961807727813721, 0.9952166080474854, 0.9942255616188049, 0.9954791069030762, 0.9958704113960266, 0.9964088797569275, 0.9956674575805664, 0.9929884076118469, 0.9929525256156921, 0.9541156888008118, 0.9052256941795349, 0.8455996513366699, 0.8934617638587952, 0.8868653178215027, 0.9339348077774048, 0.961694598197937, 0.9639837741851807, 0.9876816272735596, 0.9764671921730042, 0.9747002720832825, 0.989170491695404, 0.9962544441223145, 0.9946146607398987, 0.9952954649925232, 0.9932968020439148, 0.9917885661125183, 0.9885060787200928, 0.9961826205253601, 0.995728075504303, 0.9949235320091248, 0.9976913928985596, 0.9972385168075562, 0.9961830973625183, 0.9793954491615295, 0.9283538460731506, 0.9558048844337463, 0.9684466123580933, 0.9304695129394531, 0.8087303638458252, 0.8373777866363525, 0.47151172161102295, 0.43327370285987854, 0.4639149606227875, 0.6126419305801392, 0.9087579250335693, 0.9943158030509949, 0.9961064457893372, 0.9949433207511902, 0.9971791505813599, 0.996494710445404, 0.9948164820671082, 0.995460569858551, 0.9949053525924683, 0.9946245551109314, 0.9957767128944397, 0.9944342970848083, 0.9912427663803101, 0.9934895038604736, 0.9916109442710876, 0.9861751794815063, 0.8539548516273499, 0.8133608102798462, 0.8155849575996399, 0.9241477251052856, 0.9203805923461914, 0.9190557599067688, 0.9548349380493164, 0.9540688991546631, 0.9829362630844116, 0.9931682348251343, 0.9915339350700378, 0.9929162263870239, 0.994107723236084, 0.9870763421058655, 0.9866653680801392, 0.9923678040504456, 0.9911950826644897, 0.9902344942092896, 0.9979361295700073, 0.9970724582672119, 0.9954397082328796, 0.9835925102233887, 0.9677110314369202, 0.913037896156311, 0.8219665884971619, 0.8203192353248596]</t>
+          <t>[0.9946432113647461, 0.977816104888916, 0.9332584142684937, 0.8892110586166382, 0.904293417930603, 0.8356656432151794, 0.9037282466888428, 0.9150316715240479, 0.982254683971405, 0.9965381622314453, 0.9961275458335876, 0.9968456625938416, 0.9958867430686951, 0.9928003549575806, 0.9883860349655151, 0.9896083474159241, 0.9901862144470215, 0.9890128374099731, 0.9663985371589661, 0.9679564833641052, 0.9839785695075989, 0.9954373240470886, 0.9948065876960754, 0.9898026585578918, 0.9939377307891846, 0.9946606755256653, 0.9934427738189697, 0.9760391116142273, 0.973828136920929, 0.9238725900650024, 0.7763997316360474, 0.8011010885238647, 0.896137535572052, 0.9636879563331604, 0.9089943766593933, 0.9148732423782349, 0.9891924262046814, 0.9896933436393738, 0.9931683540344238, 0.9980681538581848, 0.9958885312080383, 0.9960781931877136, 0.9981921315193176, 0.997846245765686, 0.9972118735313416, 0.9978137016296387, 0.9969900846481323, 0.9945198893547058, 0.9960125684738159, 0.9961298704147339, 0.9964882135391235, 0.9945095181465149, 0.9908609390258789, 0.9896899461746216, 0.926439642906189, 0.8961531519889832, 0.8851057291030884, 0.8563390374183655, 0.8767179846763611, 0.9262638688087463, 0.9522108435630798, 0.9397174715995789, 0.9802390336990356, 0.9663811922073364, 0.974202573299408, 0.9916675686836243, 0.9967657327651978, 0.9959180951118469, 0.9965572357177734, 0.9953547716140747, 0.9943147301673889, 0.991376519203186, 0.9975200295448303, 0.9974933862686157, 0.9965116381645203, 0.9968805313110352, 0.9961981177330017, 0.9954541921615601, 0.9873138070106506, 0.9498473405838013, 0.9626998901367188, 0.9705779552459717, 0.9460446238517761, 0.8323237299919128, 0.8989681601524353, 0.5459784269332886, 0.4243708550930023, 0.37671932578086853, 0.6773301362991333, 0.9539122581481934, 0.9954327344894409, 0.9953839182853699, 0.9927948117256165, 0.9974972605705261, 0.9970667958259583, 0.9960777163505554, 0.9957839846611023, 0.9950816631317139, 0.9948404431343079, 0.9962318539619446, 0.9957709908485413, 0.9934685230255127, 0.9929110407829285, 0.9875659346580505, 0.9836533069610596, 0.8587255477905273, 0.828117311000824, 0.8053871989250183, 0.9211448431015015, 0.929375171661377, 0.9326208233833313, 0.9626316428184509, 0.9640786051750183, 0.9862914681434631, 0.9922052025794983, 0.9898877739906311, 0.9926803112030029, 0.9964642524719238, 0.992616593837738, 0.992845356464386, 0.9931926131248474, 0.9927716851234436, 0.9915227890014648, 0.9982702732086182, 0.9977129697799683, 0.9962284564971924, 0.9771689176559448, 0.9534727931022644, 0.8965592980384827, 0.8079291582107544, 0.8061980605125427]</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.998011589050293</v>
+        <v>0.9982702732086182</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.7392498999834061</v>
+        <v>0.736910200008424</v>
       </c>
       <c r="J16" t="n">
-        <v>0.005643129007506916</v>
+        <v>0.005625268702354381</v>
       </c>
     </row>
     <row r="17">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[0.6574775576591492, 0.742222011089325, 0.6404352188110352, 0.33253949880599976, 0.3347020745277405, 0.4228011667728424, 0.3587057590484619, 0.617384672164917, 0.8714951276779175, 0.7159802317619324, 0.7643260359764099, 0.8744646906852722, 0.882273256778717, 0.8590252995491028, 0.8198979496955872, 0.8762170672416687, 0.6523159742355347, 0.5928474068641663, 0.643620491027832, 0.7752478122711182, 0.8378921151161194, 0.9148282408714294, 0.8900036811828613, 0.720642626285553, 0.7049348950386047, 0.7113350629806519, 0.8539018630981445, 0.8886529803276062, 0.8746570944786072, 0.7477050423622131, 0.7414759397506714, 0.6461291313171387, 0.6596527099609375, 0.7106679677963257, 0.545049786567688, 0.5742997527122498, 0.3982188105583191, 0.6200138926506042, 0.8125367164611816, 0.9351648092269897, 0.9482191205024719, 0.9137675166130066, 0.8358891010284424, 0.813027024269104, 0.9024601578712463, 0.8910931944847107, 0.8847723603248596, 0.9104408621788025, 0.8934118151664734, 0.9082974195480347, 0.8593051433563232, 0.8759311437606812, 0.9708484411239624, 0.9680846929550171, 0.9458290338516235, 0.9643250703811646, 0.9690681099891663, 0.9864298105239868, 0.9850677251815796, 0.9600852131843567, 0.890587568283081, 0.9310150742530823, 0.8281956315040588, 0.7394201755523682, 0.8388945460319519, 0.7767446041107178, 0.5900090932846069, 0.19709478318691254, 0.24160704016685486, 0.27447327971458435, 0.44367602467536926, 0.3881095051765442, 0.473955363035202, 0.7285511493682861, 0.619683027267456, 0.8116415739059448, 0.624930202960968, 0.7804442644119263, 0.748319685459137, 0.8935735821723938, 0.91834956407547, 0.8307890892028809, 0.9328119158744812, 0.8908526301383972, 0.9686598777770996, 0.9166178703308105, 0.9308503270149231, 0.916199266910553, 0.9448965191841125, 0.9638002514839172, 0.9777759909629822, 0.955448567867279, 0.9740728139877319, 0.9774367809295654, 0.9561485648155212, 0.93440181016922, 0.9767083525657654, 0.9858415126800537, 0.9737798571586609, 0.9843246936798096, 0.9170662760734558, 0.9486739039421082, 0.8917259573936462, 0.8930773138999939, 0.879888117313385, 0.9550159573554993, 0.8881604671478271, 0.8491284847259521, 0.811511218547821, 0.6654782891273499, 0.8146488070487976, 0.8075541853904724, 0.9057406783103943, 0.8919514417648315, 0.815418004989624, 0.6737205982208252, 0.7338032126426697, 0.5569731593132019, 0.6860193610191345, 0.7371084094047546, 0.8076703548431396, 0.857624351978302, 0.9392180442810059, 0.9574267268180847, 0.9384446144104004, 0.7620048522949219, 0.7832939028739929, 0.5982781648635864, 0.6921244263648987, 0.750104546546936, 0.64090496301651, 0.5131874084472656, 0.9154512882232666, 0.7948439121246338, 0.46229466795921326, 0.5353845953941345, 0.6232024431228638, 0.5238049030303955, 0.6648803353309631, 0.5793046951293945, 0.5894722938537598, 0.6860490441322327, 0.5376551747322083, 0.7682642340660095, 0.8695603609085083, 0.896980881690979, 0.8821604251861572, 0.9069654941558838, 0.938573956489563, 0.9800654053688049, 0.9933823347091675, 0.991393506526947, 0.9893425703048706, 0.9377556443214417, 0.828047513961792, 0.8154062628746033, 0.922408938407898, 0.863482654094696, 0.9084333777427673, 0.9401822686195374, 0.9587070345878601, 0.9489126801490784, 0.9950408339500427, 0.9918797612190247, 0.9916654229164124, 0.9757705926895142, 0.9277995824813843, 0.9294593930244446, 0.9294851422309875]</t>
+          <t>[0.5654170513153076, 0.6882078647613525, 0.5402184128761292, 0.2133614420890808, 0.26451292634010315, 0.2816314101219177, 0.32327499985694885, 0.6311978101730347, 0.8833726048469543, 0.658720076084137, 0.6765631437301636, 0.8787640929222107, 0.8291026949882507, 0.795609176158905, 0.7158299684524536, 0.6868993639945984, 0.5883715152740479, 0.6270032525062561, 0.6500489711761475, 0.8328050374984741, 0.8399589657783508, 0.95035320520401, 0.9359341263771057, 0.6530039310455322, 0.7494910955429077, 0.7157416343688965, 0.7906854152679443, 0.8488222360610962, 0.8777685165405273, 0.7450163960456848, 0.7056103944778442, 0.5605642199516296, 0.5974579453468323, 0.7071924805641174, 0.55535888671875, 0.4877725839614868, 0.4057885706424713, 0.6616967916488647, 0.8708671927452087, 0.9264324903488159, 0.9570176601409912, 0.9294723868370056, 0.8896520137786865, 0.8672307729721069, 0.919693112373352, 0.9002552628517151, 0.8301608562469482, 0.8749902844429016, 0.7262386083602905, 0.8028661608695984, 0.8469091653823853, 0.809745192527771, 0.9420239925384521, 0.9348874688148499, 0.8707291483879089, 0.9400405883789062, 0.9521994590759277, 0.9787575602531433, 0.9792516827583313, 0.9346246123313904, 0.8276952505111694, 0.8334086537361145, 0.760627269744873, 0.6765716671943665, 0.8236326575279236, 0.8261392712593079, 0.6126168370246887, 0.14481346309185028, 0.18385088443756104, 0.2567964494228363, 0.4462139904499054, 0.38192659616470337, 0.4498492479324341, 0.6257151961326599, 0.45982417464256287, 0.7380526661872864, 0.43123680353164673, 0.4892013967037201, 0.41814517974853516, 0.5977821946144104, 0.6874644160270691, 0.5913417339324951, 0.8692613840103149, 0.7641775012016296, 0.9451621174812317, 0.8521670699119568, 0.8532302975654602, 0.7812516093254089, 0.8643708229064941, 0.9271602034568787, 0.954173743724823, 0.8401638269424438, 0.956189751625061, 0.9548215866088867, 0.9139978289604187, 0.8565655946731567, 0.9556944370269775, 0.9800942540168762, 0.9682083129882812, 0.9688772559165955, 0.8580672740936279, 0.9200010299682617, 0.7998949289321899, 0.7758729457855225, 0.7308432459831238, 0.9076246023178101, 0.7497209310531616, 0.6950723528862, 0.6626046299934387, 0.44387203454971313, 0.7253227829933167, 0.6617002487182617, 0.8324756026268005, 0.7854082584381104, 0.6889941096305847, 0.4721841514110565, 0.6186277866363525, 0.4394075870513916, 0.5838093161582947, 0.6492509841918945, 0.6844128370285034, 0.7801125645637512, 0.9204235076904297, 0.9255297183990479, 0.9069676399230957, 0.6980944871902466, 0.7502427697181702, 0.4296160638332367, 0.5149390697479248, 0.6404262781143188, 0.6146506071090698, 0.4765876233577728, 0.9153300523757935, 0.7601960301399231, 0.3768773078918457, 0.44815894961357117, 0.5316683053970337, 0.48809894919395447, 0.6048904061317444, 0.5187295079231262, 0.41984692215919495, 0.6515383124351501, 0.4874664843082428, 0.7162187695503235, 0.8327663540840149, 0.8753470778465271, 0.8367596864700317, 0.8838204741477966, 0.9233285784721375, 0.9763081073760986, 0.9941138625144958, 0.9911920428276062, 0.9882864356040955, 0.9256435036659241, 0.7839382886886597, 0.7550017237663269, 0.9037857055664062, 0.8205614686012268, 0.8902718424797058, 0.9331557154655457, 0.9595017433166504, 0.9345906376838684, 0.994408369064331, 0.9873781800270081, 0.9901796579360962, 0.9714445471763611, 0.9154831767082214, 0.9282177090644836, 0.9284713864326477]</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.9950408339500427</v>
+        <v>0.9944083690643311</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.9583492000238039</v>
+        <v>0.9740051999979187</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005670705325584638</v>
+        <v>0.005763344378685909</v>
       </c>
     </row>
     <row r="18">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[0.28564968705177307, 0.40125852823257446, 0.2854749262332916, 0.4659162759780884, 0.21245643496513367, 0.04694182053208351, 0.055405519902706146, 0.051659971475601196, 0.07807456701993942, 0.14827704429626465, 0.2456163614988327, 0.15891148149967194, 0.13637004792690277, 0.08585340529680252, 0.14108364284038544, 0.22860868275165558, 0.4273698925971985, 0.3424486815929413, 0.3980298340320587, 0.4625624716281891, 0.31924423575401306, 0.37097930908203125, 0.435041218996048, 0.3954657018184662, 0.24753771722316742, 0.354827344417572, 0.5919324159622192, 0.6967326402664185, 0.6113252639770508, 0.8680943846702576, 0.7944546937942505, 0.7545541524887085, 0.8222712278366089, 0.9330941438674927, 0.877423107624054, 0.9087979793548584, 0.9693586826324463, 0.9277185201644897, 0.9335422515869141, 0.8864354491233826, 0.7230522632598877, 0.7615457773208618, 0.9267770051956177, 0.8082494735717773, 0.4882153272628784, 0.20396475493907928, 0.20555749535560608, 0.14031219482421875, 0.10400717705488205, 0.13726265728473663, 0.1787223368883133, 0.2929866313934326, 0.19101932644844055, 0.24804580211639404, 0.13084156811237335, 0.22587737441062927, 0.28491732478141785, 0.34801366925239563, 0.3179361820220947, 0.2630656659603119, 0.21898889541625977, 0.24614912271499634, 0.2434542030096054, 0.3027985692024231, 0.28278857469558716, 0.4497494101524353, 0.42641428112983704, 0.37122198939323425, 0.2856347858905792, 0.47860071063041687, 0.6415615081787109, 0.6364548206329346, 0.4810747504234314, 0.4265519976615906, 0.3658630847930908, 0.14925332367420197, 0.26100441813468933, 0.33466362953186035, 0.30065903067588806, 0.21260471642017365, 0.19705592095851898, 0.1673150509595871, 0.18367324769496918, 0.22359557449817657, 0.23421990871429443, 0.27321672439575195, 0.35452279448509216, 0.43659549951553345, 0.4515362083911896, 0.37168607115745544, 0.2701815366744995, 0.22778747975826263, 0.19890733063220978, 0.17888204753398895, 0.160360187292099, 0.14365769922733307, 0.26009538769721985, 0.32148316502571106, 0.2427796721458435, 0.15931515395641327, 0.12755493819713593, 0.292998343706131, 0.38754573464393616, 0.4193992018699646, 0.28148820996284485, 0.367190420627594, 0.31922128796577454, 0.24872823059558868, 0.20940564572811127, 0.3188560903072357, 0.4526001214981079, 0.44726672768592834, 0.4649881422519684, 0.47344470024108887, 0.4302181005477905, 0.5814347267150879, 0.39800432324409485, 0.3324030637741089, 0.28957781195640564, 0.43226322531700134, 0.3364270031452179, 0.31284406781196594, 0.2660098969936371, 0.3124268054962158, 0.40989282727241516, 0.4360758364200592, 0.5627171993255615, 0.7110019326210022, 0.4571210443973541, 0.4894135594367981, 0.49327680468559265, 0.4029289186000824, 0.3191041946411133, 0.6156839728355408, 0.5483670830726624, 0.5110984444618225, 0.6748201847076416, 0.8009366393089294, 0.6552295684814453, 0.45893028378486633, 0.6941887140274048, 0.6388003826141357, 0.4826675355434418, 0.37040379643440247, 0.29423046112060547, 0.2960278391838074, 0.3334411084651947, 0.3273484706878662, 0.1743309199810028, 0.21484994888305664, 0.19155670702457428, 0.18603964149951935, 0.15949490666389465, 0.2756500542163849, 0.31173035502433777, 0.27907484769821167, 0.20295462012290955, 0.3262607753276825, 0.33541521430015564, 0.396825909614563, 0.4060441255569458, 0.5616919994354248, 0.5547922849655151, 0.46215444803237915, 0.2512505054473877, 0.16160959005355835, 0.13146746158599854, 0.2415137141942978, 0.24201622605323792]</t>
+          <t>[0.17994095385074615, 0.27008575201034546, 0.2076105922460556, 0.44733455777168274, 0.1706901490688324, 0.022392086684703827, 0.029942041262984276, 0.024707648903131485, 0.04105086997151375, 0.0998200923204422, 0.2630225419998169, 0.10409849137067795, 0.10497406870126724, 0.06367707252502441, 0.11811818182468414, 0.24747957289218903, 0.4979262351989746, 0.4309093952178955, 0.4176258444786072, 0.5659865140914917, 0.30691248178482056, 0.38201701641082764, 0.5642059445381165, 0.4856730103492737, 0.31465694308280945, 0.4594421982765198, 0.5877209901809692, 0.6978976726531982, 0.64368736743927, 0.8514856100082397, 0.9085061550140381, 0.7904126644134521, 0.7784963250160217, 0.8909536004066467, 0.8149341940879822, 0.896060585975647, 0.9594653844833374, 0.9253009557723999, 0.9327619671821594, 0.8967248201370239, 0.7219282388687134, 0.5635708570480347, 0.8652334809303284, 0.7412450313568115, 0.581526517868042, 0.3217867314815521, 0.2542157769203186, 0.17217616736888885, 0.12155218422412872, 0.16523493826389313, 0.19820700585842133, 0.3514936566352844, 0.20096808671951294, 0.2744486629962921, 0.09482601284980774, 0.1765974760055542, 0.22193047404289246, 0.2690827250480652, 0.2126757651567459, 0.15999294817447662, 0.1113227903842926, 0.13396139442920685, 0.16597089171409607, 0.23255087435245514, 0.2332935333251953, 0.36078083515167236, 0.3820961117744446, 0.3035297989845276, 0.1758054494857788, 0.3495025336742401, 0.5611937046051025, 0.6135045289993286, 0.5243244171142578, 0.400120347738266, 0.3391338884830475, 0.14789921045303345, 0.3021441698074341, 0.384280800819397, 0.33466774225234985, 0.19752687215805054, 0.16175754368305206, 0.12284129858016968, 0.11852461099624634, 0.13940559327602386, 0.17758214473724365, 0.1905495971441269, 0.26977232098579407, 0.3236004114151001, 0.3117373287677765, 0.22240199148654938, 0.1560080200433731, 0.12861287593841553, 0.1112656220793724, 0.1183302029967308, 0.10372187197208405, 0.08960568159818649, 0.1494544893503189, 0.1518924981355667, 0.11698918789625168, 0.09520038962364197, 0.09401475638151169, 0.28851187229156494, 0.39992672204971313, 0.417272686958313, 0.24929745495319366, 0.3271743655204773, 0.28240931034088135, 0.2325604259967804, 0.1663302630186081, 0.2747088074684143, 0.37171152234077454, 0.42042070627212524, 0.4440149664878845, 0.5378718376159668, 0.39391040802001953, 0.6987366676330566, 0.6342027187347412, 0.493158221244812, 0.43081021308898926, 0.5640702843666077, 0.4602365493774414, 0.4872848391532898, 0.4953487515449524, 0.5164665579795837, 0.6177515983581543, 0.5558217167854309, 0.6577582955360413, 0.795171320438385, 0.5089142322540283, 0.5144872665405273, 0.5467206835746765, 0.5112829804420471, 0.44052332639694214, 0.6913536190986633, 0.6020427346229553, 0.5443583726882935, 0.703890323638916, 0.886102020740509, 0.7411985993385315, 0.5335291028022766, 0.8414223194122314, 0.7507808208465576, 0.5669082999229431, 0.30704110860824585, 0.28762128949165344, 0.23526164889335632, 0.27849966287612915, 0.26424115896224976, 0.13822315633296967, 0.19197945296764374, 0.1592479944229126, 0.1273631453514099, 0.11766361445188522, 0.1701778620481491, 0.28763148188591003, 0.2415752112865448, 0.17334792017936707, 0.3071861267089844, 0.27647626399993896, 0.4057278335094452, 0.3032318949699402, 0.39517611265182495, 0.44174447655677795, 0.4185495674610138, 0.19794194400310516, 0.10939418524503708, 0.09229734539985657, 0.16371476650238037, 0.1641717404127121]</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.9693586826324463</v>
+        <v>0.9594653844833374</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.9759475999744609</v>
+        <v>0.9498568000126397</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005774837869671366</v>
+        <v>0.005620454437944614</v>
       </c>
     </row>
     <row r="19">
@@ -1285,11 +1285,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[0.11175242066383362, 0.1188061311841011, 0.12937170267105103, 0.07380396127700806, 0.08305232226848602, 0.08756659924983978, 0.05926629528403282, 0.08310028910636902, 0.12054335325956345, 0.11178555339574814, 0.0799894705414772, 0.10865136235952377, 0.20889690518379211, 0.18957211077213287, 0.28012338280677795, 0.26339346170425415, 0.5965754985809326, 0.7881140112876892, 0.7787890434265137, 0.5405231714248657, 0.37454020977020264, 0.23668360710144043, 0.21581152081489563, 0.1907675713300705, 0.13541890680789948, 0.13930289447307587, 0.2019234448671341, 0.4293479919433594, 0.5664594173431396, 0.5171099901199341, 0.48054754734039307, 0.3766300678253174, 0.21850912272930145, 0.2699888348579407, 0.17015866935253143, 0.11595290154218674, 0.22358570992946625, 0.1535671502351761, 0.19451576471328735, 0.14055202901363373, 0.10644370317459106, 0.1029265820980072, 0.23894347250461578, 0.2931772768497467, 0.33185672760009766, 0.33277279138565063, 0.729025661945343, 0.6635999083518982, 0.5057294964790344, 0.4195481836795807, 0.5004479885101318, 0.6051122546195984, 0.7765811085700989, 0.782411515712738, 0.5614882111549377, 0.6291870474815369, 0.757401704788208, 0.49956536293029785, 0.5543847680091858, 0.4541371464729309, 0.2790047824382782, 0.30706319212913513, 0.27592647075653076, 0.17574866116046906, 0.20741017162799835, 0.1249464750289917, 0.1558149755001068, 0.26527753472328186, 0.2155911922454834, 0.22828207910060883, 0.16072776913642883, 0.17430132627487183, 0.19001075625419617, 0.1775670051574707, 0.20719923079013824, 0.19322088360786438, 0.28725218772888184, 0.29499998688697815, 0.3972448408603668, 0.32880091667175293, 0.3491361737251282, 0.4183320999145508, 0.40881678462028503, 0.48504316806793213, 0.6667889952659607, 0.8105384707450867, 0.7051175832748413, 0.8144620656967163, 0.8549821972846985, 0.7864629626274109, 0.728735625743866, 0.5406060814857483, 0.7035887837409973, 0.7270717620849609, 0.8454444408416748, 0.8384522795677185, 0.7828716039657593, 0.5710402131080627, 0.4080052375793457, 0.29757601022720337, 0.3518508970737457, 0.5293616652488708, 0.3794745206832886, 0.43331998586654663, 0.23941414058208466, 0.2102903574705124, 0.16113026440143585, 0.1958753913640976, 0.21243081986904144, 0.28836777806282043, 0.5918594002723694, 0.6269754767417908, 0.7177891135215759, 0.8430909514427185, 0.7934923768043518, 0.3428891599178314, 0.31123021245002747, 0.262734591960907, 0.1882980465888977, 0.2653222978115082, 0.19788731634616852, 0.272728830575943, 0.29436978697776794, 0.3105282783508301, 0.3537490963935852, 0.269611120223999, 0.26782864332199097, 0.28681668639183044, 0.2740662395954132, 0.35321712493896484, 0.5221866965293884, 0.3661668300628662, 0.35565808415412903, 0.37813520431518555, 0.6490365862846375, 0.3937072157859802, 0.37036454677581787, 0.3434067666530609, 0.417438268661499, 0.4171816408634186]</t>
+          <t>[0.048042211681604385, 0.05096247047185898, 0.059011511504650116, 0.03583090379834175, 0.056641317903995514, 0.04642197862267494, 0.027239343151450157, 0.032800063490867615, 0.05511651188135147, 0.06330062448978424, 0.044762689620256424, 0.06836581230163574, 0.15736186504364014, 0.16424277424812317, 0.23485681414604187, 0.23848265409469604, 0.6419119834899902, 0.809502124786377, 0.7949877977371216, 0.3880041539669037, 0.16566720604896545, 0.09617257118225098, 0.07159002125263214, 0.04970063269138336, 0.02693719044327736, 0.02247943915426731, 0.03466039150953293, 0.15296895802021027, 0.2164582461118698, 0.20939287543296814, 0.21396760642528534, 0.13244253396987915, 0.060426175594329834, 0.07695802301168442, 0.04563545063138008, 0.030048901215195656, 0.07784614711999893, 0.0316268727183342, 0.0362238772213459, 0.02129269763827324, 0.011700551025569439, 0.012542080134153366, 0.03500621020793915, 0.03959178179502487, 0.052076492458581924, 0.11221920698881149, 0.6151639223098755, 0.6146344542503357, 0.43176478147506714, 0.23407888412475586, 0.3194921910762787, 0.42600077390670776, 0.6670466661453247, 0.6566678285598755, 0.2915882170200348, 0.46423783898353577, 0.5828999280929565, 0.3300755023956299, 0.46388253569602966, 0.301522821187973, 0.16000428795814514, 0.16569989919662476, 0.14835649728775024, 0.10496878623962402, 0.13288462162017822, 0.06714118272066116, 0.07693266123533249, 0.12568770349025726, 0.09364894032478333, 0.10820705443620682, 0.0610320158302784, 0.09350647032260895, 0.1068841889500618, 0.08096613734960556, 0.09210257232189178, 0.09062264114618301, 0.15700353682041168, 0.19232960045337677, 0.3509133458137512, 0.29741987586021423, 0.28136900067329407, 0.44696855545043945, 0.39617839455604553, 0.39530467987060547, 0.6159939169883728, 0.8132915496826172, 0.6884241104125977, 0.8040734529495239, 0.8719720244407654, 0.7299515604972839, 0.679809033870697, 0.5497341752052307, 0.750760555267334, 0.6275691986083984, 0.7767925262451172, 0.7700286507606506, 0.8117712736129761, 0.39650940895080566, 0.2129802405834198, 0.14738452434539795, 0.22824788093566895, 0.3580453097820282, 0.24608930945396423, 0.3130711019039154, 0.2026829868555069, 0.16835170984268188, 0.139170303940773, 0.18126410245895386, 0.22040171921253204, 0.35452061891555786, 0.5385542511940002, 0.5941788554191589, 0.6948215961456299, 0.8330931067466736, 0.8102213144302368, 0.28427356481552124, 0.29176610708236694, 0.16216789186000824, 0.06909725815057755, 0.08904954046010971, 0.05966813862323761, 0.09010577946901321, 0.11833455413579941, 0.10835757106542587, 0.10760620981454849, 0.07075632363557816, 0.053359080106019974, 0.060299597680568695, 0.07116538286209106, 0.09231974929571152, 0.1722947061061859, 0.12259577214717865, 0.12476346641778946, 0.12735597789287567, 0.36010226607322693, 0.24082064628601074, 0.2919532060623169, 0.2577259838581085, 0.1894725263118744, 0.18919630348682404]</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.8549821972846985</v>
+        <v>0.8719720244407654</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -1303,10 +1303,10 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.7815965000190772</v>
+        <v>0.7922144000040134</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005582832142993409</v>
+        <v>0.005658674285742953</v>
       </c>
     </row>
     <row r="20">
@@ -1325,11 +1325,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[0.18348154425621033, 0.19811947643756866, 0.28037580847740173, 0.4571671187877655, 0.23735135793685913, 0.2218339741230011, 0.18548306822776794, 0.18548446893692017, 0.15981855988502502, 0.20876763761043549, 0.3057793080806732, 0.30737069249153137, 0.20851175487041473, 0.19085821509361267, 0.18982520699501038, 0.1713559329509735, 0.12999342381954193, 0.15551504492759705, 0.16954751312732697, 0.0811992660164833, 0.10724923759698868, 0.12073472142219543, 0.13778163492679596, 0.13637995719909668, 0.1175299882888794, 0.11507047712802887, 0.0998276099562645, 0.07383210957050323, 0.1890164166688919, 0.1019720584154129, 0.0963037759065628, 0.07076433300971985, 0.10459810495376587, 0.15840330719947815, 0.22050663828849792, 0.12687742710113525, 0.15645529329776764, 0.28475069999694824, 0.3296329379081726, 0.3041847050189972, 0.3640681505203247, 0.33333244919776917, 0.2723703384399414, 0.348773717880249, 0.24718858301639557, 0.30971091985702515, 0.46173524856567383, 0.29367795586586, 0.35972923040390015, 0.28302255272865295, 0.45133644342422485, 0.2405337691307068, 0.42107775807380676, 0.36115673184394836, 0.29639673233032227, 0.2987654209136963, 0.1548139452934265, 0.2153645008802414, 0.2539767920970917, 0.43293866515159607, 0.5124130249023438, 0.25076824426651, 0.22139334678649902, 0.16888310015201569, 0.13841286301612854, 0.21585945785045624, 0.44913414120674133, 0.5780256390571594, 0.3860372304916382, 0.5047973990440369, 0.435792475938797, 0.5847429037094116, 0.5172373652458191, 0.5996615886688232, 0.6985112428665161, 0.5332831740379333, 0.5897951722145081, 0.7356851696968079, 0.9105093479156494, 0.9313172101974487, 0.9189022183418274, 0.7338564991950989, 0.6472443342208862, 0.7153946757316589, 0.6170645952224731, 0.6747161746025085, 0.5293876528739929, 0.44659116864204407, 0.39996591210365295, 0.5831419825553894, 0.32048940658569336, 0.324726939201355, 0.1088840439915657, 0.4948047995567322, 0.8991535305976868, 0.8265612125396729, 0.7743209004402161, 0.5577951073646545, 0.4624689221382141, 0.5316960215568542, 0.45612633228302, 0.23835773766040802, 0.16081120073795319, 0.19529838860034943, 0.2043195366859436, 0.21172691881656647, 0.18153338134288788, 0.2682153582572937, 0.1576414555311203, 0.1774730682373047, 0.13578292727470398, 0.1699058711528778, 0.15041758120059967, 0.26517730951309204, 0.20048239827156067, 0.1210281252861023, 0.10466676950454712, 0.16283288598060608, 0.15120989084243774, 0.17685024440288544, 0.21367458999156952, 0.3131054937839508, 0.3115958869457245, 0.3951387405395508, 0.28604477643966675, 0.1655309945344925, 0.15245142579078674, 0.17523185908794403, 0.17302155494689941, 0.17202572524547577, 0.14028671383857727, 0.24922212958335876, 0.4176763594150543, 0.34871384501457214, 0.26627278327941895, 0.18081486225128174, 0.10912839323282242, 0.10537324100732803, 0.10559982806444168]</t>
+          <t>[0.1317375898361206, 0.13318173587322235, 0.24538178741931915, 0.44247695803642273, 0.18167784810066223, 0.2017565220594406, 0.15171416103839874, 0.12375027686357498, 0.09436154365539551, 0.15005618333816528, 0.1931648701429367, 0.26943516731262207, 0.19137156009674072, 0.21955345571041107, 0.23318810760974884, 0.21419279277324677, 0.1478537619113922, 0.1599995344877243, 0.14705945551395416, 0.06710518151521683, 0.0921398401260376, 0.07655953615903854, 0.06693076342344284, 0.09211646020412445, 0.07691074162721634, 0.06729979068040848, 0.054060451686382294, 0.04456504061818123, 0.14445097744464874, 0.11708047986030579, 0.10674935579299927, 0.0567801333963871, 0.07266993820667267, 0.19253067672252655, 0.20318767428398132, 0.10707321763038635, 0.14933136105537415, 0.33989545702934265, 0.4277991056442261, 0.41792842745780945, 0.5097174644470215, 0.37876376509666443, 0.26181459426879883, 0.36257898807525635, 0.1789621263742447, 0.2026100754737854, 0.3982612192630768, 0.2524954676628113, 0.26577749848365784, 0.16646257042884827, 0.3209313154220581, 0.16123779118061066, 0.35242435336112976, 0.3371691405773163, 0.24098984897136688, 0.26991668343544006, 0.12212726473808289, 0.12959668040275574, 0.24282103776931763, 0.4634219706058502, 0.5331212282180786, 0.1848238855600357, 0.11312465369701385, 0.08138515055179596, 0.05002930760383606, 0.1197514459490776, 0.3812530040740967, 0.5592944622039795, 0.2757359445095062, 0.5724745988845825, 0.5379739999771118, 0.7138584852218628, 0.6815447211265564, 0.6601648330688477, 0.7989130020141602, 0.6013515591621399, 0.6892902255058289, 0.8036465644836426, 0.967326283454895, 0.9602199196815491, 0.9573350548744202, 0.8216824531555176, 0.7108862400054932, 0.8103830218315125, 0.7141010165214539, 0.6769714951515198, 0.5228677988052368, 0.4773158133029938, 0.27576345205307007, 0.5870936512947083, 0.23417097330093384, 0.24274758994579315, 0.054546989500522614, 0.5336942076683044, 0.8824753165245056, 0.7316989302635193, 0.6949223875999451, 0.6415915489196777, 0.6541903614997864, 0.5532581210136414, 0.48119908571243286, 0.19860124588012695, 0.1281968206167221, 0.19959798455238342, 0.18973089754581451, 0.1412094384431839, 0.09287015348672867, 0.12564179301261902, 0.054432738572359085, 0.05487824231386185, 0.04344742000102997, 0.05187390744686127, 0.03498576581478119, 0.08259422332048416, 0.059750765562057495, 0.039052918553352356, 0.03760603815317154, 0.10659929364919662, 0.09046105295419693, 0.10719604790210724, 0.1105780079960823, 0.2225724160671234, 0.23547999560832977, 0.3503837287425995, 0.17119832336902618, 0.08999566733837128, 0.07136509567499161, 0.07577165961265564, 0.08294104039669037, 0.06415551155805588, 0.045937225222587585, 0.11898352950811386, 0.3271644413471222, 0.31041383743286133, 0.26614946126937866, 0.2026330530643463, 0.11964373290538788, 0.11987310647964478, 0.12002139538526535]</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.9313172101974487</v>
+        <v>0.967326283454895</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.778822799999034</v>
+        <v>0.7800522000034107</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005603041726611756</v>
+        <v>0.005611886330959789</v>
       </c>
     </row>
     <row r="21">
@@ -1365,11 +1365,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[0.17644359171390533, 0.31018248200416565, 0.22320713102817535, 0.3498002886772156, 0.30537503957748413, 0.3923018276691437, 0.2978176772594452, 0.39294150471687317, 0.4374970495700836, 0.42788028717041016, 0.5839502811431885, 0.421426922082901, 0.4236155152320862, 0.47531235218048096, 0.6408412456512451, 0.5188209414482117, 0.6155993342399597, 0.5011346936225891, 0.7766662836074829, 0.7895391583442688, 0.7628136277198792, 0.7397237420082092, 0.5350227355957031, 0.668630063533783, 0.6879028081893921, 0.7632974982261658, 0.7022144794464111, 0.6159316897392273, 0.4658140540122986, 0.46814820170402527, 0.4654808044433594, 0.45997706055641174, 0.3910790979862213, 0.3672991096973419, 0.7421096563339233, 0.4912600517272949, 0.400547057390213, 0.2164604663848877, 0.2648053467273712, 0.17977464199066162, 0.21120645105838776, 0.27460530400276184, 0.434496134519577, 0.1531108319759369, 0.1583341658115387, 0.16525475680828094, 0.1427200436592102, 0.10346650332212448, 0.12614238262176514, 0.1430506855249405, 0.2751386761665344, 0.13572242856025696, 0.15055176615715027, 0.16989462077617645, 0.14472250640392303, 0.18093590438365936, 0.1241743415594101, 0.07910045236349106, 0.0993778333067894, 0.08106889575719833, 0.06630835682153702, 0.06561855971813202, 0.1039893627166748, 0.06914491206407547, 0.06960712373256683, 0.14445357024669647, 0.11434813588857651, 0.12388211488723755, 0.07206343859434128, 0.056479524821043015, 0.0877680853009224, 0.11091148853302002, 0.08180447667837143, 0.074984110891819, 0.10631374269723892, 0.16981831192970276, 0.17935916781425476, 0.10193059593439102, 0.07672635465860367, 0.07270870357751846, 0.06126229465007782, 0.08068174868822098, 0.10715069621801376, 0.18182098865509033, 0.1297750174999237, 0.12722349166870117, 0.17699135839939117, 0.2404751181602478, 0.2711193561553955, 0.29323044419288635, 0.18561312556266785, 0.14774484932422638, 0.07042641937732697, 0.04232938960194588, 0.039024967700242996, 0.07409065216779709, 0.11740689724683762, 0.1394435167312622, 0.16102094948291779, 0.2326086312532425, 0.2088763415813446, 0.26724347472190857, 0.20675817131996155, 0.18763890862464905, 0.39296743273735046, 0.45498666167259216, 0.25431182980537415, 0.23497702181339264, 0.1892683357000351, 0.16417089104652405, 0.2128024697303772, 0.18331867456436157, 0.13583128154277802, 0.12732337415218353, 0.16012020409107208, 0.24754512310028076, 0.2190331369638443, 0.36550280451774597, 0.8173658847808838, 0.6668239831924438, 0.5612958669662476, 0.5456942915916443, 0.6850010752677917, 0.8280003070831299, 0.8576003313064575, 0.8504598140716553, 0.49128058552742004, 0.5769292116165161, 0.5988976955413818, 0.5244016647338867, 0.4038320779800415, 0.16459381580352783, 0.2039630115032196, 0.24939346313476562, 0.36853164434432983, 0.39950889348983765, 0.3703514039516449, 0.48999637365341187, 0.4892556667327881]</t>
+          <t>[0.14920048415660858, 0.2731129825115204, 0.24256324768066406, 0.37927916646003723, 0.31009405851364136, 0.368967741727829, 0.2246675193309784, 0.37766385078430176, 0.3153429925441742, 0.3022528886795044, 0.4843413233757019, 0.2772630453109741, 0.2169245481491089, 0.3703078329563141, 0.5336362719535828, 0.41407638788223267, 0.4088115394115448, 0.25228986144065857, 0.6135618090629578, 0.7063811421394348, 0.6698916554450989, 0.5190610885620117, 0.3224618136882782, 0.347462922334671, 0.43620237708091736, 0.6067009568214417, 0.4983995258808136, 0.3832242786884308, 0.25159385800361633, 0.22770294547080994, 0.22736474871635437, 0.2628262937068939, 0.2799089550971985, 0.2803535461425781, 0.7708669304847717, 0.4774409532546997, 0.5069644451141357, 0.2139853537082672, 0.29322341084480286, 0.18581350147724152, 0.16594047844409943, 0.26748618483543396, 0.30012625455856323, 0.08735723048448563, 0.09480640292167664, 0.08212000131607056, 0.07803640514612198, 0.06113985553383827, 0.060275156050920486, 0.10556610673666, 0.3308270275592804, 0.14242339134216309, 0.15676458179950714, 0.17787526547908783, 0.16085760295391083, 0.1702202707529068, 0.1026633083820343, 0.055271536111831665, 0.08257081359624863, 0.06562956422567368, 0.046941179782152176, 0.05571872368454933, 0.09647294878959656, 0.06173335760831833, 0.07960886508226395, 0.16924487054347992, 0.13036848604679108, 0.16892844438552856, 0.08441378176212311, 0.07560413330793381, 0.13958850502967834, 0.21128731966018677, 0.15104326605796814, 0.10167714953422546, 0.13913024961948395, 0.22470921277999878, 0.1841304451227188, 0.06871689856052399, 0.058609481900930405, 0.06949295848608017, 0.05049404874444008, 0.07934211194515228, 0.15494611859321594, 0.26601555943489075, 0.14610694348812103, 0.1486632376909256, 0.20219212770462036, 0.20275670289993286, 0.24990834295749664, 0.21823018789291382, 0.10711542516946793, 0.07577585428953171, 0.028862180188298225, 0.0165107399225235, 0.019797392189502716, 0.044381000101566315, 0.08105191588401794, 0.0827886313199997, 0.10673100501298904, 0.18970507383346558, 0.1297512948513031, 0.18052035570144653, 0.1446528136730194, 0.1671026200056076, 0.34479621052742004, 0.347250759601593, 0.09145591408014297, 0.06495489925146103, 0.05254499986767769, 0.052468910813331604, 0.07870479673147202, 0.06891655176877975, 0.06363895535469055, 0.05322135239839554, 0.059465959668159485, 0.07800255715847015, 0.0686163604259491, 0.17231062054634094, 0.6179527044296265, 0.36781010031700134, 0.4015944302082062, 0.4387320578098297, 0.6159656047821045, 0.8120408654212952, 0.8149393796920776, 0.8354699015617371, 0.34122470021247864, 0.34194135665893555, 0.346162348985672, 0.232921302318573, 0.1240820661187172, 0.05634153634309769, 0.10819948464632034, 0.1935000717639923, 0.19272635877132416, 0.20343254506587982, 0.26724663376808167, 0.33339089155197144, 0.3335050642490387]</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.8576003313064575</v>
+        <v>0.8354699015617371</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0.7760178000025917</v>
+        <v>0.7749272999935783</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005582861870522243</v>
+        <v>0.005575016546716391</v>
       </c>
     </row>
     <row r="22">
@@ -1405,11 +1405,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[0.18890568614006042, 0.29628777503967285, 0.5665465593338013, 0.5332044959068298, 0.5592830777168274, 0.3173348009586334, 0.22960852086544037, 0.25184696912765503, 0.20208847522735596, 0.23035261034965515, 0.3647370934486389, 0.4487471580505371, 0.29321667551994324, 0.4153544008731842, 0.36906132102012634, 0.4302346408367157, 0.5377042293548584, 0.5331152677536011, 0.41803622245788574, 0.44890978932380676, 0.41409018635749817, 0.33691373467445374, 0.46505123376846313, 0.4850996732711792, 0.3467226028442383, 0.40901029109954834, 0.5333160161972046, 0.374675452709198, 0.44515570998191833, 0.4543107748031616, 0.7122511863708496, 0.3957298696041107, 0.32226768136024475, 0.5895042419433594, 0.5684468150138855, 0.547457754611969, 0.4487701952457428, 0.4934588372707367, 0.5746300220489502, 0.6033204197883606, 0.6767387390136719, 0.45260506868362427, 0.4957015812397003, 0.48511531949043274, 0.4903697073459625, 0.5078046321868896, 0.5824304819107056, 0.7041333317756653, 0.4583367705345154, 0.36588114500045776, 0.3426215648651123, 0.39102694392204285, 0.3639271557331085, 0.3773913085460663, 0.5145246982574463, 0.3914957344532013, 0.5658679008483887, 0.6083131432533264, 0.4316330850124359, 0.6101022362709045, 0.419859915971756, 0.18343521654605865, 0.21781514585018158, 0.30591508746147156, 0.33097654581069946, 0.2966814339160919, 0.4237869679927826, 0.30952852964401245, 0.32974058389663696, 0.25340351462364197, 0.18762674927711487, 0.511854350566864, 0.6110852956771851, 0.5022861957550049, 0.5372230410575867, 0.3395521342754364, 0.29366204142570496, 0.2641080617904663, 0.34197020530700684, 0.41492587327957153, 0.272165447473526, 0.16183896362781525, 0.2381381243467331, 0.17202234268188477, 0.19702066481113434, 0.2907324731349945, 0.1725660264492035, 0.2590627074241638, 0.13081815838813782, 0.07950559258460999, 0.14746026694774628, 0.19445784389972687, 0.16482843458652496, 0.16181039810180664, 0.15048405528068542, 0.2343577742576599, 0.15770579874515533, 0.2090836465358734, 0.3466511368751526, 0.23271113634109497, 0.1467331498861313, 0.2573035955429077, 0.26241472363471985, 0.22948689758777618, 0.28528282046318054, 0.3353050947189331, 0.1951395571231842, 0.35892200469970703, 0.3224635124206543, 0.35214343667030334, 0.3483264744281769, 0.4259292483329773, 0.2535534203052521, 0.18851935863494873, 0.25819891691207886, 0.22053061425685883, 0.15271173417568207, 0.15352299809455872]</t>
+          <t>[0.10548391938209534, 0.1592617779970169, 0.5272559523582458, 0.46506577730178833, 0.3283264636993408, 0.17730310559272766, 0.1626911759376526, 0.15467886626720428, 0.13740672171115875, 0.1755041927099228, 0.29720380902290344, 0.4671304225921631, 0.2737804353237152, 0.45477768778800964, 0.3490491211414337, 0.5659186244010925, 0.6887454390525818, 0.6324385404586792, 0.4717852473258972, 0.446939617395401, 0.4439626932144165, 0.3601178228855133, 0.4596353769302368, 0.47092998027801514, 0.28955766558647156, 0.22078484296798706, 0.374073326587677, 0.19386965036392212, 0.30424433946609497, 0.433147132396698, 0.6708797812461853, 0.36350882053375244, 0.20312368869781494, 0.5549127459526062, 0.6641479730606079, 0.7181772589683533, 0.529123842716217, 0.5735649466514587, 0.800288200378418, 0.6663336753845215, 0.6589208245277405, 0.4403046667575836, 0.4010361433029175, 0.4188475012779236, 0.3610435724258423, 0.41233956813812256, 0.4489540159702301, 0.6250221133232117, 0.31180182099342346, 0.30170243978500366, 0.38749751448631287, 0.2734009921550751, 0.2650272846221924, 0.3129394054412842, 0.4456269443035126, 0.3189382255077362, 0.5933141708374023, 0.624594509601593, 0.35101982951164246, 0.5539889931678772, 0.29272013902664185, 0.10154341161251068, 0.11097519099712372, 0.1677791029214859, 0.2506643831729889, 0.14791621267795563, 0.3925390839576721, 0.14538826048374176, 0.17071786522865295, 0.20212239027023315, 0.1112007349729538, 0.48276087641716003, 0.5614240765571594, 0.41396647691726685, 0.47592291235923767, 0.27688780426979065, 0.255267471075058, 0.1976144164800644, 0.3183301091194153, 0.34678301215171814, 0.17484566569328308, 0.06128094717860222, 0.10687747597694397, 0.09559258073568344, 0.12466621398925781, 0.24325433373451233, 0.12658613920211792, 0.21361427009105682, 0.0959298387169838, 0.048844266682863235, 0.09496568143367767, 0.11703486740589142, 0.07106837630271912, 0.07996316999197006, 0.09362902492284775, 0.21179841458797455, 0.11416782438755035, 0.11217928677797318, 0.19810707867145538, 0.13727228343486786, 0.0722709596157074, 0.172127828001976, 0.1994948387145996, 0.1302810162305832, 0.17290768027305603, 0.16975870728492737, 0.0584556981921196, 0.1288014054298401, 0.17864897847175598, 0.1965993344783783, 0.15830174088478088, 0.224075049161911, 0.08372381329536438, 0.08208318054676056, 0.10107244551181793, 0.1148085817694664, 0.08240044116973877, 0.08323552459478378]</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.7122511863708496</v>
+        <v>0.800288200378418</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -1423,10 +1423,10 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.8141544999962207</v>
+        <v>0.7958996999950614</v>
       </c>
       <c r="J22" t="n">
-        <v>0.006899614406747633</v>
+        <v>0.006744912711822555</v>
       </c>
     </row>
     <row r="23">
@@ -1445,11 +1445,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[0.5961781144142151, 0.8196743726730347, 0.472084105014801, 0.3730713725090027, 0.31691956520080566, 0.23119580745697021, 0.5778121948242188, 0.5241747498512268, 0.5880939364433289, 0.6942251920700073, 0.5692092776298523, 0.5893741250038147, 0.6224192380905151, 0.8289303183555603, 0.6267312169075012, 0.4264626204967499, 0.5066717267036438, 0.5401679277420044, 0.4308779537677765, 0.350410133600235, 0.34129899740219116, 0.6131105422973633, 0.5540494322776794, 0.5700410604476929, 0.5958857536315918, 0.49298569560050964, 0.3698366582393646, 0.5016565322875977, 0.6683486700057983, 0.5681162476539612, 0.5111702680587769, 0.36320269107818604, 0.33584633469581604, 0.32181045413017273, 0.47805923223495483, 0.5608978271484375, 0.42644283175468445, 0.42274126410484314, 0.4608762860298157, 0.36389851570129395, 0.46598339080810547, 0.5340629816055298, 0.4225951135158539, 0.3871482312679291, 0.48625147342681885, 0.46648406982421875, 0.5065336227416992, 0.36773520708084106, 0.3832358419895172, 0.49126526713371277, 0.34756380319595337, 0.4515914022922516, 0.4219745397567749, 0.6179410815238953, 0.7464502453804016, 0.8953775763511658, 0.7759075164794922, 0.5321571826934814, 0.5236323475837708, 0.40702250599861145, 0.6097907423973083, 0.572188675403595, 0.6841961741447449, 0.5116317868232727, 0.4353275001049042, 0.5888737440109253, 0.6268272995948792, 0.715796172618866, 0.7198367714881897, 0.7649961113929749, 0.48613449931144714, 0.33844730257987976, 0.4619297683238983, 0.41025614738464355, 0.3201761543750763, 0.5290325880050659, 0.5251376032829285, 0.38753509521484375, 0.5710907578468323, 0.6612227559089661, 0.4264792203903198, 0.48324236273765564, 0.543647050857544, 0.37722712755203247, 0.562275230884552, 0.36440467834472656, 0.4444846510887146, 0.43255069851875305, 0.3246980607509613, 0.31458333134651184, 0.2692810297012329, 0.3303300440311432, 0.5729876756668091, 0.48004332184791565, 0.3641870617866516, 0.3628051280975342, 0.2988094687461853, 0.3439742922782898, 0.4939866364002228, 0.49836254119873047, 0.5831136107444763, 0.4444306790828705, 0.4275006651878357, 0.47792354226112366, 0.5409629344940186, 0.6991890072822571, 0.568266749382019, 0.6983122825622559, 0.5422189235687256, 0.7219493389129639, 0.7561027407646179, 0.799788236618042, 0.6367741227149963, 0.6586350798606873, 0.5991804003715515, 0.44328179955482483, 0.4619099199771881, 0.39317452907562256, 0.3931977152824402]</t>
+          <t>[0.40674683451652527, 0.644726574420929, 0.3117866814136505, 0.1927967071533203, 0.13394571840763092, 0.07018587738275528, 0.3052154779434204, 0.30570515990257263, 0.4117470681667328, 0.5262295603752136, 0.4112566411495209, 0.48034027218818665, 0.5908241271972656, 0.785332977771759, 0.582714855670929, 0.3641875982284546, 0.4192214906215668, 0.504239559173584, 0.24087470769882202, 0.2513256072998047, 0.24515268206596375, 0.5616721510887146, 0.4268033802509308, 0.46802955865859985, 0.444011926651001, 0.346904456615448, 0.24269360303878784, 0.3757759928703308, 0.5986547470092773, 0.4036199450492859, 0.389008492231369, 0.28073862195014954, 0.19879862666130066, 0.2570342719554901, 0.4843664765357971, 0.5559054613113403, 0.36039242148399353, 0.3160889446735382, 0.3563864827156067, 0.25825971364974976, 0.3692895472049713, 0.42194122076034546, 0.25394681096076965, 0.1921810358762741, 0.334011971950531, 0.373092919588089, 0.3765760362148285, 0.2616618275642395, 0.29526352882385254, 0.3327307403087616, 0.1926344484090805, 0.2741081416606903, 0.2517503499984741, 0.41139230132102966, 0.593086302280426, 0.8603308796882629, 0.7541049718856812, 0.40551409125328064, 0.4075441360473633, 0.3050491213798523, 0.5038236379623413, 0.4807909429073334, 0.5286260843276978, 0.3391701281070709, 0.2251407653093338, 0.3339613974094391, 0.4417450726032257, 0.4589434862136841, 0.576677680015564, 0.6894055604934692, 0.42264851927757263, 0.2569688558578491, 0.31900373101234436, 0.2802888751029968, 0.223416268825531, 0.37652894854545593, 0.3744312524795532, 0.3265116214752197, 0.5976670384407043, 0.6530767679214478, 0.4124786853790283, 0.5127422213554382, 0.5843437910079956, 0.34760236740112305, 0.6089248061180115, 0.3163028359413147, 0.3459842801094055, 0.3119008243083954, 0.2114749550819397, 0.1812250018119812, 0.12606877088546753, 0.23420460522174835, 0.5647931098937988, 0.46445056796073914, 0.3389680087566376, 0.3256741762161255, 0.20581656694412231, 0.28742650151252747, 0.5645102262496948, 0.40568292140960693, 0.514092206954956, 0.3472016751766205, 0.28286629915237427, 0.31847742199897766, 0.47481292486190796, 0.6873422861099243, 0.45917969942092896, 0.69179368019104, 0.40537816286087036, 0.578203022480011, 0.6806113123893738, 0.8150202631950378, 0.5629642009735107, 0.6926348805427551, 0.5583362579345703, 0.3862112760543823, 0.3464590311050415, 0.30162838101387024, 0.30085647106170654]</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.8953775763511658</v>
+        <v>0.8603308796882629</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.6666916999965906</v>
+        <v>0.6744689000042854</v>
       </c>
       <c r="J23" t="n">
-        <v>0.005602451260475551</v>
+        <v>0.005667805882388952</v>
       </c>
     </row>
     <row r="24">
@@ -1485,11 +1485,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0.5603147149085999, 0.4976297616958618, 0.6273508667945862, 0.6662934422492981, 0.6989612579345703, 0.5712317824363708, 0.6537418365478516, 0.5433734655380249, 0.49345582723617554, 0.44645628333091736, 0.47785720229148865, 0.36518993973731995, 0.4370548725128174, 0.4214146137237549, 0.42936715483665466, 0.4651937186717987, 0.46812868118286133, 0.761393129825592, 0.6904346346855164, 0.6831746101379395, 0.6497084498405457, 0.5218092203140259, 0.4744146168231964, 0.6406287550926208, 0.5169834494590759, 0.42758214473724365, 0.5544631481170654, 0.28968167304992676, 0.24459634721279144, 0.28184351325035095, 0.40195703506469727, 0.44536468386650085, 0.3946785628795624, 0.3766750395298004, 0.5154088139533997, 0.5198076963424683, 0.5393252372741699, 0.5733858942985535, 0.6221712231636047, 0.4433223605155945, 0.7834773063659668, 0.7514961361885071, 0.7417352199554443, 0.6751289367675781, 0.5489659905433655, 0.44923752546310425, 0.49966081976890564, 0.45205312967300415, 0.4547927677631378, 0.47305694222450256, 0.4630810022354126, 0.4448212683200836, 0.43372640013694763, 0.42020437121391296, 0.4419143795967102, 0.5062201023101807, 0.4751304090023041, 0.621197521686554, 0.4101123511791229, 0.4724429249763489, 0.5453594923019409, 0.43425455689430237, 0.36371102929115295, 0.35933950543403625, 0.320098340511322, 0.3220839202404022, 0.3144664764404297, 0.29951170086860657, 0.47446101903915405, 0.4020109176635742, 0.5520240068435669, 0.559503972530365, 0.2996383309364319, 0.21430709958076477, 0.3686303198337555, 0.34629902243614197, 0.30865606665611267, 0.34054434299468994, 0.3988623321056366, 0.40736934542655945, 0.2281987965106964, 0.24299666285514832, 0.27683597803115845, 0.43710777163505554, 0.43216830492019653, 0.5403081178665161, 0.3841084837913513, 0.3251073658466339, 0.3500344455242157, 0.4859960377216339, 0.46306315064430237, 0.3860514163970947, 0.31658777594566345, 0.3353784382343292, 0.44723832607269287, 0.3421437442302704, 0.3926539719104767, 0.6113513708114624, 0.5669090151786804, 0.4321182370185852, 0.4578409194946289, 0.433647483587265, 0.4728054702281952, 0.39192336797714233, 0.4182537794113159, 0.5008013844490051, 0.4700314998626709, 0.38042140007019043, 0.34141597151756287, 0.48645174503326416, 0.3772987127304077, 0.355368971824646, 0.27245697379112244, 0.20666314661502838, 0.2442144900560379, 0.2644411027431488, 0.27077996730804443, 0.27018606662750244]</t>
+          <t>[0.7253859043121338, 0.5916476845741272, 0.7039744853973389, 0.7682027220726013, 0.7821661829948425, 0.7208048105239868, 0.7681831121444702, 0.6828922033309937, 0.6921256184577942, 0.6557029485702515, 0.7766807675361633, 0.6138492822647095, 0.6697832942008972, 0.743636965751648, 0.681066632270813, 0.7533712983131409, 0.7325096726417542, 0.8890953063964844, 0.8694809675216675, 0.8527059555053711, 0.8318036794662476, 0.7251803874969482, 0.6739262342453003, 0.855444073677063, 0.7628707885742188, 0.7164254188537598, 0.7910761833190918, 0.523840069770813, 0.35659077763557434, 0.43753582239151, 0.7371551990509033, 0.7533931732177734, 0.6705374717712402, 0.5998401641845703, 0.7080982327461243, 0.7165728807449341, 0.7162376642227173, 0.7041823863983154, 0.7406174540519714, 0.5860360264778137, 0.8768983483314514, 0.8724881410598755, 0.8788559436798096, 0.8143536448478699, 0.648239016532898, 0.5571494698524475, 0.6173690557479858, 0.5799274444580078, 0.6589019894599915, 0.6810320615768433, 0.7056889533996582, 0.6042922139167786, 0.46160319447517395, 0.5844969749450684, 0.5310295820236206, 0.6460874080657959, 0.652080774307251, 0.7697837352752686, 0.5424145460128784, 0.5982154011726379, 0.6722397804260254, 0.543979823589325, 0.4859297573566437, 0.3900127112865448, 0.4580257833003998, 0.4414221942424774, 0.44258493185043335, 0.42948663234710693, 0.682835042476654, 0.534417986869812, 0.7323121428489685, 0.625149667263031, 0.5430946946144104, 0.35420358180999756, 0.5944198966026306, 0.5251660346984863, 0.5060094594955444, 0.5854797959327698, 0.7015905976295471, 0.7562169432640076, 0.48465341329574585, 0.44216984510421753, 0.5217640995979309, 0.7189183831214905, 0.6086493730545044, 0.7179728150367737, 0.48515594005584717, 0.5142092704772949, 0.6127566695213318, 0.721440851688385, 0.7489625811576843, 0.5774877667427063, 0.4244568943977356, 0.5215035080909729, 0.6576910018920898, 0.5632985234260559, 0.6800061464309692, 0.769930899143219, 0.7415230870246887, 0.6191953420639038, 0.6987819671630859, 0.5775989890098572, 0.6926349997520447, 0.5718891024589539, 0.7506335377693176, 0.8194113969802856, 0.7610862255096436, 0.6426931619644165, 0.5593515038490295, 0.7382049560546875, 0.570491373538971, 0.4710421860218048, 0.36906126141548157, 0.3012484312057495, 0.31687888503074646, 0.3290485143661499, 0.3377529978752136, 0.3368908762931824]</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.7834773063659668</v>
+        <v>0.8890953063964844</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.6595493000058923</v>
+        <v>0.6666222999920137</v>
       </c>
       <c r="J24" t="n">
-        <v>0.005589400847507562</v>
+        <v>0.005649341525356048</v>
       </c>
     </row>
     <row r="25">
@@ -1525,11 +1525,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[0.3165415823459625, 0.629525363445282, 0.37058454751968384, 0.5352481007575989, 0.5197394490242004, 0.7137373089790344, 0.5534980297088623, 0.5746867656707764, 0.37910911440849304, 0.3961774706840515, 0.5902622938156128, 0.5369169116020203, 0.4534325897693634, 0.6639545559883118, 0.6073647737503052, 0.6809938549995422, 0.7788997888565063, 0.7527722120285034, 0.6572062373161316, 0.6774389743804932, 0.7247264385223389, 0.7110240459442139, 0.7123320698738098, 0.711044430732727, 0.5852722525596619, 0.5097268223762512, 0.49121540784835815, 0.5278568267822266, 0.5479300022125244, 0.4251146614551544, 0.5088146924972534, 0.5592783689498901, 0.4486173987388611, 0.42403557896614075, 0.4116881489753723, 0.3177894055843353, 0.21735110878944397, 0.3169343173503876, 0.28546154499053955, 0.3872195780277252, 0.2512480914592743, 0.2587350904941559, 0.2642991840839386, 0.3548199236392975, 0.38067901134490967, 0.3016570210456848, 0.2129860520362854, 0.4333837926387787, 0.40619397163391113, 0.299426794052124, 0.2626712918281555, 0.38152021169662476, 0.6378902196884155, 0.5428081750869751, 0.4960857331752777, 0.3712615668773651, 0.37602323293685913, 0.3507761061191559, 0.4608423411846161, 0.493707537651062, 0.39245322346687317, 0.32269179821014404, 0.4205070436000824, 0.49367639422416687, 0.31325650215148926, 0.3443334400653839, 0.27934005856513977, 0.43641629815101624, 0.3105414807796478, 0.3181982636451721, 0.2793012857437134, 0.27706605195999146, 0.33344781398773193, 0.28483065962791443, 0.42216500639915466, 0.31938016414642334, 0.2329149842262268, 0.22053514420986176, 0.1765141785144806, 0.18243420124053955, 0.5126494765281677, 0.36381128430366516, 0.25310638546943665, 0.34525975584983826, 0.2998880445957184, 0.23599685728549957, 0.25309720635414124, 0.14485156536102295, 0.1757517158985138, 0.22030514478683472, 0.21851660311222076, 0.26490116119384766, 0.20526108145713806, 0.2807970941066742, 0.2536102831363678, 0.29813843965530396, 0.3344499468803406, 0.20552955567836761, 0.2353627234697342, 0.190449059009552, 0.26192450523376465, 0.2702522873878479, 0.24288854002952576, 0.2808999717235565, 0.29003340005874634, 0.2359708696603775, 0.25707387924194336, 0.21142835915088654, 0.25004857778549194, 0.265338271856308, 0.46797478199005127, 0.5118175745010376, 0.3492775559425354, 0.5609908103942871, 0.5963935256004333, 0.48044100403785706, 0.42072996497154236, 0.42074355483055115]</t>
+          <t>[0.3486312925815582, 0.6628144383430481, 0.3529435396194458, 0.5303641557693481, 0.5192820429801941, 0.7704744935035706, 0.7228443026542664, 0.6499227285385132, 0.33980536460876465, 0.36037033796310425, 0.5709351301193237, 0.5813865661621094, 0.507972002029419, 0.727787971496582, 0.7415404319763184, 0.8179779648780823, 0.8767699003219604, 0.843670666217804, 0.8047855496406555, 0.7743440866470337, 0.8784631490707397, 0.8675816655158997, 0.8276432752609253, 0.8563106060028076, 0.7435347437858582, 0.6062041521072388, 0.5556149482727051, 0.5376306176185608, 0.5508354902267456, 0.40771543979644775, 0.4860638678073883, 0.56219083070755, 0.46002185344696045, 0.42239952087402344, 0.3936558961868286, 0.2835138738155365, 0.16374237835407257, 0.2651526629924774, 0.3035435974597931, 0.524664580821991, 0.32787078619003296, 0.23728445172309875, 0.1871509701013565, 0.242208331823349, 0.21824395656585693, 0.20997531712055206, 0.20660336315631866, 0.40246716141700745, 0.4391302466392517, 0.27253562211990356, 0.231022909283638, 0.39841964840888977, 0.7586901187896729, 0.6675917506217957, 0.6791857481002808, 0.6120389103889465, 0.497273713350296, 0.3944823741912842, 0.48047149181365967, 0.44921088218688965, 0.3797180652618408, 0.46234405040740967, 0.5825674533843994, 0.5971081852912903, 0.38362371921539307, 0.4292341470718384, 0.3854112923145294, 0.47253966331481934, 0.4345410466194153, 0.4542674720287323, 0.5296217799186707, 0.35587289929389954, 0.40074825286865234, 0.41705259680747986, 0.598294734954834, 0.5084146857261658, 0.29546698927879333, 0.24487213790416718, 0.24443641304969788, 0.22885781526565552, 0.5649695992469788, 0.3659278154373169, 0.42895832657814026, 0.4270264804363251, 0.33385011553764343, 0.28440773487091064, 0.25204241275787354, 0.14910607039928436, 0.21702785789966583, 0.22525495290756226, 0.18850785493850708, 0.21645192801952362, 0.18443670868873596, 0.29405149817466736, 0.19743920862674713, 0.2429215908050537, 0.28450074791908264, 0.13608817756175995, 0.19671882688999176, 0.1772615611553192, 0.20426256954669952, 0.23472656309604645, 0.18703696131706238, 0.2634769082069397, 0.2692191004753113, 0.3026096224784851, 0.316131591796875, 0.2537529468536377, 0.26474931836128235, 0.2960769832134247, 0.4801303744316101, 0.49065062403678894, 0.34635239839553833, 0.5222122669219971, 0.6265562176704407, 0.4960528612136841, 0.5277689099311829, 0.5279879570007324]</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.7788997888565063</v>
+        <v>0.8784631490707397</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.661705600010464</v>
+        <v>0.6648374999931548</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005607674576359864</v>
+        <v>0.005634216101636905</v>
       </c>
     </row>
     <row r="26">
@@ -1565,11 +1565,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[0.054631687700748444, 0.05096927657723427, 0.06711278110742569, 0.059419840574264526, 0.09043841063976288, 0.09223276376724243, 0.11805786192417145, 0.12079127132892609, 0.08110751956701279, 0.06570792198181152, 0.0645027831196785, 0.06691525131464005, 0.05145776644349098, 0.05796147510409355, 0.05645721033215523, 0.06564568728208542, 0.04567106068134308, 0.04639267548918724, 0.0550035797059536, 0.04634997621178627, 0.059445738792419434, 0.08884043991565704, 0.07328322529792786, 0.06646190583705902, 0.0971013680100441, 0.050996046513319016, 0.03609399497509003, 0.0449892021715641, 0.0670633614063263, 0.06844238191843033, 0.07426384836435318, 0.10471156984567642, 0.1243731677532196, 0.09196379035711288, 0.10711857676506042, 0.12090110778808594, 0.11506135761737823, 0.1936899721622467, 0.2383117526769638, 0.3605862855911255, 0.20641618967056274, 0.17940163612365723, 0.264129638671875, 0.2034817934036255, 0.16612067818641663, 0.13881662487983704, 0.12524265050888062, 0.15766353905200958, 0.1293981373310089, 0.224382683634758, 0.23510444164276123, 0.26861152052879333, 0.11481815576553345, 0.1289706528186798, 0.06559114903211594, 0.0903828889131546, 0.1342814415693283, 0.19994394481182098, 0.16861264407634735, 0.16397547721862793, 0.1676441878080368, 0.07439567893743515, 0.06724778562784195, 0.07326996326446533, 0.23191313445568085, 0.23562903702259064, 0.18947671353816986, 0.14576515555381775, 0.12341883778572083, 0.12950369715690613, 0.09395162761211395, 0.08067076653242111, 0.09278985112905502, 0.1655019074678421, 0.11575967073440552, 0.10714270919561386, 0.07887376844882965, 0.08139015734195709, 0.06086751073598862, 0.06239299103617668, 0.07930011302232742, 0.10222887992858887, 0.1096857488155365, 0.10481239855289459, 0.11840584874153137, 0.06872057914733887, 0.060387417674064636, 0.060819100588560104, 0.08883171528577805, 0.07388897985219955, 0.10650204867124557, 0.09410163760185242, 0.13196179270744324, 0.12630595266819, 0.13115228712558746, 0.16464386880397797, 0.15354278683662415, 0.25526708364486694, 0.2448185235261917, 0.320286363363266, 0.49856728315353394, 0.32033205032348633, 0.12083093076944351, 0.38770586252212524, 0.5947535037994385, 0.6741946935653687, 0.11547917127609253, 0.07154886424541473, 0.113474041223526, 0.17774337530136108, 0.12235458195209503, 0.10847174376249313, 0.10190493613481522, 0.07495726644992828, 0.0683365911245346, 0.08278351277112961, 0.09973399341106415, 0.11501159518957138, 0.10565804690122604, 0.11679873615503311, 0.10411105304956436, 0.08766038715839386, 0.07495856285095215, 0.08527766168117523, 0.09688833355903625, 0.07873047888278961, 0.07966957986354828, 0.07372971624135971, 0.07892612367868423, 0.07731707394123077, 0.07909049093723297, 0.07541321963071823, 0.08162621408700943, 0.06332214921712875, 0.05761323496699333, 0.06060762703418732, 0.0768074318766594, 0.06613375246524811, 0.07560166716575623, 0.06327519565820694, 0.06326709687709808, 0.06666884571313858, 0.06390602141618729, 0.06719917058944702, 0.05819883570075035, 0.07435859739780426, 0.07433498650789261]</t>
+          <t>[0.015011454932391644, 0.01398202870041132, 0.021446282044053078, 0.01914387196302414, 0.027874700725078583, 0.0287664495408535, 0.037340134382247925, 0.04011055827140808, 0.02826572023332119, 0.0195899847894907, 0.017971308901906013, 0.020222755149006844, 0.014862002804875374, 0.01653127186000347, 0.01612759567797184, 0.01826946996152401, 0.013661481440067291, 0.015253412537276745, 0.018980171531438828, 0.016045130789279938, 0.019962748512625694, 0.030314156785607338, 0.0260202307254076, 0.024000810459256172, 0.029092131182551384, 0.01647644117474556, 0.014496194198727608, 0.01950714737176895, 0.022211788222193718, 0.02439587004482746, 0.022224854677915573, 0.02979869581758976, 0.03143681585788727, 0.02909843623638153, 0.04638924077153206, 0.04334612190723419, 0.03897413983941078, 0.07347258180379868, 0.11358395218849182, 0.2025882452726364, 0.05266517028212547, 0.046039335429668427, 0.06453181058168411, 0.06098562479019165, 0.055013302713632584, 0.044754207134246826, 0.03209749609231949, 0.03485149145126343, 0.027775516733527184, 0.04152267426252365, 0.048135239630937576, 0.061958979815244675, 0.027603620663285255, 0.026012137532234192, 0.014516964554786682, 0.019380459561944008, 0.028398197144269943, 0.045591920614242554, 0.04516509920358658, 0.05213334038853645, 0.043442655354738235, 0.021381447091698647, 0.018932120874524117, 0.022177185863256454, 0.06726884096860886, 0.07474964112043381, 0.05409030243754387, 0.03539779782295227, 0.033438943326473236, 0.03665269538760185, 0.023551568388938904, 0.017441894859075546, 0.02065919153392315, 0.04283713176846504, 0.03436068072915077, 0.028325986117124557, 0.021231897175312042, 0.02371075563132763, 0.018078302964568138, 0.014549664221704006, 0.019978513941168785, 0.01956949196755886, 0.023625483736395836, 0.02409779094159603, 0.02407107874751091, 0.018305703997612, 0.01565745286643505, 0.016475629061460495, 0.02250618115067482, 0.017323410138487816, 0.021438883617520332, 0.021191149950027466, 0.03488092124462128, 0.03346863389015198, 0.04709292948246002, 0.06891319155693054, 0.0568145290017128, 0.06585599482059479, 0.04999806359410286, 0.0684165209531784, 0.24097414314746857, 0.11323282122612, 0.044686976820230484, 0.18918773531913757, 0.37052154541015625, 0.4421473443508148, 0.039813391864299774, 0.024213897064328194, 0.045713234692811966, 0.06953483074903488, 0.03989370912313461, 0.04455040395259857, 0.040260590612888336, 0.025755228474736214, 0.02698151394724846, 0.02882193587720394, 0.034492164850234985, 0.044121138751506805, 0.047393228858709335, 0.045445844531059265, 0.04024744778871536, 0.03299055993556976, 0.027368834242224693, 0.03171556442975998, 0.04254865273833275, 0.03525778278708458, 0.037689436227083206, 0.02997509576380253, 0.03259235993027687, 0.031234359368681908, 0.03475341945886612, 0.03215382620692253, 0.03261056914925575, 0.020668737590312958, 0.018829016014933586, 0.02116357907652855, 0.030929675325751305, 0.022227205336093903, 0.024637289345264435, 0.022034285590052605, 0.02229113131761551, 0.02484947070479393, 0.025137344375252724, 0.025399932637810707, 0.020585929974913597, 0.02436883933842182, 0.0242588110268116]</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.6741946935653687</v>
+        <v>0.4421473443508148</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1583,10 +1583,10 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.8320037000230514</v>
+        <v>0.8614974999945844</v>
       </c>
       <c r="J26" t="n">
-        <v>0.005659889115803071</v>
+        <v>0.005860527210847513</v>
       </c>
     </row>
     <row r="27">
@@ -1605,11 +1605,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[0.026049043983221054, 0.03684668242931366, 0.033140894025564194, 0.023292146623134613, 0.026816261932253838, 0.026201125234365463, 0.03636670485138893, 0.040803272277116776, 0.044669024646282196, 0.04271354898810387, 0.03863247483968735, 0.04197491332888603, 0.050167012959718704, 0.049268364906311035, 0.027769362553954124, 0.03514933958649635, 0.034598249942064285, 0.05807160213589668, 0.06370390206575394, 0.03497602418065071, 0.0309713426977396, 0.04191148653626442, 0.03363346308469772, 0.0270436592400074, 0.051112860441207886, 0.03058854676783085, 0.03340194746851921, 0.02050122618675232, 0.021005874499678612, 0.025892801582813263, 0.030623188242316246, 0.02432713471353054, 0.02381971664726734, 0.03825666382908821, 0.03677764907479286, 0.0348844937980175, 0.04922286421060562, 0.05535752326250076, 0.03780067712068558, 0.03724794462323189, 0.03137468919157982, 0.025696486234664917, 0.03338838368654251, 0.04014093801379204, 0.033058956265449524, 0.02681463398039341, 0.02249622717499733, 0.019419671967625618, 0.01405753381550312, 0.017765389755368233, 0.02099001035094261, 0.031986501067876816, 0.03569033369421959, 0.03639734536409378, 0.03892325237393379, 0.04989248141646385, 0.038875237107276917, 0.03747839480638504, 0.030644947662949562, 0.025899028405547142, 0.026501094922423363, 0.02437901310622692, 0.0285660233348608, 0.037779759615659714, 0.03993307426571846, 0.04221494495868683, 0.041564177721738815, 0.05574539676308632, 0.061106473207473755, 0.05638328567147255, 0.04438066482543945, 0.03600775822997093, 0.054209254682064056, 0.04613546282052994, 0.049252718687057495, 0.04634282365441322, 0.03726687282323837, 0.03389182314276695, 0.03636838495731354, 0.03358727693557739, 0.0329350084066391, 0.037752892822027206, 0.03280933201313019, 0.034801483154296875, 0.03469230979681015, 0.037591394037008286, 0.035960741341114044, 0.04091007634997368, 0.042416688054800034, 0.041680868715047836, 0.03791077807545662, 0.03669091686606407, 0.04065023735165596, 0.033873300999403, 0.03810390830039978, 0.04580849036574364, 0.027997436001896858, 0.028093881905078888, 0.03954919055104256, 0.052996594458818436, 0.07181870937347412, 0.06765585392713547, 0.03570157289505005, 0.035314496606588364, 0.029960159212350845, 0.03172668069601059, 0.0361347459256649, 0.03336963430047035, 0.025168433785438538, 0.02322687767446041, 0.02440595254302025, 0.021406909450888634, 0.020343923941254616, 0.022946197539567947, 0.02966453693807125, 0.03618401661515236, 0.03826088458299637, 0.027789045125246048, 0.025561846792697906, 0.03462971746921539, 0.03596353903412819, 0.0315735787153244, 0.03768046945333481, 0.04847573861479759, 0.05149289593100548, 0.062071580439805984, 0.05474575236439705, 0.036039549857378006, 0.03688020631670952, 0.03146164119243622, 0.04709148034453392, 0.05468742176890373, 0.04891246184706688, 0.04798177629709244, 0.04067622870206833, 0.02530611678957939, 0.02873719483613968, 0.03533734753727913, 0.027722083032131195, 0.02905137836933136, 0.02326715737581253, 0.02680548094213009, 0.031174637377262115, 0.0333055779337883, 0.05074691027402878, 0.0443648137152195, 0.043722592294216156, 0.04335891455411911]</t>
+          <t>[0.006681821774691343, 0.009290567599236965, 0.008170305751264095, 0.00658086221665144, 0.006990807596594095, 0.006713048554956913, 0.011199058964848518, 0.011247954331338406, 0.012110354378819466, 0.011049352586269379, 0.012547643855214119, 0.013351744040846825, 0.013903169892728329, 0.017178205773234367, 0.01014790777117014, 0.014298470690846443, 0.012973519042134285, 0.022674130275845528, 0.023532669991254807, 0.012605599127709866, 0.010671533644199371, 0.018054109066724777, 0.012087089940905571, 0.010343014262616634, 0.03276646509766579, 0.013461986556649208, 0.014246795326471329, 0.009523529559373856, 0.010350645519793034, 0.012115078046917915, 0.013778085820376873, 0.011059689335525036, 0.011091412045061588, 0.01756090670824051, 0.01589340902864933, 0.01517454069107771, 0.024630175903439522, 0.026273032650351524, 0.015584869310259819, 0.01346669252961874, 0.010609338991343975, 0.007466115057468414, 0.010208471678197384, 0.012408413924276829, 0.011343508027493954, 0.008917944505810738, 0.007875202223658562, 0.0075102075934410095, 0.004891728982329369, 0.0059828730300068855, 0.007188715506345034, 0.014695745892822742, 0.014817102812230587, 0.014549595303833485, 0.018779324367642403, 0.021888189017772675, 0.01844179630279541, 0.015181519091129303, 0.013188961893320084, 0.00849715806543827, 0.007823961786925793, 0.007210252340883017, 0.00844895001500845, 0.01258801855146885, 0.012041157111525536, 0.016141017898917198, 0.014207078143954277, 0.018833011388778687, 0.02704487554728985, 0.02360398881137371, 0.022064538672566414, 0.013916682451963425, 0.018396319821476936, 0.014521857723593712, 0.015566627494990826, 0.014311191625893116, 0.012901592068374157, 0.011610646732151508, 0.019580237567424774, 0.015026268549263477, 0.013086356222629547, 0.014821404591202736, 0.012342574074864388, 0.013037997297942638, 0.013275104574859142, 0.01505618542432785, 0.01533731073141098, 0.014465897344052792, 0.014260167255997658, 0.014176670461893082, 0.013870105147361755, 0.013153782114386559, 0.012244290672242641, 0.011333822272717953, 0.0161841232329607, 0.01674710400402546, 0.009946726262569427, 0.007966839708387852, 0.011952581815421581, 0.014395320788025856, 0.02143443189561367, 0.019578618928790092, 0.00980410911142826, 0.01036792155355215, 0.008846728131175041, 0.009369653649628162, 0.011295974254608154, 0.010846427641808987, 0.008348685689270496, 0.007838788442313671, 0.007949816063046455, 0.006510531064122915, 0.005808630958199501, 0.00830257311463356, 0.008871070109307766, 0.010475406423211098, 0.012210663408041, 0.00894422922283411, 0.00807229895144701, 0.011110539548099041, 0.012478549033403397, 0.01154007762670517, 0.012429507449269295, 0.019299255684018135, 0.019000614061951637, 0.03113456442952156, 0.026552753522992134, 0.014657964929938316, 0.013767877593636513, 0.011485356837511063, 0.017813729122281075, 0.020461928099393845, 0.02024875581264496, 0.024572469294071198, 0.019014453515410423, 0.008180678822100163, 0.008691900409758091, 0.01126175094395876, 0.008517167530953884, 0.008276669308543205, 0.007015654351562262, 0.0075022149831056595, 0.007921391166746616, 0.008672274649143219, 0.017302026972174644, 0.01384403370320797, 0.013782791793346405, 0.013708459213376045]</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.07181870937347412</v>
+        <v>0.03276646509766579</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0.8367315999930725</v>
+        <v>0.8344077999936417</v>
       </c>
       <c r="J27" t="n">
-        <v>0.005653591891845084</v>
+        <v>0.005637890540497579</v>
       </c>
     </row>
     <row r="28">
@@ -1645,11 +1645,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[0.1279679238796234, 0.12069989740848541, 0.12256977707147598, 0.11914891749620438, 0.10638236999511719, 0.11457443982362747, 0.1169360876083374, 0.1642301231622696, 0.16021287441253662, 0.18694165349006653, 0.0981205627322197, 0.10986349731683731, 0.1372397243976593, 0.1504833996295929, 0.12257473170757294, 0.1549629420042038, 0.10397721081972122, 0.08569890260696411, 0.1155581995844841, 0.10197914391756058, 0.11542309075593948, 0.09068379551172256, 0.09505690634250641, 0.0739981159567833, 0.12718838453292847, 0.20983253419399261, 0.2730877101421356, 0.1450599581003189, 0.1758708655834198, 0.26166272163391113, 0.25036370754241943, 0.1541147530078888, 0.15178272128105164, 0.14525051414966583, 0.12326169013977051, 0.11918539553880692, 0.13584654033184052, 0.11812078952789307, 0.13690818846225739, 0.18908080458641052, 0.20547351241111755, 0.22050979733467102, 0.2888546586036682, 0.3099416196346283, 0.23538044095039368, 0.139443039894104, 0.07875045388936996, 0.09138444066047668, 0.22982922196388245, 0.18319304287433624, 0.2103748768568039, 0.334121435880661, 0.24927747249603271, 0.12181928753852844, 0.09320208430290222, 0.11702835559844971, 0.14052803814411163, 0.1403815597295761, 0.18844717741012573, 0.16566841304302216, 0.14010995626449585, 0.11433226615190506, 0.18877317011356354, 0.12609340250492096, 0.11261291801929474, 0.11035649478435516, 0.1268165111541748, 0.17494334280490875, 0.25000032782554626, 0.23221486806869507, 0.16251295804977417, 0.15695179998874664, 0.3510897159576416, 0.3115837872028351, 0.28557485342025757, 0.16905203461647034, 0.12132905423641205, 0.1768423616886139, 0.39297857880592346, 0.5059528350830078, 0.5287268757820129, 0.4459531307220459, 0.3472776710987091, 0.37182095646858215, 0.5667921900749207, 0.3840962052345276, 0.20783814787864685, 0.3312341868877411, 0.23856008052825928, 0.1833779364824295, 0.1252778023481369, 0.171968474984169, 0.20738862454891205, 0.11686618626117706, 0.08388756960630417, 0.08663521707057953, 0.11731445789337158, 0.11830845475196838, 0.136496901512146, 0.09690052270889282, 0.08512651920318604, 0.11457903683185577, 0.13456305861473083, 0.09664038568735123, 0.07877598702907562, 0.1724880337715149, 0.1247093677520752, 0.15705019235610962, 0.2429083287715912, 0.17464104294776917, 0.14520001411437988, 0.15453502535820007, 0.16049239039421082, 0.14813807606697083, 0.22789333760738373, 0.20047912001609802, 0.154002383351326, 0.10894253104925156, 0.07760751992464066, 0.08640045672655106, 0.2771175801753998, 0.48132210969924927, 0.5667699575424194, 0.26655253767967224, 0.16773048043251038, 0.13124121725559235, 0.13162726163864136, 0.09050179272890091, 0.09284159541130066, 0.09145991504192352, 0.0881599634885788, 0.09067755937576294, 0.10106654465198517, 0.0921785980463028, 0.12586387991905212, 0.07662036269903183, 0.0649174302816391, 0.09573293477296829, 0.09582772850990295, 0.1247425302863121, 0.15663175284862518, 0.097710981965065, 0.1149669885635376, 0.14165084064006805, 0.13308025896549225, 0.09265986829996109, 0.0998363047838211, 0.09960329532623291]</t>
+          <t>[0.05387163907289505, 0.04644090309739113, 0.04782591760158539, 0.049214307218790054, 0.044543199241161346, 0.06060772389173508, 0.049374956637620926, 0.07179924845695496, 0.07472223043441772, 0.0667039081454277, 0.034709375351667404, 0.041597917675971985, 0.05116166174411774, 0.060898419469594955, 0.050353944301605225, 0.06519290059804916, 0.0335720032453537, 0.03145628049969673, 0.03789098933339119, 0.033046524971723557, 0.036660924553871155, 0.03328705579042435, 0.043116722255945206, 0.031335704028606415, 0.05589720234274864, 0.0900924876332283, 0.15455152094364166, 0.06507224589586258, 0.0655847042798996, 0.0934106633067131, 0.09093009680509567, 0.05589567869901657, 0.06484885513782501, 0.05457855388522148, 0.06143680214881897, 0.05983538553118706, 0.05197785422205925, 0.04386027529835701, 0.051977138966321945, 0.09767358005046844, 0.09757356345653534, 0.11935457587242126, 0.22952836751937866, 0.28976866602897644, 0.18266838788986206, 0.07398547232151031, 0.03362016752362251, 0.0401742123067379, 0.10920217633247375, 0.07207868993282318, 0.08861130475997925, 0.1850070208311081, 0.12987233698368073, 0.049375224858522415, 0.03528319299221039, 0.04437941685318947, 0.051760584115982056, 0.05921423062682152, 0.0880899429321289, 0.07564575970172882, 0.056896258145570755, 0.05062875896692276, 0.08844348043203354, 0.06642457842826843, 0.04895433783531189, 0.05788762494921684, 0.06559111177921295, 0.10446621477603912, 0.16250790655612946, 0.16550657153129578, 0.07765963673591614, 0.06694260239601135, 0.22840635478496552, 0.25494614243507385, 0.20280827581882477, 0.07818346470594406, 0.054763659834861755, 0.08007752150297165, 0.17683373391628265, 0.29724961519241333, 0.32019495964050293, 0.2187209278345108, 0.17023266851902008, 0.17397847771644592, 0.33236807584762573, 0.22977380454540253, 0.09076183289289474, 0.11191572993993759, 0.09178084880113602, 0.04975702986121178, 0.03973684087395668, 0.06437692791223526, 0.09968404471874237, 0.06695821136236191, 0.03697288781404495, 0.03520318120718002, 0.04917960613965988, 0.06089487299323082, 0.0660601407289505, 0.04763254523277283, 0.04051388055086136, 0.061468739062547684, 0.07964254915714264, 0.06258082389831543, 0.040711939334869385, 0.10714557021856308, 0.06707096844911575, 0.09992801398038864, 0.15627029538154602, 0.10511253774166107, 0.07009826600551605, 0.10821649432182312, 0.11512475460767746, 0.09550830721855164, 0.11090634763240814, 0.078050397336483, 0.05247512087225914, 0.03489699959754944, 0.027795445173978806, 0.030942382290959358, 0.17318755388259888, 0.3828195035457611, 0.44648024439811707, 0.1446480005979538, 0.07174120843410492, 0.04889917001128197, 0.05833769962191582, 0.033822882920503616, 0.0348287895321846, 0.03633498400449753, 0.043401844799518585, 0.05201112851500511, 0.06742726266384125, 0.06556659191846848, 0.08414407074451447, 0.0448690801858902, 0.037020955234766006, 0.04907005652785301, 0.03759445250034332, 0.060104478150606155, 0.10269618779420853, 0.047368280589580536, 0.06391837447881699, 0.07784897089004517, 0.059127144515514374, 0.050754621624946594, 0.0584879070520401, 0.058433182537555695]</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.5667921900749207</v>
+        <v>0.4464802443981171</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0.8281892999948468</v>
+        <v>0.8384290999965742</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00559587364861383</v>
+        <v>0.005665061486463339</v>
       </c>
     </row>
     <row r="29">
@@ -1685,11 +1685,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[0.0869518592953682, 0.09304066002368927, 0.07552071660757065, 0.06854699552059174, 0.07176469266414642, 0.054667700082063675, 0.05159598961472511, 0.054053980857133865, 0.05586225911974907, 0.06851302087306976, 0.06529542058706284, 0.06032543256878853, 0.06651736795902252, 0.06155404448509216, 0.04711752012372017, 0.05024193227291107, 0.04699567332863808, 0.04102950543165207, 0.046363361179828644, 0.04909086227416992, 0.058016303926706314, 0.06212926283478737, 0.07511133700609207, 0.06224464625120163, 0.05037103220820427, 0.04209808260202408, 0.0592193678021431, 0.0633537545800209, 0.06313461065292358, 0.055270254611968994, 0.0462307445704937, 0.047796059399843216, 0.047828320413827896, 0.04877646267414093, 0.04741767793893814, 0.04404676333069801, 0.047078561037778854, 0.05387511104345322, 0.06210095062851906, 0.06183886528015137, 0.06066867709159851, 0.07181105017662048, 0.061550240963697433, 0.06431890279054642, 0.0811467245221138, 0.08582385629415512, 0.08448214828968048, 0.05384218320250511, 0.05311241373419762, 0.055046871304512024, 0.04753781110048294, 0.05439632385969162, 0.05281530320644379, 0.11851154267787933, 0.09650781005620956, 0.10521414875984192, 0.07547208666801453, 0.06919906288385391, 0.07222428917884827, 0.0490371473133564, 0.04898783564567566, 0.06549373269081116, 0.0872662365436554, 0.07228542864322662, 0.06519259512424469, 0.06686611473560333, 0.07707325369119644, 0.05889691412448883, 0.05465645715594292, 0.049321483820676804, 0.06330683827400208, 0.046912092715501785, 0.046145014464855194, 0.044707100838422775, 0.052488721907138824, 0.052826691418886185, 0.05437656119465828, 0.037462227046489716, 0.03170402720570564, 0.03556663915514946, 0.02993057668209076, 0.03218275308609009, 0.03081117570400238, 0.029235171154141426, 0.029833538457751274, 0.028050726279616356, 0.03151579201221466, 0.03257102146744728, 0.03918445110321045, 0.04670558124780655, 0.04253014549612999, 0.0437275730073452, 0.05285745486617088, 0.05410977825522423, 0.050781574100255966, 0.04559247940778732, 0.046439122408628464, 0.05155119672417641, 0.04375375062227249, 0.0457858182489872, 0.053460851311683655, 0.059812307357788086, 0.06252984702587128, 0.06191813200712204, 0.054656174033880234, 0.05743412300944328, 0.05737954005599022, 0.05133378878235817, 0.04519801586866379, 0.042514778673648834, 0.029421212151646614, 0.027796566486358643, 0.028599616140127182, 0.031604740768671036, 0.027957899495959282, 0.030559314414858818, 0.03699081763625145, 0.03420112282037735, 0.040740277618169785, 0.03858540952205658, 0.040609560906887054, 0.04024968296289444, 0.05481027811765671, 0.04219033569097519, 0.04009035974740982, 0.05263446271419525, 0.05175485461950302, 0.05291612818837166, 0.06888005882501602, 0.06807983666658401, 0.06800644844770432, 0.06286321580410004, 0.053424105048179626, 0.05028163269162178, 0.05501312389969826, 0.05153919756412506, 0.05601952224969864, 0.048392049968242645, 0.0593244694173336, 0.06956908851861954, 0.08064520359039307, 0.06734300404787064, 0.063962422311306, 0.0506126843392849, 0.04659747704863548, 0.05230983346700668, 0.054937202483415604, 0.0552724152803421]</t>
+          <t>[0.027455829083919525, 0.030653193593025208, 0.02914150059223175, 0.030374273657798767, 0.03290297091007233, 0.02462419494986534, 0.022709595039486885, 0.023356229066848755, 0.024165911599993706, 0.031328026205301285, 0.027622604742646217, 0.025061368942260742, 0.026831798255443573, 0.02651139535009861, 0.017926855012774467, 0.019213158637285233, 0.01804913766682148, 0.013516735285520554, 0.017050016671419144, 0.016513705253601074, 0.017427455633878708, 0.01624552346765995, 0.021435650065541267, 0.021744921803474426, 0.01870003156363964, 0.012461482547223568, 0.02830580435693264, 0.02942594699561596, 0.027623308822512627, 0.019868986681103706, 0.013217614963650703, 0.01444849744439125, 0.014257184229791164, 0.012985571287572384, 0.012796331197023392, 0.014764688909053802, 0.01609487645328045, 0.018223538994789124, 0.021563654765486717, 0.019474493339657784, 0.019918391481041908, 0.026080312207341194, 0.02081620879471302, 0.021244114264845848, 0.02805451862514019, 0.034587156027555466, 0.03359145671129227, 0.016330664977431297, 0.012875869870185852, 0.013085839338600636, 0.01144236046820879, 0.012300862930715084, 0.011678695678710938, 0.03474065661430359, 0.030094141140580177, 0.030967101454734802, 0.022847015410661697, 0.019123751670122147, 0.021497774869203568, 0.01420881599187851, 0.015295642428100109, 0.02228965051472187, 0.02778981439769268, 0.021606843918561935, 0.01584031991660595, 0.020537979900836945, 0.030989058315753937, 0.022114884108304977, 0.016456402838230133, 0.014487994834780693, 0.019395459443330765, 0.015137388370931149, 0.015131182037293911, 0.013468656688928604, 0.015266993083059788, 0.014363860711455345, 0.013474969193339348, 0.010521652176976204, 0.009152987971901894, 0.009577972814440727, 0.00903964601457119, 0.009119883179664612, 0.009587467648088932, 0.008541123941540718, 0.009073951281607151, 0.007682134862989187, 0.010056630708277225, 0.011264890432357788, 0.01325056329369545, 0.015947392210364342, 0.014366332441568375, 0.016293803229928017, 0.017733782529830933, 0.01735180988907814, 0.017068669199943542, 0.014329330064356327, 0.015004553832113743, 0.01744505949318409, 0.015691300854086876, 0.016048118472099304, 0.019139623269438744, 0.022532474249601364, 0.02274269051849842, 0.022954169660806656, 0.019897472113370895, 0.02200332097709179, 0.021427582949399948, 0.017870409414172173, 0.01461115200072527, 0.01374976895749569, 0.008849755860865116, 0.008094376884400845, 0.008070827461779118, 0.010499473661184311, 0.009887938387691975, 0.011057352647185326, 0.013301171362400055, 0.011991273611783981, 0.014696279540657997, 0.012030872516334057, 0.013127452693879604, 0.013246660120785236, 0.018957026302814484, 0.013893341645598412, 0.013476699590682983, 0.01746426708996296, 0.01723533868789673, 0.01877533458173275, 0.022871363908052444, 0.022111371159553528, 0.019142625853419304, 0.01899542473256588, 0.016751889139413834, 0.01600874774158001, 0.017913050949573517, 0.015811815857887268, 0.017233891412615776, 0.01620510034263134, 0.019266262650489807, 0.022755656391382217, 0.02483447454869747, 0.020751580595970154, 0.02112877182662487, 0.012845261953771114, 0.012603829614818096, 0.014866017736494541, 0.020407723262906075, 0.020602311939001083]</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1185115426778793</v>
+        <v>0.03474065661430359</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1703,10 +1703,10 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0.8319612999912351</v>
+        <v>0.8357737000042107</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005621360135075913</v>
+        <v>0.005647119594623045</v>
       </c>
     </row>
     <row r="30">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[0.04835386946797371, 0.06396783143281937, 0.11499153077602386, 0.11160162091255188, 0.054301582276821136, 0.04901369288563728, 0.04793301969766617, 0.07233832776546478, 0.06247652322053909, 0.06194829195737839, 0.055979203432798386, 0.05500873178243637, 0.040683142840862274, 0.03617481514811516, 0.038028497248888016, 0.04212037846446037, 0.036687418818473816, 0.03484324738383293, 0.03146407753229141, 0.04389733448624611, 0.0531407855451107, 0.05083383247256279, 0.033973656594753265, 0.02974393405020237, 0.031884267926216125, 0.02877620793879032, 0.027020355686545372, 0.029721416532993317, 0.038045354187488556, 0.03248899057507515, 0.028665026649832726, 0.03188444301486015, 0.030684033408761024, 0.034836962819099426, 0.03370187431573868, 0.04551834985613823, 0.04626361280679703, 0.05230661854147911, 0.05948711931705475, 0.04977649077773094, 0.05838632583618164, 0.040712304413318634, 0.03773335739970207, 0.03436177596449852, 0.03464518487453461, 0.030310211703181267, 0.026930924504995346, 0.02463947795331478, 0.024959102272987366, 0.03306132182478905, 0.027423499152064323, 0.026109108701348305, 0.026412641629576683, 0.029774943366646767, 0.03107302449643612, 0.02164648473262787, 0.01484893262386322, 0.017074085772037506, 0.03067445382475853, 0.028506940230727196, 0.0421517938375473, 0.05916500464081764, 0.044663917273283005, 0.04338959977030754, 0.026401473209261894, 0.021271739155054092, 0.021363165229558945, 0.02219547890126705, 0.029499776661396027, 0.03086318075656891, 0.025148192420601845, 0.024233102798461914, 0.027676885947585106, 0.02591009810566902, 0.02504608780145645, 0.027720339596271515, 0.023535748943686485, 0.023452630266547203, 0.03303474560379982, 0.03704116493463516, 0.03886975720524788, 0.04051661118865013, 0.029533153399825096, 0.0306088924407959, 0.03995094820857048, 0.0371464341878891, 0.02622959017753601, 0.032964859157800674, 0.03488375246524811, 0.05266575515270233, 0.053873054683208466, 0.04706756770610809, 0.03281408175826073, 0.03272029384970665, 0.029807163402438164, 0.02416808344423771, 0.030728233978152275, 0.06925224512815475, 0.05346590653061867, 0.04386138916015625, 0.02390735223889351, 0.0294626634567976, 0.03413243219256401, 0.03375665470957756, 0.026679078117012978, 0.028041303157806396, 0.02831893041729927, 0.02674851007759571, 0.024298425763845444, 0.025989579036831856, 0.0376589260995388, 0.028018129989504814, 0.032297562807798386, 0.031404945999383926, 0.03428961709141731, 0.03988701105117798, 0.028455985710024834, 0.04253925383090973, 0.030160726979374886, 0.03400770574808121, 0.04022900387644768, 0.032022181898355484, 0.02354276180267334, 0.027686819434165955, 0.042199812829494476, 0.04787256941199303, 0.08533032238483429, 0.044400546699762344, 0.04245336353778839, 0.05052356794476509, 0.056669577956199646, 0.06050854176282883, 0.05079713836312294, 0.05209339037537575, 0.04733302816748619, 0.04331951588392258, 0.05465574562549591, 0.043653953820466995, 0.04981224238872528, 0.052605003118515015, 0.048336468636989594, 0.0440305694937706, 0.03028760850429535, 0.029839780181646347, 0.025503410026431084, 0.039161063730716705, 0.03821742907166481, 0.03804443031549454]</t>
+          <t>[0.02306755818426609, 0.02694879099726677, 0.05331125482916832, 0.038352008908987045, 0.025574736297130585, 0.025187494233250618, 0.023720471188426018, 0.03794880583882332, 0.036337073892354965, 0.03584762290120125, 0.026186494156718254, 0.02860036864876747, 0.021242531016469002, 0.02144731767475605, 0.023116571828722954, 0.025420406833291054, 0.02812187746167183, 0.03263535723090172, 0.02757387049496174, 0.028436116874217987, 0.03026612475514412, 0.027080446481704712, 0.015150985680520535, 0.013420487754046917, 0.016584528610110283, 0.01321415789425373, 0.01331064198166132, 0.013183868490159512, 0.020753029733896255, 0.01498165912926197, 0.013915622606873512, 0.010415678843855858, 0.011037108488380909, 0.014144208282232285, 0.013579729944467545, 0.022299103438854218, 0.026737088337540627, 0.02646503783762455, 0.02792240120470524, 0.02082964964210987, 0.02516786754131317, 0.017948560416698456, 0.01689549908041954, 0.015008494257926941, 0.014656725339591503, 0.012579155154526234, 0.008118083700537682, 0.007104705087840557, 0.006554629188030958, 0.01183688547462225, 0.00976930744946003, 0.009623552672564983, 0.009786737151443958, 0.010690191760659218, 0.011316411197185516, 0.0075300163589417934, 0.005712054669857025, 0.007314776070415974, 0.008778698742389679, 0.008818449452519417, 0.013160785660147667, 0.022459639236330986, 0.02241542376577854, 0.020935263484716415, 0.010869499295949936, 0.007451754529029131, 0.007415649015456438, 0.007715820800513029, 0.011278189718723297, 0.01048014685511589, 0.007545330096036196, 0.007563298102468252, 0.008284174837172031, 0.009299037978053093, 0.010089725255966187, 0.010408511385321617, 0.007594421971589327, 0.0076089040376245975, 0.012039496563374996, 0.012784886173903942, 0.015759652480483055, 0.015252280980348587, 0.012824654579162598, 0.012194588780403137, 0.019168900325894356, 0.01675378903746605, 0.010277677327394485, 0.01588250882923603, 0.017992163076996803, 0.030370542779564857, 0.029345136135816574, 0.019055025652050972, 0.013082663528621197, 0.01246857363730669, 0.01388882752507925, 0.012221325188875198, 0.013924871571362019, 0.04471295699477196, 0.029920298606157303, 0.021087512373924255, 0.010811143554747105, 0.011766481213271618, 0.011785904876887798, 0.016677742823958397, 0.012236525304615498, 0.013699628412723541, 0.012096783146262169, 0.01127066370099783, 0.01064840517938137, 0.012947337701916695, 0.020319970324635506, 0.012542003765702248, 0.012578088790178299, 0.010528658516705036, 0.011264330707490444, 0.014153405092656612, 0.009301005862653255, 0.012438638135790825, 0.010173537768423557, 0.010850505903363228, 0.013555319048464298, 0.012755517847836018, 0.009119486436247826, 0.009863804094493389, 0.013147811405360699, 0.01864744909107685, 0.02909761480987072, 0.01915605366230011, 0.018835823982954025, 0.021895192563533783, 0.02271071821451187, 0.02286100946366787, 0.019614433869719505, 0.02094871737062931, 0.02889464609324932, 0.024606768041849136, 0.032835107296705246, 0.01854238100349903, 0.02396761253476143, 0.028769994154572487, 0.02479887567460537, 0.021846018731594086, 0.016423694789409637, 0.015427941456437111, 0.013628172688186169, 0.015764402225613594, 0.016393281519412994, 0.016193313524127007]</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1149915307760239</v>
+        <v>0.05331125482916832</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1743,10 +1743,10 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0.8426888000103645</v>
+        <v>0.8417569000012008</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005693843243313274</v>
+        <v>0.005687546621629735</v>
       </c>
     </row>
     <row r="31">
@@ -1765,11 +1765,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[0.029432732611894608, 0.031165212392807007, 0.02265193872153759, 0.022615959867835045, 0.027650929987430573, 0.014323020353913307, 0.01576361618936062, 0.017960328608751297, 0.02867366559803486, 0.03699139505624771, 0.045597463846206665, 0.04873644560575485, 0.044598326086997986, 0.03333142399787903, 0.03505779430270195, 0.032778266817331314, 0.037239354103803635, 0.03700179606676102, 0.0543096587061882, 0.04998922348022461, 0.06284081935882568, 0.052594076842069626, 0.04524042457342148, 0.050229284912347794, 0.031435150653123856, 0.029291288927197456, 0.03480929508805275, 0.026403050869703293, 0.035144999623298645, 0.02918914332985878, 0.023799024522304535, 0.022634783759713173, 0.02582804299890995, 0.038763340562582016, 0.043794918805360794, 0.0472283698618412, 0.0411369726061821, 0.036444101482629776, 0.03567468747496605, 0.041048191487789154, 0.03504614531993866, 0.07111714035272598, 0.06820419430732727, 0.05604615807533264, 0.04954824596643448, 0.057607680559158325, 0.055617887526750565, 0.06389275938272476, 0.04212205484509468, 0.037945397198200226, 0.05507449433207512, 0.03835984319448471, 0.03601041063666344, 0.03948258236050606, 0.04534764960408211, 0.050678424537181854, 0.03356951102614403, 0.03869924694299698, 0.03454996272921562, 0.028327560052275658, 0.029339969158172607, 0.02091534063220024, 0.029128115624189377, 0.027408387511968613, 0.028673281893134117, 0.025042779743671417, 0.023568328469991684, 0.026280781254172325, 0.025051897391676903, 0.03260287269949913, 0.028833765536546707, 0.030631333589553833, 0.028820723295211792, 0.03048093058168888, 0.039620913565158844, 0.029216665774583817, 0.022083532065153122, 0.021465398371219635, 0.022313684225082397, 0.024976277723908424, 0.015619039535522461, 0.011670680716633797, 0.014828827232122421, 0.02236652746796608, 0.025281019508838654, 0.022595129907131195, 0.025542620569467545, 0.02938239462673664, 0.029939576983451843, 0.03040934167802334, 0.029288258403539658, 0.035969991236925125, 0.046015430241823196, 0.042521558701992035, 0.04332001507282257, 0.032639823853969574, 0.03305619955062866, 0.03734557703137398, 0.03326626121997833, 0.04210199788212776, 0.026394497603178024, 0.03366914018988609, 0.03163405507802963, 0.03298305720090866, 0.0329294428229332, 0.038222964853048325, 0.03913186490535736, 0.02617894671857357, 0.027219930663704872, 0.0272387508302927, 0.025263730436563492, 0.02548818476498127, 0.0327286422252655, 0.05065738409757614, 0.047874584794044495, 0.042822740972042084, 0.03991672769188881, 0.05197465792298317, 0.05168614163994789, 0.036856960505247116, 0.032067716121673584, 0.03167574480175972, 0.04196714609861374, 0.04003181681036949, 0.04779352247714996, 0.047267816960811615, 0.03718143329024315, 0.03560516610741615, 0.021295789629220963, 0.024653932079672813, 0.026918288320302963, 0.04463788494467735, 0.030493823811411858, 0.027914060279726982, 0.030365951359272003, 0.023043407127261162, 0.021272776648402214, 0.03151640668511391, 0.026550274342298508, 0.027874767780303955, 0.03719096630811691, 0.02932421863079071, 0.0280299074947834, 0.023811722174286842, 0.02073642797768116, 0.02302820235490799, 0.032992396503686905, 0.032811496406793594]</t>
+          <t>[0.00911839958280325, 0.008792595937848091, 0.008405152708292007, 0.00933434721082449, 0.011796783655881882, 0.006503582466393709, 0.006323427427560091, 0.007966014556586742, 0.012512980960309505, 0.01571745239198208, 0.017948726192116737, 0.013736887834966183, 0.010795602574944496, 0.008412469178438187, 0.010793371126055717, 0.009457395412027836, 0.00908037181943655, 0.01087179034948349, 0.012334219180047512, 0.01646825298666954, 0.014872566796839237, 0.01625092513859272, 0.01251962874084711, 0.017147086560726166, 0.009985008276998997, 0.008897248655557632, 0.011647723615169525, 0.00914333201944828, 0.00968215148895979, 0.013021213933825493, 0.009827776812016964, 0.009232908487319946, 0.009226476773619652, 0.012608031742274761, 0.01999100111424923, 0.03318532183766365, 0.026760702952742577, 0.020130518823862076, 0.01882639154791832, 0.020217077806591988, 0.017100675031542778, 0.035840798169374466, 0.030013781040906906, 0.026342814788222313, 0.02725311368703842, 0.031273238360881805, 0.030556704849004745, 0.0317368283867836, 0.018110983073711395, 0.015189619734883308, 0.026814619079232216, 0.02573356032371521, 0.021636558696627617, 0.02419433370232582, 0.021725473925471306, 0.02795744501054287, 0.016343411058187485, 0.02239605411887169, 0.020109878852963448, 0.01568301022052765, 0.016460223123431206, 0.01218273676931858, 0.015018647536635399, 0.015130331739783287, 0.013862567022442818, 0.011380850337445736, 0.01163259893655777, 0.012328295037150383, 0.010633361525833607, 0.013322897255420685, 0.012938754633069038, 0.011257775127887726, 0.010210210457444191, 0.01017991453409195, 0.011343512684106827, 0.008273260667920113, 0.006245054770261049, 0.007412740029394627, 0.00897779781371355, 0.009685252793133259, 0.0057728467509150505, 0.004902655258774757, 0.007183496840298176, 0.010299465619027615, 0.011428731493651867, 0.00917811319231987, 0.008897854015231133, 0.009054044261574745, 0.009106788784265518, 0.0074538178741931915, 0.007152828853577375, 0.0086600873619318, 0.013750259764492512, 0.014896513894200325, 0.015198693610727787, 0.011587812565267086, 0.0104787927120924, 0.011997387744486332, 0.010261010378599167, 0.01638302020728588, 0.009527236223220825, 0.013961512595415115, 0.014220267534255981, 0.013884981162846088, 0.01115874107927084, 0.009907647967338562, 0.010894391685724258, 0.00993314478546381, 0.010991684161126614, 0.01035899668931961, 0.011331802234053612, 0.011483050882816315, 0.0131330331787467, 0.028414105996489525, 0.03208284452557564, 0.0260520838201046, 0.021001668646931648, 0.02635900117456913, 0.020805083215236664, 0.014737424440681934, 0.009249987080693245, 0.009954213164746761, 0.015868213027715683, 0.0122829619795084, 0.014657372608780861, 0.017991255968809128, 0.01611393131315708, 0.01699613220989704, 0.010431624948978424, 0.01255396194756031, 0.011969074606895447, 0.016149751842021942, 0.010621096938848495, 0.009993200190365314, 0.014710205607116222, 0.00845397263765335, 0.007819917052984238, 0.012172521091997623, 0.010913125239312649, 0.009540821425616741, 0.014339389279484749, 0.012372150085866451, 0.009922327473759651, 0.006983783561736345, 0.006403339095413685, 0.007898864336311817, 0.008976796641945839, 0.008926404640078545]</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.07111714035272598</v>
+        <v>0.03584079816937447</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0.8310967000143137</v>
+        <v>0.8526531999959843</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005615518243339957</v>
+        <v>0.005761170270243137</v>
       </c>
     </row>
     <row r="32">
@@ -1805,11 +1805,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[0.30588194727897644, 0.21189020574092865, 0.2738310694694519, 0.3719308078289032, 0.23847505450248718, 0.26769891381263733, 0.2372877299785614, 0.23320962488651276, 0.16961711645126343, 0.5039018988609314, 0.5294216871261597, 0.5659396052360535, 0.3364543616771698, 0.16950564086437225, 0.14894439280033112, 0.09325091540813446, 0.08160711079835892, 0.08632005751132965, 0.1575496941804886, 0.11944815516471863, 0.11541713029146194, 0.11211350560188293, 0.08089716732501984, 0.11778391152620316, 0.16627192497253418, 0.09120046347379684, 0.0917244404554367, 0.12199520319700241, 0.09971417486667633, 0.157369464635849, 0.1330198049545288, 0.11139354109764099, 0.17619073390960693, 0.16972315311431885, 0.1089300662279129, 0.09403273463249207, 0.12123869359493256, 0.11833438277244568, 0.13471969962120056, 0.11934491991996765, 0.12256935238838196, 0.1363280713558197, 0.18964126706123352, 0.2042568176984787, 0.19168345630168915, 0.17232359945774078, 0.13637585937976837, 0.12539929151535034, 0.1200961321592331, 0.10165343433618546, 0.13754920661449432, 0.3785516023635864, 0.3764561414718628, 0.29589495062828064, 0.1641237735748291, 0.09653786569833755, 0.1047094464302063, 0.08122427016496658, 0.08608979731798172, 0.09236635267734528, 0.11286667734384537, 0.07905879616737366, 0.06097177043557167, 0.1695941835641861, 0.20876997709274292, 0.18872667849063873, 0.19041550159454346, 0.1255461573600769, 0.1423385739326477, 0.13873323798179626, 0.14103542268276215, 0.20306265354156494, 0.1821841150522232, 0.13355225324630737, 0.15698954463005066, 0.21262624859809875, 0.1850883960723877, 0.13609766960144043, 0.2236236333847046, 0.2338891327381134, 0.18526427447795868, 0.15323403477668762, 0.15376721322536469, 0.15472209453582764, 0.2574175000190735, 0.43775689601898193, 0.4164234697818756, 0.5316358208656311, 0.3845561742782593, 0.413230836391449, 0.29721251130104065, 0.2343776375055313, 0.1413189321756363, 0.10461228340864182, 0.08096770942211151, 0.07498175650835037, 0.11562664061784744, 0.11287543177604675, 0.13312718272209167, 0.27210134267807007, 0.25536099076271057, 0.24232083559036255, 0.3668440878391266, 0.22577515244483948, 0.2758305072784424, 0.26949936151504517, 0.23341874778270721, 0.30830809473991394, 0.21617260575294495, 0.16186276078224182, 0.14421002566814423, 0.07575453072786331, 0.09175988286733627, 0.098107248544693, 0.2662820816040039, 0.3387356400489807, 0.33929333090782166, 0.2158472090959549, 0.21853387355804443, 0.21355153620243073, 0.19609935581684113, 0.2218746393918991, 0.2910887598991394, 0.198259636759758, 0.1778322160243988, 0.17810671031475067, 0.21762768924236298, 0.18622013926506042, 0.1678759753704071, 0.18503260612487793, 0.2139589637517929, 0.2241593450307846, 0.07737874239683151, 0.05600001662969589, 0.04316387325525284, 0.06256525218486786, 0.060709480196237564, 0.05194348841905594, 0.05275420472025871, 0.048372626304626465, 0.05723554268479347, 0.1319451779127121, 0.09537070989608765, 0.13363958895206451, 0.12967728078365326, 0.1440422087907791, 0.14371390640735626]</t>
+          <t>[0.23864659667015076, 0.1251605600118637, 0.14084528386592865, 0.23322439193725586, 0.13503913581371307, 0.17116747796535492, 0.14068135619163513, 0.15095099806785583, 0.12775473296642303, 0.28725460171699524, 0.3115287721157074, 0.31618404388427734, 0.18723155558109283, 0.1160266175866127, 0.11059187352657318, 0.08571159839630127, 0.08038385212421417, 0.07805997878313065, 0.14173689484596252, 0.12071281671524048, 0.12257485836744308, 0.08694031834602356, 0.06584377586841583, 0.12440980225801468, 0.21045126020908356, 0.1112557202577591, 0.09521237760782242, 0.08959635347127914, 0.07374238222837448, 0.09588520228862762, 0.06380300223827362, 0.06167341023683548, 0.0878855362534523, 0.0896008089184761, 0.07283629477024078, 0.06664945185184479, 0.08002132177352905, 0.07334540784358978, 0.09035474061965942, 0.06547714024782181, 0.0708543062210083, 0.08011892437934875, 0.1304248869419098, 0.1524161696434021, 0.1345033198595047, 0.10129669308662415, 0.07159867882728577, 0.06564594805240631, 0.08369272947311401, 0.053178537636995316, 0.0655367374420166, 0.19501926004886627, 0.18328146636486053, 0.14946505427360535, 0.10677339881658554, 0.07022824138402939, 0.06982612609863281, 0.05043676868081093, 0.05850064009428024, 0.06601938605308533, 0.0838528499007225, 0.07211869210004807, 0.053005583584308624, 0.1173032596707344, 0.17710310220718384, 0.15551301836967468, 0.1881493330001831, 0.12010683864355087, 0.13187409937381744, 0.15415288507938385, 0.14558537304401398, 0.22869838774204254, 0.15549737215042114, 0.12982504069805145, 0.14154665172100067, 0.17556628584861755, 0.13599413633346558, 0.11926160007715225, 0.1673869490623474, 0.19012944400310516, 0.16792240738868713, 0.15367469191551208, 0.1360991895198822, 0.13815176486968994, 0.19859158992767334, 0.37812915444374084, 0.3981645703315735, 0.5925296545028687, 0.47518011927604675, 0.519218385219574, 0.36618104577064514, 0.30196046829223633, 0.1548670083284378, 0.07934848964214325, 0.07212972640991211, 0.059275269508361816, 0.07511328905820847, 0.06933699548244476, 0.08380386233329773, 0.17621925473213196, 0.16556702554225922, 0.14529040455818176, 0.1992858499288559, 0.12851615250110626, 0.18750597536563873, 0.18256227672100067, 0.18310371041297913, 0.2267882525920868, 0.17487698793411255, 0.1316901296377182, 0.11636348068714142, 0.05520611256361008, 0.07891468703746796, 0.07982192933559418, 0.2257617861032486, 0.33626994490623474, 0.3083619177341461, 0.16632172465324402, 0.16082605719566345, 0.19664591550827026, 0.1523580104112625, 0.16349758207798004, 0.21959415078163147, 0.16570766270160675, 0.14640803635120392, 0.1279638558626175, 0.15653491020202637, 0.16219565272331238, 0.14513270556926727, 0.17588478326797485, 0.17893627285957336, 0.15173649787902832, 0.06717628240585327, 0.055762775242328644, 0.03815656900405884, 0.04852377623319626, 0.042807646095752716, 0.03724586218595505, 0.035563450306653976, 0.0332755409181118, 0.040348973125219345, 0.1121213361620903, 0.06908819079399109, 0.10489935427904129, 0.08702534437179565, 0.12628035247325897, 0.12558209896087646]</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.5659396052360535</v>
+        <v>0.5925296545028687</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0.8236325999896508</v>
+        <v>0.8370642000081716</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005602942857072454</v>
+        <v>0.005694314285769875</v>
       </c>
     </row>
     <row r="33">
@@ -1845,11 +1845,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[0.3846619427204132, 0.4154365360736847, 0.2853645980358124, 0.19716043770313263, 0.18259139358997345, 0.21914741396903992, 0.24388642609119415, 0.3533342778682709, 0.3055884540081024, 0.2880564332008362, 0.24676008522510529, 0.3126518130302429, 0.43902602791786194, 0.4530769884586334, 0.36350518465042114, 0.3645625114440918, 0.2878514230251312, 0.21300792694091797, 0.23089247941970825, 0.2231990247964859, 0.17335864901542664, 0.1329185664653778, 0.20114769041538239, 0.2608509063720703, 0.34477779269218445, 0.3827366828918457, 0.27099549770355225, 0.21154922246932983, 0.3801230788230896, 0.4515511393547058, 0.4070657789707184, 0.5196869373321533, 0.5084935426712036, 0.4476450979709625, 0.32703739404678345, 0.29771891236305237, 0.29803577065467834, 0.35035669803619385, 0.33420053124427795, 0.4831257164478302, 0.41829901933670044, 0.3469008803367615, 0.23585815727710724, 0.13373123109340668, 0.12849506735801697, 0.12090695649385452, 0.1881449967622757, 0.20569050312042236, 0.18407195806503296, 0.23919077217578888, 0.1779024451971054, 0.21662156283855438, 0.23975692689418793, 0.2369503676891327, 0.24074435234069824, 0.17880277335643768, 0.1908060610294342, 0.16803237795829773, 0.257452130317688, 0.25506848096847534, 0.3041001558303833, 0.23606649041175842, 0.13454878330230713, 0.10893095284700394, 0.12578655779361725, 0.12517543137073517, 0.10926090180873871, 0.09899897873401642, 0.17129498720169067, 0.12599489092826843, 0.14293111860752106, 0.15338432788848877, 0.17213113605976105, 0.3147779405117035, 0.27127256989479065, 0.34419453144073486, 0.2702150046825409, 0.2559541165828705, 0.20279891788959503, 0.24984779953956604, 0.30888986587524414, 0.2996407151222229, 0.28444403409957886, 0.3199858069419861, 0.3926124572753906, 0.5328254699707031, 0.5381731390953064, 0.5677840113639832, 0.5833410024642944, 0.4403553307056427, 0.3489667773246765, 0.26452869176864624, 0.23209097981452942, 0.18067321181297302, 0.14757737517356873, 0.13157959282398224, 0.16883967816829681, 0.27191027998924255, 0.28000929951667786, 0.1846267133951187, 0.17446507513523102, 0.264137864112854, 0.32627853751182556, 0.33834823966026306, 0.24553309381008148, 0.28792229294776917, 0.3551645576953888, 0.3959612548351288, 0.41661563515663147, 0.3671630024909973, 0.3022904396057129, 0.3324998617172241, 0.3791385591030121, 0.39237743616104126, 0.23776750266551971, 0.2187577486038208, 0.17767532169818878, 0.13796746730804443, 0.101990707218647, 0.08975370973348618, 0.09411119669675827, 0.1297924816608429, 0.14503522217273712, 0.18106450140476227, 0.17190015316009521, 0.17573441565036774, 0.24857541918754578, 0.18412591516971588, 0.241251602768898, 0.28519827127456665, 0.2680792212486267, 0.26758643984794617, 0.2750445306301117, 0.24131809175014496, 0.1945277452468872, 0.2026052623987198, 0.2700800895690918, 0.2578868567943573, 0.17925016582012177, 0.16853296756744385, 0.10896775126457214, 0.07654587924480438, 0.11268705874681473, 0.10791629552841187, 0.12966029345989227, 0.10849460959434509, 0.11510414630174637, 0.11443889141082764]</t>
+          <t>[0.07828462868928909, 0.094415083527565, 0.07057257741689682, 0.0468243733048439, 0.05243826285004616, 0.06286685913801193, 0.07430844753980637, 0.12722013890743256, 0.11159352958202362, 0.10738269239664078, 0.10169300436973572, 0.18954680860042572, 0.32729199528694153, 0.33472299575805664, 0.2583410143852234, 0.23330599069595337, 0.10502797365188599, 0.07677598297595978, 0.0791366770863533, 0.08596792817115784, 0.06597062200307846, 0.04880784451961517, 0.07199271768331528, 0.08885736763477325, 0.123416468501091, 0.21069087088108063, 0.12612591683864594, 0.07649613171815872, 0.1948768049478531, 0.25616133213043213, 0.22552819550037384, 0.3046196699142456, 0.3291465938091278, 0.2067781686782837, 0.11453986167907715, 0.1472056359052658, 0.18722906708717346, 0.2218109667301178, 0.24310114979743958, 0.3228224515914917, 0.2693686783313751, 0.1636793315410614, 0.10828312486410141, 0.056542400270700455, 0.05967983976006508, 0.05291667580604553, 0.05258483067154884, 0.06757564842700958, 0.07384207099676132, 0.09924458712339401, 0.07532170414924622, 0.09578170627355576, 0.07916618138551712, 0.08019407838582993, 0.10476967692375183, 0.07639338821172714, 0.09292041510343552, 0.07075852155685425, 0.12807099521160126, 0.14222347736358643, 0.19376243650913239, 0.10842547565698624, 0.06123194098472595, 0.041090503334999084, 0.051410604268312454, 0.049814190715551376, 0.03940891474485397, 0.031010225415229797, 0.07065640389919281, 0.05550653114914894, 0.05670393258333206, 0.06757159531116486, 0.06759843975305557, 0.18075242638587952, 0.151763454079628, 0.1969166100025177, 0.15587179362773895, 0.13047094643115997, 0.09018432348966599, 0.09326843917369843, 0.12973642349243164, 0.18176646530628204, 0.14769069850444794, 0.182541623711586, 0.20941947400569916, 0.3439705967903137, 0.3570752441883087, 0.45791417360305786, 0.32730400562286377, 0.1523219645023346, 0.10844916850328445, 0.07097622752189636, 0.06388676166534424, 0.05043099448084831, 0.04331625625491142, 0.04271892085671425, 0.05143816024065018, 0.09626137465238571, 0.12561826407909393, 0.07254685461521149, 0.04857886955142021, 0.07412415742874146, 0.09593598544597626, 0.1174580529332161, 0.09371442347764969, 0.11533679813146591, 0.14936785399913788, 0.1872728168964386, 0.21590527892112732, 0.15436847507953644, 0.12535519897937775, 0.14849898219108582, 0.1466524749994278, 0.14460492134094238, 0.08284243941307068, 0.07569621503353119, 0.06725261360406876, 0.05051468312740326, 0.03131828457117081, 0.02657453902065754, 0.023810364305973053, 0.044177569448947906, 0.04470398649573326, 0.06551706045866013, 0.06368742883205414, 0.0674910768866539, 0.10369272530078888, 0.06733793020248413, 0.09661868959665298, 0.11325477063655853, 0.10884856432676315, 0.13203294575214386, 0.1352316439151764, 0.12090431153774261, 0.09039918333292007, 0.10289538651704788, 0.12217129021883011, 0.12699444591999054, 0.07165020704269409, 0.05427613481879234, 0.031102189794182777, 0.02321464568376541, 0.03391408547759056, 0.031127365306019783, 0.036633409559726715, 0.031714800745248795, 0.0380743034183979, 0.03801477327942848]</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.5833410024642944</v>
+        <v>0.4579141736030579</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -1863,10 +1863,10 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.8351773000031244</v>
+        <v>0.8422845000022789</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005643089864885976</v>
+        <v>0.005691111486501884</v>
       </c>
     </row>
     <row r="34">
@@ -1885,11 +1885,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[0.040848761796951294, 0.043547067791223526, 0.05294840782880783, 0.04723488166928291, 0.05097454786300659, 0.06796962767839432, 0.09751101583242416, 0.0504085011780262, 0.02586190402507782, 0.036351799964904785, 0.050773389637470245, 0.03959975764155388, 0.028836235404014587, 0.026370856910943985, 0.0223721694201231, 0.02020220085978508, 0.026113245636224747, 0.030168842524290085, 0.03285061940550804, 0.03979166969656944, 0.035909414291381836, 0.03934745863080025, 0.040032096207141876, 0.051380254328250885, 0.04777032881975174, 0.028383877128362656, 0.04105943813920021, 0.0479428768157959, 0.056846313178539276, 0.027980707585811615, 0.031435929238796234, 0.026005782186985016, 0.02449927106499672, 0.04043823108077049, 0.02731393650174141, 0.022099507972598076, 0.02143613062798977, 0.0358416847884655, 0.036015450954437256, 0.04658515751361847, 0.03974780812859535, 0.05783979594707489, 0.062482189387083054, 0.03862922266125679, 0.020985839888453484, 0.018282944336533546, 0.08692765235900879, 0.10312271118164062, 0.1173829659819603, 0.09682784229516983, 0.13757473230361938, 0.06863445043563843, 0.03927411139011383, 0.031810224056243896, 0.03237080201506615, 0.05005611479282379, 0.03901267424225807, 0.05273198336362839, 0.06893347948789597, 0.0486919991672039, 0.048814840614795685, 0.036963772028684616, 0.04128383845090866, 0.045796673744916916, 0.051920801401138306, 0.040374111384153366, 0.032796673476696014, 0.037823114544153214, 0.03600005805492401, 0.034293919801712036, 0.029159292578697205, 0.030125649645924568, 0.03579869121313095, 0.07412102073431015, 0.07962855696678162, 0.09943137317895889, 0.0728665366768837, 0.043510373681783676, 0.05851506069302559, 0.0867149606347084, 0.056756552308797836, 0.06682341545820236, 0.054979924112558365, 0.03934715315699577, 0.04174109920859337, 0.09266223758459091, 0.07829825580120087, 0.08233606815338135, 0.049606699496507645, 0.04085596650838852, 0.04196271300315857, 0.0495307594537735, 0.053290966898202896, 0.09406158328056335, 0.051269982010126114, 0.058961786329746246, 0.06477455794811249, 0.06205488368868828, 0.06758984923362732, 0.09535714983940125, 0.09423063695430756, 0.062395598739385605, 0.06544078886508942, 0.06418196111917496, 0.041955601423978806, 0.058897484093904495, 0.07939513027667999, 0.09754136204719543, 0.07846428453922272, 0.06379465758800507, 0.04001331329345703, 0.04879975691437721, 0.057485733181238174, 0.06250394135713577, 0.07632815837860107, 0.05387076362967491, 0.05060352757573128, 0.062437355518341064, 0.03814733028411865, 0.025933191180229187, 0.029632288962602615, 0.042007654905319214, 0.04240752011537552, 0.053800612688064575, 0.06522676348686218, 0.04959831386804581, 0.03485693782567978, 0.026408104225993156, 0.02956513687968254, 0.02951222099363804, 0.031201660633087158, 0.02897237241268158, 0.02933202125132084, 0.040084417909383774, 0.041353777050971985, 0.04303593561053276, 0.033909160643815994, 0.03632615879178047, 0.03152986243367195, 0.05352836474776268, 0.05827462300658226, 0.04868103563785553, 0.07095871865749359, 0.08561176806688309, 0.08481158316135406, 0.061794258654117584, 0.06924740225076675, 0.06936059147119522]</t>
+          <t>[0.023459065705537796, 0.024680640548467636, 0.030588945373892784, 0.029521819204092026, 0.033627044409513474, 0.04430153965950012, 0.06401080638170242, 0.03878851234912872, 0.01581779681146145, 0.022937722504138947, 0.039043016731739044, 0.02429676614701748, 0.016242368146777153, 0.011476248502731323, 0.009289268404245377, 0.009225290268659592, 0.014665363356471062, 0.016184737905859947, 0.017600564286112785, 0.020143480971455574, 0.018464460968971252, 0.021121231839060783, 0.021966135129332542, 0.027582872658967972, 0.027856802567839622, 0.01621025614440441, 0.02642626129090786, 0.031428031623363495, 0.03748615086078644, 0.016003161668777466, 0.01862148381769657, 0.013584917411208153, 0.013133175671100616, 0.023708486929535866, 0.015235554426908493, 0.011258655227720737, 0.010941877961158752, 0.014302551746368408, 0.015453674830496311, 0.01724497601389885, 0.012673943303525448, 0.021568944677710533, 0.02787545882165432, 0.02204185351729393, 0.010617840103805065, 0.010270699858665466, 0.05695442110300064, 0.05125375837087631, 0.0645202249288559, 0.04724375903606415, 0.07676392048597336, 0.0292851272970438, 0.018189802765846252, 0.014253123663365841, 0.01446864940226078, 0.02469599060714245, 0.020726406946778297, 0.031232208013534546, 0.04551319777965546, 0.030296921730041504, 0.025228727608919144, 0.017939729616045952, 0.022027065977454185, 0.025875190272927284, 0.025981480255723, 0.018924294039607048, 0.014718184247612953, 0.016968518495559692, 0.018094273284077644, 0.017646050080657005, 0.013539133593440056, 0.016347311437129974, 0.01627223938703537, 0.03359300270676613, 0.03733965754508972, 0.05893459916114807, 0.03978283330798149, 0.02430134266614914, 0.033198852092027664, 0.04344507306814194, 0.03557274863123894, 0.03759488835930824, 0.027173630893230438, 0.01842634379863739, 0.022128870710730553, 0.06777792423963547, 0.04571140184998512, 0.05043264105916023, 0.041112348437309265, 0.02620231732726097, 0.026170318946242332, 0.025456996634602547, 0.023571506142616272, 0.04158385843038559, 0.024656273424625397, 0.02792976424098015, 0.031247152015566826, 0.035101160407066345, 0.03737520053982735, 0.05872799828648567, 0.03484854847192764, 0.026828663423657417, 0.029890889301896095, 0.03069043904542923, 0.02017412707209587, 0.026987794786691666, 0.029142435640096664, 0.036987777799367905, 0.028069116175174713, 0.02607065998017788, 0.017560070380568504, 0.023304129019379616, 0.041180308908224106, 0.04192422330379486, 0.04256737232208252, 0.02708209492266178, 0.02684946358203888, 0.03649472817778587, 0.025281058624386787, 0.015164203941822052, 0.018352895975112915, 0.030116546899080276, 0.027305711060762405, 0.03132636100053787, 0.03708809241652489, 0.026426009833812714, 0.01845087856054306, 0.013935902155935764, 0.016643477603793144, 0.015303256921470165, 0.01670629344880581, 0.015580208040773869, 0.015432838350534439, 0.019171956926584244, 0.016602197661995888, 0.015108879655599594, 0.014923296868801117, 0.01680448092520237, 0.015116380527615547, 0.025772325694561005, 0.026796499267220497, 0.02241700515151024, 0.038485679775476456, 0.05335700511932373, 0.06163397803902626, 0.03729482367634773, 0.039670076221227646, 0.03962511941790581]</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1375747323036194</v>
+        <v>0.07676392048597336</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1903,10 +1903,10 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0.8342126999923494</v>
+        <v>0.8379261999943992</v>
       </c>
       <c r="J34" t="n">
-        <v>0.005636572297245604</v>
+        <v>0.005661663513475671</v>
       </c>
     </row>
     <row r="35">
@@ -1925,11 +1925,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[0.049520738422870636, 0.073239266872406, 0.05051716789603233, 0.043608762323856354, 0.04578530043363571, 0.049272678792476654, 0.042571958154439926, 0.04338360205292702, 0.051481831818819046, 0.050329726189374924, 0.060022857040166855, 0.04287513345479965, 0.03900405392050743, 0.03962201997637749, 0.06658827513456345, 0.047113846987485886, 0.04256760701537132, 0.06337373703718185, 0.055992159992456436, 0.06272705644369125, 0.054857268929481506, 0.053420256823301315, 0.043376076966524124, 0.04358956217765808, 0.039704568684101105, 0.03865509107708931, 0.029073119163513184, 0.025892766192555428, 0.024180859327316284, 0.03587790206074715, 0.027380602434277534, 0.03870830312371254, 0.06996158510446548, 0.06875403970479965, 0.13100388646125793, 0.06372503936290741, 0.06296204030513763, 0.05900019407272339, 0.07870590686798096, 0.07691209763288498, 0.08860064297914505, 0.08084111660718918, 0.05666337162256241, 0.040372561663389206, 0.041154712438583374, 0.038796234875917435, 0.044362083077430725, 0.07136385142803192, 0.06600050628185272, 0.06422071158885956, 0.11624105274677277, 0.07525905966758728, 0.06920876353979111, 0.03631669655442238, 0.039331477135419846, 0.04538771137595177, 0.05384674668312073, 0.05741715058684349, 0.09242600947618484, 0.1060778945684433, 0.07128242403268814, 0.07938115298748016, 0.038202427327632904, 0.04123099148273468, 0.03208955377340317, 0.045096613466739655, 0.05147922411561012, 0.059548478573560715, 0.05274816229939461, 0.04212510958313942, 0.03282170370221138, 0.0457255095243454, 0.0626259446144104, 0.04138541594147682, 0.06127727031707764, 0.0436534620821476, 0.05720954015851021, 0.06444589048624039, 0.044720858335494995, 0.055686965584754944, 0.052579365670681, 0.07393878698348999, 0.07291430979967117, 0.05342875421047211, 0.04577134922146797, 0.06967906653881073, 0.07791273295879364, 0.061487141996622086, 0.05016983672976494, 0.053301818668842316, 0.05873362347483635, 0.05419100448489189, 0.03164171054959297, 0.02597850374877453, 0.028760388493537903, 0.031250450760126114, 0.033697016537189484, 0.04289151728153229, 0.07154485583305359, 0.052028585225343704, 0.052478693425655365, 0.15352818369865417, 0.1085822656750679, 0.12676385045051575, 0.12377440929412842, 0.14713239669799805, 0.07802338153123856, 0.053833089768886566, 0.05162234976887703, 0.06477736681699753, 0.11226113140583038, 0.08563979715108871, 0.06553791463375092, 0.06333861500024796, 0.05401633307337761, 0.044519927352666855, 0.03884690999984741, 0.051426369696855545, 0.04639880359172821, 0.04851248487830162, 0.04135442525148392, 0.059510767459869385, 0.06816043704748154, 0.039685480296611786, 0.04392416030168533, 0.03991769254207611, 0.03365447744727135, 0.03869127482175827, 0.05367864668369293, 0.046827323734760284, 0.044115208089351654, 0.031620047986507416, 0.03333454951643944, 0.0430087111890316, 0.0846417248249054, 0.03726775199174881, 0.04087193310260773, 0.03276017680764198, 0.026000728830695152, 0.03194474056363106, 0.02908635139465332, 0.02566997893154621, 0.030435601249337196, 0.023967869579792023, 0.02348065935075283, 0.02346126362681389, 0.025196384638547897, 0.025113612413406372]</t>
+          <t>[0.014778879471123219, 0.024569451808929443, 0.016642775386571884, 0.014303033240139484, 0.013543420471251011, 0.017250025644898415, 0.01709197461605072, 0.017616789788007736, 0.013978827744722366, 0.015598597936332226, 0.020944902673363686, 0.015115275047719479, 0.013898863457143307, 0.015584261156618595, 0.01852375827729702, 0.012464582920074463, 0.011764121241867542, 0.014766714535653591, 0.014849587343633175, 0.016468161717057228, 0.014890694990754128, 0.01707111857831478, 0.012441572733223438, 0.011964086443185806, 0.010667386464774609, 0.011741113848984241, 0.009499997831881046, 0.00859815813601017, 0.007990897633135319, 0.011072849854826927, 0.007726382464170456, 0.010139333084225655, 0.01594412885606289, 0.016833411529660225, 0.036793310195207596, 0.020150605589151382, 0.01927146315574646, 0.017739323899149895, 0.022287899628281593, 0.019955549389123917, 0.02136453054845333, 0.039270948618650436, 0.02228420041501522, 0.015050544403493404, 0.011896253563463688, 0.012283765710890293, 0.013401402160525322, 0.01205089595168829, 0.014654452912509441, 0.014714310877025127, 0.03086247853934765, 0.025250688195228577, 0.022231195122003555, 0.011122312396764755, 0.009805833920836449, 0.010941145941615105, 0.014338633976876736, 0.016451232135295868, 0.02371044084429741, 0.030669569969177246, 0.02216026373207569, 0.022362837567925453, 0.009243390522897243, 0.008909418247640133, 0.0061925617046654224, 0.014040017500519753, 0.018105359748005867, 0.02023240551352501, 0.015275095589458942, 0.012475710362195969, 0.010073667392134666, 0.014937463216483593, 0.023384222760796547, 0.016481567174196243, 0.018954938277602196, 0.012869622558355331, 0.015919974073767662, 0.020431362092494965, 0.014595439657568932, 0.017862016335129738, 0.01735994778573513, 0.029244648292660713, 0.025257516652345657, 0.014731505885720253, 0.013095189817249775, 0.02112596109509468, 0.01941397599875927, 0.016445282846689224, 0.014688588678836823, 0.016338717192411423, 0.01647726632654667, 0.01828235201537609, 0.013111061416566372, 0.009177345782518387, 0.009305506013333797, 0.009821713902056217, 0.009002948179841042, 0.012185090221464634, 0.020120836794376373, 0.012369243428111076, 0.013032590970396996, 0.0342501662671566, 0.032995760440826416, 0.02765468880534172, 0.039985541254282, 0.03739682585000992, 0.024347752332687378, 0.01427972037345171, 0.015474148094654083, 0.017366766929626465, 0.031173117458820343, 0.023579249158501625, 0.01627219468355179, 0.019705742597579956, 0.017020490020513535, 0.015041349455714226, 0.010259995236992836, 0.015939222648739815, 0.01380330789834261, 0.0161519106477499, 0.014233213849365711, 0.01935797929763794, 0.01735425740480423, 0.00932506937533617, 0.011961780488491058, 0.012036374770104885, 0.010869534686207771, 0.013011026196181774, 0.014111045747995377, 0.012414112687110901, 0.012201394885778427, 0.012186083011329174, 0.012323621660470963, 0.015684815123677254, 0.025060435757040977, 0.010608067736029625, 0.010603823699057102, 0.00864087138324976, 0.007226637098938227, 0.010866320692002773, 0.009576145559549332, 0.008737021125853062, 0.010135037824511528, 0.008011539466679096, 0.009075704962015152, 0.010253270156681538, 0.009278124198317528, 0.009189959615468979]</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1535281836986542</v>
+        <v>0.039985541254282</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0.8257292000052985</v>
+        <v>0.8431393000064418</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005579251351387151</v>
+        <v>0.005696887162205688</v>
       </c>
     </row>
     <row r="36">
@@ -1965,11 +1965,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[0.04832998663187027, 0.06987127661705017, 0.04635141044855118, 0.059783946722745895, 0.06943453103303909, 0.07973682880401611, 0.09634783864021301, 0.06711159646511078, 0.06787601113319397, 0.0816812515258789, 0.08713366836309433, 0.11699125915765762, 0.12764482200145721, 0.19496528804302216, 0.24169428646564484, 0.1947639435529709, 0.1272607296705246, 0.12413311004638672, 0.11293837428092957, 0.12091773003339767, 0.10264483094215393, 0.11203315109014511, 0.09426669031381607, 0.08367519825696945, 0.09491357207298279, 0.10893573611974716, 0.09358258545398712, 0.08936088532209396, 0.07138258963823318, 0.07917200773954391, 0.11034292727708817, 0.09480684995651245, 0.07481764256954193, 0.07882098853588104, 0.08988171070814133, 0.07518220692873001, 0.06158792972564697, 0.14577209949493408, 0.10833810269832611, 0.10101253539323807, 0.10331263393163681, 0.08090078085660934, 0.07177315652370453, 0.0866866260766983, 0.10714878886938095, 0.1701701432466507, 0.22336871922016144, 0.14272841811180115, 0.12605218589305878, 0.11933399736881256, 0.15442630648612976, 0.12293487042188644, 0.15994834899902344, 0.1337725967168808, 0.11743087321519852, 0.1277402937412262, 0.10372921079397202, 0.1201695054769516, 0.16145797073841095, 0.14925216138362885, 0.15916286408901215, 0.12295601516962051, 0.09709696471691132, 0.08643821626901627, 0.05370045825839043, 0.048953160643577576, 0.049903929233551025, 0.0800437331199646, 0.10544199496507645, 0.12319494783878326, 0.12393797934055328, 0.08469650894403458, 0.10321809351444244, 0.1149880513548851, 0.1320522278547287, 0.17796027660369873, 0.08149208873510361, 0.08694479614496231, 0.08464103937149048, 0.08643830567598343, 0.100455641746521, 0.13121084868907928, 0.22151313722133636, 0.1807079166173935, 0.10740357637405396, 0.06186837702989578, 0.057470131665468216, 0.07385580241680145, 0.08879847079515457, 0.11602694541215897, 0.1065923273563385, 0.11122537404298782, 0.12161385267972946, 0.11919313669204712, 0.14990733563899994, 0.16322636604309082, 0.20936572551727295, 0.15931060910224915, 0.11976474523544312, 0.16523659229278564, 0.15751095116138458, 0.12072499841451645, 0.15521466732025146, 0.10469972342252731, 0.10568004101514816, 0.1434270292520523, 0.1342681348323822, 0.15899443626403809, 0.22698020935058594, 0.20919393002986908, 0.11838263273239136, 0.10887609422206879, 0.06766072660684586, 0.09437070786952972, 0.10122775286436081, 0.09684597700834274, 0.1143137663602829, 0.20389530062675476, 0.2914334535598755, 0.1993667632341385, 0.13109949231147766, 0.18453627824783325, 0.21891647577285767, 0.18777942657470703, 0.1569594442844391, 0.18426156044006348, 0.20119398832321167, 0.36423397064208984, 0.25655055046081543, 0.2945667803287506, 0.19057074189186096, 0.16196326911449432, 0.18396838009357452, 0.15683281421661377, 0.19367939233779907, 0.2316833734512329, 0.23942816257476807, 0.22863313555717468, 0.1834854781627655, 0.20141221582889557, 0.1630948930978775, 0.15120413899421692, 0.14762914180755615, 0.13844497501850128, 0.13087350130081177, 0.17933137714862823, 0.18102341890335083]</t>
+          <t>[0.016338467597961426, 0.01994926482439041, 0.01769777201116085, 0.024359501898288727, 0.02671208418905735, 0.03592080995440483, 0.0370200090110302, 0.02987576089799404, 0.03368367254734039, 0.03894767537713051, 0.033594124019145966, 0.0476774126291275, 0.048245057463645935, 0.10272745043039322, 0.14372482895851135, 0.10446958243846893, 0.06666282564401627, 0.08004873991012573, 0.08412019163370132, 0.13319538533687592, 0.09018723666667938, 0.10160687565803528, 0.05713628977537155, 0.04790201038122177, 0.057881440967321396, 0.056333936750888824, 0.04577237740159035, 0.04757555574178696, 0.03884817287325859, 0.03903893381357193, 0.05073169618844986, 0.04039440304040909, 0.02999967522919178, 0.03177134320139885, 0.03833281248807907, 0.027615157887339592, 0.02353651076555252, 0.05639806389808655, 0.05811765789985657, 0.048124607652425766, 0.048291780054569244, 0.044152386486530304, 0.03093705326318741, 0.0382138267159462, 0.059129007160663605, 0.09228651970624924, 0.10656651854515076, 0.047495726495981216, 0.042283348739147186, 0.03975440189242363, 0.049590494483709335, 0.03947143629193306, 0.07356978952884674, 0.05821369215846062, 0.055860646069049835, 0.06623859703540802, 0.052544187754392624, 0.06818842887878418, 0.08862365782260895, 0.08653315156698227, 0.06991538405418396, 0.05750687047839165, 0.04203028231859207, 0.0319451242685318, 0.021630197763442993, 0.02243601530790329, 0.024016866460442543, 0.04053782299160957, 0.06712327152490616, 0.07604110240936279, 0.06530991941690445, 0.042863503098487854, 0.05697150528430939, 0.05362728238105774, 0.05834488198161125, 0.09389250725507736, 0.038175154477357864, 0.040957771241664886, 0.039756640791893005, 0.03449288010597229, 0.039657216519117355, 0.041803475469350815, 0.11593493074178696, 0.10092227160930634, 0.058356136083602905, 0.02512320689857006, 0.025591081008315086, 0.03246856853365898, 0.03521469235420227, 0.0538046695291996, 0.047403689473867416, 0.053160980343818665, 0.06319432705640793, 0.07215748727321625, 0.12477312237024307, 0.1449829638004303, 0.21285095810890198, 0.15122926235198975, 0.10286536067724228, 0.1176714077591896, 0.09119942784309387, 0.06389007717370987, 0.10590194910764694, 0.048643965274095535, 0.03778091445565224, 0.04474508762359619, 0.06252440065145493, 0.08549875766038895, 0.18322914838790894, 0.16668975353240967, 0.09355973452329636, 0.07333577424287796, 0.029894407838582993, 0.045902807265520096, 0.07259048521518707, 0.038455963134765625, 0.04679633304476738, 0.08617529273033142, 0.17043909430503845, 0.07970664650201797, 0.05828716978430748, 0.12132305651903152, 0.12303456664085388, 0.10273995995521545, 0.08206173032522202, 0.07974368333816528, 0.07464416325092316, 0.14766354858875275, 0.11947239190340042, 0.16226232051849365, 0.09116511046886444, 0.08338475972414017, 0.09528875350952148, 0.07821772247552872, 0.10152873396873474, 0.11622106283903122, 0.12084692716598511, 0.11765576153993607, 0.1004137322306633, 0.11848612129688263, 0.08380819857120514, 0.06875871866941452, 0.06796424090862274, 0.06772349774837494, 0.07161117345094681, 0.09574881196022034, 0.09681552648544312]</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.3642339706420898</v>
+        <v>0.212850958108902</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1983,10 +1983,10 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0.8214339999831282</v>
+        <v>0.8284357999946224</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005587986394443049</v>
+        <v>0.005635617687038247</v>
       </c>
     </row>
     <row r="37">
@@ -2005,11 +2005,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[0.03853217139840126, 0.040446605533361435, 0.02674926444888115, 0.03607160598039627, 0.024379771202802658, 0.019848335534334183, 0.027743520215153694, 0.03766812011599541, 0.07400551438331604, 0.08161990344524384, 0.09644235670566559, 0.05109938234090805, 0.04803381487727165, 0.037658609449863434, 0.040845178067684174, 0.041095294058322906, 0.06280144304037094, 0.04932951554656029, 0.03491387516260147, 0.0338507704436779, 0.041006408631801605, 0.06504560261964798, 0.05380755290389061, 0.05711561441421509, 0.1527157872915268, 0.11355047672986984, 0.1313898116350174, 0.0788518562912941, 0.05004630982875824, 0.03938545659184456, 0.20749148726463318, 0.13378334045410156, 0.18597617745399475, 0.05147489532828331, 0.03410739824175835, 0.03782141953706741, 0.071426160633564, 0.04228532686829567, 0.07720275223255157, 0.06694886833429337, 0.07282498478889465, 0.13141393661499023, 0.10157472640275955, 0.09168543666601181, 0.099861741065979, 0.18152649700641632, 0.1405956894159317, 0.09091866761445999, 0.18439018726348877, 0.09925714880228043, 0.09264974296092987, 0.11991142481565475, 0.05188608169555664, 0.044169772416353226, 0.07128284871578217, 0.04943949356675148, 0.045902494341135025, 0.12875264883041382, 0.1189945712685585, 0.09219551831483841, 0.06721048802137375, 0.07567009329795837, 0.1107623502612114, 0.0787111148238182, 0.06657437235116959, 0.050158508121967316, 0.04484791308641434, 0.04241228848695755, 0.0520162358880043, 0.04722406715154648, 0.052250903099775314, 0.041686661541461945, 0.027919502928853035, 0.02314763516187668, 0.027443919330835342, 0.06278906017541885, 0.12730073928833008, 0.15773499011993408, 0.16132445633411407, 0.11602096259593964, 0.10571202635765076, 0.052094731479883194, 0.054439008235931396, 0.05529547855257988, 0.0638217031955719, 0.03630482405424118, 0.063605897128582, 0.03981543704867363, 0.03720436245203018, 0.050899945199489594, 0.11453671008348465, 0.09411215037107468, 0.0812477245926857, 0.05738028511404991, 0.06203935667872429, 0.06964056938886642, 0.06308744847774506, 0.05392414703965187, 0.05396440252661705, 0.08927316963672638, 0.10062233358621597, 0.07856888324022293, 0.056604836136102676, 0.026899131014943123, 0.030533473938703537, 0.03582576662302017, 0.03047856315970421, 0.027306577190756798, 0.04145481437444687, 0.04283566400408745, 0.046568769961595535, 0.05743178352713585, 0.052938006818294525, 0.06900180131196976, 0.050446439534425735, 0.0496177077293396, 0.05183067172765732, 0.04395721107721329, 0.041813161224126816, 0.040224216878414154, 0.05591828003525734, 0.053503524512052536, 0.040487539023160934, 0.05240602046251297, 0.031410496681928635, 0.04182877391576767, 0.04510900005698204, 0.06415025144815445, 0.06185416132211685, 0.08914510160684586, 0.042639464139938354, 0.040271177887916565, 0.04438590258359909, 0.033012498170137405, 0.02486691251397133, 0.037743885070085526, 0.05768658593297005, 0.054679736495018005, 0.027719443663954735, 0.02455020695924759, 0.027352655306458473, 0.035220369696617126, 0.03362678363919258, 0.03222841024398804, 0.03535336256027222, 0.022354867309331894, 0.022358153015375137]</t>
+          <t>[0.015223074704408646, 0.014941968023777008, 0.009953498840332031, 0.012742812745273113, 0.008244897238910198, 0.007232805248349905, 0.011896840296685696, 0.022775612771511078, 0.0558675192296505, 0.05360141396522522, 0.06214224174618721, 0.024755174294114113, 0.022726375609636307, 0.014519461430609226, 0.015262031927704811, 0.014882903546094894, 0.030259637162089348, 0.01906479150056839, 0.013487405143678188, 0.011515137739479542, 0.011595885269343853, 0.016657687723636627, 0.015760265290737152, 0.017133230343461037, 0.05180763825774193, 0.03780210018157959, 0.04221765324473381, 0.029492227360606194, 0.01690937951207161, 0.012075433507561684, 0.09124308824539185, 0.06619208306074142, 0.1021939218044281, 0.024961387738585472, 0.01248807180672884, 0.012441248632967472, 0.030336173251271248, 0.01680244877934456, 0.03975951671600342, 0.03536633402109146, 0.028490282595157623, 0.057984609156847, 0.061030589044094086, 0.06758661568164825, 0.05742678791284561, 0.10555306077003479, 0.08331921696662903, 0.040679626166820526, 0.09278581291437149, 0.044985607266426086, 0.041849683970212936, 0.06209634244441986, 0.025378646329045296, 0.022253625094890594, 0.05072232708334923, 0.03233926370739937, 0.030450357124209404, 0.09928853064775467, 0.06540889292955399, 0.04707847908139229, 0.026519719511270523, 0.038947198539972305, 0.05746985971927643, 0.025846868753433228, 0.03021710179746151, 0.019927797839045525, 0.01933751255273819, 0.01885145530104637, 0.02391660399734974, 0.021599816158413887, 0.03322635591030121, 0.022937007248401642, 0.013996914029121399, 0.011384489946067333, 0.01271075289696455, 0.025746621191501617, 0.07262631505727768, 0.10327160358428955, 0.06871981918811798, 0.03750644996762276, 0.03180865943431854, 0.017552249133586884, 0.0242910198867321, 0.0225943922996521, 0.030647611245512962, 0.017201995477080345, 0.03180897980928421, 0.020533623173832893, 0.021170778200030327, 0.02686411142349243, 0.04841461405158043, 0.05779622122645378, 0.04069007933139801, 0.023490948602557182, 0.025572173297405243, 0.023093609139323235, 0.033088892698287964, 0.025899825617671013, 0.02548852749168873, 0.04903556779026985, 0.06789405643939972, 0.05817825347185135, 0.03958367183804512, 0.011356333270668983, 0.011468066833913326, 0.016772622242569923, 0.014839308336377144, 0.012686624191701412, 0.01708121784031391, 0.026183050125837326, 0.032972611486911774, 0.03596779331564903, 0.031931646168231964, 0.039196863770484924, 0.022512368857860565, 0.025701507925987244, 0.028092971071600914, 0.03102964535355568, 0.02816174551844597, 0.026399461552500725, 0.04840856045484543, 0.043574947863817215, 0.022642644122242928, 0.02655050903558731, 0.0169821884483099, 0.01925230212509632, 0.016081063076853752, 0.026974622160196304, 0.025920184329152107, 0.04939878359436989, 0.017740512266755104, 0.015613756142556667, 0.01558163482695818, 0.012135344557464123, 0.010090367868542671, 0.014828144572675228, 0.020666949450969696, 0.017733940854668617, 0.012246698141098022, 0.010375180281698704, 0.011541253887116909, 0.0146605484187603, 0.013843330554664135, 0.014049182645976543, 0.01677737943828106, 0.009748829528689384, 0.00974430050700903]</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2074914872646332</v>
+        <v>0.1055530607700348</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -2023,10 +2023,10 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0.820004200009862</v>
+        <v>0.8310167000017827</v>
       </c>
       <c r="J37" t="n">
-        <v>0.005578259864012666</v>
+        <v>0.0056531748299441</v>
       </c>
     </row>
     <row r="38">
@@ -2045,11 +2045,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[0.0360269732773304, 0.023741621524095535, 0.0302225761115551, 0.0779995247721672, 0.08187946677207947, 0.04114845022559166, 0.08935169130563736, 0.09109354764223099, 0.07624635845422745, 0.09532182663679123, 0.11253377795219421, 0.048128947615623474, 0.029802890494465828, 0.039354339241981506, 0.05102799832820892, 0.03774096816778183, 0.0377558097243309, 0.08675378561019897, 0.145228773355484, 0.13083195686340332, 0.09123905748128891, 0.06832350790500641, 0.10172291100025177, 0.11572074890136719, 0.07921265065670013, 0.16838648915290833, 0.0660233125090599, 0.09335353970527649, 0.0559457391500473, 0.11165186017751694, 0.08441359549760818, 0.058117471635341644, 0.10913841426372528, 0.112935371696949, 0.10065928101539612, 0.3061906695365906, 0.14484015107154846, 0.06434786319732666, 0.056470297276973724, 0.05447700247168541, 0.07102008163928986, 0.05940469354391098, 0.04700993001461029, 0.04525309428572655, 0.06482139229774475, 0.04107009619474411, 0.061751920729875565, 0.07065346837043762, 0.14711742103099823, 0.11122475564479828, 0.07435837388038635, 0.1022024154663086, 0.07206671684980392, 0.07564136385917664, 0.08649934828281403, 0.08031126111745834, 0.05429134890437126, 0.13406753540039062, 0.20758084952831268, 0.09865652024745941, 0.07814726233482361, 0.07119882851839066, 0.07483050227165222, 0.07645571231842041, 0.0787125900387764, 0.04236071929335594, 0.08205556124448776, 0.05403236299753189, 0.1379922777414322, 0.12003708630800247, 0.10544902831315994, 0.13373963534832, 0.13075612485408783, 0.16686765849590302, 0.20232076942920685, 0.2506103515625, 0.09124758094549179, 0.13964031636714935, 0.17738239467144012, 0.2062516212463379, 0.1333962231874466, 0.12217395752668381, 0.10689636319875717, 0.06106295809149742, 0.08798615634441376, 0.06948668509721756, 0.11654221266508102, 0.19464783370494843, 0.13599109649658203, 0.15015475451946259, 0.07669243216514587, 0.05190480500459671, 0.10789676010608673, 0.11097171157598495, 0.0676305890083313, 0.11062444746494293, 0.15470430254936218, 0.19674888253211975, 0.16551423072814941, 0.15548111498355865, 0.12270765751600266, 0.06440600007772446, 0.030334314331412315, 0.05259193480014801, 0.0773991048336029, 0.05610951408743858, 0.0481218658387661, 0.04826835170388222, 0.03718630224466324, 0.07720883190631866, 0.09070583432912827, 0.0709683895111084, 0.11934209614992142, 0.114961177110672, 0.0796884149312973, 0.08592166006565094, 0.0711885541677475, 0.08325595408678055, 0.131320059299469, 0.11050695925951004, 0.10500394552946091, 0.08065562695264816, 0.08176911622285843, 0.12091048061847687, 0.11113889515399933, 0.19138485193252563, 0.14021965861320496, 0.12852711975574493, 0.21739420294761658, 0.16157586872577667, 0.12591928243637085, 0.12605483829975128]</t>
+          <t>[0.01933502033352852, 0.013991951942443848, 0.014419768936932087, 0.04369843378663063, 0.08368846774101257, 0.02874217927455902, 0.06647121906280518, 0.0766177549958229, 0.06673581153154373, 0.0977143719792366, 0.16673509776592255, 0.03920693323016167, 0.01744348183274269, 0.02631113864481449, 0.03836390748620033, 0.026421090587973595, 0.017944389954209328, 0.06790505349636078, 0.12034384161233902, 0.09991957992315292, 0.05913231521844864, 0.044260673224925995, 0.0826750099658966, 0.08749858289957047, 0.04884568974375725, 0.1151927262544632, 0.03194233030080795, 0.07674536108970642, 0.0428360179066658, 0.07399285584688187, 0.055250588804483414, 0.02820366434752941, 0.03820231184363365, 0.05188646912574768, 0.06403107196092606, 0.3013477623462677, 0.08067239075899124, 0.024698080494999886, 0.01885937713086605, 0.017756739631295204, 0.02461051754653454, 0.02049347572028637, 0.016900790855288506, 0.017147447913885117, 0.03327767923474312, 0.021959906443953514, 0.030509373173117638, 0.03151823952794075, 0.08700244873762131, 0.06502891331911087, 0.03449256345629692, 0.058745358139276505, 0.04261082783341408, 0.0397711805999279, 0.03881918638944626, 0.03619660064578056, 0.018811175599694252, 0.06862702965736389, 0.11185435950756073, 0.04713079333305359, 0.049009229987859726, 0.042041290551424026, 0.038549330085515976, 0.046546705067157745, 0.07135997712612152, 0.025351710617542267, 0.043923769146203995, 0.041840553283691406, 0.11539770662784576, 0.09608560800552368, 0.09241805225610733, 0.12299047410488129, 0.101534903049469, 0.1112181767821312, 0.1711963564157486, 0.22296807169914246, 0.06228715553879738, 0.0873008668422699, 0.17822377383708954, 0.1912473738193512, 0.06295406073331833, 0.10132662951946259, 0.07283776253461838, 0.03694336488842964, 0.07069119811058044, 0.04391925409436226, 0.0827997475862503, 0.18991829454898834, 0.10465401411056519, 0.08920495957136154, 0.04339226335287094, 0.028813660144805908, 0.07718387991189957, 0.06590332090854645, 0.041541796177625656, 0.09673132747411728, 0.11334662139415741, 0.1468796283006668, 0.10006894171237946, 0.07773580402135849, 0.06875299662351608, 0.0462723970413208, 0.018420066684484482, 0.028219936415553093, 0.053774937987327576, 0.030455637723207474, 0.02336086891591549, 0.025528697296977043, 0.021435590460896492, 0.07607483118772507, 0.06042550876736641, 0.04836729168891907, 0.1284022182226181, 0.09886419773101807, 0.09209685027599335, 0.07330874353647232, 0.06172403320670128, 0.05829061567783356, 0.12273626774549484, 0.07625263184309006, 0.06960216164588928, 0.051480118185281754, 0.05597132071852684, 0.10898066312074661, 0.12631598114967346, 0.27717167139053345, 0.18016751110553741, 0.11599878966808319, 0.19384650886058807, 0.13468137383460999, 0.12879647314548492, 0.12868016958236694]</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.3061906695365906</v>
+        <v>0.3013477623462677</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0.7453385999833699</v>
+        <v>0.7802254999987781</v>
       </c>
       <c r="J38" t="n">
-        <v>0.00564650454532856</v>
+        <v>0.005910799242414985</v>
       </c>
     </row>
     <row r="39">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[0.7637209892272949, 0.5690897107124329, 0.4647477865219116, 0.45302850008010864, 0.4683562219142914, 0.67676842212677, 0.7848863005638123, 0.7892725467681885, 0.46514445543289185, 0.4679323434829712, 0.4782593548297882, 0.729322075843811, 0.7179345488548279, 0.7128911018371582, 0.5698031783103943, 0.23205940425395966, 0.22162866592407227, 0.551841139793396, 0.44445252418518066, 0.31931960582733154, 0.36663734912872314, 0.3179527819156647, 0.36736413836479187, 0.8093439340591431, 0.8676829934120178, 0.7912809252738953, 0.5642107129096985, 0.480545312166214, 0.3802030384540558, 0.2146080583333969, 0.47587117552757263, 0.616531252861023, 0.6539016962051392, 0.7230480313301086, 0.6783889532089233, 0.7534641623497009, 0.7491983771324158, 0.49987494945526123, 0.8274032473564148, 0.7481658458709717, 0.6028811931610107, 0.7215358018875122, 0.6864956617355347, 0.7245999574661255, 0.46186432242393494, 0.293347030878067, 0.42943549156188965, 0.4553271532058716, 0.43783584237098694, 0.5481391549110413, 0.3995831310749054, 0.3754224479198456, 0.4013103246688843, 0.2150149941444397, 0.6539273858070374, 0.5467343926429749, 0.5354692935943604, 0.32424864172935486, 0.15478602051734924, 0.5651400685310364, 0.7390568852424622, 0.6714580059051514, 0.6694179177284241, 0.35682007670402527, 0.33859261870384216, 0.7563921213150024, 0.5074830651283264, 0.4631572663784027, 0.7426435351371765, 0.6395671963691711, 0.6811061501502991, 0.4101889729499817, 0.3564511835575104, 0.6517271399497986, 0.6769979596138, 0.779948353767395, 0.5504791736602783, 0.8028709292411804, 0.6815850734710693, 0.7986149787902832, 0.30639544129371643, 0.6678211092948914, 0.8968470692634583, 0.691921591758728, 0.6303684711456299, 0.7526374459266663, 0.2327989786863327, 0.22155030071735382, 0.4066929221153259, 0.4693364202976227, 0.6898250579833984, 0.8946934938430786, 0.7342643141746521, 0.5579702854156494, 0.5115511417388916, 0.6347147226333618, 0.635019838809967, 0.22212547063827515, 0.5139690637588501, 0.4713592827320099, 0.533268928527832, 0.5179085731506348, 0.31152501702308655, 0.3514063060283661, 0.5252811908721924, 0.3614823520183563, 0.4248008728027344, 0.3808072805404663, 0.3079739511013031, 0.36567965149879456, 0.37824273109436035, 0.3456101417541504, 0.6116822361946106, 0.5089500546455383, 0.5311702489852905, 0.49036189913749695, 0.3242229223251343, 0.2734610438346863, 0.32426586747169495, 0.2702887952327728, 0.574607253074646, 0.6947658658027649, 0.4590340554714203, 0.6188614964485168, 0.29504212737083435, 0.2689692974090576, 0.49459707736968994, 0.693976879119873, 0.8116108775138855, 0.5186208486557007, 0.5717582106590271, 0.5719178915023804]</t>
+          <t>[0.6603736877441406, 0.40263938903808594, 0.24765604734420776, 0.21436037123203278, 0.22426791489124298, 0.4772723615169525, 0.6438783407211304, 0.68190997838974, 0.41544410586357117, 0.2577032744884491, 0.2321406453847885, 0.477491170167923, 0.4584867060184479, 0.53550124168396, 0.5085718035697937, 0.0882522314786911, 0.07563040405511856, 0.19817128777503967, 0.2428530901670456, 0.20181234180927277, 0.2298400104045868, 0.18938501179218292, 0.23157836496829987, 0.4964296519756317, 0.6481279134750366, 0.43263378739356995, 0.37293246388435364, 0.20263762772083282, 0.1640998125076294, 0.10666169226169586, 0.32334572076797485, 0.44593581557273865, 0.3887925148010254, 0.5269250869750977, 0.480816513299942, 0.5715024471282959, 0.509399950504303, 0.300883412361145, 0.7238202691078186, 0.45926356315612793, 0.4735057055950165, 0.5334951281547546, 0.5693113207817078, 0.6896271109580994, 0.3788956105709076, 0.20835404098033905, 0.2916107475757599, 0.42847421765327454, 0.41209250688552856, 0.4266321361064911, 0.2519868314266205, 0.357846200466156, 0.274478554725647, 0.12803152203559875, 0.4913468658924103, 0.5003499984741211, 0.4202733635902405, 0.2356501817703247, 0.08478723466396332, 0.4888935685157776, 0.5274996161460876, 0.47977474331855774, 0.5861108899116516, 0.25145551562309265, 0.20594221353530884, 0.689919650554657, 0.2720261216163635, 0.28140774369239807, 0.538126528263092, 0.3744546175003052, 0.5303540825843811, 0.22643007338047028, 0.22321462631225586, 0.5207141041755676, 0.46993258595466614, 0.7293405532836914, 0.4037681221961975, 0.7052813768386841, 0.5709964632987976, 0.7132107615470886, 0.24161948263645172, 0.5526018738746643, 0.825401246547699, 0.6644973754882812, 0.6451205015182495, 0.718805730342865, 0.11392596364021301, 0.1872025430202484, 0.41517847776412964, 0.4566112756729126, 0.4706980884075165, 0.7454438209533691, 0.48957446217536926, 0.2983674108982086, 0.22400668263435364, 0.28976136445999146, 0.2741287052631378, 0.08109591156244278, 0.2582705318927765, 0.2917343080043793, 0.30494266748428345, 0.41216951608657837, 0.19369488954544067, 0.2106619030237198, 0.3511398136615753, 0.24205940961837769, 0.237008735537529, 0.19708417356014252, 0.17281736433506012, 0.17709064483642578, 0.16063587367534637, 0.116033174097538, 0.26810967922210693, 0.1623128354549408, 0.16437523066997528, 0.24883365631103516, 0.17074386775493622, 0.11317693442106247, 0.24731077253818512, 0.10344216227531433, 0.29655686020851135, 0.3721392750740051, 0.14003992080688477, 0.2435552477836609, 0.0923689678311348, 0.09141267836093903, 0.18191394209861755, 0.47450125217437744, 0.6225870251655579, 0.2861925959587097, 0.34388625621795654, 0.34384068846702576]</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.8968470692634583</v>
+        <v>0.825401246547699</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0.7445289000170305</v>
+        <v>0.7553944999963278</v>
       </c>
       <c r="J39" t="n">
-        <v>0.005640370454674474</v>
+        <v>0.005722685606032786</v>
       </c>
     </row>
     <row r="40">
@@ -2125,11 +2125,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[0.07405484467744827, 0.0610964260995388, 0.06531596183776855, 0.09803449362516403, 0.08489640802145004, 0.07260054349899292, 0.05821122229099274, 0.05683784931898117, 0.0482812225818634, 0.05997421219944954, 0.05442287027835846, 0.06613342463970184, 0.076524518430233, 0.08184821158647537, 0.08106084913015366, 0.1341465711593628, 0.08097127079963684, 0.08303026109933853, 0.05661505460739136, 0.06331680715084076, 0.06555936485528946, 0.10076724737882614, 0.12353358417749405, 0.1195007786154747, 0.3321428596973419, 0.07185181975364685, 0.052828285843133926, 0.050999969244003296, 0.03611693158745766, 0.06892795115709305, 0.0559408999979496, 0.09882302582263947, 0.04621991515159607, 0.054875172674655914, 0.03398314490914345, 0.04006972908973694, 0.04415326565504074, 0.04997013881802559, 0.04281558841466904, 0.06280084699392319, 0.09016447514295578, 0.08975815773010254, 0.06273701041936874, 0.06422100216150284, 0.06151702255010605, 0.08423002809286118, 0.09078093618154526, 0.08512924611568451, 0.08924253284931183, 0.08781877905130386, 0.10362923890352249, 0.08470126986503601, 0.08018116652965546, 0.10769625753164291, 0.16005665063858032, 0.21672295033931732, 0.1567533016204834, 0.20232830941677094, 0.1849343329668045, 0.1389312595129013, 0.15408453345298767, 0.11289075762033463, 0.1206294521689415, 0.10469698160886765, 0.07154946774244308, 0.046383269131183624, 0.04561991989612579, 0.06684036552906036, 0.04964795708656311, 0.07240933924913406, 0.05623408034443855, 0.06039755046367645, 0.109909787774086, 0.14568684995174408, 0.09208183735609055, 0.09463020414113998, 0.10414198786020279, 0.16746827960014343, 0.17201176285743713, 0.10551416128873825, 0.08507973700761795, 0.14136849343776703, 0.13953539729118347, 0.1170298308134079, 0.07312139868736267, 0.13640595972537994, 0.07148715108633041, 0.07690133899450302, 0.09355459362268448, 0.11570648849010468, 0.06137803941965103, 0.05743682011961937, 0.13005965948104858, 0.11632558703422546, 0.11646940559148788, 0.15194877982139587, 0.07202249765396118, 0.12405519932508469, 0.1039821207523346, 0.05218088626861572, 0.06254986673593521, 0.11051052063703537, 0.7013725638389587, 0.3143239915370941, 0.2313123643398285, 0.22458547353744507, 0.21948160231113434, 0.21228131651878357, 0.21731877326965332, 0.23904310166835785, 0.2313956767320633, 0.2399492859840393, 0.2315218150615692, 0.1206802949309349, 0.09228198230266571, 0.0640188530087471, 0.3373221457004547, 0.47428932785987854, 0.11958673596382141, 0.1878640502691269, 0.10077657550573349, 0.10372791439294815, 0.2551403343677521, 0.10275602340698242, 0.09281710535287857, 0.06817759573459625, 0.16541248559951782, 0.11191876977682114, 0.10992065817117691, 0.10618989914655685, 0.046506572514772415, 0.046407826244831085]</t>
+          <t>[0.028051456436514854, 0.022357426583766937, 0.03265582397580147, 0.047514382749795914, 0.0385882630944252, 0.037376485764980316, 0.03205885365605354, 0.032168690115213394, 0.025755716487765312, 0.03715400770306587, 0.04913967847824097, 0.04759030044078827, 0.034759409725666046, 0.043448563665151596, 0.05273443087935448, 0.18930961191654205, 0.09441415965557098, 0.049536675214767456, 0.03753913938999176, 0.03558270260691643, 0.039317432790994644, 0.12369399517774582, 0.1840941309928894, 0.26022398471832275, 0.6276980638504028, 0.05366646498441696, 0.03986323997378349, 0.031224563717842102, 0.02137994021177292, 0.041775308549404144, 0.06470581889152527, 0.16281479597091675, 0.05013197287917137, 0.04085461050271988, 0.020638326182961464, 0.022775180637836456, 0.021909872069954872, 0.02584598772227764, 0.023150112479925156, 0.03066960535943508, 0.053654130548238754, 0.04490102455019951, 0.03715873509645462, 0.03699328377842903, 0.03236318752169609, 0.06517153978347778, 0.06795558333396912, 0.05784314498305321, 0.05750454217195511, 0.07045727223157883, 0.09395215660333633, 0.06663219630718231, 0.06936877220869064, 0.06544853746891022, 0.15460774302482605, 0.21699781715869904, 0.1385156214237213, 0.1679660528898239, 0.15149851143360138, 0.16728083789348602, 0.14702200889587402, 0.07200045883655548, 0.08404823392629623, 0.06914853304624557, 0.04122917726635933, 0.027055805549025536, 0.026063820347189903, 0.05147843435406685, 0.03162820264697075, 0.04612594097852707, 0.04390872269868851, 0.055102281272411346, 0.1262662708759308, 0.12994885444641113, 0.06079581379890442, 0.06994620710611343, 0.07104263454675674, 0.10337478667497635, 0.11154215782880783, 0.08203538507223129, 0.05826812610030174, 0.1246735006570816, 0.11791442334651947, 0.10556599497795105, 0.05226275697350502, 0.0981317013502121, 0.04656258597970009, 0.04169692471623421, 0.06489482522010803, 0.07600337266921997, 0.057311899960041046, 0.03633872792124748, 0.09670039266347885, 0.08248139172792435, 0.15774790942668915, 0.12304331362247467, 0.08736509829759598, 0.1624097228050232, 0.10873659700155258, 0.032321467995643616, 0.04869043081998825, 0.1013680025935173, 0.3403211236000061, 0.23080392181873322, 0.1611175388097763, 0.15450096130371094, 0.14485520124435425, 0.14239642024040222, 0.14029765129089355, 0.16642317175865173, 0.15136799216270447, 0.16869306564331055, 0.1449744701385498, 0.07706905156373978, 0.07475921511650085, 0.0265789907425642, 0.24819806218147278, 0.11011087149381638, 0.013463905081152916, 0.05602962151169777, 0.01873159222304821, 0.023310404270887375, 0.11416008323431015, 0.11624211817979813, 0.07753544300794601, 0.06828626245260239, 0.16744214296340942, 0.0752897784113884, 0.05473383888602257, 0.0564681775867939, 0.01132089365273714, 0.011297252960503101]</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.7013725638389587</v>
+        <v>0.6276980638504028</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -2143,10 +2143,10 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0.7519466000085231</v>
+        <v>0.7895182999927783</v>
       </c>
       <c r="J40" t="n">
-        <v>0.005696565151579721</v>
+        <v>0.005981199242369533</v>
       </c>
     </row>
     <row r="41">
@@ -2165,11 +2165,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[0.6295995116233826, 0.497441828250885, 0.22602511942386627, 0.31083163619041443, 0.2450784295797348, 0.32494816184043884, 0.8533069491386414, 0.679280698299408, 0.6715371608734131, 0.8164219260215759, 0.8766971230506897, 0.20694053173065186, 0.38627365231513977, 0.2817666828632355, 0.5755505561828613, 0.4613783061504364, 0.27012962102890015, 0.3764607310295105, 0.21772107481956482, 0.1765291541814804, 0.4147815406322479, 0.5570459961891174, 0.13526232540607452, 0.10497213155031204, 0.19275742769241333, 0.19498388469219208, 0.3467522859573364, 0.2526782751083374, 0.0898587703704834, 0.2712564766407013, 0.33113908767700195, 0.16953672468662262, 0.1903955042362213, 0.14302395284175873, 0.12414514273405075, 0.09909339249134064, 0.09295153617858887, 0.0600549653172493, 0.8413404226303101, 0.40651586651802063, 0.4398048222064972, 0.7646881341934204, 0.3807857930660248, 0.48336729407310486, 0.26920056343078613, 0.14583678543567657, 0.096322201192379, 0.1218816488981247, 0.26041796803474426, 0.25716927647590637, 0.664718747138977, 0.11226199567317963, 0.14321906864643097, 0.13011778891086578, 0.16412536799907684, 0.16823652386665344, 0.2365596443414688, 0.17572616040706635, 0.060822032392024994, 0.14308114349842072, 0.23266993463039398, 0.16625364124774933, 0.22316548228263855, 0.2679208517074585, 0.293643593788147, 0.3205168545246124, 0.6130957007408142, 0.2116742879152298, 0.30659255385398865, 0.4116825759410858, 0.42545968294143677, 0.13053198158740997, 0.23404601216316223, 0.15069524943828583, 0.3505082130432129, 0.34453216195106506, 0.3280976414680481, 0.2828889787197113, 0.2612879276275635, 0.3869439959526062, 0.3015953004360199, 0.2432931512594223, 0.3802120089530945, 0.07802660763263702, 0.052742112427949905, 0.32424455881118774, 0.1539585143327713, 0.13860301673412323, 0.11067056655883789, 0.11058399081230164, 0.09678451716899872, 0.2575259506702423, 0.19434812664985657, 0.12626929581165314, 0.21299712359905243, 0.27573975920677185, 0.4882025718688965, 0.4904989004135132, 0.4319772720336914, 0.6209529042243958, 0.5350320339202881, 0.27754515409469604, 0.37205004692077637, 0.5374407768249512, 0.588137149810791, 0.47861725091934204, 0.6148475408554077, 0.46927332878112793, 0.664790689945221, 0.6930546164512634, 0.6532645225524902, 0.6542472243309021]</t>
+          <t>[0.7572807669639587, 0.4316980838775635, 0.18009726703166962, 0.33052435517311096, 0.202596977353096, 0.15268799662590027, 0.9100399613380432, 0.7811352014541626, 0.8122805953025818, 0.7799159288406372, 0.8859783411026001, 0.14413289725780487, 0.19266773760318756, 0.09919698536396027, 0.45856696367263794, 0.267059326171875, 0.13743935525417328, 0.3521234393119812, 0.10006535798311234, 0.05659284442663193, 0.2688499987125397, 0.49857795238494873, 0.09668176621198654, 0.052911799401044846, 0.13669797778129578, 0.07780824601650238, 0.145249143242836, 0.2076306939125061, 0.038622502237558365, 0.11748865246772766, 0.20920971035957336, 0.041374921798706055, 0.06667603552341461, 0.05221230536699295, 0.05945434421300888, 0.04710214212536812, 0.03726136311888695, 0.028201214969158173, 0.8687151670455933, 0.378022700548172, 0.27010422945022583, 0.8520626425743103, 0.38683268427848816, 0.4253353476524353, 0.10479718446731567, 0.06031106039881706, 0.03259553387761116, 0.05794789269566536, 0.1721312552690506, 0.15035465359687805, 0.6685203313827515, 0.07292094826698303, 0.09787653386592865, 0.09749706834554672, 0.08659441769123077, 0.1208711713552475, 0.17910699546337128, 0.07235279679298401, 0.021624289453029633, 0.060476671904325485, 0.1335143744945526, 0.0752173364162445, 0.11609413474798203, 0.14851035177707672, 0.15636886656284332, 0.19694243371486664, 0.4817900061607361, 0.1216290220618248, 0.19934315979480743, 0.3659016788005829, 0.38513126969337463, 0.05557834357023239, 0.10728954523801804, 0.08673616498708725, 0.23455753922462463, 0.32848626375198364, 0.2312677651643753, 0.1300165355205536, 0.16745683550834656, 0.19666770100593567, 0.14372704923152924, 0.10396728664636612, 0.3235693573951721, 0.028953764587640762, 0.022550279274582863, 0.36090147495269775, 0.10340007394552231, 0.06803170591592789, 0.06274746358394623, 0.04906032234430313, 0.04087335243821144, 0.16456526517868042, 0.12023024260997772, 0.04474104940891266, 0.11362650245428085, 0.2643018066883087, 0.6337190866470337, 0.7194631695747375, 0.5879612565040588, 0.7162119150161743, 0.4554382562637329, 0.26370587944984436, 0.3723602592945099, 0.5112440586090088, 0.6002327799797058, 0.48787638545036316, 0.722140908241272, 0.46525806188583374, 0.5794549584388733, 0.5965940952301025, 0.6238682270050049, 0.6244211196899414]</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.8766971230506897</v>
+        <v>0.9100399613380432</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0.6618892000115011</v>
+        <v>0.6393643000046723</v>
       </c>
       <c r="J41" t="n">
-        <v>0.005909725000102688</v>
+        <v>0.005708609821470288</v>
       </c>
     </row>
     <row r="42">
@@ -2205,11 +2205,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[0.19886188209056854, 0.28296586871147156, 0.463018536567688, 0.552666187286377, 0.574299156665802, 0.33698010444641113, 0.408990740776062, 0.5847633481025696, 0.3942696154117584, 0.4706077575683594, 0.4111247658729553, 0.21883738040924072, 0.2584589421749115, 0.2458573430776596, 0.3703292906284332, 0.2710358202457428, 0.27357542514801025, 0.6003136038780212, 0.33730295300483704, 0.49777328968048096, 0.7750985622406006, 0.83109050989151, 0.8635175228118896, 0.6985129117965698, 0.8710312247276306, 0.7348710894584656, 0.7995758056640625, 0.5255561470985413, 0.7356256246566772, 0.5005594491958618, 0.5470225811004639, 0.49760255217552185, 0.40160876512527466, 0.5085523128509521, 0.4025142788887024, 0.4839330315589905, 0.45328816771507263, 0.35182276368141174, 0.6368790864944458, 0.41307660937309265, 0.36562487483024597, 0.4512578845024109, 0.37926504015922546, 0.34501850605010986, 0.35700273513793945, 0.4052833020687103, 0.3947398066520691, 0.3363095819950104, 0.36549246311187744, 0.4749336838722229, 0.387540727853775, 0.3574700653553009, 0.23900246620178223, 0.3074335753917694, 0.2671249806880951, 0.2667578458786011, 0.4926097095012665, 0.4978349208831787, 0.3490423560142517, 0.5124889016151428, 0.663825511932373, 0.8125894665718079, 0.673653781414032, 0.6270495653152466, 0.4995734393596649, 0.6125689744949341, 0.48966100811958313, 0.6373985409736633, 0.5092893838882446, 0.45274388790130615, 0.4313572645187378, 0.4883890748023987, 0.4648784399032593, 0.5500503778457642, 0.5487920641899109, 0.5828262567520142, 0.5676373243331909, 0.40961989760398865, 0.26899877190589905, 0.284947007894516, 0.2476922571659088, 0.182678684592247, 0.2156723290681839, 0.235610693693161, 0.3261798620223999, 0.38382646441459656, 0.23431527614593506, 0.3608444035053253, 0.18003539741039276, 0.26438337564468384, 0.26947253942489624, 0.37077727913856506, 0.1446387618780136, 0.11977282166481018, 0.1250876486301422, 0.1654665619134903, 0.32334059476852417, 0.3542087972164154, 0.4258438050746918, 0.32847267389297485, 0.2498672753572464, 0.2495807409286499]</t>
+          <t>[0.14899802207946777, 0.23597809672355652, 0.3756939172744751, 0.5071033239364624, 0.5970285534858704, 0.3972906172275543, 0.5189555287361145, 0.6885079741477966, 0.5005927085876465, 0.6763933300971985, 0.5960670709609985, 0.37092316150665283, 0.3966219127178192, 0.2850169539451599, 0.34178146719932556, 0.1667359173297882, 0.2242261916399002, 0.5176326632499695, 0.3253456652164459, 0.4398311972618103, 0.703944742679596, 0.7998932600021362, 0.8526519536972046, 0.7565281391143799, 0.8723006844520569, 0.6858754754066467, 0.7552399635314941, 0.5715274810791016, 0.7775281071662903, 0.568629801273346, 0.4369291365146637, 0.34199291467666626, 0.2505205571651459, 0.37175264954566956, 0.24967706203460693, 0.3620152175426483, 0.39273056387901306, 0.2498931586742401, 0.48959270119667053, 0.29686036705970764, 0.26409947872161865, 0.49214231967926025, 0.3269478678703308, 0.29224345088005066, 0.258901447057724, 0.40367281436920166, 0.3568862974643707, 0.29267942905426025, 0.4750203490257263, 0.5928521156311035, 0.38407689332962036, 0.2900872230529785, 0.28880563378334045, 0.3548980951309204, 0.2511129677295685, 0.3251543641090393, 0.6559053063392639, 0.48774653673171997, 0.23456893861293793, 0.49873700737953186, 0.6096577644348145, 0.7734110951423645, 0.6207919716835022, 0.6582854390144348, 0.5601890683174133, 0.5823764801025391, 0.4085998833179474, 0.6219239830970764, 0.4606642425060272, 0.46028971672058105, 0.3532404899597168, 0.4127730429172516, 0.3675514757633209, 0.4803010821342468, 0.45705699920654297, 0.4834519922733307, 0.437276154756546, 0.2622610330581665, 0.2018401324748993, 0.25771084427833557, 0.24847286939620972, 0.2503506541252136, 0.14432768523693085, 0.21869125962257385, 0.3396986722946167, 0.4199206531047821, 0.2314796894788742, 0.4480192959308624, 0.17170563340187073, 0.22528576850891113, 0.19284191727638245, 0.24596142768859863, 0.08732672035694122, 0.06903555244207382, 0.07213809341192245, 0.08884461224079132, 0.25028273463249207, 0.417451411485672, 0.3571077585220337, 0.22931046783924103, 0.16823948919773102, 0.1674906462430954]</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.8710312247276306</v>
+        <v>0.8723006844520569</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0.586112699995283</v>
+        <v>0.604491499994765</v>
       </c>
       <c r="J42" t="n">
-        <v>0.005746202941130226</v>
+        <v>0.005926387254850638</v>
       </c>
     </row>
     <row r="43">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[0.32145702838897705, 0.40941122174263, 0.33482277393341064, 0.46905094385147095, 0.4801050126552582, 0.5427720546722412, 0.6652963161468506, 0.785339891910553, 0.8862160444259644, 0.7953604459762573, 0.552428126335144, 0.4678362011909485, 0.3931329846382141, 0.22785788774490356, 0.20291076600551605, 0.19808337092399597, 0.2663456201553345, 0.25509488582611084, 0.4142986238002777, 0.35629621148109436, 0.5536540746688843, 0.44745197892189026, 0.22108444571495056, 0.32061225175857544, 0.3706296980381012, 0.5418715476989746, 0.9249151945114136, 0.8596311211585999, 0.48033878207206726, 0.6296232342720032, 0.6352691650390625, 0.5061495304107666, 0.3376080393791199, 0.6012148857116699, 0.6879468560218811, 0.5830528140068054, 0.634506344795227, 0.7173144817352295, 0.7694483399391174, 0.9487818479537964, 0.8140062689781189, 0.702426016330719, 0.9470750093460083, 0.8733291625976562, 0.8749639391899109, 0.8580494523048401, 0.9090652465820312, 0.8548573851585388, 0.7771912813186646, 0.8361942768096924, 0.83677738904953, 0.8734316825866699, 0.8345663547515869, 0.7731902003288269, 0.9256193041801453, 0.8884392380714417, 0.9140436053276062, 0.9600719213485718, 0.8211562037467957, 0.8420453071594238, 0.8245819807052612, 0.9157031178474426, 0.8145414590835571, 0.9390600323677063, 0.9095076322555542, 0.8744549751281738, 0.8759893178939819, 0.8486884236335754, 0.8646938800811768, 0.7702354192733765, 0.6408555507659912, 0.5273382067680359, 0.6935679912567139, 0.798480749130249, 0.8882924318313599, 0.9337850213050842, 0.9532935619354248, 0.7611824870109558, 0.9237865209579468, 0.9673599600791931, 0.9258139729499817, 0.9208093285560608, 0.8516440391540527, 0.7627778053283691, 0.8535839915275574, 0.8872058987617493, 0.7536483407020569, 0.9250580668449402, 0.8727415204048157, 0.8700791597366333, 0.7934315800666809, 0.7818739414215088, 0.5986518859863281, 0.5550858974456787, 0.7774620652198792, 0.7501459717750549, 0.7177891135215759, 0.9175884127616882, 0.9404730796813965, 0.8533585071563721, 0.8788732886314392, 0.8759416937828064, 0.8487204909324646, 0.8485737442970276, 0.73541659116745, 0.6995977759361267, 0.9112908244132996, 0.908845841884613, 0.7872211933135986, 0.7321172952651978, 0.5315583944320679, 0.48635369539260864, 0.695084273815155, 0.775209367275238, 0.7541954517364502, 0.9099594950675964, 0.9194106459617615, 0.9191523194313049]</t>
+          <t>[0.2584201693534851, 0.3890244662761688, 0.3172703683376312, 0.42383188009262085, 0.4798000156879425, 0.5922195911407471, 0.667815625667572, 0.7833810448646545, 0.9332970976829529, 0.8086094856262207, 0.5472298860549927, 0.5108457207679749, 0.38711121678352356, 0.24965894222259521, 0.21244189143180847, 0.1760101616382599, 0.1927470564842224, 0.2303563356399536, 0.448207288980484, 0.4045582413673401, 0.6278417706489563, 0.43543508648872375, 0.28071945905685425, 0.47098982334136963, 0.3454733192920685, 0.4517650604248047, 0.9266684651374817, 0.8813161849975586, 0.5368178486824036, 0.7750924825668335, 0.711356520652771, 0.4458825886249542, 0.2825896739959717, 0.6747545003890991, 0.7898094654083252, 0.7042157053947449, 0.7556222677230835, 0.7187166213989258, 0.8231126070022583, 0.9721646904945374, 0.9063924551010132, 0.7933757901191711, 0.9296656847000122, 0.8441447019577026, 0.8343712091445923, 0.9012807011604309, 0.9224111437797546, 0.8994811773300171, 0.8696664571762085, 0.9121959805488586, 0.8348973989486694, 0.8830563426017761, 0.8091028332710266, 0.6499367952346802, 0.9131343364715576, 0.9249956607818604, 0.940942108631134, 0.9626424908638, 0.811691164970398, 0.8293309807777405, 0.8310143351554871, 0.9036255478858948, 0.8359307050704956, 0.9543362259864807, 0.9506279230117798, 0.9402246475219727, 0.9285931587219238, 0.8394220471382141, 0.8724461197853088, 0.8223990797996521, 0.7007008194923401, 0.45201990008354187, 0.7206779718399048, 0.8264094591140747, 0.9208357930183411, 0.9609071612358093, 0.9699562191963196, 0.753144383430481, 0.8703214526176453, 0.9638157486915588, 0.9247161746025085, 0.9330440163612366, 0.895116925239563, 0.7849016189575195, 0.8382010459899902, 0.9039722084999084, 0.7660584449768066, 0.9379826784133911, 0.8752976059913635, 0.8867594599723816, 0.7713248133659363, 0.8340811133384705, 0.5189509391784668, 0.5474321246147156, 0.8263884782791138, 0.8477794528007507, 0.7359325289726257, 0.9300318956375122, 0.9534533023834229, 0.8920267820358276, 0.9282426834106445, 0.908535897731781, 0.8589173555374146, 0.8525866866111755, 0.7846842408180237, 0.7153083086013794, 0.911431610584259, 0.8886466026306152, 0.7886252403259277, 0.7439257502555847, 0.5018622279167175, 0.3849223554134369, 0.6759387254714966, 0.8128694891929626, 0.8419814109802246, 0.8643057942390442, 0.8982737064361572, 0.897728443145752]</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.9673599600791931</v>
+        <v>0.9721646904945374</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0.6859678000037093</v>
+        <v>0.7111853999958839</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0058132864407094</v>
+        <v>0.006026994915219355</v>
       </c>
     </row>
     <row r="44">
@@ -2285,11 +2285,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[0.4333973824977875, 0.3585934638977051, 0.19307371973991394, 0.18162864446640015, 0.07726307213306427, 0.06658774614334106, 0.07259505987167358, 0.1340312361717224, 0.4390473961830139, 0.51544189453125, 0.3414105474948883, 0.3424801826477051, 0.2914741635322571, 0.18080294132232666, 0.23554019629955292, 0.17412422597408295, 0.29203179478645325, 0.158917635679245, 0.10512159764766693, 0.4022851586341858, 0.18918122351169586, 0.25746503472328186, 0.1900232881307602, 0.3723452687263489, 0.17176122963428497, 0.24264876544475555, 0.147965207695961, 0.2594435214996338, 0.2252233922481537, 0.232442706823349, 0.3514498472213745, 0.34139910340309143, 0.3382665812969208, 0.20999585092067719, 0.3401015102863312, 0.1529228240251541, 0.37032341957092285, 0.12331326305866241, 0.1401435136795044, 0.09338175505399704, 0.2308824211359024, 0.49602821469306946, 0.16850581765174866, 0.18424279987812042, 0.19428373873233795, 0.33760353922843933, 0.1059824600815773, 0.16389796137809753, 0.29479843378067017, 0.3228190541267395, 0.40173158049583435, 0.35613173246383667, 0.19040566682815552, 0.21047461032867432, 0.1799635887145996, 0.32566550374031067, 0.21083442866802216, 0.17934578657150269, 0.18409746885299683, 0.2627878487110138, 0.2973882257938385, 0.42673343420028687, 0.19770999252796173, 0.36058488488197327, 0.2161361277103424, 0.0974218025803566, 0.241266131401062, 0.4057276248931885, 0.17766307294368744, 0.26988449692726135, 0.20884864032268524, 0.2934589385986328, 0.24990619719028473, 0.18579109013080597, 0.18448494374752045, 0.13870827853679657, 0.13314871490001678, 0.2475670576095581, 0.1268024742603302, 0.2078198343515396, 0.22780579328536987, 0.33439117670059204, 0.6210444569587708, 0.4479747712612152, 0.20251190662384033, 0.3765048384666443, 0.1371094286441803, 0.06288158893585205, 0.09244595468044281, 0.09731359034776688, 0.10066642612218857, 0.06390026211738586, 0.09257728606462479, 0.22470678389072418, 0.16297279298305511, 0.22695603966712952, 0.23647013306617737, 0.23814474046230316, 0.07170024514198303, 0.03930110111832619, 0.06177020072937012, 0.05345011129975319, 0.0902123972773552, 0.10545220971107483, 0.14476802945137024, 0.44742584228515625, 0.6424753665924072, 0.3081648349761963, 0.13159465789794922, 0.07139616459608078, 0.12165343016386032, 0.0788579210639, 0.09602577984333038, 0.25106391310691833, 0.43848979473114014, 0.299911230802536, 0.23707902431488037, 0.23714901506900787]</t>
+          <t>[0.26297131180763245, 0.13726535439491272, 0.0539383627474308, 0.07411350309848785, 0.04832524061203003, 0.024417685344815254, 0.02359817922115326, 0.05449574440717697, 0.2674765884876251, 0.25630685687065125, 0.21990476548671722, 0.1987496018409729, 0.1374044269323349, 0.07455380260944366, 0.10293668508529663, 0.08803757280111313, 0.2203320860862732, 0.08715523034334183, 0.07856308668851852, 0.2643831968307495, 0.16969838738441467, 0.18111184239387512, 0.09327684342861176, 0.20105627179145813, 0.10264189541339874, 0.10741480439901352, 0.09454414248466492, 0.13442201912403107, 0.10673477500677109, 0.1346062272787094, 0.19207169115543365, 0.2675105035305023, 0.18758367002010345, 0.08420093357563019, 0.21728959679603577, 0.07624936103820801, 0.27938607335090637, 0.06283102929592133, 0.1044134795665741, 0.08347394317388535, 0.17728173732757568, 0.4438095688819885, 0.07973837107419968, 0.13473641872406006, 0.12463650107383728, 0.3201606571674347, 0.053435616195201874, 0.1106620505452156, 0.10633698850870132, 0.1498948037624359, 0.19130554795265198, 0.2689951956272125, 0.10902508348226547, 0.1714560091495514, 0.18280090391635895, 0.34737882018089294, 0.18554949760437012, 0.10488772392272949, 0.1425384134054184, 0.2774311304092407, 0.3172566294670105, 0.5736249089241028, 0.17093947529792786, 0.366132527589798, 0.12150181084871292, 0.06292340904474258, 0.12567341327667236, 0.4465470314025879, 0.21761231124401093, 0.24023473262786865, 0.23279491066932678, 0.26421868801116943, 0.2522483170032501, 0.12990593910217285, 0.15228642523288727, 0.1394520103931427, 0.09814392030239105, 0.2023007720708847, 0.05995714291930199, 0.09436464309692383, 0.09951216727495193, 0.2261042594909668, 0.6109771132469177, 0.441430002450943, 0.14395369589328766, 0.39050689339637756, 0.08149779587984085, 0.0285491906106472, 0.0437699519097805, 0.047884419560432434, 0.057996708899736404, 0.05067002773284912, 0.046050406992435455, 0.14701907336711884, 0.12419326603412628, 0.07545596361160278, 0.24198848009109497, 0.17945124208927155, 0.04028927907347679, 0.019068829715251923, 0.0320296473801136, 0.022039633244276047, 0.05811435356736183, 0.047419797629117966, 0.1265256255865097, 0.3878662586212158, 0.5044446587562561, 0.12728561460971832, 0.07150955498218536, 0.026419559493660927, 0.06700535118579865, 0.04626544937491417, 0.08585770428180695, 0.2215937077999115, 0.40584295988082886, 0.2254556119441986, 0.20205439627170563, 0.20202267169952393]</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.6424753665924072</v>
+        <v>0.6109771132469177</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -2303,10 +2303,10 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0.6867146999866236</v>
+        <v>0.7342357000015909</v>
       </c>
       <c r="J44" t="n">
-        <v>0.005819616101581556</v>
+        <v>0.006222336440691448</v>
       </c>
     </row>
     <row r="45">
@@ -2325,11 +2325,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[0.21259282529354095, 0.28970956802368164, 0.4213663339614868, 0.4574165642261505, 0.5369267463684082, 0.24479442834854126, 0.4889911115169525, 0.49498096108436584, 0.12307558208703995, 0.28778699040412903, 0.1491774320602417, 0.2506340742111206, 0.10454606264829636, 0.15076470375061035, 0.3907071053981781, 0.24895529448986053, 0.20439817011356354, 0.0988755077123642, 0.1476714015007019, 0.5239250063896179, 0.7120481729507446, 0.5901356339454651, 0.7318450212478638, 0.7636598944664001, 0.7309780120849609, 0.9272007942199707, 0.8952316641807556, 0.8055945634841919, 0.8468322157859802, 0.7359983325004578, 0.8438679575920105, 0.6714950203895569, 0.6474437713623047, 0.3766185939311981, 0.39626193046569824, 0.5936053991317749, 0.3386699855327606, 0.5719144344329834, 0.8162328004837036, 0.8112399578094482, 0.8024032711982727, 0.6758226156234741, 0.5985468029975891, 0.7078006267547607, 0.7603439092636108, 0.6790097951889038, 0.38439247012138367, 0.35960620641708374, 0.3746063709259033, 0.5725042223930359, 0.6227129101753235, 0.25798946619033813, 0.30424943566322327, 0.39573073387145996, 0.28725603222846985, 0.4970000982284546, 0.6166830658912659, 0.4972420036792755, 0.4012056291103363, 0.5667120814323425, 0.6131377816200256, 0.743671715259552, 0.7847996950149536, 0.8078010082244873, 0.6117923259735107, 0.6781181693077087, 0.5696398019790649, 0.8425143361091614, 0.8115784525871277, 0.7507041692733765, 0.8036302924156189, 0.8630352020263672, 0.7598209977149963, 0.6569428443908691, 0.702099084854126, 0.43120095133781433, 0.7730998396873474, 0.4556548297405243, 0.4396393895149231, 0.4735068082809448, 0.7062994837760925, 0.9383765459060669, 0.6125087141990662, 0.5628936290740967, 0.8657610416412354, 0.8914068341255188, 0.9569949507713318, 0.9146697521209717, 0.6891428828239441, 0.45736148953437805, 0.43791037797927856, 0.35465818643569946, 0.5156677961349487, 0.38691824674606323, 0.6490537524223328, 0.6619225740432739, 0.6454423069953918, 0.588800311088562, 0.7447255253791809, 0.5673484802246094, 0.6821793913841248, 0.7235258221626282, 0.6982845664024353, 0.7756531834602356, 0.6708391904830933, 0.850788950920105, 0.604147732257843, 0.763274073600769, 0.6201982498168945, 0.780920684337616, 0.6944432258605957, 0.7088618874549866, 0.6399990320205688, 0.5234763026237488, 0.3584320545196533, 0.7166882157325745, 0.5713579654693604, 0.5710864067077637]</t>
+          <t>[0.25070372223854065, 0.4028646647930145, 0.44904232025146484, 0.6046463251113892, 0.7183877229690552, 0.3266228139400482, 0.5421003103256226, 0.47610846161842346, 0.10776173323392868, 0.46360155940055847, 0.19005972146987915, 0.4544515013694763, 0.14082153141498566, 0.1583312749862671, 0.5323989987373352, 0.20433810353279114, 0.14906863868236542, 0.07224424928426743, 0.20495960116386414, 0.7678091526031494, 0.7074747085571289, 0.5426943302154541, 0.7874035239219666, 0.7729937434196472, 0.6802521347999573, 0.9538108110427856, 0.9216081500053406, 0.8704370260238647, 0.7567780613899231, 0.7114138007164001, 0.7658015489578247, 0.6240049004554749, 0.6863241195678711, 0.3555365800857544, 0.44083526730537415, 0.5393721461296082, 0.3660448491573334, 0.7155656814575195, 0.8730726838111877, 0.8615322113037109, 0.8968599438667297, 0.7056560516357422, 0.5974157452583313, 0.6104559302330017, 0.6427989602088928, 0.7166851162910461, 0.48437535762786865, 0.4166119396686554, 0.408968985080719, 0.6217314600944519, 0.5680689215660095, 0.25940588116645813, 0.2934669852256775, 0.44929713010787964, 0.2997792959213257, 0.5134414434432983, 0.4563426673412323, 0.5254815816879272, 0.4203674793243408, 0.5902883410453796, 0.5429991483688354, 0.6559873819351196, 0.7438869476318359, 0.8397139310836792, 0.6864798069000244, 0.7904608845710754, 0.656919002532959, 0.8850546479225159, 0.8756684064865112, 0.828648030757904, 0.8768829703330994, 0.9074136018753052, 0.8209059238433838, 0.7628510594367981, 0.8341328501701355, 0.5211825966835022, 0.7292149066925049, 0.5911750793457031, 0.5677953958511353, 0.5488019585609436, 0.7142682671546936, 0.9387372732162476, 0.6955864429473877, 0.5798084139823914, 0.9039844870567322, 0.9166135787963867, 0.9378196001052856, 0.950398862361908, 0.7376143932342529, 0.5518694519996643, 0.48961758613586426, 0.5463061332702637, 0.6892122030258179, 0.5108457803726196, 0.6797537803649902, 0.7179691195487976, 0.7636626958847046, 0.7205929756164551, 0.7095462679862976, 0.6834916472434998, 0.6855371594429016, 0.8217455744743347, 0.8807497024536133, 0.8677240610122681, 0.7904678583145142, 0.9227527976036072, 0.6598831415176392, 0.752347469329834, 0.6759305000305176, 0.7920306324958801, 0.7208915948867798, 0.7176571488380432, 0.6353175640106201, 0.7029672265052795, 0.4024297595024109, 0.8392457365989685, 0.6421665549278259, 0.6418725848197937]</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.9569949507713318</v>
+        <v>0.9538108110427856</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0.8285231000045314</v>
+        <v>0.9011200999957509</v>
       </c>
       <c r="J45" t="n">
-        <v>0.007021382203428232</v>
+        <v>0.007636611016913143</v>
       </c>
     </row>
     <row r="46">
@@ -2365,11 +2365,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[0.14965079724788666, 0.18649186193943024, 0.2419034242630005, 0.19845139980316162, 0.11753176897764206, 0.09842093288898468, 0.06725966185331345, 0.4795301854610443, 0.4826218783855438, 0.6997910141944885, 0.6584980487823486, 0.36523357033729553, 0.22790275514125824, 0.1191004067659378, 0.09147615730762482, 0.17034435272216797, 0.2082945704460144, 0.22544297575950623, 0.18826058506965637, 0.23647508025169373, 0.08995483815670013, 0.16258518397808075, 0.18945901095867157, 0.1685551404953003, 0.22692465782165527, 0.8024736642837524, 0.6374620795249939, 0.4280388653278351, 0.6619635224342346, 0.7057427763938904, 0.6467057466506958, 0.4390495717525482, 0.43369632959365845, 0.31719493865966797, 0.5707157850265503, 0.8299064636230469, 0.7078062891960144, 0.4048260748386383, 0.31910231709480286, 0.2987014651298523, 0.1409725397825241, 0.1387980431318283, 0.11681465059518814, 0.19045864045619965, 0.16500350832939148, 0.314097136259079, 0.6841645836830139, 0.664376974105835, 0.6741326451301575, 0.49436265230178833, 0.4894850254058838, 0.7554315328598022, 0.36076879501342773, 0.23935425281524658, 0.47318002581596375, 0.48076921701431274, 0.24650146067142487, 0.15251457691192627, 0.40122151374816895, 0.404838502407074, 0.2599850594997406, 0.2876741290092468, 0.4094267189502716, 0.46951934695243835, 0.43728047609329224, 0.4475531578063965, 0.2707567512989044, 0.37430092692375183, 0.5197901129722595, 0.4393184781074524, 0.3254658877849579, 0.16370046138763428, 0.16733752191066742, 0.17908215522766113, 0.0994383692741394, 0.13667899370193481, 0.12441955506801605, 0.12410023808479309, 0.11985650658607483, 0.3682585060596466, 0.11629887670278549, 0.26441115140914917, 0.126278817653656, 0.2309800088405609, 0.26967981457710266, 0.06477834284305573, 0.08374498039484024, 0.10182029008865356, 0.17940831184387207, 0.0893339216709137, 0.09466298669576645, 0.10782147198915482, 0.11328434944152832, 0.13792690634727478, 0.26596707105636597, 0.11040706932544708, 0.07395040988922119, 0.1502809375524521, 0.07586698979139328, 0.13934949040412903, 0.12571825087070465, 0.0500343032181263, 0.04915580898523331, 0.08142181485891342, 0.1468445360660553, 0.3320847451686859, 0.14551636576652527, 0.20979049801826477, 0.0978357121348381, 0.133512943983078, 0.18294177949428558, 0.10827969014644623, 0.17998763918876648, 0.14790086448192596, 0.07952022552490234, 0.20499037206172943, 0.1747557669878006, 0.17528626322746277]</t>
+          <t>[0.08966043591499329, 0.1322912871837616, 0.15412648022174835, 0.15230192244052887, 0.09073543548583984, 0.08396688103675842, 0.033903319388628006, 0.3601186275482178, 0.3175944983959198, 0.5441736578941345, 0.6271694898605347, 0.3709730803966522, 0.1900850534439087, 0.05936429649591446, 0.06585835665464401, 0.11850733309984207, 0.13935056328773499, 0.1284954845905304, 0.1221277192234993, 0.2315104603767395, 0.07990757375955582, 0.14227993786334991, 0.12490618973970413, 0.1341676115989685, 0.15570563077926636, 0.6690121293067932, 0.3690575659275055, 0.28837549686431885, 0.3779051601886749, 0.39618125557899475, 0.42343559861183167, 0.1827700436115265, 0.28557121753692627, 0.1791616827249527, 0.45647352933883667, 0.7500373125076294, 0.7046915292739868, 0.2798016369342804, 0.15969893336296082, 0.1539461761713028, 0.05831075459718704, 0.08815256506204605, 0.07297607511281967, 0.10192714631557465, 0.06693688780069351, 0.1832127422094345, 0.4992384910583496, 0.4528709053993225, 0.42362838983535767, 0.19442833960056305, 0.18453021347522736, 0.4443713128566742, 0.10410427302122116, 0.15115024149417877, 0.1615433692932129, 0.22001709043979645, 0.12221977859735489, 0.04786790534853935, 0.18723326921463013, 0.22983098030090332, 0.17307506501674652, 0.09143702685832977, 0.24233169853687286, 0.44939863681793213, 0.29853713512420654, 0.22909045219421387, 0.15115943551063538, 0.1821749061346054, 0.3438259959220886, 0.34161311388015747, 0.17472591996192932, 0.09048484265804291, 0.09426315128803253, 0.0912325531244278, 0.046435412019491196, 0.10218007862567902, 0.08259640634059906, 0.08031709492206573, 0.077107273042202, 0.334931880235672, 0.11599418520927429, 0.2460208386182785, 0.10611686110496521, 0.2248253971338272, 0.28120800852775574, 0.04008030518889427, 0.0460711270570755, 0.046905942261219025, 0.09499706327915192, 0.07796992361545563, 0.07656741142272949, 0.12346775084733963, 0.09872931241989136, 0.08443978428840637, 0.19566723704338074, 0.14090651273727417, 0.08590803295373917, 0.14189213514328003, 0.09040666371583939, 0.12595386803150177, 0.11080767959356308, 0.02803533896803856, 0.031006617471575737, 0.06260515749454498, 0.09503969550132751, 0.17618869245052338, 0.09032009541988373, 0.10969552397727966, 0.08744137734174728, 0.1551159769296646, 0.15869347751140594, 0.0950160101056099, 0.14536334574222565, 0.12260003387928009, 0.04990242421627045, 0.18667328357696533, 0.14978013932704926, 0.15001362562179565]</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.8299064636230469</v>
+        <v>0.7500373125076294</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0.6761706999968737</v>
+        <v>0.7191879000019981</v>
       </c>
       <c r="J46" t="n">
-        <v>0.005730260169465031</v>
+        <v>0.006094812711881339</v>
       </c>
     </row>
     <row r="47">
@@ -2405,11 +2405,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[0.360455721616745, 0.3003147840499878, 0.25372520089149475, 0.31466999650001526, 0.8819066882133484, 0.9859738349914551, 0.9099189043045044, 0.5208396315574646, 0.36936962604522705, 0.5210852026939392, 0.8754062056541443, 0.8329344987869263, 0.5184785723686218, 0.13406850397586823, 0.1789143830537796, 0.23029835522174835, 0.3243196904659271, 0.12900616228580475, 0.6067758798599243, 0.14560043811798096, 0.14631302654743195, 0.4125409424304962, 0.9508038759231567, 0.788296639919281, 0.2863600254058838, 0.5361300110816956, 0.6736570596694946, 0.22959551215171814, 0.708835780620575, 0.9258460998535156, 0.9515043497085571, 0.828166127204895, 0.9559069275856018, 0.950353741645813, 0.8928926587104797, 0.9519357085227966, 0.8690618276596069, 0.8362114429473877, 0.7899122834205627, 0.2678908705711365, 0.48170211911201477, 0.3524431586265564, 0.8342488408088684, 0.668493390083313, 0.5651093125343323, 0.7252060770988464, 0.9097830057144165, 0.8608289957046509, 0.9159677028656006, 0.937934935092926, 0.953191876411438, 0.9346597790718079, 0.8214813470840454, 0.9544911980628967, 0.9698972105979919, 0.9516047239303589, 0.9188145995140076, 0.9483808875083923, 0.966918408870697, 0.9706605672836304, 0.8883249759674072, 0.9031363129615784, 0.9379298090934753, 0.9345474243164062, 0.8952367305755615, 0.8710238933563232, 0.5234403014183044, 0.9093099236488342, 0.5683239102363586, 0.6482419967651367, 0.6669431924819946, 0.7535224556922913, 0.804527223110199, 0.7678864598274231, 0.8830345273017883, 0.6928871870040894, 0.4904790222644806, 0.9298573136329651, 0.869497537612915, 0.5152973532676697, 0.39613795280456543, 0.3355277478694916, 0.4934656322002411, 0.6143314242362976, 0.4664464294910431, 0.9132537245750427, 0.8957329392433167, 0.8616839647293091, 0.838830292224884, 0.965042769908905, 0.9322625994682312, 0.9443539977073669, 0.9654311537742615, 0.9422948956489563, 0.8535506725311279, 0.6834713816642761, 0.9592013359069824, 0.8145875334739685, 0.9175394177436829, 0.6606319546699524, 0.8008396625518799, 0.6900370121002197, 0.6630523204803467, 0.8257176876068115, 0.9203671216964722, 0.8883445858955383, 0.9163014888763428, 0.9518045783042908, 0.9008147716522217, 0.9320739507675171, 0.7078811526298523, 0.1789751797914505, 0.08056046068668365, 0.447868674993515, 0.28446394205093384, 0.3237095773220062, 0.44925543665885925, 0.44747552275657654]</t>
+          <t>[0.6056442260742188, 0.640838086605072, 0.4068138301372528, 0.4623784124851227, 0.9087056517601013, 0.9816442728042603, 0.9025965929031372, 0.7952464818954468, 0.5647398829460144, 0.6211718916893005, 0.8047835826873779, 0.8610827922821045, 0.6978016495704651, 0.14259469509124756, 0.24933050572872162, 0.21250301599502563, 0.4814014434814453, 0.16462844610214233, 0.7507901191711426, 0.13641653954982758, 0.37795785069465637, 0.6634659171104431, 0.963083028793335, 0.9421699047088623, 0.35313040018081665, 0.6944922208786011, 0.5972933173179626, 0.22757306694984436, 0.5043996572494507, 0.8015449047088623, 0.8341565132141113, 0.8127371668815613, 0.9213352203369141, 0.8254587054252625, 0.6927208304405212, 0.8321024775505066, 0.689781129360199, 0.6562014818191528, 0.6796892285346985, 0.29125264286994934, 0.5292640328407288, 0.40316247940063477, 0.911365807056427, 0.7855386137962341, 0.6093228459358215, 0.8284395933151245, 0.9442169070243835, 0.8215075135231018, 0.8799070715904236, 0.8988312482833862, 0.8897700905799866, 0.9146844744682312, 0.8248018622398376, 0.9153030514717102, 0.9606078267097473, 0.9106934666633606, 0.9338135719299316, 0.9637035727500916, 0.9628908634185791, 0.9561002850532532, 0.8637291193008423, 0.944269061088562, 0.9541667103767395, 0.9638314843177795, 0.848869800567627, 0.8952678442001343, 0.6124430298805237, 0.9390164017677307, 0.7271524667739868, 0.47166213393211365, 0.6394705176353455, 0.7629029154777527, 0.7870513200759888, 0.8141118884086609, 0.9315650463104248, 0.7375653982162476, 0.49057772755622864, 0.9651749730110168, 0.9186384677886963, 0.6866697669029236, 0.5203948616981506, 0.3695003390312195, 0.6088109612464905, 0.6895045042037964, 0.49747031927108765, 0.9342986345291138, 0.912124752998352, 0.8841745853424072, 0.8467074632644653, 0.9365940093994141, 0.9330193400382996, 0.9367135763168335, 0.911587119102478, 0.9008994102478027, 0.7778078317642212, 0.6463497281074524, 0.9506786465644836, 0.8906048536300659, 0.9316321611404419, 0.7575845718383789, 0.8453782200813293, 0.7306919693946838, 0.7846059203147888, 0.8729919791221619, 0.9099956154823303, 0.9094769358634949, 0.9323634505271912, 0.9510113596916199, 0.9100529551506042, 0.9205803275108337, 0.7853899598121643, 0.27254518866539, 0.17203888297080994, 0.7560511231422424, 0.573645830154419, 0.4944900870323181, 0.5556041598320007, 0.5536856651306152]</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.9859738349914551</v>
+        <v>0.9816442728042603</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -2423,10 +2423,10 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0.6663588000228629</v>
+        <v>0.6699612000084016</v>
       </c>
       <c r="J47" t="n">
-        <v>0.005647108474770024</v>
+        <v>0.005677637288206794</v>
       </c>
     </row>
     <row r="48">
@@ -2445,11 +2445,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[0.2194899022579193, 0.6236825585365295, 0.708655834197998, 0.6750277876853943, 0.5494957566261292, 0.347074955701828, 0.26599717140197754, 0.21464291214942932, 0.39288073778152466, 0.42090296745300293, 0.5067740082740784, 0.5597421526908875, 0.35184454917907715, 0.766611635684967, 0.3783279359340668, 0.2541795074939728, 0.34775209426879883, 0.20770524442195892, 0.20056389272212982, 0.2942909002304077, 0.13480746746063232, 0.15355278551578522, 0.20229221880435944, 0.28536495566368103, 0.20024780929088593, 0.29357197880744934, 0.12088750302791595, 0.1183360144495964, 0.1450141966342926, 0.12088659405708313, 0.07228268682956696, 0.1874748170375824, 0.17028117179870605, 0.14190800487995148, 0.16039296984672546, 0.11033269762992859, 0.1491936594247818, 0.23942305147647858, 0.12736621499061584, 0.1280387043952942, 0.09529633820056915, 0.08620092272758484, 0.05635853856801987, 0.0626915767788887, 0.15704791247844696, 0.20219062268733978, 0.10811364650726318, 0.11596871167421341, 0.14993496239185333, 0.13161399960517883, 0.12144918739795685, 0.22630824148654938, 0.1644848734140396, 0.18219499289989471, 0.0639909878373146, 0.07877332717180252, 0.06299477070569992, 0.10597676038742065, 0.3144603669643402, 0.26498839259147644, 0.33484572172164917, 0.06761755049228668, 0.08683710545301437, 0.07430457323789597, 0.04672127217054367, 0.023761840537190437, 0.05590926110744476, 0.11477252840995789, 0.12239564955234528, 0.0793742910027504, 0.13215383887290955, 0.09501169621944427, 0.07852374762296677, 0.1628665179014206, 0.10555972158908844, 0.09177666157484055, 0.05445794388651848, 0.04089880734682083, 0.04916785657405853, 0.07898521423339844, 0.1143980398774147, 0.09717907756567001, 0.06218252703547478, 0.1536896824836731, 0.0787736028432846, 0.17797698080539703, 0.06941784173250198, 0.051685042679309845, 0.05867025628685951, 0.045278400182724, 0.05022106319665909, 0.06643593311309814, 0.04847884550690651, 0.06801924109458923, 0.054179467260837555, 0.08292199671268463, 0.15628886222839355, 0.11357882618904114, 0.2753574252128601, 0.09683240950107574, 0.45896798372268677, 0.3630527853965759, 0.4060387909412384, 0.298005610704422, 0.4378953278064728, 0.24622249603271484, 0.13034884631633759, 0.23333390057086945, 0.28184762597084045, 0.19210246205329895, 0.27556028962135315, 0.1415821611881256, 0.13197045028209686, 0.14962810277938843, 0.16653050482273102, 0.13302305340766907, 0.19100266695022583, 0.19184032082557678]</t>
+          <t>[0.6326999664306641, 0.8827943205833435, 0.9588090777397156, 0.917853057384491, 0.8865288496017456, 0.669440746307373, 0.6059828400611877, 0.5936845541000366, 0.7762148976325989, 0.6700925230979919, 0.6476815342903137, 0.6598333716392517, 0.3700025677680969, 0.8631823658943176, 0.4179530441761017, 0.46787840127944946, 0.49674877524375916, 0.20706604421138763, 0.2894228994846344, 0.30733171105384827, 0.12763728201389313, 0.1591145545244217, 0.2970433831214905, 0.29029807448387146, 0.17943799495697021, 0.2966441214084625, 0.159939244389534, 0.15721416473388672, 0.12730588018894196, 0.10232511162757874, 0.04924466088414192, 0.2099158614873886, 0.166988804936409, 0.19346864521503448, 0.13748455047607422, 0.07432036846876144, 0.20701082050800323, 0.3091164529323578, 0.12367977946996689, 0.12605337798595428, 0.06805448234081268, 0.05317985266447067, 0.026848243549466133, 0.05434415489435196, 0.15212441980838776, 0.2564184367656708, 0.08330220729112625, 0.10595501959323883, 0.1513887345790863, 0.14270062744617462, 0.107597716152668, 0.20739609003067017, 0.14672808349132538, 0.1765245944261551, 0.0415073037147522, 0.04947962239384651, 0.037352051585912704, 0.06586834788322449, 0.3265824317932129, 0.23000431060791016, 0.24807874858379364, 0.033605437725782394, 0.052940938621759415, 0.057799555361270905, 0.0231048334389925, 0.01144497562199831, 0.024282654747366905, 0.0773974284529686, 0.08681857585906982, 0.05781300738453865, 0.12114035338163376, 0.05366268381476402, 0.03174247592687607, 0.15885736048221588, 0.062101542949676514, 0.05385119467973709, 0.02826668694615364, 0.019924798980355263, 0.02438494563102722, 0.04862918332219124, 0.08073043823242188, 0.07176609337329865, 0.046908531337976456, 0.1702493578195572, 0.07874876260757446, 0.21528339385986328, 0.0404665581882, 0.03763439506292343, 0.04408704489469528, 0.030255980789661407, 0.021804042160511017, 0.037009477615356445, 0.04537375271320343, 0.09088471531867981, 0.040976088494062424, 0.06271443516016006, 0.169573575258255, 0.13887755572795868, 0.35256385803222656, 0.09328417479991913, 0.7335560917854309, 0.5713990926742554, 0.6491314768791199, 0.4789075553417206, 0.7209200859069824, 0.5200799107551575, 0.467148095369339, 0.8356826305389404, 0.6913625001907349, 0.38361233472824097, 0.5909258127212524, 0.27940914034843445, 0.3570231795310974, 0.45840704441070557, 0.36142727732658386, 0.31551897525787354, 0.6314501166343689, 0.6325581669807434]</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.766611635684967</v>
+        <v>0.9588090777397156</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0.7092913000087719</v>
+        <v>0.7063620999979321</v>
       </c>
       <c r="J48" t="n">
-        <v>0.006010943220413322</v>
+        <v>0.005986119491507899</v>
       </c>
     </row>
     <row r="49">
@@ -2485,11 +2485,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[0.8090672492980957, 0.804101288318634, 0.8029831647872925, 0.7146995663642883, 0.6697277426719666, 0.542395830154419, 0.6250084042549133, 0.5172521471977234, 0.7746250629425049, 0.6159931421279907, 0.428878515958786, 0.2643436789512634, 0.25593215227127075, 0.5288588404655457, 0.5810246467590332, 0.13269516825675964, 0.35631945729255676, 0.49561771750450134, 0.7000198364257812, 0.4176245927810669, 0.14595481753349304, 0.17166496813297272, 0.21985934674739838, 0.2590036690235138, 0.5635677576065063, 0.23408374190330505, 0.3905029892921448, 0.25668248534202576, 0.24749964475631714, 0.10922608524560928, 0.44468212127685547, 0.4186232388019562, 0.4575549364089966, 0.48787400126457214, 0.4565880298614502, 0.6333727836608887, 0.38040846586227417, 0.3059020936489105, 0.5708798766136169, 0.49762237071990967, 0.29034659266471863, 0.5348711013793945, 0.7803900837898254, 0.8493373990058899, 0.8958888053894043, 0.8962526321411133, 0.7726540565490723, 0.9225611686706543, 0.3697371184825897, 0.5469615459442139, 0.4957149922847748, 0.3477475345134735, 0.23947888612747192, 0.6885273456573486, 0.7565738558769226, 0.6938281655311584, 0.5414748191833496, 0.5678431391716003, 0.23781703412532806, 0.4420137107372284, 0.3583850860595703, 0.15999694168567657, 0.4614112973213196, 0.7320854067802429, 0.5499807000160217, 0.533230185508728, 0.5324999094009399, 0.6770312190055847, 0.550167441368103, 0.13812114298343658, 0.39344075322151184, 0.40271008014678955, 0.6655983328819275, 0.7098677754402161, 0.4931553304195404, 0.3117925226688385, 0.656738817691803, 0.33613020181655884, 0.6542647480964661, 0.6110436916351318, 0.2311670482158661, 0.5004759430885315, 0.1948583871126175, 0.22229760885238647, 0.0801519975066185, 0.16420362889766693, 0.22250236570835114, 0.12449497729539871, 0.5980367660522461, 0.18715913593769073, 0.6936661601066589, 0.6074119210243225, 0.7002823948860168, 0.1154782772064209, 0.18110257387161255, 0.34810739755630493, 0.3128449618816376, 0.22044585645198822, 0.5858969688415527, 0.33798927068710327, 0.07060506194829941, 0.16769587993621826, 0.3329370319843292, 0.8444492220878601, 0.13063454627990723, 0.12079016119241714, 0.2941492199897766, 0.1626403033733368, 0.1332646906375885, 0.20175760984420776, 0.2471279799938202, 0.19048716127872467, 0.04377541318535805, 0.04824547469615936, 0.1319076120853424, 0.18576458096504211, 0.24565351009368896, 0.24340257048606873]</t>
+          <t>[0.43266430497169495, 0.4791116714477539, 0.505029559135437, 0.3659643530845642, 0.27433323860168457, 0.17951147258281708, 0.3335576355457306, 0.3060910105705261, 0.4963728189468384, 0.287309467792511, 0.08682478219270706, 0.09221469610929489, 0.048317015171051025, 0.17383304238319397, 0.26447793841362, 0.027609366923570633, 0.10900411009788513, 0.14848147332668304, 0.3430321216583252, 0.13605214655399323, 0.05550923943519592, 0.09134168922901154, 0.07750926166772842, 0.11225297302007675, 0.17142193019390106, 0.0658508911728859, 0.10337871313095093, 0.08466324210166931, 0.11313994228839874, 0.023442870005965233, 0.18428076803684235, 0.20319324731826782, 0.1466614454984665, 0.21123577654361725, 0.10939347743988037, 0.13164721429347992, 0.08159104734659195, 0.08480192720890045, 0.1305113583803177, 0.15765124559402466, 0.0720367580652237, 0.08186332881450653, 0.35287341475486755, 0.3891475200653076, 0.4868192970752716, 0.535352349281311, 0.3670724630355835, 0.7167841196060181, 0.10456517338752747, 0.126010000705719, 0.0932730957865715, 0.042402368038892746, 0.03544074296951294, 0.12279050797224045, 0.256672203540802, 0.1860140711069107, 0.1413329392671585, 0.12430505454540253, 0.0444243848323822, 0.08577113598585129, 0.07961910218000412, 0.07002714276313782, 0.21750448644161224, 0.3842727541923523, 0.3150310516357422, 0.18277473747730255, 0.24675995111465454, 0.36536622047424316, 0.2591197192668915, 0.04425355792045593, 0.1364697366952896, 0.10659544914960861, 0.3454267680644989, 0.20990058779716492, 0.15999095141887665, 0.1487981528043747, 0.28416651487350464, 0.1514752209186554, 0.4732743501663208, 0.2579861283302307, 0.054427072405815125, 0.13669511675834656, 0.02917850762605667, 0.036811791360378265, 0.01847495324909687, 0.0441080778837204, 0.08172237128019333, 0.04702777788043022, 0.2761504352092743, 0.04693819582462311, 0.3444083333015442, 0.27857306599617004, 0.5056912899017334, 0.03232809156179428, 0.09988358616828918, 0.09606210887432098, 0.07962808012962341, 0.04031406715512276, 0.22631749510765076, 0.09354984760284424, 0.01687462441623211, 0.06861374527215958, 0.1562734842300415, 0.5038243532180786, 0.025996068492531776, 0.025574931874871254, 0.11203176528215408, 0.07163188606500626, 0.045689165592193604, 0.04560365900397301, 0.07741031795740128, 0.06379097700119019, 0.013144520111382008, 0.011390437372028828, 0.037746768444776535, 0.06435270607471466, 0.10674071311950684, 0.10598715394735336]</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.9225611686706543</v>
+        <v>0.7167841196060181</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0.722624399990309</v>
+        <v>0.6844461999862688</v>
       </c>
       <c r="J49" t="n">
-        <v>0.006123935593138212</v>
+        <v>0.005800391525307362</v>
       </c>
     </row>
     <row r="50">
@@ -2525,11 +2525,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[0.08729977160692215, 0.08707466721534729, 0.03196505829691887, 0.04492691531777382, 0.23764300346374512, 0.05918911099433899, 0.08679580688476562, 0.15145905315876007, 0.05759669840335846, 0.41558966040611267, 0.2501617670059204, 0.2774101793766022, 0.2507355809211731, 0.21635261178016663, 0.051632389426231384, 0.04934576898813248, 0.09459378570318222, 0.07590436935424805, 0.0905531570315361, 0.05626069754362106, 0.07928255945444107, 0.04782625660300255, 0.09174243360757828, 0.07018475979566574, 0.11632470786571503, 0.0857112780213356, 0.26527220010757446, 0.1637345552444458, 0.06751392036676407, 0.12122125178575516, 0.16433210670948029, 0.13533982634544373, 0.21834352612495422, 0.08144572377204895, 0.24626488983631134, 0.36713743209838867, 0.18997764587402344, 0.13545671105384827, 0.0696505755186081, 0.06126180663704872, 0.06295759975910187, 0.1855034977197647, 0.08209636062383652, 0.150088831782341, 0.15197716653347015, 0.12210329622030258, 0.19040045142173767, 0.05184096097946167, 0.0827600508928299, 0.054534975439310074, 0.05849671736359596, 0.08297985792160034, 0.0458836704492569, 0.07766465097665787, 0.038344547152519226, 0.037271324545145035, 0.09616199880838394, 0.21408827602863312, 0.11007748544216156, 0.06420287489891052, 0.08194871246814728, 0.04823872447013855, 0.058608852326869965, 0.08250706642866135, 0.06659378856420517, 0.093670554459095, 0.06470642238855362, 0.07159575074911118, 0.08663152903318405, 0.059144195169210434, 0.044549256563186646, 0.03822742775082588, 0.033977534621953964, 0.037863120436668396, 0.0379527285695076, 0.03743710741400719, 0.03588823229074478, 0.03703894466161728, 0.0953049510717392, 0.07446605712175369, 0.06267073005437851, 0.03638176992535591, 0.040639184415340424, 0.04310937970876694, 0.12619875371456146, 0.06257134675979614, 0.025258339941501617, 0.050335999578237534, 0.051353778690099716, 0.11230093985795975, 0.029396886005997658, 0.0590565949678421, 0.05702953785657883, 0.17432865500450134, 0.06190934032201767, 0.24774128198623657, 0.07900811731815338, 0.06723597645759583, 0.0408061221241951, 0.06546637415885925, 0.04091465845704079, 0.053088292479515076, 0.12146949023008347, 0.3204673230648041, 0.07985460013151169, 0.3035966753959656, 0.5201680064201355, 0.12295403331518173, 0.26234692335128784, 0.12579889595508575, 0.10850146412849426, 0.22863160073757172, 0.42728379368782043, 0.13590070605278015, 0.18076011538505554, 0.28164371848106384, 0.4456767439842224, 0.44617411494255066]</t>
+          <t>[0.04875470697879791, 0.06710482388734818, 0.016110604628920555, 0.02481911890208721, 0.2360885888338089, 0.028305931016802788, 0.03602217137813568, 0.09879383444786072, 0.035591404885053635, 0.41193804144859314, 0.24357673525810242, 0.22280634939670563, 0.31930336356163025, 0.1673763394355774, 0.030061716213822365, 0.022259937599301338, 0.055883754044771194, 0.054256126284599304, 0.09249286353588104, 0.03518655523657799, 0.04922785982489586, 0.01947832852602005, 0.056189846247434616, 0.0320444256067276, 0.07427545636892319, 0.05538996681571007, 0.2218332290649414, 0.13881805539131165, 0.03272448852658272, 0.05257248878479004, 0.09196662157773972, 0.10072663426399231, 0.1739226132631302, 0.05735994875431061, 0.3022072911262512, 0.3623144030570984, 0.2155250608921051, 0.1027393639087677, 0.03511688485741615, 0.03656621277332306, 0.02845836989581585, 0.14310824871063232, 0.048178430646657944, 0.13391615450382233, 0.0862533450126648, 0.07513248920440674, 0.16968855261802673, 0.021593749523162842, 0.06356411427259445, 0.046996135264635086, 0.03748704493045807, 0.048604171723127365, 0.018913598731160164, 0.03898705542087555, 0.016081856563687325, 0.014784803614020348, 0.0434541292488575, 0.12127410620450974, 0.05448945239186287, 0.032150749117136, 0.0395582839846611, 0.01822730340063572, 0.028702689334750175, 0.06047750636935234, 0.045117348432540894, 0.06825622916221619, 0.03002152219414711, 0.07404311001300812, 0.10032949596643448, 0.03719651326537132, 0.02906559593975544, 0.0214797742664814, 0.01755557954311371, 0.02068033441901207, 0.021040745079517365, 0.01996389590203762, 0.01576443947851658, 0.021607816219329834, 0.06677370518445969, 0.045997582376003265, 0.036081619560718536, 0.019770339131355286, 0.02857659012079239, 0.024438772350549698, 0.10182740539312363, 0.04025282710790634, 0.014227781444787979, 0.04454667121171951, 0.04423285648226738, 0.08948968350887299, 0.019921045750379562, 0.047775749117136, 0.04710933193564415, 0.16047972440719604, 0.03564121201634407, 0.21215781569480896, 0.05934261903166771, 0.059622831642627716, 0.02426896058022976, 0.04974154755473137, 0.025761695578694344, 0.043688997626304626, 0.22491756081581116, 0.3115977346897125, 0.04425329342484474, 0.3184294104576111, 0.6288402080535889, 0.1107272356748581, 0.3111279606819153, 0.14048340916633606, 0.08877238631248474, 0.26507866382598877, 0.7287943363189697, 0.14552056789398193, 0.22239354252815247, 0.5267489552497864, 0.8032469153404236, 0.8023902177810669]</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.5201680064201355</v>
+        <v>0.8032469153404236</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -2543,10 +2543,10 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0.6684079999977257</v>
+        <v>0.6689367000071798</v>
       </c>
       <c r="J50" t="n">
-        <v>0.005664474576251913</v>
+        <v>0.005668955084806608</v>
       </c>
     </row>
     <row r="51">
@@ -2565,11 +2565,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[0.31646081805229187, 0.3116878569126129, 0.18310602009296417, 0.1423882395029068, 0.3040001690387726, 0.2524223029613495, 0.15011458098888397, 0.45221298933029175, 0.582791268825531, 0.5101941227912903, 0.46848341822624207, 0.6170259714126587, 0.6897560358047485, 0.4687269330024719, 0.5316197872161865, 0.4959355294704437, 0.4203100800514221, 0.7271422743797302, 0.6641668677330017, 0.4147772490978241, 0.6442650556564331, 0.6939674615859985, 0.5444766879081726, 0.9086382389068604, 0.9060598015785217, 0.8547602891921997, 0.9388484358787537, 0.7599326968193054, 0.9323442578315735, 0.9442333579063416, 0.9561357498168945, 0.860414981842041, 0.864389955997467, 0.5987171530723572, 0.38193774223327637, 0.25238826870918274, 0.3003252148628235, 0.2086854726076126, 0.27473369240760803, 0.32567253708839417, 0.7125658392906189, 0.8269743919372559, 0.9741492867469788, 0.9521141052246094, 0.9367817640304565, 0.9663129448890686, 0.9286022186279297, 0.43915313482284546, 0.5001344084739685, 0.8942263722419739, 0.29041776061058044, 0.32977917790412903, 0.23624713718891144, 0.6877802610397339, 0.28242728114128113, 0.7350913286209106, 0.6763361692428589, 0.5552524328231812, 0.7517387866973877, 0.8887351751327515, 0.9605307579040527, 0.9426590800285339, 0.8222619891166687, 0.6904744505882263, 0.6800063252449036, 0.5387281179428101, 0.6821687817573547, 0.5634539723396301, 0.36516237258911133, 0.8549339175224304, 0.6338992714881897, 0.5586555600166321, 0.5637925863265991, 0.5824916362762451, 0.6763384342193604, 0.48389601707458496, 0.7485606074333191, 0.669056236743927, 0.29943138360977173, 0.23424766957759857, 0.2896811366081238, 0.5199021100997925, 0.4019528329372406, 0.47340020537376404, 0.6628770232200623, 0.5275799632072449, 0.6989312767982483, 0.6996349692344666, 0.7813757658004761, 0.6181704998016357, 0.4144650995731354, 0.6018069982528687, 0.5316953659057617, 0.6415413618087769, 0.5108845829963684, 0.45090925693511963, 0.5814092755317688, 0.4310145378112793, 0.37645062804222107, 0.23583142459392548, 0.3215324878692627, 0.15099576115608215, 0.21865935623645782, 0.2916278541088104, 0.1872904747724533, 0.4794888496398926, 0.26824480295181274, 0.3445587456226349, 0.6330623626708984, 0.44093215465545654, 0.6101230382919312, 0.865561842918396, 0.7115249037742615, 0.6480628848075867, 0.5715346336364746, 0.6257931590080261, 0.49234792590141296, 0.49123233556747437]</t>
+          <t>[0.06073843687772751, 0.052887365221977234, 0.027075370773673058, 0.020057857036590576, 0.051646310836076736, 0.04589489474892616, 0.028446916490793228, 0.10320225358009338, 0.16697829961776733, 0.15271590650081635, 0.10318978875875473, 0.20807413756847382, 0.31939443945884705, 0.16691306233406067, 0.2180398851633072, 0.31523677706718445, 0.2673969864845276, 0.6037006974220276, 0.6137592196464539, 0.35127195715904236, 0.5023356080055237, 0.6545354127883911, 0.6555590033531189, 0.9145632386207581, 0.8883611559867859, 0.8993048071861267, 0.9296448230743408, 0.8081098198890686, 0.9529410004615784, 0.959755539894104, 0.9485116004943848, 0.8554389476776123, 0.9197628498077393, 0.6413241028785706, 0.33139386773109436, 0.2713736891746521, 0.24041056632995605, 0.2085357904434204, 0.42739129066467285, 0.32946959137916565, 0.7729469537734985, 0.8890294432640076, 0.9826803803443909, 0.9645597338676453, 0.9607395529747009, 0.9662631750106812, 0.9489624500274658, 0.5121108889579773, 0.4837424159049988, 0.9290691614151001, 0.2647596299648285, 0.26812586188316345, 0.16455891728401184, 0.705161452293396, 0.3073315918445587, 0.7951867580413818, 0.6907734274864197, 0.5628954768180847, 0.7944200038909912, 0.9048871397972107, 0.9463890790939331, 0.8243080377578735, 0.5930989384651184, 0.5648756623268127, 0.3579188287258148, 0.29208654165267944, 0.41304460167884827, 0.3168599605560303, 0.14421483874320984, 0.6700711250305176, 0.3186696767807007, 0.2209908813238144, 0.22507020831108093, 0.274119108915329, 0.37164103984832764, 0.17828910052776337, 0.4590985178947449, 0.2590861916542053, 0.09553021937608719, 0.08017250150442123, 0.08292727172374725, 0.1894230842590332, 0.12525823712348938, 0.11976689845323563, 0.20031611621379852, 0.17475566267967224, 0.21829552948474884, 0.3412966728210449, 0.41686901450157166, 0.2035617232322693, 0.07831140607595444, 0.14053396880626678, 0.20419339835643768, 0.2526603937149048, 0.16651248931884766, 0.11146446317434311, 0.25478702783584595, 0.19264473021030426, 0.12310702353715897, 0.05750284716486931, 0.13042625784873962, 0.04030856862664223, 0.09051977843046188, 0.15594075620174408, 0.05819317325949669, 0.3090003430843353, 0.09062908589839935, 0.1716480255126953, 0.31510716676712036, 0.22477303445339203, 0.45635098218917847, 0.7642240524291992, 0.4122389853000641, 0.37561142444610596, 0.3104259669780731, 0.33994609117507935, 0.18855667114257812, 0.18819965422153473]</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.9741492867469788</v>
+        <v>0.9826803803443909</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
@@ -2583,10 +2583,10 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0.7240338000119664</v>
+        <v>0.6706152999977348</v>
       </c>
       <c r="J51" t="n">
-        <v>0.006135879661118359</v>
+        <v>0.00568318050845538</v>
       </c>
     </row>
     <row r="52">
@@ -2605,11 +2605,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[0.6349056363105774, 0.7146627902984619, 0.6143777370452881, 0.5507834553718567, 0.8850309252738953, 0.8498727083206177, 0.6002315282821655, 0.5800485014915466, 0.8482285737991333, 0.9482728838920593, 0.9845173954963684, 0.9885359406471252, 0.9743714928627014, 0.8924973011016846, 0.8682483434677124, 0.9109787940979004, 0.8836365938186646, 0.37121185660362244, 0.32378438115119934, 0.509386420249939, 0.3475841283798218, 0.3135634958744049, 0.1946224421262741, 0.21185413002967834, 0.06180021911859512, 0.08375442028045654, 0.1639842540025711, 0.3350948691368103, 0.6759210228919983, 0.7953901290893555, 0.8175283670425415, 0.6718241572380066, 0.8410105109214783, 0.6609591245651245, 0.6249073147773743, 0.7686372995376587, 0.6151427626609802, 0.6623088121414185, 0.6055984497070312, 0.6760910749435425, 0.7702881097793579, 0.7731683254241943, 0.8482407927513123, 0.5228351354598999, 0.7267848253250122, 0.621361255645752, 0.6388562321662903, 0.751879096031189, 0.7177125215530396, 0.4033128619194031, 0.4775032103061676, 0.5382624864578247, 0.594757616519928, 0.3881863057613373, 0.5379497408866882, 0.8204779028892517, 0.7709735035896301, 0.6750930547714233, 0.5371792912483215, 0.5360440015792847, 0.49184784293174744, 0.5519998669624329, 0.49921363592147827, 0.6387728452682495, 0.7201734185218811, 0.5724579691886902, 0.7154263854026794, 0.8005455732345581, 0.7395709156990051, 0.7495264410972595, 0.6282071471214294, 0.7257132530212402, 0.5296987295150757, 0.5497514605522156, 0.5853623747825623, 0.5349438190460205, 0.6514019966125488, 0.614001989364624, 0.3959478735923767, 0.4239133596420288, 0.35355567932128906, 0.3847600519657135, 0.3824293911457062, 0.4203662574291229, 0.6810365319252014, 0.8027766346931458, 0.7523362636566162, 0.619665801525116, 0.7445564270019531, 0.5135735273361206, 0.8323748707771301, 0.6273108720779419, 0.78139728307724, 0.9031238555908203, 0.7175710797309875, 0.5005494356155396, 0.3208363354206085, 0.4686512053012848, 0.8434002995491028, 0.6242785453796387, 0.803155243396759, 0.9262149333953857, 0.9053206443786621, 0.9151699542999268, 0.7193651795387268, 0.8798666596412659, 0.9280003309249878, 0.967140793800354, 0.973802924156189, 0.7616531848907471, 0.653243362903595, 0.9148830771446228, 0.9090204238891602, 0.9686550498008728, 0.9797658324241638, 0.9009620547294617, 0.956153392791748, 0.9562016725540161]</t>
+          <t>[0.6820907592773438, 0.6152006387710571, 0.5210984945297241, 0.39857375621795654, 0.9279809594154358, 0.7874219417572021, 0.46237435936927795, 0.3593563139438629, 0.7624639868736267, 0.8946862816810608, 0.975681483745575, 0.9806928038597107, 0.9381611347198486, 0.860755205154419, 0.8929275870323181, 0.8640636205673218, 0.8951640129089355, 0.3343200981616974, 0.25231534242630005, 0.30201801657676697, 0.20086558163166046, 0.22072206437587738, 0.1255735456943512, 0.1095513328909874, 0.01847921684384346, 0.02435542456805706, 0.06408198922872543, 0.2371794879436493, 0.5558055639266968, 0.563645601272583, 0.6530982851982117, 0.38018983602523804, 0.6894960999488831, 0.4713066518306732, 0.3141747713088989, 0.463623970746994, 0.2989010810852051, 0.3853394091129303, 0.38497087359428406, 0.4087843596935272, 0.5062810182571411, 0.4135923683643341, 0.5463269948959351, 0.15932051837444305, 0.2726050019264221, 0.2931484580039978, 0.3926074504852295, 0.5084814429283142, 0.526031494140625, 0.1635504961013794, 0.23162998259067535, 0.3856498599052429, 0.28994202613830566, 0.13247758150100708, 0.2812199294567108, 0.6429724097251892, 0.542629599571228, 0.4846484363079071, 0.3348037898540497, 0.24951621890068054, 0.17607976496219635, 0.23341357707977295, 0.16025029122829437, 0.24004431068897247, 0.3163553476333618, 0.3478378653526306, 0.3538704514503479, 0.5274618864059448, 0.42113274335861206, 0.45019352436065674, 0.3998008072376251, 0.5347129106521606, 0.2994427978992462, 0.2997744083404541, 0.3372001647949219, 0.21644626557826996, 0.30143776535987854, 0.25176408886909485, 0.10766223818063736, 0.11039935052394867, 0.1395701766014099, 0.17881785333156586, 0.13449537754058838, 0.21903781592845917, 0.36466968059539795, 0.4252377152442932, 0.3328484296798706, 0.32793891429901123, 0.5716432929039001, 0.2712084650993347, 0.6262922883033752, 0.3760474920272827, 0.6847161650657654, 0.8736867308616638, 0.7681233882904053, 0.5131816864013672, 0.4790547788143158, 0.5776031613349915, 0.8132189512252808, 0.47085660696029663, 0.6260170936584473, 0.9199736714363098, 0.8714816570281982, 0.9387837052345276, 0.6248500347137451, 0.8481553196907043, 0.8405745625495911, 0.9355046153068542, 0.9432386159896851, 0.675754725933075, 0.5886158347129822, 0.8414496183395386, 0.7757735252380371, 0.9584816098213196, 0.9725981950759888, 0.8310053944587708, 0.912381112575531, 0.9121536016464233]</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.9885359406471252</v>
+        <v>0.9806928038597107</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -2623,10 +2623,10 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0.6740578000026289</v>
+        <v>0.6753812999959337</v>
       </c>
       <c r="J52" t="n">
-        <v>0.005712354237310415</v>
+        <v>0.00572357033894859</v>
       </c>
     </row>
     <row r="53">
@@ -2645,11 +2645,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[0.6118544340133667, 0.6737523078918457, 0.6256916522979736, 0.5275689363479614, 0.8838179707527161, 0.8653832674026489, 0.6053326725959778, 0.6558330059051514, 0.8532135486602783, 0.9496437907218933, 0.9831488132476807, 0.9908032417297363, 0.9745894074440002, 0.875853955745697, 0.8497669696807861, 0.9092227220535278, 0.8858781456947327, 0.3875279128551483, 0.34688442945480347, 0.5754978060722351, 0.3830789625644684, 0.3412580192089081, 0.25356489419937134, 0.15235942602157593, 0.06507828831672668, 0.0764118880033493, 0.19441771507263184, 0.39254218339920044, 0.679447591304779, 0.8001183271408081, 0.808786928653717, 0.6837648749351501, 0.8349743485450745, 0.7298260927200317, 0.6326639652252197, 0.7878009676933289, 0.5826900005340576, 0.6507000923156738, 0.6118690371513367, 0.7103429436683655, 0.7732357978820801, 0.7666144967079163, 0.8312121629714966, 0.5484050512313843, 0.6986986994743347, 0.6115586757659912, 0.6297365427017212, 0.7303718328475952, 0.7586373090744019, 0.3816964328289032, 0.4342467188835144, 0.5151174664497375, 0.6177560091018677, 0.39977821707725525, 0.5360683798789978, 0.8061690330505371, 0.783507764339447, 0.6634336113929749, 0.5042020678520203, 0.4779951572418213, 0.5378673672676086, 0.5351073145866394, 0.5148316025733948, 0.6456061005592346, 0.7240645885467529, 0.5980971455574036, 0.7206571102142334, 0.8067857623100281, 0.7663890719413757, 0.7530243992805481, 0.6706519722938538, 0.7027450799942017, 0.5365571975708008, 0.5146545171737671, 0.6145138144493103, 0.5948715806007385, 0.6628230214118958, 0.6465616226196289, 0.383710116147995, 0.4246494770050049, 0.3733571171760559, 0.3513675034046173, 0.34913527965545654, 0.428977906703949, 0.6969276070594788, 0.8150383830070496, 0.7604354619979858, 0.5683861970901489, 0.7583634257316589, 0.4547058045864105, 0.7564659714698792, 0.6276291012763977, 0.8112264275550842, 0.8983914256095886, 0.71733158826828, 0.5671290755271912, 0.28202304244041443, 0.47929003834724426, 0.8138641119003296, 0.6540420055389404, 0.8625530004501343, 0.916301965713501, 0.9341674447059631, 0.915274977684021, 0.6893515586853027, 0.8768318295478821, 0.9399296641349792, 0.975266695022583, 0.9735846519470215, 0.8160801529884338, 0.728586733341217, 0.9209619760513306, 0.9083759188652039, 0.9635830521583557, 0.9782657027244568, 0.9018484354019165, 0.9594354629516602, 0.9592046141624451]</t>
+          <t>[0.6364874243736267, 0.5542824864387512, 0.4988448917865753, 0.36636781692504883, 0.9314843416213989, 0.8005096912384033, 0.47899702191352844, 0.4024454653263092, 0.7416602373123169, 0.8945220112800598, 0.9725459814071655, 0.9823375940322876, 0.944675087928772, 0.8163037896156311, 0.8794489502906799, 0.869247317314148, 0.8910804986953735, 0.3514244556427002, 0.2651679217815399, 0.3407970070838928, 0.22568143904209137, 0.2312140166759491, 0.14575619995594025, 0.06742747873067856, 0.019909298047423363, 0.021798552945256233, 0.08090797066688538, 0.28582483530044556, 0.5505250096321106, 0.5611330270767212, 0.6490185260772705, 0.38579389452934265, 0.6702283620834351, 0.5371642112731934, 0.35222959518432617, 0.4899120032787323, 0.2759478688240051, 0.3999921679496765, 0.4090094268321991, 0.4486188590526581, 0.5228686928749084, 0.4069894552230835, 0.5145807266235352, 0.17337600886821747, 0.24380624294281006, 0.2721945345401764, 0.3657013475894928, 0.47449666261672974, 0.5564417839050293, 0.14722014963626862, 0.2201586812734604, 0.37294483184814453, 0.31419694423675537, 0.14283055067062378, 0.2867237627506256, 0.6198542714118958, 0.5678023099899292, 0.46237045526504517, 0.30232274532318115, 0.24962186813354492, 0.20234239101409912, 0.2664373219013214, 0.15968914330005646, 0.24186407029628754, 0.30586668848991394, 0.3615652620792389, 0.35902756452560425, 0.5573901534080505, 0.44088631868362427, 0.4383883774280548, 0.45764362812042236, 0.4909777343273163, 0.321643590927124, 0.2610342502593994, 0.3782675266265869, 0.2492789626121521, 0.30722108483314514, 0.30332157015800476, 0.09889622777700424, 0.11414490640163422, 0.15014581382274628, 0.15737856924533844, 0.12262672185897827, 0.22787854075431824, 0.4058281481266022, 0.4413897693157196, 0.3376803994178772, 0.2861079275608063, 0.6005703806877136, 0.2304334193468094, 0.5094375014305115, 0.38789188861846924, 0.7381471395492554, 0.8738523125648499, 0.7693946361541748, 0.5662387013435364, 0.4198385775089264, 0.6210883259773254, 0.7617170214653015, 0.5255176424980164, 0.7055397629737854, 0.9055056571960449, 0.9120379090309143, 0.9379656910896301, 0.6101806163787842, 0.8282040357589722, 0.8612491488456726, 0.9433109760284424, 0.9437938928604126, 0.738566517829895, 0.6505447626113892, 0.8574929237365723, 0.7681366205215454, 0.9498080611228943, 0.9690528512001038, 0.8255168199539185, 0.9135596752166748, 0.9127022624015808]</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.9908032417297363</v>
+        <v>0.9823375940322876</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0.6712701999931596</v>
+        <v>0.6696206999913557</v>
       </c>
       <c r="J53" t="n">
-        <v>0.005688730508416607</v>
+        <v>0.005674751694841997</v>
       </c>
     </row>
     <row r="54">
@@ -2685,11 +2685,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0.8918182849884033, 0.92674320936203, 0.9348236322402954, 0.9671323299407959, 0.9499377012252808, 0.9327992796897888, 0.826765775680542, 0.7658029198646545, 0.8026145696640015, 0.7624141573905945, 0.753574550151825, 0.6445695757865906, 0.6908543109893799, 0.21371430158615112, 0.3514920473098755, 0.7219635248184204, 0.7332777976989746, 0.8015663027763367, 0.5626848936080933, 0.38200700283050537, 0.4148339033126831, 0.5858638882637024, 0.35580337047576904, 0.283619225025177, 0.39935943484306335, 0.6316801905632019, 0.6949433088302612, 0.6080779433250427, 0.6204732060432434, 0.5190617442131042, 0.5727455615997314, 0.6405772566795349, 0.6758518218994141, 0.6276402473449707, 0.5780833959579468, 0.686923086643219, 0.7152959704399109, 0.7638142704963684, 0.5388177037239075, 0.536304771900177, 0.742977499961853, 0.7501155734062195, 0.6236047744750977, 0.7578607797622681, 0.8056197166442871, 0.9011639356613159, 0.8677570223808289, 0.9068776369094849, 0.6628016233444214, 0.7743316888809204, 0.43281805515289307, 0.7591584324836731, 0.8217299580574036, 0.9126713871955872, 0.9412417411804199, 0.8535194993019104, 0.7921701073646545, 0.9378457069396973, 0.9146075248718262, 0.8913446664810181, 0.8089243769645691, 0.7036891579627991, 0.7372809648513794, 0.681308925151825, 0.688698947429657, 0.8123629689216614, 0.6252246499061584, 0.791717529296875, 0.5125048160552979, 0.7514593601226807, 0.6840013861656189, 0.700658917427063, 0.88929682970047, 0.9042754769325256, 0.7623050808906555, 0.7294854521751404, 0.8842194080352783, 0.9450754523277283, 0.9294096231460571, 0.9510122537612915, 0.955886960029602, 0.9718442559242249, 0.9445031881332397, 0.9423315525054932, 0.9250931739807129, 0.9476452469825745, 0.8575694561004639, 0.6149395108222961, 0.46547621488571167, 0.6360555291175842, 0.5398544073104858, 0.4303036332130432, 0.24081401526927948, 0.19152583181858063, 0.29213830828666687, 0.5551111102104187, 0.4717511534690857, 0.31638842821121216, 0.8835440874099731, 0.6929612755775452, 0.8219814300537109, 0.8459978103637695, 0.6808880567550659, 0.8679591417312622, 0.7295451760292053, 0.6412063241004944, 0.5039108991622925, 0.46689751744270325, 0.37700194120407104, 0.7545253038406372, 0.7941378951072693, 0.9046264290809631, 0.9511479139328003, 0.9092745780944824, 0.93448805809021, 0.9144582152366638, 0.8779552578926086, 0.8283261656761169, 0.7985113263130188, 0.6670827865600586, 0.47887060046195984, 0.767901599407196, 0.888761579990387, 0.8205971717834473, 0.8644024133682251, 0.856135904788971, 0.8284199833869934, 0.9043193459510803, 0.8975080251693726, 0.7722880244255066, 0.8966616988182068, 0.9426394701004028, 0.8651303052902222, 0.652588427066803, 0.6364054679870605, 0.8389332294464111, 0.9524509310722351, 0.854407787322998, 0.8494783639907837, 0.7781651020050049, 0.9691593050956726, 0.9169968366622925, 0.857526421546936, 0.6829626560211182, 0.5097021460533142, 0.5013778805732727, 0.554729700088501, 0.3589177429676056, 0.30830031633377075, 0.5517932176589966, 0.6751108169555664, 0.6195622086524963, 0.3977842628955841, 0.495523601770401, 0.7156059145927429, 0.6875233054161072, 0.7647344470024109, 0.7587574124336243]</t>
+          <t>[0.7044035196304321, 0.720058262348175, 0.8340510129928589, 0.8924625515937805, 0.8940801620483398, 0.8222808241844177, 0.6154873967170715, 0.5528863668441772, 0.5947123765945435, 0.5221997499465942, 0.4536716341972351, 0.3019409775733948, 0.4027041494846344, 0.06620413810014725, 0.1201312318444252, 0.37898609042167664, 0.4041663110256195, 0.5522645711898804, 0.24605004489421844, 0.13046446442604065, 0.1391659528017044, 0.2458883374929428, 0.12109529972076416, 0.1048944815993309, 0.19287219643592834, 0.42891931533813477, 0.5203968286514282, 0.40776893496513367, 0.40722161531448364, 0.2237476110458374, 0.27507615089416504, 0.2746596038341522, 0.38186705112457275, 0.35108956694602966, 0.25646311044692993, 0.30279406905174255, 0.35935178399086, 0.48631444573402405, 0.28864121437072754, 0.3235861361026764, 0.5176010131835938, 0.46417099237442017, 0.3068997859954834, 0.501808762550354, 0.5288451910018921, 0.7828466892242432, 0.703883945941925, 0.8365672826766968, 0.39739924669265747, 0.41665011644363403, 0.1285821944475174, 0.4710686206817627, 0.5328516960144043, 0.7449374198913574, 0.7869795560836792, 0.6011970043182373, 0.5529772043228149, 0.8335386514663696, 0.6813868284225464, 0.6119908690452576, 0.48102834820747375, 0.33095142245292664, 0.39673909544944763, 0.3467494547367096, 0.2786041498184204, 0.5588286519050598, 0.3112320005893707, 0.5043238401412964, 0.20336423814296722, 0.5085863471031189, 0.47228386998176575, 0.3993523418903351, 0.7417923808097839, 0.8303834199905396, 0.6126505136489868, 0.6113046407699585, 0.787720263004303, 0.9213916063308716, 0.859130859375, 0.8817752003669739, 0.9065411686897278, 0.9404894113540649, 0.8886831998825073, 0.8410544991493225, 0.8141024112701416, 0.8612305521965027, 0.7024234533309937, 0.3753439486026764, 0.33187222480773926, 0.42756596207618713, 0.2865825593471527, 0.1585095226764679, 0.08605688810348511, 0.05946042761206627, 0.08300527185201645, 0.2468729019165039, 0.17368084192276, 0.10359500348567963, 0.717302680015564, 0.4172133803367615, 0.6664111614227295, 0.6727606654167175, 0.45182374119758606, 0.6874960660934448, 0.3874756097793579, 0.33710798621177673, 0.24340248107910156, 0.24920405447483063, 0.144211083650589, 0.6290761232376099, 0.6044830083847046, 0.7532370090484619, 0.8541770577430725, 0.7251638174057007, 0.7924827337265015, 0.7215899229049683, 0.6851097941398621, 0.6646749973297119, 0.6739060878753662, 0.5148998498916626, 0.26048389077186584, 0.6347352862358093, 0.8091984987258911, 0.5375584959983826, 0.6954347491264343, 0.7223880290985107, 0.5304924249649048, 0.7360507845878601, 0.6662006378173828, 0.44396284222602844, 0.7500394582748413, 0.8805188536643982, 0.6916962265968323, 0.36896398663520813, 0.33059823513031006, 0.6052043437957764, 0.9114947319030762, 0.6554268598556519, 0.6800013184547424, 0.5583835244178772, 0.9358497262001038, 0.8243761658668518, 0.6678972244262695, 0.49429863691329956, 0.3418518602848053, 0.3585679829120636, 0.366376131772995, 0.1691804826259613, 0.10202421247959137, 0.27774810791015625, 0.3390205502510071, 0.2666712701320648, 0.12314215302467346, 0.20830665528774261, 0.42964062094688416, 0.42987358570098877, 0.5159816741943359, 0.5001233220100403]</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.9718442559242249</v>
+        <v>0.9404894113540649</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
@@ -2703,10 +2703,10 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0.8587340000085533</v>
+        <v>0.8867181000096025</v>
       </c>
       <c r="J54" t="n">
-        <v>0.005435025316509831</v>
+        <v>0.005612139873478496</v>
       </c>
     </row>
     <row r="55">
@@ -2725,11 +2725,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[0.31076663732528687, 0.30328312516212463, 0.3393719494342804, 0.36764615774154663, 0.41207537055015564, 0.462342768907547, 0.7479348182678223, 0.8525082468986511, 0.8323873281478882, 0.6303998827934265, 0.5400036573410034, 0.5473563075065613, 0.6021303534507751, 0.6015244126319885, 0.8178393244743347, 0.7099682092666626, 0.8089146018028259, 0.765586256980896, 0.5308365225791931, 0.45507556200027466, 0.4563242495059967, 0.7826622724533081, 0.8985844254493713, 0.7864665389060974, 0.6538954973220825, 0.5468651652336121, 0.48966845870018005, 0.6003417372703552, 0.473943829536438, 0.6081807613372803, 0.6161843538284302, 0.7243738770484924, 0.633906900882721, 0.34227806329727173, 0.3645840585231781, 0.3821979761123657, 0.3807082772254944, 0.35163581371307373, 0.33671891689300537, 0.41117537021636963, 0.4525226056575775, 0.478036105632782, 0.647163987159729, 0.4934386909008026, 0.4671568274497986, 0.5471958518028259, 0.5549147725105286, 0.6518998146057129, 0.7452014684677124, 0.6768185496330261, 0.5333162546157837, 0.47242259979248047, 0.6464356780052185, 0.5947157144546509, 0.7393426299095154, 0.8188400864601135, 0.720833420753479, 0.7818241715431213, 0.7261709570884705, 0.826859176158905, 0.8513889908790588, 0.5026504397392273, 0.5030983090400696, 0.5485514402389526, 0.6165399551391602, 0.8694711327552795, 0.9098396897315979, 0.9150152206420898, 0.9030336141586304, 0.9368500709533691, 0.863307774066925, 0.7746241092681885, 0.8029944896697998, 0.5557686686515808, 0.596388041973114, 0.6196886897087097, 0.8434394001960754, 0.9041200280189514, 0.8439919352531433, 0.7995361685752869, 0.793219268321991, 0.6212192177772522, 0.5743451714515686, 0.5635607838630676, 0.47863250970840454, 0.49246788024902344, 0.48293790221214294, 0.4710974097251892, 0.5315975546836853, 0.5037035942077637, 0.5199292898178101, 0.5134764909744263, 0.4415600597858429, 0.47545480728149414, 0.5284705758094788, 0.5492848753929138, 0.438286691904068, 0.5682425498962402, 0.7096502780914307, 0.7620140314102173, 0.7958253026008606, 0.703125536441803, 0.7133122682571411, 0.7898780703544617, 0.7897791862487793, 0.6643154621124268, 0.5982742309570312, 0.528556227684021, 0.5938986539840698, 0.7256345152854919, 0.8624468445777893, 0.7777932286262512, 0.6933420300483704, 0.5551758408546448, 0.42539212107658386, 0.4140016436576843, 0.6014326214790344, 0.6138777732849121, 0.6077695488929749, 0.4292168915271759, 0.4243095815181732, 0.4810596704483032, 0.6775892972946167, 0.5800207853317261, 0.46893054246902466, 0.3945477604866028, 0.4282319247722626, 0.6277152895927429, 0.8388136029243469, 0.5950860977172852, 0.6375903487205505, 0.6024343371391296, 0.49056223034858704, 0.5266969799995422, 0.5474776029586792, 0.6160876154899597, 0.553048849105835, 0.6260714530944824, 0.6506398320198059, 0.6702141165733337, 0.6200690269470215, 0.616279125213623, 0.7392664551734924, 0.6631742715835571, 0.7428364753723145, 0.6371175050735474, 0.5405088663101196, 0.5506686568260193, 0.6799760460853577, 0.7552086114883423, 0.7066718339920044, 0.7382601499557495, 0.7253335118293762, 0.6078094244003296, 0.6653794646263123, 0.7784938812255859, 0.7365168333053589, 0.7414634227752686]</t>
+          <t>[0.24581259489059448, 0.28077149391174316, 0.2828461527824402, 0.3170631229877472, 0.3478471338748932, 0.3681962192058563, 0.670059084892273, 0.7759611010551453, 0.7964765429496765, 0.6303175091743469, 0.6065888404846191, 0.6674395799636841, 0.6953755021095276, 0.680587887763977, 0.901045560836792, 0.823448896408081, 0.8259278535842896, 0.707044243812561, 0.47693294286727905, 0.34859994053840637, 0.35598641633987427, 0.7240874767303467, 0.9306106567382812, 0.8153735399246216, 0.7077873349189758, 0.6474366784095764, 0.6170104146003723, 0.695746898651123, 0.5358587503433228, 0.6063345074653625, 0.5831319689750671, 0.7609972953796387, 0.7061349749565125, 0.3549639880657196, 0.34505388140678406, 0.4178171157836914, 0.3542972505092621, 0.29894256591796875, 0.23087508976459503, 0.3074592351913452, 0.37870103120803833, 0.46458086371421814, 0.695662260055542, 0.5073055624961853, 0.5676089525222778, 0.5928166508674622, 0.5931225419044495, 0.7687128782272339, 0.7839204668998718, 0.7433879375457764, 0.5938541293144226, 0.4583280086517334, 0.5909042358398438, 0.5984240174293518, 0.7622018456459045, 0.8849008679389954, 0.7860586643218994, 0.8157099485397339, 0.7949888706207275, 0.8241094350814819, 0.7845463156700134, 0.3592551350593567, 0.40896835923194885, 0.5556694269180298, 0.5665950775146484, 0.8443161249160767, 0.9145442843437195, 0.9043248891830444, 0.9223531484603882, 0.9431889057159424, 0.8671300411224365, 0.7548938393592834, 0.7937660217285156, 0.5882668495178223, 0.6209203600883484, 0.592943549156189, 0.8344754576683044, 0.9232562780380249, 0.847316324710846, 0.7979192733764648, 0.7667133808135986, 0.5423381924629211, 0.47280216217041016, 0.555618941783905, 0.4823109805583954, 0.4617522358894348, 0.46101877093315125, 0.4591992199420929, 0.48901546001434326, 0.48391497135162354, 0.43570396304130554, 0.3603556752204895, 0.26365840435028076, 0.3410013020038605, 0.38331714272499084, 0.42373430728912354, 0.2667516767978668, 0.4503413140773773, 0.6465355753898621, 0.8198786973953247, 0.8311941027641296, 0.7165597677230835, 0.7288260459899902, 0.7766255736351013, 0.6792050004005432, 0.4288080334663391, 0.38778960704803467, 0.3630143105983734, 0.5641177296638489, 0.6709929704666138, 0.8183972835540771, 0.6922647356987, 0.6028968691825867, 0.3787246346473694, 0.25880759954452515, 0.24619585275650024, 0.47147682309150696, 0.4910168945789337, 0.43681034445762634, 0.2645711898803711, 0.23309417068958282, 0.2661168873310089, 0.44954851269721985, 0.39582663774490356, 0.3187248408794403, 0.24421446025371552, 0.37557053565979004, 0.7069663405418396, 0.7744615077972412, 0.5090335607528687, 0.5788180232048035, 0.5412178635597229, 0.4603923261165619, 0.4113394618034363, 0.5166516900062561, 0.6353529095649719, 0.46764349937438965, 0.5884504318237305, 0.6703614592552185, 0.6915532946586609, 0.5971264839172363, 0.4506855309009552, 0.7739729881286621, 0.6500869393348694, 0.7827516198158264, 0.6035168766975403, 0.5272141695022583, 0.5907772183418274, 0.745989203453064, 0.7543433904647827, 0.7276127934455872, 0.7660561800003052, 0.7501396536827087, 0.5951588749885559, 0.5874228477478027, 0.7528630495071411, 0.6342213153839111, 0.6382430791854858]</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.9368500709533691</v>
+        <v>0.9431889057159424</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0.8569497000135016</v>
+        <v>0.8647133999911603</v>
       </c>
       <c r="J55" t="n">
-        <v>0.005423732278566466</v>
+        <v>0.005472869620197216</v>
       </c>
     </row>
     <row r="56">
@@ -2765,11 +2765,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[0.5234097242355347, 0.7039469480514526, 0.4729573726654053, 0.48301082849502563, 0.3516012132167816, 0.501374363899231, 0.402193546295166, 0.5043098330497742, 0.750855028629303, 0.734795331954956, 0.6487243175506592, 0.5907736420631409, 0.5168688297271729, 0.5599898099899292, 0.5058013796806335, 0.5734577178955078, 0.5623236894607544, 0.6188551187515259, 0.6022619605064392, 0.8127275705337524, 0.6312571167945862, 0.5824612379074097, 0.5600298643112183, 0.5449598431587219, 0.4578440189361572, 0.4883209764957428, 0.3936139643192291, 0.4005576968193054, 0.43212181329727173, 0.5189506411552429, 0.4169280230998993, 0.4175448715686798, 0.4615148603916168, 0.47024446725845337, 0.5063177347183228, 0.47519996762275696, 0.4949503540992737, 0.5161097645759583, 0.45401903986930847, 0.5037559866905212, 0.6646673083305359, 0.636717677116394, 0.6643097400665283, 0.679798424243927, 0.5572301149368286, 0.45745155215263367, 0.5142061114311218, 0.5648139119148254, 0.4867476224899292, 0.3746054470539093, 0.39542412757873535, 0.41643500328063965, 0.5280539989471436, 0.6450363993644714, 0.6354876160621643, 0.6208490133285522, 0.5441271662712097, 0.5171290040016174, 0.4225250780582428, 0.46224331855773926, 0.5357255339622498, 0.5190933346748352, 0.49886786937713623, 0.7175372838973999, 0.6621559858322144, 0.5277000665664673, 0.5548943281173706, 0.6255301237106323, 0.4203048348426819, 0.37171509861946106, 0.3789012134075165, 0.41355618834495544, 0.6711145043373108, 0.4884915053844452, 0.43544524908065796, 0.47093358635902405, 0.44857415556907654, 0.3413114547729492, 0.33156436681747437, 0.32137277722358704, 0.37919503450393677, 0.36327558755874634, 0.3603452742099762, 0.3529476523399353, 0.3380674719810486, 0.31324875354766846, 0.2917346656322479, 0.3381654620170593, 0.37239670753479004, 0.3089883625507355, 0.3519153892993927, 0.366226464509964, 0.3670681118965149, 0.42432135343551636, 0.48303040862083435, 0.5504635572433472, 0.6622715592384338, 0.660102367401123, 0.630282998085022, 0.6333898305892944, 0.5498195886611938, 0.6502459049224854, 0.6070106625556946, 0.5772629380226135, 0.5630555748939514, 0.6343052983283997, 0.5362832546234131, 0.571110188961029, 0.6545381546020508, 0.7372781038284302, 0.6629348993301392, 0.6502301096916199, 0.6387842297554016, 0.7845652103424072, 0.7138590812683105, 0.6158042550086975, 0.5670812726020813, 0.5400637984275818, 0.49581605195999146, 0.42270368337631226, 0.45417651534080505, 0.5261109471321106, 0.5193179249763489, 0.3997288942337036, 0.4473908245563507, 0.4133181571960449, 0.37383657693862915, 0.4783807694911957, 0.5701154470443726, 0.7408738732337952, 0.7591738104820251, 0.7005767822265625, 0.5870147943496704, 0.6165550947189331, 0.5658856630325317, 0.4749736487865448, 0.54904705286026, 0.6098455786705017, 0.6362212896347046, 0.6824892163276672, 0.6838522553443909, 0.6219761371612549, 0.5206964015960693, 0.42277732491493225, 0.3766683042049408, 0.3287544548511505, 0.4872229993343353, 0.5283350348472595, 0.5838613510131836, 0.5588455200195312, 0.6000717878341675, 0.5723320841789246, 0.5333749651908875, 0.5330584049224854, 0.7232204675674438, 0.6131614446640015, 0.5715501308441162, 0.567287266254425]</t>
+          <t>[0.32015541195869446, 0.6251294016838074, 0.3778146803379059, 0.431382417678833, 0.2898593544960022, 0.3424330949783325, 0.22681328654289246, 0.3500838577747345, 0.6531385183334351, 0.6189329028129578, 0.5077492594718933, 0.4540245234966278, 0.3884908854961395, 0.43520012497901917, 0.3190475106239319, 0.34072673320770264, 0.4115602672100067, 0.5657309293746948, 0.5617839694023132, 0.7642987966537476, 0.545954704284668, 0.49485063552856445, 0.5077298283576965, 0.4646890461444855, 0.34740638732910156, 0.3286292254924774, 0.17918039858341217, 0.22579215466976166, 0.2832421064376831, 0.4072812497615814, 0.2101624757051468, 0.1999809592962265, 0.22462783753871918, 0.230145663022995, 0.34814751148223877, 0.3738122880458832, 0.38096702098846436, 0.3598186671733856, 0.27820897102355957, 0.3603802025318146, 0.5443927049636841, 0.4540254473686218, 0.5745385885238647, 0.45385903120040894, 0.284118115901947, 0.17341765761375427, 0.2394753396511078, 0.34173333644866943, 0.27561405301094055, 0.19327767193317413, 0.2638718783855438, 0.25399050116539, 0.3206627666950226, 0.45127469301223755, 0.4684167206287384, 0.4188038110733032, 0.31981995701789856, 0.273938924074173, 0.20969972014427185, 0.26269418001174927, 0.43074262142181396, 0.3601379096508026, 0.2700110971927643, 0.5626562833786011, 0.4755229651927948, 0.2774965763092041, 0.37618404626846313, 0.5391292572021484, 0.2839999496936798, 0.25988495349884033, 0.21044853329658508, 0.1705971509218216, 0.38735929131507874, 0.15220649540424347, 0.12253918498754501, 0.16621705889701843, 0.152727410197258, 0.10874579846858978, 0.0960802286863327, 0.07386909425258636, 0.1385054588317871, 0.10607416927814484, 0.1231197640299797, 0.1293811798095703, 0.11638664454221725, 0.09470000118017197, 0.09606702625751495, 0.11843034625053406, 0.163154736161232, 0.1289454698562622, 0.13293275237083435, 0.11639907956123352, 0.1081700474023819, 0.1331346184015274, 0.2016117125749588, 0.21068495512008667, 0.31743085384368896, 0.46428683400154114, 0.3054945468902588, 0.2681238055229187, 0.3470226526260376, 0.4408123791217804, 0.36561059951782227, 0.2046014815568924, 0.24928535521030426, 0.2851593792438507, 0.2112584114074707, 0.2807990312576294, 0.45482295751571655, 0.5322510600090027, 0.48665720224380493, 0.569216251373291, 0.5645952820777893, 0.6999871134757996, 0.5910804867744446, 0.5530390739440918, 0.37945032119750977, 0.39698678255081177, 0.2913511395454407, 0.1949264109134674, 0.2820567488670349, 0.37940260767936707, 0.3791618347167969, 0.24974863231182098, 0.3094172179698944, 0.2915637195110321, 0.2311612367630005, 0.3390091359615326, 0.4620879888534546, 0.5146351456642151, 0.5939953327178955, 0.5617564916610718, 0.4299994111061096, 0.4678320288658142, 0.4517464339733124, 0.3550526201725006, 0.41157788038253784, 0.4080725610256195, 0.47117289900779724, 0.4935922920703888, 0.562017560005188, 0.4390908181667328, 0.3588310778141022, 0.27967917919158936, 0.1593562364578247, 0.161429300904274, 0.21871823072433472, 0.25764670968055725, 0.2724975347518921, 0.2525700032711029, 0.3884212374687195, 0.3029929995536804, 0.2286103218793869, 0.2589588165283203, 0.35248884558677673, 0.3024475574493408, 0.24020737409591675, 0.238777294754982]</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.8127275705337524</v>
+        <v>0.7642987966537476</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -2783,10 +2783,10 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0.8631501999916509</v>
+        <v>0.8700679000030505</v>
       </c>
       <c r="J56" t="n">
-        <v>0.005462975949314246</v>
+        <v>0.0055067588607788</v>
       </c>
     </row>
     <row r="57">
@@ -2805,11 +2805,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>[0.2088872343301773, 0.22697554528713226, 0.2945135831832886, 0.36937201023101807, 0.3721136152744293, 0.29979124665260315, 0.2378862351179123, 0.23158793151378632, 0.20090262591838837, 0.12357556074857712, 0.15044012665748596, 0.10596860945224762, 0.16397033631801605, 0.1725035160779953, 0.17757011950016022, 0.1757161170244217, 0.16405782103538513, 0.16237427294254303, 0.15558543801307678, 0.13073231279850006, 0.11103957146406174, 0.1408892571926117, 0.12846410274505615, 0.1233462542295456, 0.10084535926580429, 0.10850851982831955, 0.1162504181265831, 0.13994692265987396, 0.12041650712490082, 0.11016860604286194, 0.09439130872488022, 0.1072593703866005, 0.17216524481773376, 0.19079749286174774, 0.19760842621326447, 0.18482568860054016, 0.21543003618717194, 0.1746039092540741, 0.1698610931634903, 0.1373487412929535, 0.13367842137813568, 0.17601032555103302, 0.34659281373023987, 0.36210864782333374, 0.48015743494033813, 0.678847074508667, 0.4956265985965729, 0.41500627994537354, 0.3458806872367859, 0.28241127729415894, 0.2909051775932312, 0.3626653850078583, 0.45957934856414795, 0.3097552955150604, 0.32395869493484497, 0.40162310004234314, 0.4130261540412903, 0.33603453636169434, 0.39628031849861145, 0.3407963812351227, 0.2893705368041992, 0.42679563164711, 0.31063103675842285, 0.3359312117099762, 0.2859950065612793, 0.27475276589393616, 0.3988962471485138, 0.31486615538597107, 0.33136406540870667, 0.36121803522109985, 0.32583484053611755, 0.31907734274864197, 0.3875887393951416, 0.3635960519313812, 0.36192452907562256, 0.4585263431072235, 0.36525440216064453, 0.4211061894893646, 0.45980706810951233, 0.4926372170448303, 0.4973990023136139, 0.33300983905792236, 0.21949389576911926, 0.40171724557876587, 0.45812493562698364, 0.3448691964149475, 0.27859023213386536, 0.2547268271446228, 0.32316020131111145, 0.3076673746109009, 0.19499874114990234, 0.16563962399959564, 0.19518233835697174, 0.21354180574417114, 0.22070476412773132, 0.2553957402706146, 0.2597256004810333, 0.24636860191822052, 0.17829976975917816, 0.17123273015022278, 0.147605299949646, 0.13052989542484283, 0.17500323057174683, 0.18061155080795288, 0.18424752354621887, 0.16574452817440033, 0.15406598150730133, 0.1664261370897293, 0.19786161184310913, 0.23236072063446045, 0.22135117650032043, 0.20288440585136414, 0.1747715324163437, 0.18703804910182953, 0.18687139451503754, 0.15496133267879486, 0.15621227025985718, 0.1450691819190979, 0.14288802444934845, 0.14738546311855316, 0.17282241582870483, 0.20190946757793427, 0.25038325786590576, 0.1769600808620453, 0.14481361210346222, 0.14849162101745605, 0.17681901156902313, 0.13345496356487274, 0.12067127227783203, 0.12331601977348328, 0.1837005764245987, 0.16528524458408356, 0.1443837434053421, 0.14834867417812347, 0.13641245663166046, 0.12557277083396912, 0.138021782040596, 0.15795916318893433, 0.15006858110427856, 0.19317127764225006, 0.1634233444929123, 0.1918533593416214, 0.18463844060897827, 0.17720820009708405, 0.16973358392715454, 0.14436589181423187, 0.16992928087711334, 0.15447288751602173, 0.16549934446811676, 0.14572706818580627, 0.1830190122127533, 0.1987132430076599, 0.19006215035915375, 0.18279333412647247, 0.14366595447063446, 0.15586546063423157, 0.1551743596792221]</t>
+          <t>[0.09913425147533417, 0.12830255925655365, 0.17826521396636963, 0.22305141389369965, 0.18109004199504852, 0.1623978465795517, 0.10558247566223145, 0.09516045451164246, 0.09355281293392181, 0.049605827778577805, 0.06176961958408356, 0.04094860702753067, 0.06110694259405136, 0.05306752771139145, 0.057168908417224884, 0.05083164945244789, 0.05037179961800575, 0.05780297517776489, 0.05206488072872162, 0.04678449407219887, 0.0359840914607048, 0.035620078444480896, 0.030109358951449394, 0.032161910086870193, 0.03207750618457794, 0.0331876203417778, 0.031656816601753235, 0.039045289158821106, 0.03417814522981644, 0.028516635298728943, 0.022780444473028183, 0.02865685150027275, 0.04792070388793945, 0.06350285559892654, 0.09219641983509064, 0.06602245569229126, 0.07208014279603958, 0.0724579393863678, 0.06971503049135208, 0.05521353706717491, 0.04054504260420799, 0.056452713906764984, 0.18270957469940186, 0.239732563495636, 0.380218505859375, 0.5544041991233826, 0.3078242242336273, 0.27791425585746765, 0.18685394525527954, 0.13762250542640686, 0.12277926504611969, 0.1848703920841217, 0.28789910674095154, 0.14939256012439728, 0.15666653215885162, 0.20303663611412048, 0.2559777796268463, 0.16456523537635803, 0.23032604157924652, 0.18170855939388275, 0.13485610485076904, 0.22214357554912567, 0.1387440264225006, 0.11408387869596481, 0.11014699190855026, 0.12874306738376617, 0.20586077868938446, 0.1588425487279892, 0.1742481291294098, 0.15155746042728424, 0.17617782950401306, 0.2082589864730835, 0.26553648710250854, 0.14578543603420258, 0.11323124915361404, 0.24415133893489838, 0.20525524020195007, 0.23620527982711792, 0.2548881769180298, 0.3276382088661194, 0.31497666239738464, 0.16035105288028717, 0.10011962056159973, 0.24850042164325714, 0.33908501267433167, 0.1835709661245346, 0.11779536306858063, 0.11407993733882904, 0.14477574825286865, 0.12738336622714996, 0.07645159214735031, 0.06076639145612717, 0.08029486984014511, 0.09077882766723633, 0.08145531266927719, 0.10408748686313629, 0.11320256441831589, 0.09544415026903152, 0.06520198285579681, 0.07297469675540924, 0.05630850791931152, 0.042851824313402176, 0.060321543365716934, 0.055662475526332855, 0.04921247437596321, 0.04244723916053772, 0.03557206690311432, 0.038371942937374115, 0.06039291247725487, 0.08782687783241272, 0.07820631563663483, 0.07027016580104828, 0.06223853677511215, 0.059838876128196716, 0.05791689082980156, 0.046898216009140015, 0.0425737202167511, 0.03794846683740616, 0.03367205336689949, 0.03578103706240654, 0.04124165698885918, 0.052811477333307266, 0.07055868208408356, 0.048453204333782196, 0.03700739145278931, 0.03705933317542076, 0.046182483434677124, 0.0337984673678875, 0.028658848255872726, 0.029530063271522522, 0.038120996206998825, 0.034248653799295425, 0.03536999598145485, 0.03960471972823143, 0.03748699650168419, 0.04054880514740944, 0.05293478071689606, 0.058216311037540436, 0.04577523097395897, 0.053219713270664215, 0.04649091884493828, 0.06881318241357803, 0.06066415458917618, 0.056029293686151505, 0.037333931773900986, 0.04111424833536148, 0.05817987397313118, 0.05909857898950577, 0.05326678231358528, 0.050794702023267746, 0.07336390018463135, 0.08403501659631729, 0.09580850601196289, 0.09190346300601959, 0.06800603121519089, 0.0761529877781868, 0.07618479430675507]</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.678847074508667</v>
+        <v>0.5544041991233826</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0.838310699997237</v>
+        <v>0.8471255999902496</v>
       </c>
       <c r="J57" t="n">
-        <v>0.005339558598708515</v>
+        <v>0.005395704458536621</v>
       </c>
     </row>
     <row r="58">
@@ -2845,11 +2845,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[0.08360733836889267, 0.15397492051124573, 0.09732402861118317, 0.08360020071268082, 0.08873390406370163, 0.08657505363225937, 0.09360601007938385, 0.06495173275470734, 0.06942006200551987, 0.05870940536260605, 0.05961379408836365, 0.07684773951768875, 0.1020759865641594, 0.1303154081106186, 0.11675745993852615, 0.11008188128471375, 0.09426700323820114, 0.06649681180715561, 0.05355943366885185, 0.05290627107024193, 0.0681035965681076, 0.0951303169131279, 0.11913561075925827, 0.13731159269809723, 0.07941839098930359, 0.08788035064935684, 0.10795959830284119, 0.07756286859512329, 0.11082547158002853, 0.15059274435043335, 0.08119399100542068, 0.05834510922431946, 0.07341555505990982, 0.0967322289943695, 0.09229430556297302, 0.06956478953361511, 0.06451095640659332, 0.07725054025650024, 0.07859724760055542, 0.09990399330854416, 0.0723278820514679, 0.06820422410964966, 0.0730469673871994, 0.09581375867128372, 0.12894777953624725, 0.10150451958179474, 0.08014955371618271, 0.049453265964984894, 0.06677888333797455, 0.07594793289899826, 0.056652821600437164, 0.08171010762453079, 0.10180073976516724, 0.08136396110057831, 0.07669707387685776, 0.0808209776878357, 0.09686965495347977, 0.07590006291866302, 0.09734512120485306, 0.09435303509235382, 0.08291155099868774, 0.07159982621669769, 0.11306517571210861, 0.141282856464386, 0.09573901444673538, 0.10054690390825272, 0.10012955218553543, 0.12475381791591644, 0.12014325708150864, 0.14753077924251556, 0.152422234416008, 0.1133936271071434, 0.1305997222661972, 0.09149789810180664, 0.10874012857675552, 0.10423143953084946, 0.07313235849142075, 0.08420225232839584, 0.137775719165802, 0.12574996054172516, 0.12231621146202087, 0.050734199583530426, 0.05448523163795471, 0.04684935510158539, 0.09472834318876266, 0.09123463183641434, 0.11500131338834763, 0.07042938470840454, 0.09241415560245514, 0.13577190041542053, 0.14258503913879395, 0.09420418739318848, 0.11427082866430283, 0.12658710777759552, 0.16242074966430664, 0.10774435847997665, 0.19240793585777283, 0.13646537065505981, 0.16052240133285522, 0.19125796854496002, 0.0956590324640274, 0.08473114669322968, 0.07800374925136566, 0.08857809007167816, 0.05659626051783562, 0.04973174259066582, 0.046655889600515366, 0.07622871547937393, 0.08485348522663116, 0.06666233390569687, 0.03254783898591995, 0.030551165342330933, 0.04479164257645607, 0.06369674205780029, 0.06489739567041397, 0.05798016116023064, 0.055644240230321884, 0.06998766958713531, 0.08027041703462601, 0.1215813085436821, 0.14229214191436768, 0.1048768162727356, 0.10223463922739029, 0.12046169489622116, 0.13837572932243347, 0.11796540766954422, 0.11417301744222641, 0.09494046866893768, 0.09031122177839279, 0.13347910344600677, 0.13623447716236115, 0.15772806107997894, 0.1044294461607933, 0.11225300282239914, 0.0919622927904129, 0.08793903142213821, 0.08326581865549088, 0.08796065300703049, 0.07400611788034439, 0.08051326870918274, 0.058692410588264465, 0.14808310568332672, 0.12133104354143143, 0.11065070331096649, 0.10170440375804901, 0.1288396418094635, 0.12066569179296494, 0.10183609277009964, 0.10792194306850433, 0.06475841253995895, 0.0877755731344223, 0.07219523936510086, 0.10971343517303467, 0.19105203449726105, 0.14060863852500916, 0.08813250064849854, 0.060554709285497665, 0.06048892065882683]</t>
+          <t>[0.03322644159197807, 0.10330691933631897, 0.04268133267760277, 0.025781162083148956, 0.033951904624700546, 0.060965925455093384, 0.05761231109499931, 0.03903927654027939, 0.04164736345410347, 0.029067756608128548, 0.021721653640270233, 0.031456321477890015, 0.03643035888671875, 0.07717588543891907, 0.07647142559289932, 0.0730057954788208, 0.06278648227453232, 0.03733957186341286, 0.026834210380911827, 0.025580866262316704, 0.029341131448745728, 0.05816112086176872, 0.0668100118637085, 0.09195075929164886, 0.045856259763240814, 0.05348493158817291, 0.07001893222332001, 0.05884217098355293, 0.08350196480751038, 0.1309099942445755, 0.06242651119828224, 0.035273414105176926, 0.0330946110188961, 0.044276200234889984, 0.05198545381426811, 0.039126161485910416, 0.029958758503198624, 0.03828582540154457, 0.03062383458018303, 0.03126803785562515, 0.03552869334816933, 0.03724361211061478, 0.03662105277180672, 0.07012451440095901, 0.12385937571525574, 0.05655181035399437, 0.04617253690958023, 0.026639657095074654, 0.042152147740125656, 0.06210201233625412, 0.03401217237114906, 0.04058673232793808, 0.04042905569076538, 0.030742162838578224, 0.02312374860048294, 0.02170509286224842, 0.043045077472925186, 0.0365932360291481, 0.04258144646883011, 0.04503427818417549, 0.04102685675024986, 0.030747080221772194, 0.06288519501686096, 0.07900374382734299, 0.045672301203012466, 0.05160117149353027, 0.0744343027472496, 0.12394826114177704, 0.10802309215068817, 0.11129912734031677, 0.10245165228843689, 0.06387776136398315, 0.08347272872924805, 0.058155711740255356, 0.047215282917022705, 0.050770219415426254, 0.03256573900580406, 0.0341404490172863, 0.06081591174006462, 0.058622293174266815, 0.04372045397758484, 0.015501807443797588, 0.023756712675094604, 0.018264740705490112, 0.04279686510562897, 0.03704791143536568, 0.05696137249469757, 0.029549850150942802, 0.044234003871679306, 0.05498872324824333, 0.053727924823760986, 0.040987469255924225, 0.0495859794318676, 0.06358624249696732, 0.08350329846143723, 0.07176043838262558, 0.15066656470298767, 0.07823462039232254, 0.05847904458642006, 0.08421897143125534, 0.044586293399333954, 0.033113446086645126, 0.03259752318263054, 0.0430939756333828, 0.036357514560222626, 0.03286588937044144, 0.024734200909733772, 0.033940959721803665, 0.03552237153053284, 0.029919864609837532, 0.011211653240025043, 0.010458307340741158, 0.012523774988949299, 0.01865997165441513, 0.020893024280667305, 0.026673557236790657, 0.0338604561984539, 0.03585756942629814, 0.03528521582484245, 0.062101367861032486, 0.07586367428302765, 0.03851191699504852, 0.03517856448888779, 0.04431714862585068, 0.0853298231959343, 0.0578707754611969, 0.05058058351278305, 0.042772870510816574, 0.032090749591588974, 0.055604856461286545, 0.08406689763069153, 0.09578406810760498, 0.057767003774642944, 0.057251106947660446, 0.039780065417289734, 0.0416850708425045, 0.035859063267707825, 0.04470708221197128, 0.0328405536711216, 0.04581969976425171, 0.02694300189614296, 0.09308356791734695, 0.0783759281039238, 0.05279134586453438, 0.04307512193918228, 0.07819673418998718, 0.07956074178218842, 0.06514891237020493, 0.056770846247673035, 0.040739141404628754, 0.05367877334356308, 0.03149716928601265, 0.06033908575773239, 0.15545836091041565, 0.08832041919231415, 0.044807497411966324, 0.021178411319851875, 0.021075375378131866]</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.1924079358577728</v>
+        <v>0.1554583609104156</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0.8521949000132736</v>
+        <v>0.8596058999974048</v>
       </c>
       <c r="J58" t="n">
-        <v>0.005393638607678946</v>
+        <v>0.005440543670869651</v>
       </c>
     </row>
     <row r="59">
@@ -2885,11 +2885,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[0.2590892016887665, 0.2816612720489502, 0.3794000446796417, 0.46818113327026367, 0.3220480978488922, 0.24336424469947815, 0.20659516751766205, 0.08699452131986618, 0.08123394846916199, 0.06593800336122513, 0.04478585720062256, 0.05245549604296684, 0.047701917588710785, 0.09485144168138504, 0.17392320930957794, 0.14371638000011444, 0.19051586091518402, 0.15503863990306854, 0.28695914149284363, 0.16193625330924988, 0.11525831371545792, 0.035004254430532455, 0.0673135295510292, 0.10201206058263779, 0.06884772330522537, 0.09762630611658096, 0.14265397191047668, 0.1271761804819107, 0.11159376055002213, 0.13666336238384247, 0.1906891018152237, 0.12766195833683014, 0.14467273652553558, 0.18075866997241974, 0.18813250958919525, 0.09957648813724518, 0.11902052909135818, 0.13224652409553528, 0.180131196975708, 0.16055622696876526, 0.14500747621059418, 0.16886256635189056, 0.16197416186332703, 0.14658203721046448, 0.2305101454257965, 0.19241231679916382, 0.10045462101697922, 0.09984657168388367, 0.1536109745502472, 0.08288414776325226, 0.12584981322288513, 0.23925811052322388, 0.32930222153663635, 0.26600104570388794, 0.3257994055747986, 0.24665139615535736, 0.3053787052631378, 0.24367575347423553, 0.26760080456733704, 0.3222009241580963, 0.25705498456954956, 0.18456578254699707, 0.28958210349082947, 0.3341880738735199, 0.25124481320381165, 0.3072102665901184, 0.24195750057697296, 0.19665591418743134, 0.2227732241153717, 0.3414721190929413, 0.2784062922000885, 0.1975732445716858, 0.22513659298419952, 0.2721991240978241, 0.1939137578010559, 0.2362905740737915, 0.10632407665252686, 0.12660932540893555, 0.10884103924036026, 0.1270831674337387, 0.14207468926906586, 0.16127629578113556, 0.3068358302116394, 0.18510748445987701, 0.16847141087055206, 0.15450464189052582, 0.23710530996322632, 0.2814865708351135, 0.3996586203575134, 0.3858967125415802, 0.37837377190589905, 0.24096927046775818, 0.19732771813869476, 0.14562910795211792, 0.16363611817359924, 0.1936769336462021, 0.10805277526378632, 0.09353161603212357, 0.09821398556232452, 0.13037078082561493, 0.1798708736896515, 0.1332157850265503, 0.07947633415460587, 0.166207954287529, 0.06879254430532455, 0.06440839916467667, 0.09268458932638168, 0.06636125594377518, 0.09033416956663132, 0.17264871299266815, 0.2585647404193878, 0.23090846836566925, 0.14623472094535828, 0.16766975820064545, 0.14952091872692108, 0.18253007531166077, 0.22480718791484833, 0.13514088094234467, 0.11394252628087997, 0.10283759981393814, 0.10319177806377411, 0.08142513781785965, 0.08030655980110168, 0.13505056500434875, 0.0776403620839119, 0.08345505595207214, 0.06926300376653671, 0.1161847710609436, 0.059974536299705505, 0.09633509069681168, 0.09320633858442307, 0.10187625885009766, 0.0765104815363884, 0.0868733748793602, 0.0881890058517456, 0.06508169323205948, 0.10026171803474426, 0.12523473799228668, 0.17665962874889374, 0.2404586374759674, 0.11083594709634781, 0.13682907819747925, 0.19866667687892914, 0.13140346109867096, 0.1877705156803131, 0.13752776384353638, 0.09814691543579102, 0.10173489898443222, 0.06068416312336922, 0.05165450647473335, 0.04352375864982605, 0.03992382436990738, 0.040723465383052826, 0.03614121302962303, 0.05863834545016289, 0.08802351355552673, 0.07045850902795792, 0.0701892152428627]</t>
+          <t>[0.14891795814037323, 0.1572810709476471, 0.3113320469856262, 0.3736792206764221, 0.3412759304046631, 0.21333517134189606, 0.15837767720222473, 0.052824635058641434, 0.034703098237514496, 0.028699800372123718, 0.015952525660395622, 0.03018096648156643, 0.01867385022342205, 0.04094533994793892, 0.11872050166130066, 0.07421819120645523, 0.1647675782442093, 0.13178305327892303, 0.33763179183006287, 0.10158304125070572, 0.09066881239414215, 0.020145850256085396, 0.04692816734313965, 0.04786384478211403, 0.055672161281108856, 0.06657523661851883, 0.10548830032348633, 0.08115021139383316, 0.06320138275623322, 0.07994969934225082, 0.15884768962860107, 0.09277627617120743, 0.10220973938703537, 0.14502070844173431, 0.16302290558815002, 0.06734895706176758, 0.060992054641246796, 0.06709976494312286, 0.09833095222711563, 0.0706665962934494, 0.05007496103644371, 0.06956379115581512, 0.10382243245840073, 0.10045550018548965, 0.12955789268016815, 0.10664665699005127, 0.06224637106060982, 0.057265110313892365, 0.09008952230215073, 0.04457901045680046, 0.08119122684001923, 0.27047812938690186, 0.23237191140651703, 0.18600274622440338, 0.3585708737373352, 0.22227026522159576, 0.22943171858787537, 0.2155684232711792, 0.25907155871391296, 0.2981930375099182, 0.21719138324260712, 0.21749719977378845, 0.3482495844364166, 0.49751028418540955, 0.41438496112823486, 0.5332475304603577, 0.2657676935195923, 0.18946237862110138, 0.2686484754085541, 0.38617363572120667, 0.26791006326675415, 0.1355733871459961, 0.19851715862751007, 0.23832035064697266, 0.17886871099472046, 0.21455121040344238, 0.08457906544208527, 0.13089703023433685, 0.10037171840667725, 0.09319300949573517, 0.084414042532444, 0.15469034016132355, 0.3416869044303894, 0.18700948357582092, 0.12186965346336365, 0.1211453378200531, 0.16674916446208954, 0.22988182306289673, 0.4099999666213989, 0.33633551001548767, 0.29163214564323425, 0.17009980976581573, 0.13445055484771729, 0.07477904111146927, 0.07346079498529434, 0.09570987522602081, 0.03567817434668541, 0.025741741061210632, 0.03254004195332527, 0.07431038469076157, 0.0890612080693245, 0.053093861788511276, 0.041839972138404846, 0.08581489324569702, 0.03888501971960068, 0.03690706938505173, 0.058078549802303314, 0.04169574752449989, 0.06682883948087692, 0.1279911994934082, 0.2216203361749649, 0.20779983699321747, 0.14424723386764526, 0.22168095409870148, 0.174292653799057, 0.16911280155181885, 0.21781019866466522, 0.13163505494594574, 0.10653363168239594, 0.08264246582984924, 0.06648243963718414, 0.05470263957977295, 0.0560750775039196, 0.09710119664669037, 0.039151016622781754, 0.042284175753593445, 0.037496279925107956, 0.0721791684627533, 0.029059145599603653, 0.07098513841629028, 0.03982628509402275, 0.059185393154621124, 0.036270175129175186, 0.05233784392476082, 0.07392515242099762, 0.03939846530556679, 0.063790462911129, 0.07644021511077881, 0.07873835414648056, 0.1448618620634079, 0.06629032641649246, 0.0980255976319313, 0.16652247309684753, 0.07671799510717392, 0.08027161657810211, 0.07807239890098572, 0.0730193480849266, 0.07381988316774368, 0.03783407807350159, 0.029186129570007324, 0.020333437249064445, 0.02025476098060608, 0.01573443040251732, 0.015708889812231064, 0.03165717050433159, 0.055884622037410736, 0.06701380759477615, 0.06709781289100647]</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.4681811332702637</v>
+        <v>0.5332475304603577</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -2903,10 +2903,10 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0.8854839000268839</v>
+        <v>0.891575899993768</v>
       </c>
       <c r="J59" t="n">
-        <v>0.005604328481182809</v>
+        <v>0.005642885442998531</v>
       </c>
     </row>
     <row r="60">
@@ -2925,11 +2925,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>[0.14859804511070251, 0.3041161298751831, 0.28294625878334045, 0.2087779939174652, 0.2819937765598297, 0.27058595418930054, 0.25228986144065857, 0.15837547183036804, 0.1317996382713318, 0.3853245973587036, 0.695661187171936, 0.33597803115844727, 0.19491298496723175, 0.21586430072784424, 0.3273177742958069, 0.15081787109375, 0.1621711254119873, 0.11857099086046219, 0.3936985433101654, 0.4606000781059265, 0.5254078507423401, 0.39000654220581055, 0.24252629280090332, 0.3576335310935974, 0.4597202241420746, 0.32196974754333496, 0.3105560839176178, 0.32660913467407227, 0.3721260726451874, 0.26151469349861145, 0.2764410376548767, 0.15700604021549225, 0.16166438162326813, 0.0930083617568016, 0.20530098676681519, 0.29989632964134216, 0.26281651854515076, 0.2276458442211151, 0.20891284942626953, 0.3306659162044525, 0.29158392548561096, 0.1636551469564438, 0.1895567625761032, 0.11874929070472717, 0.1510731279850006, 0.16088971495628357, 0.15354807674884796, 0.33168789744377136, 0.19503580033779144, 0.23006218671798706, 0.11190079897642136, 0.23986677825450897, 0.28752538561820984, 0.31540006399154663, 0.4582899212837219, 0.3145705759525299, 0.14801359176635742, 0.207344189286232, 0.14962030947208405, 0.18598297238349915, 0.13810290396213531, 0.2029043734073639, 0.1878102719783783, 0.27237555384635925, 0.45893850922584534, 0.4479210674762726, 0.37651169300079346, 0.4305081069469452, 0.27963030338287354, 0.30451905727386475, 0.4617627263069153, 0.4236224889755249, 0.31332477927207947, 0.22332459688186646, 0.2728371024131775, 0.1956290602684021, 0.29701223969459534, 0.2920091450214386, 0.27565997838974, 0.3648606538772583, 0.3083871304988861, 0.3268071711063385, 0.343054860830307, 0.20219388604164124, 0.2603011429309845, 0.172822043299675, 0.11931467056274414, 0.1347733587026596, 0.1888267695903778, 0.26162371039390564, 0.37629052996635437, 0.3975813090801239, 0.36939042806625366, 0.5241654515266418, 0.3003551661968231, 0.4590851664543152, 0.35143864154815674, 0.47710853815078735, 0.6772747039794922, 0.396490216255188, 0.27657949924468994, 0.3410227298736572, 0.40455782413482666, 0.4724121689796448, 0.44895002245903015, 0.2956073582172394, 0.3421449363231659, 0.31230369210243225, 0.2914649546146393, 0.21287259459495544, 0.27354544401168823, 0.2427014410495758, 0.31122320890426636, 0.4667516052722931, 0.5490018129348755, 0.6335783004760742, 0.8734090328216553, 0.7231583595275879, 0.8078277111053467, 0.9481422305107117, 0.876460611820221, 0.9168981909751892, 0.9442349672317505, 0.9321666955947876, 0.7731099128723145, 0.7315381765365601, 0.6941466331481934, 0.8358367681503296, 0.9112329483032227, 0.9637250900268555, 0.965175986289978, 0.7995303869247437, 0.9433369636535645, 0.630468487739563, 0.8638283014297485, 0.7859302759170532, 0.744395911693573, 0.8319409489631653, 0.7804370522499084, 0.6310319304466248, 0.6501871347427368, 0.5615798234939575, 0.6597287654876709, 0.8521015048027039, 0.9269680976867676, 0.8189210295677185, 0.8370082378387451, 0.8545702695846558, 0.9059240221977234, 0.8491370677947998, 0.5570736527442932, 0.4783858060836792, 0.8183965682983398, 0.8682845234870911, 0.7663353085517883, 0.7918949127197266, 0.7645058631896973, 0.7651896476745605]</t>
+          <t>[0.07815705984830856, 0.163416787981987, 0.21735131740570068, 0.14780932664871216, 0.1413877308368683, 0.1425190567970276, 0.10403770953416824, 0.07623569667339325, 0.04817979037761688, 0.2477864772081375, 0.43534091114997864, 0.2207985520362854, 0.10902486741542816, 0.10450098663568497, 0.19930711388587952, 0.08123110234737396, 0.09770076721906662, 0.07158888131380081, 0.3657435476779938, 0.34845778346061707, 0.39154738187789917, 0.30702677369117737, 0.16895709931850433, 0.3065168261528015, 0.4464045763015747, 0.36990734934806824, 0.30672091245651245, 0.2284390926361084, 0.1862911581993103, 0.13152889907360077, 0.15267103910446167, 0.0720912292599678, 0.0882662981748581, 0.04063466563820839, 0.11279375851154327, 0.19255363941192627, 0.16584140062332153, 0.13390915095806122, 0.12425297498703003, 0.23948656022548676, 0.213267982006073, 0.09108440577983856, 0.10387406498193741, 0.05906112119555473, 0.09963987022638321, 0.08476532250642776, 0.06755945086479187, 0.30013781785964966, 0.18547940254211426, 0.18767952919006348, 0.06271498650312424, 0.1958332657814026, 0.1950860619544983, 0.23739643394947052, 0.38075390458106995, 0.2792579233646393, 0.11731281131505966, 0.18376071751117706, 0.0925513282418251, 0.0925527811050415, 0.057540230453014374, 0.10269291698932648, 0.06716568768024445, 0.1343352198600769, 0.3252392113208771, 0.3404660224914551, 0.23620478808879852, 0.3124680519104004, 0.16459007561206818, 0.19763018190860748, 0.47357693314552307, 0.519487202167511, 0.19623972475528717, 0.12449407577514648, 0.1354672908782959, 0.11076587438583374, 0.24181891977787018, 0.18366064131259918, 0.19483494758605957, 0.21662935614585876, 0.14272873103618622, 0.15174801647663116, 0.16124214231967926, 0.08368413895368576, 0.12188045680522919, 0.06112944334745407, 0.025407878682017326, 0.03388676792383194, 0.06562107801437378, 0.09855324774980545, 0.19414635002613068, 0.213791623711586, 0.201395645737648, 0.4167775809764862, 0.2560502588748932, 0.4478941559791565, 0.2594362497329712, 0.3740500509738922, 0.6187580227851868, 0.24086028337478638, 0.08225293457508087, 0.11340069025754929, 0.19458287954330444, 0.26643890142440796, 0.18757732212543488, 0.09111630171537399, 0.130909726023674, 0.11956383287906647, 0.08758023381233215, 0.06694098562002182, 0.07861962914466858, 0.10484682023525238, 0.16239935159683228, 0.270943284034729, 0.3154611587524414, 0.36985063552856445, 0.7981648445129395, 0.532343864440918, 0.7260372638702393, 0.9089182019233704, 0.7261653542518616, 0.8732711672782898, 0.8906471133232117, 0.8825345039367676, 0.6576730608940125, 0.6507112979888916, 0.4796961843967438, 0.6916805505752563, 0.8216989040374756, 0.8907336592674255, 0.8808910846710205, 0.43179619312286377, 0.8185127973556519, 0.3764090836048126, 0.6835569739341736, 0.5470395684242249, 0.5685076117515564, 0.7747668027877808, 0.7159892916679382, 0.45512595772743225, 0.5561082363128662, 0.3661150336265564, 0.4908871650695801, 0.7055644392967224, 0.8458303809165955, 0.7247723340988159, 0.7138732075691223, 0.691559374332428, 0.8552973866462708, 0.6841843724250793, 0.24629400670528412, 0.16416920721530914, 0.625732421875, 0.7789705991744995, 0.552444338798523, 0.5679113864898682, 0.5341143012046814, 0.5353729724884033]</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.965175986289978</v>
+        <v>0.9089182019233704</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -2943,10 +2943,10 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0.8689081000047736</v>
+        <v>0.8830598000058671</v>
       </c>
       <c r="J60" t="n">
-        <v>0.005499418354460593</v>
+        <v>0.005588986075986501</v>
       </c>
     </row>
     <row r="61">
@@ -2965,11 +2965,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[0.6310163736343384, 0.693752110004425, 0.7115976810455322, 0.6655361652374268, 0.5088141560554504, 0.6017159819602966, 0.678342878818512, 0.6829202175140381, 0.7102892398834229, 0.5473933219909668, 0.5977016091346741, 0.5796724557876587, 0.5286072492599487, 0.4989722967147827, 0.6286528706550598, 0.6109157800674438, 0.5670547485351562, 0.67552649974823, 0.5804552435874939, 0.7663393020629883, 0.636660635471344, 0.5645787715911865, 0.5297461152076721, 0.5676450133323669, 0.5449010133743286, 0.6167389154434204, 0.6592236757278442, 0.567518949508667, 0.5377790331840515, 0.6174322366714478, 0.6171823740005493, 0.5270881056785583, 0.4940023720264435, 0.4527248442173004, 0.4778996706008911, 0.5217587947845459, 0.5883598923683167, 0.6515939831733704, 0.6153034567832947, 0.5726542472839355, 0.5166376829147339, 0.4690741300582886, 0.5472434759140015, 0.4941082298755646, 0.5041304230690002, 0.43625888228416443, 0.5378792881965637, 0.48025691509246826, 0.4279758036136627, 0.4482730031013489, 0.39233526587486267, 0.3917851448059082, 0.4010705053806305, 0.45562684535980225, 0.5570365786552429, 0.4751625657081604, 0.5475261211395264, 0.6077365875244141, 0.6690235137939453, 0.5295302867889404, 0.5743387341499329, 0.4375850558280945, 0.4247117340564728, 0.4963532090187073, 0.6268439888954163, 0.5863632559776306, 0.374017596244812, 0.49091020226478577, 0.4722137153148651, 0.4745480418205261, 0.43528205156326294, 0.444770485162735, 0.49668189883232117, 0.6597607135772705, 0.6784570217132568, 0.6320081949234009, 0.6056879758834839, 0.6347842216491699, 0.693709135055542, 0.6732566356658936, 0.5888507962226868, 0.6603306531906128, 0.6619217395782471, 0.5870149731636047, 0.5143531560897827, 0.3263791799545288, 0.4053606688976288, 0.518781304359436, 0.5570477843284607, 0.5984305739402771, 0.5779305696487427, 0.5485296249389648, 0.46965208649635315, 0.4802665114402771, 0.393812894821167, 0.3280494809150696, 0.47232404351234436, 0.4925270974636078, 0.6198960542678833, 0.6073287129402161, 0.6018314361572266, 0.6249234676361084, 0.6392353177070618, 0.5362356901168823, 0.46436381340026855, 0.5897703766822815, 0.5293141007423401, 0.653434693813324, 0.5547442436218262, 0.6120694875717163, 0.6814820766448975, 0.6155796051025391, 0.5312818288803101, 0.4697326719760895, 0.5416895747184753, 0.39969056844711304, 0.4496268928050995, 0.48313865065574646, 0.492219477891922, 0.5505202412605286, 0.5460412502288818, 0.30115827918052673, 0.36868321895599365, 0.33678165078163147, 0.2846395671367645, 0.3690030574798584, 0.43874669075012207, 0.30996665358543396, 0.2340874969959259, 0.21678486466407776, 0.2582886219024658, 0.20733045041561127, 0.21224713325500488, 0.2569170892238617, 0.3830501437187195, 0.36617469787597656, 0.43328070640563965, 0.5661451816558838, 0.3127754330635071, 0.25355321168899536, 0.24914248287677765, 0.23501887917518616, 0.2580840289592743, 0.1993527114391327, 0.26769745349884033, 0.269059419631958, 0.2801166772842407, 0.23094409704208374, 0.27980712056159973, 0.33155548572540283, 0.5230713486671448, 0.4058648943901062, 0.48301565647125244, 0.5735447406768799, 0.4550025463104248, 0.5862740278244019, 0.6508886814117432, 0.6510046720504761]</t>
+          <t>[0.6082807183265686, 0.6731948852539062, 0.654336154460907, 0.6412463784217834, 0.5013722777366638, 0.6509404182434082, 0.6704506874084473, 0.6747134327888489, 0.7286894917488098, 0.6206681728363037, 0.6117111444473267, 0.6961314678192139, 0.6590518355369568, 0.5384292602539062, 0.6529000401496887, 0.5573537349700928, 0.4978206753730774, 0.61904376745224, 0.4370540678501129, 0.6783098578453064, 0.5389906764030457, 0.4515713155269623, 0.4039909839630127, 0.456984281539917, 0.4468374252319336, 0.49851134419441223, 0.617946982383728, 0.5578091144561768, 0.5668075084686279, 0.6366093754768372, 0.6206884384155273, 0.5018044710159302, 0.5287403464317322, 0.554406464099884, 0.5869877338409424, 0.6424867510795593, 0.7028309106826782, 0.757492184638977, 0.7554944157600403, 0.6890828609466553, 0.582502007484436, 0.5108017325401306, 0.6046960949897766, 0.5023584961891174, 0.5118107795715332, 0.45264944434165955, 0.489305317401886, 0.41883400082588196, 0.38358476758003235, 0.4176860451698303, 0.3655524253845215, 0.34941574931144714, 0.3686654269695282, 0.47613590955734253, 0.5944740772247314, 0.5295836329460144, 0.6618415713310242, 0.637786865234375, 0.8099663853645325, 0.6822637319564819, 0.6409955024719238, 0.519900918006897, 0.49724823236465454, 0.5557871460914612, 0.7096144556999207, 0.6434414386749268, 0.3716126084327698, 0.493340402841568, 0.47708699107170105, 0.4922553598880768, 0.475301593542099, 0.4685026705265045, 0.5257620811462402, 0.6899335980415344, 0.6462789177894592, 0.6551599502563477, 0.6482654809951782, 0.6602824926376343, 0.6956043243408203, 0.6233885884284973, 0.5261166095733643, 0.6511576175689697, 0.6567657589912415, 0.5786979794502258, 0.4625069499015808, 0.25406503677368164, 0.43590497970581055, 0.570561945438385, 0.5980961918830872, 0.6478212475776672, 0.6455104351043701, 0.5353782176971436, 0.3890143036842346, 0.30602774024009705, 0.25711777806282043, 0.20410043001174927, 0.359990656375885, 0.4572010934352875, 0.5700306296348572, 0.5219092965126038, 0.5175872445106506, 0.5450774431228638, 0.5928115248680115, 0.46904999017715454, 0.3650399148464203, 0.434385746717453, 0.4182228446006775, 0.5746989250183105, 0.5230276584625244, 0.5953856706619263, 0.6593095660209656, 0.5591528415679932, 0.4920143783092499, 0.3824574947357178, 0.5311169624328613, 0.48949435353279114, 0.4685458540916443, 0.5021911263465881, 0.48021793365478516, 0.5059253573417664, 0.46150821447372437, 0.20555949211120605, 0.3028416037559509, 0.23474597930908203, 0.2152964025735855, 0.34173545241355896, 0.39080750942230225, 0.326067179441452, 0.22331556677818298, 0.17258165776729584, 0.27312561869621277, 0.2660078704357147, 0.25535848736763, 0.323233962059021, 0.442640483379364, 0.37978848814964294, 0.3932565152645111, 0.4820828139781952, 0.24676667153835297, 0.2058204859495163, 0.21874496340751648, 0.20783782005310059, 0.1766110509634018, 0.1430642455816269, 0.18109825253486633, 0.19014427065849304, 0.17841365933418274, 0.18949587643146515, 0.23683255910873413, 0.23758465051651, 0.4807969033718109, 0.3920854926109314, 0.46967387199401855, 0.5412811636924744, 0.3853422999382019, 0.5896591544151306, 0.6705350875854492, 0.6705156564712524]</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.7663393020629883</v>
+        <v>0.8099663853645325</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -2983,10 +2983,10 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0.8676606999943033</v>
+        <v>0.8764234999980545</v>
       </c>
       <c r="J61" t="n">
-        <v>0.005491523417685464</v>
+        <v>0.005546984177202876</v>
       </c>
     </row>
     <row r="62">
@@ -3005,11 +3005,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[0.1648140847682953, 0.077363021671772, 0.14829008281230927, 0.37414050102233887, 0.3158089816570282, 0.25673720240592957, 0.11118349432945251, 0.09676289558410645, 0.18955107033252716, 0.17120453715324402, 0.0370015874505043, 0.19261790812015533, 0.15782921016216278, 0.3573150932788849, 0.2419973462820053, 0.15369294583797455, 0.2479994297027588, 0.1704595685005188, 0.20556962490081787, 0.1602010875940323, 0.11892354488372803, 0.12692813575267792, 0.11843673884868622, 0.07756578922271729, 0.05018448829650879, 0.06105958670377731, 0.0460781492292881, 0.07878833264112473, 0.02779735065996647, 0.04954858869314194, 0.07397356629371643, 0.07790528237819672, 0.07458449900150299, 0.11833550781011581, 0.12186850607395172, 0.08056505769491196, 0.14516912400722504, 0.0431833453476429, 0.08556053042411804, 0.025475207716226578, 0.03488704934716225, 0.0492534339427948, 0.0768514946103096, 0.10980818420648575, 0.205032080411911, 0.2928151488304138, 0.42783817648887634, 0.23382695019245148, 0.30294328927993774, 0.33189013600349426, 0.40109166502952576, 0.23741455376148224, 0.4800506830215454, 0.5188989043235779, 0.1433718502521515, 0.4033237099647522, 0.24612738192081451, 0.08155328780412674, 0.12864959239959717, 0.13798610866069794, 0.13215628266334534, 0.2618695795536041, 0.2624662518501282, 0.2941851317882538, 0.22589465975761414, 0.4499322474002838, 0.5132398009300232, 0.49705228209495544, 0.6930986642837524, 0.5337846279144287, 0.33571088314056396, 0.7559508085250854, 0.553948163986206, 0.25738435983657837, 0.30618149042129517, 0.6413105130195618, 0.42223942279815674, 0.5735998749732971, 0.5359127521514893, 0.8471514582633972, 0.5620284080505371, 0.5041679739952087, 0.1289665699005127, 0.1280967891216278, 0.186382457613945, 0.1280551701784134, 0.358158141374588, 0.4954664707183838, 0.25427988171577454, 0.21853306889533997, 0.09618577361106873, 0.09781824797391891, 0.14140093326568604, 0.06978974491357803, 0.05708196759223938, 0.1225728914141655, 0.058938074856996536, 0.11989445984363556, 0.10325361788272858, 0.10514376312494278, 0.04877685382962227, 0.0780511200428009, 0.12623129785060883, 0.18359343707561493, 0.10632288455963135, 0.09097494184970856, 0.1276673525571823, 0.05827522277832031, 0.061339300125837326, 0.08566560596227646, 0.057452231645584106, 0.14732234179973602, 0.10529356449842453, 0.33890318870544434, 0.5780462026596069, 0.16019339859485626, 0.2979975938796997, 0.1357652097940445, 0.16234664618968964, 0.2178257405757904, 0.5068663954734802, 0.5693665146827698, 0.7131980061531067, 0.7135856747627258, 0.4896713197231293, 0.4579470157623291, 0.19866587221622467, 0.42069298028945923, 0.20851659774780273, 0.30163851380348206, 0.49490687251091003, 0.27349358797073364, 0.4571686387062073, 0.3902798891067505, 0.37503066658973694, 0.3265209496021271, 0.5844511985778809, 0.5229294896125793, 0.452339768409729, 0.6531012654304504, 0.7874278426170349, 0.8940147161483765, 0.9002218842506409, 0.903590202331543, 0.9601010084152222, 0.9716240763664246, 0.9693048000335693, 0.9685434103012085, 0.9489242434501648, 0.6997306942939758, 0.9674030542373657, 0.9790867567062378, 0.9817348122596741, 0.9688201546669006, 0.9682897925376892, 0.989293098449707, 0.9538589119911194, 0.9538032412528992]</t>
+          <t>[0.050079550594091415, 0.027699440717697144, 0.07521022111177444, 0.3952769935131073, 0.217471644282341, 0.12571224570274353, 0.02387700229883194, 0.024048471823334694, 0.12344024330377579, 0.13938738405704498, 0.012820948846638203, 0.14904116094112396, 0.12563325464725494, 0.22219409048557281, 0.09899679571390152, 0.09778773784637451, 0.20932337641716003, 0.06674154847860336, 0.11994871497154236, 0.0827038511633873, 0.0510871522128582, 0.07691188901662827, 0.07171270996332169, 0.07527461647987366, 0.06960821896791458, 0.10444870591163635, 0.04763290286064148, 0.07489333301782608, 0.018278706818819046, 0.051867902278900146, 0.07797381281852722, 0.09288196265697479, 0.09921000897884369, 0.1420392096042633, 0.27325668931007385, 0.10643572360277176, 0.19824057817459106, 0.052031900733709335, 0.08203237503767014, 0.03667378053069115, 0.04302596300840378, 0.04248489812016487, 0.07196836173534393, 0.07642195373773575, 0.1383914053440094, 0.1814345419406891, 0.3154833912849426, 0.18152907490730286, 0.18627940118312836, 0.23895373940467834, 0.32227906584739685, 0.24069759249687195, 0.7543392181396484, 0.7510772943496704, 0.08928090333938599, 0.22135254740715027, 0.11844019591808319, 0.04589518532156944, 0.08125348389148712, 0.09273464232683182, 0.07970066368579865, 0.15702468156814575, 0.1776515692472458, 0.3417889177799225, 0.15099968016147614, 0.38382333517074585, 0.6171610951423645, 0.6314652562141418, 0.7819091081619263, 0.7079832553863525, 0.574703574180603, 0.8537348508834839, 0.652698814868927, 0.3433939516544342, 0.2780666649341583, 0.3948875963687897, 0.2234751433134079, 0.33610475063323975, 0.2924344837665558, 0.6970124244689941, 0.3646727204322815, 0.25952431559562683, 0.0647016316652298, 0.07323793321847916, 0.1238323450088501, 0.073369100689888, 0.23766107857227325, 0.39954498410224915, 0.16257616877555847, 0.18323659896850586, 0.06477607786655426, 0.05856665223836899, 0.08548541367053986, 0.055065181106328964, 0.03305572643876076, 0.11344721913337708, 0.042670171707868576, 0.10601706057786942, 0.10426263511180878, 0.12468285113573074, 0.1289549022912979, 0.18368197977542877, 0.2140657901763916, 0.21038714051246643, 0.14102180302143097, 0.07822299748659134, 0.08625715970993042, 0.0675635114312172, 0.06843485683202744, 0.10071145743131638, 0.06344213336706161, 0.17322951555252075, 0.05324859544634819, 0.18255870044231415, 0.30807334184646606, 0.035125382244586945, 0.04836585372686386, 0.016957411542534828, 0.05333344265818596, 0.058079592883586884, 0.13040076196193695, 0.3214575946331024, 0.47967684268951416, 0.5652005672454834, 0.15902160108089447, 0.2151951938867569, 0.10250622034072876, 0.25310787558555603, 0.09082687646150589, 0.10004551708698273, 0.11043595522642136, 0.07669849693775177, 0.16957677900791168, 0.07065681368112564, 0.13248507678508759, 0.15987688302993774, 0.43890976905822754, 0.3882840871810913, 0.4044783413410187, 0.6644159555435181, 0.815521776676178, 0.9295294284820557, 0.9182515144348145, 0.929824948310852, 0.965103268623352, 0.9752857089042664, 0.9795417189598083, 0.9805892705917358, 0.9291098713874817, 0.7015061974525452, 0.9809569120407104, 0.9907035827636719, 0.9900698065757751, 0.9741530418395996, 0.9656152725219727, 0.9858476519584656, 0.9331921339035034, 0.9331302642822266]</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.989293098449707</v>
+        <v>0.9907035827636719</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -3023,10 +3023,10 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0.8755433999758679</v>
+        <v>0.8951387999986764</v>
       </c>
       <c r="J62" t="n">
-        <v>0.005541413923897899</v>
+        <v>0.005665435443029597</v>
       </c>
     </row>
     <row r="63">
@@ -3045,11 +3045,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>[0.9926005005836487, 0.9907580614089966, 0.9924378991127014, 0.9849225282669067, 0.990262508392334, 0.9853256344795227, 0.9830420017242432, 0.9825640320777893, 0.44473981857299805, 0.5440649390220642, 0.9829860329627991, 0.9693788290023804, 0.9901492595672607, 0.9945213794708252, 0.9966509938240051, 0.9873554110527039, 0.9880520105361938, 0.9964447617530823, 0.9966638684272766, 0.9965476393699646, 0.9965195655822754, 0.9942519664764404, 0.993498682975769, 0.9938475489616394, 0.9926629066467285, 0.9848741888999939, 0.9681638479232788, 0.9828657507896423, 0.9876041412353516, 0.9598865509033203, 0.9303528070449829, 0.9862796068191528, 0.9887000918388367, 0.9930495023727417, 0.9901319742202759, 0.9944750666618347, 0.9945205450057983, 0.9960540533065796, 0.9921257495880127, 0.99346923828125, 0.9933527708053589, 0.9960164427757263, 0.9415746331214905, 0.9753247499465942, 0.9853386878967285, 0.8640854358673096, 0.736517608165741, 0.4877557158470154, 0.8127368092536926, 0.9655674695968628, 0.9363925457000732, 0.9063732028007507, 0.8740130066871643, 0.8114049434661865, 0.5339347124099731, 0.30405816435813904, 0.5159045457839966, 0.2757813334465027, 0.421318382024765, 0.4204765856266022, 0.3853631019592285, 0.7023577094078064, 0.6000161170959473, 0.6797339916229248, 0.672523021697998, 0.8579164743423462, 0.8441488742828369, 0.7729123830795288, 0.7727686762809753, 0.566179096698761, 0.7733202576637268, 0.9096562266349792, 0.9110954403877258, 0.9097066521644592, 0.9503625631332397, 0.9901093244552612, 0.9848935008049011, 0.9912148714065552, 0.9809653162956238, 0.9912799000740051, 0.9707059860229492, 0.702152669429779, 0.7782328724861145, 0.23645582795143127, 0.971272885799408, 0.9841288328170776, 0.9868324995040894, 0.9882369637489319, 0.9903518557548523, 0.984609842300415, 0.9863072037696838, 0.9895768165588379, 0.9939184188842773, 0.9825348258018494, 0.9919207096099854, 0.9862009882926941, 0.986091673374176, 0.9895582795143127, 0.9764605164527893, 0.9524350762367249, 0.9675832390785217, 0.9685739874839783, 0.9670630097389221, 0.9388233423233032, 0.990384578704834, 0.9496570229530334, 0.9459363222122192, 0.9644635915756226, 0.9787740111351013, 0.9700887799263, 0.8952174186706543, 0.8183150887489319, 0.9592898488044739, 0.9472628235816956, 0.10099311918020248, 0.13524788618087769, 0.26823940873146057, 0.22410790622234344, 0.09923406690359116, 0.10203178972005844, 0.0781259536743164, 0.05999257043004036, 0.13138139247894287, 0.08668719977140427, 0.06381221115589142, 0.04944131150841713, 0.11423555761575699, 0.10474295914173126, 0.16897793114185333, 0.2112806886434555, 0.24690359830856323, 0.2736835777759552, 0.19809244573116302, 0.6401938796043396, 0.5937466621398926, 0.15971429646015167, 0.3634125590324402, 0.16686473786830902, 0.48217862844467163, 0.9516773819923401, 0.9601321220397949, 0.9712659120559692, 0.990548312664032, 0.9459057450294495, 0.967293918132782, 0.8973671793937683, 0.9766440987586975, 0.989693820476532, 0.9785823822021484, 0.41618022322654724, 0.2778327763080597, 0.15921536087989807, 0.10321015119552612, 0.15759670734405518, 0.09554398059844971, 0.055737417191267014, 0.0791357234120369, 0.07892915606498718]</t>
+          <t>[0.9809343218803406, 0.9812683463096619, 0.9852302670478821, 0.9552703499794006, 0.9764568209648132, 0.972309410572052, 0.9516728520393372, 0.9704164862632751, 0.2823689579963684, 0.4990302324295044, 0.9865007996559143, 0.9710699319839478, 0.9878167510032654, 0.9952825903892517, 0.9953747391700745, 0.9812961220741272, 0.984774649143219, 0.9949511289596558, 0.9947785139083862, 0.9958398342132568, 0.9946728348731995, 0.9908488988876343, 0.9870530962944031, 0.9902496933937073, 0.9889909029006958, 0.966421902179718, 0.9275141954421997, 0.9541717767715454, 0.9757005572319031, 0.9176661968231201, 0.9305282831192017, 0.95571368932724, 0.9781015515327454, 0.9917283654212952, 0.9876695275306702, 0.9941715598106384, 0.9888728260993958, 0.9951422214508057, 0.9923885464668274, 0.9938549399375916, 0.9929444193840027, 0.9961817264556885, 0.9452205896377563, 0.9603294134140015, 0.9701959490776062, 0.795206606388092, 0.6077017784118652, 0.2881438434123993, 0.6655117273330688, 0.9192028045654297, 0.8811963796615601, 0.8938586711883545, 0.8436486721038818, 0.7147178053855896, 0.37668004631996155, 0.15973599255084991, 0.4075312316417694, 0.1958106905221939, 0.31563544273376465, 0.28077802062034607, 0.29533103108406067, 0.6589480638504028, 0.5897790789604187, 0.7717141509056091, 0.7499047517776489, 0.880445659160614, 0.8211982250213623, 0.7862669229507446, 0.8414570093154907, 0.7274097204208374, 0.7741299271583557, 0.9147650003433228, 0.9113606214523315, 0.9394113421440125, 0.9578625559806824, 0.9905892610549927, 0.9811861515045166, 0.9897618889808655, 0.9738095998764038, 0.9848635792732239, 0.9431658983230591, 0.46383681893348694, 0.7382809519767761, 0.10965597629547119, 0.9825383424758911, 0.9863817691802979, 0.9918667674064636, 0.9949146509170532, 0.9941154718399048, 0.981376588344574, 0.9888263940811157, 0.9872784614562988, 0.9954689741134644, 0.9926306009292603, 0.9951266050338745, 0.9872740507125854, 0.9854626655578613, 0.9895796179771423, 0.9834257364273071, 0.9653169512748718, 0.9617503881454468, 0.9419834017753601, 0.9638965129852295, 0.9430347084999084, 0.994198203086853, 0.927243709564209, 0.9385407567024231, 0.9610470533370972, 0.9740420579910278, 0.9454067349433899, 0.7598758339881897, 0.7778642177581787, 0.963024377822876, 0.9250958561897278, 0.12325888872146606, 0.09306301176548004, 0.1869354248046875, 0.2957048714160919, 0.061538223177194595, 0.06347797065973282, 0.04559346288442612, 0.03343123942613602, 0.05567455291748047, 0.08506815880537033, 0.05803157389163971, 0.04248202219605446, 0.1475018411874771, 0.1792781502008438, 0.24476014077663422, 0.3540172874927521, 0.3399626314640045, 0.3339627683162689, 0.17292457818984985, 0.6955373287200928, 0.817339301109314, 0.31080305576324463, 0.6702440977096558, 0.37337151169776917, 0.6405905485153198, 0.9455407857894897, 0.9504303932189941, 0.9632420539855957, 0.9853633642196655, 0.9277254939079285, 0.9388526678085327, 0.7843076586723328, 0.9414045214653015, 0.9835609197616577, 0.9772149920463562, 0.41910049319267273, 0.18640701472759247, 0.1504596471786499, 0.08056876808404922, 0.1718684732913971, 0.12039802223443985, 0.0381862036883831, 0.11750810593366623, 0.11590524762868881]</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.9966638684272766</v>
+        <v>0.9961817264556885</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0.8827582999947481</v>
+        <v>0.893963900001836</v>
       </c>
       <c r="J63" t="n">
-        <v>0.005587077848068026</v>
+        <v>0.005657999367100228</v>
       </c>
     </row>
     <row r="64">
@@ -3085,11 +3085,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>[0.9867591261863708, 0.9882574677467346, 0.9837374687194824, 0.9944300055503845, 0.9891899824142456, 0.9896154403686523, 0.9940202236175537, 0.992658793926239, 0.9905791878700256, 0.9742840528488159, 0.9846854209899902, 0.9771436452865601, 0.9521566033363342, 0.9572427272796631, 0.9664779305458069, 0.9761698246002197, 0.9725914597511292, 0.9466280341148376, 0.9203755259513855, 0.9514191150665283, 0.9663137197494507, 0.9856173396110535, 0.9922967553138733, 0.9932123422622681, 0.9730541110038757, 0.9290980696678162, 0.8345093131065369, 0.934425950050354, 0.9141658544540405, 0.9659232497215271, 0.9776204228401184, 0.9776802659034729, 0.9382832646369934, 0.958721935749054, 0.9524235129356384, 0.8509243726730347, 0.8835747838020325, 0.8331859707832336, 0.912850558757782, 0.993069052696228, 0.9585562944412231, 0.7553719282150269, 0.7978569865226746, 0.8050599694252014, 0.8514172434806824, 0.9704148769378662, 0.9916588664054871, 0.9850580096244812, 0.9925932288169861, 0.9804639220237732, 0.9355350732803345, 0.920423150062561, 0.696575939655304, 0.7512496113777161, 0.9634669423103333, 0.9820739030838013, 0.9808890223503113, 0.8995723128318787, 0.9841725826263428, 0.9927955269813538, 0.9959816932678223, 0.9933941960334778, 0.9924054741859436, 0.9936491847038269, 0.9965736865997314, 0.9953437447547913, 0.9935542345046997, 0.9953546524047852, 0.9927175045013428, 0.9952657222747803, 0.9928892850875854, 0.9952203631401062, 0.9950394034385681, 0.9925699830055237, 0.9946871995925903, 0.9933559894561768, 0.9916982650756836, 0.988940417766571, 0.9837787747383118, 0.9881632924079895, 0.993438184261322, 0.9926462173461914, 0.9791373014450073, 0.9882243871688843, 0.9814908504486084, 0.9931924939155579, 0.9957823753356934, 0.9952774047851562, 0.9939179420471191, 0.9928026795387268, 0.9913445711135864, 0.9919648170471191, 0.995439350605011, 0.9954381585121155, 0.9955924153327942, 0.9956166744232178, 0.9946455955505371, 0.9913296699523926, 0.9879513382911682, 0.9909289479255676, 0.993854284286499, 0.9961131811141968, 0.9914842247962952, 0.9830852150917053, 0.9371873140335083, 0.979097306728363, 0.9470596313476562, 0.9074143171310425, 0.9288098812103271, 0.9193118214607239, 0.9831120371818542, 0.9713879227638245, 0.9159097075462341, 0.890342652797699, 0.9266592860221863, 0.9323338866233826, 0.948248028755188, 0.8415067791938782, 0.9399194121360779, 0.7941333055496216, 0.893777072429657, 0.7657536268234253, 0.7490307688713074, 0.8698341250419617, 0.5209002494812012, 0.7660803198814392, 0.8477040529251099, 0.7743861675262451, 0.905356228351593, 0.9331061244010925, 0.9484397172927856, 0.9186994433403015, 0.9753894805908203, 0.9679949283599854, 0.9608330726623535, 0.9718695878982544, 0.9481307864189148, 0.9884668588638306, 0.988066554069519, 0.9922216534614563, 0.987998366355896, 0.988129734992981, 0.9886941313743591, 0.9950578212738037, 0.9964278340339661, 0.9962142109870911, 0.9917211532592773, 0.9940142035484314, 0.9906705617904663, 0.9959318041801453, 0.9967970252037048, 0.9960801005363464, 0.9954250454902649, 0.9926704168319702, 0.995153546333313, 0.9961787462234497, 0.9967851638793945, 0.996771514415741]</t>
+          <t>[0.9725610017776489, 0.9672662615776062, 0.9370626211166382, 0.9844286441802979, 0.9745168685913086, 0.9789310693740845, 0.9910765886306763, 0.993061363697052, 0.9869781732559204, 0.9500427842140198, 0.978005588054657, 0.9588029384613037, 0.9081324338912964, 0.9379174709320068, 0.958739161491394, 0.9783358573913574, 0.9365589022636414, 0.8500520586967468, 0.8208351731300354, 0.8729420304298401, 0.9013482332229614, 0.967798113822937, 0.9773727059364319, 0.9860742688179016, 0.9703013300895691, 0.9233227372169495, 0.829016387462616, 0.9383501410484314, 0.9334388971328735, 0.9724230170249939, 0.9739530682563782, 0.9829376339912415, 0.9549580216407776, 0.9672009348869324, 0.924132227897644, 0.8240844011306763, 0.8719875812530518, 0.8051570057868958, 0.8810429573059082, 0.9865288734436035, 0.9010434150695801, 0.8053812384605408, 0.7544373273849487, 0.8122133612632751, 0.7936668395996094, 0.9361510276794434, 0.983191192150116, 0.9685906171798706, 0.9859182834625244, 0.9690441489219666, 0.9119985103607178, 0.9466608762741089, 0.7308467030525208, 0.7523225545883179, 0.9473389983177185, 0.9433680772781372, 0.9561370015144348, 0.7870992422103882, 0.9773154258728027, 0.9833342432975769, 0.993539035320282, 0.9909031987190247, 0.9878146648406982, 0.9873124957084656, 0.9940465688705444, 0.9923959970474243, 0.9928211569786072, 0.9931830763816833, 0.9893383979797363, 0.9922594428062439, 0.9867373108863831, 0.9936925172805786, 0.9945756196975708, 0.984480082988739, 0.9880746006965637, 0.9873549342155457, 0.9789773225784302, 0.9707449674606323, 0.9269508719444275, 0.964191198348999, 0.9800697565078735, 0.9822184443473816, 0.9542270302772522, 0.9724066853523254, 0.9389338493347168, 0.9857949018478394, 0.9937844276428223, 0.9933915138244629, 0.9911198019981384, 0.9909884333610535, 0.9883125424385071, 0.9913656711578369, 0.9942612648010254, 0.9946910738945007, 0.9965780377388, 0.9951047897338867, 0.994520902633667, 0.988346517086029, 0.9768601655960083, 0.976398766040802, 0.9910892248153687, 0.9927586317062378, 0.9788340926170349, 0.9590734839439392, 0.7944908142089844, 0.9489861726760864, 0.8181384205818176, 0.7959187626838684, 0.8789805769920349, 0.8644711971282959, 0.9726166129112244, 0.9146690964698792, 0.6485280990600586, 0.6878560781478882, 0.7375772595405579, 0.8349688649177551, 0.9049674868583679, 0.5516844987869263, 0.6902664303779602, 0.40192916989326477, 0.5337027311325073, 0.2097872793674469, 0.30068936944007874, 0.40536725521087646, 0.1256585419178009, 0.38858261704444885, 0.36884447932243347, 0.3326122462749481, 0.682665228843689, 0.8093826174736023, 0.9108313918113708, 0.8820217251777649, 0.9408088326454163, 0.9092242121696472, 0.8254572749137878, 0.8582333326339722, 0.8531051874160767, 0.9668789505958557, 0.9522286653518677, 0.9800265431404114, 0.9763493537902832, 0.9694039225578308, 0.9829736948013306, 0.9942466616630554, 0.9960469603538513, 0.9937618374824524, 0.9849099516868591, 0.9942845702171326, 0.9882146120071411, 0.9960944056510925, 0.9973850846290588, 0.9958608746528625, 0.9955416321754456, 0.9918131828308105, 0.9947117567062378, 0.9963164329528809, 0.9976643323898315, 0.9976522326469421]</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.9967970252037048</v>
+        <v>0.9976643323898315</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
@@ -3103,10 +3103,10 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0.9018398000043817</v>
+        <v>0.8980016999994405</v>
       </c>
       <c r="J64" t="n">
-        <v>0.00570784683547077</v>
+        <v>0.005683555063287598</v>
       </c>
     </row>
     <row r="65">
@@ -3125,11 +3125,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>[0.6301655173301697, 0.472575843334198, 0.4113159477710724, 0.3679138123989105, 0.3317753076553345, 0.5335542559623718, 0.6990246176719666, 0.5104655623435974, 0.46517273783683777, 0.3836681544780731, 0.37246015667915344, 0.28053563833236694, 0.27669841051101685, 0.27436089515686035, 0.37032827734947205, 0.4340997338294983, 0.39590445160865784, 0.41492292284965515, 0.4106863737106323, 0.3919333815574646, 0.3924500346183777, 0.4271213412284851, 0.47851333022117615, 0.2889547348022461, 0.3236077129840851, 0.26476648449897766, 0.3445580005645752, 0.3472909927368164, 0.36590760946273804, 0.4063660502433777, 0.596958577632904, 0.587496280670166, 0.5357030034065247, 0.5495637059211731, 0.6689507365226746, 0.6218901872634888, 0.6482160687446594, 0.502621591091156, 0.5306363105773926, 0.547124445438385, 0.40191876888275146, 0.3226343095302582, 0.26383060216903687, 0.25072330236434937, 0.17945511639118195, 0.20250408351421356, 0.20094497501850128, 0.20991197228431702, 0.33393773436546326, 0.40389400720596313, 0.515454113483429, 0.4020940065383911, 0.3132459223270416, 0.22651445865631104, 0.3424646556377411, 0.4124421179294586, 0.2964765131473541, 0.32569363713264465, 0.2655482590198517, 0.20170088112354279, 0.2431969791650772, 0.4439767897129059, 0.5020932555198669, 0.5289062261581421, 0.5026578307151794, 0.5201616287231445, 0.4681856036186218, 0.7075640559196472, 0.7091755867004395, 0.6621078252792358, 0.5937662720680237, 0.5337621569633484, 0.5488080978393555, 0.615746259689331, 0.5520148873329163, 0.7613053917884827, 0.7477560043334961, 0.6229101419448853, 0.5047334432601929, 0.6542835831642151, 0.4355858564376831, 0.5623712539672852, 0.6354288458824158, 0.7716695070266724, 0.8212388157844543, 0.9152417778968811, 0.8379024267196655, 0.799088716506958, 0.5498182773590088, 0.6595785021781921, 0.49621573090553284, 0.42255139350891113, 0.6638391613960266, 0.7565180659294128, 0.7272258400917053, 0.684539258480072, 0.6739848256111145, 0.5387746691703796, 0.37504732608795166, 0.4822237193584442, 0.5713587403297424, 0.6093258261680603, 0.713897705078125, 0.7772169709205627, 0.7898157835006714, 0.6219092607498169, 0.623469889163971, 0.6456614136695862, 0.5900095701217651, 0.48736757040023804, 0.7173574566841125, 0.4878188669681549, 0.6482430696487427, 0.7737875580787659, 0.6407457590103149, 0.4961429238319397, 0.30997222661972046, 0.2704922556877136, 0.2964845895767212, 0.35040128231048584, 0.6368622183799744, 0.7415101528167725, 0.7637649178504944, 0.5481017827987671, 0.49612200260162354, 0.6711677312850952, 0.4796146750450134, 0.46964719891548157, 0.5435413718223572, 0.46445685625076294, 0.644729495048523, 0.4564547538757324, 0.3997833728790283, 0.5206093192100525, 0.33494606614112854, 0.2830212414264679, 0.29300186038017273, 0.4168182611465454, 0.42866504192352295, 0.6261726021766663, 0.5331999063491821, 0.47382622957229614, 0.5132458209991455, 0.5218117237091064, 0.4846557080745697, 0.4931671619415283, 0.49978727102279663, 0.33555519580841064, 0.6570820808410645, 0.5712078213691711, 0.4873315095901489, 0.41766557097435, 0.3108240067958832, 0.37488916516304016, 0.409681111574173, 0.3930838108062744, 0.4893132746219635, 0.4906083643436432]</t>
+          <t>[0.34768638014793396, 0.25160032510757446, 0.22586913406848907, 0.18220750987529755, 0.18188229203224182, 0.2963564693927765, 0.4801427125930786, 0.2677402198314667, 0.23219583928585052, 0.14908848702907562, 0.1494268923997879, 0.13578329980373383, 0.13089485466480255, 0.0965573713183403, 0.19138166308403015, 0.24906493723392487, 0.21335192024707794, 0.24650347232818604, 0.22077324986457825, 0.22529879212379456, 0.20875829458236694, 0.23267100751399994, 0.2543659806251526, 0.13495954871177673, 0.15588122606277466, 0.12868666648864746, 0.16593436896800995, 0.17227359116077423, 0.20938493311405182, 0.2779177129268646, 0.5084651708602905, 0.5418808460235596, 0.486775279045105, 0.5301082134246826, 0.6808854341506958, 0.6593236923217773, 0.6582321524620056, 0.5114644765853882, 0.4230504631996155, 0.47779518365859985, 0.44301632046699524, 0.3423090875148773, 0.27037811279296875, 0.2936486303806305, 0.1983141452074051, 0.1780264526605606, 0.13886035978794098, 0.15507423877716064, 0.2929407060146332, 0.3184140920639038, 0.46979770064353943, 0.30680781602859497, 0.21313877403736115, 0.17175434529781342, 0.29802176356315613, 0.3115963935852051, 0.19632084667682648, 0.23450081050395966, 0.23100118339061737, 0.18010002374649048, 0.22359086573123932, 0.3733730614185333, 0.4302402138710022, 0.38503241539001465, 0.2897283732891083, 0.22969289124011993, 0.19782128930091858, 0.5094435214996338, 0.4897190034389496, 0.5771846771240234, 0.4757468104362488, 0.4865237772464752, 0.4695451855659485, 0.547076940536499, 0.46152088046073914, 0.687701404094696, 0.6235760450363159, 0.5171620845794678, 0.3368645906448364, 0.47843629121780396, 0.24617604911327362, 0.303215354681015, 0.4124668538570404, 0.5542181134223938, 0.6395862102508545, 0.7897242307662964, 0.7435206770896912, 0.6892943382263184, 0.41781169176101685, 0.42165642976760864, 0.31928661465644836, 0.2514974772930145, 0.4873407483100891, 0.568374752998352, 0.5344053506851196, 0.5051274299621582, 0.47862812876701355, 0.37970486283302307, 0.26222819089889526, 0.3059089779853821, 0.49574604630470276, 0.4834698438644409, 0.5647081136703491, 0.6139113903045654, 0.6483438014984131, 0.43123680353164673, 0.4988301694393158, 0.6110256314277649, 0.5323346257209778, 0.2997932732105255, 0.5375471115112305, 0.3253649175167084, 0.5353120565414429, 0.7392193078994751, 0.6214118599891663, 0.5195702314376831, 0.3674425184726715, 0.3027712404727936, 0.32258787751197815, 0.3521959185600281, 0.6340235471725464, 0.7559435963630676, 0.7717443704605103, 0.5126326084136963, 0.4150538444519043, 0.5115053057670593, 0.26434800028800964, 0.30244123935699463, 0.34378719329833984, 0.36590486764907837, 0.6447130441665649, 0.49990540742874146, 0.36808598041534424, 0.5567490458488464, 0.27694711089134216, 0.26078811287879944, 0.2488659918308258, 0.3468329608440399, 0.3733941316604614, 0.5116164684295654, 0.40492716431617737, 0.3967835009098053, 0.5958582758903503, 0.587445855140686, 0.4803210198879242, 0.5225709676742554, 0.5069262981414795, 0.34530332684516907, 0.5551608204841614, 0.6249117851257324, 0.5730488896369934, 0.5024849772453308, 0.4191802740097046, 0.4699206054210663, 0.4317907989025116, 0.36360055208206177, 0.5291938185691833, 0.5296878218650818]</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.9152417778968811</v>
+        <v>0.7897242307662964</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0.886633600021014</v>
+        <v>0.8989852000086103</v>
       </c>
       <c r="J65" t="n">
-        <v>0.005611605063424139</v>
+        <v>0.005689779746889939</v>
       </c>
     </row>
     <row r="66">
@@ -3165,11 +3165,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[0.7619397640228271, 0.5613831877708435, 0.32121872901916504, 0.3161568343639374, 0.29988640546798706, 0.4378811717033386, 0.44739657640457153, 0.41448724269866943, 0.38206636905670166, 0.2176503688097, 0.6127868890762329, 0.7926010489463806, 0.7644529938697815, 0.7084158062934875, 0.7848946452140808, 0.5783141255378723, 0.40781766176223755, 0.5164920091629028, 0.6002951860427856, 0.5895119905471802, 0.6823052763938904, 0.623395562171936, 0.4512753486633301, 0.45823028683662415, 0.39594078063964844, 0.5263221263885498, 0.5581496953964233, 0.6506745219230652, 0.5574386715888977, 0.5861692428588867, 0.4708212614059448, 0.2567082941532135, 0.5826738476753235, 0.6512109041213989, 0.7022126317024231, 0.6979328989982605, 0.656511127948761, 0.6826480031013489, 0.6574866771697998, 0.6949203610420227, 0.5323066115379333, 0.5830705761909485, 0.6098312139511108, 0.7074564099311829, 0.5298284292221069, 0.6093642115592957, 0.6844733357429504, 0.7029324769973755, 0.6157721877098083, 0.5630530118942261, 0.4668141007423401, 0.4750390350818634, 0.4983419179916382, 0.4002012312412262, 0.4610024690628052, 0.3780286908149719, 0.5161267518997192, 0.6561746001243591, 0.6021990776062012, 0.5564494729042053, 0.6808128356933594, 0.6863847374916077, 0.6544039845466614, 0.7681819200515747, 0.6683344841003418, 0.7753332257270813, 0.7348780035972595, 0.5287735462188721, 0.44033777713775635, 0.5481079816818237, 0.6316600441932678, 0.5353972911834717, 0.40072181820869446, 0.2706553041934967, 0.30176544189453125, 0.3969496786594391, 0.5054160356521606, 0.39459657669067383, 0.24332153797149658, 0.26848888397216797, 0.2819610834121704, 0.4004051387310028, 0.414711594581604, 0.5136678814888, 0.6145138144493103, 0.6076863408088684, 0.5964891314506531, 0.7021244764328003, 0.6907398104667664, 0.6532572507858276, 0.32181668281555176, 0.24943053722381592, 0.3225094676017761, 0.5306071639060974, 0.5712398290634155, 0.4307478666305542, 0.33443114161491394, 0.19622233510017395, 0.09214135259389877, 0.14922025799751282, 0.21206063032150269, 0.357120543718338, 0.4614781141281128, 0.514219343662262, 0.5600271224975586, 0.47776395082473755, 0.5651659369468689, 0.49652349948883057, 0.2760321795940399, 0.26308754086494446, 0.26242491602897644, 0.7065914273262024, 0.4021174907684326, 0.17473433911800385, 0.18526412546634674, 0.23981447517871857, 0.3825940191745758, 0.2486029714345932, 0.25211045145988464, 0.21636003255844116, 0.12090782076120377, 0.2530052065849304, 0.221042200922966, 0.11055979877710342, 0.049600936472415924, 0.07915719598531723, 0.21520796418190002, 0.21187326312065125, 0.19966673851013184, 0.2121739387512207, 0.2106662392616272, 0.19872640073299408, 0.2208617478609085, 0.22823436558246613, 0.21879498660564423, 0.2059275358915329, 0.19181083142757416, 0.2227173000574112, 0.21406272053718567, 0.20967788994312286, 0.22372056543827057, 0.2057138979434967, 0.1810816079378128, 0.20294968783855438, 0.2019299417734146, 0.19895757734775543, 0.1945914775133133, 0.19175586104393005, 0.1931600421667099, 0.2064831554889679, 0.20665386319160461, 0.202137753367424, 0.1913650780916214, 0.20384664833545685, 0.21651403605937958, 0.2201545536518097, 0.22962014377117157, 0.2310629040002823]</t>
+          <t>[0.49486052989959717, 0.2599475681781769, 0.10929887741804123, 0.1196100190281868, 0.11727143824100494, 0.18127581477165222, 0.21037237346172333, 0.1840149611234665, 0.17591679096221924, 0.07520875334739685, 0.28885507583618164, 0.4962276518344879, 0.47329968214035034, 0.5759334564208984, 0.6445412635803223, 0.4141322672367096, 0.2832401394844055, 0.38983240723609924, 0.6089478135108948, 0.6154965162277222, 0.6379321217536926, 0.62654048204422, 0.38231360912323, 0.4028910994529724, 0.4564245343208313, 0.5102357864379883, 0.5045562386512756, 0.6546435952186584, 0.5319925546646118, 0.5462811589241028, 0.37416186928749084, 0.18368196487426758, 0.480607271194458, 0.4728449881076813, 0.48866739869117737, 0.42198967933654785, 0.34948843717575073, 0.3618498742580414, 0.4841853976249695, 0.5238081812858582, 0.3833741843700409, 0.4766283929347992, 0.41220250725746155, 0.4342062473297119, 0.29680582880973816, 0.34227389097213745, 0.43899014592170715, 0.5112923383712769, 0.4858492910861969, 0.385615736246109, 0.3045070171356201, 0.3283872604370117, 0.37027961015701294, 0.3027251958847046, 0.3459348976612091, 0.21558785438537598, 0.36719509959220886, 0.5015060901641846, 0.4084593653678894, 0.27757737040519714, 0.32701897621154785, 0.28857851028442383, 0.2511809170246124, 0.3601686656475067, 0.2501721680164337, 0.39373764395713806, 0.3688998818397522, 0.23117411136627197, 0.1969190090894699, 0.25624606013298035, 0.37868964672088623, 0.2607433497905731, 0.19261391460895538, 0.10553909838199615, 0.1378387063741684, 0.17432324588298798, 0.25912734866142273, 0.19180110096931458, 0.11689244210720062, 0.13600867986679077, 0.12139613181352615, 0.1430625468492508, 0.1465175598859787, 0.1613122522830963, 0.2968279719352722, 0.28857675194740295, 0.3077344000339508, 0.40225282311439514, 0.4719136357307434, 0.5667378902435303, 0.18762819468975067, 0.19072289764881134, 0.22858084738254547, 0.5342448353767395, 0.5673779249191284, 0.36568671464920044, 0.3812450170516968, 0.17132188379764557, 0.05886192247271538, 0.05995974689722061, 0.09506306052207947, 0.14346133172512054, 0.23200452327728271, 0.22973352670669556, 0.22315840423107147, 0.1539880782365799, 0.19187061488628387, 0.15248256921768188, 0.10988018661737442, 0.13819719851016998, 0.2902737259864807, 0.4587043821811676, 0.17682214081287384, 0.08062224835157394, 0.07940153777599335, 0.12074436247348785, 0.23654142022132874, 0.1537751704454422, 0.16991214454174042, 0.12699803709983826, 0.0728251039981842, 0.1392500102519989, 0.1263083815574646, 0.06325659900903702, 0.028782133013010025, 0.025377683341503143, 0.19367718696594238, 0.1781156063079834, 0.17222142219543457, 0.19892199337482452, 0.18397502601146698, 0.1776275932788849, 0.19339706003665924, 0.18752118945121765, 0.1958637237548828, 0.1820174902677536, 0.16766293346881866, 0.19046995043754578, 0.18848173320293427, 0.18239730596542358, 0.1899183690547943, 0.18384228646755219, 0.14504270255565643, 0.17447704076766968, 0.1649482250213623, 0.16520534455776215, 0.16260121762752533, 0.15689702332019806, 0.1563689410686493, 0.1770840436220169, 0.16795110702514648, 0.16962271928787231, 0.15408849716186523, 0.16705593466758728, 0.1806403398513794, 0.18271508812904358, 0.18855400383472443, 0.18992239236831665]</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.7926010489463806</v>
+        <v>0.6546435952186584</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -3183,10 +3183,10 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0.8766778999997769</v>
+        <v>0.8820885999884922</v>
       </c>
       <c r="J66" t="n">
-        <v>0.005548594303796056</v>
+        <v>0.005582839240433495</v>
       </c>
     </row>
     <row r="67">
@@ -3205,11 +3205,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>[0.3575797975063324, 0.4491695761680603, 0.33868876099586487, 0.4057909846305847, 0.35404127836227417, 0.2733510732650757, 0.7685770392417908, 0.5693113803863525, 0.3338089883327484, 0.614764928817749, 0.4029226005077362, 0.18191465735435486, 0.28000178933143616, 0.2602374255657196, 0.24508386850357056, 0.235816091299057, 0.33289775252342224, 0.2550537884235382, 0.41838952898979187, 0.5567569732666016, 0.3540712296962738, 0.2109617292881012, 0.4363085925579071, 0.18828170001506805, 0.2647092342376709, 0.5213111042976379, 0.43339186906814575, 0.2070331573486328, 0.26137077808380127, 0.28993597626686096, 0.383545458316803, 0.4685063362121582, 0.5316120386123657, 0.7397355437278748, 0.5480380058288574, 0.5361977219581604, 0.7950858473777771, 0.8746119737625122, 0.6498196721076965, 0.2998340427875519, 0.3402978777885437, 0.386843204498291, 0.728518545627594, 0.6084968447685242, 0.33712950348854065, 0.4634380340576172, 0.5133401155471802, 0.5242598652839661, 0.5133480429649353, 0.46728530526161194, 0.5393796563148499, 0.7519776225090027, 0.6162570118904114, 0.494996041059494, 0.3305628299713135, 0.32438328862190247, 0.5639423727989197, 0.5976740121841431, 0.5201258063316345, 0.5316452980041504, 0.37269511818885803, 0.29679447412490845, 0.2967435121536255, 0.2951476275920868, 0.43987324833869934, 0.3555711507797241, 0.288241982460022, 0.3236137628555298, 0.654106855392456, 0.6600954532623291, 0.417947381734848, 0.2502995431423187, 0.35364872217178345, 0.5269240140914917, 0.4283791184425354, 0.624638557434082, 0.3583068251609802, 0.4636070132255554, 0.3808819651603699, 0.2677760422229767, 0.4915984272956848, 0.45330551266670227, 0.5128499269485474, 0.7334727644920349, 0.44050198793411255, 0.36459484696388245, 0.45542624592781067, 0.3107495903968811, 0.40726253390312195, 0.6502935290336609, 0.3558046519756317, 0.7923610806465149, 0.3644438683986664, 0.28692755103111267, 0.28423961997032166, 0.7690708637237549, 0.4279051423072815, 0.5748195052146912, 0.5096554160118103, 0.4879674017429352, 0.6076894402503967, 0.6819730401039124, 0.6972527503967285, 0.7895598411560059, 0.7835928201675415, 0.6576964855194092, 0.4633287489414215, 0.5680021047592163, 0.5897846817970276, 0.8105067610740662, 0.653011679649353, 0.541729748249054, 0.34558776021003723, 0.7059957385063171, 0.4995570182800293, 0.2913573682308197, 0.755233883857727, 0.6416881680488586, 0.6297307014465332, 0.6889325380325317, 0.4991539418697357, 0.6657859086990356, 0.5388336181640625, 0.4336395859718323, 0.3985048532485962, 0.4574882388114929, 0.576318621635437, 0.3196628987789154, 0.5395852327346802, 0.36613959074020386, 0.5421836376190186, 0.5110618472099304, 0.594059407711029, 0.6287386417388916, 0.3985777497291565, 0.4576684534549713, 0.4351722300052643, 0.3216590881347656, 0.21057561039924622, 0.21145492792129517]</t>
+          <t>[0.290027379989624, 0.3892236649990082, 0.2705693244934082, 0.3355535566806793, 0.2946610748767853, 0.22797533869743347, 0.7885153293609619, 0.5015221238136292, 0.29251018166542053, 0.6119681000709534, 0.39239129424095154, 0.11645220220088959, 0.1885458379983902, 0.12266833335161209, 0.15878237783908844, 0.19008636474609375, 0.3185826539993286, 0.18559718132019043, 0.34179380536079407, 0.3774993419647217, 0.3331729471683502, 0.08176911622285843, 0.3027447760105133, 0.11539967358112335, 0.260970801115036, 0.582928478717804, 0.32602694630622864, 0.1377813071012497, 0.2120646983385086, 0.2469308078289032, 0.2997838258743286, 0.36921021342277527, 0.529000997543335, 0.710141122341156, 0.49116769433021545, 0.3103730380535126, 0.634668231010437, 0.8651972413063049, 0.5373004674911499, 0.23979148268699646, 0.2575777769088745, 0.35259461402893066, 0.7559857964515686, 0.721947193145752, 0.2173682153224945, 0.41499578952789307, 0.5029972195625305, 0.5447854399681091, 0.5680763125419617, 0.44296830892562866, 0.41706767678260803, 0.7797420024871826, 0.4455086886882782, 0.4101002812385559, 0.16045264899730682, 0.20023873448371887, 0.5080945491790771, 0.43152302503585815, 0.44479164481163025, 0.4155716598033905, 0.2023363709449768, 0.17321087419986725, 0.21464726328849792, 0.26034030318260193, 0.35762831568717957, 0.346614271402359, 0.2132549285888672, 0.19755081832408905, 0.5465967655181885, 0.6212171316146851, 0.3477615714073181, 0.11686014384031296, 0.15048323571681976, 0.28434106707572937, 0.19914914667606354, 0.38004380464553833, 0.2720445692539215, 0.32720109820365906, 0.23833796381950378, 0.20604701340198517, 0.42264989018440247, 0.3210320770740509, 0.3919675946235657, 0.6777687668800354, 0.3974839150905609, 0.26805660128593445, 0.4483177661895752, 0.28012511134147644, 0.37207531929016113, 0.6302925944328308, 0.38951578736305237, 0.815146803855896, 0.32705315947532654, 0.2653587758541107, 0.2420913726091385, 0.7825495600700378, 0.36991721391677856, 0.618420422077179, 0.44904765486717224, 0.3922548294067383, 0.543778657913208, 0.6320555806159973, 0.618627667427063, 0.7067576050758362, 0.7682443857192993, 0.5500048995018005, 0.43975403904914856, 0.5161457657814026, 0.4529680609703064, 0.7457748055458069, 0.5107986330986023, 0.37429168820381165, 0.15300047397613525, 0.6017904281616211, 0.3760157823562622, 0.14143460988998413, 0.7299523949623108, 0.49479222297668457, 0.4226004481315613, 0.6315725445747375, 0.4808618128299713, 0.5202908515930176, 0.4365139901638031, 0.35425350069999695, 0.37410950660705566, 0.3421637713909149, 0.4859958589076996, 0.24529005587100983, 0.4384330213069916, 0.21286939084529877, 0.3434649705886841, 0.28016898036003113, 0.36058464646339417, 0.43421122431755066, 0.24286743998527527, 0.4334412217140198, 0.3910262882709503, 0.24896900355815887, 0.11249465495347977, 0.11326401680707932]</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.8746119737625122</v>
+        <v>0.8651972413063049</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -3223,10 +3223,10 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0.9303413000016008</v>
+        <v>0.9660194999887608</v>
       </c>
       <c r="J67" t="n">
-        <v>0.006645295000011434</v>
+        <v>0.006900139285634006</v>
       </c>
     </row>
     <row r="68">
@@ -3245,11 +3245,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[0.1525515466928482, 0.0902537852525711, 0.16119739413261414, 0.14751896262168884, 0.12390907853841782, 0.1663493514060974, 0.14021797478199005, 0.10434503108263016, 0.10042931884527206, 0.14431720972061157, 0.18154248595237732, 0.10625255107879639, 0.23086006939411163, 0.14685049653053284, 0.29959386587142944, 0.17822282016277313, 0.12397834658622742, 0.1192500963807106, 0.14113540947437286, 0.18755459785461426, 0.13557374477386475, 0.28793004155158997, 0.10520551353693008, 0.13861782848834991, 0.1260545253753662, 0.12113891541957855, 0.15975084900856018, 0.18205760419368744, 0.18347331881523132, 0.1655219942331314, 0.10591839253902435, 0.1123862937092781, 0.08701146394014359, 0.17426133155822754, 0.1828957200050354, 0.19491685926914215, 0.09330306202173233, 0.12279289215803146, 0.151265487074852, 0.1928301900625229, 0.3222544491291046, 0.16469012200832367, 0.10219233483076096, 0.1510051041841507, 0.16063742339611053, 0.16635233163833618, 0.23195330798625946, 0.16009929776191711, 0.18272395431995392, 0.13240638375282288, 0.12046882510185242, 0.28086158633232117, 0.2035699188709259, 0.1746368408203125, 0.11557276546955109, 0.12700526416301727, 0.14932096004486084, 0.22346805036067963, 0.10456637293100357, 0.10705626010894775, 0.08190148323774338, 0.0764169692993164, 0.09531792998313904, 0.0647810772061348, 0.17360569536685944, 0.1239234060049057, 0.1943577229976654, 0.16407768428325653, 0.2630923390388489, 0.2445445954799652, 0.1409214287996292, 0.11553587764501572, 0.12097842246294022, 0.21352709829807281, 0.18029005825519562, 0.1732439398765564, 0.10804784297943115, 0.09170430153608322, 0.21595291793346405, 0.33517956733703613, 0.34075063467025757, 0.2189607322216034, 0.20198164880275726, 0.1384744793176651, 0.16116543114185333, 0.19477009773254395, 0.08323052525520325, 0.24660362303256989, 0.1356218159198761, 0.17872624099254608, 0.1216793805360794, 0.1805558055639267, 0.17789803445339203, 0.34659603238105774, 0.465902179479599, 0.28236061334609985, 0.2599347233772278, 0.29700180888175964, 0.2497212439775467, 0.30056071281433105, 0.18947845697402954, 0.14246803522109985, 0.2026180773973465, 0.24466142058372498, 0.16274212300777435, 0.21546562016010284, 0.18145853281021118, 0.1582416445016861, 0.201554074883461, 0.31968510150909424, 0.21870389580726624, 0.22435255348682404, 0.2896861732006073, 0.20012736320495605, 0.17150256037712097, 0.13565146923065186, 0.11832096427679062, 0.09392738342285156, 0.11308640986680984, 0.15804700553417206, 0.18837891519069672, 0.14745812118053436, 0.18767648935317993, 0.10961957275867462, 0.3195565640926361, 0.13487958908081055, 0.1784067153930664, 0.26291826367378235, 0.2913297712802887, 0.1291404366493225, 0.11500906944274902, 0.3793445825576782, 0.38960185647010803, 0.26079365611076355, 0.42665380239486694, 0.35903823375701904, 0.3042229115962982, 0.18810351192951202, 0.18790477514266968]</t>
+          <t>[0.0858808308839798, 0.06189795210957527, 0.1291438639163971, 0.13862888514995575, 0.09851324558258057, 0.13234393298625946, 0.1220284104347229, 0.06799134612083435, 0.059139449149370193, 0.09752308577299118, 0.11514311283826828, 0.06699471920728683, 0.1734558790922165, 0.09978126734495163, 0.2643289268016815, 0.14769865572452545, 0.07270515710115433, 0.07222167402505875, 0.08028411120176315, 0.12529964745044708, 0.07836800068616867, 0.26359134912490845, 0.048431746661663055, 0.07733187079429626, 0.06900805234909058, 0.06947389245033264, 0.09401795268058777, 0.10511685162782669, 0.13921621441841125, 0.10618856549263, 0.06345730274915695, 0.05342559888958931, 0.057345885783433914, 0.1120138019323349, 0.11617391556501389, 0.12913264334201813, 0.05326232314109802, 0.06923681497573853, 0.13707870244979858, 0.11523398756980896, 0.19812743365764618, 0.08164539188146591, 0.04620066285133362, 0.07199182361364365, 0.08228159695863724, 0.10690973699092865, 0.18965288996696472, 0.13818255066871643, 0.1156192272901535, 0.08325439691543579, 0.0734715610742569, 0.21927674114704132, 0.15988817811012268, 0.16101793944835663, 0.08688560873270035, 0.10596594959497452, 0.1594100296497345, 0.20120948553085327, 0.0586886964738369, 0.057366993278265, 0.05138978362083435, 0.04667140170931816, 0.05195159837603569, 0.03658426180481911, 0.10915874689817429, 0.07095537334680557, 0.14072977006435394, 0.1190107986330986, 0.16547143459320068, 0.17972105741500854, 0.08320457488298416, 0.07782037556171417, 0.06243237480521202, 0.1209394708275795, 0.09014125913381577, 0.10385303199291229, 0.06204138323664665, 0.04502846300601959, 0.09489019215106964, 0.18332353234291077, 0.25750571489334106, 0.12515391409397125, 0.09981292486190796, 0.0720382034778595, 0.12136290967464447, 0.11957236379384995, 0.04577966779470444, 0.18881364166736603, 0.08274157345294952, 0.10163938999176025, 0.07429016381502151, 0.1230657696723938, 0.139158234000206, 0.19629190862178802, 0.38978996872901917, 0.18447034060955048, 0.1570523977279663, 0.27996495366096497, 0.20557108521461487, 0.2068403959274292, 0.0868096798658371, 0.08445892482995987, 0.15956951677799225, 0.15618187189102173, 0.08427156507968903, 0.13394038379192352, 0.14624491333961487, 0.09981036931276321, 0.14997893571853638, 0.2961864769458771, 0.18493346869945526, 0.1535755842924118, 0.2292904257774353, 0.1652606725692749, 0.12884874641895294, 0.10101481527090073, 0.09046518802642822, 0.06948342174291611, 0.06345543265342712, 0.12816599011421204, 0.14789244532585144, 0.11173969507217407, 0.09269849956035614, 0.06653518974781036, 0.3623060882091522, 0.08944638818502426, 0.09687674790620804, 0.16634725034236908, 0.12875862419605255, 0.08463346213102341, 0.07947361469268799, 0.3812750279903412, 0.3998713791370392, 0.21476474404335022, 0.35038578510284424, 0.2887142300605774, 0.22040347754955292, 0.12759484350681305, 0.12743358314037323]</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.465902179479599</v>
+        <v>0.3998713791370392</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.8060607000079472</v>
+        <v>0.7921669999923324</v>
       </c>
       <c r="J68" t="n">
-        <v>0.005798997841783792</v>
+        <v>0.005699043165412463</v>
       </c>
     </row>
     <row r="69">
@@ -3285,11 +3285,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[0.2103632539510727, 0.157118022441864, 0.23379075527191162, 0.16884693503379822, 0.13856568932533264, 0.169634148478508, 0.14096614718437195, 0.10790862143039703, 0.11228283494710922, 0.16861695051193237, 0.17699475586414337, 0.20387347042560577, 0.21199136972427368, 0.269265741109848, 0.3049044907093048, 0.3129347860813141, 0.17152786254882812, 0.3848074674606323, 0.1307060569524765, 0.18581615388393402, 0.0975722000002861, 0.1259821355342865, 0.13896840810775757, 0.18176262080669403, 0.21258865296840668, 0.12436562031507492, 0.1364356130361557, 0.09918040037155151, 0.11759034544229507, 0.1527647227048874, 0.24261505901813507, 0.27217862010002136, 0.1378599852323532, 0.22322486340999603, 0.11012907326221466, 0.1150256097316742, 0.09030747413635254, 0.07869840413331985, 0.1660647988319397, 0.2874591648578644, 0.19867751002311707, 0.12211337685585022, 0.33926859498023987, 0.2204495072364807, 0.2101566642522812, 0.345239520072937, 0.29221969842910767, 0.2573864758014679, 0.27531030774116516, 0.33009180426597595, 0.22605657577514648, 0.19334016740322113, 0.26168715953826904, 0.45781928300857544, 0.2296362966299057, 0.11482709646224976, 0.13618437945842743, 0.2629144787788391, 0.1762409210205078, 0.22743584215641022, 0.3130732774734497, 0.28262174129486084, 0.37580180168151855, 0.4313257336616516, 0.5665802359580994, 0.21504685282707214, 0.3630363643169403, 0.6820664405822754, 0.26823848485946655, 0.30827096104621887, 0.28237029910087585, 0.36362317204475403, 0.2600719928741455, 0.2727709114551544, 0.34478920698165894, 0.3579147756099701, 0.3635559678077698, 0.26587238907814026, 0.24729463458061218, 0.3580532371997833, 0.4134715497493744, 0.5265412330627441, 0.27367720007896423, 0.4214482605457306, 0.2609740197658539, 0.33941057324409485, 0.4459769129753113, 0.5124161839485168, 0.34237658977508545, 0.21459737420082092, 0.31478455662727356, 0.15937119722366333, 0.27802515029907227, 0.24268804490566254, 0.17228417098522186, 0.1707959920167923, 0.2078486979007721, 0.1962231993675232, 0.39407727122306824, 0.23853592574596405, 0.27906686067581177, 0.3529207408428192, 0.2163608968257904, 0.1750597357749939, 0.16568534076213837, 0.14798136055469513, 0.2483893483877182, 0.24510134756565094, 0.21552492678165436, 0.2076113224029541, 0.36211466789245605, 0.15471363067626953, 0.37315860390663147, 0.4857563078403473, 0.42673397064208984, 0.21547077596187592, 0.2638426125049591, 0.23523017764091492, 0.23052924871444702, 0.20515026152133942, 0.2008448839187622, 0.10464536398649216, 0.0950610339641571, 0.25251901149749756, 0.2366882562637329, 0.4450666010379791, 0.24760863184928894, 0.18841004371643066, 0.3653460443019867, 0.17585672438144684, 0.21095696091651917, 0.3186212182044983, 0.47791850566864014, 0.45537257194519043, 0.3373624384403229, 0.49692580103874207, 0.3302064836025238, 0.5896339416503906, 0.44314026832580566, 0.4440610408782959]</t>
+          <t>[0.21910551190376282, 0.14194943010807037, 0.2602020502090454, 0.13911141455173492, 0.11302230507135391, 0.12443235516548157, 0.09872521460056305, 0.08056291192770004, 0.07759043574333191, 0.12653473019599915, 0.13761799037456512, 0.15453945100307465, 0.13661278784275055, 0.2772426903247833, 0.15702129900455475, 0.2534283697605133, 0.11471854150295258, 0.30393266677856445, 0.09649517387151718, 0.1323603391647339, 0.06901531666517258, 0.10745924711227417, 0.10028964281082153, 0.13542068004608154, 0.16491509974002838, 0.07463956624269485, 0.09063539654016495, 0.06242584064602852, 0.07844299077987671, 0.12277393043041229, 0.18105345964431763, 0.22534964978694916, 0.06203322485089302, 0.15025027096271515, 0.05016123875975609, 0.06188247725367546, 0.06761471182107925, 0.045948050916194916, 0.14153409004211426, 0.2581752836704254, 0.1515766829252243, 0.07713891565799713, 0.2572627067565918, 0.1923743635416031, 0.19396834075450897, 0.4082622230052948, 0.22798913717269897, 0.18121179938316345, 0.15622453391551971, 0.31845611333847046, 0.13171304762363434, 0.10573362559080124, 0.12030982226133347, 0.28327855467796326, 0.1315963715314865, 0.050201982259750366, 0.0605623759329319, 0.15864692628383636, 0.10518203675746918, 0.13307663798332214, 0.21183635294437408, 0.2929341197013855, 0.3270855247974396, 0.4060056209564209, 0.6125451922416687, 0.19871565699577332, 0.3471430242061615, 0.675367534160614, 0.25100114941596985, 0.33071011304855347, 0.2423514872789383, 0.289023756980896, 0.19570627808570862, 0.2265116274356842, 0.2737080156803131, 0.3651500642299652, 0.24870234727859497, 0.12581409513950348, 0.1189844161272049, 0.2684626281261444, 0.2509014904499054, 0.28646835684776306, 0.1822645515203476, 0.3341509699821472, 0.17688633501529694, 0.25902673602104187, 0.36912617087364197, 0.46158891916275024, 0.32276010513305664, 0.14217683672904968, 0.21133118867874146, 0.08663233369588852, 0.13489072024822235, 0.098796546459198, 0.07033786177635193, 0.06376010924577713, 0.06464458256959915, 0.07428742200136185, 0.24449774622917175, 0.11840717494487762, 0.19846074283123016, 0.25790780782699585, 0.13725575804710388, 0.09621663391590118, 0.09281475841999054, 0.07850604504346848, 0.13301636278629303, 0.154087096452713, 0.1963874250650406, 0.1576978713274002, 0.32767486572265625, 0.0641784518957138, 0.28215810656547546, 0.38677161931991577, 0.22163476049900055, 0.0815775990486145, 0.14352412521839142, 0.1381729543209076, 0.14378833770751953, 0.1414642482995987, 0.10557103902101517, 0.04663608968257904, 0.03860709071159363, 0.16761238873004913, 0.12546151876449585, 0.33173564076423645, 0.1476985216140747, 0.09133351594209671, 0.322437047958374, 0.09700722247362137, 0.1328524798154831, 0.267263263463974, 0.5555445551872253, 0.40009376406669617, 0.2656005024909973, 0.5091265439987183, 0.2709963619709015, 0.6488457918167114, 0.37473800778388977, 0.37528690695762634]</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.6820664405822754</v>
+        <v>0.675367534160614</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -3303,10 +3303,10 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0.8026839000231121</v>
+        <v>0.8042695999902207</v>
       </c>
       <c r="J69" t="n">
-        <v>0.005733456428736515</v>
+        <v>0.005744782857073005</v>
       </c>
     </row>
     <row r="70">
@@ -3325,11 +3325,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[0.19059105217456818, 0.38538941740989685, 0.27453094720840454, 0.3326058089733124, 0.5222877860069275, 0.1668149083852768, 0.13232335448265076, 0.12687429785728455, 0.14250460267066956, 0.11657527834177017, 0.2575923204421997, 0.3052625358104706, 0.13785654306411743, 0.320954829454422, 0.19569268822669983, 0.2353958636522293, 0.1686265468597412, 0.2988912761211395, 0.15640099346637726, 0.3026104271411896, 0.3230162262916565, 0.3008979856967926, 0.16581474244594574, 0.16098199784755707, 0.1382998824119568, 0.3109583258628845, 0.2356218695640564, 0.22799690067768097, 0.1590002477169037, 0.22289440035820007, 0.22805558145046234, 0.12879936397075653, 0.19392818212509155, 0.12540818750858307, 0.09208092838525772, 0.1398959904909134, 0.2659841775894165, 0.1318112462759018, 0.16417478024959564, 0.3908974826335907, 0.3373330235481262, 0.15911325812339783, 0.21321439743041992, 0.37799587845802307, 0.5611138939857483, 0.48345956206321716, 0.323457807302475, 0.2556664049625397, 0.5403096675872803, 0.41850411891937256, 0.26134738326072693, 0.13493798673152924, 0.22701503336429596, 0.24510858952999115, 0.22537800669670105, 0.22154054045677185, 0.2537383735179901, 0.2774750888347626, 0.14151403307914734, 0.14121286571025848, 0.2552536427974701, 0.24146565794944763, 0.27174049615859985, 0.2601930499076843, 0.20419128239154816, 0.19837237894535065, 0.24852344393730164, 0.4160914719104767, 0.42692652344703674, 0.32405269145965576, 0.37352555990219116, 0.48560279607772827, 0.23355191946029663, 0.36805638670921326, 0.46972933411598206, 0.4897279441356659, 0.3849945664405823, 0.5240037441253662, 0.28243187069892883, 0.12933020293712616, 0.20138685405254364, 0.21844424307346344, 0.1997908353805542, 0.19517728686332703, 0.19441628456115723, 0.1341494470834732, 0.2868104875087738, 0.11261879652738571, 0.1245589479804039, 0.17115873098373413, 0.22382010519504547, 0.29447123408317566, 0.16889695823192596, 0.11320886015892029, 0.13122358918190002, 0.16994406282901764, 0.15276263654232025, 0.20048965513706207, 0.12171518057584763, 0.1157940998673439, 0.19293212890625, 0.0781780481338501, 0.18447023630142212, 0.3089674711227417, 0.3647609055042267, 0.5824291706085205, 0.49665531516075134, 0.2649018168449402, 0.2397388517856598, 0.3854675590991974, 0.31329983472824097, 0.324566125869751, 0.39443597197532654, 0.5052283406257629, 0.4887342154979706, 0.1747257262468338, 0.6060453057289124, 0.42155033349990845, 0.29193010926246643, 0.11163651198148727, 0.6323975920677185, 0.8887549638748169, 0.7980724573135376, 0.6479960083961487, 0.7668344974517822, 0.6201841831207275, 0.7234587073326111, 0.41091758012771606, 0.30441778898239136, 0.3546738624572754, 0.174855574965477, 0.14741742610931396, 0.22348976135253906, 0.14156614243984222, 0.1838131546974182, 0.15115997195243835, 0.2726772427558899, 0.2202613800764084, 0.3154102861881256, 0.3148813843727112]</t>
+          <t>[0.17467990517616272, 0.5096924304962158, 0.22738966345787048, 0.3484981656074524, 0.48631778359413147, 0.12351759523153305, 0.09736452996730804, 0.09831526130437851, 0.14335572719573975, 0.15636411309242249, 0.26929154992103577, 0.2974725365638733, 0.065656878054142, 0.3486330509185791, 0.11731819808483124, 0.19174537062644958, 0.11512867361307144, 0.23868344724178314, 0.09106404334306717, 0.3156628906726837, 0.37492120265960693, 0.4500441253185272, 0.24547013640403748, 0.16973213851451874, 0.10592243820428848, 0.26528996229171753, 0.22694359719753265, 0.16122664511203766, 0.15045353770256042, 0.2945874333381653, 0.26558196544647217, 0.10043639689683914, 0.15414823591709137, 0.09902910888195038, 0.10866859555244446, 0.18048420548439026, 0.2443578690290451, 0.10942402482032776, 0.13726985454559326, 0.39602816104888916, 0.3789180517196655, 0.12774834036827087, 0.2053108811378479, 0.5523518323898315, 0.7048109769821167, 0.6532776951789856, 0.4519619345664978, 0.39029985666275024, 0.7136911153793335, 0.4426978826522827, 0.23646315932273865, 0.1543002873659134, 0.2938324809074402, 0.3083178997039795, 0.2698008120059967, 0.2844686508178711, 0.32080599665641785, 0.37915313243865967, 0.17686055600643158, 0.14644232392311096, 0.34068748354911804, 0.2383193075656891, 0.34632399678230286, 0.4195918142795563, 0.2773987650871277, 0.2586303949356079, 0.33031773567199707, 0.6052074432373047, 0.6168005466461182, 0.4167134761810303, 0.5474697947502136, 0.6404104232788086, 0.32160481810569763, 0.4376520812511444, 0.4987073838710785, 0.5382958650588989, 0.3535292148590088, 0.5608170032501221, 0.32028815150260925, 0.10689764469861984, 0.1582225114107132, 0.2204376757144928, 0.2685503661632538, 0.1423921138048172, 0.18604449927806854, 0.1250385344028473, 0.3589532673358917, 0.11320436000823975, 0.1271948367357254, 0.1367286592721939, 0.20080894231796265, 0.21532227098941803, 0.12028089910745621, 0.09543075412511826, 0.11553307622671127, 0.12813805043697357, 0.12385006994009018, 0.2036537379026413, 0.12327492237091064, 0.10889166593551636, 0.1661015748977661, 0.06167956069111824, 0.14130236208438873, 0.26319420337677, 0.2474927008152008, 0.5218926668167114, 0.5333457589149475, 0.2033650428056717, 0.2435246855020523, 0.4130670726299286, 0.31336867809295654, 0.32080748677253723, 0.47034162282943726, 0.6609470844268799, 0.6635645627975464, 0.18362654745578766, 0.5500447154045105, 0.49582526087760925, 0.18365421891212463, 0.09297680854797363, 0.7391105890274048, 0.9303336143493652, 0.851023256778717, 0.682491660118103, 0.8073770403862, 0.7100359797477722, 0.8143837451934814, 0.30128195881843567, 0.1835653930902481, 0.24795261025428772, 0.12320247292518616, 0.07331092655658722, 0.1515260934829712, 0.07747279852628708, 0.1847836822271347, 0.08303993195295334, 0.20850953459739685, 0.1735788732767105, 0.2992091178894043, 0.2989749610424042]</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.8887549638748169</v>
+        <v>0.9303336143493652</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0.8066700000199489</v>
+        <v>0.801207999989856</v>
       </c>
       <c r="J70" t="n">
-        <v>0.005761928571571063</v>
+        <v>0.005722914285641829</v>
       </c>
     </row>
     <row r="71">
@@ -3365,11 +3365,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[0.07778788357973099, 0.10071469843387604, 0.1292341649532318, 0.11153697222471237, 0.1402478963136673, 0.07759451866149902, 0.07721488177776337, 0.16268567740917206, 0.08406201750040054, 0.08974286913871765, 0.13676448166370392, 0.13078191876411438, 0.0698833018541336, 0.10443365573883057, 0.10558134317398071, 0.10446867346763611, 0.1838919222354889, 0.0834096372127533, 0.14817792177200317, 0.09110864996910095, 0.06564467400312424, 0.054087091237306595, 0.07927688211202621, 0.07263103872537613, 0.08707476407289505, 0.08746495097875595, 0.07053020596504211, 0.060945019125938416, 0.07664161920547485, 0.07441914081573486, 0.054971951991319656, 0.06524412333965302, 0.0734429657459259, 0.13593299686908722, 0.074302539229393, 0.09003762155771255, 0.0667300596833229, 0.08631255477666855, 0.06796027719974518, 0.054150622338056564, 0.03818163648247719, 0.07179848104715347, 0.06417860835790634, 0.05310999974608421, 0.04796454682946205, 0.04173016920685768, 0.024221334606409073, 0.05238041654229164, 0.06412146240472794, 0.07913275063037872, 0.07049257308244705, 0.08573310077190399, 0.11584834009408951, 0.07129310816526413, 0.08596513420343399, 0.06442635506391525, 0.0631701648235321, 0.05500585585832596, 0.08645060658454895, 0.14774979650974274, 0.09983450174331665, 0.25553181767463684, 0.2274586260318756, 0.2626696527004242, 0.10676348209381104, 0.1242809072136879, 0.14023561775684357, 0.08611280471086502, 0.12703046202659607, 0.14417478442192078, 0.0849175974726677, 0.034411974251270294, 0.06693200021982193, 0.05855932459235191, 0.04138663783669472, 0.077412448823452, 0.07354535162448883, 0.05483364686369896, 0.07679769396781921, 0.07401140034198761, 0.04655570909380913, 0.0688854455947876, 0.04850868135690689, 0.032667603343725204, 0.059993673115968704, 0.09998782724142075, 0.056494154036045074, 0.06217406690120697, 0.05477456375956535, 0.03376781940460205, 0.032468706369400024, 0.04244183376431465, 0.05064062029123306, 0.1052805483341217, 0.16687743365764618, 0.04680672660470009, 0.07246720045804977, 0.04404939338564873, 0.10440190136432648, 0.11637025326490402, 0.12575630843639374, 0.0540115088224411, 0.13417479395866394, 0.11454077064990997, 0.1542036235332489, 0.10081147402524948, 0.06730044633150101, 0.09217074513435364, 0.08253666758537292, 0.06652455031871796, 0.2068358212709427, 0.13214832544326782, 0.26071134209632874, 0.16645106673240662, 0.08239486813545227, 0.07327556610107422, 0.0655638575553894, 0.07129505276679993, 0.05889972299337387, 0.07398999482393265, 0.08738386631011963, 0.10781451314687729, 0.088895283639431, 0.12194251269102097, 0.11130034178495407, 0.08792956173419952, 0.07899000495672226, 0.04261697456240654, 0.06192094832658768, 0.08777063339948654, 0.11008713394403458, 0.10298926383256912, 0.10221865028142929, 0.07300487160682678, 0.0903017595410347, 0.0586031898856163, 0.07688222080469131, 0.11805444955825806, 0.11811637878417969]</t>
+          <t>[0.06539266556501389, 0.11725297570228577, 0.15066057443618774, 0.10652296245098114, 0.15807828307151794, 0.07939857989549637, 0.071689173579216, 0.1568353921175003, 0.10646615922451019, 0.07682138681411743, 0.13937994837760925, 0.1429133266210556, 0.05936348810791969, 0.08098636567592621, 0.09779012948274612, 0.09163526445627213, 0.2166009247303009, 0.08607539534568787, 0.14818136394023895, 0.06633975356817245, 0.050482127815485, 0.03622731566429138, 0.078628771007061, 0.06718945503234863, 0.0633586049079895, 0.06157601997256279, 0.055026825517416, 0.0532660074532032, 0.06720633059740067, 0.0751100555062294, 0.05303836241364479, 0.046791039407253265, 0.0658540204167366, 0.1581742912530899, 0.06428312510251999, 0.09724113345146179, 0.04242274537682533, 0.07613071799278259, 0.04615701362490654, 0.04218298941850662, 0.027009597048163414, 0.08422524482011795, 0.07295933365821838, 0.04813336208462715, 0.03662523254752159, 0.0382782407104969, 0.01591823250055313, 0.04918070137500763, 0.06413658708333969, 0.09339547902345657, 0.06659524142742157, 0.09695515036582947, 0.13954578340053558, 0.08890902996063232, 0.11613751947879791, 0.057062480598688126, 0.06794476509094238, 0.041803304105997086, 0.08569400757551193, 0.16539199650287628, 0.09346898645162582, 0.36829954385757446, 0.36574116349220276, 0.4854034185409546, 0.19293935596942902, 0.1862993985414505, 0.20479710400104523, 0.08304578810930252, 0.11816751211881638, 0.11248134821653366, 0.09040915966033936, 0.032120004296302795, 0.058409806340932846, 0.04523753747344017, 0.030497202649712563, 0.04805649816989899, 0.053247347474098206, 0.032398954033851624, 0.05164007470011711, 0.05614733323454857, 0.031258463859558105, 0.065583735704422, 0.03992261737585068, 0.027333231642842293, 0.05128471553325653, 0.14329834282398224, 0.053913623094558716, 0.05074175447225571, 0.04306904226541519, 0.026252156123518944, 0.027940746396780014, 0.03266436606645584, 0.05177881941199303, 0.12745366990566254, 0.21543638408184052, 0.04562213644385338, 0.07339992374181747, 0.030689246952533722, 0.11612461507320404, 0.17964129149913788, 0.11363685876131058, 0.032771673053503036, 0.1139923632144928, 0.09390392899513245, 0.15345311164855957, 0.08981119096279144, 0.04872308298945427, 0.06426731497049332, 0.07907470315694809, 0.06341356784105301, 0.19812995195388794, 0.15032529830932617, 0.35791414976119995, 0.18968522548675537, 0.1135559231042862, 0.05638914927840233, 0.05530641973018646, 0.08841755986213684, 0.04446426406502724, 0.061295680701732635, 0.10075370222330093, 0.10324301570653915, 0.07619231939315796, 0.09556069225072861, 0.11307868361473083, 0.09186805039644241, 0.0858607366681099, 0.033732637763023376, 0.047109901905059814, 0.06717289984226227, 0.11212451756000519, 0.13054078817367554, 0.09294881671667099, 0.06642241030931473, 0.08112674951553345, 0.0535578727722168, 0.054818227887153625, 0.09926386177539825, 0.09933663159608841]</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.2626696527004242</v>
+        <v>0.4854034185409546</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -3383,10 +3383,10 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0.7958890000008978</v>
+        <v>0.798972100004903</v>
       </c>
       <c r="J71" t="n">
-        <v>0.005725820143891351</v>
+        <v>0.005748000719459734</v>
       </c>
     </row>
     <row r="72">
@@ -3405,11 +3405,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>[0.07341981679201126, 0.07015383243560791, 0.08296026289463043, 0.06122137978672981, 0.11558905243873596, 0.1389685571193695, 0.08065562695264816, 0.09137789905071259, 0.08023720979690552, 0.07542330771684647, 0.051880769431591034, 0.0732760950922966, 0.05131062492728233, 0.06536401063203812, 0.08097954839468002, 0.0723225548863411, 0.06385397911071777, 0.0998961552977562, 0.12570424377918243, 0.1436549574136734, 0.14130185544490814, 0.06448028981685638, 0.0827963799238205, 0.0580102875828743, 0.041739512234926224, 0.06663571298122406, 0.09367012977600098, 0.07793012261390686, 0.07284895330667496, 0.06711427122354507, 0.0914640873670578, 0.16050708293914795, 0.157063290476799, 0.08078904449939728, 0.10107968002557755, 0.12883725762367249, 0.23128271102905273, 0.16287602484226227, 0.1506561040878296, 0.1590067744255066, 0.12061306834220886, 0.14099864661693573, 0.24367982149124146, 0.1750791221857071, 0.11725243180990219, 0.08628151565790176, 0.07545220851898193, 0.10883375257253647, 0.1011403277516365, 0.0746222734451294, 0.13205868005752563, 0.1608208566904068, 0.18673670291900635, 0.07778278738260269, 0.06043992564082146, 0.11684048920869827, 0.18598835170269012, 0.0900614932179451, 0.08871349692344666, 0.09548116475343704, 0.07381527870893478, 0.04672450199723244, 0.03591829165816307, 0.12398706376552582, 0.1977827250957489, 0.17291860282421112, 0.16505704820156097, 0.31410127878189087, 0.19010905921459198, 0.14044129848480225, 0.2460757941007614, 0.16076014935970306, 0.19529572129249573, 0.17258428037166595, 0.13885092735290527, 0.08367834240198135, 0.12789815664291382, 0.10205765813589096, 0.2664477527141571, 0.13459588587284088, 0.12375357002019882, 0.10948321223258972, 0.22280971705913544, 0.09712047874927521, 0.12590773403644562, 0.12369522452354431, 0.1119774729013443, 0.15605947375297546, 0.19792570173740387, 0.07070895284414291, 0.18800874054431915, 0.08228793740272522, 0.16646288335323334, 0.1658516526222229, 0.20017528533935547, 0.2858826816082001, 0.33809077739715576, 0.43275928497314453, 0.32891160249710083, 0.36772358417510986, 0.2576660215854645, 0.30139508843421936, 0.18214917182922363, 0.13528130948543549, 0.2442733347415924, 0.18750359117984772, 0.16227206587791443, 0.22804585099220276, 0.36954423785209656, 0.4676523506641388, 0.2866431176662445, 0.1968892216682434, 0.2043968141078949, 0.24963709712028503, 0.10836364328861237, 0.06265880167484283, 0.09702885895967484, 0.259430468082428, 0.3248896598815918, 0.24677212536334991, 0.2617538273334503, 0.18237492442131042, 0.09637375175952911, 0.07876771688461304, 0.1098555400967598, 0.2505473494529724, 0.09778815507888794, 0.048299215734004974, 0.06052034720778465, 0.06689521670341492, 0.07439863681793213, 0.06892639398574829, 0.046416740864515305, 0.05581970140337944, 0.08227745443582535, 0.07969609647989273, 0.07352634519338608, 0.06777039170265198, 0.06753164529800415]</t>
+          <t>[0.0258313100785017, 0.0330754853785038, 0.036033570766448975, 0.02373672090470791, 0.07193909585475922, 0.07358741015195847, 0.026138169690966606, 0.04180555418133736, 0.035931024700403214, 0.051940202713012695, 0.023530930280685425, 0.043848901987075806, 0.01878221519291401, 0.027040284126996994, 0.033450089395046234, 0.034122563898563385, 0.023759713396430016, 0.061341580003499985, 0.08045759797096252, 0.08316812664270401, 0.07651443779468536, 0.02775704488158226, 0.03368644416332245, 0.020191073417663574, 0.012872585095465183, 0.028787244111299515, 0.0309123732149601, 0.031668804585933685, 0.03153589740395546, 0.027727102860808372, 0.036820366978645325, 0.0687694326043129, 0.060892071574926376, 0.04067372903227806, 0.044142309576272964, 0.06190832704305649, 0.1396758258342743, 0.06855141371488571, 0.08479634672403336, 0.08543592691421509, 0.072865791618824, 0.06762123107910156, 0.13817989826202393, 0.09452423453330994, 0.052744340151548386, 0.0429006889462471, 0.029641160741448402, 0.04638596996665001, 0.03655704855918884, 0.044519226998090744, 0.0694766715168953, 0.14002005755901337, 0.12366446107625961, 0.028575891628861427, 0.02955174446105957, 0.06089119613170624, 0.12605628371238708, 0.030447809025645256, 0.028334999457001686, 0.026932941749691963, 0.018573226407170296, 0.014196022413671017, 0.015056412667036057, 0.0808509811758995, 0.09530897438526154, 0.10033164173364639, 0.0785083994269371, 0.1506064236164093, 0.10068436712026596, 0.06579500436782837, 0.1420116424560547, 0.04994433745741844, 0.07671406865119934, 0.09460979700088501, 0.058515824377536774, 0.03609688952565193, 0.06839051842689514, 0.05781830474734306, 0.15317468345165253, 0.07106778025627136, 0.08507484197616577, 0.08935685455799103, 0.19355621933937073, 0.04503259062767029, 0.06263330578804016, 0.08566487580537796, 0.04599829763174057, 0.11020167917013168, 0.17134399712085724, 0.030155066400766373, 0.08910399675369263, 0.03908234462141991, 0.10386236011981964, 0.1166987195611, 0.1912989467382431, 0.3236072063446045, 0.23013021051883698, 0.2648177146911621, 0.21328239142894745, 0.34886106848716736, 0.19938163459300995, 0.28135761618614197, 0.11700601130723953, 0.06340263783931732, 0.15905386209487915, 0.10115837305784225, 0.08851291239261627, 0.15356509387493134, 0.2660617530345917, 0.3805081844329834, 0.15939152240753174, 0.12505687773227692, 0.10933132469654083, 0.11059912294149399, 0.03574475646018982, 0.022278383374214172, 0.039681192487478256, 0.16650716960430145, 0.20902055501937866, 0.11188174784183502, 0.09653585404157639, 0.06117034703493118, 0.037629127502441406, 0.02312886156141758, 0.04617283493280411, 0.1583208292722702, 0.03356357291340828, 0.013630199246108532, 0.01768781803548336, 0.01960495486855507, 0.023703284561634064, 0.02762361615896225, 0.016644852235913277, 0.022777188569307327, 0.030129000544548035, 0.027392840012907982, 0.025761600583791733, 0.026927780359983444, 0.026806561276316643]</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.4676523506641388</v>
+        <v>0.3805081844329834</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0.7983422000252176</v>
+        <v>0.8029264000069816</v>
       </c>
       <c r="J72" t="n">
-        <v>0.005743469064929623</v>
+        <v>0.005776448920913536</v>
       </c>
     </row>
     <row r="73">
@@ -3445,11 +3445,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[0.4060049057006836, 0.3907795548439026, 0.4403565526008606, 0.44158056378364563, 0.23523586988449097, 0.35605373978614807, 0.37760818004608154, 0.3848808705806732, 0.45754432678222656, 0.5971525311470032, 0.566804826259613, 0.6102064847946167, 0.48331743478775024, 0.193757563829422, 0.3185473680496216, 0.22216470539569855, 0.3488742411136627, 0.29250046610832214, 0.2635224461555481, 0.3282700181007385, 0.37600788474082947, 0.8047705292701721, 0.5263789892196655, 0.3255498707294464, 0.2679569721221924, 0.3214273750782013, 0.36679643392562866, 0.4546279013156891, 0.5178809762001038, 0.575340211391449, 0.7026270627975464, 0.28134652972221375, 0.3945678174495697, 0.5091825723648071, 0.142469123005867, 0.2627299129962921, 0.23231768608093262, 0.4385806620121002, 0.4219875931739807, 0.23471933603286743, 0.15365181863307953, 0.14117535948753357, 0.16159507632255554, 0.1648673266172409, 0.39465001225471497, 0.18237127363681793, 0.18018124997615814, 0.2515127956867218, 0.2577919661998749, 0.187557652592659, 0.20288749039173126, 0.6514344215393066, 0.5486096739768982, 0.2779025435447693, 0.17237171530723572, 0.16354241967201233, 0.1663523018360138, 0.19879649579524994, 0.36167970299720764, 0.1406879723072052, 0.11493821442127228, 0.3363604247570038, 0.20103371143341064, 0.3215464651584625, 0.35867974162101746, 0.23676742613315582, 0.19632428884506226, 0.36227378249168396, 0.22124092280864716, 0.24522332847118378, 0.21861453354358673, 0.17749981582164764, 0.23627984523773193, 0.22578425705432892, 0.15368260443210602, 0.1763710081577301, 0.2633804976940155, 0.310573011636734, 0.49034783244132996, 0.6044051051139832, 0.5087814927101135, 0.3077644109725952, 0.38615182042121887, 0.24072138965129852, 0.37649574875831604, 0.24221232533454895, 0.12172439694404602, 0.2064003050327301, 0.354125052690506, 0.2523101568222046, 0.24553567171096802, 0.3027183711528778, 0.3152996003627777, 0.5823212265968323, 0.17979905009269714, 0.45817673206329346, 0.36708736419677734, 0.33953121304512024, 0.3683156669139862, 0.37584343552589417, 0.3270195424556732, 0.2056136429309845, 0.23675093054771423, 0.25324490666389465, 0.2629146873950958, 0.2617264688014984, 0.27787819504737854, 0.2213023155927658, 0.1572718471288681, 0.2676035761833191, 0.5125705599784851, 0.48171818256378174, 0.37512561678886414, 0.3544631004333496, 0.18770308792591095, 0.5212929248809814, 0.43188804388046265, 0.6310726404190063, 0.33783668279647827, 0.5624796152114868, 0.3384091258049011, 0.4937426447868347, 0.44882214069366455, 0.3890117406845093, 0.284246563911438, 0.2232605367898941, 0.442077100276947, 0.5148857235908508, 0.2832184433937073, 0.366798460483551, 0.16304151713848114, 0.36162102222442627, 0.3842349946498871, 0.3541877567768097, 0.4145561456680298, 0.3813643455505371, 0.3544580340385437, 0.2840171456336975, 0.28493383526802063]</t>
+          <t>[0.2045404314994812, 0.30235517024993896, 0.4234333038330078, 0.44452035427093506, 0.18990649282932281, 0.299371600151062, 0.42633724212646484, 0.45608943700790405, 0.5567426085472107, 0.6873021721839905, 0.6530800461769104, 0.6432604193687439, 0.4020693302154541, 0.11026007682085037, 0.20851406455039978, 0.1560254991054535, 0.3970867097377777, 0.22036881744861603, 0.2112075388431549, 0.23906590044498444, 0.37306973338127136, 0.7968133091926575, 0.5588283538818359, 0.3615122139453888, 0.20055919885635376, 0.2724977731704712, 0.40770861506462097, 0.35739871859550476, 0.6076940298080444, 0.592982828617096, 0.722985029220581, 0.23229949176311493, 0.343045175075531, 0.47918713092803955, 0.11357172578573227, 0.23012883961200714, 0.23817846179008484, 0.4528011977672577, 0.3014325797557831, 0.1598311811685562, 0.09997110068798065, 0.10244247317314148, 0.09809847921133041, 0.10975589603185654, 0.30169424414634705, 0.10629206895828247, 0.10220023989677429, 0.18035249412059784, 0.1908852905035019, 0.10170312970876694, 0.15805669128894806, 0.5822099447250366, 0.4913443624973297, 0.2906185984611511, 0.1461760401725769, 0.12802626192569733, 0.11637777835130692, 0.16098739206790924, 0.3778449594974518, 0.0915825217962265, 0.08761251717805862, 0.26096248626708984, 0.13741999864578247, 0.2789718806743622, 0.32171955704689026, 0.14284946024417877, 0.1270206719636917, 0.2715570330619812, 0.16548146307468414, 0.19259251654148102, 0.19764557480812073, 0.152545765042305, 0.2088002860546112, 0.23499590158462524, 0.14940278232097626, 0.15926863253116608, 0.20283517241477966, 0.25629061460494995, 0.4761792719364166, 0.4600379765033722, 0.33513322472572327, 0.20778363943099976, 0.2652667164802551, 0.12923002243041992, 0.23224109411239624, 0.2397162914276123, 0.1022118553519249, 0.1429225653409958, 0.25810617208480835, 0.15494117140769958, 0.1345963031053543, 0.2507868707180023, 0.2720794677734375, 0.5211089849472046, 0.11074437201023102, 0.35398241877555847, 0.2906803488731384, 0.20579521358013153, 0.2584154009819031, 0.3482242226600647, 0.2627331614494324, 0.10441246628761292, 0.1296238899230957, 0.17481185495853424, 0.17915168404579163, 0.17222116887569427, 0.25296083092689514, 0.18409425020217896, 0.15908022224903107, 0.23942871391773224, 0.4778115749359131, 0.45615607500076294, 0.2867668867111206, 0.3236071765422821, 0.132618710398674, 0.4217880666255951, 0.3374800682067871, 0.7547371983528137, 0.37579619884490967, 0.6424723863601685, 0.39028045535087585, 0.5691428780555725, 0.4601249396800995, 0.40778082609176636, 0.27346479892730713, 0.16372090578079224, 0.47758039832115173, 0.5695348978042603, 0.19717225432395935, 0.364196240901947, 0.1229596808552742, 0.34872567653656006, 0.36554741859436035, 0.2755092978477478, 0.42679235339164734, 0.4224558174610138, 0.3784356713294983, 0.3040367662906647, 0.30490681529045105]</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.8047705292701721</v>
+        <v>0.7968133091926575</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -3463,10 +3463,10 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0.7969635000044946</v>
+        <v>0.7991343000030611</v>
       </c>
       <c r="J73" t="n">
-        <v>0.005733550359744565</v>
+        <v>0.005749167625921303</v>
       </c>
     </row>
     <row r="74">
@@ -3485,11 +3485,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[0.30237647891044617, 0.33388108015060425, 0.20753037929534912, 0.3251321613788605, 0.22944232821464539, 0.1939632147550583, 0.4447638988494873, 0.3726953864097595, 0.17174452543258667, 0.30092188715934753, 0.20162947475910187, 0.16211022436618805, 0.11779370903968811, 0.253473162651062, 0.34441468119621277, 0.410185307264328, 0.3469006419181824, 0.3309578001499176, 0.29984888434410095, 0.44646716117858887, 0.2548776865005493, 0.3090902268886566, 0.32829901576042175, 0.5381136536598206, 0.5235201120376587, 0.13586215674877167, 0.20757688581943512, 0.2543286979198456, 0.17448502779006958, 0.22490191459655762, 0.2820863127708435, 0.21826356649398804, 0.1954522579908371, 0.30696964263916016, 0.21822760999202728, 0.19862186908721924, 0.12819647789001465, 0.18249686062335968, 0.5924331545829773, 0.438443660736084, 0.2454228550195694, 0.2901541292667389, 0.19177556037902832, 0.27778804302215576, 0.1871289163827896, 0.169340580701828, 0.2126196026802063, 0.31251049041748047, 0.18021860718727112, 0.23114615678787231, 0.26427194476127625, 0.2130626142024994, 0.14091156423091888, 0.06264849007129669, 0.07641848921775818, 0.1420077681541443, 0.06325193494558334, 0.09996200352907181, 0.22162380814552307, 0.14654850959777832, 0.1076340302824974, 0.10825575143098831, 0.05602981150150299, 0.09788154810667038, 0.04934917017817497, 0.06692799925804138, 0.07694852352142334, 0.05510289967060089, 0.03232552111148834, 0.02931634709239006, 0.04524707794189453, 0.08527716994285583, 0.09655490517616272, 0.0633838027715683, 0.04573407396674156, 0.05762855336070061, 0.057341158390045166, 0.06620572507381439, 0.06722379475831985, 0.05302310362458229, 0.0589185431599617, 0.05223390460014343, 0.03160560503602028, 0.043850138783454895, 0.06689605116844177, 0.09090970456600189, 0.06692410260438919, 0.11963700503110886, 0.04639611393213272, 0.06429343670606613, 0.03216918557882309, 0.055772244930267334, 0.0436527244746685, 0.06729689985513687, 0.0918777734041214, 0.29816511273384094, 0.13832253217697144, 0.35139545798301697, 0.24102061986923218, 0.5183517932891846, 0.6310641765594482, 0.7603874206542969, 0.6752899289131165, 0.6698777079582214, 0.35078707337379456, 0.6044209003448486, 0.5654698014259338, 0.5433827638626099, 0.4691074788570404, 0.6259240508079529, 0.3565632402896881, 0.39649057388305664, 0.3489494025707245, 0.4394228160381317, 0.38143444061279297, 0.6051925420761108, 0.7589680552482605, 0.2214493602514267, 0.18806211650371552, 0.1195157915353775, 0.15405911207199097, 0.10102884471416473, 0.2721364200115204, 0.35083767771720886, 0.3318530023097992, 0.4815983474254608, 0.4608553647994995, 0.2933333218097687, 0.22438248991966248, 0.26975008845329285, 0.07287915050983429, 0.18455304205417633, 0.16830319166183472, 0.15416671335697174, 0.27698948979377747, 0.10850180685520172, 0.11469470709562302, 0.11520197987556458, 0.1722620576620102, 0.17135019600391388]</t>
+          <t>[0.1920960247516632, 0.28936368227005005, 0.14043332636356354, 0.3566971719264984, 0.14295613765716553, 0.08827865868806839, 0.3809131681919098, 0.3249247968196869, 0.09704563766717911, 0.15791887044906616, 0.1343318372964859, 0.11189202964305878, 0.06745263189077377, 0.17313791811466217, 0.24018968641757965, 0.30166110396385193, 0.1806408166885376, 0.21821412444114685, 0.17382246255874634, 0.25588569045066833, 0.16785192489624023, 0.1899019181728363, 0.27150872349739075, 0.49212509393692017, 0.5027152895927429, 0.08311819285154343, 0.19722992181777954, 0.16558033227920532, 0.08795483410358429, 0.18303541839122772, 0.1527176797389984, 0.12739619612693787, 0.09652234613895416, 0.1776326447725296, 0.14534783363342285, 0.11029405891895294, 0.06599240005016327, 0.09388159960508347, 0.5449255704879761, 0.30803415179252625, 0.12432973831892014, 0.16779707372188568, 0.08711901307106018, 0.15590405464172363, 0.11721208691596985, 0.06585568189620972, 0.10873846709728241, 0.14889131486415863, 0.0816856101155281, 0.1503833532333374, 0.2234611213207245, 0.12985213100910187, 0.11595877259969711, 0.03148040547966957, 0.04457152634859085, 0.12017617374658585, 0.04166858643293381, 0.07473638653755188, 0.22814823687076569, 0.1326206773519516, 0.07729066163301468, 0.08103590458631516, 0.031191691756248474, 0.06461864709854126, 0.034617628902196884, 0.04017017036676407, 0.05039236322045326, 0.031025750562548637, 0.01669885404407978, 0.017321672290563583, 0.025310246273875237, 0.06187048181891441, 0.0663330927491188, 0.06583283841609955, 0.03894972428679466, 0.0418444499373436, 0.0354582704603672, 0.05224229022860527, 0.05081212893128395, 0.03358971327543259, 0.03858223930001259, 0.03007860854268074, 0.015650112181901932, 0.020529447123408318, 0.044667620211839676, 0.07476915419101715, 0.05209393799304962, 0.10971801728010178, 0.029038291424512863, 0.03367855027318001, 0.018910342827439308, 0.02349010854959488, 0.021244516596198082, 0.03475494310259819, 0.06007685884833336, 0.35847342014312744, 0.17912034690380096, 0.34013083577156067, 0.21705737709999084, 0.5496307611465454, 0.5628623366355896, 0.7932168245315552, 0.7263768315315247, 0.5613186955451965, 0.32822492718696594, 0.5926622152328491, 0.5625812411308289, 0.42945969104766846, 0.3842271566390991, 0.3701379597187042, 0.1888904869556427, 0.3080011308193207, 0.27580687403678894, 0.4325597584247589, 0.21908096969127655, 0.48429223895072937, 0.7728451490402222, 0.10595089942216873, 0.08468668162822723, 0.08447436988353729, 0.08035006374120712, 0.10135594010353088, 0.2263030707836151, 0.37264230847358704, 0.4807721674442291, 0.7273901700973511, 0.6239053010940552, 0.29052937030792236, 0.20107805728912354, 0.3696242868900299, 0.06240815296769142, 0.18464428186416626, 0.14432725310325623, 0.16488148272037506, 0.2944500744342804, 0.07893392443656921, 0.08501870185136795, 0.08266972750425339, 0.10803921520709991, 0.10719498246908188]</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.7603874206542969</v>
+        <v>0.7932168245315552</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -3503,10 +3503,10 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0.8105773999996018</v>
+        <v>0.8063637000013841</v>
       </c>
       <c r="J74" t="n">
-        <v>0.005789838571425727</v>
+        <v>0.005759740714295601</v>
       </c>
     </row>
     <row r="75">
@@ -3525,11 +3525,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[0.2056961953639984, 0.11664793640375137, 0.28661006689071655, 0.1973704844713211, 0.1654445230960846, 0.18395210802555084, 0.3319017291069031, 0.38975077867507935, 0.19975216686725616, 0.09946580976247787, 0.27184173464775085, 0.3420993685722351, 0.24141092598438263, 0.4772222638130188, 0.2900416851043701, 0.19173739850521088, 0.7059889435768127, 0.6395552754402161, 0.47531846165657043, 0.4056398868560791, 0.2599998712539673, 0.20631292462348938, 0.38745778799057007, 0.2991178035736084, 0.45911651849746704, 0.42892590165138245, 0.16385214030742645, 0.21301080286502838, 0.34024354815483093, 0.186703160405159, 0.2084214836359024, 0.41761812567710876, 0.48489007353782654, 0.4241400361061096, 0.1662462204694748, 0.4312898814678192, 0.2807662785053253, 0.26145046949386597, 0.31627166271209717, 0.16781972348690033, 0.14926820993423462, 0.1495952606201172, 0.1735672503709793, 0.1054861843585968, 0.11289216578006744, 0.12241087853908539, 0.15301935374736786, 0.19979941844940186, 0.18175843358039856, 0.09717576950788498, 0.14328975975513458, 0.19856566190719604, 0.21836617588996887, 0.4574843645095825, 0.265287309885025, 0.20233066380023956, 0.1773008108139038, 0.3699609637260437, 0.4518318474292755, 0.29108843207359314, 0.20962055027484894, 0.28934144973754883, 0.16413342952728271, 0.67160964012146, 0.22603395581245422, 0.14618797600269318, 0.14759518206119537, 0.2912534773349762, 0.3730260133743286, 0.40187790989875793, 0.52829909324646, 0.3688456118106842, 0.2282472401857376, 0.49441495537757874, 0.5190201997756958, 0.45656612515449524, 0.4559374749660492, 0.5088455080986023, 0.5464535355567932, 0.409281849861145, 0.4744066596031189, 0.4821353852748871, 0.42133843898773193, 0.29983288049697876, 0.370573490858078, 0.1680678129196167, 0.2755827009677887, 0.4542500078678131, 0.4785212278366089, 0.5406697988510132, 0.5325835347175598, 0.6022322773933411, 0.4903135895729065, 0.5166909694671631, 0.4166249632835388, 0.34239432215690613, 0.208049938082695, 0.29121384024620056, 0.2712761163711548, 0.2530473470687866, 0.17000360786914825, 0.2771897315979004, 0.3348386883735657, 0.21024751663208008, 0.2957610785961151, 0.1816801279783249, 0.04597693309187889, 0.10346119850873947, 0.2873368561267853, 0.12816652655601501, 0.0980815589427948, 0.16184380650520325, 0.12379772216081619, 0.23528525233268738, 0.40989455580711365, 0.21123653650283813, 0.22706501185894012, 0.2874701917171478, 0.2572929859161377, 0.3107141852378845, 0.2305113524198532, 0.24054299294948578, 0.3307839632034302, 0.21983185410499573, 0.09737082570791245, 0.1114862710237503, 0.28181198239326477, 0.18421989679336548, 0.25687408447265625, 0.13581286370754242, 0.2612670958042145, 0.20161345601081848, 0.27440646290779114, 0.20895956456661224, 0.7608864903450012, 0.743200957775116, 0.6487925052642822, 0.35651910305023193, 0.6024423837661743, 0.6028797626495361]</t>
+          <t>[0.09358982741832733, 0.053504955023527145, 0.17261925339698792, 0.1281694769859314, 0.07032033801078796, 0.07549814134836197, 0.17887282371520996, 0.23008331656455994, 0.17582885921001434, 0.06976625323295593, 0.25440967082977295, 0.2285890132188797, 0.2224869579076767, 0.4595979154109955, 0.2933932840824127, 0.2462952733039856, 0.7735451459884644, 0.584588348865509, 0.4390485882759094, 0.29641076922416687, 0.2416967898607254, 0.2281716912984848, 0.40605875849723816, 0.30671098828315735, 0.4502156972885132, 0.38912367820739746, 0.09016676247119904, 0.12568694353103638, 0.22042463719844818, 0.1562335044145584, 0.12821774184703827, 0.38169214129447937, 0.4909498691558838, 0.455356240272522, 0.1342402696609497, 0.35054656863212585, 0.2097802758216858, 0.2196151465177536, 0.2884805202484131, 0.09142934530973434, 0.09505428373813629, 0.10514307767152786, 0.15429987013339996, 0.0713871642947197, 0.08216866105794907, 0.08403538167476654, 0.12741056084632874, 0.17044825851917267, 0.13685312867164612, 0.07300621271133423, 0.10130710899829865, 0.18096303939819336, 0.19602063298225403, 0.38770416378974915, 0.2852010726928711, 0.19223077595233917, 0.16728423535823822, 0.36307284235954285, 0.3027150630950928, 0.16479656100273132, 0.1542709916830063, 0.21543489396572113, 0.07383772730827332, 0.4041685461997986, 0.13217999041080475, 0.06661726534366608, 0.06046224385499954, 0.250529944896698, 0.3471635580062866, 0.3830084204673767, 0.5213156938552856, 0.26689738035202026, 0.11296367645263672, 0.3909868001937866, 0.4992463290691376, 0.3635236322879791, 0.3962877094745636, 0.47223222255706787, 0.45597508549690247, 0.27588534355163574, 0.3272398114204407, 0.3987725079059601, 0.33384019136428833, 0.14671729505062103, 0.2138034701347351, 0.09703339636325836, 0.187768816947937, 0.3473478853702545, 0.47901487350463867, 0.47282475233078003, 0.39999592304229736, 0.48281875252723694, 0.45255047082901, 0.455903023481369, 0.44532322883605957, 0.3080552816390991, 0.12903589010238647, 0.2080962210893631, 0.19423678517341614, 0.1818757802248001, 0.0937080830335617, 0.15669116377830505, 0.2026291936635971, 0.11288976669311523, 0.15861758589744568, 0.06981158256530762, 0.017466533929109573, 0.04074171558022499, 0.13594967126846313, 0.05179637297987938, 0.03732983022928238, 0.0654670000076294, 0.054114967584609985, 0.12298396229743958, 0.2958672046661377, 0.12480191141366959, 0.12665778398513794, 0.20654627680778503, 0.09819629043340683, 0.24085712432861328, 0.15785782039165497, 0.15509165823459625, 0.21818450093269348, 0.1511024683713913, 0.05193900689482689, 0.06790368258953094, 0.12739208340644836, 0.13462960720062256, 0.31140708923339844, 0.11165347695350647, 0.2249237447977066, 0.1847808063030243, 0.23057520389556885, 0.17804501950740814, 0.8087673783302307, 0.7368482947349548, 0.6854466199874878, 0.25882774591445923, 0.4671093225479126, 0.46672916412353516]</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.7608864903450012</v>
+        <v>0.8087673783302307</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
@@ -3543,10 +3543,10 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0.7949007000133861</v>
+        <v>0.8012301999988267</v>
       </c>
       <c r="J75" t="n">
-        <v>0.005677862142952758</v>
+        <v>0.005723072857134476</v>
       </c>
     </row>
     <row r="76">
@@ -3565,11 +3565,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>[0.03551536053419113, 0.028631217777729034, 0.09349915385246277, 0.13009421527385712, 0.06491466611623764, 0.03344660624861717, 0.030317986384034157, 0.03151244670152664, 0.031917423009872437, 0.052137553691864014, 0.09475834667682648, 0.0820232555270195, 0.09057309478521347, 0.02808750607073307, 0.045954834669828415, 0.041317883878946304, 0.043580785393714905, 0.05694133788347244, 0.07621665298938751, 0.08789423108100891, 0.04807751625776291, 0.04377623274922371, 0.08803597837686539, 0.03595225140452385, 0.04746941849589348, 0.031488846987485886, 0.031203173100948334, 0.03377224877476692, 0.031281862407922745, 0.043723564594984055, 0.12184913456439972, 0.11129170656204224, 0.06034569814801216, 0.089052714407444, 0.1064450666308403, 0.2729083299636841, 0.11266029626131058, 0.09359143674373627, 0.06272013485431671, 0.07778426259756088, 0.1035521849989891, 0.415764182806015, 0.36811062693595886, 0.14320270717144012, 0.07325615733861923, 0.3129063844680786, 0.4586343765258789, 0.44557031989097595, 0.1353663057088852, 0.16237294673919678, 0.22700081765651703, 0.30130141973495483, 0.13472788035869598, 0.21023154258728027, 0.12470445036888123, 0.3567188084125519, 0.3567410111427307]</t>
+          <t>[0.02043801173567772, 0.011740810237824917, 0.04666789621114731, 0.08225422352552414, 0.0321909636259079, 0.011959515511989594, 0.017528772354125977, 0.01650269515812397, 0.018248213455080986, 0.038854051381349564, 0.08498786389827728, 0.04374907538294792, 0.07763874530792236, 0.017099440097808838, 0.025113068521022797, 0.023596350103616714, 0.026119910180568695, 0.037579916417598724, 0.054014358669519424, 0.06062311679124832, 0.02536238729953766, 0.03484039381146431, 0.07364612817764282, 0.018216043710708618, 0.024205869063735008, 0.01706133410334587, 0.019680479541420937, 0.02383636124432087, 0.02161458693444729, 0.03383059427142143, 0.09962821006774902, 0.06888307631015778, 0.04741073399782181, 0.05115603283047676, 0.041685979813337326, 0.21716850996017456, 0.07404399663209915, 0.056958556175231934, 0.03340385481715202, 0.04851003363728523, 0.05633190646767616, 0.3492185175418854, 0.2093236893415451, 0.09057604521512985, 0.044952284544706345, 0.45958948135375977, 0.6266261339187622, 0.3797910213470459, 0.09964650124311447, 0.1598571538925171, 0.10150618106126785, 0.2857251763343811, 0.11340899020433426, 0.11637723445892334, 0.097284235060215, 0.3152797818183899, 0.31529051065444946]</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.4586343765258789</v>
+        <v>0.6266261339187622</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
@@ -3583,10 +3583,10 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0.3425500000012107</v>
+        <v>0.3475237999955425</v>
       </c>
       <c r="J76" t="n">
-        <v>0.006009649122828259</v>
+        <v>0.006096908771851623</v>
       </c>
     </row>
     <row r="77">
@@ -3605,11 +3605,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>[0.10088121145963669, 0.0867835283279419, 0.15320979058742523, 0.10491617023944855, 0.0849284827709198, 0.05142670124769211, 0.043428078293800354, 0.04146270826458931, 0.07041369378566742, 0.04169540852308273, 0.07046620547771454, 0.1291617900133133, 0.09517566114664078, 0.09830940514802933, 0.09047921001911163, 0.1756715029478073, 0.10640816390514374, 0.060909248888492584, 0.05971989780664444, 0.08853502571582794, 0.14969006180763245, 0.23743882775306702, 0.24815985560417175, 0.18995533883571625, 0.17977949976921082, 0.6060017347335815, 0.4060753285884857, 0.3435170650482178, 0.39066028594970703, 0.3416281044483185, 0.29918622970581055, 0.23483602702617645, 0.3156166970729828, 0.27801838517189026, 0.08482097089290619, 0.2146981954574585, 0.18958456814289093, 0.13262194395065308, 0.1529199481010437, 0.19853156805038452, 0.33717837929725647, 0.2977619767189026, 0.5205739140510559, 0.5344023108482361, 0.30921420454978943, 0.5551172494888306, 0.5705565810203552, 0.29176467657089233, 0.09945831447839737, 0.2454177886247635, 0.25572341680526733, 0.1735525280237198, 0.1942644566297531, 0.1727750599384308, 0.41029277443885803, 0.373993843793869, 0.3426741361618042, 0.1892293393611908, 0.21892563998699188, 0.2004300206899643, 0.2131539285182953, 0.3503362238407135, 0.4688211977481842, 0.5854846835136414, 0.3548561930656433, 0.1440163254737854, 0.3979494571685791, 0.6269916892051697, 0.24412843585014343, 0.3436891734600067, 0.39066874980926514, 0.2572747766971588, 0.14417727291584015, 0.20028260350227356, 0.3099500834941864, 0.3982487618923187, 0.5493031740188599, 0.17523440718650818, 0.16061504185199738, 0.1579352766275406, 0.246110200881958, 0.4053075909614563, 0.32395538687705994, 0.3320751190185547, 0.2148556411266327, 0.3805884122848511, 0.25656411051750183, 0.18130707740783691, 0.2117169201374054, 0.22282959520816803, 0.2038765847682953, 0.3838748037815094, 0.3265504539012909, 0.2624915540218353, 0.21696175634860992, 0.2397233247756958, 0.2036939114332199, 0.15624567866325378, 0.1979234516620636, 0.14857697486877441, 0.5589922666549683, 0.8506455421447754, 0.3197329044342041, 0.37000998854637146, 0.7133834958076477, 0.5627325773239136, 0.16488167643547058, 0.1739252209663391, 0.9152876138687134, 0.6768383979797363, 0.12302906066179276, 0.18261468410491943, 0.14630188047885895, 0.4370211362838745, 0.36213576793670654, 0.49342578649520874, 0.34418928623199463, 0.20152731239795685, 0.4105599820613861, 0.16060671210289001, 0.25383275747299194, 0.2507871687412262, 0.4567856192588806, 0.39664435386657715, 0.24500460922718048, 0.2133626639842987, 0.16994059085845947, 0.15182313323020935, 0.2533245384693146, 0.18902553617954254, 0.28033050894737244, 0.24044574797153473, 0.23586757481098175, 0.2385409027338028, 0.1941223293542862, 0.11718300729990005, 0.13105662167072296, 0.17789626121520996, 0.17750824987888336]</t>
+          <t>[0.05944247171282768, 0.03820975497364998, 0.07046685367822647, 0.053384169936180115, 0.03783392533659935, 0.023437444120645523, 0.020255135372281075, 0.016768209636211395, 0.033553171902894974, 0.022066762670874596, 0.04888230189681053, 0.10742739588022232, 0.09250517934560776, 0.0686827227473259, 0.0435250885784626, 0.13004356622695923, 0.04464920982718468, 0.022036395967006683, 0.022945929318666458, 0.03922101855278015, 0.061752449721097946, 0.1826748549938202, 0.1762370616197586, 0.1362309753894806, 0.09454432129859924, 0.5345853567123413, 0.25747060775756836, 0.22256790101528168, 0.22912929952144623, 0.2542828321456909, 0.18908247351646423, 0.1616772562265396, 0.17586937546730042, 0.2001403570175171, 0.03544270619750023, 0.14217084646224976, 0.07337264716625214, 0.042627494782209396, 0.0656515583395958, 0.07216378301382065, 0.17794451117515564, 0.25118041038513184, 0.3249169588088989, 0.41816824674606323, 0.20521922409534454, 0.3712230920791626, 0.5249350070953369, 0.19758754968643188, 0.04482326656579971, 0.12022355198860168, 0.20654398202896118, 0.1001020148396492, 0.17233148217201233, 0.09804638475179672, 0.2066969871520996, 0.26141151785850525, 0.21425572037696838, 0.07373234629631042, 0.15754978358745575, 0.13561871647834778, 0.18535135686397552, 0.26286277174949646, 0.3222064673900604, 0.5197643041610718, 0.3030589818954468, 0.07695399224758148, 0.21076972782611847, 0.4611870050430298, 0.17748871445655823, 0.2340134233236313, 0.30538395047187805, 0.2152646780014038, 0.09611083567142487, 0.1266215592622757, 0.176288902759552, 0.3146337568759918, 0.5416257977485657, 0.10032079368829727, 0.08095607906579971, 0.043999072164297104, 0.12471520155668259, 0.26778751611709595, 0.23071087896823883, 0.25456100702285767, 0.11925866454839706, 0.31555405259132385, 0.21472442150115967, 0.12651199102401733, 0.20475389063358307, 0.18549375236034393, 0.16279387474060059, 0.37462031841278076, 0.4205996096134186, 0.27613815665245056, 0.19997350871562958, 0.19228850305080414, 0.1494581252336502, 0.07433182001113892, 0.13998112082481384, 0.08468738198280334, 0.499340295791626, 0.8650041818618774, 0.15667341649532318, 0.3165743350982666, 0.7868540287017822, 0.6659682393074036, 0.07989226281642914, 0.0986582338809967, 0.9346929788589478, 0.7078723311424255, 0.08272011578083038, 0.2911238670349121, 0.12749597430229187, 0.5273165702819824, 0.3531855046749115, 0.6125761270523071, 0.35742950439453125, 0.15113991498947144, 0.2988661527633667, 0.09584999084472656, 0.1243518739938736, 0.18757744133472443, 0.4356597363948822, 0.41344889998435974, 0.2281498908996582, 0.2097783386707306, 0.14931346476078033, 0.1051914170384407, 0.14454838633537292, 0.09705516695976257, 0.19990423321723938, 0.2475779950618744, 0.17206697165966034, 0.14963531494140625, 0.14823046326637268, 0.07414720207452774, 0.08092864602804184, 0.15787670016288757, 0.15760141611099243]</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.9152876138687134</v>
+        <v>0.9346929788589478</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0.789067800011253</v>
+        <v>0.8025403999927221</v>
       </c>
       <c r="J77" t="n">
-        <v>0.005676746762670885</v>
+        <v>0.005773671942393684</v>
       </c>
     </row>
     <row r="78">
@@ -3645,11 +3645,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[0.1071109026670456, 0.10124962031841278, 0.09631083160638809, 0.20416544377803802, 0.062099095433950424, 0.11541642993688583, 0.253307044506073, 0.1248200461268425, 0.2366161048412323, 0.07628774642944336, 0.07094474881887436, 0.28811633586883545, 0.3945760726928711, 0.34844735264778137, 0.3042197823524475, 0.10728731751441956, 0.057154104113578796, 0.07699735462665558, 0.05938426032662392, 0.04691731557250023, 0.03116733580827713, 0.062079932540655136, 0.07449440658092499, 0.12528103590011597, 0.06966491788625717, 0.08444374054670334, 0.1058705747127533, 0.11379299312829971, 0.22332657873630524, 0.091889888048172, 0.08436387777328491, 0.12359221279621124, 0.1856451779603958, 0.09655924141407013, 0.1254831850528717, 0.0818956047296524, 0.08708420395851135, 0.12205404788255692, 0.21607601642608643, 0.10353760421276093, 0.1767844408750534, 0.19153839349746704, 0.39119499921798706, 0.27800452709198, 0.3588380813598633, 0.2683987021446228, 0.451151967048645, 0.14453257620334625, 0.2700311541557312, 0.5518721342086792, 0.47544944286346436, 0.5344395041465759, 0.4727783203125, 0.3369480073451996, 0.2736116349697113, 0.1935957670211792, 0.42025643587112427, 0.18909700214862823, 0.10879242420196533, 0.4165796935558319, 0.2519543170928955, 0.2863408923149109, 0.37557047605514526, 0.5406989455223083, 0.536530613899231, 0.3041726052761078, 0.1441962867975235, 0.14543354511260986, 0.1698751449584961, 0.17588822543621063, 0.14723336696624756, 0.15512172877788544, 0.11143995821475983, 0.153115376830101, 0.18003778159618378, 0.10628178715705872, 0.13028807938098907, 0.16531287133693695, 0.16043150424957275, 0.21032492816448212, 0.3278951942920685, 0.22783729434013367, 0.17949633300304413, 0.19367456436157227, 0.33278030157089233, 0.5743520259857178, 0.7236729264259338, 0.5509968996047974, 0.5256288051605225, 0.5789868235588074, 0.597866952419281, 0.4513198733329773, 0.189010888338089, 0.6131347417831421, 0.26372355222702026, 0.2084575742483139, 0.3558056354522705, 0.7614818811416626, 0.5663882493972778, 0.5376598834991455, 0.6517390608787537, 0.5032684803009033, 0.3565220832824707, 0.32383230328559875, 0.3057733178138733, 0.3365509510040283, 0.1874428391456604, 0.2723105847835541, 0.1647930145263672, 0.14627212285995483, 0.2992219030857086, 0.2464023381471634, 0.2873774766921997, 0.7265158891677856, 0.37639448046684265, 0.4407750964164734, 0.3238271176815033, 0.5198960900306702, 0.5256081223487854, 0.2432582825422287, 0.21407882869243622, 0.4337802529335022, 0.5884319543838501, 0.4608514904975891, 0.4069857597351074, 0.4389088749885559, 0.20584382116794586, 0.1665266454219818, 0.18718530237674713, 0.42992985248565674, 0.34522828459739685, 0.31870484352111816, 0.3680036664009094, 0.4031975567340851, 0.3997124135494232, 0.32829537987709045, 0.16869249939918518, 0.15329979360103607, 0.22194290161132812, 0.22304503619670868]</t>
+          <t>[0.028916748240590096, 0.022156380116939545, 0.03594210743904114, 0.07269669324159622, 0.018560044467449188, 0.03868415206670761, 0.058932628482580185, 0.039642591029405594, 0.056701961904764175, 0.016363022848963737, 0.027272049337625504, 0.1136150062084198, 0.20618660748004913, 0.08592317998409271, 0.09717486798763275, 0.024748053401708603, 0.015878649428486824, 0.02548361010849476, 0.014957199804484844, 0.01357608288526535, 0.010687509551644325, 0.016907811164855957, 0.022020017728209496, 0.026986241340637207, 0.017684055492281914, 0.016928192228078842, 0.016511306166648865, 0.03510953485965729, 0.06285621970891953, 0.018295442685484886, 0.021886778995394707, 0.03908627852797508, 0.0826568752527237, 0.02332283928990364, 0.026024969294667244, 0.01791961118578911, 0.0195685476064682, 0.026338187977671623, 0.056286733597517014, 0.030880920588970184, 0.045840512961149216, 0.06305766850709915, 0.1290440857410431, 0.08441483229398727, 0.21818391978740692, 0.14729948341846466, 0.32383090257644653, 0.04619370773434639, 0.1291976124048233, 0.26936793327331543, 0.18990816175937653, 0.29863089323043823, 0.20697744190692902, 0.10530450940132141, 0.12914372980594635, 0.06105363368988037, 0.17495547235012054, 0.0718652606010437, 0.04393884912133217, 0.18631641566753387, 0.11152759939432144, 0.14032545685768127, 0.10730450600385666, 0.2079159915447235, 0.1811124086380005, 0.09111696481704712, 0.04809442535042763, 0.04694903641939163, 0.052593715488910675, 0.042635153979063034, 0.043358102440834045, 0.04115840047597885, 0.037434641271829605, 0.050412483513355255, 0.05330900102853775, 0.0234694741666317, 0.03523057699203491, 0.06934613734483719, 0.06573336571455002, 0.1029348373413086, 0.16608446836471558, 0.07507281750440598, 0.06037229672074318, 0.0542643703520298, 0.09994083642959595, 0.22699196636676788, 0.37910720705986023, 0.21656030416488647, 0.2824675738811493, 0.25107645988464355, 0.3148335814476013, 0.16321086883544922, 0.07190269231796265, 0.36551883816719055, 0.08298452943563461, 0.057382140308618546, 0.1447843313217163, 0.5538821816444397, 0.3940305709838867, 0.5063855051994324, 0.41254425048828125, 0.22743035852909088, 0.1343424916267395, 0.13958249986171722, 0.12334761768579483, 0.13359281420707703, 0.0778023898601532, 0.07056979835033417, 0.03985157981514931, 0.03220893070101738, 0.07454262673854828, 0.07704596221446991, 0.11828749626874924, 0.42795586585998535, 0.10382121056318283, 0.14316071569919586, 0.10160846263170242, 0.24319684505462646, 0.2686859369277954, 0.1099688783288002, 0.09306778013706207, 0.20809073746204376, 0.2867768704891205, 0.2748090922832489, 0.21879084408283234, 0.19067437946796417, 0.07284893095493317, 0.055732231587171555, 0.03874624893069267, 0.11153364926576614, 0.09740852564573288, 0.09288995712995529, 0.11295070499181747, 0.09635823220014572, 0.12657469511032104, 0.06100928783416748, 0.03725408390164375, 0.05575815960764885, 0.08710812032222748, 0.08768589049577713]</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.7614818811416626</v>
+        <v>0.5538821816444397</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
@@ -3663,10 +3663,10 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0.8003315000096336</v>
+        <v>0.7961040999944089</v>
       </c>
       <c r="J78" t="n">
-        <v>0.005716653571497383</v>
+        <v>0.005686457857102921</v>
       </c>
     </row>
     <row r="79">
@@ -3685,11 +3685,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>[0.4394594728946686, 0.4362792670726776, 0.21063439548015594, 0.6562942266464233, 0.561874508857727, 0.4159182012081146, 0.1573006510734558, 0.18356798589229584, 0.31286412477493286, 0.20743678510189056, 0.29029253125190735, 0.13863129913806915, 0.2803468108177185, 0.27779847383499146, 0.1402839869260788, 0.29743361473083496, 0.349915474653244, 0.4416087865829468, 0.6318719387054443, 0.31660449504852295, 0.534949541091919, 0.16734974086284637, 0.2758646011352539, 0.32754555344581604, 0.18197043240070343, 0.3739795684814453, 0.19361810386180878, 0.2169911116361618, 0.29265347123146057, 0.13598580658435822, 0.16069510579109192, 0.291441410779953, 0.26619285345077515, 0.26951026916503906, 0.19865529239177704, 0.14683139324188232, 0.26269155740737915, 0.18843458592891693, 0.23429538309574127, 0.12483256310224533, 0.17596526443958282, 0.21835817396640778, 0.3327755033969879, 0.14453256130218506, 0.17629964649677277, 0.20714068412780762, 0.19584079086780548, 0.13280412554740906, 0.195949986577034, 0.2402171641588211, 0.35381627082824707, 0.2531311511993408, 0.10210584104061127, 0.1179385632276535, 0.10724582523107529, 0.07460502535104752, 0.14556944370269775, 0.10586035251617432, 0.15132345259189606, 0.10784080624580383, 0.08014307916164398, 0.29666653275489807, 0.37781697511672974, 0.18158122897148132, 0.23099058866500854, 0.24626576900482178, 0.22756293416023254, 0.14163638651371002, 0.1172536164522171, 0.14397618174552917, 0.15612052381038666, 0.3352222442626953, 0.2380281239748001, 0.26960381865501404, 0.18612278997898102, 0.09200833737850189, 0.047090306878089905, 0.12034842371940613, 0.12160690873861313, 0.13262352347373962, 0.12819461524486542, 0.1016855388879776, 0.08971543610095978, 0.08792462199926376, 0.08530940860509872, 0.08019574731588364, 0.07765725255012512, 0.10701221972703934, 0.19338864088058472, 0.14034225046634674, 0.06603267788887024, 0.10694766789674759, 0.10156235843896866, 0.10093478113412857, 0.06073151156306267, 0.07695303857326508, 0.12185478210449219, 0.12633125483989716, 0.33175668120384216, 0.2498299479484558, 0.20767979323863983, 0.3622182011604309, 0.2181587815284729, 0.17973901331424713, 0.1684693545103073, 0.12891893088817596, 0.081630177795887, 0.15491734445095062, 0.16672495007514954, 0.07898120582103729, 0.13742318749427795, 0.20792697370052338, 0.2117205262184143, 0.12252216786146164, 0.09245825558900833, 0.20317551493644714, 0.13278038799762726, 0.19202068448066711, 0.0791039988398552, 0.08111531287431717, 0.16482830047607422, 0.11312149465084076, 0.10272550582885742, 0.1348026543855667, 0.17060059309005737, 0.22693225741386414, 0.14619110524654388, 0.13607962429523468, 0.10615648329257965, 0.10863962024450302, 0.09450823813676834, 0.07863225042819977, 0.15225474536418915, 0.14038284122943878, 0.15432794392108917, 0.15102098882198334, 0.17534999549388885, 0.21597297489643097, 0.1709364503622055, 0.17183013260364532]</t>
+          <t>[0.5730512142181396, 0.6284828782081604, 0.30966421961784363, 0.7835433483123779, 0.7745241522789001, 0.5833876729011536, 0.1418408751487732, 0.2010977864265442, 0.2592988908290863, 0.19500167667865753, 0.34110644459724426, 0.15693730115890503, 0.2672242522239685, 0.343088299036026, 0.15685886144638062, 0.3169066309928894, 0.3550451099872589, 0.503928542137146, 0.8141466975212097, 0.4370099902153015, 0.6751120090484619, 0.20117966830730438, 0.2824781537055969, 0.47769972681999207, 0.2096371352672577, 0.6214826703071594, 0.2165277600288391, 0.21043279767036438, 0.36729034781455994, 0.14359234273433685, 0.18279169499874115, 0.34475550055503845, 0.3372572064399719, 0.29688239097595215, 0.25620388984680176, 0.2876448631286621, 0.43234702944755554, 0.26061514019966125, 0.2653299570083618, 0.12834176421165466, 0.19556361436843872, 0.3342546820640564, 0.5059090256690979, 0.16598837077617645, 0.12279777973890305, 0.22463512420654297, 0.257626473903656, 0.13585659861564636, 0.20739653706550598, 0.1527971476316452, 0.2909143269062042, 0.22196011245250702, 0.08190187066793442, 0.11018623411655426, 0.11246273666620255, 0.060204822570085526, 0.19495649635791779, 0.11989644169807434, 0.13377466797828674, 0.1391337364912033, 0.07968262583017349, 0.34721487760543823, 0.5465616583824158, 0.1811516284942627, 0.2984749674797058, 0.3278716206550598, 0.24895581603050232, 0.1426611691713333, 0.1512025147676468, 0.10845251381397247, 0.14767445623874664, 0.3940179944038391, 0.26276344060897827, 0.2847173810005188, 0.15208439528942108, 0.07244487851858139, 0.025210604071617126, 0.10455452650785446, 0.09603188186883926, 0.08675146847963333, 0.07942856103181839, 0.05734362453222275, 0.043221741914749146, 0.04139954224228859, 0.057287756353616714, 0.05484143644571304, 0.03654738888144493, 0.08160121738910675, 0.15560442209243774, 0.1105545312166214, 0.03944507613778114, 0.08279100060462952, 0.05549408122897148, 0.06614319980144501, 0.040066059678792953, 0.07378555834293365, 0.12496981769800186, 0.11141709983348846, 0.3481317162513733, 0.2656703293323517, 0.20031510293483734, 0.44242116808891296, 0.2666221857070923, 0.17063559591770172, 0.11023461818695068, 0.08439046144485474, 0.04630067199468613, 0.167843759059906, 0.2488042265176773, 0.05656422674655914, 0.11788370460271835, 0.1499401181936264, 0.2057895064353943, 0.06773386150598526, 0.036518219858407974, 0.13967251777648926, 0.17414237558841705, 0.1732865571975708, 0.04828713461756706, 0.04889490827918053, 0.16304318606853485, 0.13150210678577423, 0.0628553256392479, 0.08378351479768753, 0.18704703450202942, 0.34668320417404175, 0.167854905128479, 0.12185424566268921, 0.09927857667207718, 0.07233892381191254, 0.04999260604381561, 0.045508284121751785, 0.10066857188940048, 0.08274228125810623, 0.09176182746887207, 0.09292072057723999, 0.14030082523822784, 0.20136764645576477, 0.14210622012615204, 0.14399029314517975]</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.6562942266464233</v>
+        <v>0.8141466975212097</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
@@ -3703,10 +3703,10 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0.7927310999948531</v>
+        <v>0.7998174999956973</v>
       </c>
       <c r="J79" t="n">
-        <v>0.005662364999963237</v>
+        <v>0.005712982142826409</v>
       </c>
     </row>
     <row r="80">
@@ -3725,11 +3725,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[0.7048386335372925, 0.7658029198646545, 0.8224020600318909, 0.5519127249717712, 0.23935870826244354, 0.20814745128154755, 0.25579485297203064, 0.19265836477279663, 0.2169470638036728, 0.15950487554073334, 0.16163697838783264, 0.23588280379772186, 0.6757522225379944, 0.47709718346595764, 0.40529316663742065, 0.25216904282569885, 0.2724899351596832, 0.38448840379714966, 0.394724041223526, 0.2211819738149643, 0.2220032811164856, 0.6605483293533325, 0.6030672788619995, 0.33142149448394775, 0.6552573442459106, 0.9904102087020874, 0.9920326471328735, 0.9819958209991455, 0.9940390586853027, 0.995919406414032, 0.9942623376846313, 0.9928243160247803, 0.9956241250038147, 0.9933856129646301, 0.9777701497077942, 0.9412863850593567, 0.9405014514923096, 0.9247634410858154, 0.9429112672805786, 0.9631043672561646, 0.9483789205551147, 0.9619706273078918, 0.9736740589141846, 0.9815571308135986, 0.9766393303871155, 0.9917429089546204, 0.9944707155227661, 0.9965845346450806, 0.9952715039253235, 0.9940087795257568, 0.9947887659072876, 0.9953206181526184, 0.9963569045066833, 0.9959408044815063, 0.9963207244873047, 0.9946029782295227, 0.9953031539916992, 0.9958581328392029, 0.9967882633209229, 0.9976785778999329, 0.9975811243057251, 0.9939182996749878, 0.9943972826004028, 0.9899848699569702, 0.9689147472381592, 0.9616167545318604, 0.8776431679725647, 0.8830128312110901, 0.854551374912262, 0.9347428679466248, 0.9631828665733337, 0.9885168075561523, 0.9872981309890747, 0.9945873022079468, 0.96897953748703, 0.9950241446495056, 0.9900988936424255, 0.9922033548355103, 0.9902266263961792, 0.9897866249084473, 0.9798315167427063, 0.9769782423973083, 0.9619776606559753, 0.9624980092048645, 0.9844575524330139, 0.978897213935852, 0.9379718899726868, 0.9349473118782043, 0.9666352868080139, 0.9808361530303955, 0.9849857091903687, 0.9902893304824829, 0.993370771408081, 0.9961720108985901, 0.996934175491333, 0.9972483515739441, 0.9968469738960266, 0.9925770163536072, 0.9828456044197083, 0.9858204126358032, 0.9927000403404236, 0.994946300983429, 0.9965189695358276, 0.9961544871330261, 0.9917789101600647, 0.9948418736457825, 0.9959730505943298, 0.997088611125946, 0.9964895844459534, 0.9958516359329224, 0.9948340654373169, 0.9857026934623718, 0.9609236717224121, 0.8481972217559814, 0.7186718583106995, 0.9624011516571045, 0.9853789806365967, 0.9950581789016724, 0.9960953593254089, 0.9973838925361633, 0.9948605895042419, 0.9839447140693665, 0.992764413356781, 0.9766407608985901, 0.982193112373352, 0.9847548007965088, 0.9733198881149292, 0.9772205948829651, 0.9696019291877747, 0.9923480749130249, 0.9947682619094849, 0.9939830899238586, 0.9923151731491089, 0.9758884310722351, 0.9833431243896484, 0.9854854941368103, 0.9171646237373352, 0.938645601272583, 0.9380576014518738]</t>
+          <t>[0.7277497053146362, 0.8251683115959167, 0.8230983018875122, 0.5936017632484436, 0.1278502494096756, 0.11091694235801697, 0.18373556435108185, 0.14364036917686462, 0.18593274056911469, 0.12873315811157227, 0.12290047854185104, 0.21341237425804138, 0.7681070566177368, 0.4572790265083313, 0.32579338550567627, 0.19021596014499664, 0.15995396673679352, 0.2567262649536133, 0.2684565782546997, 0.17017480731010437, 0.16252200305461884, 0.6242993474006653, 0.5842186212539673, 0.2764733135700226, 0.5781078338623047, 0.9812078475952148, 0.9825961589813232, 0.9363874197006226, 0.9847394227981567, 0.9934970140457153, 0.9914672374725342, 0.9906702041625977, 0.9942171573638916, 0.9948739409446716, 0.9685900807380676, 0.9324935078620911, 0.9425338506698608, 0.9033282399177551, 0.9026607871055603, 0.9514439105987549, 0.9434629082679749, 0.9589411616325378, 0.9706733822822571, 0.9705734252929688, 0.9710667729377747, 0.9811005592346191, 0.9903696179389954, 0.9966088533401489, 0.995966911315918, 0.9913089275360107, 0.9951314926147461, 0.9944348931312561, 0.9938880801200867, 0.9936007857322693, 0.9923049807548523, 0.9894481897354126, 0.9912042021751404, 0.9942054152488708, 0.9955253005027771, 0.9959208965301514, 0.996637225151062, 0.9905840158462524, 0.9926504492759705, 0.9848056435585022, 0.9433605074882507, 0.9698433876037598, 0.8904125690460205, 0.8441309332847595, 0.8225339651107788, 0.9376370906829834, 0.9608186483383179, 0.9871835708618164, 0.9874761700630188, 0.9894502758979797, 0.9512419700622559, 0.9919618964195251, 0.981773316860199, 0.9874646663665771, 0.9840461015701294, 0.9775260090827942, 0.947826623916626, 0.9649874567985535, 0.9412849545478821, 0.9436008930206299, 0.9692302346229553, 0.9597179889678955, 0.8199670910835266, 0.865298330783844, 0.960301399230957, 0.9601879119873047, 0.9786387085914612, 0.9853286147117615, 0.9904066920280457, 0.9955795407295227, 0.995142936706543, 0.9943326711654663, 0.9926221370697021, 0.9709572196006775, 0.9356552958488464, 0.9618251323699951, 0.9826993942260742, 0.9909490942955017, 0.9939889907836914, 0.9951534271240234, 0.9770459532737732, 0.9903687834739685, 0.9917296767234802, 0.9957239627838135, 0.9936249256134033, 0.9933047890663147, 0.9920654892921448, 0.9867883920669556, 0.9548351764678955, 0.7880934476852417, 0.6697989702224731, 0.9398152828216553, 0.9821292161941528, 0.9928232431411743, 0.9948185086250305, 0.9947887659072876, 0.9922279715538025, 0.9787415862083435, 0.9888519644737244, 0.9732951521873474, 0.9730203747749329, 0.97054123878479, 0.9724496006965637, 0.9658055901527405, 0.9510343670845032, 0.9912453293800354, 0.9929614663124084, 0.9893235564231873, 0.9899739027023315, 0.958922803401947, 0.9437218904495239, 0.9665985107421875, 0.8604315519332886, 0.8747225999832153, 0.8730701208114624]</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.9976785778999329</v>
+        <v>0.996637225151062</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
@@ -3743,10 +3743,10 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0.7878556000068784</v>
+        <v>0.8504335000034189</v>
       </c>
       <c r="J80" t="n">
-        <v>0.00566802589933006</v>
+        <v>0.006118226618729633</v>
       </c>
     </row>
     <row r="81">
@@ -3765,11 +3765,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[0.7420828342437744, 0.7096633315086365, 0.3748510181903839, 0.31322818994522095, 0.21379801630973816, 0.5434123277664185, 0.4289766252040863, 0.23269230127334595, 0.22954925894737244, 0.26022979617118835, 0.29856082797050476, 0.4423874318599701, 0.9350800514221191, 0.9718789458274841, 0.9428794384002686, 0.9884337782859802, 0.9962551593780518, 0.9976517558097839, 0.9980193376541138, 0.9983494281768799, 0.9976698756217957, 0.9954317808151245, 0.623992919921875, 0.7945504188537598, 0.8534155488014221, 0.7354944348335266, 0.8850001692771912, 0.948408305644989, 0.9456045031547546, 0.9985211491584778, 0.9988479614257812, 0.9991483688354492, 0.999182403087616, 0.9988139867782593, 0.9980611205101013, 0.9993245601654053, 0.9993442893028259, 0.9993619322776794, 0.998916506767273, 0.9988747239112854, 0.9991932511329651, 0.9993200302124023, 0.9994556307792664, 0.9987847208976746, 0.9978590607643127, 0.9978534579277039, 0.9977655410766602, 0.9985679388046265, 0.9976383447647095, 0.9975487589836121, 0.9959489107131958, 0.998162567615509, 0.9983962178230286, 0.9988263249397278, 0.9990585446357727, 0.9984740614891052, 0.9983382225036621, 0.9987311959266663, 0.9922473430633545, 0.9822739958763123, 0.9671911001205444, 0.7991319298744202, 0.9219301342964172, 0.7816095948219299, 0.7572152614593506, 0.9889882206916809, 0.4614410698413849, 0.3571630120277405, 0.8416584134101868, 0.9952359795570374, 0.9982030391693115, 0.9974828362464905, 0.9981708526611328, 0.9975837469100952, 0.9958821535110474, 0.9943113327026367, 0.9968376159667969, 0.9939724802970886, 0.9846259951591492, 0.9793588519096375, 0.9808634519577026, 0.9249856472015381, 0.8305030465126038, 0.893479585647583, 0.9614474773406982, 0.9792159199714661, 0.988831102848053, 0.9966722726821899, 0.9964158535003662, 0.9928876757621765, 0.9983851909637451, 0.9992403984069824, 0.9993218183517456, 0.9993771910667419, 0.9992039799690247, 0.9981332421302795, 0.9932745695114136, 0.9974258542060852, 0.9974127411842346, 0.9980055689811707, 0.9987393021583557, 0.9991368651390076, 0.9975576400756836, 0.9989689588546753, 0.9847645163536072, 0.9928681254386902, 0.9385342597961426, 0.709559977054596, 0.23693211376667023, 0.28325220942497253, 0.19018784165382385, 0.6714459657669067, 0.3208228051662445, 0.7278783321380615, 0.8649185299873352, 0.9696176052093506, 0.8550025820732117, 0.7071619629859924, 0.7834656834602356, 0.7748643755912781, 0.7906292676925659, 0.3469536304473877, 0.19492045044898987, 0.1271367073059082, 0.43600136041641235, 0.6060658693313599, 0.47387731075286865, 0.6096014380455017, 0.9371866583824158, 0.9966133236885071, 0.9957600235939026, 0.9960432052612305, 0.99261873960495, 0.9973410964012146, 0.997890293598175, 0.9984853863716125, 0.9989198446273804, 0.9991507530212402, 0.9987840056419373, 0.9987853169441223]</t>
+          <t>[0.346122145652771, 0.3789304196834564, 0.1032925397157669, 0.11322036385536194, 0.05323636159300804, 0.16155128180980682, 0.1737007349729538, 0.05034072697162628, 0.04224146530032158, 0.04924935847520828, 0.07160892337560654, 0.1077304258942604, 0.7398701906204224, 0.802777111530304, 0.743283748626709, 0.971393346786499, 0.9920811653137207, 0.9964323043823242, 0.9970118999481201, 0.997601330280304, 0.9971390962600708, 0.9951542615890503, 0.3809993863105774, 0.7515497803688049, 0.7353297472000122, 0.5485615134239197, 0.7623768448829651, 0.9165403246879578, 0.923103392124176, 0.996767520904541, 0.9975239634513855, 0.9981574416160583, 0.9986087679862976, 0.99741131067276, 0.995966911315918, 0.999068558216095, 0.9991303086280823, 0.9988045692443848, 0.9973481893539429, 0.9973702430725098, 0.9984889030456543, 0.9990766048431396, 0.9991292357444763, 0.9974815249443054, 0.9948321580886841, 0.9947060942649841, 0.9934665560722351, 0.9968883395195007, 0.9957316517829895, 0.9937191009521484, 0.9889289736747742, 0.997220516204834, 0.9972055554389954, 0.997643768787384, 0.9990208148956299, 0.9969576597213745, 0.9968589544296265, 0.9976170063018799, 0.974804699420929, 0.9647994637489319, 0.9192638397216797, 0.5808016657829285, 0.8984922170639038, 0.5753685235977173, 0.6164550185203552, 0.9820273518562317, 0.2679044306278229, 0.25566738843917847, 0.8824835419654846, 0.9962444305419922, 0.9976056814193726, 0.9961714148521423, 0.9964596629142761, 0.9969006776809692, 0.9949136972427368, 0.9894543886184692, 0.995163083076477, 0.9887948036193848, 0.965567946434021, 0.9419155120849609, 0.9481397867202759, 0.7351817488670349, 0.6609225273132324, 0.7195340394973755, 0.9020917415618896, 0.9654370546340942, 0.9811646938323975, 0.9953000545501709, 0.9949949979782104, 0.9896622896194458, 0.9970115423202515, 0.9988356232643127, 0.9989759922027588, 0.999047577381134, 0.998580813407898, 0.9941719174385071, 0.9793673157691956, 0.9914091229438782, 0.9947715401649475, 0.9957159161567688, 0.9974193572998047, 0.9983519315719604, 0.9971306920051575, 0.9983261227607727, 0.9760871529579163, 0.986818790435791, 0.9017975330352783, 0.4117370545864105, 0.08744946867227554, 0.12426208704710007, 0.05698829144239426, 0.5684123039245605, 0.10000474005937576, 0.5451592803001404, 0.7457181811332703, 0.9770777225494385, 0.800790548324585, 0.5836955308914185, 0.6817491054534912, 0.32881689071655273, 0.4240933358669281, 0.13859343528747559, 0.05447058752179146, 0.03738442435860634, 0.17135527729988098, 0.25632280111312866, 0.18294495344161987, 0.3045986294746399, 0.9026100039482117, 0.9924792051315308, 0.9880934357643127, 0.9861878156661987, 0.9813172221183777, 0.9930385947227478, 0.9954107403755188, 0.9980648159980774, 0.9984549283981323, 0.9988044500350952, 0.9980950951576233, 0.9980992674827576]</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.9994556307792664</v>
+        <v>0.9991303086280823</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -3783,10 +3783,10 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0.7881816999870352</v>
+        <v>0.7968727999978</v>
       </c>
       <c r="J81" t="n">
-        <v>0.00562986928562168</v>
+        <v>0.005691948571412858</v>
       </c>
     </row>
     <row r="82">
@@ -3805,11 +3805,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[0.9922643899917603, 0.9928779006004333, 0.9948455095291138, 0.9940294027328491, 0.9910127520561218, 0.9953990578651428, 0.9976204037666321, 0.9983358979225159, 0.9988441467285156, 0.9988539218902588, 0.9986338019371033, 0.9986410737037659, 0.9987882971763611, 0.9988561868667603, 0.9990365505218506, 0.999180018901825, 0.9990420937538147, 0.9990021586418152, 0.9986332058906555, 0.9985429048538208, 0.9979248046875, 0.9976267218589783, 0.9976356029510498, 0.9986334443092346, 0.998909592628479, 0.9988158941268921, 0.9963156580924988, 0.9980712532997131, 0.9981338381767273, 0.9983716607093811, 0.9983604550361633, 0.9985989928245544, 0.9987536668777466, 0.9988521337509155, 0.9987363219261169, 0.9988706707954407, 0.9992196559906006, 0.99920254945755, 0.9990328550338745, 0.9990569949150085, 0.9988295435905457, 0.9987587928771973, 0.9981095790863037, 0.9969584941864014, 0.9976292252540588, 0.9987131357192993, 0.9987292885780334, 0.998252809047699, 0.9985966086387634, 0.9980693459510803, 0.9981091022491455, 0.9984996318817139, 0.998515784740448, 0.9981073141098022, 0.9966787099838257, 0.9950156807899475, 0.9967637062072754, 0.9969202280044556, 0.9978519678115845, 0.9980828762054443, 0.998672604560852, 0.9985268115997314, 0.9979637861251831, 0.9979028701782227, 0.9979715943336487, 0.9980243444442749, 0.998111367225647, 0.9975544810295105, 0.998695433139801, 0.9987443685531616, 0.998933732509613, 0.9987340569496155, 0.998551070690155, 0.9981766939163208, 0.9981979727745056, 0.9974138140678406, 0.997395396232605, 0.9976988434791565, 0.9981642365455627, 0.9973402619361877, 0.9983224272727966, 0.9984253644943237, 0.9985684156417847, 0.9977860450744629, 0.9981827735900879, 0.9912002682685852, 0.9758500456809998, 0.9604005217552185, 0.9952492713928223, 0.9986035227775574, 0.998530387878418, 0.9986030459403992, 0.9989811778068542, 0.9992105960845947, 0.9985811710357666, 0.9940019249916077, 0.9979118704795837, 0.9985028505325317, 0.998316764831543, 0.9987998008728027, 0.9958295226097107, 0.9971780776977539, 0.9973069429397583, 0.9975631237030029, 0.9982047080993652, 0.9979076385498047, 0.9979581832885742, 0.9981538653373718, 0.9990979433059692, 0.9986613988876343, 0.9988947510719299, 0.9986435770988464, 0.9987860321998596, 0.9986587762832642, 0.998557984828949, 0.998552143573761, 0.9973125457763672, 0.9979555606842041, 0.9982781410217285, 0.9985963702201843, 0.9984725117683411, 0.9987421631813049, 0.9990720748901367, 0.9989261031150818, 0.9984221458435059, 0.9987131357192993, 0.9987194538116455, 0.9989618062973022, 0.9986863732337952, 0.9991769194602966, 0.9986403584480286, 0.997364342212677, 0.9968923926353455, 0.9979485869407654, 0.996350884437561, 0.9960004687309265, 0.9978651404380798, 0.9984487295150757, 0.9984473586082458]</t>
+          <t>[0.9930797219276428, 0.9931151270866394, 0.9945722222328186, 0.9950639605522156, 0.9927901029586792, 0.9955457448959351, 0.9959506988525391, 0.9984109401702881, 0.9989914298057556, 0.9986913800239563, 0.9987216591835022, 0.9988284707069397, 0.998878538608551, 0.9990890026092529, 0.9991418123245239, 0.9992803931236267, 0.9993401169776917, 0.9991433620452881, 0.9986321330070496, 0.9980071187019348, 0.9969882369041443, 0.9962880611419678, 0.9954208731651306, 0.9980987906455994, 0.998789370059967, 0.99873286485672, 0.9940998554229736, 0.9971734285354614, 0.997253954410553, 0.99732506275177, 0.9970541000366211, 0.9976909160614014, 0.9984180927276611, 0.9992037415504456, 0.9992421865463257, 0.9994471669197083, 0.9995037317276001, 0.9993934631347656, 0.9990923404693604, 0.9992998838424683, 0.9991239905357361, 0.9991468191146851, 0.999005138874054, 0.9981750249862671, 0.9979190230369568, 0.9989907145500183, 0.9991256594657898, 0.9976291060447693, 0.9986673593521118, 0.9978265166282654, 0.9976251721382141, 0.9974663257598877, 0.996975302696228, 0.9969250559806824, 0.9922674298286438, 0.9943793416023254, 0.9967040419578552, 0.9974765181541443, 0.9984163045883179, 0.9982593655586243, 0.9988113641738892, 0.9984209537506104, 0.9985944628715515, 0.9985684156417847, 0.9988986253738403, 0.9987269043922424, 0.9983662962913513, 0.9962310194969177, 0.9986563920974731, 0.9984342455863953, 0.9988247752189636, 0.9988565444946289, 0.9979743361473083, 0.9980266690254211, 0.9983497858047485, 0.9979408383369446, 0.9978203773498535, 0.9983955025672913, 0.9988266825675964, 0.9979636669158936, 0.9982947707176208, 0.9986112117767334, 0.9983019828796387, 0.9983147382736206, 0.9985033273696899, 0.9948417544364929, 0.9743747115135193, 0.9507322311401367, 0.9964939951896667, 0.9989944100379944, 0.9986201524734497, 0.998164713382721, 0.9991458654403687, 0.9992856383323669, 0.998820960521698, 0.9913235902786255, 0.9979050159454346, 0.9987155199050903, 0.9986217021942139, 0.9993983507156372, 0.9966533780097961, 0.9981677532196045, 0.997759222984314, 0.9978705644607544, 0.9982722997665405, 0.9985482096672058, 0.997769832611084, 0.9979634284973145, 0.9990813732147217, 0.9985313415527344, 0.9990123510360718, 0.9988456964492798, 0.9989232420921326, 0.9988197684288025, 0.9988516569137573, 0.998904824256897, 0.9976593255996704, 0.9981316924095154, 0.9984500408172607, 0.9987075328826904, 0.9986047148704529, 0.9988529682159424, 0.9992530941963196, 0.9992855191230774, 0.9988058805465698, 0.9987687468528748, 0.9986646175384521, 0.9992226362228394, 0.9988574981689453, 0.9994496703147888, 0.9989834427833557, 0.9981579184532166, 0.9975900650024414, 0.9986425042152405, 0.9979535341262817, 0.9977486729621887, 0.9983595013618469, 0.9989466071128845, 0.9989470839500427]</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.9992196559906006</v>
+        <v>0.9995037317276001</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -3823,10 +3823,10 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0.7783509000146296</v>
+        <v>0.7746624999999767</v>
       </c>
       <c r="J82" t="n">
-        <v>0.005599646762695177</v>
+        <v>0.0055731115107912</v>
       </c>
     </row>
     <row r="83">
@@ -3845,11 +3845,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[0.9898262023925781, 0.9639507532119751, 0.9883757829666138, 0.9785110354423523, 0.9135380387306213, 0.9766088128089905, 0.9913370609283447, 0.986927330493927, 0.9522980451583862, 0.9867439270019531, 0.9913628101348877, 0.995591402053833, 0.9895289540290833, 0.977001965045929, 0.9811655282974243, 0.994875967502594, 0.9946297407150269, 0.9847601056098938, 0.9915708303451538, 0.9850741624832153, 0.9808776378631592, 0.9277366995811462, 0.9730328917503357, 0.9712562561035156, 0.9662277698516846, 0.9875816106796265, 0.9921630024909973, 0.9884614944458008, 0.9808160662651062, 0.809411346912384, 0.4992695748806, 0.7988420128822327, 0.9466235637664795, 0.9759995937347412, 0.942289412021637, 0.9831809401512146, 0.9975526928901672, 0.9975759387016296, 0.9972969889640808, 0.9967947602272034, 0.9971047043800354, 0.9986810088157654, 0.9923866987228394, 0.9498915076255798, 0.8821466565132141, 0.8876597285270691, 0.6122298240661621, 0.5353505611419678, 0.7892845869064331, 0.9426637291908264, 0.8929474353790283, 0.9327922463417053, 0.8489499092102051, 0.9492434859275818, 0.9543206095695496, 0.9450138211250305, 0.9944143295288086, 0.9977808594703674, 0.9965954422950745, 0.9933991432189941, 0.9910860657691956, 0.9879530072212219, 0.9256322383880615, 0.9808757305145264, 0.9717166423797607, 0.9868193864822388, 0.9350135922431946, 0.7971428036689758, 0.9155413508415222, 0.9452680945396423, 0.9367774724960327, 0.9956474900245667, 0.9980411529541016, 0.9978700876235962, 0.9980748891830444, 0.9964112639427185, 0.9959057569503784, 0.9965654015541077, 0.9947299957275391, 0.9805984497070312, 0.9731690287590027, 0.9872114062309265, 0.9911894798278809, 0.983951985836029, 0.9683315753936768, 0.9739799499511719, 0.9944056272506714, 0.9970985651016235, 0.9942948222160339, 0.9906953573226929, 0.9875168204307556, 0.9944055080413818, 0.9931139349937439, 0.9951685667037964, 0.9952065348625183, 0.9938104748725891, 0.9962770342826843, 0.9963611960411072, 0.9777405261993408, 0.9906566143035889, 0.9807096719741821, 0.946147620677948, 0.967613160610199, 0.9552731513977051, 0.8331035375595093, 0.9561734199523926, 0.7353326082229614, 0.6264418959617615, 0.7452161908149719, 0.8463265895843506, 0.9673831462860107, 0.991419792175293, 0.9934216141700745, 0.9944847226142883, 0.9575163125991821, 0.8408440947532654, 0.7670043110847473, 0.7421746253967285, 0.8204051852226257, 0.8483635187149048, 0.9868560433387756, 0.9948235750198364, 0.9952057003974915, 0.9953452944755554, 0.9917178153991699, 0.9944471120834351, 0.995215654373169, 0.9937224984169006, 0.9949246644973755, 0.9960983991622925, 0.9936320185661316, 0.9936091899871826, 0.9941151142120361, 0.9937649965286255, 0.9935716390609741, 0.9885091185569763, 0.9876244068145752, 0.965869665145874, 0.8817312717437744, 0.8819088935852051]</t>
+          <t>[0.9894254207611084, 0.9210379123687744, 0.9664783477783203, 0.9577183127403259, 0.8988052010536194, 0.9669643044471741, 0.9901780486106873, 0.975571870803833, 0.9445344805717468, 0.9854468107223511, 0.9922769069671631, 0.9950124621391296, 0.9840185046195984, 0.9451180696487427, 0.9693343639373779, 0.9955466985702515, 0.989818274974823, 0.9733913540840149, 0.9858337044715881, 0.9755245447158813, 0.9742252230644226, 0.9119694828987122, 0.9700843095779419, 0.9691203832626343, 0.9698783755302429, 0.9843031167984009, 0.9930103421211243, 0.987623929977417, 0.9779810309410095, 0.6972362995147705, 0.40175992250442505, 0.8175902962684631, 0.9588282108306885, 0.9697582721710205, 0.9145624041557312, 0.9816126823425293, 0.997405469417572, 0.9975650310516357, 0.9975746273994446, 0.9966873526573181, 0.995037853717804, 0.9985911250114441, 0.9909136295318604, 0.9783746600151062, 0.9513317942619324, 0.9282000660896301, 0.6702419519424438, 0.7135413885116577, 0.8176976442337036, 0.9558202028274536, 0.9357330203056335, 0.9338236451148987, 0.904520571231842, 0.9634333252906799, 0.9842669367790222, 0.966320276260376, 0.9974656105041504, 0.997140645980835, 0.9956789612770081, 0.9947711825370789, 0.9908283948898315, 0.9844292402267456, 0.9000808596611023, 0.9819474220275879, 0.9800513982772827, 0.9879893064498901, 0.9439381957054138, 0.7735195755958557, 0.9317684769630432, 0.9514365792274475, 0.9777544140815735, 0.9973875880241394, 0.9986981153488159, 0.9988049268722534, 0.9988406300544739, 0.9966816306114197, 0.9976286292076111, 0.9981192946434021, 0.995367169380188, 0.9791054129600525, 0.9411216974258423, 0.9833833575248718, 0.9870413541793823, 0.9734535217285156, 0.9688485860824585, 0.9692766666412354, 0.994818389415741, 0.9971898198127747, 0.9962313771247864, 0.9913799166679382, 0.983876645565033, 0.9946019649505615, 0.9948074221611023, 0.9974051117897034, 0.9974083304405212, 0.9962399005889893, 0.9977149963378906, 0.9980766773223877, 0.9907863736152649, 0.993950366973877, 0.9794252514839172, 0.9638362526893616, 0.9829095602035522, 0.9745817184448242, 0.8475958108901978, 0.9616799354553223, 0.7680659890174866, 0.6791802048683167, 0.8019641041755676, 0.8471664786338806, 0.9780003428459167, 0.9954527020454407, 0.9957971572875977, 0.996371865272522, 0.9660132527351379, 0.8530399203300476, 0.7364950776100159, 0.7777801156044006, 0.9268648624420166, 0.8802193403244019, 0.9920567870140076, 0.9956716299057007, 0.9964325428009033, 0.9958551526069641, 0.9911925196647644, 0.9939414262771606, 0.9952013492584229, 0.9937951564788818, 0.9957903027534485, 0.9969934225082397, 0.9946008920669556, 0.9951777458190918, 0.9934208989143372, 0.9946932196617126, 0.9918867945671082, 0.9815427660942078, 0.9868970513343811, 0.9777328968048096, 0.9231323599815369, 0.923413097858429]</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.9986810088157654</v>
+        <v>0.9988406300544739</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -3863,10 +3863,10 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0.7956950000079814</v>
+        <v>0.7940987999900244</v>
       </c>
       <c r="J83" t="n">
-        <v>0.005683535714342725</v>
+        <v>0.005672134285643031</v>
       </c>
     </row>
     <row r="84">
@@ -3885,11 +3885,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[0.9943841695785522, 0.9969726800918579, 0.9960311055183411, 0.9907117486000061, 0.9935569167137146, 0.992149829864502, 0.9966352581977844, 0.9959596991539001, 0.997114896774292, 0.9925363063812256, 0.991328775882721, 0.9895415306091309, 0.9866716265678406, 0.9971930384635925, 0.9986011385917664, 0.9982829093933105, 0.9982643723487854, 0.9976540207862854, 0.989923894405365, 0.9892393350601196, 0.9791377782821655, 0.9365624189376831, 0.975288987159729, 0.9848679900169373, 0.9846093654632568, 0.996179461479187, 0.9958898425102234, 0.9965463280677795, 0.995676577091217, 0.9965787529945374, 0.9968855977058411, 0.995335042476654, 0.9974036812782288, 0.9968488812446594, 0.9961005449295044, 0.9959145188331604, 0.980618953704834, 0.9606239199638367, 0.9835712909698486, 0.9888297915458679, 0.991233766078949, 0.9920663833618164, 0.9882131218910217, 0.9930157661437988, 0.9948556423187256, 0.9689883589744568, 0.9927476048469543, 0.9839749932289124, 0.9701162576675415, 0.977117657661438, 0.9871156215667725, 0.9764513969421387, 0.9826823472976685, 0.9913357496261597, 0.9960408210754395, 0.9960327744483948, 0.9951895475387573, 0.9953885078430176, 0.994239091873169, 0.9840022325515747, 0.99009108543396, 0.9590466022491455, 0.9797195792198181, 0.9682479500770569, 0.9751215577125549, 0.9933305382728577, 0.9900043606758118, 0.9958652257919312, 0.9960935711860657, 0.9935564398765564, 0.9764180779457092, 0.983945906162262, 0.9663445353507996, 0.9311723709106445, 0.9800608158111572, 0.9495161771774292, 0.9160367846488953, 0.9644042253494263, 0.9623335599899292, 0.9722861647605896, 0.9802677631378174, 0.9932004809379578, 0.9970070719718933, 0.998752236366272, 0.9984652996063232, 0.9982482194900513, 0.9984495639801025, 0.9978811144828796, 0.996607780456543, 0.9972913861274719, 0.9958587288856506, 0.995273768901825, 0.9957612156867981, 0.9976270794868469, 0.9982865452766418, 0.9990491271018982, 0.9984937906265259, 0.9974384307861328, 0.9943168759346008, 0.9973515272140503, 0.9952372312545776, 0.9851312041282654, 0.9953004121780396, 0.9872473478317261, 0.9519819617271423, 0.9712660312652588, 0.9959354400634766, 0.9966737031936646, 0.9964653253555298, 0.9912240505218506, 0.992694616317749, 0.9828194975852966, 0.9957186579704285, 0.9809267520904541, 0.980156660079956, 0.9969407320022583, 0.9885764718055725, 0.9945542812347412, 0.9934366345405579, 0.9825128316879272, 0.9880274534225464, 0.9918930530548096, 0.9957577586174011, 0.9964960217475891, 0.9920030832290649, 0.9942978024482727, 0.9917994737625122, 0.9968172311782837, 0.9944367408752441, 0.9944713115692139, 0.9939720034599304, 0.9945001602172852, 0.9941326975822449, 0.9929403066635132, 0.9934471249580383, 0.9937014579772949, 0.9971445202827454, 0.9981200098991394, 0.9965750575065613, 0.9965807795524597]</t>
+          <t>[0.9934070110321045, 0.9972847700119019, 0.9967214465141296, 0.9953345656394958, 0.9948141574859619, 0.9950815439224243, 0.9962100982666016, 0.9951092600822449, 0.9964702129364014, 0.9929394721984863, 0.992586076259613, 0.9897406101226807, 0.9928688406944275, 0.9976122379302979, 0.9981697797775269, 0.9984643459320068, 0.9983931183815002, 0.9981462955474854, 0.9950659275054932, 0.9934461712837219, 0.9928927421569824, 0.9791423082351685, 0.9934593439102173, 0.9945682287216187, 0.9916724562644958, 0.9973052740097046, 0.9967930912971497, 0.9966670870780945, 0.9973692893981934, 0.9979673027992249, 0.9974274039268494, 0.9961329698562622, 0.9978673458099365, 0.9970771074295044, 0.9962183833122253, 0.9971193075180054, 0.9871259331703186, 0.9763745665550232, 0.9932113885879517, 0.9939699172973633, 0.9950626492500305, 0.9942012429237366, 0.9930317401885986, 0.9958024621009827, 0.9946296215057373, 0.9886233806610107, 0.9949028491973877, 0.9923961758613586, 0.9904807209968567, 0.9927091598510742, 0.9935171604156494, 0.9904130101203918, 0.9889927506446838, 0.9944972395896912, 0.9976440072059631, 0.9975581169128418, 0.9973018169403076, 0.9967073202133179, 0.9966824650764465, 0.9951371550559998, 0.9948285222053528, 0.9896538853645325, 0.9916927814483643, 0.9916216135025024, 0.9923835396766663, 0.9969710111618042, 0.9962316155433655, 0.9962809681892395, 0.9976280331611633, 0.996682345867157, 0.990391731262207, 0.9943728446960449, 0.9880967140197754, 0.9780133366584778, 0.9933638572692871, 0.9770851135253906, 0.9752930998802185, 0.9891263246536255, 0.9891666769981384, 0.9940517544746399, 0.9913526177406311, 0.9970057606697083, 0.9974716901779175, 0.9988549947738647, 0.9982593655586243, 0.9983264803886414, 0.998143196105957, 0.9974351525306702, 0.9961798191070557, 0.9977204203605652, 0.9956958293914795, 0.9954197406768799, 0.995832622051239, 0.9982043504714966, 0.9986653327941895, 0.9992584586143494, 0.9989842772483826, 0.9983773231506348, 0.9956398010253906, 0.9977050423622131, 0.9963877201080322, 0.9954485297203064, 0.995901882648468, 0.9917885661125183, 0.977380633354187, 0.9856708645820618, 0.9970269799232483, 0.997163712978363, 0.9975433945655823, 0.9953433871269226, 0.9949919581413269, 0.9923892617225647, 0.9969162940979004, 0.9914845824241638, 0.9914717078208923, 0.9980601668357849, 0.9958341121673584, 0.9976992011070251, 0.9951145648956299, 0.9816111922264099, 0.990872859954834, 0.9943453073501587, 0.9962356686592102, 0.9964562058448792, 0.9957641363143921, 0.9952446818351746, 0.9942967295646667, 0.9965838193893433, 0.9962988495826721, 0.9966076612472534, 0.9942206144332886, 0.9946240186691284, 0.995520830154419, 0.9936895370483398, 0.9951598048210144, 0.9935410022735596, 0.9974204301834106, 0.9985370635986328, 0.9971469044685364, 0.9971541166305542]</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.9990491271018982</v>
+        <v>0.9992584586143494</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0.7936083000095095</v>
+        <v>0.8182124000013573</v>
       </c>
       <c r="J84" t="n">
-        <v>0.00566863071435364</v>
+        <v>0.005844374285723981</v>
       </c>
     </row>
     <row r="85">
@@ -3925,11 +3925,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[0.7668449282646179, 0.8994973301887512, 0.9045556783676147, 0.9540137052536011, 0.967982828617096, 0.8652916550636292, 0.9084182977676392, 0.7676129341125488, 0.9787529706954956, 0.9955385327339172, 0.9944191575050354, 0.9973748922348022, 0.9944820404052734, 0.98272705078125, 0.9943484663963318, 0.9922385811805725, 0.9955846667289734, 0.9928500652313232, 0.9918128252029419, 0.9922014474868774, 0.996513307094574, 0.9975131750106812, 0.9968388080596924, 0.9954851865768433, 0.9964737296104431, 0.9971684813499451, 0.9923568964004517, 0.9837608933448792, 0.9913480877876282, 0.9938758015632629, 0.9938403367996216, 0.9967130422592163, 0.9973201155662537, 0.9863013029098511, 0.988663375377655, 0.9878536462783813, 0.9973233342170715, 0.9970290064811707, 0.9976564645767212, 0.9977816939353943, 0.9947406649589539, 0.997000515460968, 0.9959665536880493, 0.9913933277130127, 0.9714739918708801, 0.9840404391288757, 0.9886685013771057, 0.9897412061691284, 0.9825981855392456, 0.9932624697685242, 0.981322169303894, 0.9590750932693481, 0.9685052037239075, 0.881872832775116, 0.9231414794921875, 0.8916894793510437, 0.9495747685432434, 0.9891926646232605, 0.9955369234085083, 0.9969505071640015, 0.9904971122741699, 0.988621175289154, 0.9883072972297668, 0.9795531630516052, 0.9838445782661438, 0.98273104429245, 0.9873428344726562, 0.9886741042137146, 0.9865763187408447, 0.9867091178894043, 0.9934486746788025, 0.995219886302948, 0.9943821430206299, 0.9907885193824768, 0.990784764289856, 0.9828863739967346, 0.9184848070144653, 0.910529613494873, 0.9808087348937988, 0.8921943306922913, 0.8084930777549744, 0.9034535884857178, 0.8975286483764648, 0.842731237411499, 0.8102967739105225, 0.9615210890769958, 0.9517827033996582, 0.9504084587097168, 0.950872004032135, 0.951139509677887, 0.983225405216217, 0.9936500191688538, 0.9920917749404907, 0.9953367114067078, 0.9963176250457764, 0.9952467083930969, 0.99308842420578, 0.9959422945976257, 0.997297465801239, 0.9955282807350159, 0.9969360828399658, 0.9970533847808838, 0.9961549639701843, 0.9979338645935059, 0.9965369701385498, 0.9971024394035339, 0.9931281805038452, 0.9939295053482056, 0.9946170449256897, 0.9902719855308533, 0.9965810179710388, 0.9978158473968506, 0.9937886595726013, 0.9962989687919617, 0.996921718120575, 0.9956411123275757, 0.9965709447860718, 0.9961494207382202, 0.9986360669136047, 0.9985275268554688, 0.9977280497550964, 0.9961320161819458, 0.9923495054244995, 0.9929330348968506, 0.9930979609489441, 0.9947746396064758, 0.9916212558746338, 0.9913725852966309, 0.9897856116294861, 0.9904766082763672, 0.992312490940094, 0.9572744965553284, 0.9878522157669067, 0.9953734278678894, 0.996673583984375, 0.9963221549987793, 0.9934303164482117, 0.9860888123512268, 0.9782940149307251, 0.9783210754394531]</t>
+          <t>[0.9065685272216797, 0.9683526158332825, 0.9563509821891785, 0.9774572849273682, 0.9846711158752441, 0.9550662040710449, 0.9513267278671265, 0.896271824836731, 0.973422646522522, 0.9911110997200012, 0.9898377656936646, 0.9973927736282349, 0.9930635094642639, 0.9837904572486877, 0.9952226281166077, 0.9951528310775757, 0.995184600353241, 0.9941595792770386, 0.9945703148841858, 0.994418740272522, 0.9978330731391907, 0.9977070093154907, 0.9975631237030029, 0.9970420002937317, 0.9968165755271912, 0.9973177313804626, 0.9944011569023132, 0.9883707761764526, 0.9927154183387756, 0.9951687455177307, 0.9957309365272522, 0.9968131184577942, 0.9968841671943665, 0.9870354533195496, 0.9891336560249329, 0.9917152523994446, 0.9980952143669128, 0.9979238510131836, 0.997948944568634, 0.9979074001312256, 0.9962349534034729, 0.9966919422149658, 0.9960113763809204, 0.9928026795387268, 0.978594183921814, 0.9893919229507446, 0.9920299053192139, 0.9915748238563538, 0.9887498617172241, 0.9946398138999939, 0.9894058108329773, 0.980148434638977, 0.9807732105255127, 0.9190528392791748, 0.9626876711845398, 0.9339388608932495, 0.9712980389595032, 0.991330623626709, 0.9956595301628113, 0.9971920847892761, 0.9911919236183167, 0.9902759790420532, 0.9936373233795166, 0.9893622994422913, 0.9924720525741577, 0.986850380897522, 0.9900417327880859, 0.990995466709137, 0.9882506132125854, 0.9893903136253357, 0.9927812218666077, 0.9940627217292786, 0.9899305105209351, 0.9918488264083862, 0.9923691749572754, 0.9903068542480469, 0.9438785314559937, 0.9488270282745361, 0.9881801605224609, 0.9037425518035889, 0.8444061875343323, 0.9406832456588745, 0.9486839771270752, 0.9229843616485596, 0.8600590229034424, 0.9792992472648621, 0.9718056321144104, 0.9715080857276917, 0.9606806635856628, 0.9693189263343811, 0.9848347902297974, 0.9928845763206482, 0.9915517568588257, 0.9941197633743286, 0.9961800575256348, 0.9949660897254944, 0.9925329685211182, 0.9951033592224121, 0.9972320199012756, 0.9943732023239136, 0.9969159364700317, 0.9966501593589783, 0.995537519454956, 0.997745931148529, 0.9968122839927673, 0.9972044825553894, 0.9931267499923706, 0.9954699277877808, 0.9964280724525452, 0.9932657480239868, 0.9966524243354797, 0.9975065588951111, 0.9930996894836426, 0.9958181977272034, 0.9974315762519836, 0.9967113733291626, 0.9964178800582886, 0.995880126953125, 0.998848557472229, 0.9987494945526123, 0.998130738735199, 0.9966182112693787, 0.993855893611908, 0.9957209229469299, 0.9940707087516785, 0.9944688081741333, 0.9895970225334167, 0.9940102100372314, 0.991809070110321, 0.9906346201896667, 0.9931649565696716, 0.9663988947868347, 0.9914319515228271, 0.995273768901825, 0.9963217973709106, 0.9968377351760864, 0.9950242638587952, 0.9924799203872681, 0.9906740784645081, 0.990676999092102]</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.9986360669136047</v>
+        <v>0.998848557472229</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
@@ -3943,10 +3943,10 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0.7967002999794204</v>
+        <v>0.8107775999960722</v>
       </c>
       <c r="J85" t="n">
-        <v>0.005690716428424432</v>
+        <v>0.005791268571400516</v>
       </c>
     </row>
     <row r="86">
@@ -3965,11 +3965,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[0.9989915490150452, 0.9989094734191895, 0.9986409544944763, 0.9989650249481201, 0.9987670183181763, 0.9987841248512268, 0.9984074234962463, 0.9982001781463623, 0.9976068735122681, 0.9986205101013184, 0.9983915686607361, 0.9982213377952576, 0.9978394508361816, 0.9975087642669678, 0.9974574446678162, 0.9955924153327942, 0.9969155788421631, 0.9933819770812988, 0.9966841340065002, 0.9962590932846069, 0.9965265393257141, 0.9941196441650391, 0.9941473007202148, 0.9984899759292603, 0.99861741065979, 0.9983623623847961, 0.9985284805297852, 0.9977157115936279, 0.9975443482398987, 0.9988013505935669, 0.9984298348426819, 0.9980825185775757, 0.9976059198379517, 0.9976231455802917, 0.9971724152565002, 0.9987021684646606, 0.9980891346931458, 0.9985289573669434, 0.9986708164215088, 0.9988200068473816, 0.9987623691558838, 0.9990311861038208, 0.998996913433075, 0.998740017414093, 0.9983737468719482, 0.997292697429657, 0.991366446018219, 0.9963070154190063, 0.9963154196739197, 0.9960344433784485, 0.9968035221099854, 0.9930604696273804, 0.991619348526001, 0.9954224228858948, 0.9956707954406738, 0.9963846206665039, 0.9962179064750671, 0.9961387515068054, 0.995141863822937, 0.9958196878433228, 0.9979373216629028, 0.9983775615692139, 0.9985740184783936, 0.9957801103591919, 0.9965073466300964, 0.9977532029151917, 0.9980873465538025, 0.9973587393760681, 0.9984048008918762, 0.9977560639381409, 0.9971966743469238, 0.9973577857017517, 0.9963493347167969, 0.996299684047699, 0.9911811351776123, 0.9958009123802185, 0.9982588887214661, 0.9967458248138428, 0.9973511695861816, 0.9985128045082092, 0.9985896944999695, 0.9971231818199158, 0.9956417083740234, 0.9972973465919495, 0.9978145360946655, 0.9979797005653381, 0.9971051812171936, 0.9955838322639465, 0.9887980818748474, 0.9926488995552063, 0.9908196330070496, 0.9878595471382141, 0.9928832054138184, 0.9949972629547119, 0.9956197142601013, 0.9955641031265259, 0.9966046810150146, 0.9970679879188538, 0.9929192662239075, 0.9947713017463684, 0.9936165809631348, 0.9948267340660095, 0.9944061040878296, 0.9962778687477112, 0.9966279864311218, 0.9978925585746765, 0.9966711401939392, 0.9960454106330872, 0.9975023865699768, 0.9963222742080688, 0.9981116056442261, 0.996606707572937, 0.9942638278007507, 0.9970199465751648, 0.997442364692688, 0.9964891672134399, 0.9980257749557495, 0.996577799320221, 0.996209979057312, 0.9976325035095215, 0.9977660179138184, 0.9962669014930725, 0.9979077577590942, 0.9971174001693726, 0.9972309470176697, 0.9980747699737549, 0.9986110925674438, 0.9977437257766724, 0.9983717799186707, 0.9978525638580322, 0.997560977935791, 0.9980925917625427, 0.9974134564399719, 0.9961472749710083, 0.99642014503479, 0.9981402158737183, 0.9981679916381836, 0.9972829818725586, 0.9969344139099121, 0.9969434142112732]</t>
+          <t>[0.9992166757583618, 0.9990805387496948, 0.9989126920700073, 0.9991886019706726, 0.9990308284759521, 0.9990816116333008, 0.9987768530845642, 0.999009370803833, 0.9987859129905701, 0.999173104763031, 0.9986452460289001, 0.9985643029212952, 0.9979934692382812, 0.9978105425834656, 0.9975757002830505, 0.9962454438209534, 0.997918426990509, 0.9961586594581604, 0.9972143769264221, 0.9970114231109619, 0.9962612986564636, 0.9932515025138855, 0.9947528839111328, 0.9984496831893921, 0.9986416697502136, 0.9984192848205566, 0.9984840750694275, 0.9972634315490723, 0.9966038465499878, 0.9978502988815308, 0.9979953765869141, 0.9981106519699097, 0.9973965883255005, 0.9975746273994446, 0.9978713989257812, 0.9990159273147583, 0.9984620809555054, 0.9988951086997986, 0.998857855796814, 0.9993164539337158, 0.999401330947876, 0.9993532299995422, 0.9992917776107788, 0.9988366961479187, 0.9984664916992188, 0.9981733560562134, 0.9940760135650635, 0.9972334504127502, 0.9962700605392456, 0.9961011409759521, 0.9959123730659485, 0.995147168636322, 0.9942445158958435, 0.9959864020347595, 0.99625164270401, 0.9966637492179871, 0.9960748553276062, 0.9954637885093689, 0.9950064420700073, 0.9962403774261475, 0.9980167150497437, 0.9982896447181702, 0.9988076686859131, 0.9957784414291382, 0.9970519542694092, 0.9976947903633118, 0.9979594945907593, 0.9972137808799744, 0.9984614849090576, 0.997793436050415, 0.9975368976593018, 0.9978538155555725, 0.9971261620521545, 0.9968777894973755, 0.9901094436645508, 0.9956670999526978, 0.9985514283180237, 0.997292697429657, 0.9979733824729919, 0.9989457726478577, 0.9989751577377319, 0.9965391159057617, 0.9963870048522949, 0.9972286820411682, 0.9977756142616272, 0.9977027773857117, 0.9976257681846619, 0.9963362216949463, 0.9904965162277222, 0.9928779006004333, 0.9923802614212036, 0.992699921131134, 0.995227575302124, 0.9958447813987732, 0.9967250227928162, 0.9956178665161133, 0.9970123767852783, 0.9971081614494324, 0.9952999353408813, 0.9966492056846619, 0.9946387410163879, 0.9957412481307983, 0.9960963129997253, 0.9974625110626221, 0.9975958466529846, 0.9987697005271912, 0.9976927042007446, 0.9970777034759521, 0.9977082014083862, 0.9965240359306335, 0.9985951781272888, 0.9969791173934937, 0.9955356121063232, 0.9971317052841187, 0.9970036149024963, 0.9969531297683716, 0.9981864094734192, 0.9963763356208801, 0.9969793558120728, 0.9981246590614319, 0.9980611205101013, 0.9971480965614319, 0.9976081848144531, 0.9975128173828125, 0.9974453449249268, 0.9983838796615601, 0.99874347448349, 0.9978547692298889, 0.9985778331756592, 0.9975636005401611, 0.9973195195198059, 0.997194766998291, 0.9968600273132324, 0.9943814873695374, 0.996612012386322, 0.9978516101837158, 0.9982454776763916, 0.9973147511482239, 0.9973147511482239, 0.9973183274269104]</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.9990311861038208</v>
+        <v>0.999401330947876</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -3983,10 +3983,10 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0.7936319000145886</v>
+        <v>0.8051286999980221</v>
       </c>
       <c r="J86" t="n">
-        <v>0.00566879928581849</v>
+        <v>0.005750919285700157</v>
       </c>
     </row>
     <row r="87">
@@ -4005,11 +4005,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>[0.9972987771034241, 0.9976994395256042, 0.9962375164031982, 0.9961430430412292, 0.9974796175956726, 0.9903525710105896, 0.9935365319252014, 0.9927693605422974, 0.991771399974823, 0.9951059818267822, 0.9964383840560913, 0.990129292011261, 0.9937660694122314, 0.9961754083633423, 0.9970002770423889, 0.9959371089935303, 0.9955509901046753, 0.9978227615356445, 0.9973159432411194, 0.9962776303291321, 0.9858415722846985, 0.9628962874412537, 0.9790614247322083, 0.9879781007766724, 0.9894527196884155, 0.9903731346130371, 0.9894512295722961, 0.9839845299720764, 0.9827499389648438, 0.9836603403091431, 0.9676516652107239, 0.9489997029304504, 0.9869979619979858, 0.9900007247924805, 0.9924484491348267, 0.9888502955436707, 0.9863842129707336, 0.9843371510505676, 0.994803249835968, 0.9948549270629883, 0.9971902966499329, 0.9913014769554138, 0.988707423210144, 0.9823327660560608, 0.9893440008163452, 0.997413694858551, 0.9973771572113037, 0.9967243075370789, 0.9944663643836975, 0.9974024891853333, 0.9976569414138794, 0.9983939528465271, 0.9981938004493713, 0.9971849322319031, 0.9953421354293823, 0.9884257316589355, 0.9844081997871399, 0.9753448963165283, 0.9968542456626892, 0.9980894923210144, 0.9985768795013428, 0.998577356338501, 0.9985026121139526, 0.997186005115509, 0.9953182339668274, 0.9956710338592529, 0.9924752116203308, 0.9866424798965454, 0.9821707010269165, 0.9748703241348267, 0.9886959791183472, 0.9872985482215881, 0.9810587763786316, 0.9893655776977539, 0.994570791721344, 0.9973434805870056, 0.9975749850273132, 0.9972454309463501, 0.9976674914360046, 0.9982272982597351, 0.9985622763633728, 0.9957045912742615, 0.987957775592804, 0.9437156319618225, 0.9780363440513611, 0.9832315444946289, 0.9939141869544983, 0.9948567152023315, 0.9930096864700317, 0.9773808717727661, 0.9770876169204712, 0.9831578731536865, 0.9504067897796631, 0.9912402033805847, 0.9945143461227417, 0.9920660853385925, 0.9952517747879028, 0.9980441331863403, 0.9978504180908203, 0.9982420206069946, 0.997318685054779, 0.997404158115387, 0.9916236996650696, 0.9949246644973755, 0.966741681098938, 0.8937444686889648, 0.9504362940788269, 0.9618470072746277, 0.8947342038154602, 0.7970688939094543, 0.9403436183929443, 0.9745720028877258, 0.990062415599823, 0.9957988858222961, 0.9973568916320801, 0.9958361387252808, 0.9959529638290405, 0.9822627305984497, 0.7816616296768188, 0.9854303598403931, 0.9983543157577515, 0.9947541952133179, 0.9951609969139099, 0.9973435997962952, 0.9986905455589294, 0.9979378581047058, 0.9983029365539551, 0.9982171654701233, 0.9962270259857178, 0.9818729758262634, 0.9959638118743896, 0.9964339733123779, 0.9929966330528259, 0.9916911125183105, 0.9957180619239807, 0.9886609315872192, 0.9643727540969849, 0.9738734364509583, 0.9744092226028442]</t>
+          <t>[0.9963370561599731, 0.9971504807472229, 0.9944254159927368, 0.9934031367301941, 0.996586799621582, 0.9843800067901611, 0.9898521304130554, 0.9891751408576965, 0.9884046316146851, 0.9914184808731079, 0.9935328960418701, 0.9837623238563538, 0.991947591304779, 0.9946818947792053, 0.9967551827430725, 0.994432270526886, 0.9906979203224182, 0.996178150177002, 0.994330883026123, 0.9908775687217712, 0.9808932542800903, 0.9379191398620605, 0.9656730890274048, 0.9771766066551208, 0.976783275604248, 0.9654225707054138, 0.9723165035247803, 0.9727794528007507, 0.9667296409606934, 0.9710851311683655, 0.9575021266937256, 0.8836812973022461, 0.9852702617645264, 0.9904721975326538, 0.9906632900238037, 0.9833614230155945, 0.9793077111244202, 0.9726135730743408, 0.9902552962303162, 0.9930516481399536, 0.9966093301773071, 0.9844613671302795, 0.9779670238494873, 0.972051739692688, 0.9887052178382874, 0.9977133274078369, 0.996699869632721, 0.9973210692405701, 0.9931982159614563, 0.9977405071258545, 0.9963423609733582, 0.9974949359893799, 0.9983021020889282, 0.9970001578330994, 0.997199296951294, 0.987417459487915, 0.9839227795600891, 0.9858009219169617, 0.9961543679237366, 0.9953983426094055, 0.997706413269043, 0.9974334836006165, 0.9973637461662292, 0.99349445104599, 0.9920727610588074, 0.9945569038391113, 0.9867988228797913, 0.977400004863739, 0.9707451462745667, 0.9623799324035645, 0.9723071455955505, 0.9769322872161865, 0.9811322093009949, 0.9836065769195557, 0.9887151122093201, 0.9968439340591431, 0.9965726137161255, 0.996360719203949, 0.9973554611206055, 0.9980941414833069, 0.9983071088790894, 0.9941011071205139, 0.9864246845245361, 0.9731400012969971, 0.9860584139823914, 0.987785816192627, 0.9935858845710754, 0.9893116354942322, 0.9918910264968872, 0.9805567264556885, 0.9811490178108215, 0.9772263765335083, 0.9397750496864319, 0.9842569231987, 0.9952280521392822, 0.9937021732330322, 0.995851993560791, 0.9973715543746948, 0.997957706451416, 0.9981657862663269, 0.9969382286071777, 0.9972288012504578, 0.989255428314209, 0.9922510981559753, 0.9461466670036316, 0.8968058228492737, 0.9594995379447937, 0.9622284770011902, 0.92491215467453, 0.8481057286262512, 0.901557445526123, 0.9691863059997559, 0.991043210029602, 0.9953908920288086, 0.9978637099266052, 0.9951693415641785, 0.9954466223716736, 0.9807918667793274, 0.7971792221069336, 0.9677636027336121, 0.9958289265632629, 0.9887083768844604, 0.9782652854919434, 0.991936445236206, 0.9956613183021545, 0.9946929812431335, 0.9954118132591248, 0.99625164270401, 0.989270806312561, 0.9282371401786804, 0.9903664588928223, 0.9872857928276062, 0.980991542339325, 0.9679756760597229, 0.9893648624420166, 0.9720548391342163, 0.930844247341156, 0.9554039239883423, 0.9558289051055908]</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.9986905455589294</v>
+        <v>0.9983071088790894</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -4023,10 +4023,10 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0.819873699976597</v>
+        <v>0.7917270000034478</v>
       </c>
       <c r="J87" t="n">
-        <v>0.005898371942277676</v>
+        <v>0.00569587769786653</v>
       </c>
     </row>
     <row r="88">
@@ -4045,11 +4045,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[0.1036437600851059, 0.12456381320953369, 0.22050632536411285, 0.286556601524353, 0.36392611265182495, 0.17008179426193237, 0.08518198132514954, 0.39967501163482666, 0.3495725393295288, 0.48719558119773865, 0.6404934525489807, 0.7522363662719727, 0.7797671556472778, 0.6320096850395203, 0.3704756796360016, 0.5079083442687988, 0.4073885977268219, 0.7461230754852295, 0.7087514996528625, 0.33444681763648987, 0.23804578185081482, 0.10822562873363495, 0.30951306223869324, 0.13177376985549927, 0.08870948106050491, 0.18924874067306519, 0.17152641713619232, 0.13451707363128662, 0.1218467727303505, 0.15674874186515808, 0.207769513130188, 0.06306175142526627, 0.159836545586586, 0.13974900543689728, 0.18038992583751678, 0.433711975812912, 0.531761884689331, 0.1803603321313858, 0.23148410022258759, 0.111369788646698, 0.1591797024011612, 0.5930336713790894, 0.8785674571990967, 0.8971438407897949, 0.7164503931999207, 0.12800133228302002, 0.37286078929901123, 0.5451630353927612, 0.3677454888820648, 0.43204841017723083, 0.26447558403015137, 0.230705127120018, 0.13993290066719055, 0.18884697556495667, 0.1495646834373474, 0.3944624364376068, 0.3565276563167572, 0.46550220251083374, 0.2555491626262665, 0.24934819340705872, 0.8364791870117188, 0.38169464468955994, 0.2803522050380707, 0.557733952999115, 0.193694606423378, 0.30613625049591064, 0.29340511560440063, 0.6485281586647034, 0.41072484850883484, 0.11490538716316223, 0.35824054479599, 0.09695263206958771, 0.23167107999324799, 0.09557829797267914, 0.24822494387626648, 0.1676488220691681, 0.08613240718841553, 0.08583614975214005, 0.11382613331079483, 0.16638542711734772, 0.18867051601409912, 0.4307610094547272, 0.18365369737148285, 0.11900141835212708, 0.18868467211723328, 0.12430397421121597, 0.14581117033958435, 0.33177030086517334, 0.3926965296268463, 0.6654380559921265, 0.8107735514640808, 0.8937704563140869, 0.42540243268013, 0.3074605464935303, 0.3042375445365906, 0.30329588055610657, 0.17843246459960938, 0.3650254011154175, 0.24883310496807098, 0.12121684849262238, 0.2996714115142822, 0.33636176586151123, 0.33612239360809326]</t>
+          <t>[0.21807001531124115, 0.17263174057006836, 0.31298527121543884, 0.5588798522949219, 0.7355817556381226, 0.265871524810791, 0.13239863514900208, 0.5909236669540405, 0.5324602127075195, 0.7227623462677002, 0.76668781042099, 0.7470665574073792, 0.8604750037193298, 0.8624253869056702, 0.458910197019577, 0.609690248966217, 0.4960212707519531, 0.9050197601318359, 0.9260327816009521, 0.5550323724746704, 0.31486275792121887, 0.10204033553600311, 0.711333155632019, 0.4390372633934021, 0.10790564864873886, 0.2913833260536194, 0.32214421033859253, 0.1948224902153015, 0.16800495982170105, 0.29169660806655884, 0.3809688985347748, 0.07436375319957733, 0.2610892355442047, 0.17283830046653748, 0.20546197891235352, 0.6116998195648193, 0.7774684429168701, 0.3559529483318329, 0.5019017457962036, 0.09682103246450424, 0.27545085549354553, 0.7114030122756958, 0.9163021445274353, 0.9653960466384888, 0.8915435075759888, 0.1502586007118225, 0.5008015632629395, 0.6667594909667969, 0.3641311228275299, 0.48230212926864624, 0.4653069078922272, 0.3225632607936859, 0.15177160501480103, 0.4391341209411621, 0.1544291228055954, 0.32681238651275635, 0.535127580165863, 0.6120104193687439, 0.33885055780410767, 0.4726717174053192, 0.9300653338432312, 0.5609995126724243, 0.35634395480155945, 0.6506761312484741, 0.3823855519294739, 0.4016980528831482, 0.3385527729988098, 0.8180310130119324, 0.5647960901260376, 0.13690154254436493, 0.518291711807251, 0.12350283563137054, 0.4498257040977478, 0.15037104487419128, 0.510601818561554, 0.2856830954551697, 0.053553543984889984, 0.05237344652414322, 0.09728362411260605, 0.20496530830860138, 0.20780912041664124, 0.7319419384002686, 0.2919917106628418, 0.11610125005245209, 0.19997386634349823, 0.15146984159946442, 0.16168014705181122, 0.30472245812416077, 0.3833863139152527, 0.6723712086677551, 0.8674759864807129, 0.9328478574752808, 0.4862979054450989, 0.3928852677345276, 0.27649518847465515, 0.420529305934906, 0.2930106222629547, 0.6484619975090027, 0.40967702865600586, 0.33196786046028137, 0.49389466643333435, 0.4592150151729584, 0.45900729298591614]</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.8971438407897949</v>
+        <v>0.9653960466384888</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0.7638386999897193</v>
+        <v>0.745959199994104</v>
       </c>
       <c r="J88" t="n">
-        <v>0.007415909708638052</v>
+        <v>0.007242322330039844</v>
       </c>
     </row>
     <row r="89">
@@ -4085,11 +4085,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>[0.10590775310993195, 0.17964430153369904, 0.465497761964798, 0.5546634793281555, 0.22044737637043, 0.5419597029685974, 0.7924335598945618, 0.49398618936538696, 0.7074862122535706, 0.7933964729309082, 0.47626033425331116, 0.574546754360199, 0.646638810634613, 0.29964467883110046, 0.6476354002952576, 0.5900294780731201, 0.4431838095188141, 0.5695103406906128, 0.4920006990432739, 0.20119065046310425, 0.5164331793785095, 0.5778550505638123, 0.2741965353488922, 0.1452082246541977, 0.3352937400341034, 0.11187689006328583, 0.13480806350708008, 0.21587181091308594, 0.2874317467212677, 0.14212816953659058, 0.1751520037651062, 0.36645200848579407, 0.264151006937027, 0.3318805396556854, 0.4481601119041443, 0.19668807089328766, 0.134566068649292, 0.24251224100589752, 0.2841287851333618, 0.4210968613624573, 0.2078831046819687, 0.5399678945541382, 0.1784752458333969, 0.14755621552467346, 0.15080764889717102, 0.3003386855125427, 0.2698451578617096, 0.23974353075027466, 0.1887892782688141, 0.248212993144989, 0.31805282831192017, 0.29310810565948486, 0.2568238377571106, 0.47301605343818665, 0.3582136332988739, 0.45368969440460205, 0.5632330179214478, 0.31617164611816406, 0.22737839818000793, 0.3161739110946655, 0.4824494421482086, 0.2688875198364258, 0.26123782992362976, 0.25814884901046753, 0.0800410658121109, 0.07680198550224304, 0.1253478229045868, 0.06411159038543701, 0.12459508329629898, 0.29093578457832336, 0.19436150789260864, 0.1125832125544548, 0.11779820173978806, 0.11115287244319916, 0.22691673040390015, 0.27475249767303467, 0.23850208520889282, 0.09282784163951874, 0.1487303525209427, 0.08781053125858307, 0.17784777283668518, 0.23121902346611023, 0.13294260203838348, 0.188526913523674, 0.14917394518852234, 0.11629221588373184, 0.16328030824661255, 0.15383532643318176, 0.20760804414749146, 0.17349372804164886, 0.181208997964859, 0.10824058204889297, 0.12211206555366516, 0.15326407551765442, 0.06551065295934677, 0.060860879719257355, 0.11758950352668762, 0.37465471029281616, 0.6269110441207886, 0.5017743706703186, 0.24765856564044952, 0.1433752328157425, 0.19548574090003967, 0.20186682045459747, 0.24870800971984863, 0.16442327201366425, 0.17793454229831696, 0.13438503444194794, 0.36376380920410156, 0.10537728667259216, 0.5008347630500793, 0.4936496317386627, 0.1930541694164276, 0.14350973069667816, 0.10804121196269989, 0.13223585486412048, 0.237717866897583, 0.15764573216438293, 0.09908360242843628, 0.11177538335323334, 0.1730743646621704, 0.1671794354915619, 0.22492113709449768, 0.14766746759414673, 0.1642335206270218, 0.11509384214878082, 0.1816573441028595, 0.4099099040031433, 0.36842581629753113, 0.3323017954826355, 0.5308696031570435, 0.648526132106781, 0.27248111367225647, 0.22793850302696228, 0.17572364211082458, 0.2798883020877838, 0.11581644415855408, 0.173613041639328, 0.17353370785713196]</t>
+          <t>[0.06636019796133041, 0.13165196776390076, 0.4086689054965973, 0.5766663551330566, 0.2548263669013977, 0.5572576522827148, 0.7212876677513123, 0.38313359022140503, 0.6806820631027222, 0.7656011581420898, 0.42252007126808167, 0.49377650022506714, 0.6517468690872192, 0.26933610439300537, 0.697381854057312, 0.6525442600250244, 0.453672856092453, 0.5278114676475525, 0.3980974555015564, 0.1374666541814804, 0.41116514801979065, 0.561863899230957, 0.1618766337633133, 0.09520139545202255, 0.2417566031217575, 0.06042207032442093, 0.09270243346691132, 0.1664815992116928, 0.15826763212680817, 0.05539710819721222, 0.10210353136062622, 0.322796493768692, 0.2523888051509857, 0.24542714655399323, 0.45358869433403015, 0.18413935601711273, 0.13999389111995697, 0.27623796463012695, 0.33352556824684143, 0.35070860385894775, 0.13955719769001007, 0.55422443151474, 0.12600544095039368, 0.13246820867061615, 0.1597779542207718, 0.4797487258911133, 0.3112115263938904, 0.1941533386707306, 0.16042770445346832, 0.24057482182979584, 0.32347092032432556, 0.2041592299938202, 0.17592072486877441, 0.29827749729156494, 0.2359531819820404, 0.38004711270332336, 0.37612539529800415, 0.16940635442733765, 0.11576142907142639, 0.198359876871109, 0.34018754959106445, 0.14736847579479218, 0.16797755658626556, 0.20219872891902924, 0.04379686713218689, 0.037196218967437744, 0.04893295094370842, 0.02188870683312416, 0.07993439584970474, 0.17464354634284973, 0.1264481395483017, 0.052276596426963806, 0.06810823827981949, 0.05200497433543205, 0.1379430890083313, 0.17485256493091583, 0.24376367032527924, 0.06653439998626709, 0.10340017825365067, 0.0409228578209877, 0.0867425873875618, 0.18080899119377136, 0.06395374238491058, 0.11066228896379471, 0.0855732187628746, 0.07857900857925415, 0.1306627243757248, 0.08541711419820786, 0.11962943524122238, 0.08071806281805038, 0.1154877170920372, 0.06122070923447609, 0.05230330675840378, 0.08089445531368256, 0.03782374784350395, 0.03624496981501579, 0.05076054483652115, 0.31744444370269775, 0.5253902673721313, 0.3872591555118561, 0.125954270362854, 0.06999031454324722, 0.09959355741739273, 0.14003711938858032, 0.21573133766651154, 0.13862834870815277, 0.09694919735193253, 0.05521063879132271, 0.24467341601848602, 0.049995675683021545, 0.3385874629020691, 0.35089507699012756, 0.15289631485939026, 0.07221497595310211, 0.06926515698432922, 0.07564421743154526, 0.17544510960578918, 0.12008475512266159, 0.07199519127607346, 0.09520959109067917, 0.12948885560035706, 0.1477046012878418, 0.18232367932796478, 0.07483834028244019, 0.11163822561502457, 0.0797235295176506, 0.10508053749799728, 0.3261362612247467, 0.26567986607551575, 0.25109952688217163, 0.4614582359790802, 0.5315669178962708, 0.18106688559055328, 0.14414772391319275, 0.09901309013366699, 0.1968761533498764, 0.08494947850704193, 0.11783415824174881, 0.1177743673324585]</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.7933964729309082</v>
+        <v>0.7656011581420898</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -4103,10 +4103,10 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0.8067862000025343</v>
+        <v>0.7986419999942882</v>
       </c>
       <c r="J89" t="n">
-        <v>0.005804217266205283</v>
+        <v>0.005745625899239483</v>
       </c>
     </row>
     <row r="90">
@@ -4125,11 +4125,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[0.05827523395419121, 0.14166931807994843, 0.29071691632270813, 0.1404210329055786, 0.04861561581492424, 0.022192247211933136, 0.037866637110710144, 0.04006575047969818, 0.06075717881321907, 0.0360017754137516, 0.042896121740341187, 0.10154793411493301, 0.08379237353801727, 0.07551523298025131, 0.036810509860515594, 0.036389920860528946, 0.02590254880487919, 0.023910338059067726, 0.012140986509621143, 0.027312127873301506, 0.05964050069451332, 0.04560839757323265, 0.05649230629205704, 0.13280709087848663, 0.1214551255106926, 0.03980930894613266, 0.02434423938393593, 0.030937273055315018, 0.09945391863584518, 0.1283593475818634, 0.0693262591958046, 0.173677459359169, 0.09402205795049667, 0.09731800854206085, 0.0953068658709526, 0.10036429017782211, 0.09968980401754379, 0.037362322211265564, 0.04160977154970169, 0.1048542782664299, 0.10906749218702316, 0.06837546080350876, 0.0516391359269619, 0.06434585154056549, 0.04662534222006798, 0.11898330599069595, 0.06421785056591034, 0.13489791750907898, 0.22763408720493317, 0.19951008260250092, 0.19793382287025452, 0.4345152974128723, 0.0891193076968193, 0.36596062779426575, 0.29198315739631653, 0.11412940174341202, 0.29563108086586, 0.6081776022911072, 0.48214244842529297, 0.5435646772384644, 0.7022046446800232, 0.6871151924133301, 0.5265962481498718, 0.44707173109054565, 0.31024888157844543, 0.5533145070075989, 0.6492719650268555, 0.6786179542541504, 0.708870530128479, 0.6753408908843994, 0.26274052262306213, 0.43973812460899353, 0.2608901560306549, 0.19060896337032318, 0.08422166109085083, 0.09992995858192444, 0.08787287026643753, 0.06521157175302505, 0.050694163888692856, 0.08537575602531433, 0.21066923439502716, 0.08403998613357544, 0.06101775914430618, 0.14810769259929657, 0.21745362877845764, 0.09107309579849243, 0.10551939904689789, 0.09933168441057205, 0.12544336915016174, 0.1439405381679535, 0.1311762034893036, 0.07668132334947586, 0.08063217252492905, 0.15356601774692535, 0.1471662074327469, 0.29984036087989807, 0.2986513078212738, 0.38539400696754456, 0.6302800178527832, 0.43676164746284485, 0.4171351492404938, 0.4046488106250763, 0.2943190336227417, 0.5085698962211609, 0.3792942464351654, 0.5048822164535522, 0.1535765677690506, 0.3851659297943115, 0.3077198266983032, 0.18435229361057281, 0.29809004068374634, 0.2192455530166626, 0.1982952356338501, 0.17743255198001862, 0.2307121604681015, 0.24720637500286102, 0.1770879477262497, 0.4973031282424927, 0.2571050226688385, 0.15074346959590912, 0.1278599500656128, 0.10711101442575455, 0.1723652184009552, 0.19083568453788757, 0.24693064391613007, 0.18631511926651, 0.2643852233886719, 0.22033019363880157, 0.34136563539505005, 0.3300820291042328, 0.09365612268447876, 0.6014852523803711, 0.6362272500991821, 0.5927539467811584, 0.41979488730430603, 0.29595598578453064, 0.19904311001300812, 0.07801748812198639, 0.0780133381485939]</t>
+          <t>[0.04397206008434296, 0.2077396810054779, 0.34417101740837097, 0.3337215185165405, 0.09663199633359909, 0.02900390699505806, 0.038931071758270264, 0.03196515142917633, 0.04676205292344093, 0.03380747139453888, 0.056302230805158615, 0.16385406255722046, 0.12063830345869064, 0.09574123471975327, 0.0460001602768898, 0.04165871813893318, 0.030390853062272072, 0.023661985993385315, 0.012938497588038445, 0.02441544644534588, 0.05136801302433014, 0.05674513056874275, 0.06733975559473038, 0.18266603350639343, 0.2259761542081833, 0.039293691515922546, 0.0318417102098465, 0.044535815715789795, 0.10625223815441132, 0.11639168113470078, 0.06047024577856064, 0.2514658570289612, 0.1431819200515747, 0.11541200429201126, 0.09850511699914932, 0.11136544495820999, 0.1305009126663208, 0.06072009727358818, 0.07674574851989746, 0.19388337433338165, 0.14638535678386688, 0.09620096534490585, 0.059106312692165375, 0.07611198723316193, 0.050692539662122726, 0.09968973696231842, 0.07247492671012878, 0.30174702405929565, 0.5149227380752563, 0.3615046441555023, 0.41898733377456665, 0.7672934532165527, 0.08661221712827682, 0.4286806881427765, 0.3697627782821655, 0.11703429371118546, 0.36841249465942383, 0.7188587188720703, 0.49167439341545105, 0.6053568720817566, 0.7462372779846191, 0.6732035279273987, 0.6493512988090515, 0.5599068403244019, 0.4115334749221802, 0.6607583165168762, 0.7356572151184082, 0.7863945960998535, 0.7668772339820862, 0.7025852799415588, 0.30899327993392944, 0.5369264483451843, 0.42021873593330383, 0.190272718667984, 0.07387003302574158, 0.0708218514919281, 0.057431258261203766, 0.053713489323854446, 0.03308434411883354, 0.08030008524656296, 0.21928320825099945, 0.07394702732563019, 0.054565951228141785, 0.15502886474132538, 0.31455427408218384, 0.1279575526714325, 0.10539039224386215, 0.09192539751529694, 0.11655872315168381, 0.16582325100898743, 0.12534157931804657, 0.06489266455173492, 0.09845056384801865, 0.20802107453346252, 0.12041015923023224, 0.3761292099952698, 0.39489129185676575, 0.5203425884246826, 0.7643682360649109, 0.562247633934021, 0.626431941986084, 0.6724767684936523, 0.4931821823120117, 0.7065491676330566, 0.4243195354938507, 0.6842232942581177, 0.4236427843570709, 0.4644533693790436, 0.5739914178848267, 0.3823854625225067, 0.43750497698783875, 0.36334285140037537, 0.39883333444595337, 0.2527701258659363, 0.4125019311904907, 0.3993648886680603, 0.22280170023441315, 0.47072526812553406, 0.3051564395427704, 0.14345091581344604, 0.10803462564945221, 0.08730251342058182, 0.19325341284275055, 0.16939546167850494, 0.2658165693283081, 0.28844645619392395, 0.4254671335220337, 0.23860760033130646, 0.4753666818141937, 0.39505699276924133, 0.10490406304597855, 0.7151426076889038, 0.6770922541618347, 0.6666383743286133, 0.5146973133087158, 0.3379843235015869, 0.14682537317276, 0.09308427572250366, 0.09306720644235611]</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.708870530128479</v>
+        <v>0.7863945960998535</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -4143,10 +4143,10 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0.8102575000084471</v>
+        <v>0.801054399998975</v>
       </c>
       <c r="J90" t="n">
-        <v>0.005829190647542785</v>
+        <v>0.005762981294956655</v>
       </c>
     </row>
     <row r="91">
@@ -4165,11 +4165,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>[0.5832732319831848, 0.6738888621330261, 0.801447331905365, 0.6151272058486938, 0.7380985617637634, 0.7197078466415405, 0.8057759404182434, 0.8322960734367371, 0.8706538677215576, 0.8016022443771362, 0.8368822336196899, 0.8185017108917236, 0.7985227108001709, 0.8517128825187683, 0.8397915959358215, 0.7765277028083801, 0.7609655261039734, 0.846280574798584, 0.8486971855163574, 0.8651261329650879, 0.8321784138679504, 0.8550859689712524, 0.8721135258674622, 0.7465827465057373, 0.578175961971283, 0.7407478094100952, 0.751000165939331, 0.800765335559845, 0.8343029022216797, 0.881136417388916, 0.8437331318855286, 0.8608031272888184, 0.8156751394271851, 0.7023965120315552, 0.5821993350982666, 0.6671189069747925, 0.7061758041381836, 0.7410464286804199, 0.487975537776947, 0.4013727605342865, 0.30308035016059875, 0.21274434030056, 0.3272528350353241, 0.20127476751804352, 0.3217724561691284, 0.23408979177474976, 0.5987921357154846, 0.3779922425746918, 0.176327645778656, 0.44250887632369995, 0.816525399684906, 0.8225365877151489, 0.7623593211174011, 0.5349692106246948, 0.3358021080493927, 0.817465603351593, 0.6345638036727905, 0.4686856269836426, 0.4688698947429657, 0.2805129587650299, 0.21391059458255768, 0.7052056193351746, 0.6448177099227905, 0.6511907577514648, 0.6119120717048645, 0.33390817046165466, 0.18159037828445435, 0.35124146938323975, 0.08758480101823807, 0.24555043876171112, 0.0688382163643837, 0.2782738506793976, 0.1839316189289093, 0.5104947686195374, 0.38186928629875183, 0.4018262028694153, 0.2623055875301361, 0.2937684655189514, 0.40399056673049927, 0.587222158908844, 0.5138765573501587, 0.23995789885520935, 0.4052060842514038, 0.44593364000320435, 0.6551297903060913, 0.7893505096435547, 0.7762544751167297, 0.8380743265151978, 0.7423394322395325, 0.8089554309844971, 0.6716662645339966, 0.7242727279663086, 0.6507485508918762, 0.7587035894393921, 0.8384954929351807, 0.7239599227905273, 0.8110058903694153, 0.7827612161636353, 0.869395911693573, 0.826474130153656, 0.7793648838996887, 0.7480892539024353, 0.7592952251434326, 0.7013025283813477, 0.7878196835517883, 0.8271790742874146, 0.7757201790809631, 0.8221660852432251, 0.7762376666069031, 0.8311187028884888, 0.7673755884170532, 0.764024019241333, 0.6941823363304138, 0.7558131217956543, 0.837066650390625, 0.8460327982902527, 0.6358261108398438, 0.7100392580032349, 0.4613803029060364, 0.7659241557121277, 0.917016863822937, 0.8760523796081543, 0.7608253359794617, 0.7943551540374756, 0.8512923121452332, 0.6877177953720093, 0.49521052837371826, 0.6966609358787537, 0.8654695153236389, 0.615866482257843, 0.6000051498413086, 0.5730901956558228, 0.5091466903686523, 0.6468947529792786, 0.5965703129768372, 0.4438841938972473, 0.5873218178749084, 0.42531001567840576, 0.42448660731315613]</t>
+          <t>[0.5171654224395752, 0.5757121443748474, 0.723098874092102, 0.5668145418167114, 0.6815856695175171, 0.5858867168426514, 0.7398139834403992, 0.8127830028533936, 0.8541367650032043, 0.842647135257721, 0.8747724890708923, 0.8466929793357849, 0.7708359360694885, 0.8312618732452393, 0.8603252172470093, 0.7879142761230469, 0.6989129781723022, 0.8105684518814087, 0.814126193523407, 0.8513392210006714, 0.7275419235229492, 0.816856861114502, 0.8552271723747253, 0.7020237445831299, 0.49833065271377563, 0.7291841506958008, 0.7046918272972107, 0.7998639345169067, 0.8088422417640686, 0.9053055047988892, 0.8678591847419739, 0.9148017764091492, 0.8563995361328125, 0.7373870611190796, 0.5889817476272583, 0.6829339861869812, 0.567616879940033, 0.698408842086792, 0.33858415484428406, 0.297159343957901, 0.25633522868156433, 0.18105581402778625, 0.26539134979248047, 0.15137703716754913, 0.26912030577659607, 0.2196720391511917, 0.5696847438812256, 0.36836233735084534, 0.13946813344955444, 0.4430235028266907, 0.840367317199707, 0.8683114051818848, 0.7561172246932983, 0.625830888748169, 0.402970552444458, 0.785690426826477, 0.5532893538475037, 0.32558661699295044, 0.5117980241775513, 0.22584667801856995, 0.21994368731975555, 0.6999257802963257, 0.6908262372016907, 0.7738498449325562, 0.6918371319770813, 0.273567795753479, 0.09140336513519287, 0.2769891619682312, 0.05179470777511597, 0.29350546002388, 0.04429278522729874, 0.23355844616889954, 0.15401886403560638, 0.5409750938415527, 0.3442520797252655, 0.3146859109401703, 0.2526533007621765, 0.19639070332050323, 0.4318246841430664, 0.4973297715187073, 0.4158065915107727, 0.23213844001293182, 0.37114188075065613, 0.3878840208053589, 0.5490833520889282, 0.7370774745941162, 0.7562968134880066, 0.8443343043327332, 0.7008592486381531, 0.747555136680603, 0.5432291626930237, 0.6137615442276001, 0.4572890102863312, 0.7069323062896729, 0.8677694201469421, 0.7464169263839722, 0.8132448196411133, 0.7414889335632324, 0.884844958782196, 0.7976993322372437, 0.7302464246749878, 0.6544449925422668, 0.7082074880599976, 0.6832302212715149, 0.7216736078262329, 0.8011252284049988, 0.7394970655441284, 0.7767501473426819, 0.7854501008987427, 0.7803325653076172, 0.6959128975868225, 0.7911640405654907, 0.6425084471702576, 0.7397695183753967, 0.856769859790802, 0.7890364527702332, 0.5368834137916565, 0.7179850339889526, 0.5472004413604736, 0.7008240818977356, 0.9364334344863892, 0.9027130603790283, 0.8214770555496216, 0.803914487361908, 0.8211519122123718, 0.6831395626068115, 0.42146432399749756, 0.6907811164855957, 0.8327227234840393, 0.5929809212684631, 0.5492412447929382, 0.49972274899482727, 0.5055925250053406, 0.6375325322151184, 0.5245588421821594, 0.45465758442878723, 0.5835641026496887, 0.3467661738395691, 0.3462078273296356]</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.917016863822937</v>
+        <v>0.9364334344863892</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0.7993405000015628</v>
+        <v>0.796429399997578</v>
       </c>
       <c r="J91" t="n">
-        <v>0.005750651079147934</v>
+        <v>0.00572970791365164</v>
       </c>
     </row>
     <row r="92">
@@ -4205,11 +4205,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[0.10985402762889862, 0.13218556344509125, 0.18163928389549255, 0.3146635890007019, 0.06313405185937881, 0.21050973236560822, 0.12162245064973831, 0.12837451696395874, 0.12268412858247757, 0.14537201821804047, 0.23399755358695984, 0.17888115346431732, 0.1343650072813034, 0.12449634820222855, 0.3709712028503418, 0.21322819590568542, 0.24386200308799744, 0.2073478102684021, 0.27062204480171204, 0.35054925084114075, 0.3496178984642029, 0.18383735418319702, 0.154196098446846, 0.13821615278720856, 0.056557729840278625, 0.27419424057006836, 0.3657820522785187, 0.25148412585258484, 0.27197936177253723, 0.2483578473329544, 0.1476576030254364, 0.5154659748077393, 0.4088168442249298, 0.40625593066215515, 0.6293285489082336, 0.2577463686466217, 0.3200792670249939, 0.15502603352069855, 0.2954976260662079, 0.24124926328659058, 0.1903284639120102, 0.1228313148021698, 0.14060339331626892, 0.14012742042541504, 0.08170875161886215, 0.19609589874744415, 0.09696938842535019, 0.12883970141410828, 0.22436702251434326, 0.16962581872940063, 0.09704774618148804, 0.11956825852394104, 0.08788273483514786, 0.05785432457923889, 0.15171903371810913, 0.3218427002429962, 0.09816563129425049, 0.2729821801185608, 0.28119799494743347, 0.3260807991027832, 0.3760611116886139, 0.1068117693066597, 0.20830762386322021, 0.277228444814682, 0.28773000836372375, 0.9076940417289734, 0.809856653213501, 0.6999272108078003, 0.6049094796180725, 0.2537061274051666, 0.5359913110733032, 0.5195661783218384, 0.23632797598838806, 0.5057417154312134, 0.6980030536651611, 0.47058624029159546, 0.31321319937705994, 0.3424777388572693, 0.47332197427749634, 0.45062553882598877, 0.2529202401638031, 0.3484784662723541, 0.17558099329471588, 0.12317291647195816, 0.17096489667892456, 0.3908289968967438, 0.27233219146728516, 0.2881052792072296, 0.2450719028711319, 0.1073572114109993, 0.18312549591064453, 0.2696423828601837, 0.15879163146018982, 0.15274664759635925, 0.2735740542411804, 0.2769221365451813, 0.23829001188278198, 0.1802234798669815, 0.22272901237010956, 0.15599074959754944, 0.3529006838798523, 0.28284457325935364, 0.24744582176208496, 0.15266641974449158, 0.10073108971118927, 0.2036554217338562, 0.2862619459629059, 0.33599966764450073, 0.16515398025512695, 0.07873298227787018, 0.09961985796689987, 0.22465187311172485, 0.2477291375398636, 0.16982387006282806, 0.23934002220630646, 0.0688784047961235, 0.09043096750974655, 0.1722031533718109, 0.1608838587999344, 0.12044735252857208, 0.4394526183605194, 0.3216423988342285, 0.20740118622779846, 0.2802256643772125, 0.4036896824836731, 0.21018145978450775, 0.372457355260849, 0.36433759331703186, 0.4891507625579834, 0.5967634320259094, 0.7328919172286987, 0.7743061780929565, 0.5929247736930847, 0.9143198132514954, 0.8773207664489746, 0.9119745492935181, 0.7181294560432434, 0.7821035385131836, 0.7823593020439148]</t>
+          <t>[0.056723400950431824, 0.05527760088443756, 0.08098015189170837, 0.1766907274723053, 0.033985234797000885, 0.14966462552547455, 0.06340374797582626, 0.0732530802488327, 0.07102016359567642, 0.12702324986457825, 0.14007990062236786, 0.10664115101099014, 0.06466549634933472, 0.08755455911159515, 0.1966424137353897, 0.13652528822422028, 0.13096702098846436, 0.13531698286533356, 0.16553521156311035, 0.2208961695432663, 0.22268545627593994, 0.12120239436626434, 0.06479249894618988, 0.058361053466796875, 0.0288527961820364, 0.13081397116184235, 0.26945409178733826, 0.17926031351089478, 0.1026633083820343, 0.14782094955444336, 0.06315894424915314, 0.2697775363922119, 0.21305230259895325, 0.341651052236557, 0.6431830525398254, 0.2201678454875946, 0.2326035052537918, 0.09028135240077972, 0.2642606496810913, 0.2925836145877838, 0.14891746640205383, 0.09627078473567963, 0.1395212858915329, 0.1285160779953003, 0.09471885859966278, 0.1707187443971634, 0.08115724474191666, 0.08601001650094986, 0.22973886132240295, 0.16367089748382568, 0.11087700724601746, 0.1634199023246765, 0.06613924354314804, 0.0626104325056076, 0.21612441539764404, 0.32442861795425415, 0.06603432446718216, 0.2127327173948288, 0.268034428358078, 0.34591034054756165, 0.31307893991470337, 0.10447049885988235, 0.1449735462665558, 0.20968316495418549, 0.3330225646495819, 0.8549988269805908, 0.7449524402618408, 0.706992506980896, 0.3508596122264862, 0.07219140231609344, 0.2565511167049408, 0.30352330207824707, 0.20021353662014008, 0.24599137902259827, 0.5292522311210632, 0.20414824783802032, 0.1704595386981964, 0.14328284561634064, 0.22343440353870392, 0.19502218067646027, 0.08281104266643524, 0.1802414208650589, 0.07866498082876205, 0.07562824338674545, 0.07605265080928802, 0.1765396147966385, 0.14521388709545135, 0.22238123416900635, 0.2182770073413849, 0.06295861303806305, 0.0899524837732315, 0.17766453325748444, 0.08870144188404083, 0.0743955448269844, 0.18581846356391907, 0.13059982657432556, 0.0833820030093193, 0.07596821337938309, 0.08304489403963089, 0.11343641579151154, 0.276738703250885, 0.220035582780838, 0.18313780426979065, 0.08651052415370941, 0.042033348232507706, 0.07871723920106888, 0.13233833014965057, 0.1778639853000641, 0.057380322366952896, 0.04862234741449356, 0.04172568395733833, 0.12359362840652466, 0.13530246913433075, 0.06722992658615112, 0.10652007162570953, 0.04765336588025093, 0.07924841344356537, 0.10143489390611649, 0.0718744695186615, 0.07631716877222061, 0.2878144085407257, 0.19636300206184387, 0.10012328624725342, 0.08273939043283463, 0.2265378087759018, 0.13083375990390778, 0.1716667115688324, 0.17004071176052094, 0.2868766486644745, 0.39639341831207275, 0.7035865783691406, 0.6012114882469177, 0.38625043630599976, 0.7525360584259033, 0.8567352890968323, 0.8549664616584778, 0.37727218866348267, 0.6455745100975037, 0.6460946798324585]</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.9143198132514954</v>
+        <v>0.8567352890968323</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -4223,10 +4223,10 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0.7929328000172973</v>
+        <v>0.7941541999898618</v>
       </c>
       <c r="J92" t="n">
-        <v>0.005704552518110052</v>
+        <v>0.005713339568272387</v>
       </c>
     </row>
     <row r="93">
@@ -4245,11 +4245,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[0.22921505570411682, 0.27186623215675354, 0.3124227523803711, 0.15014904737472534, 0.15445248782634735, 0.14426812529563904, 0.10887116193771362, 0.2051771581172943, 0.10957077890634537, 0.19975079596042633, 0.27466505765914917, 0.20312926173210144, 0.17710311710834503, 0.17576567828655243, 0.160427525639534, 0.5169786810874939, 0.18674762547016144, 0.11140477657318115, 0.4135296940803528, 0.34560373425483704, 0.17900240421295166, 0.14891056716442108, 0.40269315242767334, 0.34301134943962097, 0.5395498275756836, 0.28912287950515747, 0.3265121877193451, 0.64163738489151, 0.26377320289611816, 0.2906664311885834, 0.46159568428993225, 0.46806931495666504, 0.24375735223293304, 0.4911757707595825, 0.30961742997169495, 0.21863149106502533, 0.2871052622795105, 0.3895165026187897, 0.20373694598674774, 0.06824982911348343, 0.20813266932964325, 0.39108091592788696, 0.26570868492126465, 0.2592930495738983, 0.3594318628311157, 0.21285386383533478, 0.18240182101726532, 0.12977685034275055, 0.2196396440267563, 0.14435987174510956, 0.058296944946050644, 0.08366524428129196, 0.12265407294034958, 0.1147623285651207, 0.0773271918296814, 0.10042966902256012, 0.04587554186582565, 0.1315794736146927, 0.17208418250083923, 0.16783179342746735, 0.05481400340795517, 0.07337649166584015, 0.08838044852018356, 0.114625945687294, 0.15776127576828003, 0.15481036901474, 0.10193722695112228, 0.1060965433716774, 0.1382092535495758, 0.06243181601166725, 0.3333451449871063, 0.21015670895576477, 0.21720077097415924, 0.24501155316829681, 0.2876572012901306, 0.1437257081270218, 0.1670549362897873, 0.2675968408584595, 0.3272936940193176, 0.11343205720186234, 0.20779883861541748, 0.17278151214122772, 0.08370660245418549, 0.07616258412599564, 0.07360312342643738, 0.11783482134342194, 0.14424771070480347, 0.1901918649673462, 0.275882363319397, 0.4451834559440613, 0.17967337369918823, 0.1583116352558136, 0.1368604153394699, 0.20888032019138336, 0.10316432267427444, 0.09245657920837402, 0.11227933317422867, 0.2007286250591278, 0.19445274770259857, 0.2171275019645691, 0.20369765162467957, 0.17443081736564636, 0.06518750637769699, 0.09549275040626526, 0.08712804317474365, 0.08568181842565536, 0.11982214450836182, 0.10612085461616516, 0.06901202350854874, 0.12258610874414444, 0.11043407768011093, 0.12760311365127563, 0.18665896356105804, 0.1802477091550827, 0.19387473165988922, 0.32153499126434326, 0.10835261642932892, 0.06935111433267593, 0.07925739139318466, 0.0509653240442276, 0.13728992640972137, 0.13278526067733765, 0.1880490928888321, 0.18194827437400818, 0.1953984498977661, 0.07362476736307144, 0.08760316669940948, 0.10014918446540833, 0.09019279479980469, 0.10589969158172607, 0.16533568501472473, 0.12081827968358994, 0.07321563363075256, 0.09974347800016403, 0.20013023912906647, 0.18381747603416443, 0.2860024571418762, 0.1164916381239891, 0.19550563395023346, 0.19540183246135712]</t>
+          <t>[0.1525229513645172, 0.20557013154029846, 0.23942139744758606, 0.07220536470413208, 0.10538870841264725, 0.1151157096028328, 0.11030325293540955, 0.1480853408575058, 0.052126601338386536, 0.14865659177303314, 0.13537873327732086, 0.16252222657203674, 0.13209980726242065, 0.13306476175785065, 0.14123734831809998, 0.579223096370697, 0.1145196184515953, 0.0707288533449173, 0.3729313313961029, 0.3167358338832855, 0.12756186723709106, 0.09119338542222977, 0.2600122094154358, 0.21426153182983398, 0.39644044637680054, 0.24774318933486938, 0.26398468017578125, 0.578423023223877, 0.2357521504163742, 0.212020605802536, 0.4282568395137787, 0.4939613342285156, 0.260801762342453, 0.4509333372116089, 0.2728271484375, 0.1911088228225708, 0.22574128210544586, 0.33954083919525146, 0.11328944563865662, 0.04023965820670128, 0.20267443358898163, 0.40205201506614685, 0.2820671796798706, 0.24206699430942535, 0.3479016125202179, 0.15151165425777435, 0.2049289047718048, 0.11950966715812683, 0.17381176352500916, 0.15481138229370117, 0.04109689220786095, 0.05874268338084221, 0.1789853870868683, 0.12572108209133148, 0.06796687096357346, 0.07464838773012161, 0.0252848993986845, 0.12617015838623047, 0.1288129836320877, 0.12176186591386795, 0.043485190719366074, 0.05629122257232666, 0.0893620178103447, 0.09324773401021957, 0.12476819008588791, 0.15216059982776642, 0.12046069651842117, 0.09045150130987167, 0.11219070851802826, 0.03447479382157326, 0.2653654217720032, 0.13969190418720245, 0.1265554428100586, 0.23163153231143951, 0.23217982053756714, 0.09564593434333801, 0.12363273650407791, 0.29279640316963196, 0.2479095607995987, 0.06763893365859985, 0.2093973308801651, 0.17463082075119019, 0.04451154172420502, 0.04247216880321503, 0.04983457922935486, 0.08729471266269684, 0.08596949279308319, 0.15643388032913208, 0.20703598856925964, 0.3976098895072937, 0.1225942000746727, 0.09416041523218155, 0.09539900720119476, 0.16960278153419495, 0.04438777640461922, 0.04343629255890846, 0.062152162194252014, 0.17173878848552704, 0.16208983957767487, 0.2919453978538513, 0.21230794489383698, 0.22877055406570435, 0.041660819202661514, 0.05942118912935257, 0.05206841230392456, 0.05622642859816551, 0.09129501134157181, 0.10886253416538239, 0.06316220760345459, 0.07200085371732712, 0.06621111929416656, 0.08327100425958633, 0.16706441342830658, 0.23702506721019745, 0.23416881263256073, 0.311970978975296, 0.10713217407464981, 0.048090580850839615, 0.05460038036108017, 0.024364398792386055, 0.1411619931459427, 0.09769105911254883, 0.15271005034446716, 0.12268870323896408, 0.23032470047473907, 0.06571895629167557, 0.047630034387111664, 0.05723275616765022, 0.07209952175617218, 0.08477949351072311, 0.13664838671684265, 0.09372986108064651, 0.06467021256685257, 0.07099998742341995, 0.14794288575649261, 0.11883591115474701, 0.23678071796894073, 0.09566734731197357, 0.1439761519432068, 0.14399507641792297]</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.64163738489151</v>
+        <v>0.579223096370697</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0.798109099996509</v>
+        <v>0.8060756000049878</v>
       </c>
       <c r="J93" t="n">
-        <v>0.00570077928568935</v>
+        <v>0.005757682857178485</v>
       </c>
     </row>
     <row r="94">
@@ -4285,11 +4285,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[0.8192396759986877, 0.588204562664032, 0.6968026757240295, 0.17705492675304413, 0.0980948954820633, 0.14664015173912048, 0.0846448466181755, 0.1847139596939087, 0.41056615114212036, 0.21593284606933594, 0.11683915555477142, 0.1223890408873558, 0.3812486529350281, 0.13022977113723755, 0.5277272462844849, 0.08237603306770325, 0.1462407112121582, 0.2862010896205902, 0.617158055305481, 0.41805362701416016, 0.8939757347106934, 0.7029674053192139, 0.1797112375497818, 0.46973615884780884, 0.4610520899295807, 0.38694998621940613, 0.6492643356323242, 0.22663459181785583, 0.5174967050552368, 0.662671685218811, 0.7198275327682495, 0.847484827041626, 0.7121133804321289, 0.49492931365966797, 0.387053906917572, 0.2302597463130951, 0.40875694155693054, 0.423916757106781, 0.2913818955421448, 0.3328484296798706, 0.26113563776016235, 0.1743924915790558, 0.04510251432657242, 0.16044925153255463, 0.19501419365406036, 0.5256472229957581, 0.12402398139238358, 0.2542223334312439, 0.3224233388900757, 0.46004197001457214, 0.1574009656906128, 0.07352294772863388, 0.2302665263414383, 0.201618954539299, 0.09356710314750671, 0.5116675496101379, 0.2618100941181183, 0.5827175378799438, 0.07315141707658768, 0.3103103041648865, 0.16808092594146729, 0.2753949761390686, 0.08180522173643112, 0.07723776251077652, 0.13488472998142242, 0.16774176061153412, 0.12246935814619064, 0.06051735207438469, 0.07274599373340607, 0.050141848623752594, 0.1670607328414917, 0.16279421746730804, 0.06581228971481323, 0.08426381647586823, 0.10303444415330887, 0.07268792390823364, 0.1408064365386963, 0.15037868916988373, 0.08233464509248734, 0.08225598186254501, 0.05705505236983299, 0.0559794083237648, 0.04289525747299194, 0.049392156302928925, 0.06566066294908524, 0.07069943845272064, 0.06423831731081009, 0.1287790834903717, 0.11391106247901917, 0.08657601475715637, 0.09192737936973572, 0.17105914652347565, 0.052832309156656265, 0.09666326642036438, 0.09767048060894012, 0.10442270338535309, 0.08550189435482025, 0.08927349746227264, 0.29953962564468384, 0.21723370254039764, 0.08668123930692673, 0.111884206533432, 0.09260349720716476, 0.10115933418273926, 0.12236743420362473, 0.11375082284212112, 0.10816571116447449, 0.14992333948612213, 0.0935327485203743, 0.06851932406425476, 0.11409855633974075, 0.11627347767353058, 0.16930460929870605, 0.04227655008435249, 0.05226625129580498, 0.06636197119951248, 0.06568964570760727, 0.09518909454345703, 0.03969504311680794, 0.08253223448991776, 0.05851082503795624, 0.08318883180618286, 0.08360988646745682, 0.16219671070575714, 0.05977974459528923, 0.045174989849328995, 0.1371612399816513, 0.07641410082578659, 0.0977148711681366, 0.05265892669558525, 0.10070719569921494, 0.07603836804628372, 0.12464181333780289, 0.11268268525600433, 0.042815279215574265, 0.02720036171376705, 0.06581845134496689, 0.20369185507297516, 0.20359958708286285]</t>
+          <t>[0.8277772068977356, 0.5775725841522217, 0.8255510330200195, 0.2912949323654175, 0.12132537364959717, 0.1718396097421646, 0.09486571699380875, 0.3769586682319641, 0.6262324452400208, 0.32842040061950684, 0.16605570912361145, 0.13212662935256958, 0.5620316863059998, 0.19859051704406738, 0.7249601483345032, 0.12236551195383072, 0.23398250341415405, 0.4986622929573059, 0.7485973238945007, 0.5212047696113586, 0.9653275012969971, 0.8724085092544556, 0.33604803681373596, 0.6698087453842163, 0.6256712079048157, 0.5682401061058044, 0.7711700201034546, 0.2779942750930786, 0.5352846384048462, 0.7728613615036011, 0.7986380457878113, 0.9217135310173035, 0.8452990055084229, 0.3916740119457245, 0.49224400520324707, 0.318836510181427, 0.4348413944244385, 0.4878213405609131, 0.2492765635251999, 0.36556240916252136, 0.23918332159519196, 0.2385222613811493, 0.05942504107952118, 0.19914469122886658, 0.23122604191303253, 0.4962022602558136, 0.12930522859096527, 0.2858986258506775, 0.37158069014549255, 0.6198462843894958, 0.20760223269462585, 0.08545440435409546, 0.1852092295885086, 0.16807295382022858, 0.10287956893444061, 0.5445650815963745, 0.2905253469944, 0.41695794463157654, 0.06282384693622589, 0.5303602814674377, 0.1862833946943283, 0.3780169188976288, 0.15421071648597717, 0.08028682321310043, 0.211079940199852, 0.28695520758628845, 0.24922119081020355, 0.07562139630317688, 0.13526701927185059, 0.07587984204292297, 0.3606775999069214, 0.28118249773979187, 0.08204454928636551, 0.1657230108976364, 0.19732989370822906, 0.14339113235473633, 0.295642614364624, 0.2580695152282715, 0.11342956125736237, 0.11483938246965408, 0.05694073066115379, 0.07027723640203476, 0.05246247723698616, 0.06632446497678757, 0.08684494346380234, 0.08843754231929779, 0.08114949613809586, 0.16872239112854004, 0.1445440798997879, 0.09649129211902618, 0.15057022869586945, 0.2163122594356537, 0.04088469594717026, 0.11698487401008606, 0.12170267105102539, 0.12004552781581879, 0.05787975713610649, 0.07875214517116547, 0.3886558711528778, 0.2592340111732483, 0.08989770710468292, 0.15483911335468292, 0.09278625249862671, 0.0872841477394104, 0.1078413724899292, 0.12244831025600433, 0.09623189270496368, 0.17048116028308868, 0.08085864037275314, 0.060325801372528076, 0.114871084690094, 0.11681979149580002, 0.2557276785373688, 0.0498444102704525, 0.06393574923276901, 0.10670540481805801, 0.09022632241249084, 0.13883858919143677, 0.047597791999578476, 0.11014267057180405, 0.07355614006519318, 0.0944109633564949, 0.12589028477668762, 0.18200962245464325, 0.060866374522447586, 0.055384133011102676, 0.2756047248840332, 0.09021130204200745, 0.19574496150016785, 0.06072555109858513, 0.13661831617355347, 0.10042805224657059, 0.14425897598266602, 0.14354127645492554, 0.03420713543891907, 0.027431661263108253, 0.06023985892534256, 0.09989509731531143, 0.10027778893709183]</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.8939757347106934</v>
+        <v>0.9653275012969971</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -4303,10 +4303,10 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0.7855800999968778</v>
+        <v>0.7924396999878809</v>
       </c>
       <c r="J94" t="n">
-        <v>0.005651655395660992</v>
+        <v>0.005701005035884035</v>
       </c>
     </row>
     <row r="95">
@@ -4325,11 +4325,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[0.1717764139175415, 0.13285042345523834, 0.12565037608146667, 0.10795635730028152, 0.07891571521759033, 0.11253443360328674, 0.12782703340053558, 0.19496433436870575, 0.10680864751338959, 0.09896606206893921, 0.10556326061487198, 0.10640331357717514, 0.08237850666046143, 0.11078852415084839, 0.09374774247407913, 0.11028224974870682, 0.10549163073301315, 0.17307120561599731, 0.07615948468446732, 0.34577471017837524, 0.20134513080120087, 0.20932407677173615, 0.14814606308937073, 0.07621113210916519, 0.2818157374858856, 0.15873755514621735, 0.09756267070770264, 0.16793330013751984, 0.13522762060165405, 0.08485543727874756, 0.1894780397415161, 0.23592422902584076, 0.23689508438110352, 0.20488260686397552, 0.2509586811065674, 0.1689453423023224, 0.12980256974697113, 0.18787363171577454, 0.1276155263185501, 0.1478380560874939, 0.1089414581656456, 0.1796547919511795, 0.1385834962129593, 0.22795316576957703, 0.19982050359249115, 0.1137852817773819, 0.11694318801164627, 0.09479925036430359, 0.1844671666622162, 0.2027597427368164, 0.13578155636787415, 0.09502734243869781, 0.12965883314609528, 0.20975519716739655, 0.13806845247745514, 0.12037675827741623, 0.13462060689926147, 0.17941473424434662, 0.12315160036087036, 0.11529422551393509, 0.13762566447257996, 0.14940136671066284, 0.15164563059806824, 0.11013910919427872, 0.11359428614377975, 0.1124943196773529, 0.1923440396785736, 0.14755988121032715, 0.1481798142194748, 0.06252078711986542, 0.05656937137246132, 0.0873822495341301, 0.08532658219337463, 0.11490066349506378, 0.08863075077533722, 0.060256101191043854, 0.09891390055418015, 0.09069330245256424, 0.06541385501623154, 0.11836611479520798, 0.13438546657562256, 0.12152913957834244, 0.12510985136032104, 0.0954662561416626, 0.135448157787323, 0.07642913609743118, 0.12495321780443192, 0.0780528113245964, 0.12971563637256622, 0.12623395025730133, 0.20106862485408783, 0.13664056360721588, 0.12348707020282745, 0.07450409233570099, 0.08239871263504028, 0.08627880364656448, 0.12533517181873322, 0.09282699972391129, 0.12464811652898788, 0.09330259263515472, 0.04437064379453659, 0.0843421146273613, 0.049619145691394806, 0.08831504732370377, 0.099764384329319, 0.10071048885583878, 0.1472235471010208, 0.07699417322874069, 0.07849650084972382, 0.08270301669836044, 0.06417001038789749, 0.09536801278591156, 0.09540274739265442, 0.07040795683860779, 0.12334650754928589, 0.08129242807626724, 0.07053066045045853, 0.08939734846353531, 0.09346271306276321, 0.12713809311389923, 0.10162030905485153, 0.12538288533687592, 0.12545336782932281, 0.14884620904922485, 0.14138419926166534, 0.37082719802856445, 0.3709152936935425, 0.3973904252052307, 0.15197446942329407, 0.19889794290065765, 0.13191068172454834, 0.14374585449695587, 0.1555190086364746, 0.16031433641910553, 0.14634884893894196, 0.18836276233196259, 0.2353513091802597, 0.08373814821243286, 0.20523639023303986, 0.20513440668582916]</t>
+          <t>[0.1008118987083435, 0.08249340206384659, 0.11179035902023315, 0.06639644503593445, 0.051861654967069626, 0.12233586609363556, 0.19927869737148285, 0.22979816794395447, 0.1177564337849617, 0.06530621647834778, 0.09611301124095917, 0.07964222878217697, 0.05485140159726143, 0.057335980236530304, 0.05357331782579422, 0.0350455678999424, 0.05287071689963341, 0.13537538051605225, 0.04382830858230591, 0.3325318992137909, 0.17841780185699463, 0.20327672362327576, 0.090567447245121, 0.05322108045220375, 0.21561646461486816, 0.1430683434009552, 0.07603949308395386, 0.18251483142375946, 0.13771408796310425, 0.07583991438150406, 0.16088439524173737, 0.24488681554794312, 0.23453529179096222, 0.10812439769506454, 0.12887324392795563, 0.10675711929798126, 0.09912726283073425, 0.09525348991155624, 0.0665164366364479, 0.0635908991098404, 0.04146232083439827, 0.11571142822504044, 0.060732536017894745, 0.12068162113428116, 0.11869578063488007, 0.06584224104881287, 0.061819881200790405, 0.060849014669656754, 0.12223189324140549, 0.18151891231536865, 0.10461139678955078, 0.0749034732580185, 0.1091570258140564, 0.2035825103521347, 0.12767724692821503, 0.11846473067998886, 0.10573088377714157, 0.16993269324302673, 0.10532218217849731, 0.08545055985450745, 0.1367463320493698, 0.13805541396141052, 0.11437918990850449, 0.06143792346119881, 0.06561300158500671, 0.11513674259185791, 0.1993756741285324, 0.2502988278865814, 0.15864932537078857, 0.0638054832816124, 0.04299682378768921, 0.07773713022470474, 0.06511496752500534, 0.13486173748970032, 0.06601627171039581, 0.052234016358852386, 0.1233425885438919, 0.0743546411395073, 0.055358123034238815, 0.08776312321424484, 0.08072783052921295, 0.10605275630950928, 0.13330404460430145, 0.11482644081115723, 0.12176462262868881, 0.05085326358675957, 0.09277898818254471, 0.056606635451316833, 0.0968691036105156, 0.07021058350801468, 0.1500750184059143, 0.09867869317531586, 0.09341093897819519, 0.053256742656230927, 0.04696736857295036, 0.054866865277290344, 0.09009577333927155, 0.07906755805015564, 0.10120224207639694, 0.07535814493894577, 0.025308577343821526, 0.0650385171175003, 0.028770698234438896, 0.0656377375125885, 0.06977613270282745, 0.08653970807790756, 0.1272549033164978, 0.0664772242307663, 0.06659584492444992, 0.06571350246667862, 0.0291786789894104, 0.038658712059259415, 0.05180112645030022, 0.03933284431695938, 0.07699362933635712, 0.04107196256518364, 0.03243201598525047, 0.047377731651067734, 0.059160713106393814, 0.09712497144937515, 0.0633959099650383, 0.08189190924167633, 0.13766421377658844, 0.1461956799030304, 0.13623429834842682, 0.48367589712142944, 0.567280113697052, 0.5002167820930481, 0.13763199746608734, 0.20145511627197266, 0.11690628528594971, 0.09842057526111603, 0.08765694499015808, 0.09444225579500198, 0.05539076030254364, 0.13820861279964447, 0.1599176973104477, 0.0527077317237854, 0.1348159909248352, 0.13411514461040497]</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.3973904252052307</v>
+        <v>0.567280113697052</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0.8079238000209443</v>
+        <v>0.8007070000021486</v>
       </c>
       <c r="J95" t="n">
-        <v>0.005770884285863888</v>
+        <v>0.005719335714301061</v>
       </c>
     </row>
     <row r="96">
@@ -4365,11 +4365,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[0.2719748616218567, 0.2352229207754135, 0.27161213755607605, 0.20704242587089539, 0.38554859161376953, 0.3064669668674469, 0.44652989506721497, 0.13883614540100098, 0.2906985580921173, 0.3606478273868561, 0.29217129945755005, 0.2206026017665863, 0.2096281498670578, 0.28382453322410583, 0.2574916481971741, 0.17438092827796936, 0.1257733255624771, 0.2184634506702423, 0.2226237803697586, 0.3902217745780945, 0.41571861505508423, 0.05496872961521149, 0.09471715241670609, 0.09154416620731354, 0.19356726109981537, 0.06082775071263313, 0.08202264457941055, 0.13101620972156525, 0.1541055291891098, 0.13488122820854187, 0.09557311236858368, 0.17346511781215668, 0.16501131653785706, 0.46300560235977173, 0.5587952136993408, 0.5054565668106079, 0.5590583086013794, 0.4345250725746155, 0.39098167419433594, 0.6955763697624207, 0.37714916467666626, 0.7466827034950256, 0.20479698479175568, 0.2142041027545929, 0.3859878182411194, 0.32360127568244934, 0.26505184173583984, 0.14465035498142242, 0.33680829405784607, 0.21295025944709778, 0.40014371275901794, 0.35834628343582153, 0.19415715336799622, 0.1331821233034134, 0.1789846569299698, 0.4044380187988281, 0.4690456986427307, 0.6167600750923157, 0.13797903060913086, 0.49973443150520325, 0.6021119356155396, 0.2740025222301483, 0.13378486037254333, 0.18266995251178741, 0.27135196328163147, 0.4440702497959137, 0.248785138130188, 0.23749791085720062, 0.18800784647464752, 0.3884999752044678, 0.4027061462402344, 0.19051435589790344, 0.49452099204063416, 0.14636071026325226, 0.11096646636724472, 0.10235630720853806, 0.12661030888557434, 0.06057598814368248, 0.07022154331207275, 0.08294937759637833, 0.1824231594800949, 0.09379488229751587, 0.08305355906486511, 0.11422368139028549, 0.4118764400482178, 0.24026639759540558, 0.4591177701950073, 0.7205883264541626, 0.48559585213661194, 0.4260002076625824, 0.7375300526618958, 0.4553620517253876, 0.7324764132499695, 0.8025590181350708, 0.18649576604366302, 0.28944796323776245, 0.31096890568733215, 0.5500860810279846, 0.523179829120636, 0.5777733325958252, 0.47089433670043945, 0.5700511336326599, 0.17591920495033264, 0.37235206365585327, 0.5174648761749268, 0.4586680829524994, 0.5545847415924072, 0.3211311101913452, 0.11002793163061142, 0.10741155594587326, 0.14338667690753937, 0.0895400121808052, 0.08162754029035568, 0.08852542191743851, 0.22702175378799438, 0.13135145604610443, 0.14135637879371643, 0.14209569990634918, 0.40818488597869873, 0.09692048281431198, 0.17963317036628723, 0.2624528408050537, 0.3192942142486572, 0.5288577675819397, 0.5895757079124451, 0.6334839463233948, 0.7311239838600159, 0.26191627979278564, 0.3008539080619812, 0.2809903025627136, 0.18589814007282257, 0.14407981932163239, 0.19291038811206818, 0.16846361756324768, 0.2337101697921753, 0.07960524410009384, 0.10715188831090927, 0.1069912239909172, 0.10704885423183441]</t>
+          <t>[0.2831529974937439, 0.29915857315063477, 0.3897780776023865, 0.22671598196029663, 0.39790698885917664, 0.248074471950531, 0.5645857453346252, 0.17272017896175385, 0.4087202847003937, 0.6044314503669739, 0.5251194834709167, 0.2829253673553467, 0.18797002732753754, 0.31874653697013855, 0.22041592001914978, 0.2580680251121521, 0.08725372701883316, 0.2436796873807907, 0.18460893630981445, 0.3119773864746094, 0.603242039680481, 0.04632392153143883, 0.10641346126794815, 0.08195556700229645, 0.23542073369026184, 0.048063021153211594, 0.05530190467834473, 0.12250812351703644, 0.09488177299499512, 0.09716708213090897, 0.0704084187746048, 0.2053920477628708, 0.2778264582157135, 0.4732743203639984, 0.7406553626060486, 0.8290441632270813, 0.802013099193573, 0.6607378125190735, 0.6275927424430847, 0.8734365701675415, 0.5329344868659973, 0.9100945591926575, 0.301256000995636, 0.2824350893497467, 0.4650992751121521, 0.24929161369800568, 0.2798623740673065, 0.08430536091327667, 0.279358446598053, 0.1111186221241951, 0.47599783539772034, 0.36402636766433716, 0.13118447363376617, 0.0945281982421875, 0.12525232136249542, 0.29565805196762085, 0.40894028544425964, 0.5824741721153259, 0.08546394109725952, 0.5967788100242615, 0.6478581428527832, 0.32098063826560974, 0.10806380957365036, 0.14679022133350372, 0.2721741199493408, 0.49482280015945435, 0.31904715299606323, 0.2955951988697052, 0.20483919978141785, 0.4251551926136017, 0.43071720004081726, 0.26346734166145325, 0.5108415484428406, 0.11301424354314804, 0.05850757658481598, 0.06214188039302826, 0.08464791625738144, 0.03772590681910515, 0.046642862260341644, 0.07263058423995972, 0.1275959312915802, 0.07765458524227142, 0.05579894408583641, 0.1141168624162674, 0.4891384541988373, 0.2574120759963989, 0.750975489616394, 0.9087334871292114, 0.8102675080299377, 0.573756754398346, 0.7979133129119873, 0.5861526131629944, 0.8656721115112305, 0.8668274283409119, 0.1706758290529251, 0.303256630897522, 0.41379034519195557, 0.6479732394218445, 0.5633141398429871, 0.7333633899688721, 0.47566625475883484, 0.6274737119674683, 0.14621753990650177, 0.28621718287467957, 0.5688425898551941, 0.5198548436164856, 0.5496369004249573, 0.23934659361839294, 0.15257097780704498, 0.10640665888786316, 0.14211709797382355, 0.07920873910188675, 0.07902368158102036, 0.08394597470760345, 0.19669672846794128, 0.13385984301567078, 0.14057427644729614, 0.10183309763669968, 0.44360655546188354, 0.07488396763801575, 0.1306474357843399, 0.1747964322566986, 0.21194371581077576, 0.49079686403274536, 0.5861529111862183, 0.7938570380210876, 0.788665771484375, 0.30215317010879517, 0.22111891210079193, 0.27386826276779175, 0.19645871222019196, 0.14444559812545776, 0.19547317922115326, 0.21542397141456604, 0.24019350111484528, 0.05047556757926941, 0.0885140523314476, 0.09507652372121811, 0.09469585120677948]</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.8025590181350708</v>
+        <v>0.9100945591926575</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0.7862013000121806</v>
+        <v>0.7989486000005854</v>
       </c>
       <c r="J96" t="n">
-        <v>0.005656124460519284</v>
+        <v>0.005747831654680471</v>
       </c>
     </row>
     <row r="97">
@@ -4405,11 +4405,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[0.12687109410762787, 0.10402873903512955, 0.06865657866001129, 0.05672578513622284, 0.04428546503186226, 0.021581560373306274, 0.08512227237224579, 0.08398883789777756, 0.08781083673238754, 0.08503091335296631, 0.04726507514715195, 0.06472515314817429, 0.0979936495423317, 0.02118644304573536, 0.02724342606961727, 0.01600443758070469, 0.032531995326280594, 0.018632685765624046, 0.018567318096756935, 0.04063713178038597, 0.08459196984767914, 0.040909796953201294, 0.06592793017625809, 0.1730644851922989, 0.08417116105556488, 0.05099397152662277, 0.034329771995544434, 0.03450653702020645, 0.06550465524196625, 0.10100459307432175, 0.19734050333499908, 0.07338500767946243, 0.07772917300462723, 0.16010987758636475, 0.5407309532165527, 0.2197127789258957, 0.15362101793289185, 0.09826043248176575, 0.1530541330575943, 0.4379715025424957, 0.13218528032302856, 0.16073985397815704, 0.18155470490455627, 0.16209058463573456, 0.1972092092037201, 0.05264123156666756, 0.04871169105172157, 0.06665648519992828, 0.10351138561964035, 0.1200796365737915, 0.12657754123210907, 0.06990090757608414, 0.0577833317220211, 0.0753602683544159, 0.14219880104064941, 0.10072638094425201, 0.07213533669710159, 0.09991729259490967, 0.1744304895401001, 0.06351177394390106, 0.05372687056660652, 0.03767837956547737, 0.09017182141542435, 0.2758716344833374, 0.27265647053718567, 0.12750861048698425, 0.22552970051765442, 0.07153237611055374, 0.054131656885147095, 0.09796972572803497, 0.08567270636558533, 0.047876548022031784, 0.03706827014684677, 0.14800012111663818, 0.0886947363615036, 0.05697163566946983, 0.07959949225187302, 0.09228625893592834, 0.04627522826194763, 0.04153474420309067, 0.046142034232616425, 0.05274657905101776, 0.03173688426613808, 0.0462370365858078, 0.03092806041240692, 0.06841900199651718, 0.0637003481388092, 0.10478538274765015, 0.14435794949531555, 0.08504188805818558, 0.045489322394132614, 0.02938358671963215, 0.05879019945859909, 0.07134012132883072, 0.022388532757759094, 0.01667221635580063, 0.04328513145446777, 0.01752340979874134, 0.034978125244379044, 0.020316725596785545, 0.04149017855525017, 0.052364759147167206, 0.04354146122932434, 0.041338540613651276, 0.04443302005529404, 0.06103460118174553, 0.09837773442268372, 0.06921984255313873, 0.046062879264354706, 0.09233104437589645, 0.0851035937666893, 0.039086565375328064, 0.07698877155780792, 0.11014873534440994, 0.05294386297464371, 0.033531464636325836, 0.04017600417137146, 0.040130503475666046]</t>
+          <t>[0.27476733922958374, 0.17988654971122742, 0.09557085484266281, 0.07858294248580933, 0.054910287261009216, 0.0158875472843647, 0.11298249661922455, 0.09282836318016052, 0.13775479793548584, 0.096804678440094, 0.05860579013824463, 0.06613419950008392, 0.11144409328699112, 0.01631816290318966, 0.030793890357017517, 0.013105245307087898, 0.02105121687054634, 0.015445190481841564, 0.017659902572631836, 0.04960362985730171, 0.13736584782600403, 0.05708852782845497, 0.11049985885620117, 0.3033583164215088, 0.132112517952919, 0.06774324178695679, 0.04361486807465553, 0.054719530045986176, 0.026436159387230873, 0.043932512402534485, 0.17757180333137512, 0.05130353942513466, 0.0516284704208374, 0.07440533488988876, 0.4040621221065521, 0.18423520028591156, 0.13104578852653503, 0.0738615095615387, 0.11822889000177383, 0.428058385848999, 0.10830478370189667, 0.10787182301282883, 0.09582597762346268, 0.0629413053393364, 0.1444992870092392, 0.012060970067977905, 0.024856090545654297, 0.02520652674138546, 0.032232604920864105, 0.054674696177244186, 0.09955649822950363, 0.03786015883088112, 0.022456122562289238, 0.04483414813876152, 0.10444113612174988, 0.040811773389577866, 0.028618279844522476, 0.026447046548128128, 0.06925934553146362, 0.02231760509312153, 0.022304708138108253, 0.02392621524631977, 0.039566151797771454, 0.1815921515226364, 0.2627534866333008, 0.0702175572514534, 0.16147564351558685, 0.047471631318330765, 0.027474047616124153, 0.07175162434577942, 0.06827893108129501, 0.033288102596998215, 0.03321995958685875, 0.18383075296878815, 0.08054158091545105, 0.02398843690752983, 0.03609505295753479, 0.07424546033143997, 0.0442054308950901, 0.039332374930381775, 0.029918093234300613, 0.07534746825695038, 0.03364545479416847, 0.03540460765361786, 0.01837238110601902, 0.05722846835851669, 0.062100403010845184, 0.1200452521443367, 0.1170601174235344, 0.05426025390625, 0.01987697184085846, 0.02996528521180153, 0.03652390092611313, 0.039862941950559616, 0.014003440737724304, 0.007592775858938694, 0.03461958095431328, 0.01384824514389038, 0.03193134069442749, 0.013533275574445724, 0.026112498715519905, 0.040440090000629425, 0.022673945873975754, 0.03847479075193405, 0.03027890995144844, 0.0730150043964386, 0.08694661408662796, 0.05512797087430954, 0.0227805245667696, 0.06606078892946243, 0.07798487693071365, 0.035311758518218994, 0.082114078104496, 0.06350802630186081, 0.02431197464466095, 0.020872626453638077, 0.029340574517846107, 0.02915784902870655]</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.5407309532165527</v>
+        <v>0.428058385848999</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
@@ -4423,10 +4423,10 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0.6749265000107698</v>
+        <v>0.692807699990226</v>
       </c>
       <c r="J97" t="n">
-        <v>0.005719716101786185</v>
+        <v>0.005871251694832423</v>
       </c>
     </row>
     <row r="98">
@@ -4445,11 +4445,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>[0.16152653098106384, 0.14830805361270905, 0.07429501414299011, 0.264928936958313, 0.09809160977602005, 0.03834187239408493, 0.09412162750959396, 0.09322818368673325, 0.2487514168024063, 0.18438953161239624, 0.12231773138046265, 0.14808234572410583, 0.3337242603302002, 0.24376048147678375, 0.2769307494163513, 0.23732824623584747, 0.21427485346794128, 0.22178718447685242, 0.3473093509674072, 0.2913578748703003, 0.25405266880989075, 0.22308050096035004, 0.16604481637477875, 0.3134366273880005, 0.35111501812934875, 0.8026824593544006, 0.38905754685401917, 0.6864202618598938, 0.7635144591331482, 0.5399928689002991, 0.4709382951259613, 0.6738643646240234, 0.5011101961135864, 0.6962873339653015, 0.39962491393089294, 0.19467560946941376, 0.17538820207118988, 0.20506924390792847, 0.14125993847846985, 0.5140104293823242, 0.2576047480106354, 0.3604021370410919, 0.2762669026851654, 0.270525723695755, 0.2755076289176941, 0.552566647529602, 0.21165399253368378, 0.19840414822101593, 0.2884022295475006, 0.2730567455291748, 0.44018372893333435, 0.5428630709648132, 0.5479348301887512, 0.47448989748954773, 0.486694872379303, 0.37417712807655334, 0.4854342043399811, 0.7916101217269897, 0.6180745363235474, 0.7464849352836609, 0.6358628273010254, 0.23782870173454285, 0.3229829967021942, 0.27161866426467896, 0.213914155960083, 0.5698736310005188, 0.7460641860961914, 0.5389684438705444, 0.4110967516899109, 0.20098978281021118, 0.2094031125307083, 0.531392514705658, 0.4877049922943115, 0.21238823235034943, 0.3052648603916168, 0.25337475538253784, 0.5228413343429565, 0.1299142688512802, 0.6370923519134521, 0.699498176574707, 0.7343750596046448, 0.587400496006012, 0.39589735865592957, 0.3945305347442627, 0.5923483967781067, 0.26945891976356506, 0.14228563010692596, 0.14763520658016205, 0.23248161375522614, 0.17513546347618103, 0.14701765775680542, 0.13774468004703522, 0.564572274684906, 0.34893324971199036, 0.42847418785095215, 0.10513510555028915, 0.09583596140146255, 0.08238807320594788, 0.11266575008630753, 0.10361213982105255, 0.26838219165802, 0.16222473978996277, 0.1787727177143097, 0.08498438447713852, 0.4373776912689209, 0.4735780656337738, 0.4318566918373108, 0.57694411277771, 0.2302747219800949, 0.4554826617240906, 0.25032901763916016, 0.2494087964296341, 0.09675407409667969, 0.07803017646074295, 0.11873306334018707, 0.1716785728931427, 0.09263838082551956, 0.4352315664291382, 0.11172120273113251, 0.13722606003284454, 0.3207607865333557, 0.26593396067619324, 0.13106407225131989, 0.17493084073066711, 0.43448179960250854, 0.21160048246383667, 0.3113858997821808, 0.2643916606903076, 0.13696512579917908, 0.0852174386382103, 0.1679874062538147, 0.1686583012342453]</t>
+          <t>[0.11378419399261475, 0.08837806433439255, 0.031655605882406235, 0.16064223647117615, 0.042587608098983765, 0.022414153441786766, 0.05252169445157051, 0.06914898753166199, 0.14876772463321686, 0.09491899609565735, 0.027680587023496628, 0.07586581259965897, 0.19337569177150726, 0.2627190351486206, 0.22282889485359192, 0.1780380755662918, 0.1276676505804062, 0.11841033399105072, 0.22056430578231812, 0.1272295117378235, 0.19443613290786743, 0.48822763562202454, 0.30860403180122375, 0.28571024537086487, 0.4935648739337921, 0.847209632396698, 0.32727673649787903, 0.64412522315979, 0.7480695247650146, 0.30030882358551025, 0.4390254616737366, 0.5470409393310547, 0.37752765417099, 0.6650142669677734, 0.42235684394836426, 0.15924695134162903, 0.13327009975910187, 0.11174479871988297, 0.06909200549125671, 0.3407899737358093, 0.14029419422149658, 0.14456038177013397, 0.18108896911144257, 0.20714138448238373, 0.22831112146377563, 0.7313687801361084, 0.18918074667453766, 0.1145135685801506, 0.3693929612636566, 0.32655197381973267, 0.5259572863578796, 0.561118483543396, 0.5080546736717224, 0.4130895733833313, 0.38534438610076904, 0.377876877784729, 0.46501821279525757, 0.7232702374458313, 0.48242881894111633, 0.7556835412979126, 0.367042601108551, 0.1520397663116455, 0.3197733163833618, 0.17318053543567657, 0.10372903198003769, 0.26141834259033203, 0.47173625230789185, 0.2636367678642273, 0.15849235653877258, 0.05950513482093811, 0.15258076786994934, 0.6065288186073303, 0.5690375566482544, 0.18980595469474792, 0.18090036511421204, 0.13777239620685577, 0.4931367337703705, 0.08198004215955734, 0.35440728068351746, 0.5626819729804993, 0.3730875849723816, 0.45388346910476685, 0.22865672409534454, 0.24118347465991974, 0.37469837069511414, 0.14166517555713654, 0.07159321755170822, 0.10306228697299957, 0.1917824000120163, 0.11516227573156357, 0.14203740656375885, 0.07974736392498016, 0.39365506172180176, 0.2421637624502182, 0.25174885988235474, 0.04126181825995445, 0.08863531053066254, 0.053074728697538376, 0.08441503345966339, 0.10950269550085068, 0.1741238683462143, 0.12979473173618317, 0.1950153261423111, 0.060792889446020126, 0.37913548946380615, 0.403520405292511, 0.2037334144115448, 0.3317539393901825, 0.12044911831617355, 0.39536312222480774, 0.2329619824886322, 0.12677940726280212, 0.052985697984695435, 0.06448779255151749, 0.18297331035137177, 0.27915817499160767, 0.08290143311023712, 0.679925799369812, 0.07945726066827774, 0.11891649663448334, 0.2385065257549286, 0.1843598186969757, 0.12235230952501297, 0.20397759974002838, 0.3748239576816559, 0.1352323740720749, 0.1509696990251541, 0.2581440508365631, 0.12223667651414871, 0.09649144858121872, 0.19153515994548798, 0.19168128073215485]</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.8026824593544006</v>
+        <v>0.847209632396698</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0.7410292999993544</v>
+        <v>0.7444513000082225</v>
       </c>
       <c r="J98" t="n">
-        <v>0.005613858333328442</v>
+        <v>0.005639782575819867</v>
       </c>
     </row>
     <row r="99">
@@ -4485,11 +4485,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[0.5713592767715454, 0.6452394127845764, 0.6225155591964722, 0.5101568698883057, 0.30862003564834595, 0.3138710558414459, 0.16925041377544403, 0.1476098597049713, 0.13830327987670898, 0.11005991697311401, 0.13153812289237976, 0.13857883214950562, 0.18779605627059937, 0.14680209755897522, 0.17527680099010468, 0.6715817451477051, 0.8345041871070862, 0.33866238594055176, 0.23094414174556732, 0.30393651127815247, 0.5316272974014282, 0.41864514350891113, 0.4712621867656708, 0.20256315171718597, 0.2699565589427948, 0.5198783278465271, 0.5741704702377319, 0.5923935770988464, 0.6500768065452576, 0.9179141521453857, 0.7049440145492554, 0.7828709483146667, 0.8896084427833557, 0.8862111568450928, 0.38211843371391296, 0.188823401927948, 0.5728676915168762, 0.6019687652587891, 0.7417287230491638, 0.44695010781288147, 0.1452234834432602, 0.09750281274318695, 0.15262232720851898, 0.14745692908763885, 0.1807073950767517, 0.12423544377088547, 0.09885229170322418, 0.21584753692150116, 0.15573807060718536, 0.14387796819210052, 0.15405716001987457, 0.2717244625091553, 0.42021942138671875, 0.4908103942871094, 0.2415175586938858, 0.32231655716896057, 0.5555307269096375, 0.25043123960494995, 0.0958421528339386, 0.21281850337982178, 0.3674790859222412, 0.29409709572792053, 0.49745261669158936, 0.21221083402633667, 0.09376392513513565, 0.18383456766605377, 0.19970440864562988, 0.3555934429168701, 0.28289860486984253, 0.3618927597999573, 0.647791862487793, 0.333652138710022, 0.5526817440986633, 0.6260337829589844, 0.69541996717453, 0.6215134263038635, 0.5878474712371826, 0.3486078679561615, 0.19347135722637177, 0.3725773096084595, 0.4026096761226654, 0.5024613738059998, 0.14262278378009796, 0.1924913227558136, 0.32597020268440247, 0.16739818453788757, 0.3071076273918152, 0.5026214122772217, 0.5547061562538147, 0.834260880947113, 0.6214094758033752, 0.635901927947998, 0.35394755005836487, 0.19932696223258972, 0.3129391670227051, 0.44248855113983154, 0.6955901980400085, 0.32816407084465027, 0.5553332567214966, 0.6026297807693481, 0.7132732272148132, 0.2524076998233795, 0.40563052892684937, 0.24855558574199677, 0.3034411072731018, 0.2714875042438507, 0.6067649722099304, 0.7833790183067322, 0.5746333599090576, 0.4068373441696167, 0.6205491423606873, 0.7627614736557007, 0.4519979953765869, 0.6328471899032593, 0.7360630631446838, 0.5331119894981384, 0.8006989359855652, 0.3469315469264984, 0.42798128724098206, 0.5028920769691467, 0.6140533089637756, 0.5431331396102905, 0.8683241605758667, 0.7790510058403015, 0.9311043620109558, 0.7340463995933533, 0.5753656029701233, 0.4508919417858124, 0.27057984471321106, 0.14070318639278412, 0.1108420193195343, 0.110939159989357]</t>
+          <t>[0.6199959516525269, 0.86761873960495, 0.8035213947296143, 0.5849077701568604, 0.29833778738975525, 0.21601127088069916, 0.11411286890506744, 0.08423153311014175, 0.0566507913172245, 0.04099298268556595, 0.06963470578193665, 0.07700414210557938, 0.1295146942138672, 0.10777932405471802, 0.1349300593137741, 0.6590840816497803, 0.8632036447525024, 0.275846391916275, 0.2167779952287674, 0.25121739506721497, 0.5348295569419861, 0.3514636158943176, 0.37422624230384827, 0.14083361625671387, 0.24380376935005188, 0.5270606279373169, 0.6380431652069092, 0.8156813383102417, 0.7860814332962036, 0.9554711580276489, 0.8693796992301941, 0.7202007174491882, 0.9664837121963501, 0.9656316041946411, 0.5183140635490417, 0.18494611978530884, 0.8313599228858948, 0.8484911918640137, 0.7820799350738525, 0.6545974016189575, 0.11957500129938126, 0.05348620191216469, 0.09117166697978973, 0.055776357650756836, 0.09588030725717545, 0.04638480022549629, 0.03709764778614044, 0.0840311273932457, 0.08391392230987549, 0.05769863724708557, 0.08245329558849335, 0.2306934893131256, 0.29944732785224915, 0.30902764201164246, 0.18240633606910706, 0.19746536016464233, 0.49624109268188477, 0.1190122440457344, 0.03267782926559448, 0.10416139662265778, 0.26407554745674133, 0.1608530580997467, 0.38481977581977844, 0.12182123959064484, 0.04140032082796097, 0.11745395511388779, 0.14031212031841278, 0.3180340826511383, 0.19993025064468384, 0.2814624011516571, 0.6894976496696472, 0.2828780710697174, 0.4906233847141266, 0.5896837115287781, 0.7947016954421997, 0.6341835856437683, 0.4246363639831543, 0.18719534575939178, 0.14534085988998413, 0.3272330164909363, 0.4900904595851898, 0.4542301893234253, 0.053223881870508194, 0.07760809361934662, 0.13381928205490112, 0.08332236856222153, 0.19832682609558105, 0.4049086570739746, 0.3904305696487427, 0.8254929184913635, 0.6962214112281799, 0.5996808409690857, 0.18345101177692413, 0.11207101494073868, 0.24449436366558075, 0.2568179666996002, 0.6038098931312561, 0.2832152843475342, 0.596849799156189, 0.5467303991317749, 0.6621789336204529, 0.20806623995304108, 0.24668385088443756, 0.09654784947633743, 0.20808358490467072, 0.11772003769874573, 0.4897014796733856, 0.7340848445892334, 0.5413210988044739, 0.34399542212486267, 0.5652667880058289, 0.6289013028144836, 0.371020644903183, 0.6816308498382568, 0.6468923091888428, 0.5678243637084961, 0.8569456934928894, 0.26690295338630676, 0.2986566126346588, 0.4407940208911896, 0.574302077293396, 0.6064351797103882, 0.9112141132354736, 0.7239606976509094, 0.9494847059249878, 0.8192766308784485, 0.44626227021217346, 0.404461145401001, 0.19507665932178497, 0.05392291396856308, 0.048822373151779175, 0.04890510439872742]</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.9311043620109558</v>
+        <v>0.9664837121963501</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
@@ -4503,10 +4503,10 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0.7617189000011422</v>
+        <v>0.7506821999995736</v>
       </c>
       <c r="J99" t="n">
-        <v>0.00577059772728138</v>
+        <v>0.005686986363633134</v>
       </c>
     </row>
     <row r="100">
@@ -4525,11 +4525,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[0.4862425923347473, 0.7924134135246277, 0.7790332436561584, 0.581412672996521, 0.4920494854450226, 0.4864508807659149, 0.5296217799186707, 0.6113224029541016, 0.45484280586242676, 0.7021787762641907, 0.8188045024871826, 0.7001252174377441, 0.66167151927948, 0.8702532052993774, 0.5915530323982239, 0.8699107766151428, 0.41154181957244873, 0.36110374331474304, 0.25338253378868103, 0.5685305595397949, 0.8674403429031372, 0.6071478724479675, 0.5449584722518921, 0.3220981955528259, 0.5216287970542908, 0.4771604835987091, 0.18526944518089294, 0.22028778493404388, 0.21796846389770508, 0.38156524300575256, 0.371305912733078, 0.40032827854156494, 0.4280804991722107, 0.48301470279693604, 0.4655018746852875, 0.34748974442481995, 0.268713116645813, 0.3932816982269287, 0.4645204544067383, 0.3476109504699707, 0.48039311170578003, 0.4186164140701294, 0.18674634397029877, 0.28668132424354553, 0.2487179934978485, 0.44078201055526733, 0.3692408800125122, 0.35551273822784424, 0.4585069417953491, 0.36891546845436096, 0.5556988716125488, 0.5418379902839661, 0.6107558608055115, 0.3719620406627655, 0.3495882749557495, 0.45357242226600647, 0.3323987126350403, 0.5396342277526855, 0.2957904636859894, 0.5008136630058289, 0.4384308457374573, 0.41150012612342834, 0.2891286611557007, 0.26145806908607483, 0.541497528553009, 0.7743410468101501, 0.7240915298461914, 0.5720873475074768, 0.48609408736228943, 0.5963606238365173, 0.4661489427089691, 0.4914604425430298, 0.2895205318927765, 0.7669431567192078, 0.8688416481018066, 0.8607397079467773, 0.84966641664505, 0.40796712040901184, 0.3076016902923584, 0.4307243824005127, 0.7055812478065491, 0.3481232225894928, 0.5226720571517944, 0.5170294046401978, 0.6846898198127747, 0.3805854320526123, 0.2892884910106659, 0.5831273198127747, 0.5250601768493652, 0.5612572431564331, 0.6900253891944885, 0.8361960649490356, 0.6516088247299194, 0.7075072526931763, 0.6185334920883179, 0.7531631588935852, 0.6682579517364502, 0.257590651512146, 0.2992103397846222, 0.24238260090351105, 0.12572593986988068, 0.15317507088184357, 0.11651354283094406, 0.08877287805080414, 0.042852822691202164, 0.07030665129423141, 0.12637926638126373, 0.09301362931728363, 0.16284674406051636, 0.0653710886836052, 0.18672189116477966, 0.23722290992736816, 0.41798627376556396, 0.4032607674598694, 0.6463080048561096, 0.5207604169845581, 0.36832019686698914, 0.42516759037971497, 0.11759725213050842, 0.1447662115097046, 0.3879530727863312, 0.17531567811965942, 0.1008082702755928, 0.07143212109804153, 0.1605229526758194, 0.18611058592796326, 0.1313481330871582, 0.2042694389820099, 0.1949329674243927, 0.09525166451931, 0.11239959299564362, 0.1120956614613533]</t>
+          <t>[0.2888655662536621, 0.7078487277030945, 0.639829158782959, 0.38614872097969055, 0.36241278052330017, 0.2823013365268707, 0.2353803813457489, 0.3016829788684845, 0.13814663887023926, 0.5377593636512756, 0.7544321417808533, 0.35953429341316223, 0.30615806579589844, 0.8062977194786072, 0.3692442774772644, 0.6899346709251404, 0.19465798139572144, 0.08213049918413162, 0.06370221823453903, 0.21600116789340973, 0.5488564372062683, 0.23656010627746582, 0.1526288390159607, 0.0692097470164299, 0.37238025665283203, 0.28397610783576965, 0.04791003465652466, 0.08089964836835861, 0.04892026260495186, 0.12274803221225739, 0.14995193481445312, 0.26556122303009033, 0.3242497742176056, 0.3953658640384674, 0.5101591944694519, 0.2975600063800812, 0.1988721340894699, 0.4644017815589905, 0.4815424382686615, 0.3794175088405609, 0.4909423291683197, 0.4441227912902832, 0.21385778486728668, 0.26804623007774353, 0.27496087551116943, 0.45456692576408386, 0.421705961227417, 0.4708392918109894, 0.4278543293476105, 0.4400952458381653, 0.7067920565605164, 0.6787306666374207, 0.7272960543632507, 0.32802191376686096, 0.29336461424827576, 0.44858518242836, 0.2936513125896454, 0.5936585664749146, 0.24910271167755127, 0.49387556314468384, 0.340300977230072, 0.42761534452438354, 0.26363837718963623, 0.23256756365299225, 0.5871989727020264, 0.7757694721221924, 0.6931509971618652, 0.6129059195518494, 0.5378283262252808, 0.5010449290275574, 0.4447574019432068, 0.42942988872528076, 0.10607416927814484, 0.6560298800468445, 0.7892777323722839, 0.808150589466095, 0.828080415725708, 0.31475958228111267, 0.29336175322532654, 0.583346426486969, 0.8146387934684753, 0.3289569616317749, 0.4324897527694702, 0.5377930998802185, 0.7431855201721191, 0.358955979347229, 0.2668461799621582, 0.5886648297309875, 0.5009627938270569, 0.6437368988990784, 0.751599907875061, 0.8427000641822815, 0.6123101711273193, 0.7558282017707825, 0.6454489231109619, 0.7718484997749329, 0.7178629636764526, 0.24079784750938416, 0.25988200306892395, 0.1083798035979271, 0.033945515751838684, 0.032910194247961044, 0.030390122905373573, 0.018691109493374825, 0.012210438959300518, 0.025853469967842102, 0.022888576611876488, 0.013920909725129604, 0.026750406250357628, 0.009302868507802486, 0.0483776293694973, 0.06940427422523499, 0.21833376586437225, 0.314455509185791, 0.5587283372879028, 0.5742458701133728, 0.2368640899658203, 0.29222503304481506, 0.05373133718967438, 0.08300907909870148, 0.3469368517398834, 0.18974833190441132, 0.05757894739508629, 0.024569544941186905, 0.08454379439353943, 0.0877126082777977, 0.07984306663274765, 0.10749690979719162, 0.14323806762695312, 0.06260485202074051, 0.10588189959526062, 0.10499006509780884]</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.8702532052993774</v>
+        <v>0.8427000641822815</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0.747784999985015</v>
+        <v>0.741489999985788</v>
       </c>
       <c r="J100" t="n">
-        <v>0.005665037878674356</v>
+        <v>0.005617348484740818</v>
       </c>
     </row>
     <row r="101">
@@ -4565,11 +4565,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[0.05460622161626816, 0.030831336975097656, 0.04039633646607399, 0.03571499139070511, 0.04271330684423447, 0.07173082232475281, 0.08784526586532593, 0.048464175313711166, 0.06964991986751556, 0.05064282938838005, 0.06748238950967789, 0.03775216266512871, 0.05251782760024071, 0.05835724622011185, 0.06222466379404068, 0.03473487123847008, 0.035781603306531906, 0.03303925320506096, 0.030898945406079292, 0.04281424358487129, 0.05941969156265259, 0.150519460439682, 0.10930126905441284, 0.1143028661608696, 0.10773652046918869, 0.09534276276826859, 0.04239405319094658, 0.05317249521613121, 0.04536215215921402, 0.07134757190942764, 0.06651229411363602, 0.064994215965271, 0.06980247795581818, 0.0453503280878067, 0.05984801426529884, 0.07473260909318924, 0.15537115931510925, 0.1346518099308014, 0.06317807734012604, 0.05725995823740959, 0.0679020956158638, 0.06847648322582245, 0.0416126623749733, 0.03222515434026718, 0.04377378523349762, 0.043051011860370636, 0.07061745226383209, 0.03650564327836037, 0.027138948440551758, 0.07205719500780106, 0.10301853716373444, 0.24505342543125153, 0.14074815809726715, 0.08863241970539093, 0.13672690093517303, 0.13438178598880768, 0.138965904712677, 0.10280471295118332, 0.18884411454200745, 0.15366770327091217, 0.07696457952260971, 0.05609339848160744, 0.049879372119903564, 0.041815243661403656, 0.10459862649440765, 0.056453604251146317, 0.07177361845970154, 0.07127513736486435, 0.04746304824948311, 0.04898683726787567, 0.04444745182991028, 0.055734287947416306, 0.07453853636980057, 0.09244651347398758, 0.07764079421758652, 0.06619898974895477, 0.05761414021253586, 0.04024317488074303, 0.05660043656826019, 0.06647144258022308, 0.06453664600849152, 0.060653846710920334, 0.03684362769126892, 0.051920708268880844, 0.056977588683366776, 0.04818575456738472, 0.07091373205184937, 0.0798821821808815, 0.18154899775981903, 0.09057706594467163, 0.06942007690668106, 0.07276284694671631, 0.1529545933008194, 0.14793618023395538, 0.14519529044628143, 0.060177553445100784, 0.031021807342767715, 0.06407186388969421, 0.1363006830215454, 0.053687747567892075, 0.15142561495304108, 0.3241017162799835, 0.3980696499347687, 0.33169621229171753, 0.5773167014122009, 0.47965678572654724, 0.36395061016082764, 0.3957226276397705, 0.639458954334259, 0.3944142758846283, 0.405786395072937, 0.2806319296360016, 0.28100237250328064, 0.5042294263839722, 0.31357088685035706, 0.3735806345939636, 0.5034326910972595, 0.19518502056598663, 0.11809374392032623, 0.0841919332742691, 0.08205980807542801, 0.10466234385967255, 0.11260052770376205, 0.12017953395843506, 0.7463089227676392, 0.21321380138397217, 0.15313708782196045, 0.2980358600616455, 0.10182072967290878, 0.345044881105423, 0.12424291670322418, 0.2145245522260666, 0.07611279934644699, 0.26157546043395996, 0.20684821903705597, 0.06209075078368187, 0.10180497169494629, 0.22322925925254822, 0.09936964511871338, 0.06659362465143204, 0.025371666997671127, 0.035823386162519455, 0.04283904656767845, 0.031192341819405556, 0.03679000958800316, 0.04276806861162186, 0.015381582081317902, 0.015360820107161999]</t>
+          <t>[0.017929205670952797, 0.005519208498299122, 0.007430190220475197, 0.008243739604949951, 0.011970574967563152, 0.02400043047964573, 0.07011081278324127, 0.01946326531469822, 0.027151985093951225, 0.01727534644305706, 0.024333417415618896, 0.011156011372804642, 0.015104133635759354, 0.02036680467426777, 0.018868962302803993, 0.009333421476185322, 0.008947912603616714, 0.009687228128314018, 0.009398688562214375, 0.026805555447936058, 0.04341926798224449, 0.13253040611743927, 0.08061134070158005, 0.0669417604804039, 0.052971988916397095, 0.05003609508275986, 0.018990594893693924, 0.03772176802158356, 0.020197642967104912, 0.04084545373916626, 0.039682537317276, 0.029147956520318985, 0.027324417605996132, 0.016220005229115486, 0.0270489901304245, 0.030689897015690804, 0.14967207610607147, 0.10072728246450424, 0.0331842377781868, 0.017563655972480774, 0.020957203581929207, 0.018126128241419792, 0.009434151463210583, 0.008282878436148167, 0.014314964413642883, 0.01266793068498373, 0.023245854303240776, 0.007450692821294069, 0.005560340825468302, 0.022726722061634064, 0.047959811985492706, 0.18571804463863373, 0.08677919954061508, 0.04063761979341507, 0.07192452251911163, 0.06199892610311508, 0.05266793072223663, 0.040503084659576416, 0.09531090408563614, 0.07048937678337097, 0.026626305654644966, 0.024297453463077545, 0.023555109277367592, 0.012087277136743069, 0.040072351694107056, 0.019936859607696533, 0.021821852773427963, 0.020052026957273483, 0.011522081680595875, 0.009803173132240772, 0.010625393129885197, 0.009121986106038094, 0.019290775060653687, 0.037069715559482574, 0.023201171308755875, 0.02133404277265072, 0.016177449375391006, 0.011024244129657745, 0.015425196848809719, 0.026052627712488174, 0.02061058022081852, 0.021939370781183243, 0.0077141085639595985, 0.01286426279693842, 0.013507740572094917, 0.011916638351976871, 0.013767315074801445, 0.01880582608282566, 0.0762135237455368, 0.02382691018283367, 0.015569178387522697, 0.01772194169461727, 0.04381652921438217, 0.04105275869369507, 0.05549962446093559, 0.0168105810880661, 0.006700634490698576, 0.017036037519574165, 0.03311851993203163, 0.010480769909918308, 0.05617525801062584, 0.135086789727211, 0.20627638697624207, 0.20859943330287933, 0.34341779351234436, 0.2812955677509308, 0.2549413740634918, 0.3047671616077423, 0.6213337182998657, 0.25282782316207886, 0.2156600058078766, 0.1619219183921814, 0.13298216462135315, 0.28925830125808716, 0.18595565855503082, 0.456377238035202, 0.49795711040496826, 0.09660790115594864, 0.045096758753061295, 0.027049141004681587, 0.035573262721300125, 0.06506209820508957, 0.07294543087482452, 0.1531141996383667, 0.8898916244506836, 0.10167833417654037, 0.05020075663924217, 0.1820337027311325, 0.052229899913072586, 0.3866879642009735, 0.11191832274198532, 0.20022174715995789, 0.07328963279724121, 0.14324431121349335, 0.1320846676826477, 0.02519499696791172, 0.03846592828631401, 0.1444331854581833, 0.05987070873379707, 0.05752940848469734, 0.019254669547080994, 0.02952243946492672, 0.031697556376457214, 0.01479976624250412, 0.017366549000144005, 0.016222545877099037, 0.005600128322839737, 0.005589609500020742]</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.7463089227676392</v>
+        <v>0.8898916244506836</v>
       </c>
       <c r="F101" t="n">
         <v>1</v>
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0.8099389999988489</v>
+        <v>0.8134723999974085</v>
       </c>
       <c r="J101" t="n">
-        <v>0.005472560810803033</v>
+        <v>0.005496435135117625</v>
       </c>
     </row>
     <row r="102">
@@ -4605,11 +4605,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[0.1538388580083847, 0.08310499042272568, 0.21027350425720215, 0.13293230533599854, 0.22226569056510925, 0.11961442977190018, 0.14033697545528412, 0.1442898064851761, 0.14640919864177704, 0.10088792443275452, 0.0740288570523262, 0.14479905366897583, 0.11919311434030533, 0.08514288812875748, 0.046627044677734375, 0.12488497048616409, 0.1846807897090912, 0.07393289357423782, 0.12846942245960236, 0.23839989304542542, 0.2165025919675827, 0.2778393030166626, 0.3219284415245056, 0.08428727835416794, 0.05392931401729584, 0.08587979525327682, 0.09649608284235, 0.04952413588762283, 0.098843052983284, 0.405129611492157, 0.2613939940929413, 0.4735912084579468, 0.4469411373138428, 0.607060968875885, 0.7099260091781616, 0.8809139728546143, 0.9661419987678528, 0.8693443536758423, 0.936517059803009, 0.9192495346069336, 0.9055454134941101, 0.7555885314941406, 0.5320243835449219, 0.8396655321121216, 0.5493870377540588, 0.657213032245636, 0.4754967987537384, 0.5178078413009644, 0.6550832986831665, 0.7742528319358826, 0.8762728571891785, 0.9220297336578369, 0.9427428841590881, 0.8885617256164551, 0.8708401322364807, 0.9597209692001343, 0.943479597568512, 0.8976549506187439, 0.7444353699684143, 0.7510984539985657, 0.7258621454238892, 0.8700370788574219, 0.8160014152526855, 0.4169561564922333, 0.7818602919578552, 0.7843233942985535, 0.8189497590065002, 0.8940242528915405, 0.9085733890533447, 0.6971948742866516, 0.8724212646484375, 0.40353500843048096, 0.16140832006931305, 0.22925664484500885, 0.3975255489349365, 0.4395975172519684, 0.32127100229263306, 0.4198208451271057, 0.479939341545105, 0.3079008460044861, 0.6140042543411255, 0.4311577081680298, 0.3713061809539795, 0.5810745358467102, 0.3568756878376007, 0.22897474467754364, 0.37009483575820923, 0.28688398003578186, 0.320059210062027, 0.39119550585746765, 0.5203472375869751, 0.620323657989502, 0.7310757040977478, 0.7079149484634399, 0.6452544331550598, 0.47531479597091675, 0.5013146996498108, 0.37943586707115173, 0.6447970271110535, 0.47730135917663574, 0.45387545228004456, 0.7463952898979187, 0.753961980342865, 0.8332324624061584, 0.8726834058761597, 0.9608230590820312, 0.8852463960647583, 0.9733115434646606, 0.9810121059417725, 0.9555317163467407, 0.9829676747322083, 0.9866520166397095, 0.9661999940872192, 0.9316879510879517, 0.9135727882385254, 0.9640224575996399, 0.9913513660430908, 0.993228018283844, 0.9209140539169312, 0.9458157420158386, 0.9503757953643799, 0.8928576111793518, 0.8916372656822205, 0.962552547454834, 0.9740319848060608, 0.9692895412445068, 0.9644433856010437, 0.9532070159912109, 0.975922703742981, 0.9833785891532898, 0.9501760005950928, 0.9243594408035278, 0.9678092002868652, 0.9702459573745728, 0.9666128754615784, 0.9304294586181641, 0.8538662791252136, 0.7170234322547913, 0.7944430112838745, 0.8968188166618347, 0.8222312331199646, 0.8520181775093079, 0.8148488402366638, 0.9508062601089478, 0.9148151874542236, 0.9055749773979187, 0.9207015037536621, 0.9212598204612732]</t>
+          <t>[0.07235704362392426, 0.04008908197283745, 0.11778106540441513, 0.05440288037061691, 0.10220463573932648, 0.032492123544216156, 0.045139044523239136, 0.03411246836185455, 0.024768739938735962, 0.022899484261870384, 0.018516989424824715, 0.03278061002492905, 0.028453798964619637, 0.02140205353498459, 0.01573583297431469, 0.08612113445997238, 0.11449794471263885, 0.044236425310373306, 0.04963141307234764, 0.1134367361664772, 0.11682645976543427, 0.2330508977174759, 0.2891620099544525, 0.04355112090706825, 0.0221608467400074, 0.05041855573654175, 0.07077432423830032, 0.03401540219783783, 0.054250624030828476, 0.3388213813304901, 0.16608785092830658, 0.3558354377746582, 0.21164880692958832, 0.637596845626831, 0.6980998516082764, 0.851898193359375, 0.9510228037834167, 0.7455187439918518, 0.9325624108314514, 0.8996956944465637, 0.892886221408844, 0.6981752514839172, 0.4936704635620117, 0.7722911834716797, 0.5408520102500916, 0.6682357788085938, 0.3916853070259094, 0.35928621888160706, 0.5633506774902344, 0.6526925563812256, 0.7696580290794373, 0.8620392084121704, 0.9140599370002747, 0.7825245261192322, 0.6918494701385498, 0.8890846371650696, 0.7747357487678528, 0.524482011795044, 0.2623976767063141, 0.35021689534187317, 0.24343475699424744, 0.5220435261726379, 0.38525789976119995, 0.09543419629335403, 0.35716795921325684, 0.3545829951763153, 0.47249120473861694, 0.5867369174957275, 0.7325589656829834, 0.3965778052806854, 0.5825839042663574, 0.14635273814201355, 0.037486910820007324, 0.040792711079120636, 0.3035094439983368, 0.3469592034816742, 0.21098953485488892, 0.33867156505584717, 0.23559242486953735, 0.12437614798545837, 0.41192060708999634, 0.17899151146411896, 0.22154897451400757, 0.42037710547447205, 0.26459625363349915, 0.12123885005712509, 0.20569419860839844, 0.12282667309045792, 0.14193008840084076, 0.13035131990909576, 0.21267493069171906, 0.3446047306060791, 0.5112983584403992, 0.6218173503875732, 0.6203709840774536, 0.31449609994888306, 0.29929119348526, 0.2730402946472168, 0.5657650828361511, 0.3170028328895569, 0.2497846633195877, 0.46277377009391785, 0.45194515585899353, 0.6197142601013184, 0.6236909031867981, 0.8435883522033691, 0.5266321301460266, 0.8083009123802185, 0.8396685719490051, 0.7490720152854919, 0.9011818766593933, 0.9382825493812561, 0.8147274255752563, 0.6845024824142456, 0.5404193997383118, 0.7808080911636353, 0.9719803929328918, 0.9760915637016296, 0.6972177028656006, 0.8466265797615051, 0.8554510474205017, 0.6640691757202148, 0.6149078011512756, 0.8633175492286682, 0.8782386779785156, 0.8467920422554016, 0.7666016221046448, 0.7986049056053162, 0.9037764668464661, 0.9342180490493774, 0.9119902849197388, 0.8064874410629272, 0.9262375235557556, 0.9533262252807617, 0.9338617324829102, 0.8499950766563416, 0.7832527756690979, 0.6331406235694885, 0.6146014332771301, 0.6264793276786804, 0.505884051322937, 0.5954135656356812, 0.5519025921821594, 0.8444172143936157, 0.729936957359314, 0.6313849091529846, 0.7367636561393738, 0.7385807633399963]</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.993228018283844</v>
+        <v>0.9760915637016296</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
@@ -4623,10 +4623,10 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0.8375217000138946</v>
+        <v>0.8160003000084544</v>
       </c>
       <c r="J102" t="n">
-        <v>0.005658930405499288</v>
+        <v>0.005513515540597665</v>
       </c>
     </row>
     <row r="103">
@@ -4645,11 +4645,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[0.38281986117362976, 0.16392555832862854, 0.13522423803806305, 0.1909729391336441, 0.15413658320903778, 0.30340301990509033, 0.2356383502483368, 0.43375086784362793, 0.3029082417488098, 0.46345198154449463, 0.6456859111785889, 0.6417346596717834, 0.4342373013496399, 0.4429820775985718, 0.339051216840744, 0.3577623665332794, 0.2042037695646286, 0.4068736433982849, 0.4938257932662964, 0.16506314277648926, 0.181672140955925, 0.1937589943408966, 0.5631851553916931, 0.5166528820991516, 0.5946817398071289, 0.20263192057609558, 0.15263023972511292, 0.170758455991745, 0.15864625573158264, 0.2243102341890335, 0.4899457097053528, 0.3752674460411072, 0.35105863213539124, 0.3884516656398773, 0.24017122387886047, 0.3372449278831482, 0.2778873145580292, 0.28290271759033203, 0.2318032681941986, 0.22381427884101868, 0.21098849177360535, 0.34089913964271545, 0.21447651088237762, 0.17653287947177887, 0.17332400381565094, 0.26242318749427795, 0.3077039420604706, 0.26366376876831055, 0.23990078270435333, 0.3985598385334015, 0.14378120005130768, 0.1661417931318283, 0.18184448778629303, 0.223200723528862, 0.22088418900966644, 0.1276669055223465, 0.10075419396162033, 0.14224925637245178, 0.22649838030338287, 0.20822647213935852, 0.11630429327487946, 0.14859431982040405, 0.211468905210495, 0.31376412510871887, 0.31950533390045166, 0.2884591519832611, 0.44865426421165466, 0.33891424536705017, 0.337083101272583, 0.17703917622566223, 0.1977275162935257, 0.10077094286680222, 0.1861104518175125, 0.16112715005874634, 0.17973540723323822, 0.21075521409511566, 0.1907883584499359, 0.09542930871248245, 0.21347752213478088, 0.09023034572601318, 0.12505356967449188, 0.18577347695827484, 0.11753355711698532, 0.2693018913269043, 0.23632308840751648, 0.20244333148002625, 0.3061940371990204, 0.3117932379245758, 0.20360083878040314, 0.19853785634040833, 0.26109594106674194, 0.35485124588012695, 0.46962082386016846, 0.48996827006340027, 0.42248255014419556, 0.5455542206764221, 0.38505977392196655, 0.5850966572761536, 0.5710787773132324, 0.5626958608627319, 0.3681366741657257, 0.370291531085968, 0.23793599009513855, 0.30792707204818726, 0.35921213030815125, 0.29169222712516785, 0.424763560295105, 0.25761646032333374, 0.27033352851867676, 0.20529569685459137, 0.1885336935520172, 0.23095500469207764, 0.2401784062385559, 0.16760359704494476, 0.3044842779636383, 0.18563005328178406, 0.27590686082839966, 0.2505181133747101, 0.20206958055496216, 0.22112640738487244, 0.16901397705078125, 0.13209974765777588, 0.19214224815368652, 0.5975049138069153, 0.26424816250801086, 0.3074849545955658, 0.22752420604228973, 0.5336248278617859, 0.09725376963615417, 0.13784906268119812, 0.1686418205499649, 0.15255257487297058, 0.12679721415042877, 0.2698620557785034, 0.23681296408176422, 0.3919261395931244, 0.30319464206695557, 0.3135788142681122, 0.23688389360904694, 0.4704986810684204, 0.25381985306739807, 0.4797693192958832, 0.3279739022254944, 0.44175246357917786, 0.7143530249595642, 0.7784475088119507, 0.7520846128463745, 0.6731075048446655, 0.3297519385814667, 0.4081079065799713, 0.457283079624176, 0.5271647572517395, 0.26224207878112793, 0.744631290435791, 0.9000948071479797, 0.9362246990203857, 0.9425622820854187, 0.8371564149856567, 0.6167901754379272, 0.44331860542297363, 0.419254332780838, 0.46143826842308044, 0.5003101825714111, 0.4831963777542114, 0.5184646844863892, 0.8258329629898071, 0.6349657773971558, 0.5851708650588989, 0.5862385034561157]</t>
+          <t>[0.1803973913192749, 0.0813128799200058, 0.05861656367778778, 0.08540298044681549, 0.06420254707336426, 0.22539052367210388, 0.21783922612667084, 0.39746764302253723, 0.2221631407737732, 0.36267364025115967, 0.623989999294281, 0.6519960165023804, 0.2548713982105255, 0.4036305844783783, 0.2941941022872925, 0.32111766934394836, 0.14948135614395142, 0.31394484639167786, 0.34760886430740356, 0.07222457975149155, 0.09650684893131256, 0.09606171399354935, 0.34078580141067505, 0.290770560503006, 0.1949046403169632, 0.06898627430200577, 0.043663617223501205, 0.048945650458335876, 0.05020194873213768, 0.08740945905447006, 0.3120275139808655, 0.22473429143428802, 0.1351323276758194, 0.134992316365242, 0.05026142671704292, 0.09054668992757797, 0.08978108316659927, 0.0792183205485344, 0.10215600579977036, 0.059834420680999756, 0.08585768938064575, 0.21628540754318237, 0.1646997332572937, 0.07592253386974335, 0.055604543536901474, 0.10343364626169205, 0.09809387475252151, 0.1080857589840889, 0.09823168814182281, 0.22004494071006775, 0.061032675206661224, 0.06515668332576752, 0.10969357192516327, 0.12996084988117218, 0.12330202013254166, 0.05552725866436958, 0.04010120406746864, 0.05741284042596817, 0.10118582099676132, 0.10556437075138092, 0.038475152105093, 0.047112565487623215, 0.1032475158572197, 0.24818101525306702, 0.17078422009944916, 0.18616943061351776, 0.28329193592071533, 0.24885322153568268, 0.30708250403404236, 0.11518838256597519, 0.08923950791358948, 0.03701202943921089, 0.07020661979913712, 0.07739797234535217, 0.05107744038105011, 0.06166630610823631, 0.0915762335062027, 0.05079047009348869, 0.11655626446008682, 0.04477599635720253, 0.05313502997159958, 0.11963100731372833, 0.07367566972970963, 0.16029299795627594, 0.12840552628040314, 0.07666010409593582, 0.14322702586650848, 0.14407676458358765, 0.05266109108924866, 0.058792002499103546, 0.08306393027305603, 0.2381196916103363, 0.3434743583202362, 0.35191696882247925, 0.31607112288475037, 0.5808954834938049, 0.3294110894203186, 0.5961376428604126, 0.5576547384262085, 0.5469623804092407, 0.41090843081474304, 0.32440266013145447, 0.1803559809923172, 0.2810133397579193, 0.21662117540836334, 0.17309144139289856, 0.41628870368003845, 0.2319609820842743, 0.26140493154525757, 0.12974166870117188, 0.12640903890132904, 0.18130618333816528, 0.1920911818742752, 0.07151593267917633, 0.15459264814853668, 0.0941925048828125, 0.16374534368515015, 0.13598723709583282, 0.10801682621240616, 0.10719839483499527, 0.11282727122306824, 0.07733816653490067, 0.11149749904870987, 0.4422664940357208, 0.14430385828018188, 0.3112669587135315, 0.17070172727108002, 0.6932991743087769, 0.04624203220009804, 0.08110101521015167, 0.0987253189086914, 0.10693185776472092, 0.03568059578537941, 0.11184588819742203, 0.12064577639102936, 0.2718667984008789, 0.1781691163778305, 0.20383891463279724, 0.11622031778097153, 0.5165131688117981, 0.2785956859588623, 0.32505038380622864, 0.16630005836486816, 0.2573215365409851, 0.6319565176963806, 0.7107910513877869, 0.7176227569580078, 0.5597819685935974, 0.15980394184589386, 0.17758582532405853, 0.13616111874580383, 0.2271396517753601, 0.07213860005140305, 0.5400400757789612, 0.7553420066833496, 0.8882412314414978, 0.9261829853057861, 0.786510705947876, 0.6082153916358948, 0.5032899379730225, 0.31328609585762024, 0.3547327220439911, 0.4249842166900635, 0.3186645209789276, 0.2790210247039795, 0.6280822157859802, 0.43473872542381287, 0.4566848576068878, 0.4589053690433502]</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.9425622820854187</v>
+        <v>0.9261829853057861</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0.9509895999799483</v>
+        <v>0.9606006999965757</v>
       </c>
       <c r="J103" t="n">
-        <v>0.005627157396331055</v>
+        <v>0.005684027810630625</v>
       </c>
     </row>
     <row r="104">
@@ -4685,11 +4685,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[0.7518463730812073, 0.6586208343505859, 0.9555911421775818, 0.9903004169464111, 0.7954607605934143, 0.8755692839622498, 0.8793540596961975, 0.7447289228439331, 0.6087807416915894, 0.574193000793457, 0.21328116953372955, 0.5448697805404663, 0.6691363453865051, 0.7358671426773071, 0.7065292000770569, 0.5131819248199463, 0.48717665672302246, 0.5762115120887756, 0.49437183141708374, 0.6878826022148132, 0.6191852688789368, 0.7612807750701904, 0.7486218214035034, 0.6395741701126099, 0.9280725121498108, 0.9776389002799988, 0.933177649974823, 0.9557304978370667, 0.9613105058670044, 0.9580466747283936, 0.7967024445533752, 0.952163577079773, 0.8205617070198059, 0.7335151433944702, 0.5248185396194458, 0.5718280076980591, 0.3223123848438263, 0.5870795845985413, 0.943789005279541, 0.823749303817749, 0.6999291777610779, 0.7426632046699524, 0.7933486104011536, 0.6905708909034729, 0.9273989200592041, 0.8349117636680603, 0.8322957158088684, 0.6936813592910767, 0.7029569149017334, 0.8395759463310242, 0.8091332316398621, 0.8276713490486145, 0.5286116600036621, 0.3851288855075836, 0.7439896464347839, 0.621927797794342, 0.8401579260826111, 0.9629598259925842, 0.937673807144165, 0.9538017511367798, 0.8474224805831909, 0.904812216758728, 0.8000727295875549, 0.7862109541893005, 0.6736325025558472, 0.6224867701530457, 0.639774739742279, 0.5109977126121521, 0.7373935580253601, 0.8416223526000977, 0.4431796669960022, 0.3015793561935425, 0.346120685338974, 0.4933631122112274, 0.6810019612312317, 0.6659590005874634, 0.7406833171844482, 0.4145383834838867, 0.3389587998390198, 0.17965887486934662, 0.19699718058109283, 0.26550909876823425, 0.2601009011268616, 0.3036240339279175, 0.29300421476364136, 0.2256011813879013, 0.13991504907608032, 0.14896433055400848, 0.2266753762960434, 0.10863538831472397, 0.12468142807483673, 0.22964851558208466, 0.17150233685970306, 0.09452648460865021, 0.11695635318756104, 0.09780902415513992, 0.13709710538387299, 0.12717688083648682, 0.35953783988952637, 0.4002380073070526, 0.2340475171804428, 0.45870089530944824, 0.5778273940086365, 0.739312469959259, 0.7621074914932251, 0.7886137366294861, 0.1690719723701477, 0.8134768009185791, 0.8547444343566895, 0.6198487877845764, 0.7549365162849426, 0.4755438268184662, 0.5603162050247192, 0.7241573333740234, 0.4506373405456543, 0.5082318782806396, 0.6946389675140381, 0.7517242431640625, 0.4547088146209717, 0.3202112317085266, 0.20857666432857513, 0.1773054301738739, 0.6613724827766418, 0.7909358739852905, 0.8657712936401367, 0.9829553961753845, 0.9598195552825928, 0.9710630774497986, 0.9940747618675232, 0.9822930693626404, 0.9425260424613953, 0.883223831653595, 0.8840249180793762, 0.9461603164672852, 0.8546053767204285, 0.8119778633117676, 0.8066204786300659, 0.8798660635948181, 0.7807406187057495, 0.831093430519104, 0.7633187174797058, 0.9199824333190918, 0.8282560706138611, 0.8716742992401123, 0.8020550012588501, 0.7210566997528076, 0.5257232189178467, 0.5554140210151672, 0.39126279950141907, 0.22322571277618408, 0.4111565351486206, 0.662835419178009, 0.24463026225566864, 0.16857177019119263, 0.34871500730514526, 0.16195856034755707, 0.23517830669879913, 0.10863129049539566, 0.0652620792388916, 0.08572948724031448, 0.0821138545870781, 0.05032544583082199, 0.08260422945022583, 0.05614023655653, 0.03952645882964134, 0.044457513839006424, 0.054572366178035736, 0.05328288674354553, 0.05339258164167404]</t>
+          <t>[0.6777343153953552, 0.5722219347953796, 0.931928813457489, 0.9822214245796204, 0.7491180896759033, 0.7927419543266296, 0.5856850743293762, 0.5442167520523071, 0.31805092096328735, 0.4031132161617279, 0.09158890694379807, 0.415469765663147, 0.5006595253944397, 0.7712312340736389, 0.6703492403030396, 0.3342334032058716, 0.31529492139816284, 0.560762882232666, 0.28769442439079285, 0.6062685251235962, 0.39838990569114685, 0.6784384846687317, 0.7347844839096069, 0.4186106026172638, 0.9027126431465149, 0.9617173075675964, 0.9434717297554016, 0.933875322341919, 0.9259567260742188, 0.936372697353363, 0.47653648257255554, 0.9414000511169434, 0.7826465964317322, 0.8536715507507324, 0.6953750252723694, 0.5778528451919556, 0.16496685147285461, 0.7039614319801331, 0.938626229763031, 0.8043667674064636, 0.6266387104988098, 0.7595220804214478, 0.6987454295158386, 0.7567304968833923, 0.9195590019226074, 0.8826795816421509, 0.8535827398300171, 0.8188835382461548, 0.7749284505844116, 0.8846202492713928, 0.8284125328063965, 0.8558257222175598, 0.5604495406150818, 0.2512088119983673, 0.6389606595039368, 0.4949329197406769, 0.6608232259750366, 0.9097899198532104, 0.7498675584793091, 0.7613670229911804, 0.40781235694885254, 0.6289938688278198, 0.3850458860397339, 0.30884596705436707, 0.2542562782764435, 0.1933521181344986, 0.20770347118377686, 0.08663623780012131, 0.21723440289497375, 0.3098553717136383, 0.14159917831420898, 0.0682230144739151, 0.07754633575677872, 0.09853606671094894, 0.2790851593017578, 0.4113795757293701, 0.576556921005249, 0.17215152084827423, 0.12376870214939117, 0.05108899250626564, 0.06262999027967453, 0.07425909489393234, 0.04761125147342682, 0.11995412409305573, 0.08494871109724045, 0.03925934433937073, 0.03152717649936676, 0.030437253415584564, 0.0674852728843689, 0.02771730162203312, 0.025924615561962128, 0.059961721301078796, 0.048461951315402985, 0.026596441864967346, 0.03551330417394638, 0.02241949737071991, 0.02784564718604088, 0.02289101853966713, 0.11097580194473267, 0.13900239765644073, 0.05445079877972603, 0.12770703434944153, 0.21664172410964966, 0.5356864929199219, 0.6206457614898682, 0.6506804823875427, 0.04639215022325516, 0.7560986876487732, 0.6709242463111877, 0.31251028180122375, 0.36699363589286804, 0.22362960875034332, 0.37240278720855713, 0.5751428604125977, 0.23225727677345276, 0.20251131057739258, 0.5319022536277771, 0.4811183512210846, 0.1412842720746994, 0.10274162888526917, 0.053012680262327194, 0.09318719804286957, 0.4287585914134979, 0.5823635458946228, 0.7525150179862976, 0.9903500080108643, 0.9765304923057556, 0.9835247993469238, 0.9953266382217407, 0.9813451766967773, 0.9002344608306885, 0.7242199778556824, 0.6094611287117004, 0.8495522737503052, 0.42607030272483826, 0.4163984954357147, 0.48666977882385254, 0.6515423655509949, 0.35914915800094604, 0.4695011377334595, 0.3413317799568176, 0.7285740375518799, 0.6443942189216614, 0.814797043800354, 0.7386481761932373, 0.5185075402259827, 0.3435029685497284, 0.33181485533714294, 0.26328596472740173, 0.09849617630243301, 0.2866792380809784, 0.7250078320503235, 0.118373803794384, 0.10724639147520065, 0.24757704138755798, 0.08669985830783844, 0.12340681999921799, 0.09991519898176193, 0.05694132298231125, 0.050342410802841187, 0.05008198693394661, 0.03837941214442253, 0.035066597163677216, 0.02336525358259678, 0.01192589569836855, 0.016288025304675102, 0.0249765794724226, 0.03400576859712601, 0.034140314906835556]</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.9940747618675232</v>
+        <v>0.9953266382217407</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
@@ -4703,10 +4703,10 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0.975035100011155</v>
+        <v>0.9441856999910669</v>
       </c>
       <c r="J104" t="n">
-        <v>0.005769438461604467</v>
+        <v>0.005586897633083236</v>
       </c>
     </row>
     <row r="105">
@@ -4725,11 +4725,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>[0.08627632260322571, 0.10766719281673431, 0.02060108445584774, 0.02514110505580902, 0.03973531723022461, 0.037526436150074005, 0.018259208649396896, 0.01189180463552475, 0.018454626202583313, 0.02288190647959709, 0.039828136563301086, 0.017156129702925682, 0.039965130388736725, 0.0229329876601696, 0.037126969546079636, 0.04936212673783302, 0.03582167252898216, 0.02723969705402851, 0.042613591998815536, 0.04202886298298836, 0.022567566484212875, 0.01646334119141102, 0.014682943932712078, 0.007931696251034737, 0.017866019159555435, 0.02720261923968792, 0.03615677356719971, 0.06595845520496368, 0.020730676129460335, 0.04346311464905739, 0.03829080983996391, 0.021698664873838425, 0.02053939923644066, 0.017917830497026443, 0.005457046441733837, 0.014748992398381233, 0.03245018795132637, 0.0216294564306736, 0.01744895800948143, 0.0528704933822155, 0.039611756801605225, 0.030955441296100616, 0.053876470774412155, 0.043655432760715485, 0.03167636692523956, 0.031066955998539925, 0.04191705957055092, 0.05030388385057449, 0.03967154398560524, 0.044433366507291794, 0.041914358735084534, 0.03423864021897316, 0.03201182186603546, 0.03723704442381859, 0.021048516035079956, 0.01689734309911728, 0.07269959151744843, 0.06779298931360245, 0.10826770216226578, 0.08569375425577164, 0.03156951442360878, 0.09815354645252228, 0.05240773782134056, 0.021031279116868973, 0.05789922550320625, 0.14500431716442108, 0.13757194578647614, 0.32002928853034973, 0.3967815041542053, 0.2116219401359558, 0.05306634306907654, 0.05062741041183472, 0.04438755288720131, 0.03493741527199745, 0.03323334828019142, 0.0795184001326561, 0.06617183238267899, 0.05316760763525963, 0.050116244703531265, 0.18114350736141205, 0.13540904223918915, 0.0923657938838005, 0.04661484807729721, 0.04454001039266586, 0.060017943382263184, 0.03506499156355858, 0.04823434352874756, 0.05141475796699524, 0.03654732182621956, 0.08359213173389435, 0.21131984889507294, 0.04114071652293205, 0.10673504322767258, 0.07130800932645798, 0.05630809813737869, 0.08716430515050888, 0.1070704311132431, 0.07488074153661728, 0.05944717302918434, 0.08973132818937302, 0.040613990277051926, 0.04703356325626373, 0.05972691625356674, 0.06480962038040161, 0.08710158616304398, 0.14466528594493866, 0.10247209668159485, 0.0840766429901123, 0.024038849398493767, 0.14528605341911316, 0.8092733025550842, 0.9388701915740967, 0.4943103790283203, 0.19697192311286926, 0.04771114140748978, 0.08968783169984818, 0.061623748391866684, 0.08215586096048355, 0.14947281777858734, 0.08729150891304016, 0.03918566182255745, 0.034936726093292236, 0.03892529755830765, 0.04853961244225502, 0.17557330429553986, 0.1794089525938034, 0.07676663994789124, 0.03891284763813019, 0.07901240885257721, 0.04979030787944794, 0.04301908612251282, 0.04587084427475929, 0.1437568962574005, 0.09397805482149124, 0.06923217326402664, 0.03484709560871124, 0.024350063875317574, 0.039287351071834564, 0.0361611433327198, 0.05243856832385063, 0.09592429548501968, 0.14645007252693176, 0.08732227236032486, 0.11731048673391342, 0.08094123750925064, 0.057857051491737366, 0.08288795500993729, 0.0662996917963028, 0.023552181199193, 0.027798492461442947, 0.03680417314171791, 0.036367274820804596, 0.05959407240152359, 0.03736751899123192, 0.028133530169725418, 0.026466427370905876, 0.02890538051724434, 0.0567084401845932, 0.05530692636966705, 0.04778547212481499, 0.09210089594125748, 0.08433343470096588, 0.030675632879137993, 0.02779834158718586, 0.021859023720026016, 0.025980213657021523, 0.0571480467915535, 0.04538901150226593, 0.04525148868560791]</t>
+          <t>[0.021859468892216682, 0.06218267232179642, 0.007466041017323732, 0.006846406031399965, 0.013585945591330528, 0.019030682742595673, 0.005478676874190569, 0.004224298521876335, 0.005418400280177593, 0.007298906799405813, 0.008021200075745583, 0.0028849930968135595, 0.009646334685385227, 0.006688056513667107, 0.015687568113207817, 0.019646892324090004, 0.018271904438734055, 0.012094276957213879, 0.03470556065440178, 0.017468107864260674, 0.007051447872072458, 0.0048985048197209835, 0.005060446914285421, 0.0015987562946975231, 0.00449157552793622, 0.014061604626476765, 0.011310778558254242, 0.02235344983637333, 0.006633859593421221, 0.01356494426727295, 0.012507008388638496, 0.0065982830710709095, 0.007163757923990488, 0.0049298410303890705, 0.0013791254023090005, 0.0027913434896618128, 0.011153098195791245, 0.008571247570216656, 0.004277974832803011, 0.012331361882388592, 0.016231361776590347, 0.006186196580529213, 0.012059636414051056, 0.01278081163764, 0.015699515119194984, 0.010776781477034092, 0.020230578258633614, 0.028707237914204597, 0.028658496215939522, 0.0234370194375515, 0.01811988465487957, 0.017554640769958496, 0.017858343198895454, 0.015441064722836018, 0.010504444129765034, 0.006647841539233923, 0.027364857494831085, 0.019860316067934036, 0.05375492572784424, 0.02960101328790188, 0.01647840440273285, 0.04019639268517494, 0.026020562276244164, 0.006863176357001066, 0.027560215443372726, 0.0647086650133133, 0.07110309600830078, 0.1216539815068245, 0.2347126305103302, 0.12257832288742065, 0.01489915419369936, 0.019756358116865158, 0.010769499465823174, 0.008481103926897049, 0.00850690994411707, 0.01767905056476593, 0.01785149797797203, 0.03519589081406593, 0.020586969330906868, 0.1376643180847168, 0.08376838266849518, 0.038223788142204285, 0.015641437843441963, 0.01710653491318226, 0.01608804240822792, 0.007423796691000462, 0.010541542433202267, 0.011513574048876762, 0.009503147564828396, 0.01968935877084732, 0.05531977117061615, 0.014193967916071415, 0.03023652359843254, 0.022729724645614624, 0.012584841810166836, 0.037615638226270676, 0.05123576894402504, 0.039729516953229904, 0.01810486614704132, 0.03137977793812752, 0.011600752361118793, 0.02431187406182289, 0.025650477036833763, 0.032450105994939804, 0.05094157159328461, 0.07002213597297668, 0.023433994501829147, 0.018384989351034164, 0.00900202989578247, 0.047754041850566864, 0.47173604369163513, 0.8764408230781555, 0.3501252830028534, 0.1322672963142395, 0.018752846866846085, 0.045146115124225616, 0.030012212693691254, 0.0790189653635025, 0.12650518119335175, 0.03634612262248993, 0.018681149929761887, 0.016812069341540337, 0.024013977497816086, 0.030408568680286407, 0.11091795563697815, 0.08874901384115219, 0.027036679908633232, 0.022293033078312874, 0.042554616928100586, 0.017310962080955505, 0.03676857426762581, 0.03415527567267418, 0.09738734364509583, 0.07204121351242065, 0.0315263532102108, 0.011900804005563259, 0.009450928308069706, 0.027586663141846657, 0.02534756250679493, 0.03695393353700638, 0.05292719230055809, 0.10936093330383301, 0.07139533013105392, 0.08274777978658676, 0.08210308849811554, 0.041901301592588425, 0.05411142483353615, 0.030403228476643562, 0.009518294595181942, 0.01690254919230938, 0.02005922421813011, 0.011120655573904514, 0.021660713478922844, 0.01089061051607132, 0.011993657797574997, 0.01290319487452507, 0.009484464302659035, 0.014396226964890957, 0.01124452892690897, 0.025134969502687454, 0.039297915995121, 0.050473351031541824, 0.008183701895177364, 0.00944656040519476, 0.006805342622101307, 0.00820080004632473, 0.019921815022826195, 0.01586148515343666, 0.015828438103199005]</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.9388701915740967</v>
+        <v>0.8764408230781555</v>
       </c>
       <c r="F105" t="n">
         <v>1</v>
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0.9309452000015881</v>
+        <v>0.9328810000006342</v>
       </c>
       <c r="J105" t="n">
-        <v>0.005508551479299338</v>
+        <v>0.005520005917163516</v>
       </c>
     </row>
     <row r="106">
@@ -4765,11 +4765,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>[0.08682642877101898, 0.2038763463497162, 0.19804663956165314, 0.3281783163547516, 0.27447351813316345, 0.41963475942611694, 0.19303081929683685, 0.7076898813247681, 0.6124506592750549, 0.2465716004371643, 0.42341145873069763, 0.2070722132921219, 0.5336960554122925, 0.23932085931301117, 0.6370466947555542, 0.8233550190925598, 0.8375054597854614, 0.4827030599117279, 0.1617526113986969, 0.23020589351654053, 0.47620245814323425, 0.4061811864376068, 0.1819005012512207, 0.525355339050293, 0.5711938142776489, 0.3827418088912964, 0.2654830813407898, 0.12597575783729553, 0.20608580112457275, 0.11339966207742691, 0.14574436843395233, 0.08506666123867035, 0.19769632816314697, 0.4377157390117645, 0.6258767247200012, 0.835625171661377, 0.5658248662948608, 0.4769105613231659, 0.7559970021247864, 0.6120302081108093, 0.701339840888977, 0.3490482270717621, 0.31322556734085083, 0.1658187359571457, 0.27649015188217163, 0.21070659160614014, 0.30544885993003845, 0.23469428718090057, 0.37497177720069885, 0.3467397689819336, 0.519270122051239, 0.3323892056941986, 0.36259332299232483, 0.15382318198680878, 0.1566474735736847, 0.5927935838699341, 0.23095451295375824, 0.20505443215370178, 0.2381146103143692, 0.36145493388175964, 0.2808556854724884, 0.24000784754753113, 0.5843233466148376, 0.25538167357444763, 0.5896850228309631, 0.46309393644332886, 0.4130561947822571, 0.1998821198940277, 0.37428000569343567, 0.19720859825611115, 0.24784423410892487, 0.5283794403076172, 0.7047795653343201, 0.37459596991539, 0.19956515729427338, 0.38256096839904785, 0.7934936881065369, 0.5842075943946838, 0.36678019165992737, 0.43988168239593506, 0.7077773809432983, 0.7692916989326477, 0.5045949816703796, 0.17338766157627106, 0.38405221700668335, 0.29071304202079773, 0.3811570107936859, 0.14419718086719513, 0.17945410311222076, 0.18685024976730347, 0.10057859867811203, 0.3744261562824249, 0.3621082305908203, 0.5236681699752808, 0.3740234971046448, 0.20742487907409668, 0.18572627007961273, 0.1743970662355423, 0.4394097626209259, 0.22964346408843994, 0.3867115378379822, 0.29395511746406555, 0.4562234878540039, 0.2311890572309494, 0.20289841294288635, 0.28880006074905396, 0.2590638995170593, 0.08692595362663269, 0.09904202818870544, 0.22664734721183777, 0.18881402909755707, 0.2632698714733124, 0.08465929329395294, 0.3866523504257202, 0.4140227735042572, 0.11510331928730011, 0.17208202183246613, 0.14880676567554474, 0.26656612753868103, 0.5067559480667114, 0.18385683000087738, 0.27857455611228943, 0.11620377004146576, 0.17803116142749786, 0.3397628962993622, 0.12944455444812775, 0.22089654207229614, 0.35025113821029663, 0.14720740914344788, 0.16334199905395508, 0.1963413953781128, 0.4133993685245514, 0.5440268516540527, 0.7408849596977234, 0.8075823783874512, 0.6139938235282898, 0.42905598878860474, 0.16245172917842865, 0.16965728998184204, 0.21040941774845123, 0.25534576177597046, 0.3383651077747345, 0.81009840965271, 0.32965028285980225, 0.7739980816841125, 0.9276324510574341, 0.9106479287147522, 0.7611504793167114, 0.5710800290107727, 0.10406516492366791, 0.42026615142822266, 0.03719056397676468, 0.018263012170791626, 0.042768388986587524, 0.049482762813568115, 0.05187195912003517, 0.04854980483651161, 0.04571446403861046, 0.08825881779193878, 0.0743972510099411, 0.05751081556081772, 0.09672479331493378, 0.13367696106433868, 0.2321460098028183, 0.16434453427791595, 0.024504445493221283, 0.06210856884717941, 0.12985435128211975, 0.12792684137821198]</t>
+          <t>[0.03269372880458832, 0.1586543768644333, 0.18011760711669922, 0.23279455304145813, 0.2831050157546997, 0.4164477586746216, 0.16320747137069702, 0.7167723774909973, 0.5923249125480652, 0.10398548096418381, 0.26604586839675903, 0.11031212657690048, 0.36552104353904724, 0.11052819341421127, 0.5364393591880798, 0.748308539390564, 0.8486499190330505, 0.28255730867385864, 0.09498845785856247, 0.16378416121006012, 0.4202926754951477, 0.29906702041625977, 0.10789570957422256, 0.376298725605011, 0.3575255870819092, 0.21264438331127167, 0.18266206979751587, 0.04567721113562584, 0.08411619812250137, 0.058423399925231934, 0.09682976454496384, 0.04833712801337242, 0.07353688776493073, 0.32992979884147644, 0.5089560747146606, 0.8227440714836121, 0.40239188075065613, 0.3535964787006378, 0.7411283254623413, 0.4774799644947052, 0.6541973948478699, 0.26441705226898193, 0.21399597823619843, 0.05399765819311142, 0.1282828152179718, 0.0703316330909729, 0.12420690804719925, 0.07763410359621048, 0.13623298704624176, 0.18797457218170166, 0.3391229212284088, 0.11433735489845276, 0.14329758286476135, 0.05407603085041046, 0.05133961886167526, 0.3406170904636383, 0.09801796823740005, 0.05638280510902405, 0.08886659145355225, 0.18157942593097687, 0.08044645935297012, 0.08644773811101913, 0.30510690808296204, 0.08181871473789215, 0.32369911670684814, 0.21046660840511322, 0.31351980566978455, 0.06702873110771179, 0.23013219237327576, 0.08923471719026566, 0.11434569209814072, 0.2769775390625, 0.5088962316513062, 0.24550959467887878, 0.11594405025243759, 0.28823381662368774, 0.7617765069007874, 0.4953528940677643, 0.25697359442710876, 0.2380482703447342, 0.46855297684669495, 0.6027211546897888, 0.3097001910209656, 0.046875253319740295, 0.24005067348480225, 0.12222576141357422, 0.23202809691429138, 0.06931746006011963, 0.12196914106607437, 0.13140669465065002, 0.04739231988787651, 0.24218010902404785, 0.1645606905221939, 0.2730051875114441, 0.17071519792079926, 0.15659739077091217, 0.07004917412996292, 0.06424731016159058, 0.33228689432144165, 0.10051774978637695, 0.24822315573692322, 0.2696254253387451, 0.59647536277771, 0.30133718252182007, 0.1357938051223755, 0.14069412648677826, 0.13136200606822968, 0.024339593946933746, 0.03506913781166077, 0.1423547863960266, 0.11080937087535858, 0.18174754083156586, 0.06680288910865784, 0.14437584578990936, 0.22536274790763855, 0.053088366985321045, 0.06822260469198227, 0.11156699806451797, 0.1607903093099594, 0.2722459137439728, 0.07376407831907272, 0.10958033800125122, 0.05725334957242012, 0.06638727337121964, 0.24346907436847687, 0.04254883527755737, 0.07599056512117386, 0.09956571459770203, 0.059500209987163544, 0.0631193220615387, 0.09017106145620346, 0.21606214344501495, 0.36013904213905334, 0.7572439312934875, 0.7153969407081604, 0.4132824242115021, 0.27336257696151733, 0.08460239320993423, 0.059949059039354324, 0.06631432473659515, 0.10402824729681015, 0.13496658205986023, 0.6297789812088013, 0.17699608206748962, 0.5265442132949829, 0.9090763330459595, 0.7497395873069763, 0.6596065163612366, 0.29428017139434814, 0.03800785169005394, 0.08236246556043625, 0.013567280024290085, 0.007928499951958656, 0.019042640924453735, 0.02095193788409233, 0.032891321927309036, 0.0165370162576437, 0.023022117093205452, 0.045996006578207016, 0.05069675296545029, 0.02861393615603447, 0.08332935720682144, 0.10716267675161362, 0.28173333406448364, 0.12984853982925415, 0.03789890930056572, 0.07562575489282608, 0.200095996260643, 0.19612246751785278]</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.9276324510574341</v>
+        <v>0.9090763330459595</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
@@ -4783,10 +4783,10 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0.9236071999766864</v>
+        <v>0.9359706999966875</v>
       </c>
       <c r="J106" t="n">
-        <v>0.005465131360808795</v>
+        <v>0.005538288165660873</v>
       </c>
     </row>
     <row r="107">
@@ -4805,11 +4805,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[0.8261818885803223, 0.9218893051147461, 0.7827380299568176, 0.7059421539306641, 0.9188443422317505, 0.9162587523460388, 0.9063500761985779, 0.9646794199943542, 0.9156699180603027, 0.42898836731910706, 0.5896549224853516, 0.9529771208763123, 0.9918588995933533, 0.9734877347946167, 0.2390521615743637, 0.4287268817424774, 0.3557085692882538, 0.45781707763671875, 0.453814297914505, 0.2560880184173584, 0.23743106424808502, 0.16080255806446075, 0.49283653497695923, 0.5195065140724182, 0.380281925201416, 0.4669109582901001, 0.1648911088705063, 0.15320222079753876, 0.17266151309013367, 0.0885767936706543, 0.43902233242988586, 0.3003925085067749, 0.44198304414749146, 0.36475932598114014, 0.3260926604270935, 0.49462735652923584, 0.3278985619544983, 0.6903468370437622, 0.8143093585968018, 0.5368627905845642, 0.5736774206161499, 0.40864548087120056, 0.6426199674606323, 0.4487619996070862, 0.4296492040157318, 0.6608182787895203, 0.3805067837238312, 0.5368655920028687, 0.18631918728351593, 0.09536631405353546, 0.14061272144317627, 0.11420083045959473, 0.07203925400972366, 0.2206205129623413, 0.18104062974452972, 0.2601657509803772, 0.16370399296283722, 0.14732041954994202, 0.0821475088596344, 0.13156680762767792, 0.053552813827991486, 0.22237639129161835, 0.22667890787124634, 0.272148460149765, 0.1946089118719101, 0.2270369827747345, 0.32538655400276184, 0.34047213196754456, 0.06352496892213821, 0.08186452090740204, 0.37582463026046753, 0.5583425164222717, 0.7770195007324219, 0.8826860785484314, 0.8281771540641785, 0.9904822111129761, 0.9877257943153381, 0.743048369884491, 0.788170576095581, 0.720198392868042, 0.5965376496315002, 0.5099475979804993, 0.45556941628456116, 0.49817678332328796, 0.7262507081031799, 0.1595766544342041, 0.39817285537719727, 0.10601015388965607, 0.044362880289554596, 0.07978976517915726, 0.11546152085065842, 0.1735123246908188, 0.0949283093214035, 0.22839288413524628, 0.1059606596827507, 0.1361522376537323, 0.2618812322616577, 0.1426871418952942, 0.12545502185821533, 0.12826530635356903, 0.3603695034980774, 0.3149197995662689, 0.5801454782485962, 0.4375840425491333, 0.4163919687271118, 0.5980411171913147, 0.6859143376350403, 0.9474831223487854, 0.8249046802520752, 0.47532588243484497, 0.6477001309394836, 0.9372530579566956, 0.7096362113952637, 0.7398991584777832, 0.8210857510566711, 0.7091066837310791, 0.9161874651908875, 0.9255708456039429, 0.794020414352417, 0.8637417554855347, 0.9762781858444214, 0.8166732788085938, 0.5046706795692444, 0.46883919835090637, 0.9743798971176147, 0.9407380223274231, 0.9254844784736633, 0.7437171936035156, 0.7780771851539612, 0.5848139524459839, 0.7706878781318665, 0.7383942604064941, 0.3273182809352875, 0.09291388839483261, 0.051998674869537354, 0.02892594039440155, 0.11292953044176102, 0.1991637945175171, 0.16165491938591003, 0.16546650230884552, 0.174655482172966, 0.16627244651317596, 0.1715259999036789, 0.17756766080856323, 0.1688850224018097, 0.16720108687877655, 0.18037049472332, 0.17617274820804596, 0.17302703857421875, 0.16928662359714508, 0.16666987538337708, 0.16948045790195465, 0.1667008101940155, 0.16550621390342712, 0.1651431918144226, 0.1635168492794037, 0.17113886773586273, 0.17785122990608215, 0.17055340111255646, 0.17225351929664612, 0.16349107027053833, 0.1728110909461975, 0.16349217295646667, 0.16553977131843567, 0.1782122552394867, 0.17184677720069885, 0.17445476353168488, 0.17412607371807098, 0.1747727394104004]</t>
+          <t>[0.6169389486312866, 0.6593008041381836, 0.43966034054756165, 0.351754754781723, 0.7569758296012878, 0.6348530650138855, 0.6359086632728577, 0.8356438875198364, 0.653535008430481, 0.2421998381614685, 0.40067049860954285, 0.8392041921615601, 0.9809033274650574, 0.9660571813583374, 0.25781506299972534, 0.4458692669868469, 0.46474748849868774, 0.3041152358055115, 0.4180281460285187, 0.2280271053314209, 0.12110090255737305, 0.1020493134856224, 0.3470277786254883, 0.3280516266822815, 0.3249823749065399, 0.22784969210624695, 0.10878177732229233, 0.05558181181550026, 0.06450583040714264, 0.022426409646868706, 0.21257251501083374, 0.15025071799755096, 0.15953105688095093, 0.15688031911849976, 0.15425939857959747, 0.25935834646224976, 0.1637195199728012, 0.4864416718482971, 0.6641356348991394, 0.3140406310558319, 0.35172197222709656, 0.3284129202365875, 0.5404887199401855, 0.22163555026054382, 0.39918655157089233, 0.7202749252319336, 0.22493629157543182, 0.551901638507843, 0.0972854495048523, 0.05498385429382324, 0.09476321935653687, 0.03541520982980728, 0.023404479026794434, 0.1373455971479416, 0.08938951045274734, 0.16972777247428894, 0.12041015923023224, 0.07606247067451477, 0.03279468044638634, 0.08229978382587433, 0.01967386156320572, 0.10029390454292297, 0.1297200322151184, 0.14985628426074982, 0.0626671314239502, 0.042186230421066284, 0.1186540275812149, 0.21911484003067017, 0.016969170421361923, 0.028836747631430626, 0.39750251173973083, 0.7074265480041504, 0.806851863861084, 0.8706328272819519, 0.7582535147666931, 0.9916456341743469, 0.9963939785957336, 0.8555519580841064, 0.9017240405082703, 0.7348885536193848, 0.8317853212356567, 0.617357075214386, 0.5091273188591003, 0.6830266118049622, 0.7677197456359863, 0.16892051696777344, 0.5409308671951294, 0.12459320574998856, 0.04455122724175453, 0.062246378511190414, 0.08172048628330231, 0.09978333115577698, 0.04717620462179184, 0.15903417766094208, 0.08374515920877457, 0.08879343420267105, 0.12722352147102356, 0.10737957805395126, 0.0780705139040947, 0.06371365487575531, 0.297720730304718, 0.19353939592838287, 0.4086408019065857, 0.24914559721946716, 0.3832910358905792, 0.6075827479362488, 0.5423401594161987, 0.9463738799095154, 0.7271820902824402, 0.46017149090766907, 0.6626823544502258, 0.9555193185806274, 0.7601491808891296, 0.808358907699585, 0.7968858480453491, 0.6833196878433228, 0.962815523147583, 0.9571686387062073, 0.8148177862167358, 0.9209883809089661, 0.9831377267837524, 0.8256102800369263, 0.42772549390792847, 0.3538280129432678, 0.9883620142936707, 0.966077983379364, 0.9326557517051697, 0.5704950094223022, 0.8134740591049194, 0.7528855800628662, 0.7797524929046631, 0.8394381403923035, 0.16282883286476135, 0.041400205343961716, 0.022235631942749023, 0.021548571065068245, 0.07570536434650421, 0.11136430501937866, 0.08982639014720917, 0.09284596145153046, 0.09929564595222473, 0.10092291980981827, 0.10004421323537827, 0.10916271805763245, 0.09044026583433151, 0.08919595181941986, 0.1052747517824173, 0.09997674077749252, 0.09960582107305527, 0.09332267194986343, 0.08874904364347458, 0.09190668165683746, 0.09449341893196106, 0.09321955591440201, 0.09211905300617218, 0.09008879214525223, 0.09798897057771683, 0.0997295007109642, 0.09612259268760681, 0.09286463260650635, 0.08723177760839462, 0.09788274765014648, 0.09161455929279327, 0.09381695836782455, 0.10362161695957184, 0.09697028994560242, 0.09667722880840302, 0.0960124284029007, 0.09609672427177429]</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.9918588995933533</v>
+        <v>0.9963939785957336</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0.928936700016493</v>
+        <v>0.9282500999979675</v>
       </c>
       <c r="J107" t="n">
-        <v>0.005496666864002917</v>
+        <v>0.005492604141999808</v>
       </c>
     </row>
     <row r="108">
@@ -4845,11 +4845,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>[0.27369192242622375, 0.21839295327663422, 0.2875033915042877, 0.123947873711586, 0.11206038296222687, 0.19768959283828735, 0.1643558293581009, 0.2993429899215698, 0.3054429590702057, 0.3340963125228882, 0.29585668444633484, 0.34790322184562683, 0.7837334871292114, 0.6196564435958862, 0.569545567035675, 0.24635490775108337, 0.43774592876434326, 0.5208690166473389, 0.2578587532043457, 0.3281310796737671, 0.34763675928115845, 0.21506673097610474, 0.15174846351146698, 0.13605915009975433, 0.1881198137998581, 0.5812475681304932, 0.2925484776496887, 0.33398106694221497, 0.11943702399730682, 0.09011449664831161, 0.056582286953926086, 0.0505128875374794, 0.08613485097885132, 0.1864430159330368, 0.3290170431137085, 0.45296138525009155, 0.2966221272945404, 0.24999065697193146, 0.24561679363250732, 0.2338690310716629, 0.31297481060028076, 0.2774023115634918, 0.4347810745239258, 0.2229788899421692, 0.23852546513080597, 0.20531153678894043, 0.2627139091491699, 0.25369948148727417, 0.2604185938835144, 0.20587891340255737, 0.2713053822517395, 0.3148678243160248, 0.1337638646364212, 0.08272939175367355, 0.05191272124648094, 0.11751613020896912, 0.10559199005365372, 0.24200066924095154, 0.31664881110191345, 0.20464597642421722, 0.31110793352127075, 0.3109075129032135, 0.26371973752975464, 0.3165372610092163, 0.09449636191129684, 0.058345209807157516, 0.1235017403960228, 0.3350355625152588, 0.27083536982536316, 0.19278484582901, 0.11736909300088882, 0.12469620257616043, 0.1279907077550888, 0.3290627598762512, 0.1355113834142685, 0.3327796757221222, 0.35529521107673645, 0.2828696370124817, 0.22423501312732697, 0.37120893597602844, 0.22076298296451569, 0.17982617020606995, 0.18534542620182037, 0.11712656915187836, 0.2733398675918579, 0.26864734292030334, 0.25562259554862976, 0.22896990180015564, 0.1531704068183899, 0.09894830733537674, 0.0634719505906105, 0.10596055537462234, 0.048010971397161484, 0.09328930079936981, 0.044741228222846985, 0.10570494085550308, 0.1740027666091919, 0.2691590487957001, 0.13056699931621552, 0.12437186390161514, 0.07899007201194763, 0.09898938238620758, 0.08971551805734634, 0.052864089608192444, 0.07630040496587753, 0.11343265324831009, 0.07466796040534973, 0.17067468166351318, 0.11209545284509659, 0.0689990445971489, 0.07961363345384598, 0.08129902929067612, 0.14381101727485657, 0.09191033989191055, 0.09287305921316147]</t>
+          <t>[0.172474667429924, 0.11665604263544083, 0.15812711417675018, 0.06163721904158592, 0.04525832459330559, 0.08987807482481003, 0.08689315617084503, 0.17107577621936798, 0.15866084396839142, 0.19144751131534576, 0.10049071162939072, 0.12096203863620758, 0.4341556429862976, 0.22972528636455536, 0.16673485934734344, 0.10007645934820175, 0.1849157214164734, 0.348038911819458, 0.12017814069986343, 0.2366974800825119, 0.1720583736896515, 0.08016198128461838, 0.05349552258849144, 0.044439975172281265, 0.08215173333883286, 0.5065391063690186, 0.15535159409046173, 0.19770856201648712, 0.044401414692401886, 0.030947132036089897, 0.02833859622478485, 0.024587413296103477, 0.026271050795912743, 0.023517301306128502, 0.07107766717672348, 0.11661859601736069, 0.04694380611181259, 0.06991549581289291, 0.06479338556528091, 0.05375629663467407, 0.06224438175559044, 0.055237866938114166, 0.14110516011714935, 0.03533336520195007, 0.030244404450058937, 0.03492199257016182, 0.047789763659238815, 0.05218668282032013, 0.05008497089147568, 0.036075420677661896, 0.046045951545238495, 0.06008254736661911, 0.01697555184364319, 0.011273947544395924, 0.008367481641471386, 0.014623590745031834, 0.014494545757770538, 0.037932638078927994, 0.09490421414375305, 0.0689549520611763, 0.10469713062047958, 0.0783197209239006, 0.0824897363781929, 0.11111927777528763, 0.022400392219424248, 0.014278591610491276, 0.046012695878744125, 0.12799501419067383, 0.10223691910505295, 0.0835491269826889, 0.044703975319862366, 0.03949341922998428, 0.04374345764517784, 0.11080136150121689, 0.03260684385895729, 0.09899507462978363, 0.09744872897863388, 0.06481171399354935, 0.05660093203186989, 0.12954755127429962, 0.05441337078809738, 0.03448852524161339, 0.04525924474000931, 0.02229803428053856, 0.06399637460708618, 0.0858396664261818, 0.09843672811985016, 0.0705195963382721, 0.04711084067821503, 0.02310866117477417, 0.01476727519184351, 0.022776765748858452, 0.01236763596534729, 0.033408597111701965, 0.01452367939054966, 0.060429275035858154, 0.1223965659737587, 0.13595111668109894, 0.027594955638051033, 0.03237587958574295, 0.01798911578953266, 0.02303237095475197, 0.020287977531552315, 0.014832770451903343, 0.016436230391263962, 0.03488219529390335, 0.020566020160913467, 0.078382208943367, 0.03594878688454628, 0.02082468941807747, 0.02426651492714882, 0.0224301740527153, 0.04326925426721573, 0.024124685674905777, 0.024589141830801964]</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.7837334871292114</v>
+        <v>0.5065391063690186</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
@@ -4863,10 +4863,10 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0.7560904999845661</v>
+        <v>0.7659012000076473</v>
       </c>
       <c r="J108" t="n">
-        <v>0.006574699999865792</v>
+        <v>0.006660010434849106</v>
       </c>
     </row>
     <row r="109">
@@ -4885,11 +4885,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[0.35415634512901306, 0.3469947576522827, 0.3920477330684662, 0.2853967547416687, 0.2607511281967163, 0.1324175000190735, 0.36607828736305237, 0.5655830502510071, 0.4325196146965027, 0.3390146493911743, 0.5093973875045776, 0.4059910476207733, 0.13693121075630188, 0.23087339103221893, 0.11561106145381927, 0.12161587923765182, 0.26806560158729553, 0.2946913242340088, 0.5602518916130066, 0.36218658089637756, 0.2720421254634857, 0.27302441000938416, 0.2834564447402954, 0.4191990792751312, 0.4226609170436859, 0.7263767123222351, 0.35714685916900635, 0.31776320934295654, 0.2094646841287613, 0.3611801862716675, 0.29191160202026367, 0.3216070532798767, 0.5273120403289795, 0.6908479332923889, 0.6052574515342712, 0.5030968189239502, 0.6936016082763672, 0.6022809147834778, 0.6260409355163574, 0.5744783282279968, 0.4758405089378357, 0.5298845171928406, 0.2038055658340454, 0.24250531196594238, 0.22724702954292297, 0.23130078613758087, 0.2900768518447876, 0.38351428508758545, 0.3991669714450836, 0.30873173475265503, 0.1810082197189331, 0.18699847161769867, 0.16486132144927979, 0.1842186599969864, 0.15813614428043365, 0.4226360023021698, 0.30721116065979004, 0.3062745928764343, 0.14935939013957977, 0.17980226874351501, 0.07634413987398148, 0.08967071026563644, 0.15620794892311096, 0.1967390477657318, 0.2202804833650589, 0.20017075538635254, 0.2244517058134079, 0.3437979817390442, 0.2301545888185501, 0.36518004536628723, 0.2352699339389801, 0.16653193533420563, 0.16363467276096344, 0.316630482673645, 0.4423702359199524, 0.30270206928253174, 0.20466265082359314, 0.1387908011674881, 0.07137186825275421, 0.0954863578081131, 0.05287971347570419, 0.13510094583034515, 0.09352172911167145, 0.09172374755144119, 0.09502387791872025, 0.15598273277282715, 0.1882627159357071, 0.1315210610628128, 0.3636516034603119, 0.4631263017654419, 0.1984245926141739, 0.25520721077919006, 0.2520964741706848, 0.34236791729927063, 0.266853004693985, 0.26379257440567017, 0.17358750104904175, 0.16559867560863495, 0.12144755572080612, 0.2126605212688446, 0.21114401519298553, 0.2119249850511551, 0.14445753395557404, 0.11204838752746582, 0.1520935446023941, 0.22030691802501678, 0.19671550393104553, 0.1860978752374649, 0.14019176363945007, 0.08766824752092361, 0.07586583495140076, 0.09404384344816208, 0.09431381523609161, 0.12028657644987106, 0.1055750623345375, 0.1963854432106018, 0.25688984990119934, 0.250893771648407]</t>
+          <t>[0.15793459117412567, 0.1183663159608841, 0.12892939150333405, 0.09004771709442139, 0.06026807427406311, 0.02225838042795658, 0.11385972797870636, 0.26875680685043335, 0.19823014736175537, 0.2122218906879425, 0.3685474395751953, 0.18623286485671997, 0.053853731602430344, 0.12068700790405273, 0.038346923887729645, 0.020783299580216408, 0.052137117832899094, 0.08907746523618698, 0.30090710520744324, 0.19340366125106812, 0.08029133081436157, 0.1346777081489563, 0.06119370833039284, 0.14575105905532837, 0.12250425666570663, 0.40066614747047424, 0.10550788789987564, 0.10191954672336578, 0.03630990907549858, 0.11351246386766434, 0.1440618336200714, 0.060055240988731384, 0.15350498259067535, 0.33088448643684387, 0.35535863041877747, 0.21044179797172546, 0.5029904246330261, 0.4269501566886902, 0.37308940291404724, 0.42552366852760315, 0.3348211944103241, 0.5173436999320984, 0.11191610991954803, 0.12329570949077606, 0.1076902225613594, 0.1383734792470932, 0.2004425823688507, 0.1900092363357544, 0.15029148757457733, 0.10173152387142181, 0.0663258507847786, 0.06793646514415741, 0.04694425314664841, 0.06189420446753502, 0.07310684025287628, 0.2651295065879822, 0.10867976397275925, 0.09354618191719055, 0.024058176204562187, 0.030013959854841232, 0.010264226235449314, 0.01586408168077469, 0.027280861511826515, 0.05292299762368202, 0.043594278395175934, 0.052908025681972504, 0.07465247809886932, 0.10491517186164856, 0.0952114388346672, 0.17905735969543457, 0.09531834721565247, 0.038793712854385376, 0.03920278698205948, 0.18237923085689545, 0.2669681906700134, 0.11945552378892899, 0.060368649661540985, 0.04729210585355759, 0.01219059620052576, 0.01308799535036087, 0.008962702937424183, 0.04021614417433739, 0.020872874185442924, 0.015445580706000328, 0.014450210146605968, 0.051414214074611664, 0.05910906940698624, 0.03159394860267639, 0.13269542157649994, 0.2802199125289917, 0.07980027049779892, 0.12008881568908691, 0.2217019498348236, 0.18262894451618195, 0.07519519329071045, 0.08129635453224182, 0.047034911811351776, 0.05074390396475792, 0.026558754965662956, 0.08041606843471527, 0.07938110828399658, 0.13879181444644928, 0.0692577138543129, 0.02117129974067211, 0.04026482626795769, 0.10208313912153244, 0.13610678911209106, 0.061096448451280594, 0.03648990020155907, 0.012132828123867512, 0.013645405881106853, 0.018549369648098946, 0.0220753476023674, 0.026039719581604004, 0.03411276638507843, 0.06670158356428146, 0.09112884849309921, 0.08692511916160583]</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.7263767123222351</v>
+        <v>0.5173436999320984</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
@@ -4903,10 +4903,10 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0.6586092000070494</v>
+        <v>0.661774799998966</v>
       </c>
       <c r="J109" t="n">
-        <v>0.005581433898364825</v>
+        <v>0.00560826101694039</v>
       </c>
     </row>
     <row r="110">
@@ -4925,11 +4925,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>[0.7469034194946289, 0.5692057609558105, 0.36958280205726624, 0.5863833427429199, 0.7906632423400879, 0.7661095857620239, 0.3083045184612274, 0.5052801966667175, 0.7709112763404846, 0.8598899841308594, 0.5343464612960815, 0.6771252751350403, 0.5222672820091248, 0.521828293800354, 0.46942949295043945, 0.7311928272247314, 0.5762525200843811, 0.5141874551773071, 0.19055664539337158, 0.20247720181941986, 0.5819082260131836, 0.5459490418434143, 0.474046528339386, 0.4679607152938843, 0.5239118933677673, 0.3199765682220459, 0.16468723118305206, 0.2222897708415985, 0.3796103298664093, 0.29613354802131653, 0.4036087095737457, 0.2623556852340698, 0.143947035074234, 0.47742894291877747, 0.4945618808269501, 0.5817916393280029, 0.8035682439804077, 0.5571990609169006, 0.3717249035835266, 0.37140586972236633, 0.5588640570640564, 0.5569948554039001, 0.4311739504337311, 0.4301206171512604, 0.39788195490837097, 0.34875720739364624, 0.4346807897090912, 0.4148809015750885, 0.5147899985313416, 0.43532031774520874, 0.46583959460258484, 0.21055705845355988, 0.8024924993515015, 0.6917516589164734, 0.5500211715698242, 0.5978198647499084, 0.8145327568054199, 0.749402642250061, 0.49526283144950867, 0.6004148721694946, 0.8484836220741272, 0.9355335235595703, 0.8812227845191956, 0.8569538593292236, 0.889621376991272, 0.9234528541564941, 0.7942993640899658, 0.9204539656639099, 0.46153298020362854, 0.5887319445610046, 0.22491249442100525, 0.2880927324295044, 0.31079548597335815, 0.20480339229106903, 0.0829663872718811, 0.07546696066856384, 0.12170056998729706, 0.16097865998744965, 0.13593856990337372, 0.16255725920200348, 0.1524561196565628, 0.22059446573257446, 0.1645115315914154, 0.2021338790655136, 0.17404547333717346, 0.35718607902526855, 0.33868250250816345, 0.275763601064682, 0.18402116000652313, 0.2537826895713806, 0.14021705090999603, 0.1849641650915146, 0.2129633128643036, 0.21547703444957733, 0.2548225522041321, 0.3683975040912628, 0.5915952920913696, 0.5301764011383057, 0.25438523292541504, 0.42094889283180237, 0.3967188000679016, 0.12830622494220734, 0.17330563068389893, 0.10110599547624588, 0.11910850554704666, 0.24581573903560638, 0.36662253737449646, 0.24565786123275757, 0.29005107283592224, 0.6104065179824829, 0.24118952453136444, 0.17194117605686188, 0.28913795948028564, 0.13500168919563293, 0.11328142881393433, 0.10979674011468887, 0.0627535954117775, 0.06262300163507462]</t>
+          <t>[0.8318076729774475, 0.7502296566963196, 0.4698263108730316, 0.6214442849159241, 0.5913385152816772, 0.5686623454093933, 0.2912803292274475, 0.46396374702453613, 0.8599738478660583, 0.8239079713821411, 0.3445247411727905, 0.5868825912475586, 0.3666256070137024, 0.4581870138645172, 0.35296985507011414, 0.5511323809623718, 0.59120774269104, 0.5956814885139465, 0.23463696241378784, 0.18916048109531403, 0.5457438230514526, 0.6059477925300598, 0.2941829264163971, 0.2392287403345108, 0.2863120436668396, 0.188007190823555, 0.1351264864206314, 0.13658660650253296, 0.33277440071105957, 0.18814435601234436, 0.187490314245224, 0.11681880801916122, 0.06830387562513351, 0.33415886759757996, 0.2853115499019623, 0.5649967789649963, 0.5378968119621277, 0.5381168723106384, 0.31983593106269836, 0.34124329686164856, 0.4819110929965973, 0.6433585286140442, 0.4306928217411041, 0.6040395498275757, 0.5908828973770142, 0.3440391719341278, 0.2943755090236664, 0.36334386467933655, 0.5238341689109802, 0.3250903785228729, 0.3098536729812622, 0.12875835597515106, 0.5734105706214905, 0.5076816082000732, 0.4222434163093567, 0.49568113684654236, 0.7484526634216309, 0.5481109619140625, 0.23103274405002594, 0.2679460942745209, 0.6318500638008118, 0.8634606003761292, 0.8399243950843811, 0.8442263603210449, 0.810947835445404, 0.8508839011192322, 0.6641590595245361, 0.9132011532783508, 0.4746406376361847, 0.6185926198959351, 0.3784373998641968, 0.4055573344230652, 0.41237208247184753, 0.21596823632717133, 0.08500757068395615, 0.06003543362021446, 0.11975911259651184, 0.2283807098865509, 0.1547548472881317, 0.19626282155513763, 0.1662449985742569, 0.33368971943855286, 0.14054515957832336, 0.16337360441684723, 0.12843310832977295, 0.3438834547996521, 0.4430345296859741, 0.22218574583530426, 0.12009076774120331, 0.21335162222385406, 0.10335732251405716, 0.11202698945999146, 0.1755961775779724, 0.1261533796787262, 0.2930140495300293, 0.37508800625801086, 0.4623556137084961, 0.5530703067779541, 0.16846680641174316, 0.34743383526802063, 0.1867418885231018, 0.10565011203289032, 0.14154411852359772, 0.10220799595117569, 0.055440932512283325, 0.13290730118751526, 0.2601945996284485, 0.25036299228668213, 0.20439746975898743, 0.40722960233688354, 0.17268851399421692, 0.1498262584209442, 0.2719772756099701, 0.12553296983242035, 0.10348920524120331, 0.08473273366689682, 0.04176558554172516, 0.041434936225414276]</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.9355335235595703</v>
+        <v>0.9132011532783508</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
@@ -4943,10 +4943,10 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0.6932633999967948</v>
+        <v>0.6695443000062369</v>
       </c>
       <c r="J110" t="n">
-        <v>0.005875113559294871</v>
+        <v>0.005674104237340991</v>
       </c>
     </row>
     <row r="111">
@@ -4965,11 +4965,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[0.040685024112463, 0.07784619927406311, 0.09816280752420425, 0.07025555521249771, 0.08959252387285233, 0.13497714698314667, 0.14796040952205658, 0.1258164942264557, 0.0928335189819336, 0.06516794115304947, 0.05379265546798706, 0.05926469713449478, 0.02705058455467224, 0.05324935168027878, 0.0534055270254612, 0.07509290426969528, 0.059727493673563004, 0.09180290997028351, 0.3494807481765747, 0.23378989100456238, 0.13978490233421326, 0.25368762016296387, 0.09725391864776611, 0.10505056381225586, 0.2919886112213135, 0.40873202681541443, 0.2395089864730835, 0.42017829418182373, 0.3746282756328583, 0.3188849985599518, 0.11974839866161346, 0.07191341370344162, 0.11088819056749344, 0.0793227106332779, 0.06333842873573303, 0.0476284883916378, 0.06694848835468292, 0.11472363024950027, 0.1090196892619133, 0.10167045891284943, 0.1016388088464737, 0.13621647655963898, 0.06773655116558075, 0.09311523288488388, 0.1151411384344101, 0.12968815863132477, 0.13623370230197906, 0.08498582988977432, 0.0856889933347702, 0.13520391285419464, 0.07299762964248657, 0.10661029815673828, 0.1052735298871994, 0.16712765395641327, 0.1797427088022232, 0.09013688564300537, 0.09655825048685074, 0.0826447457075119, 0.0852959156036377, 0.06398119777441025, 0.05091696232557297, 0.11588175594806671, 0.12902794778347015, 0.08286582678556442, 0.10639385133981705, 0.15656821429729462, 0.10711173713207245, 0.2295340597629547, 0.21653874218463898, 0.14852075278759003, 0.3296022117137909, 0.2761738896369934, 0.22075743973255157, 0.2798433005809784, 0.14947935938835144, 0.13498535752296448, 0.09145452827215195, 0.09616189450025558, 0.1457822620868683, 0.2245083898305893, 0.16516107320785522, 0.1715443879365921, 0.11395376920700073, 0.12796682119369507, 0.07535883784294128, 0.07503078132867813, 0.12283527106046677, 0.1533798724412918, 0.10372322052717209, 0.11432469636201859, 0.08254406601190567, 0.09473087638616562, 0.16724014282226562, 0.0958276316523552, 0.0761689841747284, 0.13436183333396912, 0.13663320243358612, 0.10464512556791306, 0.13056428730487823, 0.17453636229038239, 0.16596922278404236, 0.2747723460197449, 0.20121966302394867, 0.25344717502593994, 0.19170962274074554, 0.1460925191640854, 0.31811049580574036, 0.16889573633670807, 0.0908203199505806, 0.11372571438550949, 0.1922726035118103, 0.1621815413236618, 0.19820886850357056, 0.1608242392539978, 0.18306583166122437, 0.1714111715555191, 0.27861419320106506, 0.2782807946205139]</t>
+          <t>[0.035267531871795654, 0.09873266518115997, 0.08402137458324432, 0.10154666751623154, 0.08803525567054749, 0.132791206240654, 0.1993873566389084, 0.20283961296081543, 0.1333101987838745, 0.09847819060087204, 0.06800109148025513, 0.09045577049255371, 0.032706987112760544, 0.0716388076543808, 0.05695725232362747, 0.06606597453355789, 0.03744370490312576, 0.06012134999036789, 0.36139577627182007, 0.2752574682235718, 0.15819841623306274, 0.3212566673755646, 0.15634404122829437, 0.1143743172287941, 0.19533519446849823, 0.48053473234176636, 0.29728415608406067, 0.4300590455532074, 0.5188121795654297, 0.3864921033382416, 0.1821240931749344, 0.09451215714216232, 0.12448599189519882, 0.09699289500713348, 0.08904632925987244, 0.07466890662908554, 0.08595529943704605, 0.19124934077262878, 0.142086923122406, 0.11187364161014557, 0.14119338989257812, 0.24057482182979584, 0.07559915632009506, 0.09383465349674225, 0.19090202450752258, 0.19895021617412567, 0.23402519524097443, 0.135313019156456, 0.10364556312561035, 0.11546999216079712, 0.09270676225423813, 0.18438297510147095, 0.1461292803287506, 0.20448093116283417, 0.18077607452869415, 0.09851956367492676, 0.11294124275445938, 0.11594133824110031, 0.08069519698619843, 0.08173885941505432, 0.07651780545711517, 0.13022519648075104, 0.15425671637058258, 0.09447845816612244, 0.12235771864652634, 0.18828684091567993, 0.16388674080371857, 0.3825743794441223, 0.2217627465724945, 0.1565525382757187, 0.3337644934654236, 0.21054160594940186, 0.18203528225421906, 0.24318863451480865, 0.1743733435869217, 0.19634661078453064, 0.12870179116725922, 0.1326904296875, 0.14320851862430573, 0.21374210715293884, 0.19203203916549683, 0.22206643223762512, 0.12958207726478577, 0.1216510534286499, 0.044751040637493134, 0.03462153300642967, 0.09970756620168686, 0.12222152203321457, 0.07914520800113678, 0.12441280484199524, 0.05963811278343201, 0.0801682099699974, 0.1280793398618698, 0.06175878271460533, 0.060158297419548035, 0.10350789874792099, 0.11812113970518112, 0.07241786271333694, 0.09352819621562958, 0.12417037039995193, 0.16087156534194946, 0.2854730784893036, 0.23507483303546906, 0.22329391539096832, 0.15024729073047638, 0.10179580748081207, 0.37020471692085266, 0.14061884582042694, 0.11805232614278793, 0.1441451907157898, 0.23701217770576477, 0.151410773396492, 0.1896580010652542, 0.13675446808338165, 0.17715606093406677, 0.2155756652355194, 0.3659819960594177, 0.36580654978752136]</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.4201782941818237</v>
+        <v>0.5188121795654297</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0.6668711999955121</v>
+        <v>0.6706365999998525</v>
       </c>
       <c r="J111" t="n">
-        <v>0.005651450847419594</v>
+        <v>0.005683361016947903</v>
       </c>
     </row>
     <row r="112">
@@ -5005,11 +5005,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>[0.17474734783172607, 0.25463420152664185, 0.07457492500543594, 0.07349798828363419, 0.1340050995349884, 0.2339753359556198, 0.09392931312322617, 0.05687287822365761, 0.0822138860821724, 0.07389478385448456, 0.0534544475376606, 0.07477065920829773, 0.0849689394235611, 0.0726628378033638, 0.06451596319675446, 0.059356238692998886, 0.09713824093341827, 0.10268472135066986, 0.07519876956939697, 0.06502243131399155, 0.09860430657863617, 0.08616232872009277, 0.1249408945441246, 0.12326880544424057, 0.08950524777173996, 0.07549221813678741, 0.15595866739749908, 0.1530727744102478, 0.1875089854001999, 0.2523576021194458, 0.1484958529472351, 0.17824657261371613, 0.1598576009273529, 0.07098899781703949, 0.05629248917102814, 0.13042397797107697, 0.1727079302072525, 0.13902278244495392, 0.10124114155769348, 0.10174855589866638, 0.09845300018787384, 0.13096125423908234, 0.10470553487539291, 0.171958327293396, 0.10691884160041809, 0.1365368515253067, 0.11524564027786255, 0.10438153147697449, 0.09826036542654037, 0.0858338251709938, 0.06708640605211258, 0.10027261823415756, 0.07459697872400284, 0.08042941242456436, 0.038981981575489044, 0.05590168386697769, 0.06048903986811638, 0.05401423200964928, 0.05105185508728027, 0.13997118175029755, 0.07832074165344238, 0.06745991855859756, 0.09786368906497955, 0.10710315406322479, 0.11041436344385147, 0.08008932322263718, 0.08009614050388336, 0.12102096527814865, 0.08026851713657379, 0.049754347652196884, 0.056069813668727875, 0.052932098507881165, 0.04787541925907135, 0.0649043396115303, 0.08588799834251404, 0.09772989898920059, 0.22960007190704346, 0.14429254829883575, 0.10281634330749512, 0.09926895797252655, 0.11120356619358063, 0.1133119985461235, 0.10197267681360245, 0.08564148098230362, 0.09644566476345062, 0.07748796790838242, 0.07468625158071518, 0.04798658937215805, 0.07607957720756531, 0.08955149352550507, 0.0677940845489502, 0.07472427189350128, 0.07535938918590546, 0.06586328148841858, 0.09298159927129745, 0.16330881416797638, 0.08546484261751175, 0.09923314303159714, 0.18339134752750397, 0.11150391399860382, 0.14496499300003052, 0.13038775324821472, 0.13738824427127838, 0.13032843172550201, 0.146304652094841, 0.1719999760389328, 0.13288265466690063, 0.12664180994033813, 0.1612723469734192, 0.06249172240495682, 0.042201682925224304, 0.08991172909736633, 0.06770120561122894, 0.06538280099630356, 0.08298269659280777, 0.10122445225715637, 0.10186128318309784, 0.10199908912181854]</t>
+          <t>[0.042137499898672104, 0.06114225834608078, 0.015225619077682495, 0.019773367792367935, 0.038590848445892334, 0.05735554173588753, 0.025388993322849274, 0.015198081731796265, 0.025242013856768608, 0.014481399208307266, 0.013385411351919174, 0.01647063158452511, 0.017601411789655685, 0.011924306862056255, 0.012334119528532028, 0.015677034854888916, 0.025675024837255478, 0.023815112188458443, 0.01833374798297882, 0.01471119374036789, 0.025423431769013405, 0.02431824989616871, 0.022771822288632393, 0.026677962392568588, 0.0197705440223217, 0.015708094462752342, 0.05680270865559578, 0.044658731669187546, 0.05218271538615227, 0.08365653455257416, 0.04201905429363251, 0.08031471073627472, 0.046010684221982956, 0.017774803563952446, 0.01658780127763748, 0.04425542801618576, 0.053955595940351486, 0.0524144284427166, 0.024315694347023964, 0.028729476034641266, 0.032024119049310684, 0.04280484840273857, 0.028223754838109016, 0.060534074902534485, 0.02214689739048481, 0.03806331381201744, 0.024993622675538063, 0.020352613180875778, 0.016959628090262413, 0.016375115141272545, 0.013520365580916405, 0.02365237846970558, 0.014102199114859104, 0.018220823258161545, 0.007694758474826813, 0.009554808028042316, 0.009475654922425747, 0.009782278910279274, 0.011509516276419163, 0.034156233072280884, 0.018196897581219673, 0.013641954399645329, 0.019362181425094604, 0.03214690461754799, 0.03626517578959465, 0.022431422024965286, 0.027660561725497246, 0.03992985561490059, 0.015256993472576141, 0.00871009100228548, 0.011897329241037369, 0.0113015566021204, 0.011468073353171349, 0.017144933342933655, 0.027893047779798508, 0.03379356116056442, 0.07039199769496918, 0.045447882264852524, 0.03123287856578827, 0.031990896910429, 0.03103189542889595, 0.0343182347714901, 0.02890840545296669, 0.017791928723454475, 0.020526986569166183, 0.01752212829887867, 0.014185275882482529, 0.010252811014652252, 0.01598476618528366, 0.02160295844078064, 0.01346985436975956, 0.017156023532152176, 0.022313153371214867, 0.020640388131141663, 0.044053345918655396, 0.12273307889699936, 0.04781172797083855, 0.04343197122216225, 0.09946764260530472, 0.0450105294585228, 0.07928777486085892, 0.059553004801273346, 0.06353170424699783, 0.07629480957984924, 0.09196652472019196, 0.1015542671084404, 0.07236827164888382, 0.05170811712741852, 0.07980544120073318, 0.01599058136343956, 0.011669861152768135, 0.03189152479171753, 0.02458919584751129, 0.016679761931300163, 0.023369215428829193, 0.035975731909275055, 0.03782600536942482, 0.03784714266657829]</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.2546342015266418</v>
+        <v>0.1227330788969994</v>
       </c>
       <c r="F112" t="n">
         <v>1</v>
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0.7030359999916982</v>
+        <v>0.651609799999278</v>
       </c>
       <c r="J112" t="n">
-        <v>0.005957932203319476</v>
+        <v>0.005522116949146424</v>
       </c>
     </row>
     <row r="113">
@@ -5045,11 +5045,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[0.5676042437553406, 0.2357402741909027, 0.5215153098106384, 0.13864924013614655, 0.11751490831375122, 0.1019916906952858, 0.24324381351470947, 0.5731561183929443, 0.43397343158721924, 0.33152347803115845, 0.16987094283103943, 0.4840877950191498, 0.4520095884799957, 0.5477624535560608, 0.30423086881637573, 0.7456899881362915, 0.5683314204216003, 0.33626553416252136, 0.4924551844596863, 0.507436215877533, 0.572017252445221, 0.89012610912323, 0.5930180549621582, 0.8747814893722534, 0.8900731205940247, 0.9583255648612976, 0.9445735812187195, 0.946100115776062, 0.9875626564025879, 0.9699613451957703, 0.8739684820175171, 0.8755796551704407, 0.7847966551780701, 0.9698838591575623, 0.8919638395309448, 0.9360246658325195, 0.6497430801391602, 0.9286404848098755, 0.8564474582672119, 0.8880334496498108, 0.9348605275154114, 0.6867989897727966, 0.23589055240154266, 0.312733918428421, 0.28594496846199036, 0.7502971887588501, 0.6255647540092468, 0.24918389320373535, 0.5225000977516174, 0.2829807996749878, 0.15105558931827545, 0.2709556519985199, 0.5150135159492493, 0.40312209725379944, 0.39610567688941956, 0.46470147371292114, 0.8148509860038757, 0.5986663103103638, 0.5746527910232544, 0.4985017478466034, 0.30834922194480896, 0.9587620496749878, 0.940303385257721, 0.9657652378082275, 0.9506484866142273, 0.9616406559944153, 0.95196533203125, 0.840012788772583, 0.9133440256118774, 0.8635177612304688, 0.8764452338218689, 0.9217380285263062, 0.9667210578918457, 0.9473815560340881, 0.9829036593437195, 0.9686331152915955, 0.9869263172149658, 0.9440810084342957, 0.9688695073127747, 0.9846521615982056, 0.9832005500793457, 0.9693482518196106, 0.9243164658546448, 0.9802132248878479, 0.9925859570503235, 0.9860227108001709, 0.9463116526603699, 0.7190535664558411, 0.7712159156799316, 0.817105233669281, 0.8201802968978882, 0.9586789011955261, 0.6914987564086914, 0.8130154609680176, 0.6061378121376038, 0.8156192898750305, 0.882813036441803, 0.8497927188873291, 0.9449947476387024, 0.9085912704467773, 0.6125289797782898, 0.6087443828582764, 0.8346478343009949, 0.7892770767211914, 0.9537321925163269, 0.7537323236465454, 0.44453755021095276, 0.5128268599510193, 0.9136515855789185, 0.8622258901596069, 0.6811779737472534, 0.8276942372322083, 0.8764188289642334, 0.9277498126029968, 0.8845459818840027, 0.8051348924636841, 0.9459916353225708, 0.9461910128593445]</t>
+          <t>[0.32511433959007263, 0.19382445514202118, 0.5218509435653687, 0.07741482555866241, 0.07584382593631744, 0.07226645946502686, 0.2417711466550827, 0.48322656750679016, 0.2625943422317505, 0.18181286752223969, 0.07447004318237305, 0.2245526909828186, 0.23722948133945465, 0.4231914281845093, 0.1884639859199524, 0.5996580719947815, 0.47667986154556274, 0.33373183012008667, 0.5179656744003296, 0.2863873839378357, 0.5478540062904358, 0.830028772354126, 0.6415180563926697, 0.8847470283508301, 0.8172427415847778, 0.9264975786209106, 0.9003758430480957, 0.9388335347175598, 0.9806942939758301, 0.9719269275665283, 0.7885521054267883, 0.8286490440368652, 0.8142291307449341, 0.9704946279525757, 0.8970301747322083, 0.8806044459342957, 0.36987459659576416, 0.8307819366455078, 0.7318869829177856, 0.7827839851379395, 0.925061047077179, 0.5257505178451538, 0.161176398396492, 0.3656940162181854, 0.250186026096344, 0.7070161700248718, 0.44889354705810547, 0.10126620531082153, 0.35860317945480347, 0.15418708324432373, 0.05148466303944588, 0.11640391498804092, 0.27554014325141907, 0.1975705325603485, 0.18353964388370514, 0.252784788608551, 0.7928802967071533, 0.40381473302841187, 0.335026353597641, 0.4185703694820404, 0.3025834262371063, 0.934093713760376, 0.9253091216087341, 0.9719602465629578, 0.8856623768806458, 0.9346929788589478, 0.9262202978134155, 0.711251437664032, 0.8254347443580627, 0.7222469449043274, 0.692901611328125, 0.6681947708129883, 0.9032190442085266, 0.7469525933265686, 0.9320582151412964, 0.9054286479949951, 0.9762958288192749, 0.902041494846344, 0.9502900838851929, 0.9600724577903748, 0.9681864976882935, 0.9244961142539978, 0.7929652333259583, 0.967168927192688, 0.9875083565711975, 0.9727382659912109, 0.9292551279067993, 0.3953603208065033, 0.6425594687461853, 0.7984079718589783, 0.7867910265922546, 0.9409735798835754, 0.6467239260673523, 0.7264604568481445, 0.37641626596450806, 0.47575122117996216, 0.8544548749923706, 0.6958885788917542, 0.8078441619873047, 0.8721954226493835, 0.42264342308044434, 0.4796416759490967, 0.798520028591156, 0.49357300996780396, 0.866904616355896, 0.6474369764328003, 0.23532246053218842, 0.28957438468933105, 0.8268890380859375, 0.8693201541900635, 0.6562877297401428, 0.907619833946228, 0.9131611585617065, 0.9588600397109985, 0.8497652411460876, 0.7386611104011536, 0.9244129061698914, 0.9247000813484192]</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.9925859570503235</v>
+        <v>0.9875083565711975</v>
       </c>
       <c r="F113" t="n">
         <v>1</v>
@@ -5063,10 +5063,10 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0.6737507000216283</v>
+        <v>0.6703051999938907</v>
       </c>
       <c r="J113" t="n">
-        <v>0.005709751695098545</v>
+        <v>0.005680552542321107</v>
       </c>
     </row>
     <row r="114">
@@ -5085,11 +5085,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>[0.31173041462898254, 0.5167984962463379, 0.6449543833732605, 0.6011887788772583, 0.8030981421470642, 0.4587778151035309, 0.663619875907898, 0.4129144251346588, 0.5509293079376221, 0.43262428045272827, 0.37759846448898315, 0.37609636783599854, 0.5810031294822693, 0.5601396560668945, 0.19541804492473602, 0.19167594611644745, 0.21891868114471436, 0.1863337755203247, 0.2103140950202942, 0.1655401736497879, 0.3571612536907196, 0.3637891113758087, 0.5633196830749512, 0.8820518851280212, 0.6925179362297058, 0.7616180777549744, 0.8069443702697754, 0.8947829604148865, 0.8622711300849915, 0.9282659888267517, 0.5379210114479065, 0.8001865148544312, 0.1588466763496399, 0.39169421792030334, 0.18972466886043549, 0.3181091845035553, 0.5850768089294434, 0.19810868799686432, 0.29180240631103516, 0.28010883927345276, 0.2688123285770416, 0.40062785148620605, 0.6702031493186951, 0.41812941431999207, 0.4770818054676056, 0.13316784799098969, 0.20522372424602509, 0.47121405601501465, 0.6791516542434692, 0.5255457162857056, 0.3285968005657196, 0.405881404876709, 0.2433224469423294, 0.6405134797096252, 0.4266529381275177, 0.4147360622882843, 0.3817858397960663, 0.2964126765727997, 0.4408436715602875, 0.32804346084594727, 0.6923864483833313, 0.6405952572822571, 0.7789942622184753, 0.6647665500640869, 0.3271278440952301, 0.21930566430091858, 0.8458210825920105, 0.6191028356552124, 0.7149209380149841, 0.7724419236183167, 0.5560466051101685, 0.8612344861030579, 0.4679524898529053, 0.8457686305046082, 0.3534853756427765, 0.7590093016624451, 0.3727216422557831, 0.4319364130496979, 0.40609031915664673, 0.7656019330024719, 0.4911709129810333, 0.6330426931381226, 0.9089385271072388, 0.6213584542274475, 0.7309314608573914, 0.5552783012390137, 0.7985610961914062, 0.5049630999565125, 0.5840364098548889, 0.3866710364818573, 0.10481821745634079, 0.6998531222343445, 0.18052901327610016, 0.2144710123538971, 0.41083982586860657, 0.41020557284355164, 0.8749099969863892, 0.8286275863647461, 0.5249309539794922, 0.6584398746490479, 0.5732761025428772, 0.6424705386161804, 0.6562761068344116, 0.36311599612236023, 0.253246009349823, 0.5945038795471191, 0.5835023522377014, 0.5835187435150146, 0.5731916427612305, 0.6266982555389404, 0.6059923768043518, 0.5690075159072876, 0.5222973823547363, 0.7263128757476807, 0.7952094674110413, 0.4502427577972412, 0.6391515135765076, 0.6499303579330444]</t>
+          <t>[0.2443174123764038, 0.33278322219848633, 0.5852019786834717, 0.3474388122558594, 0.6729828715324402, 0.4723496437072754, 0.5521029829978943, 0.2285148948431015, 0.4706064760684967, 0.27867573499679565, 0.24145811796188354, 0.21089665591716766, 0.5368397235870361, 0.5979118943214417, 0.13152821362018585, 0.08682498335838318, 0.10595381259918213, 0.1408696323633194, 0.09740282595157623, 0.1699337214231491, 0.25560465455055237, 0.20214931666851044, 0.4145175516605377, 0.8844833374023438, 0.6011855602264404, 0.8130759596824646, 0.8624954223632812, 0.9169037938117981, 0.9288551807403564, 0.937050461769104, 0.5292865037918091, 0.7149895429611206, 0.0989270955324173, 0.28598856925964355, 0.19902403652668, 0.18553794920444489, 0.3925863206386566, 0.15360431373119354, 0.18863213062286377, 0.19137601554393768, 0.18107637763023376, 0.36167165637016296, 0.5020191073417664, 0.20366047322750092, 0.34974637627601624, 0.07926550507545471, 0.1024322360754013, 0.31298160552978516, 0.43342453241348267, 0.2486671507358551, 0.18787787854671478, 0.21560795605182648, 0.13030467927455902, 0.4012524485588074, 0.1989736258983612, 0.158287912607193, 0.17802093923091888, 0.20208019018173218, 0.2960203289985657, 0.1613924652338028, 0.6369249224662781, 0.5390509963035583, 0.7068343162536621, 0.5370863080024719, 0.2401404082775116, 0.14870308339595795, 0.7224623560905457, 0.23837433755397797, 0.42857593297958374, 0.622503936290741, 0.6896725296974182, 0.9001880884170532, 0.5988629460334778, 0.9365041851997375, 0.4371415376663208, 0.5223796963691711, 0.5446297526359558, 0.44301411509513855, 0.5333662033081055, 0.695171594619751, 0.288617879152298, 0.4984976053237915, 0.8427326679229736, 0.565554141998291, 0.579856812953949, 0.6237231492996216, 0.6937180757522583, 0.43062400817871094, 0.393476277589798, 0.28703394532203674, 0.07548273354768753, 0.5953581929206848, 0.17751912772655487, 0.11836569011211395, 0.28623175621032715, 0.2698467969894409, 0.6531471610069275, 0.6967374682426453, 0.47547799348831177, 0.4796898663043976, 0.5505338311195374, 0.4622422754764557, 0.5802667140960693, 0.28246501088142395, 0.2513868510723114, 0.38134247064590454, 0.33754706382751465, 0.5184009075164795, 0.3473745882511139, 0.3916166424751282, 0.3024304211139679, 0.35788822174072266, 0.4026913046836853, 0.6306333541870117, 0.6977683901786804, 0.39921751618385315, 0.5599054098129272, 0.56950843334198]</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.9282659888267517</v>
+        <v>0.937050461769104</v>
       </c>
       <c r="F114" t="n">
         <v>1</v>
@@ -5103,10 +5103,10 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0.6783897000132129</v>
+        <v>0.6637641999986954</v>
       </c>
       <c r="J114" t="n">
-        <v>0.005749065254349262</v>
+        <v>0.005625120338971995</v>
       </c>
     </row>
     <row r="115">
@@ -5125,11 +5125,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>[0.4966159164905548, 0.1251034289598465, 0.20428401231765747, 0.44490885734558105, 0.056985627859830856, 0.05608935281634331, 0.06142868846654892, 0.04602227360010147, 0.15732122957706451, 0.22551658749580383, 0.4240884482860565, 0.41103267669677734, 0.7943280935287476, 0.5752305388450623, 0.3170284032821655, 0.5763310790061951, 0.643316388130188, 0.25309091806411743, 0.65777587890625, 0.239501491189003, 0.9220686554908752, 0.5040833353996277, 0.37849149107933044, 0.8142193555831909, 0.6515721082687378, 0.8755378723144531, 0.8284174203872681, 0.5491132736206055, 0.48846298456192017, 0.7505420446395874, 0.7858962416648865, 0.5343037247657776, 0.5114851593971252, 0.6675134897232056, 0.5188323855400085, 0.7799845337867737, 0.8834566473960876, 0.9267874360084534, 0.565987765789032, 0.9109101295471191, 0.5928499698638916, 0.3937758505344391, 0.29073092341423035, 0.35224759578704834, 0.25816744565963745, 0.35921990871429443, 0.7845757603645325, 0.6736506223678589, 0.8647103905677795, 0.3149205446243286, 0.8122509717941284, 0.7232992053031921, 0.2766902446746826, 0.5138667821884155, 0.5437154769897461, 0.6445692777633667, 0.24854817986488342, 0.5592561364173889, 0.4558661878108978, 0.2412959784269333, 0.3302958607673645, 0.7312082648277283, 0.6840572953224182, 0.33201512694358826, 0.2474108338356018, 0.3125758469104767, 0.29086896777153015, 0.44327250123023987, 0.5660068392753601, 0.49858400225639343, 0.4044118821620941, 0.20463424921035767, 0.15596744418144226, 0.21679271757602692, 0.3687039315700531, 0.6898381114006042, 0.28694766759872437, 0.2579733431339264, 0.22473783791065216, 0.19235864281654358, 0.5239710807800293, 0.31544235348701477, 0.2823537290096283, 0.24710892140865326, 0.24645835161209106, 0.6023702621459961, 0.7859777212142944, 0.6053830981254578, 0.7424896955490112, 0.5298627018928528, 0.8552080392837524, 0.8011205792427063, 0.5518766045570374, 0.6783573627471924, 0.6715657114982605, 0.2718999683856964, 0.5084978938102722, 0.4821650981903076, 0.5745941996574402, 0.7970341444015503, 0.9366239309310913, 0.6506567597389221, 0.6167486310005188, 0.30737435817718506, 0.14463087916374207, 0.20402002334594727, 0.2393399029970169, 0.3412596881389618, 0.21398964524269104, 0.11153577268123627, 0.2278175950050354, 0.14511974155902863, 0.21205338835716248, 0.2237093597650528, 0.1405017375946045, 0.1933721899986267, 0.522894024848938, 0.5196813941001892]</t>
+          <t>[0.31411853432655334, 0.10373029857873917, 0.07898171246051788, 0.31637343764305115, 0.04284199699759483, 0.053293682634830475, 0.058710601180791855, 0.054900627583265305, 0.11415408551692963, 0.20377598702907562, 0.46880677342414856, 0.5272908210754395, 0.8550735116004944, 0.6538394093513489, 0.3525289297103882, 0.7039498686790466, 0.7292472124099731, 0.21959105134010315, 0.7675914168357849, 0.1784730702638626, 0.8570870757102966, 0.33411362767219543, 0.21221719682216644, 0.5929993987083435, 0.5843640565872192, 0.896717369556427, 0.8780590891838074, 0.7264386415481567, 0.43837907910346985, 0.7265539765357971, 0.8021500110626221, 0.6598773002624512, 0.396319180727005, 0.49209100008010864, 0.43686577677726746, 0.8159545660018921, 0.9026578664779663, 0.8589282035827637, 0.5803896188735962, 0.9188843965530396, 0.7177508473396301, 0.6467059254646301, 0.4198037385940552, 0.6117071509361267, 0.40059733390808105, 0.4881344437599182, 0.9422873854637146, 0.8512475490570068, 0.9420037269592285, 0.3726450800895691, 0.9463815689086914, 0.8278971314430237, 0.2767835855484009, 0.49224284291267395, 0.5599718689918518, 0.7954298257827759, 0.41495782136917114, 0.7389559149742126, 0.5438724160194397, 0.30704259872436523, 0.4053456485271454, 0.7748130559921265, 0.790127694606781, 0.5349538922309875, 0.2634583115577698, 0.42183375358581543, 0.2646946609020233, 0.40833133459091187, 0.5057665109634399, 0.5044094324111938, 0.5323805212974548, 0.22398270666599274, 0.10857439786195755, 0.19203801453113556, 0.38426345586776733, 0.6958709955215454, 0.2704676389694214, 0.4524571895599365, 0.29606685042381287, 0.21309718489646912, 0.5391820669174194, 0.2912929952144623, 0.23379847407341003, 0.18372565507888794, 0.20792189240455627, 0.6439623832702637, 0.8918347358703613, 0.6925659775733948, 0.776748538017273, 0.6096999645233154, 0.8896560668945312, 0.8077055215835571, 0.4118880033493042, 0.6801101565361023, 0.5032891631126404, 0.1508609652519226, 0.44778817892074585, 0.33865708112716675, 0.448583722114563, 0.7440866827964783, 0.9271643161773682, 0.721994161605835, 0.8052820563316345, 0.3939913213253021, 0.13201439380645752, 0.27231037616729736, 0.19328299164772034, 0.33772045373916626, 0.19498440623283386, 0.09165321290493011, 0.19474676251411438, 0.11457566916942596, 0.225648894906044, 0.24185436964035034, 0.1665954440832138, 0.18529658019542694, 0.8066287040710449, 0.8041257858276367]</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.9366239309310913</v>
+        <v>0.9463815689086914</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
@@ -5143,10 +5143,10 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>0.6644241999892984</v>
+        <v>0.6649706000025617</v>
       </c>
       <c r="J115" t="n">
-        <v>0.005630713559231342</v>
+        <v>0.005635344067818319</v>
       </c>
     </row>
     <row r="116">
@@ -5165,11 +5165,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[0.669541597366333, 0.6662518978118896, 0.9419336915016174, 0.8510110974311829, 0.8853784799575806, 0.8397276401519775, 0.7757516503334045, 0.7664194703102112, 0.908114492893219, 0.890530526638031, 0.9350939393043518, 0.8044838309288025, 0.9165098071098328, 0.8959335684776306, 0.8199423551559448, 0.8218340277671814, 0.8453606367111206, 0.8901373147964478, 0.9185481667518616, 0.9547797441482544, 0.9673027396202087, 0.9655872583389282, 0.945178210735321, 0.959649384021759, 0.7571060657501221, 0.8627803325653076, 0.9203052520751953, 0.915976881980896, 0.8779897093772888, 0.6883903741836548, 0.8246521949768066, 0.5927162170410156, 0.6490740180015564, 0.7283074259757996, 0.6078693270683289, 0.7372124791145325, 0.49580344557762146, 0.49562981724739075, 0.5947903990745544, 0.6016339659690857, 0.5590978264808655, 0.2934360206127167, 0.3196506202220917, 0.4159570038318634, 0.4524608850479126, 0.36712148785591125, 0.3301020562648773, 0.37781497836112976, 0.41695407032966614, 0.33885669708251953, 0.5546247363090515, 0.4568452835083008, 0.3794917166233063, 0.5949440598487854, 0.5024888515472412, 0.7677083611488342, 0.7061308026313782, 0.7235326170921326, 0.8080333471298218, 0.7823059558868408, 0.93654465675354, 0.8666761517524719, 0.8856722116470337, 0.8880622982978821, 0.9292241334915161, 0.9519868493080139, 0.8524660468101501, 0.939513623714447, 0.8587404489517212, 0.7857446670532227, 0.9163157939910889, 0.736697793006897, 0.6556563973426819, 0.7530037760734558, 0.654236912727356, 0.7969053983688354, 0.7672739028930664, 0.5365410447120667, 0.40878167748451233, 0.4477914869785309, 0.43632057309150696, 0.6324642300605774, 0.7038888335227966, 0.5716415047645569, 0.749670147895813, 0.771820604801178, 0.8178732991218567, 0.7786113619804382, 0.7548398971557617, 0.8472606539726257, 0.829888105392456, 0.8419946432113647, 0.9041579961776733, 0.9042766094207764]</t>
+          <t>[0.7694635987281799, 0.7630242705345154, 0.9428133368492126, 0.8997437357902527, 0.8835949301719666, 0.886843204498291, 0.8070010542869568, 0.8376353979110718, 0.9423892498016357, 0.9415925741195679, 0.9506502151489258, 0.8420531749725342, 0.9420245289802551, 0.9325565099716187, 0.9180148839950562, 0.8710461258888245, 0.8349694013595581, 0.9039955735206604, 0.9373885989189148, 0.9675072431564331, 0.9804372191429138, 0.9709874391555786, 0.954933762550354, 0.9749681949615479, 0.8452078104019165, 0.9084548950195312, 0.9474013447761536, 0.9474853277206421, 0.9286630749702454, 0.7807744145393372, 0.8805833458900452, 0.6872921586036682, 0.707076907157898, 0.7672559022903442, 0.6648969054222107, 0.7480468153953552, 0.5904979705810547, 0.6114010214805603, 0.6589475870132446, 0.6762843132019043, 0.5782404541969299, 0.33608582615852356, 0.3667232096195221, 0.5295615196228027, 0.501624584197998, 0.3780902922153473, 0.4135397672653198, 0.42025071382522583, 0.4474022388458252, 0.3136182725429535, 0.5208830237388611, 0.48804110288619995, 0.3131406009197235, 0.5693714618682861, 0.4941052794456482, 0.8102203011512756, 0.7918704748153687, 0.8157961368560791, 0.8709434866905212, 0.824816107749939, 0.9480413198471069, 0.8732431530952454, 0.8836585879325867, 0.8985736966133118, 0.9308329820632935, 0.9714344143867493, 0.9270597696304321, 0.9658418893814087, 0.915797770023346, 0.7782871127128601, 0.929029643535614, 0.7832087874412537, 0.7006871700286865, 0.7991475462913513, 0.721784234046936, 0.8180416226387024, 0.8055822849273682, 0.7272711992263794, 0.6284688115119934, 0.6078676581382751, 0.5344269871711731, 0.7191299796104431, 0.7502760291099548, 0.6121448874473572, 0.7823696136474609, 0.8681287169456482, 0.8795992732048035, 0.8205124735832214, 0.7757432460784912, 0.8876134157180786, 0.8734948039054871, 0.8710847496986389, 0.9079856276512146, 0.9081225991249084]</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.9673027396202087</v>
+        <v>0.9804372191429138</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
@@ -5183,10 +5183,10 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0.547650499996962</v>
+        <v>0.5659720000112429</v>
       </c>
       <c r="J116" t="n">
-        <v>0.005826069148903852</v>
+        <v>0.006020978723523861</v>
       </c>
     </row>
     <row r="117">
@@ -5205,11 +5205,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[0.9307828545570374, 0.8911216259002686, 0.8406752347946167, 0.8615381121635437, 0.9383813142776489, 0.878881573677063, 0.9655694961547852, 0.891460657119751, 0.7182327508926392, 0.7470288872718811, 0.9204610586166382, 0.9554517865180969, 0.9670605063438416, 0.9161775708198547, 0.9089104533195496, 0.96601802110672, 0.9460544586181641, 0.975730836391449, 0.9679319262504578, 0.9645910859107971, 0.9643463492393494, 0.948251485824585, 0.925736129283905, 0.8715329170227051, 0.963151752948761, 0.9190637469291687, 0.8912177085876465, 0.8923149108886719, 0.9117273092269897, 0.8629612326622009, 0.9033601880073547, 0.9159997701644897, 0.9334444999694824, 0.9064089059829712, 0.9110462665557861, 0.8646634221076965, 0.7144078612327576, 0.8994122743606567, 0.8968793749809265, 0.7231341004371643, 0.7567629814147949, 0.820859968662262, 0.8278469443321228, 0.8296132683753967, 0.8037846684455872, 0.882254421710968, 0.9582707285881042, 0.9603687524795532, 0.9126317501068115, 0.9014471173286438, 0.9422199726104736, 0.9439678192138672, 0.9375848174095154, 0.9060166478157043, 0.8271645307540894, 0.8750842809677124, 0.9261465072631836, 0.9359785914421082, 0.8710187077522278, 0.901828944683075, 0.9437955021858215, 0.9214120507240295, 0.8934071660041809, 0.9151920080184937, 0.9135225415229797, 0.9591614007949829, 0.9039547443389893, 0.9634348750114441, 0.9469072818756104, 0.9613361954689026, 0.9435515403747559, 0.8904891610145569, 0.8712108731269836, 0.9274430274963379, 0.8350763916969299, 0.7384107708930969, 0.7761811017990112, 0.8333454728126526, 0.9145187735557556, 0.8134171962738037, 0.8211233019828796, 0.8207398653030396, 0.7386490106582642, 0.7602770328521729, 0.9364620447158813, 0.8403744101524353, 0.9212892055511475, 0.9112437963485718, 0.809995174407959, 0.7909203767776489, 0.753601610660553, 0.8741406798362732, 0.6638603210449219, 0.6631326675415039]</t>
+          <t>[0.9271280169487, 0.8068639039993286, 0.855450451374054, 0.8325381875038147, 0.9189735054969788, 0.8207985758781433, 0.9311768412590027, 0.8176143765449524, 0.5785658955574036, 0.5503420233726501, 0.9259316921234131, 0.948291003704071, 0.9555383324623108, 0.845720112323761, 0.9040279984474182, 0.9470914006233215, 0.8967179656028748, 0.9575837850570679, 0.9339437484741211, 0.9142619967460632, 0.91913902759552, 0.8907486200332642, 0.8392019271850586, 0.780806303024292, 0.9282625913619995, 0.8287189602851868, 0.7858478426933289, 0.8075544834136963, 0.8362110257148743, 0.7223179936408997, 0.8008631467819214, 0.847261369228363, 0.8512773513793945, 0.8080715537071228, 0.8096128106117249, 0.7869881987571716, 0.5460301041603088, 0.7705972790718079, 0.7538946866989136, 0.4755370616912842, 0.5587627291679382, 0.631320059299469, 0.6622033715248108, 0.6462374925613403, 0.5891919136047363, 0.7534674406051636, 0.8538042306900024, 0.8934386372566223, 0.8102144002914429, 0.821848452091217, 0.8867725729942322, 0.8819274306297302, 0.8592004179954529, 0.804531991481781, 0.7162866592407227, 0.783303439617157, 0.8563293814659119, 0.9207261800765991, 0.7887071371078491, 0.8212484121322632, 0.9069716334342957, 0.9021561741828918, 0.886086642742157, 0.8489115834236145, 0.8669889569282532, 0.9315369725227356, 0.8683361411094666, 0.9469808340072632, 0.931695282459259, 0.9451332688331604, 0.9111649394035339, 0.8293740153312683, 0.8163326978683472, 0.9025586247444153, 0.7827624082565308, 0.6251720190048218, 0.6582368612289429, 0.7429689168930054, 0.8673868775367737, 0.6808788776397705, 0.7027696967124939, 0.7482472658157349, 0.648454487323761, 0.6401246190071106, 0.856468677520752, 0.6811785101890564, 0.7810571193695068, 0.8196853399276733, 0.5631410479545593, 0.6095960736274719, 0.5685451626777649, 0.7776265740394592, 0.41692277789115906, 0.4160305857658386]</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.975730836391449</v>
+        <v>0.9575837850570679</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
@@ -5223,10 +5223,10 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0.545064200006891</v>
+        <v>0.5414957000029972</v>
       </c>
       <c r="J117" t="n">
-        <v>0.005798555319222245</v>
+        <v>0.005760592553223374</v>
       </c>
     </row>
     <row r="118">
@@ -5245,11 +5245,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[0.9196739196777344, 0.32677289843559265, 0.23872624337673187, 0.24610447883605957, 0.17397688329219818, 0.31503093242645264, 0.36168238520622253, 0.1640978902578354, 0.18893885612487793, 0.09258070588111877, 0.1000308096408844, 0.07950767129659653, 0.18280769884586334, 0.47661539912223816, 0.981748640537262, 0.9889290928840637, 0.9935182929039001, 0.9919397234916687, 0.994932234287262, 0.9918985366821289, 0.9931089878082275, 0.9954653382301331, 0.99715256690979, 0.9969381093978882, 0.9959977865219116, 0.9927176237106323, 0.9967101812362671, 0.9963609576225281, 0.9959903359413147, 0.996222734451294, 0.9952248334884644, 0.9959297776222229, 0.995101809501648, 0.986234188079834, 0.9811573624610901, 0.9843078255653381, 0.9880626201629639, 0.9903066158294678, 0.9904358983039856, 0.9901126027107239, 0.978917121887207, 0.9842001795768738, 0.2517015337944031, 0.33670225739479065, 0.0952315703034401, 0.14596034586429596, 0.12198955565690994, 0.2924216687679291, 0.23732173442840576, 0.2498759776353836, 0.22557151317596436, 0.4766116142272949, 0.5143293142318726, 0.4903836250305176, 0.3481869399547577, 0.11767634004354477, 0.1635749638080597, 0.8625348210334778, 0.9865423440933228, 0.9908022284507751, 0.9942935109138489, 0.9930992126464844, 0.9897498488426208, 0.9911423921585083, 0.9922728538513184, 0.9884995818138123, 0.7371864318847656, 0.20905235409736633, 0.4712703824043274, 0.225270077586174, 0.376046746969223, 0.5817977786064148, 0.1483953446149826, 0.21364928781986237, 0.19339311122894287, 0.9787472486495972, 0.9666350483894348, 0.742605984210968, 0.1586483120918274, 0.09745568782091141, 0.13856390118598938, 0.8841021656990051, 0.9712426066398621, 0.9758198261260986, 0.9814696311950684, 0.9809407591819763, 0.975323498249054, 0.9602854251861572, 0.973407506942749, 0.9789945483207703, 0.9850813746452332, 0.9502865672111511, 0.8947224617004395, 0.8949258327484131]</t>
+          <t>[0.9650043249130249, 0.6206345558166504, 0.3041023015975952, 0.334698349237442, 0.18420158326625824, 0.5935863256454468, 0.4451199769973755, 0.19311761856079102, 0.2058591991662979, 0.10375387966632843, 0.1511259377002716, 0.08189234137535095, 0.28618067502975464, 0.7344946265220642, 0.9929295182228088, 0.9940189123153687, 0.9960176348686218, 0.9946711659431458, 0.9958364963531494, 0.9944677352905273, 0.9961119294166565, 0.9969632029533386, 0.9979720711708069, 0.9978883862495422, 0.9974414110183716, 0.9963429570198059, 0.9980936646461487, 0.9980358481407166, 0.9980019927024841, 0.9978880286216736, 0.997776448726654, 0.9973457455635071, 0.9961656332015991, 0.9872092008590698, 0.9900636076927185, 0.9892102479934692, 0.9927781224250793, 0.9929880499839783, 0.9945800304412842, 0.9934324026107788, 0.9858627915382385, 0.9907820820808411, 0.282770574092865, 0.4284597337245941, 0.056625962257385254, 0.11395090818405151, 0.11088146269321442, 0.3221985995769501, 0.27477332949638367, 0.42110225558280945, 0.3890879154205322, 0.739135205745697, 0.713947057723999, 0.7467207312583923, 0.5186353325843811, 0.1613059788942337, 0.25339776277542114, 0.9632393717765808, 0.9916467070579529, 0.9966323971748352, 0.9972196817398071, 0.9958183169364929, 0.9931468367576599, 0.9939813017845154, 0.9955061674118042, 0.9938832521438599, 0.9015780091285706, 0.24861332774162292, 0.7431632280349731, 0.37323570251464844, 0.627777636051178, 0.7884146571159363, 0.3352254033088684, 0.3728053867816925, 0.23369702696800232, 0.9864785075187683, 0.9817233681678772, 0.9409937262535095, 0.21431486308574677, 0.10285327583551407, 0.13868865370750427, 0.969572126865387, 0.9901546239852905, 0.9888584613800049, 0.9899770617485046, 0.9889174699783325, 0.9851381778717041, 0.9780830144882202, 0.9847005605697632, 0.9868770837783813, 0.9930782914161682, 0.9766550064086914, 0.9659292697906494, 0.9660231471061707]</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.99715256690979</v>
+        <v>0.9980936646461487</v>
       </c>
       <c r="F118" t="n">
         <v>1</v>
@@ -5263,10 +5263,10 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0.5436124999832828</v>
+        <v>0.5688171999936458</v>
       </c>
       <c r="J118" t="n">
-        <v>0.005783111701949816</v>
+        <v>0.006051246808443041</v>
       </c>
     </row>
     <row r="119">
@@ -5285,11 +5285,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>[0.935598611831665, 0.9067039489746094, 0.6484371423721313, 0.2930888235569, 0.19855958223342896, 0.10348884761333466, 0.1326775699853897, 0.10327165573835373, 0.24139747023582458, 0.4456283152103424, 0.24287869036197662, 0.2494174689054489, 0.27594202756881714, 0.19976598024368286, 0.38195058703422546, 0.42251554131507874, 0.4359642565250397, 0.39199569821357727, 0.6588745713233948, 0.6336856484413147, 0.27654850482940674, 0.21810802817344666, 0.23969332873821259, 0.4300430119037628, 0.43542227149009705, 0.3144604563713074, 0.5253280997276306, 0.6443164944648743, 0.5478156805038452, 0.42880958318710327, 0.5792770981788635, 0.6144015192985535, 0.5389364957809448, 0.6827912926673889, 0.7832969427108765, 0.907867431640625, 0.8444997668266296, 0.9127625226974487, 0.857795238494873, 0.7819153070449829, 0.6432960033416748, 0.5625686049461365, 0.7938061356544495, 0.6908707618713379, 0.9522428512573242, 0.5303755402565002, 0.7396307587623596, 0.44478437304496765, 0.5366458892822266, 0.36512479186058044, 0.5439256429672241, 0.7087916731834412, 0.5648789405822754, 0.3649822473526001, 0.3922615349292755, 0.13155846297740936, 0.117948517203331, 0.09572899341583252, 0.19873297214508057, 0.43528681993484497, 0.5783991813659668, 0.36052995920181274, 0.3947910666465759, 0.37034672498703003, 0.3522808849811554, 0.49158769845962524, 0.5345435738563538, 0.7532225847244263, 0.8097748756408691, 0.6600320339202881, 0.6623666286468506, 0.7590193748474121, 0.9222550988197327, 0.908735454082489, 0.8905918002128601, 0.8525609374046326, 0.8369118571281433, 0.9076847434043884, 0.902876079082489, 0.943702757358551, 0.9207859635353088, 0.894409716129303, 0.9166994690895081, 0.862295925617218, 0.6390808820724487, 0.6018238067626953, 0.3678525388240814, 0.20824463665485382, 0.41515231132507324, 0.5080057382583618, 0.5853983759880066, 0.38934361934661865, 0.40250730514526367, 0.4028836190700531]</t>
+          <t>[0.9363191723823547, 0.8882037997245789, 0.574743390083313, 0.20030580461025238, 0.1688063144683838, 0.08396079391241074, 0.1194828674197197, 0.06447827070951462, 0.16493330895900726, 0.44007596373558044, 0.22868363559246063, 0.22486673295497894, 0.24175195395946503, 0.18504458665847778, 0.3413282632827759, 0.4010869562625885, 0.4311964511871338, 0.3326812982559204, 0.6863058805465698, 0.7234808802604675, 0.24877788126468658, 0.20196421444416046, 0.1703968644142151, 0.35819509625434875, 0.39904308319091797, 0.38193267583847046, 0.5997674465179443, 0.7629874348640442, 0.6507021188735962, 0.549400269985199, 0.7178971171379089, 0.7814152240753174, 0.6329503059387207, 0.7683890461921692, 0.7415707111358643, 0.9256237745285034, 0.8625016212463379, 0.891712486743927, 0.8947626352310181, 0.9258803129196167, 0.7922230362892151, 0.5986102223396301, 0.8872523307800293, 0.8155921697616577, 0.9756487011909485, 0.7263069152832031, 0.7507870197296143, 0.3428334593772888, 0.5110759735107422, 0.4469759464263916, 0.8100858926773071, 0.8881396651268005, 0.686712384223938, 0.4838695526123047, 0.612218976020813, 0.17471832036972046, 0.1322358250617981, 0.1440146416425705, 0.3539179861545563, 0.6027659773826599, 0.7992089986801147, 0.42857521772384644, 0.3552412688732147, 0.24823600053787231, 0.37341752648353577, 0.5843489766120911, 0.55916827917099, 0.7346832156181335, 0.8805539608001709, 0.5984619855880737, 0.5572720170021057, 0.7394365072250366, 0.9422773122787476, 0.9219689965248108, 0.8619999885559082, 0.9000490307807922, 0.8499752283096313, 0.9041258692741394, 0.9419730305671692, 0.9533551335334778, 0.947319746017456, 0.9304289817810059, 0.9509093165397644, 0.8839045763015747, 0.7812551259994507, 0.7575305104255676, 0.37328317761421204, 0.3045838475227356, 0.46371617913246155, 0.567773699760437, 0.5911328792572021, 0.28040212392807007, 0.207231804728508, 0.20854179561138153]</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.9522428512573242</v>
+        <v>0.9756487011909485</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0.5395398999971803</v>
+        <v>0.5582398000115063</v>
       </c>
       <c r="J119" t="n">
-        <v>0.005739786170182769</v>
+        <v>0.005938721276718152</v>
       </c>
     </row>
     <row r="120">
@@ -5325,11 +5325,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>[0.9592486023902893, 0.8761649131774902, 0.8897206783294678, 0.9036818742752075, 0.9146971702575684, 0.8947772979736328, 0.9656949639320374, 0.8688626289367676, 0.46891897916793823, 0.6015493273735046, 0.6818380951881409, 0.8254141211509705, 0.4596959352493286, 0.813957929611206, 0.5969637036323547, 0.7200798392295837, 0.6229366064071655, 0.6698732376098633, 0.7593087553977966, 0.8034064173698425, 0.8612900972366333, 0.7823574542999268, 0.8734538555145264, 0.8240882158279419, 0.6927911639213562, 0.636196494102478, 0.27611637115478516, 0.4209562838077545, 0.4533036947250366, 0.349647581577301, 0.41175004839897156, 0.5116498470306396, 0.745099663734436, 0.9030137658119202, 0.7363592386245728, 0.6455883383750916, 0.8134187459945679, 0.8209655284881592, 0.652072012424469, 0.4730605483055115, 0.5912501215934753, 0.8481737375259399, 0.8691053986549377, 0.8722032904624939, 0.7844858169555664, 0.46479013562202454, 0.554934561252594, 0.375652551651001, 0.6652541756629944, 0.7826769351959229, 0.9086060523986816, 0.8779063820838928, 0.8970864415168762, 0.9513596296310425, 0.9507823586463928, 0.8364831805229187, 0.6865222454071045, 0.8766980171203613, 0.8897458910942078, 0.7618563771247864, 0.8034208416938782, 0.9037696123123169, 0.9384869337081909, 0.8863422274589539, 0.9273026585578918, 0.8823993802070618, 0.7207494378089905, 0.6007725596427917, 0.3923039734363556, 0.4704142212867737, 0.6201802492141724, 0.21574538946151733, 0.378060907125473, 0.6699749231338501, 0.41698676347732544, 0.7473871111869812, 0.6883940696716309, 0.588586151599884, 0.6231557130813599, 0.7330640554428101, 0.3532201945781708, 0.5389323830604553, 0.54768967628479, 0.767849862575531, 0.5343001484870911, 0.2602890133857727, 0.1627073585987091, 0.20092831552028656, 0.1350213885307312, 0.3503321707248688, 0.572918176651001, 0.7682502269744873, 0.8219953179359436, 0.821816086769104]</t>
+          <t>[0.9679970145225525, 0.900023877620697, 0.91133052110672, 0.9157080054283142, 0.9307825565338135, 0.9222993850708008, 0.979907751083374, 0.9584949612617493, 0.7316418886184692, 0.8013822436332703, 0.8576264381408691, 0.9296400547027588, 0.6069533824920654, 0.9326367974281311, 0.804184079170227, 0.809066116809845, 0.8390995860099792, 0.8323590755462646, 0.9148483872413635, 0.8714044690132141, 0.9492138624191284, 0.8609026670455933, 0.9326112866401672, 0.8696345686912537, 0.8843467235565186, 0.7938423156738281, 0.44293713569641113, 0.4696406424045563, 0.5030983686447144, 0.5631399154663086, 0.49205461144447327, 0.6428319811820984, 0.785231351852417, 0.9247839450836182, 0.8736318945884705, 0.7917652726173401, 0.8799641728401184, 0.8995375037193298, 0.8120368719100952, 0.5588093400001526, 0.8394583463668823, 0.9447227716445923, 0.9722648859024048, 0.9586739540100098, 0.9437554478645325, 0.6325631141662598, 0.7724290490150452, 0.5625807046890259, 0.8572925925254822, 0.9042721390724182, 0.9662094116210938, 0.9571071863174438, 0.9611248970031738, 0.9827373623847961, 0.9756457209587097, 0.9389938116073608, 0.8155435919761658, 0.9358772039413452, 0.9618093967437744, 0.8934662342071533, 0.9058701992034912, 0.961588442325592, 0.9641814231872559, 0.9081759452819824, 0.9400985240936279, 0.9359038472175598, 0.7855154871940613, 0.7491356134414673, 0.44069918990135193, 0.5897719860076904, 0.7506817579269409, 0.19885073602199554, 0.4988442063331604, 0.8436912894248962, 0.6559373140335083, 0.9240710735321045, 0.8314678072929382, 0.7601678371429443, 0.8186721801757812, 0.8840510249137878, 0.5130845904350281, 0.6275690197944641, 0.5857592225074768, 0.9056853652000427, 0.722931981086731, 0.33446845412254333, 0.1415434330701828, 0.2072700560092926, 0.14915189146995544, 0.4014837145805359, 0.7128984928131104, 0.9078225493431091, 0.9435381293296814, 0.9434917569160461]</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.9656949639320374</v>
+        <v>0.9827373623847961</v>
       </c>
       <c r="F120" t="n">
         <v>1</v>
@@ -5343,10 +5343,10 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0.5424418000038713</v>
+        <v>0.5473343999910867</v>
       </c>
       <c r="J120" t="n">
-        <v>0.005770657446849695</v>
+        <v>0.005822706382883901</v>
       </c>
     </row>
     <row r="121">
@@ -5365,11 +5365,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>[0.9015427231788635, 0.9149450659751892, 0.8340315818786621, 0.5746631026268005, 0.8858713507652283, 0.9445757269859314, 0.9269387125968933, 0.917514979839325, 0.8812238574028015, 0.9106011390686035, 0.8424050211906433, 0.8793565630912781, 0.9279482960700989, 0.9397920966148376, 0.8581072688102722, 0.9089296460151672, 0.8910736441612244, 0.8087148070335388, 0.9462640285491943, 0.9744811058044434, 0.9234806299209595, 0.9443071484565735, 0.9364190101623535, 0.8929768800735474, 0.8884089589118958, 0.9260144829750061, 0.9166976809501648, 0.9691605567932129, 0.9818556904792786, 0.9688881039619446, 0.9865546226501465, 0.9660084843635559, 0.8968932032585144, 0.8901918530464172, 0.7172769904136658, 0.6834702491760254, 0.8283809423446655, 0.8572879433631897, 0.890102744102478, 0.821445643901825, 0.9158833026885986, 0.8391397595405579, 0.6061954498291016, 0.8172606825828552, 0.4770016074180603, 0.5508549809455872, 0.8575314283370972, 0.640900194644928, 0.7759664058685303, 0.7878549695014954, 0.9063034653663635, 0.8059365153312683, 0.8398873209953308, 0.941315770149231, 0.9222286939620972, 0.8300626277923584, 0.612560510635376, 0.8888888955116272, 0.8516589403152466, 0.850742757320404, 0.7819636464118958, 0.6382858753204346, 0.4585053324699402, 0.7587699294090271, 0.7060440182685852, 0.8750177621841431, 0.7139919996261597, 0.8141265511512756, 0.9266517758369446, 0.9434508085250854, 0.9370594024658203, 0.9378464818000793, 0.7264983654022217, 0.737063467502594, 0.4033425748348236, 0.4931250214576721, 0.4148392677307129, 0.4431906044483185, 0.576077938079834, 0.817808210849762, 0.660744845867157, 0.5137299299240112, 0.5469325184822083, 0.7698608040809631, 0.9645460844039917, 0.9794859886169434, 0.9513059258460999, 0.9194322228431702, 0.8710355758666992, 0.9684160947799683, 0.969376802444458, 0.9629344344139099, 0.9403510093688965, 0.9403286576271057]</t>
+          <t>[0.9007270336151123, 0.920866847038269, 0.8608253598213196, 0.5983573794364929, 0.8490753173828125, 0.9121555089950562, 0.826819658279419, 0.8513482213020325, 0.8543421030044556, 0.8280311226844788, 0.6568690538406372, 0.7294584512710571, 0.86871737241745, 0.8882293701171875, 0.7530322670936584, 0.8536473512649536, 0.8502392172813416, 0.6985695362091064, 0.9159895181655884, 0.9694018959999084, 0.9266870021820068, 0.9494444131851196, 0.9384326338768005, 0.9081348776817322, 0.8879875540733337, 0.9349672198295593, 0.8614659309387207, 0.9805075526237488, 0.988523542881012, 0.9753716588020325, 0.9877710342407227, 0.9803143739700317, 0.9249886274337769, 0.9115778207778931, 0.6611751317977905, 0.6201592087745667, 0.8957825899124146, 0.9095479846000671, 0.9255859851837158, 0.7615019083023071, 0.8969867825508118, 0.8364146947860718, 0.4908636212348938, 0.7969222068786621, 0.36424121260643005, 0.3062354326248169, 0.8845217823982239, 0.6914862394332886, 0.779617428779602, 0.7442827224731445, 0.8917497396469116, 0.7032011151313782, 0.8453976511955261, 0.9332482218742371, 0.9166785478591919, 0.7759906649589539, 0.5381962060928345, 0.9011401534080505, 0.7216821908950806, 0.809117317199707, 0.7592789530754089, 0.6876693964004517, 0.41652587056159973, 0.7615301012992859, 0.7432711720466614, 0.8887693881988525, 0.8284519910812378, 0.8982445597648621, 0.9690780639648438, 0.9790992140769958, 0.9506484866142273, 0.9540256261825562, 0.750994861125946, 0.8001274466514587, 0.4096505641937256, 0.4666115939617157, 0.46925684809684753, 0.3560902774333954, 0.47434860467910767, 0.777283787727356, 0.538059413433075, 0.4900382459163666, 0.603395938873291, 0.8125600218772888, 0.9804878830909729, 0.9823004603385925, 0.9598212242126465, 0.905002236366272, 0.8936700224876404, 0.9828721284866333, 0.9813480377197266, 0.970036506652832, 0.9500154852867126, 0.9498813152313232]</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.9865546226501465</v>
+        <v>0.988523542881012</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
@@ -5383,10 +5383,10 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0.5457099000050221</v>
+        <v>0.5697617999976501</v>
       </c>
       <c r="J121" t="n">
-        <v>0.005805424468138532</v>
+        <v>0.006061295744655852</v>
       </c>
     </row>
     <row r="122">
@@ -5405,11 +5405,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>[0.5923424959182739, 0.6362722516059875, 0.9064278602600098, 0.5998327136039734, 0.9899532198905945, 0.9879190325737, 0.9904069304466248, 0.9953038692474365, 0.9952274560928345, 0.9964955449104309, 0.9968438148498535, 0.9968770742416382, 0.9929498434066772, 0.9862809181213379, 0.9303892254829407, 0.9857843518257141, 0.9289219975471497, 0.7258928418159485, 0.8206894993782043, 0.6265918016433716, 0.43716174364089966, 0.47027507424354553, 0.39281022548675537, 0.2382446527481079, 0.3133724331855774, 0.4384619891643524, 0.8589167594909668, 0.6089315414428711, 0.6967008113861084, 0.42144575715065, 0.6623930335044861, 0.7919068336486816, 0.9470351338386536, 0.9809827208518982, 0.9836384057998657, 0.9917250871658325, 0.9871507883071899, 0.9471051692962646, 0.9231884479522705, 0.8396210074424744, 0.9362807273864746, 0.9598694443702698, 0.8268934488296509, 0.9502948522567749, 0.8604257106781006, 0.9821992516517639, 0.9656169414520264, 0.9032150506973267, 0.9830586910247803, 0.9920119643211365, 0.9962754249572754, 0.9957014918327332, 0.9911490678787231, 0.987536609172821, 0.992252767086029, 0.9813439846038818, 0.9320921897888184, 0.9243798851966858, 0.9411923289299011, 0.9856142401695251, 0.9947123527526855, 0.9879137873649597, 0.9852727055549622, 0.9563251733779907, 0.7845218181610107, 0.8646385073661804, 0.6986293196678162, 0.7373154759407043, 0.5708935856819153, 0.5558064579963684, 0.5669028162956238, 0.7314135432243347, 0.5782359838485718, 0.7733669877052307, 0.9681332111358643, 0.8596721887588501, 0.8619264960289001, 0.917742133140564, 0.5285896062850952, 0.8375906944274902, 0.9823867082595825, 0.9838029146194458, 0.9738092422485352, 0.9827210307121277, 0.831484854221344, 0.4592626094818115, 0.722390353679657, 0.9809197783470154, 0.988620400428772, 0.848093569278717, 0.5705270171165466, 0.2964629828929901, 0.29615288972854614]</t>
+          <t>[0.9025204181671143, 0.9212350845336914, 0.9789711236953735, 0.8631473779678345, 0.9944190382957458, 0.9945216178894043, 0.9952306151390076, 0.997355580329895, 0.9974018335342407, 0.9978970289230347, 0.9979637861251831, 0.9978801012039185, 0.9958831071853638, 0.9942798614501953, 0.9848533868789673, 0.9926497340202332, 0.9842984676361084, 0.9484386444091797, 0.9138371348381042, 0.8596806526184082, 0.5730758309364319, 0.5541853904724121, 0.40068691968917847, 0.23289082944393158, 0.39548051357269287, 0.57151198387146, 0.9580690264701843, 0.8490139842033386, 0.8417584896087646, 0.5540574789047241, 0.859524130821228, 0.9466913342475891, 0.9909277558326721, 0.9959100484848022, 0.9940788745880127, 0.9968855977058411, 0.9943874478340149, 0.9906703233718872, 0.9830358624458313, 0.9460052847862244, 0.9890038371086121, 0.9893630146980286, 0.9652531743049622, 0.989385187625885, 0.9742739796638489, 0.9937066435813904, 0.9926131963729858, 0.9840599298477173, 0.993037760257721, 0.9956473708152771, 0.997961163520813, 0.9972476363182068, 0.9951139688491821, 0.9936665892601013, 0.995451033115387, 0.9914461374282837, 0.986676037311554, 0.9850430488586426, 0.9881541728973389, 0.992918074131012, 0.9963924288749695, 0.9940306544303894, 0.9934505224227905, 0.9885194897651672, 0.9679566025733948, 0.9711270332336426, 0.9239354133605957, 0.9610752463340759, 0.8858618140220642, 0.8368449807167053, 0.8430538177490234, 0.9172244071960449, 0.7521728873252869, 0.8988452553749084, 0.9888328313827515, 0.9666487574577332, 0.9672974944114685, 0.970538318157196, 0.769917368888855, 0.9637212157249451, 0.9943822622299194, 0.9953628778457642, 0.9956836700439453, 0.9947729706764221, 0.9785382151603699, 0.8294054269790649, 0.8956694602966309, 0.9873467087745667, 0.9928457140922546, 0.898898184299469, 0.7276213765144348, 0.5205370187759399, 0.5201349854469299]</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.9968770742416382</v>
+        <v>0.9979637861251831</v>
       </c>
       <c r="F122" t="n">
         <v>1</v>
@@ -5423,10 +5423,10 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0.539607500017155</v>
+        <v>0.5743183000013232</v>
       </c>
       <c r="J122" t="n">
-        <v>0.005802231182980161</v>
+        <v>0.006175465591412078</v>
       </c>
     </row>
     <row r="123">
@@ -5445,11 +5445,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>[0.4020421802997589, 0.5901082158088684, 0.33173248171806335, 0.3695201575756073, 0.6943915486335754, 0.6426534652709961, 0.6224778294563293, 0.62726229429245, 0.3652678430080414, 0.6008628606796265, 0.5568827390670776, 0.33378395438194275, 0.26734480261802673, 0.25282081961631775, 0.14503617584705353, 0.2187715619802475, 0.23271502554416656, 0.4858351945877075, 0.3270958662033081, 0.6011510491371155, 0.3898297846317291, 0.21496295928955078, 0.25173911452293396, 0.3906390070915222, 0.41735532879829407, 0.11061639338731766, 0.47438469529151917, 0.23501630127429962, 0.22265496850013733, 0.2059910148382187, 0.23600246012210846, 0.20384778082370758, 0.24033048748970032, 0.21077434718608856, 0.21318064630031586, 0.19125956296920776, 0.22025644779205322, 0.2185795158147812, 0.24725404381752014, 0.24527180194854736, 0.20504312217235565, 0.20186565816402435, 0.18853266537189484, 0.19102218747138977, 0.2147357165813446, 0.22681674361228943, 0.20850811898708344, 0.21020615100860596, 0.2363954782485962, 0.2074994295835495, 0.20684880018234253, 0.21169987320899963, 0.2326132208108902, 0.23162685334682465]</t>
+          <t>[0.19325532019138336, 0.32358887791633606, 0.12204284220933914, 0.13641799986362457, 0.5173246264457703, 0.4507150948047638, 0.3985350728034973, 0.31897076964378357, 0.14423656463623047, 0.32908862829208374, 0.2694414258003235, 0.2710287272930145, 0.15843679010868073, 0.11037110537290573, 0.051510389894247055, 0.10654173046350479, 0.10270895808935165, 0.3239413797855377, 0.28577470779418945, 0.7224377989768982, 0.6018223762512207, 0.26491719484329224, 0.5383006930351257, 0.3973473906517029, 0.3250344395637512, 0.066461943089962, 0.2377922236919403, 0.07532181590795517, 0.07366863638162613, 0.0846104547381401, 0.11659356951713562, 0.09860789030790329, 0.12042298913002014, 0.09241635352373123, 0.09959355741739273, 0.08930480480194092, 0.11675379425287247, 0.10239136964082718, 0.1431848555803299, 0.1203945055603981, 0.08169076591730118, 0.09370395541191101, 0.0802457332611084, 0.09044714272022247, 0.08706755936145782, 0.09755676984786987, 0.10233596712350845, 0.1082417368888855, 0.11632323265075684, 0.09751991182565689, 0.09236185997724533, 0.08581777662038803, 0.12135378271341324, 0.12130441516637802]</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.6943915486335754</v>
+        <v>0.7224377989768982</v>
       </c>
       <c r="F123" t="n">
         <v>1</v>
@@ -5463,10 +5463,10 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0.3242430000100285</v>
+        <v>0.3535149000090314</v>
       </c>
       <c r="J123" t="n">
-        <v>0.006004500000185713</v>
+        <v>0.00654657222238947</v>
       </c>
     </row>
     <row r="124">
@@ -5485,11 +5485,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>[0.4660688042640686, 0.3759513199329376, 0.13535243272781372, 0.14166763424873352, 0.12388098984956741, 0.4689652621746063, 0.41331300139427185, 0.5235964059829712, 0.5278953313827515, 0.33761900663375854, 0.17736895382404327, 0.26290830969810486, 0.18803752958774567, 0.18957024812698364, 0.3039388656616211, 0.17171385884284973, 0.28263238072395325, 0.132821723818779, 0.5442757606506348, 0.6113707423210144, 0.4750291109085083, 0.4359237849712372, 0.15188230574131012, 0.06769848614931107, 0.03724195063114166, 0.040347617119550705, 0.049643419682979584, 0.06930398941040039, 0.08449035882949829, 0.10056424140930176, 0.046520132571458817, 0.08221197873353958, 0.13133996725082397, 0.21152523159980774, 0.16547904908657074, 0.07148447632789612, 0.045812033116817474, 0.07942253351211548, 0.12415338307619095, 0.12260600924491882, 0.17695960402488708, 0.09082046151161194, 0.09772015362977982, 0.13034296035766602, 0.09203656762838364, 0.08085460215806961, 0.07439958304166794, 0.524927020072937, 0.5448727607727051, 0.1963338851928711, 0.21151986718177795, 0.22791661322116852, 0.28946396708488464, 0.14887462556362152, 0.3400917947292328, 0.29763495922088623, 0.3743641972541809, 0.23689129948616028, 0.5063111782073975, 0.39090558886528015, 0.5946990847587585, 0.6600000262260437, 0.33010202646255493, 0.32529282569885254, 0.5307286977767944, 0.49777328968048096, 0.55739426612854, 0.3493068218231201, 0.42417728900909424, 0.24450640380382538, 0.3165726065635681, 0.19872385263442993, 0.21562227606773376, 0.0819031298160553, 0.12792369723320007, 0.117530457675457, 0.20173901319503784, 0.15858714282512665, 0.28053125739097595, 0.6104156374931335, 0.31174978613853455, 0.6001937389373779, 0.24480675160884857, 0.4928278625011444, 0.2290477305650711, 0.4285031855106354, 0.33162444829940796, 0.3051624298095703, 0.1612364500761032, 0.09430870413780212, 0.16060829162597656, 0.14638125896453857, 0.14606009423732758]</t>
+          <t>[0.7461404800415039, 0.5271213054656982, 0.24858032166957855, 0.19663740694522858, 0.1514902561903, 0.4480357766151428, 0.5421525239944458, 0.6775422096252441, 0.6282216310501099, 0.49834027886390686, 0.3793738782405853, 0.29218217730522156, 0.1242688000202179, 0.07203028351068497, 0.1398046612739563, 0.11167260259389877, 0.182993084192276, 0.0692390501499176, 0.6586344242095947, 0.79222571849823, 0.8216521143913269, 0.8656039834022522, 0.3321220278739929, 0.11919381469488144, 0.021266775205731392, 0.018542857840657234, 0.022661598399281502, 0.023836858570575714, 0.030829433351755142, 0.0477980338037014, 0.027956148609519005, 0.06203029304742813, 0.06656278669834137, 0.09355472028255463, 0.07641562074422836, 0.02620842680335045, 0.02151169441640377, 0.04509589076042175, 0.033183615654706955, 0.050428520888090134, 0.09598060697317123, 0.05780617147684097, 0.10571605712175369, 0.15188047289848328, 0.2687092423439026, 0.18145504593849182, 0.1772172451019287, 0.6608582139015198, 0.605744481086731, 0.17236490547657013, 0.268975168466568, 0.250882089138031, 0.32564234733581543, 0.08799299597740173, 0.3233994245529175, 0.28842639923095703, 0.4316222667694092, 0.27161821722984314, 0.6520934700965881, 0.7047684192657471, 0.8119453191757202, 0.8475914001464844, 0.42408111691474915, 0.424612820148468, 0.7620404362678528, 0.7285566926002502, 0.7950100898742676, 0.5301311612129211, 0.3524792790412903, 0.28119856119155884, 0.3071402311325073, 0.12172195315361023, 0.18320700526237488, 0.08000016957521439, 0.09594926983118057, 0.07620740681886673, 0.20531032979488373, 0.1277349293231964, 0.29624077677726746, 0.7177571654319763, 0.309749037027359, 0.7602015733718872, 0.33174970746040344, 0.5452033877372742, 0.18728549778461456, 0.480275422334671, 0.2756129801273346, 0.231459379196167, 0.11437883228063583, 0.048551492393016815, 0.09747149795293808, 0.0740448385477066, 0.07389958202838898]</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.6600000262260437</v>
+        <v>0.8656039834022522</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
@@ -5503,10 +5503,10 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0.5331710999889765</v>
+        <v>0.5588197000033688</v>
       </c>
       <c r="J124" t="n">
-        <v>0.005733022580526629</v>
+        <v>0.006008813978530847</v>
       </c>
     </row>
     <row r="125">
@@ -5525,11 +5525,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>[0.9941410422325134, 0.964313805103302, 0.9778181314468384, 0.9670268893241882, 0.9560776352882385, 0.9538586735725403, 0.9849594235420227, 0.9599557518959045, 0.9804503917694092, 0.9873636364936829, 0.9835752248764038, 0.9769616723060608, 0.9317850470542908, 0.586976170539856, 0.5782773494720459, 0.5735194087028503, 0.5566452145576477, 0.4346808195114136, 0.3367372155189514, 0.38844943046569824, 0.43104586005210876, 0.2502528131008148, 0.18503092229366302, 0.32242852449417114, 0.33364614844322205, 0.3649176359176636, 0.4192538559436798, 0.486409991979599, 0.5115107297897339, 0.745051383972168, 0.5987454652786255, 0.8822451829910278, 0.6837906241416931, 0.5754326581954956, 0.36365148425102234, 0.3683115839958191, 0.23195494711399078, 0.4603855609893799, 0.6917114853858948, 0.7084795236587524, 0.9632645845413208, 0.9820413589477539, 0.9802866578102112, 0.9901041388511658, 0.9948253631591797, 0.9893723130226135, 0.9480429291725159, 0.9905179142951965, 0.9955203533172607, 0.9959241151809692, 0.9920420050621033, 0.9949883222579956, 0.9939969778060913, 0.9936222434043884, 0.9886670112609863, 0.9890240430831909, 0.9936546087265015, 0.9901430606842041, 0.9835673570632935, 0.9941375255584717, 0.9949147701263428, 0.9957165122032166, 0.9967628717422485, 0.9962301850318909, 0.988407552242279, 0.9801321625709534, 0.9656886458396912, 0.9810619950294495, 0.9507696032524109, 0.9383225440979004, 0.8908670544624329, 0.8173298835754395, 0.7914716005325317, 0.30412235856056213, 0.2967657446861267, 0.5185722708702087, 0.4621933102607727, 0.4556810259819031, 0.5833778977394104, 0.5542705655097961, 0.6538804769515991, 0.582515299320221, 0.43114855885505676, 0.3827911913394928, 0.632959246635437, 0.5852437615394592, 0.8522515296936035, 0.5634788274765015, 0.45587506890296936, 0.5018171668052673, 0.7809417843818665, 0.866068422794342, 0.9352937936782837, 0.9614243507385254, 0.9855242371559143, 0.9791312217712402, 0.9799051284790039, 0.9776260256767273, 0.9554167985916138, 0.9881388545036316, 0.9806426167488098, 0.9875004291534424, 0.9111964106559753, 0.9655852913856506, 0.9222598075866699, 0.9667114019393921, 0.9663470983505249, 0.9924242496490479, 0.989743173122406, 0.9560522437095642, 0.9645016193389893, 0.9842220544815063, 0.9430421590805054, 0.9857631921768188, 0.9817671179771423, 0.9226042032241821, 0.9607172012329102, 0.9089212417602539, 0.8609623312950134, 0.892789363861084, 0.6054074764251709, 0.5591636896133423, 0.6420816779136658, 0.8604806065559387, 0.8831390738487244, 0.9573613405227661, 0.8461410999298096, 0.9196345210075378, 0.9800633192062378, 0.9913875460624695, 0.9637508392333984, 0.9560959339141846, 0.9817411303520203, 0.9946627616882324, 0.9945765733718872, 0.9970597624778748, 0.9931986927986145, 0.9807583093643188, 0.9806320667266846]</t>
+          <t>[0.9879500865936279, 0.8906599879264832, 0.926580011844635, 0.9362395405769348, 0.9178835153579712, 0.8436342477798462, 0.95554518699646, 0.8667275905609131, 0.9614101052284241, 0.9774326086044312, 0.9690418839454651, 0.9480022192001343, 0.8242195248603821, 0.26270270347595215, 0.22856000065803528, 0.19635604321956635, 0.1747155487537384, 0.13858307898044586, 0.08079420030117035, 0.141299307346344, 0.17298460006713867, 0.08247709274291992, 0.07261079549789429, 0.14231199026107788, 0.19148772954940796, 0.17383451759815216, 0.2347017079591751, 0.2556336224079132, 0.2748449146747589, 0.5852866768836975, 0.41900575160980225, 0.6661041378974915, 0.2985226809978485, 0.29694947600364685, 0.15717577934265137, 0.1672276258468628, 0.08316858857870102, 0.2591358423233032, 0.4017850160598755, 0.5257576107978821, 0.935762882232666, 0.9588356018066406, 0.9609179496765137, 0.9825831651687622, 0.9944585561752319, 0.9869511127471924, 0.8842573165893555, 0.9865915179252625, 0.9936463832855225, 0.9924587607383728, 0.988486647605896, 0.9918895363807678, 0.9896033406257629, 0.9885011911392212, 0.9768990874290466, 0.974055290222168, 0.990746259689331, 0.9854720234870911, 0.9795420169830322, 0.9882227778434753, 0.9934413433074951, 0.9944254159927368, 0.9957285523414612, 0.9943282008171082, 0.9816181063652039, 0.9539671540260315, 0.9462676644325256, 0.963114321231842, 0.853625476360321, 0.8470699191093445, 0.8625505566596985, 0.788574755191803, 0.6445818543434143, 0.20681434869766235, 0.17955195903778076, 0.36109593510627747, 0.2647152245044708, 0.301663875579834, 0.34331560134887695, 0.2600395977497101, 0.4696125090122223, 0.43793997168540955, 0.31066688895225525, 0.24121780693531036, 0.5354405045509338, 0.3796248435974121, 0.7412651181221008, 0.44571244716644287, 0.22174879908561707, 0.2663250267505646, 0.6365896463394165, 0.8258163928985596, 0.8568911552429199, 0.8941507935523987, 0.9717200994491577, 0.9646570086479187, 0.9490117430686951, 0.9657800197601318, 0.918147623538971, 0.9759913682937622, 0.9649645686149597, 0.9840542674064636, 0.8673429489135742, 0.922382652759552, 0.7203977704048157, 0.9020304679870605, 0.9263017177581787, 0.9798319935798645, 0.9778242111206055, 0.9170504212379456, 0.9366975426673889, 0.9723559617996216, 0.915604293346405, 0.9751463532447815, 0.9674702882766724, 0.8956618905067444, 0.9169236421585083, 0.8280782103538513, 0.7886937856674194, 0.8471031188964844, 0.49532389640808105, 0.41503623127937317, 0.35734739899635315, 0.6857233047485352, 0.7300845384597778, 0.9284048676490784, 0.7872397303581238, 0.8180961012840271, 0.9649971127510071, 0.9811408519744873, 0.904110848903656, 0.922369658946991, 0.945085883140564, 0.987800121307373, 0.9903740882873535, 0.9961252808570862, 0.9818974137306213, 0.9482812881469727, 0.9482510685920715]</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.9970597624778748</v>
+        <v>0.9961252808570862</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
@@ -5543,10 +5543,10 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0.7906306999793742</v>
+        <v>0.8139095999940764</v>
       </c>
       <c r="J125" t="n">
-        <v>0.005687990647333627</v>
+        <v>0.005855464748158823</v>
       </c>
     </row>
     <row r="126">
@@ -5565,11 +5565,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>[0.981421947479248, 0.9637458920478821, 0.8928723335266113, 0.3490157425403595, 0.29976534843444824, 0.6288450360298157, 0.5050709247589111, 0.38998380303382874, 0.8818451762199402, 0.9029602408409119, 0.9036315679550171, 0.9021790623664856, 0.9249120354652405, 0.9375608563423157, 0.9132087826728821, 0.974141001701355, 0.9239432215690613, 0.8971482515335083, 0.7308087944984436, 0.6442195177078247, 0.7097261548042297, 0.8370087742805481, 0.7253116965293884, 0.5163049697875977, 0.588244616985321, 0.3859814703464508, 0.6686073541641235, 0.8969897031784058, 0.9318380355834961, 0.9763537645339966, 0.7689104080200195, 0.4620454013347626, 0.8779491782188416, 0.7634783387184143, 0.8732243776321411, 0.5140928030014038, 0.9252676367759705, 0.9042606353759766, 0.9488793611526489, 0.9646469950675964, 0.9637332558631897, 0.9556000828742981, 0.9807407259941101, 0.9653820395469666, 0.9858415126800537, 0.9915374517440796, 0.9796792268753052, 0.8951665759086609, 0.9144725799560547, 0.9597386121749878, 0.9829663038253784, 0.9836945533752441, 0.9843453764915466, 0.9553088545799255, 0.9091335535049438, 0.7419154047966003, 0.6468237042427063, 0.8989714980125427, 0.8656678199768066, 0.8754806518554688, 0.9881628155708313, 0.988476037979126, 0.9877705574035645, 0.9876746535301208, 0.9868435263633728, 0.9829540848731995, 0.9563165307044983, 0.9556336998939514, 0.9869325757026672, 0.9918332099914551, 0.9946188926696777, 0.9941189289093018, 0.9840846061706543, 0.9744848012924194, 0.9883919358253479, 0.9888098835945129, 0.9877068400382996, 0.9897395968437195, 0.9773706197738647, 0.9672232270240784, 0.8947255611419678, 0.9380190968513489, 0.9903980493545532, 0.9929641485214233, 0.968108057975769, 0.9679381847381592, 0.9468444585800171, 0.9156078696250916, 0.9882228970527649, 0.9763873219490051, 0.9837738275527954, 0.9802049994468689, 0.9283416271209717, 0.9539466500282288, 0.9541049599647522, 0.9817872047424316, 0.9613013863563538, 0.9830355644226074, 0.9731408953666687, 0.976212739944458, 0.9614678621292114, 0.8981008529663086, 0.9369760751724243, 0.8610644936561584, 0.9728172421455383, 0.9791087508201599, 0.9613942503929138, 0.9797588586807251, 0.7813307046890259, 0.8615534901618958, 0.9228087067604065, 0.9644906520843506, 0.9402843117713928, 0.9342758655548096, 0.9669494032859802, 0.9796109199523926, 0.972258448600769, 0.9374479651451111, 0.8776014447212219, 0.9715986847877502, 0.8948812484741211, 0.9146720170974731, 0.8649765849113464, 0.895562469959259, 0.9630550146102905, 0.9439716935157776, 0.9476910829544067, 0.9879724383354187, 0.9863353967666626, 0.9825478196144104, 0.9634196758270264, 0.9325771331787109, 0.956089973449707, 0.955028772354126, 0.9462369084358215, 0.9728386998176575, 0.9640135765075684, 0.9751942157745361, 0.9750052690505981]</t>
+          <t>[0.9662994742393494, 0.8726779222488403, 0.7477141618728638, 0.21717308461666107, 0.10328055173158646, 0.24320676922798157, 0.16620495915412903, 0.13873571157455444, 0.8729004263877869, 0.8862143158912659, 0.8070089817047119, 0.742577075958252, 0.7995668053627014, 0.8269339203834534, 0.8030570149421692, 0.9199947714805603, 0.6866611838340759, 0.6597386002540588, 0.31650474667549133, 0.4035802185535431, 0.5264483690261841, 0.6721411347389221, 0.6225199699401855, 0.3189185857772827, 0.25061124563217163, 0.14325490593910217, 0.32875266671180725, 0.8276054263114929, 0.8457361459732056, 0.9350715279579163, 0.46069571375846863, 0.18922758102416992, 0.6514831185340881, 0.44235947728157043, 0.7433828115463257, 0.2492545247077942, 0.795107901096344, 0.8563641905784607, 0.8927937746047974, 0.8973700404167175, 0.872107207775116, 0.7950690984725952, 0.9483892321586609, 0.8960044980049133, 0.9636229872703552, 0.9847817420959473, 0.9581288695335388, 0.772786557674408, 0.6830989122390747, 0.8717218637466431, 0.9603098630905151, 0.9705450534820557, 0.9779695272445679, 0.9217460751533508, 0.8544087409973145, 0.5492576360702515, 0.46138790249824524, 0.8487465977668762, 0.7845786213874817, 0.6601776480674744, 0.9645558595657349, 0.9589400291442871, 0.9702571034431458, 0.9680278301239014, 0.9689286351203918, 0.9600834250450134, 0.9186518788337708, 0.8764020800590515, 0.9580621123313904, 0.9785476922988892, 0.9883320927619934, 0.9883006811141968, 0.963649332523346, 0.9592326879501343, 0.9723772406578064, 0.9712806344032288, 0.9752134084701538, 0.9693096280097961, 0.9446916580200195, 0.9278015494346619, 0.7585635781288147, 0.8009031414985657, 0.9806126952171326, 0.9799513816833496, 0.9358502626419067, 0.9169871211051941, 0.8641484379768372, 0.8302033543586731, 0.9792475700378418, 0.9562573432922363, 0.9509612321853638, 0.9414797425270081, 0.7939040660858154, 0.9184381365776062, 0.912230908870697, 0.9607111811637878, 0.9099596738815308, 0.9427660703659058, 0.9340516924858093, 0.958217978477478, 0.9423655271530151, 0.7022007703781128, 0.8487750887870789, 0.7891948819160461, 0.9591453075408936, 0.966428816318512, 0.919460117816925, 0.9474427700042725, 0.6830405592918396, 0.6087754368782043, 0.7661511301994324, 0.9103496670722961, 0.8659521341323853, 0.8427667021751404, 0.9268443584442139, 0.9761894941329956, 0.9532431960105896, 0.8837451338768005, 0.7882671356201172, 0.9568598866462708, 0.8169369697570801, 0.8276782631874084, 0.7543374300003052, 0.8510936498641968, 0.9349743127822876, 0.9038490653038025, 0.8923589587211609, 0.9747914671897888, 0.9765163064002991, 0.9688558578491211, 0.91804039478302, 0.887625515460968, 0.9129205942153931, 0.9174037575721741, 0.9106739163398743, 0.9436003565788269, 0.8844965100288391, 0.9477194547653198, 0.9472821950912476]</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.9946188926696777</v>
+        <v>0.9883320927619934</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0.7797806000162382</v>
+        <v>0.839101399993524</v>
       </c>
       <c r="J126" t="n">
-        <v>0.00560993237421754</v>
+        <v>0.006036700719377871</v>
       </c>
     </row>
     <row r="127">
@@ -5605,11 +5605,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[0.9887635707855225, 0.9932540059089661, 0.9949114918708801, 0.9967304468154907, 0.9967016577720642, 0.99483323097229, 0.9940938353538513, 0.9959073066711426, 0.996570348739624, 0.9969896078109741, 0.9956344962120056, 0.9964350461959839, 0.9979019165039062, 0.9977097511291504, 0.9967926144599915, 0.9843583106994629, 0.9800757169723511, 0.9843423962593079, 0.9894582033157349, 0.9931148886680603, 0.9774558544158936, 0.9631231427192688, 0.9782394766807556, 0.9838637113571167, 0.9111261367797852, 0.7841548919677734, 0.7062587141990662, 0.6249282360076904, 0.7186962962150574, 0.7144864201545715, 0.7719666361808777, 0.8204588294029236, 0.9066317081451416, 0.9325012564659119, 0.9830159544944763, 0.9722614884376526, 0.9837524890899658, 0.9769694805145264, 0.9857257604598999, 0.9844092726707458, 0.9809340834617615, 0.9913697242736816, 0.9868935346603394, 0.975122332572937, 0.9508941173553467, 0.9638202786445618, 0.9643255472183228, 0.9494072198867798, 0.926122784614563, 0.9369942545890808, 0.9598811864852905, 0.9726160168647766, 0.974411129951477, 0.9956434965133667, 0.9954657554626465, 0.9943913817405701, 0.9962636828422546, 0.9957109689712524, 0.9943392872810364, 0.9900972843170166, 0.9775501489639282, 0.9759082794189453, 0.9929906129837036, 0.9940024018287659, 0.9931955337524414, 0.9932034015655518, 0.9959589838981628, 0.9947091341018677, 0.9900302886962891, 0.9903578162193298, 0.9819512367248535, 0.9903545379638672, 0.9894734025001526, 0.9865550994873047, 0.983380138874054, 0.9888656735420227, 0.9641692638397217, 0.9892778396606445, 0.9910173416137695, 0.9927686452865601, 0.979910135269165, 0.9909522533416748, 0.9972405433654785, 0.9961776733398438, 0.9958795309066772, 0.9943812489509583, 0.9807707667350769, 0.9648416042327881, 0.9851900935173035, 0.9533739686012268, 0.8611842393875122, 0.7342303991317749, 0.7714572548866272, 0.8775832653045654, 0.9331138730049133, 0.8929058909416199, 0.9669010043144226, 0.9316653609275818, 0.9064911007881165, 0.8099608421325684, 0.9320667386054993, 0.9687698483467102, 0.9638033509254456, 0.9452775716781616, 0.931542158126831, 0.8764265179634094, 0.9340713620185852, 0.9200202226638794, 0.9545323848724365, 0.9878265261650085, 0.9609366655349731, 0.9794760346412659, 0.9788413643836975, 0.9788641333580017, 0.9633455872535706, 0.8392807841300964, 0.9709230065345764, 0.982110321521759, 0.9725985527038574, 0.9527201056480408, 0.8957887887954712, 0.8694103360176086, 0.9728015661239624, 0.9732902646064758, 0.9875547289848328, 0.9967856407165527, 0.9949281215667725, 0.9877279996871948, 0.9765873551368713, 0.95649254322052, 0.9621021151542664, 0.9637060165405273, 0.9816479682922363, 0.9864189028739929, 0.9825676083564758, 0.9663191437721252, 0.9694483876228333, 0.968363344669342, 0.9495270252227783, 0.949370801448822]</t>
+          <t>[0.9718390107154846, 0.9906632900238037, 0.9935933947563171, 0.9965259432792664, 0.9964466691017151, 0.9933221936225891, 0.992529571056366, 0.9959035515785217, 0.9961767196655273, 0.9956308603286743, 0.9937121868133545, 0.9949905276298523, 0.9981744289398193, 0.9982168078422546, 0.9968485236167908, 0.9871206879615784, 0.9787477254867554, 0.9821093082427979, 0.9870427846908569, 0.9909895658493042, 0.9660480618476868, 0.944839358329773, 0.9703751802444458, 0.9760178327560425, 0.8691856265068054, 0.585023045539856, 0.5260112285614014, 0.5148324966430664, 0.637699544429779, 0.5871415734291077, 0.5976361632347107, 0.6668554544448853, 0.8648016452789307, 0.8662921786308289, 0.9642520546913147, 0.945059061050415, 0.9684506058692932, 0.9543859958648682, 0.9751027226448059, 0.9688049554824829, 0.9577800035476685, 0.9864338636398315, 0.9771491885185242, 0.949544370174408, 0.8887911438941956, 0.9075731635093689, 0.9203215837478638, 0.9026656150817871, 0.8292847871780396, 0.8779354095458984, 0.9106499552726746, 0.949942946434021, 0.951374351978302, 0.9936177730560303, 0.9939109086990356, 0.993556797504425, 0.9954338669776917, 0.9947104454040527, 0.9935173988342285, 0.9884468913078308, 0.9669539928436279, 0.959078848361969, 0.9887117147445679, 0.9907916784286499, 0.9909115433692932, 0.9903349280357361, 0.9957166314125061, 0.993857204914093, 0.9897260069847107, 0.990467369556427, 0.9822497367858887, 0.9899528622627258, 0.9861457943916321, 0.9837021827697754, 0.9780356884002686, 0.9860721826553345, 0.9631285667419434, 0.9844602942466736, 0.9895735383033752, 0.9910560846328735, 0.9755604267120361, 0.9832651019096375, 0.995491087436676, 0.9943761825561523, 0.9937356114387512, 0.9909487366676331, 0.9608784317970276, 0.8823826313018799, 0.9433308243751526, 0.8385148048400879, 0.7141029238700867, 0.5128718018531799, 0.4517750144004822, 0.6084989309310913, 0.829197347164154, 0.7374517321586609, 0.9071133732795715, 0.8586595058441162, 0.8288810849189758, 0.7071599960327148, 0.8424664735794067, 0.9290634989738464, 0.9255437254905701, 0.8824254274368286, 0.8149622678756714, 0.662094235420227, 0.8136066794395447, 0.7455191612243652, 0.8826987147331238, 0.9647688269615173, 0.8732569813728333, 0.9473477602005005, 0.9303533434867859, 0.9433318972587585, 0.9108350872993469, 0.561904788017273, 0.8988238573074341, 0.931873619556427, 0.8905240297317505, 0.8524670004844666, 0.7049199342727661, 0.7025657296180725, 0.9257053136825562, 0.9003995060920715, 0.9687277674674988, 0.9946395754814148, 0.9918617010116577, 0.9832717776298523, 0.9599019289016724, 0.9131243824958801, 0.9374049305915833, 0.9273276925086975, 0.9698948264122009, 0.9768288731575012, 0.9719678163528442, 0.9456413984298706, 0.9367766380310059, 0.9399478435516357, 0.8820430040359497, 0.8813543319702148]</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.9979019165039062</v>
+        <v>0.9982168078422546</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
@@ -5623,10 +5623,10 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0.7890144999837503</v>
+        <v>0.831449999997858</v>
       </c>
       <c r="J127" t="n">
-        <v>0.005635817857026788</v>
+        <v>0.005938928571413271</v>
       </c>
     </row>
     <row r="128">
@@ -5645,11 +5645,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>[0.6864053606987, 0.7582139372825623, 0.9355471730232239, 0.8021166324615479, 0.965031623840332, 0.9711496233940125, 0.9595187306404114, 0.9075089693069458, 0.9115906953811646, 0.9420953989028931, 0.8392665982246399, 0.9049744606018066, 0.743561327457428, 0.9170286655426025, 0.8807646632194519, 0.6533270478248596, 0.8064557313919067, 0.9206685423851013, 0.9389342665672302, 0.9447516798973083, 0.828087568283081, 0.7549914717674255, 0.636451005935669, 0.8638030886650085, 0.7242318987846375, 0.5586177110671997, 0.5621145367622375, 0.5206609964370728, 0.7308789491653442, 0.6260687708854675, 0.7996299862861633, 0.6799068450927734, 0.8358032703399658, 0.914884090423584, 0.9645829200744629, 0.9387513399124146, 0.9823278188705444, 0.8812968134880066, 0.7826366424560547, 0.5925276875495911, 0.5290138125419617, 0.5628077387809753, 0.6491125822067261, 0.5757212042808533, 0.3679533898830414, 0.3300635516643524, 0.45641976594924927, 0.7400181293487549, 0.6567243933677673, 0.34269335865974426, 0.2749413251876831, 0.31298282742500305, 0.2789234519004822, 0.41826093196868896, 0.43853050470352173, 0.2607865631580353, 0.4738239049911499, 0.34031131863594055, 0.24208301305770874, 0.46226197481155396, 0.5540091395378113, 0.6646462082862854, 0.5385920405387878, 0.966296911239624, 0.9408127069473267, 0.9664456248283386, 0.9855800867080688, 0.9881443977355957, 0.9537468552589417, 0.9341155290603638, 0.9181731343269348, 0.9004725813865662, 0.8923565745353699, 0.8714849352836609, 0.5963901281356812, 0.5997246503829956, 0.786455512046814, 0.9265220165252686, 0.9203799366950989, 0.9552639126777649, 0.892742931842804, 0.7107888460159302, 0.9430952668190002, 0.21023070812225342, 0.05083603411912918, 0.04953942447900772, 0.03824704885482788, 0.04948897659778595, 0.03838402032852173, 0.03440093621611595, 0.03435027599334717, 0.03680550679564476, 0.032123763114213943, 0.038210250437259674, 0.03967674449086189, 0.048270486295223236, 0.1325046867132187, 0.17214129865169525, 0.1342509686946869, 0.10668238997459412, 0.1278960108757019, 0.2303479015827179, 0.21889716386795044, 0.3171102702617645, 0.2878979742527008, 0.2984558939933777, 0.19410137832164764, 0.4037356972694397, 0.5905621647834778, 0.7241527438163757, 0.9441430568695068, 0.9846900701522827, 0.9946529865264893, 0.9772065877914429, 0.82685786485672, 0.9719483256340027, 0.9766340851783752, 0.9711201786994934, 0.9351342916488647, 0.9257491230964661, 0.9415013790130615, 0.9287283420562744, 0.9572417140007019, 0.9697062969207764, 0.9386253952980042, 0.9347434043884277, 0.9649161100387573, 0.9632772207260132, 0.9776219129562378, 0.9523466229438782, 0.9849536418914795, 0.9424005746841431, 0.9633111357688904, 0.9872307181358337, 0.9772530198097229, 0.9812012910842896, 0.990613579750061, 0.9948712587356567, 0.9896615743637085, 0.9897122383117676]</t>
+          <t>[0.46807578206062317, 0.4068121910095215, 0.6241416335105896, 0.46411335468292236, 0.8753308653831482, 0.8977810740470886, 0.894436240196228, 0.7807958126068115, 0.6637895107269287, 0.8429778814315796, 0.6179540157318115, 0.7790782451629639, 0.4429475963115692, 0.7148606777191162, 0.5610936880111694, 0.3326447010040283, 0.5319580435752869, 0.8139416575431824, 0.7992342114448547, 0.8328422904014587, 0.5956873297691345, 0.5265455842018127, 0.5571103096008301, 0.6415266990661621, 0.45791497826576233, 0.345029354095459, 0.39950352907180786, 0.27719366550445557, 0.5660914182662964, 0.47132408618927, 0.611659824848175, 0.4931237995624542, 0.5685890316963196, 0.6828720569610596, 0.8840088844299316, 0.8440101146697998, 0.9444045424461365, 0.5105806589126587, 0.4057306945323944, 0.27263614535331726, 0.29178866744041443, 0.32019543647766113, 0.3540032207965851, 0.257129430770874, 0.15041373670101166, 0.1021951213479042, 0.16131047904491425, 0.5070723295211792, 0.45498475432395935, 0.13835430145263672, 0.11549918353557587, 0.13994337618350983, 0.130030557513237, 0.19148436188697815, 0.19936928153038025, 0.0882163867354393, 0.1580248773097992, 0.10075371712446213, 0.04923800379037857, 0.13732939958572388, 0.21172858774662018, 0.268918514251709, 0.20063720643520355, 0.8829171061515808, 0.7068794965744019, 0.8587861657142639, 0.9358338713645935, 0.9574860334396362, 0.8242879509925842, 0.8176997900009155, 0.7294279932975769, 0.681114137172699, 0.7165564894676208, 0.5826895833015442, 0.24919381737709045, 0.22848840057849884, 0.4735631048679352, 0.825059711933136, 0.7685725092887878, 0.8336403965950012, 0.7049068212509155, 0.658144474029541, 0.8478654026985168, 0.0710764229297638, 0.02191593125462532, 0.015872271731495857, 0.014520677737891674, 0.023220423609018326, 0.01691018044948578, 0.01402218546718359, 0.014030428603291512, 0.01713109388947487, 0.016592368483543396, 0.01676328107714653, 0.017177650704979897, 0.01880439557135105, 0.09516483545303345, 0.11396223306655884, 0.042728789150714874, 0.03866823390126228, 0.0526064895093441, 0.09610714018344879, 0.11545072495937347, 0.14418748021125793, 0.13647685945034027, 0.15644757449626923, 0.10097049921751022, 0.27598318457603455, 0.4038800299167633, 0.4380056858062744, 0.8313236832618713, 0.9376122951507568, 0.9857444167137146, 0.9371771216392517, 0.5295847058296204, 0.9030851721763611, 0.9248964190483093, 0.9281201362609863, 0.8143714070320129, 0.8055877089500427, 0.8142806887626648, 0.7320296764373779, 0.8968023061752319, 0.9191079139709473, 0.8324273824691772, 0.8158234357833862, 0.907231867313385, 0.9090890884399414, 0.9435458779335022, 0.8391135334968567, 0.9648473858833313, 0.8017274141311646, 0.8558789491653442, 0.9526751041412354, 0.8887849450111389, 0.9346804022789001, 0.9734839797019958, 0.9814487099647522, 0.9580590724945068, 0.9582349061965942]</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.9948712587356567</v>
+        <v>0.9857444167137146</v>
       </c>
       <c r="F128" t="n">
         <v>1</v>
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0.7902024000068195</v>
+        <v>0.7881562999973539</v>
       </c>
       <c r="J128" t="n">
-        <v>0.005644302857191568</v>
+        <v>0.005629687857123956</v>
       </c>
     </row>
     <row r="129">
@@ -5685,11 +5685,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>[0.6188042163848877, 0.24830010533332825, 0.3954799175262451, 0.5863585472106934, 0.5225540995597839, 0.6474421620368958, 0.2461664080619812, 0.5753872990608215, 0.2821753919124603, 0.22763007879257202, 0.3562477231025696, 0.39415282011032104, 0.8557661175727844, 0.7844651937484741, 0.5915066003799438, 0.5685602426528931, 0.5821318030357361, 0.34118202328681946, 0.29112985730171204, 0.6643670797348022, 0.41680267453193665, 0.3446365296840668, 0.4695209562778473, 0.1583409309387207, 0.10502760112285614, 0.22823716700077057, 0.7640842199325562, 0.8138032555580139, 0.5704149007797241, 0.5073885917663574, 0.13627536594867706, 0.4579707980155945, 0.41353338956832886, 0.7271069288253784, 0.4478195309638977, 0.1748862862586975, 0.22122183442115784, 0.31783831119537354, 0.10525640845298767, 0.24123074114322662, 0.14934706687927246, 0.2270658165216446, 0.1445656269788742, 0.2723923623561859, 0.05794481188058853, 0.11215587705373764, 0.32888156175613403, 0.12833920121192932, 0.2075730413198471, 0.22071801126003265, 0.25055310130119324, 0.6651926636695862, 0.4448234736919403, 0.22901594638824463, 0.1565398871898651, 0.12242148816585541, 0.10497049987316132, 0.19552047550678253, 0.2623208463191986, 0.12384826689958572, 0.08844447880983353, 0.4365851879119873, 0.43968579173088074, 0.2153923660516739, 0.39384979009628296, 0.23601530492305756, 0.16829662024974823, 0.7441045045852661, 0.23313702642917633, 0.498526930809021, 0.2778073847293854, 0.17382696270942688, 0.2374570369720459, 0.30823734402656555, 0.24837808310985565, 0.3121921718120575, 0.27309557795524597, 0.39648014307022095, 0.23966257274150848, 0.2010250985622406, 0.12050358951091766, 0.218634232878685, 0.2151612937450409, 0.24245452880859375, 0.24479356408119202, 0.13013595342636108, 0.3271937072277069, 0.5247416496276855, 0.6303342580795288, 0.5506545305252075, 0.3180420994758606, 0.226053848862648, 0.11563684791326523, 0.36632680892944336, 0.31532713770866394, 0.25504782795906067, 0.14102794229984283, 0.12672749161720276, 0.09153591841459274, 0.09289988875389099, 0.09165729582309723, 0.13533571362495422, 0.208224356174469, 0.31644922494888306, 0.20882906019687653, 0.29229381680488586, 0.12731876969337463, 0.10528494417667389, 0.1277267187833786, 0.06049635633826256, 0.06143822893500328, 0.050056930631399155, 0.07287473976612091, 0.1776752769947052, 0.3098524212837219, 0.15738412737846375, 0.07017156481742859, 0.15080544352531433, 0.08205591142177582, 0.10674266517162323, 0.264712929725647, 0.2537499666213989, 0.2999592125415802, 0.30111202597618103]</t>
+          <t>[0.516185462474823, 0.1711713671684265, 0.39889201521873474, 0.5401511788368225, 0.5587571859359741, 0.6738850474357605, 0.17482522130012512, 0.5539239048957825, 0.1887086182832718, 0.1766759157180786, 0.38182154297828674, 0.3819188177585602, 0.87738037109375, 0.8293886780738831, 0.6133637428283691, 0.6264282464981079, 0.726909339427948, 0.5242201685905457, 0.2920484244823456, 0.7924948334693909, 0.6552125811576843, 0.47775155305862427, 0.5811874866485596, 0.14732007682323456, 0.16532418131828308, 0.2954225540161133, 0.8787291646003723, 0.9050111174583435, 0.6898369789123535, 0.7327823042869568, 0.1309940367937088, 0.47719869017601013, 0.5001698136329651, 0.8942322731018066, 0.6820843815803528, 0.2716253995895386, 0.2819860875606537, 0.3256436884403229, 0.07847925275564194, 0.31464850902557373, 0.10989229381084442, 0.22683647274971008, 0.18013130128383636, 0.48138707876205444, 0.03476373851299286, 0.09194127470254898, 0.39159923791885376, 0.07670357078313828, 0.13477563858032227, 0.15654295682907104, 0.2359471619129181, 0.7754242420196533, 0.48840197920799255, 0.1608087569475174, 0.10315757244825363, 0.07374195009469986, 0.0678068995475769, 0.17252317070960999, 0.28884652256965637, 0.06258616596460342, 0.06363604217767715, 0.42160171270370483, 0.4257066249847412, 0.2299497127532959, 0.47153934836387634, 0.2988274395465851, 0.24607832729816437, 0.9181301593780518, 0.3266189992427826, 0.660137951374054, 0.31832918524742126, 0.151832714676857, 0.2158675491809845, 0.24378375709056854, 0.23238104581832886, 0.331310510635376, 0.22970831394195557, 0.37922459840774536, 0.23976640403270721, 0.18164628744125366, 0.11792983114719391, 0.20542293787002563, 0.20183366537094116, 0.23825673758983612, 0.34465715289115906, 0.1673164963722229, 0.3748569190502167, 0.6401510834693909, 0.7403798699378967, 0.7257242798805237, 0.37560567259788513, 0.33567559719085693, 0.15485797822475433, 0.5244752764701843, 0.5143418908119202, 0.4297007918357849, 0.20697644352912903, 0.14250878989696503, 0.07035394757986069, 0.04698420688509941, 0.08015040308237076, 0.12950173020362854, 0.2907436490058899, 0.4221890866756439, 0.21824955940246582, 0.1365891695022583, 0.08036617189645767, 0.07304120063781738, 0.07953561097383499, 0.048265598714351654, 0.05943536385893822, 0.027980780228972435, 0.0530591756105423, 0.2602735459804535, 0.37728652358055115, 0.20186808705329895, 0.06963426619768143, 0.26413238048553467, 0.07323135435581207, 0.11428181082010269, 0.31107375025749207, 0.391326367855072, 0.3874373733997345, 0.3888702690601349]</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.8557661175727844</v>
+        <v>0.9181301593780518</v>
       </c>
       <c r="F129" t="n">
         <v>1</v>
@@ -5703,10 +5703,10 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0.718700199999148</v>
+        <v>0.7361467000009725</v>
       </c>
       <c r="J129" t="n">
-        <v>0.005795969354831839</v>
+        <v>0.005936666935491714</v>
       </c>
     </row>
     <row r="130">
@@ -5725,11 +5725,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>[0.07583464682102203, 0.14337874948978424, 0.5674026012420654, 0.20080450177192688, 0.14197228848934174, 0.0758124589920044, 0.11854550242424011, 0.15609458088874817, 0.08700265735387802, 0.15110409259796143, 0.07606466114521027, 0.07157734781503677, 0.17937374114990234, 0.8004075288772583, 0.07435004413127899, 0.08206038922071457, 0.1233319640159607, 0.12495071440935135, 0.15406987071037292, 0.5747464895248413, 0.683235228061676, 0.5154749751091003, 0.71932452917099, 0.8568182587623596, 0.9365349411964417, 0.9651210308074951, 0.9891102910041809, 0.11333326995372772, 0.05521072447299957, 0.08656922727823257, 0.09475772082805634, 0.22424694895744324, 0.2213696390390396, 0.2584799826145172, 0.14220181107521057, 0.14613434672355652, 0.21911366283893585, 0.12170964479446411, 0.18549706041812897, 0.2222101241350174, 0.22271676361560822, 0.2026604264974594, 0.4251287877559662, 0.6179159283638, 0.5705754160881042, 0.9114327430725098, 0.9585461020469666, 0.9784958958625793, 0.8923978209495544, 0.16101475059986115, 0.4376569092273712, 0.13111579418182373, 0.285950630903244, 0.15620674192905426, 0.3135426640510559, 0.1535908728837967, 0.09188490360975266, 0.2521331310272217, 0.22658291459083557, 0.09937815368175507, 0.25296923518180847, 0.35023146867752075, 0.9396058917045593, 0.9783249497413635, 0.9738315343856812, 0.9909123182296753, 0.984711229801178, 0.9935986995697021, 0.9808561205863953, 0.9942633509635925, 0.9874207377433777, 0.9757535457611084, 0.9901610612869263, 0.9928727149963379, 0.9775876402854919, 0.961249589920044, 0.9831521511077881, 0.992373526096344, 0.9921676516532898, 0.9737182259559631, 0.9695586562156677, 0.9199932813644409, 0.9856504797935486, 0.9243738651275635, 0.8229973316192627, 0.9363596439361572, 0.9831379652023315, 0.9853860139846802, 0.9821696877479553, 0.988538920879364, 0.9877675771713257, 0.990639328956604, 0.9902415871620178, 0.9720722436904907, 0.9853410124778748, 0.9868876338005066, 0.9838237762451172, 0.9968841671943665, 0.9973528385162354, 0.9966187477111816, 0.9977437257766724, 0.9961392283439636, 0.9969393014907837, 0.996466875076294, 0.9928333759307861, 0.9954841136932373, 0.9925192594528198, 0.9929458498954773, 0.9874424338340759, 0.9791337251663208, 0.9876617193222046, 0.9933083057403564, 0.9871168732643127, 0.9864439368247986, 0.9881049394607544, 0.9936424493789673, 0.9957669973373413, 0.9926055669784546, 0.9958876967430115, 0.9913921356201172, 0.9926922917366028, 0.9950321912765503, 0.9932621121406555, 0.9945693016052246, 0.9945693612098694]</t>
+          <t>[0.037602998316287994, 0.07285333424806595, 0.7309209704399109, 0.07402687519788742, 0.06429242342710495, 0.02889900654554367, 0.04645933955907822, 0.07930897921323776, 0.0501510389149189, 0.08156425505876541, 0.033247943967580795, 0.025149144232273102, 0.23126929998397827, 0.8161360621452332, 0.058561742305755615, 0.034394193440675735, 0.05047403648495674, 0.0636490136384964, 0.13822534680366516, 0.82459557056427, 0.7725141644477844, 0.712328314781189, 0.9081429243087769, 0.912421703338623, 0.9644626975059509, 0.9788554310798645, 0.987899899482727, 0.0955715999007225, 0.019975613802671432, 0.03666284680366516, 0.053900882601737976, 0.19128569960594177, 0.12532082200050354, 0.25734731554985046, 0.07876313477754593, 0.07236172258853912, 0.111414335668087, 0.0504707396030426, 0.11389416456222534, 0.09525155276060104, 0.12963718175888062, 0.12651753425598145, 0.398840069770813, 0.7872328758239746, 0.7232103943824768, 0.9626612663269043, 0.9734095335006714, 0.9844067096710205, 0.9489399194717407, 0.10427096486091614, 0.29919812083244324, 0.026950741186738014, 0.07867364585399628, 0.07040709257125854, 0.11008654534816742, 0.038096025586128235, 0.023546408861875534, 0.0556158572435379, 0.026133913546800613, 0.013996926136314869, 0.04985338822007179, 0.0602395236492157, 0.9466275572776794, 0.9580173492431641, 0.960594654083252, 0.9787667989730835, 0.9730028510093689, 0.9918258190155029, 0.9573192000389099, 0.9894489049911499, 0.9877508878707886, 0.9819349050521851, 0.9836379289627075, 0.9914244413375854, 0.9784420132637024, 0.9624616503715515, 0.979032039642334, 0.9884418845176697, 0.9900034070014954, 0.9338489174842834, 0.963801920413971, 0.8324952125549316, 0.97806715965271, 0.9278318881988525, 0.8610947728157043, 0.9414835572242737, 0.9865080118179321, 0.9874404668807983, 0.9863515496253967, 0.9862123727798462, 0.9872645139694214, 0.9854139089584351, 0.9813995957374573, 0.9677688479423523, 0.9781971573829651, 0.984563946723938, 0.9803490042686462, 0.995262861251831, 0.9967278242111206, 0.9956028461456299, 0.9971338510513306, 0.9948086142539978, 0.9958046078681946, 0.9955022931098938, 0.9874017834663391, 0.9943386912345886, 0.9903936982154846, 0.9868203997612, 0.9871832132339478, 0.9821564555168152, 0.9858971238136292, 0.9907143115997314, 0.9810985922813416, 0.9764156937599182, 0.9844657182693481, 0.987972617149353, 0.9939996004104614, 0.9890968799591064, 0.9919420480728149, 0.9851049780845642, 0.9919049739837646, 0.9923558235168457, 0.9890252947807312, 0.9898542761802673, 0.9898556470870972]</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.9977437257766724</v>
+        <v>0.9971338510513306</v>
       </c>
       <c r="F130" t="n">
         <v>1</v>
@@ -5743,10 +5743,10 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0.7061618999869097</v>
+        <v>0.7137177999975393</v>
       </c>
       <c r="J130" t="n">
-        <v>0.005649295199895278</v>
+        <v>0.005709742399980314</v>
       </c>
     </row>
     <row r="131">
@@ -5765,11 +5765,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>[0.4619736075401306, 0.17771697044372559, 0.15654121339321136, 0.19864493608474731, 0.12943518161773682, 0.12722328305244446, 0.08358657360076904, 0.08984630554914474, 0.06027105078101158, 0.10944926738739014, 0.08926043659448624, 0.0664006769657135, 0.08806612342596054, 0.05413185805082321, 0.06204495579004288, 0.09453582763671875, 0.06070316955447197, 0.06190653517842293, 0.10237797349691391, 0.19833312928676605, 0.345080703496933, 0.2843087613582611, 0.2720029950141907, 0.1513398438692093, 0.14448919892311096, 0.2371825873851776, 0.2577052712440491, 0.2299327701330185, 0.19463662803173065, 0.1063007041811943, 0.09894843399524689, 0.23660580813884735, 0.3266769051551819, 0.25404679775238037, 0.11296311020851135, 0.22400790452957153, 0.29474884271621704, 0.2998851239681244, 0.24891099333763123, 0.2079671174287796, 0.241218701004982, 0.2574898898601532, 0.3595028221607208, 0.3125314712524414, 0.053366050124168396, 0.51461261510849, 0.44744595885276794, 0.13459229469299316, 0.5772761702537537, 0.30125710368156433, 0.2078043818473816, 0.3521454632282257, 0.3761202394962311, 0.4204902648925781, 0.8528241515159607, 0.7487136721611023, 0.4166926145553589, 0.6029313802719116, 0.49761733412742615, 0.4423234462738037, 0.4402124881744385, 0.17734310030937195, 0.26133501529693604, 0.1745826005935669, 0.376349538564682, 0.27491605281829834, 0.4755958020687103, 0.6266019344329834, 0.5481212139129639, 0.4130038917064667, 0.3163151741027832, 0.2805666923522949, 0.20102311670780182, 0.11120861023664474, 0.0673169493675232, 0.060256797820329666, 0.10627429932355881, 0.05691993236541748, 0.049511391669511795, 0.09721152484416962, 0.16063588857650757, 0.15343131124973297, 0.17821812629699707, 0.13856488466262817, 0.2036396712064743, 0.18601679801940918, 0.31288444995880127, 0.31713980436325073, 0.23024065792560577, 0.2286418080329895, 0.2895607650279999, 0.2703501582145691, 0.11323544383049011, 0.06268124282360077, 0.05529489368200302, 0.058352336287498474, 0.10077907890081406, 0.08970161527395248, 0.05334533751010895, 0.09108419716358185, 0.04789944365620613, 0.037203118205070496, 0.028069205582141876, 0.016969459131360054, 0.0878949984908104, 0.04755476489663124, 0.06803763657808304, 0.04624692350625992, 0.06314768642187119, 0.1138283982872963, 0.053743816912174225, 0.10463949292898178, 0.06606189906597137, 0.06473495066165924, 0.06598229706287384, 0.03893894702196121, 0.062487274408340454, 0.12481066584587097, 0.15358072519302368, 0.9420941472053528, 0.9642684459686279, 0.92538982629776, 0.46337345242500305, 0.4627768397331238]</t>
+          <t>[0.3725457787513733, 0.16735608875751495, 0.12670019268989563, 0.12122630327939987, 0.10303573310375214, 0.09349717199802399, 0.08362468332052231, 0.10330013185739517, 0.08407141268253326, 0.13518095016479492, 0.10864587873220444, 0.06609170138835907, 0.08654098957777023, 0.04613494127988815, 0.0363658182322979, 0.09035079181194305, 0.04909006133675575, 0.07661770284175873, 0.16114887595176697, 0.2219928503036499, 0.41427111625671387, 0.2811281681060791, 0.25672268867492676, 0.11678323149681091, 0.13471397757530212, 0.25774553418159485, 0.2032831311225891, 0.18967020511627197, 0.1670973002910614, 0.10825163125991821, 0.10974767059087753, 0.2623478174209595, 0.40336325764656067, 0.33022332191467285, 0.12480788677930832, 0.2973842918872833, 0.42236649990081787, 0.3933209776878357, 0.31179413199424744, 0.24329735338687897, 0.34540703892707825, 0.2697373032569885, 0.38292357325553894, 0.34269827604293823, 0.03877168148756027, 0.5466934442520142, 0.36369287967681885, 0.2897929847240448, 0.8929789066314697, 0.3289779722690582, 0.18382315337657928, 0.4669889807701111, 0.42705652117729187, 0.4793857932090759, 0.9300362467765808, 0.8182915449142456, 0.5150432586669922, 0.6453037261962891, 0.5950732231140137, 0.5248703956604004, 0.33083415031433105, 0.11313614994287491, 0.22010104358196259, 0.12740951776504517, 0.37019065022468567, 0.16478870809078217, 0.4546213448047638, 0.6570274233818054, 0.6250383853912354, 0.515810489654541, 0.2713668644428253, 0.22083546221256256, 0.15095898509025574, 0.0751233845949173, 0.04840938746929169, 0.04493487626314163, 0.08969811350107193, 0.035571854561567307, 0.028419164940714836, 0.06801682710647583, 0.1542857438325882, 0.0951482355594635, 0.15814286470413208, 0.10261352360248566, 0.22849418222904205, 0.16223305463790894, 0.2724698483943939, 0.2580965459346771, 0.11335912346839905, 0.10913578420877457, 0.26514121890068054, 0.30550897121429443, 0.07613077014684677, 0.0363139845430851, 0.04684991389513016, 0.03987741470336914, 0.07812309265136719, 0.087187260389328, 0.05238240584731102, 0.068045973777771, 0.02999940887093544, 0.02203291282057762, 0.017805857583880424, 0.014642655849456787, 0.10954147577285767, 0.06675678491592407, 0.08934594690799713, 0.05342283472418785, 0.1474703699350357, 0.31459665298461914, 0.08254358172416687, 0.17269225418567657, 0.08414085954427719, 0.1067858412861824, 0.0827249139547348, 0.04409461468458176, 0.07064992934465408, 0.12466595321893692, 0.14286188781261444, 0.9808549284934998, 0.9696072936058044, 0.9828636050224304, 0.8126062154769897, 0.8120691776275635]</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.9642684459686279</v>
+        <v>0.9828636050224304</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
@@ -5783,10 +5783,10 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0.7052474000083748</v>
+        <v>0.7130291000066791</v>
       </c>
       <c r="J131" t="n">
-        <v>0.005687479032325604</v>
+        <v>0.005750234677473218</v>
       </c>
     </row>
     <row r="132">
@@ -5805,11 +5805,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>[0.2770306468009949, 0.34315454959869385, 0.20981141924858093, 0.22081181406974792, 0.2734285295009613, 0.47571590542793274, 0.30235788226127625, 0.36999204754829407, 0.22453224658966064, 0.3020142912864685, 0.19116701185703278, 0.1779162436723709, 0.4398346245288849, 0.23217982053756714, 0.4893517792224884, 0.282806932926178, 0.25996923446655273, 0.1985509991645813, 0.2931678593158722, 0.48478496074676514, 0.46492573618888855, 0.29311737418174744, 0.4078676700592041, 0.5221351981163025, 0.583557665348053, 0.606074333190918, 0.43875652551651, 0.40545204281806946, 0.4757562577724457, 0.5515052080154419, 0.42245519161224365, 0.3479134142398834, 0.3489961326122284, 0.4218628406524658, 0.5154797434806824, 0.18721233308315277, 0.27793189883232117, 0.34699109196662903, 0.2807867228984833, 0.4764481484889984, 0.5705054402351379, 0.5472822189331055, 0.42283520102500916, 0.3471006453037262, 0.34384503960609436, 0.4387631416320801, 0.34905382990837097, 0.44135186076164246, 0.4266369938850403, 0.3802729845046997, 0.3662963807582855, 0.21957090497016907, 0.2093953937292099, 0.33303165435791016, 0.2701770067214966, 0.32679757475852966, 0.2865545153617859, 0.2603875696659088, 0.3054443299770355, 0.34058621525764465, 0.45363813638687134, 0.1965026706457138, 0.2997329533100128, 0.3983842432498932, 0.3447858393192291, 0.24239729344844818, 0.42760682106018066, 0.18804161250591278, 0.31674930453300476, 0.37158069014549255, 0.2394121140241623, 0.21048597991466522, 0.2946487069129944, 0.3288510739803314, 0.27368777990341187, 0.36907893419265747, 0.2662592828273773, 0.1845887452363968, 0.3038417100906372, 0.3431612551212311, 0.3751121163368225, 0.3100630044937134, 0.28041011095046997, 0.4976222813129425, 0.3964415490627289, 0.34074416756629944, 0.4187232255935669, 0.3415919840335846, 0.4752996861934662, 0.3750747740268707, 0.4832553565502167, 0.4144175946712494, 0.19128602743148804, 0.40863141417503357, 0.4084741771221161, 0.33543625473976135, 0.41368407011032104, 0.3850989043712616, 0.3018314242362976, 0.16857336461544037, 0.210853710770607, 0.28757187724113464, 0.2785339951515198, 0.4474376142024994, 0.42932042479515076, 0.5130494832992554, 0.5117487907409668, 0.3066745400428772, 0.1932086944580078, 0.29379695653915405, 0.23247914016246796, 0.37949103116989136, 0.2799578309059143, 0.36681675910949707, 0.28258565068244934, 0.3921425938606262, 0.3256516754627228, 0.30684298276901245, 0.2641761600971222, 0.27652624249458313, 0.3333755135536194, 0.458137184381485, 0.522648274898529, 0.5229526162147522]</t>
+          <t>[0.17957700788974762, 0.3138504922389984, 0.10474597662687302, 0.08402937650680542, 0.15230047702789307, 0.35872751474380493, 0.141878142952919, 0.31410667300224304, 0.10644751787185669, 0.1386440545320511, 0.07187890261411667, 0.056434258818626404, 0.3169737756252289, 0.11703648418188095, 0.34507086873054504, 0.20323187112808228, 0.11406373977661133, 0.07410560548305511, 0.14160427451133728, 0.2784697711467743, 0.25672516226768494, 0.14808866381645203, 0.1968163698911667, 0.3896898031234741, 0.47404903173446655, 0.4663366973400116, 0.2374517321586609, 0.2608402967453003, 0.4514855146408081, 0.5032454133033752, 0.2888725996017456, 0.24766729772090912, 0.22611340880393982, 0.3443818986415863, 0.48516935110092163, 0.1334725022315979, 0.1398397833108902, 0.21554793417453766, 0.12464618682861328, 0.42578649520874023, 0.7035580277442932, 0.6245263814926147, 0.3388069272041321, 0.18529658019542694, 0.13781410455703735, 0.3607664108276367, 0.2561856210231781, 0.3082300126552582, 0.30333176255226135, 0.2580876648426056, 0.25996172428131104, 0.09532277286052704, 0.07291407883167267, 0.13986878097057343, 0.10252714157104492, 0.22230516374111176, 0.13898131251335144, 0.13885760307312012, 0.17684805393218994, 0.22157078981399536, 0.41792404651641846, 0.07732338458299637, 0.1544979065656662, 0.2639347016811371, 0.2391623705625534, 0.17681069672107697, 0.34543630480766296, 0.10674788057804108, 0.31619271636009216, 0.28100964426994324, 0.15725524723529816, 0.15157634019851685, 0.17448392510414124, 0.1798756867647171, 0.16684088110923767, 0.2183525413274765, 0.2576775550842285, 0.11866605281829834, 0.18075396120548248, 0.2597162127494812, 0.3106216788291931, 0.15967780351638794, 0.16477550566196442, 0.3721095621585846, 0.2658193111419678, 0.2473941296339035, 0.3062475621700287, 0.23145267367362976, 0.4032754898071289, 0.23881585896015167, 0.38105735182762146, 0.267976313829422, 0.11186885833740234, 0.3788072168827057, 0.3034173250198364, 0.20271268486976624, 0.312302827835083, 0.28962379693984985, 0.24262014031410217, 0.08393143117427826, 0.11737614870071411, 0.15961109101772308, 0.1367723047733307, 0.21032002568244934, 0.20564967393875122, 0.34017089009284973, 0.46516239643096924, 0.19276711344718933, 0.17688842117786407, 0.1555810272693634, 0.20969709753990173, 0.27728599309921265, 0.14512597024440765, 0.24893423914909363, 0.20670965313911438, 0.26287636160850525, 0.17490001022815704, 0.20062081515789032, 0.14204028248786926, 0.20056594908237457, 0.18859897553920746, 0.37128159403800964, 0.4946575164794922, 0.49464327096939087]</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.606074333190918</v>
+        <v>0.7035580277442932</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
@@ -5823,10 +5823,10 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0.806621499999892</v>
+        <v>0.8190578000067035</v>
       </c>
       <c r="J132" t="n">
-        <v>0.006505012096773322</v>
+        <v>0.006605304838763737</v>
       </c>
     </row>
     <row r="133">
@@ -5845,11 +5845,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>[0.2158118635416031, 0.11676018685102463, 0.08331514894962311, 0.22072577476501465, 0.1013631746172905, 0.06610274314880371, 0.08149294555187225, 0.08367345482110977, 0.07229411602020264, 0.11317168176174164, 0.10647056251764297, 0.13315682113170624, 0.10458462685346603, 0.08307600766420364, 0.07578859478235245, 0.14540041983127594, 0.09156502038240433, 0.14923706650733948, 0.12131282687187195, 0.32270166277885437, 0.25891342759132385, 0.4029465913772583, 0.2350044697523117, 0.1695108860731125, 0.1657029539346695, 0.1679687201976776, 0.16558484733104706, 0.9032783508300781, 0.7771745324134827, 0.4890103340148926, 0.18440905213356018, 0.2198583334684372, 0.2165263295173645, 0.2370295375585556, 0.1815904676914215, 0.36081284284591675, 0.34165239334106445, 0.18695370852947235, 0.2514154613018036, 0.21970075368881226, 0.11559699475765228, 0.22494706511497498, 0.06611072272062302, 0.27883392572402954, 0.15498045086860657, 0.20057784020900726, 0.13686136901378632, 0.18606457114219666, 0.1566842496395111, 0.4432286024093628, 0.21954336762428284, 0.12378459423780441, 0.21223410964012146, 0.10199154168367386, 0.13924197852611542, 0.2775057554244995, 0.089719258248806, 0.06693762540817261, 0.055736247450113297, 0.1917766034603119, 0.6807146072387695, 0.7063208222389221, 0.6714051365852356, 0.6824970841407776, 0.692942202091217, 0.6637476682662964, 0.6646803617477417, 0.13483522832393646, 0.05695115402340889, 0.07005684822797775, 0.10159027576446533, 0.12132124602794647, 0.21190357208251953, 0.15350277721881866, 0.07167870551347733, 0.13837774097919464, 0.6057409644126892, 0.23091022670269012, 0.17287874221801758, 0.09167736023664474, 0.05162487179040909, 0.3513883054256439, 0.6010421514511108, 0.6102506518363953, 0.6199207901954651, 0.6522248387336731, 0.6552115678787231, 0.6692641377449036, 0.6691968441009521, 0.6307303309440613, 0.6281145215034485, 0.6404346227645874, 0.6105638146400452, 0.5989468097686768, 0.6547274589538574, 0.6422093510627747, 0.6469990611076355, 0.6150904893875122, 0.6272165775299072, 0.6579801440238953, 0.6787363886833191, 0.6862147450447083, 0.6475815773010254, 0.610309362411499, 0.6524189114570618, 0.6581535339355469, 0.577963650226593, 0.627872109413147, 0.5572620034217834, 0.6119895577430725, 0.6304365396499634, 0.6833905577659607, 0.6752163171768188, 0.6666489839553833, 0.630042314529419, 0.658831775188446, 0.6315510272979736, 0.6800824403762817, 0.6510075926780701, 0.6251623034477234, 0.6253350973129272, 0.6310862302780151, 0.11631911993026733, 0.22694805264472961, 0.22740164399147034]</t>
+          <t>[0.20276163518428802, 0.1388060748577118, 0.06944779306650162, 0.28972214460372925, 0.09025740623474121, 0.039948269724845886, 0.06639567762613297, 0.06431666761636734, 0.05490393936634064, 0.09705747663974762, 0.10130812227725983, 0.12917256355285645, 0.09450889378786087, 0.08656777441501617, 0.08751755952835083, 0.12058088183403015, 0.06920748949050903, 0.17919676005840302, 0.16157162189483643, 0.5243611335754395, 0.4264010190963745, 0.5786113739013672, 0.3356192111968994, 0.27481845021247864, 0.18390977382659912, 0.15913182497024536, 0.16408853232860565, 0.942474901676178, 0.8712884187698364, 0.6080178022384644, 0.21271541714668274, 0.25086861848831177, 0.23532845079898834, 0.14065325260162354, 0.24610599875450134, 0.45576775074005127, 0.5566304922103882, 0.1686999499797821, 0.1881832629442215, 0.17341947555541992, 0.11639023572206497, 0.21682283282279968, 0.06346699595451355, 0.32516539096832275, 0.22921691834926605, 0.288658082485199, 0.16620738804340363, 0.40418776869773865, 0.25510209798812866, 0.7469979524612427, 0.292462021112442, 0.11852727085351944, 0.33302581310272217, 0.08162450045347214, 0.15052248537540436, 0.3481501638889313, 0.06777161359786987, 0.061318811029195786, 0.03004985861480236, 0.13020706176757812, 0.4930300712585449, 0.5720222592353821, 0.532224714756012, 0.5603457689285278, 0.5889759659767151, 0.5482729077339172, 0.5121114253997803, 0.08943953365087509, 0.026570826768875122, 0.05804044380784035, 0.17559926211833954, 0.128671795129776, 0.3649827837944031, 0.3060920834541321, 0.04849976301193237, 0.05264394357800484, 0.23405660688877106, 0.07653026282787323, 0.06336493045091629, 0.029412660747766495, 0.0137922503054142, 0.2172248810529709, 0.39318057894706726, 0.3962068259716034, 0.42001160979270935, 0.4970243275165558, 0.5125854015350342, 0.4912227988243103, 0.5265198349952698, 0.4958656132221222, 0.43214091658592224, 0.4554150402545929, 0.4566914737224579, 0.43369659781455994, 0.47968432307243347, 0.47218218445777893, 0.47917014360427856, 0.42749229073524475, 0.4375515282154083, 0.5132379531860352, 0.5181049108505249, 0.5352263450622559, 0.4917486906051636, 0.4531652331352234, 0.4711291491985321, 0.49647030234336853, 0.38141930103302, 0.46937429904937744, 0.40285396575927734, 0.48483210802078247, 0.5197372436523438, 0.5614129304885864, 0.5484516024589539, 0.5206664204597473, 0.4829859137535095, 0.533866286277771, 0.464182585477829, 0.5388091206550598, 0.4826948642730713, 0.474393755197525, 0.46863991022109985, 0.4779953360557556, 0.061897505074739456, 0.16256195306777954, 0.16293348371982574]</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.9032783508300781</v>
+        <v>0.942474901676178</v>
       </c>
       <c r="F133" t="n">
         <v>1</v>
@@ -5863,10 +5863,10 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0.6959564000135288</v>
+        <v>0.701126200001454</v>
       </c>
       <c r="J133" t="n">
-        <v>0.00556765120010823</v>
+        <v>0.005609009600011632</v>
       </c>
     </row>
     <row r="134">
@@ -5885,11 +5885,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>[0.5505731701850891, 0.42520084977149963, 0.15386204421520233, 0.09367260336875916, 0.17180964350700378, 0.12202955782413483, 0.2116221785545349, 0.1039666160941124, 0.10296237468719482, 0.09665016084909439, 0.19338689744472504, 0.27024951577186584, 0.6038900017738342, 0.532164454460144, 0.5991297960281372, 0.31152573227882385, 0.13469098508358002, 0.14371344447135925, 0.16709423065185547, 0.5202926993370056, 0.28117749094963074, 0.659515380859375, 0.31931960582733154, 0.24622061848640442, 0.31156185269355774, 0.36405235528945923, 0.28635361790657043, 0.11489395052194595, 0.23662634193897247, 0.33187204599380493, 0.22553998231887817, 0.16265735030174255, 0.5799863338470459, 0.8242124915122986, 0.9570034742355347, 0.6114963889122009, 0.6737035512924194, 0.652254581451416, 0.7101483345031738, 0.7462445497512817, 0.8043791055679321, 0.5655854940414429, 0.4812045097351074, 0.5599849224090576, 0.37289223074913025, 0.23734064400196075, 0.1505129188299179, 0.13754217326641083, 0.15373772382736206, 0.045194003731012344, 0.030692201107740402, 0.06773581355810165, 0.038555119186639786, 0.04429243132472038, 0.09025697410106659, 0.053471002727746964, 0.02229316346347332, 0.0427083745598793, 0.030109282582998276, 0.022550636902451515, 0.04681383818387985, 0.059189315885305405, 0.048546791076660156, 0.06993003934621811, 0.10241879522800446, 0.054301224648952484, 0.04673423990607262, 0.05089614912867546, 0.07194165140390396, 0.07704437524080276, 0.0789409801363945, 0.10459712147712708, 0.07809058576822281, 0.03243555501103401, 0.024081073701381683, 0.03892214596271515, 0.08036557585000992, 0.045740701258182526, 0.06718405336141586, 0.031465865671634674, 0.022391431033611298, 0.012449640780687332, 0.03342906013131142, 0.024848800152540207, 0.021962635219097137, 0.026314547285437584, 0.03658447042107582, 0.03776269778609276, 0.07835599780082703, 0.03261576220393181, 0.10255525261163712, 0.04596177488565445, 0.02077067270874977, 0.04248475655913353, 0.025414904579520226, 0.023764127865433693, 0.02726324461400509, 0.03452617675065994, 0.020822186022996902, 0.020180542021989822, 0.03222024440765381, 0.029457328841090202, 0.015343636274337769, 0.01680237054824829, 0.05702581629157066, 0.14092108607292175, 0.05824221298098564, 0.02598620392382145, 0.015876801684498787, 0.028459783643484116, 0.04250216484069824, 0.03737933933734894, 0.026895316317677498, 0.027403254061937332, 0.028114989399909973, 0.016332173720002174, 0.018580684438347816, 0.017509128898382187, 0.03511827811598778, 0.02719666063785553, 0.03438747674226761, 0.02765529602766037, 0.04390089586377144, 0.01683432050049305, 0.016808830201625824]</t>
+          <t>[0.6902276873588562, 0.6587347984313965, 0.23376378417015076, 0.11878923326730728, 0.2301463633775711, 0.10784518718719482, 0.1775331050157547, 0.06761337071657181, 0.05513641983270645, 0.07828965783119202, 0.12327153235673904, 0.1847580522298813, 0.5371648073196411, 0.43812909722328186, 0.5736093521118164, 0.2463773787021637, 0.07526224851608276, 0.10917966812849045, 0.15763801336288452, 0.4110283851623535, 0.2527848482131958, 0.742566704750061, 0.44012588262557983, 0.17419098317623138, 0.48895955085754395, 0.48016756772994995, 0.3499310612678528, 0.09908466786146164, 0.34602969884872437, 0.28710535168647766, 0.28515124320983887, 0.20190706849098206, 0.6588922739028931, 0.8111159205436707, 0.9523751735687256, 0.6625124216079712, 0.5877045392990112, 0.7536520957946777, 0.6803193092346191, 0.6663373708724976, 0.7450117468833923, 0.5815544128417969, 0.3813897371292114, 0.38824212551116943, 0.23905770480632782, 0.20691488683223724, 0.1724959909915924, 0.23607861995697021, 0.22781608998775482, 0.0523727722465992, 0.02195880189538002, 0.08191964775323868, 0.038088396191596985, 0.03841761499643326, 0.06610351800918579, 0.0409049391746521, 0.014880863949656487, 0.038775768131017685, 0.023513689637184143, 0.015125769190490246, 0.033574897795915604, 0.041831474751234055, 0.043141093105077744, 0.06806773692369461, 0.0807504802942276, 0.044545043259859085, 0.03963697329163551, 0.04558922350406647, 0.0578262098133564, 0.038001880049705505, 0.04515210911631584, 0.07473094016313553, 0.059838131070137024, 0.01571209914982319, 0.01318474393337965, 0.02142629772424698, 0.072730652987957, 0.04050665348768234, 0.07679549604654312, 0.03498808294534683, 0.018315084278583527, 0.008560365997254848, 0.03527165576815605, 0.026103490963578224, 0.016277430579066277, 0.02120066247880459, 0.04676029458642006, 0.034713368862867355, 0.05110878124833107, 0.0324716679751873, 0.11322865635156631, 0.05194484815001488, 0.02142918109893799, 0.03957236558198929, 0.014463981613516808, 0.019688447937369347, 0.02004460245370865, 0.022768575698137283, 0.01617840677499771, 0.01215454377233982, 0.030163060873746872, 0.03761206567287445, 0.01709054782986641, 0.01377769187092781, 0.06663759797811508, 0.13950973749160767, 0.05204968526959419, 0.024811264127492905, 0.01259967777878046, 0.014733618125319481, 0.017228078097105026, 0.022452589124441147, 0.015053696930408478, 0.017896177247166634, 0.01762252487242222, 0.011353602632880211, 0.010904744267463684, 0.012157469056546688, 0.02703741006553173, 0.023092608898878098, 0.022596966475248337, 0.014696002937853336, 0.02939109317958355, 0.015508086420595646, 0.015506594441831112]</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.9570034742355347</v>
+        <v>0.9523751735687256</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
@@ -5903,10 +5903,10 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0.7138659999764059</v>
+        <v>0.7193200000037905</v>
       </c>
       <c r="J134" t="n">
-        <v>0.005710927999811247</v>
+        <v>0.005754560000030324</v>
       </c>
     </row>
     <row r="135">
@@ -5925,11 +5925,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[0.1954781860113144, 0.11213524639606476, 0.14366191625595093, 0.15920782089233398, 0.22880005836486816, 0.11460046470165253, 0.33142682909965515, 0.33771321177482605, 0.2307649701833725, 0.13459183275699615, 0.12624450027942657, 0.14266856014728546, 0.1157262995839119, 0.1419687569141388, 0.07806947827339172, 0.0803041085600853, 0.24255971610546112, 0.29055291414260864, 0.300537645816803, 0.20375004410743713, 0.35270652174949646, 0.09741247445344925, 0.035506218671798706, 0.06404025852680206, 0.10420306026935577, 0.20184226334095, 0.5534277558326721, 0.42788344621658325, 0.09181869775056839, 0.059701550751924515, 0.03949065878987312, 0.11006412655115128, 0.15645836293697357, 0.09700638055801392, 0.05903796851634979, 0.0822574719786644, 0.05166938155889511, 0.05709981173276901, 0.09005583077669144, 0.08515694737434387, 0.07416360080242157, 0.10211461037397385, 0.09035384654998779, 0.11600840836763382, 0.11728581041097641, 0.19272218644618988, 0.2271767109632492, 0.28028231859207153, 0.15728387236595154, 0.18674206733703613, 0.11432202160358429, 0.25864750146865845, 0.08792481571435928, 0.39199650287628174, 0.2003081887960434, 0.20427806675434113, 0.11425983160734177, 0.31014665961265564, 0.1703747808933258, 0.08415893465280533, 0.1399727314710617, 0.24023978412151337, 0.08082232624292374, 0.07345730811357498, 0.16100993752479553, 0.13412192463874817, 0.2742713689804077, 0.150169238448143, 0.3344610631465912, 0.5519375801086426, 0.5911179780960083, 0.29106947779655457, 0.15009424090385437, 0.06428714096546173, 0.09885908663272858, 0.2245015650987625, 0.26300427317619324, 0.1321263611316681, 0.24650847911834717, 0.299569308757782, 0.43668776750564575, 0.46943533420562744, 0.29133716225624084, 0.35166528820991516, 0.5568178296089172, 0.8604554533958435, 0.8479154109954834, 0.7778456807136536, 0.30574509501457214, 0.16936133801937103, 0.0765460655093193, 0.06710457056760788, 0.04298825189471245, 0.03739241883158684, 0.04187032952904701, 0.06251122802495956, 0.15719085931777954, 0.3986559808254242, 0.5518792271614075, 0.36554259061813354, 0.27763259410858154, 0.13962939381599426, 0.1474841684103012, 0.1841728836297989, 0.05265343189239502, 0.07386042922735214, 0.12993404269218445, 0.147267684340477, 0.2009754478931427, 0.16274943947792053, 0.14496658742427826, 0.185145765542984, 0.07998362183570862, 0.11703813076019287, 0.0792761817574501, 0.12468903511762619, 0.19983898103237152, 0.07487507164478302, 0.07506818324327469, 0.2344805747270584, 0.12514391541481018, 0.06603816151618958, 0.4162432849407196, 0.41621318459510803]</t>
+          <t>[0.13764330744743347, 0.09693511575460434, 0.09284669905900955, 0.10201482474803925, 0.24580702185630798, 0.11465630680322647, 0.354076087474823, 0.3428943157196045, 0.21136628091335297, 0.1292535662651062, 0.0856851264834404, 0.0934830829501152, 0.07576176524162292, 0.06564772874116898, 0.031062357127666473, 0.062350112944841385, 0.14053969085216522, 0.2082854062318802, 0.2475542426109314, 0.17942555248737335, 0.30188432335853577, 0.06372267752885818, 0.018289363011717796, 0.052179645746946335, 0.07117410004138947, 0.12641975283622742, 0.49559104442596436, 0.3869544565677643, 0.08000371605157852, 0.07391306012868881, 0.03898334130644798, 0.13056479394435883, 0.19846244156360626, 0.04891888424754143, 0.03676585480570793, 0.04488414525985718, 0.030088912695646286, 0.035733211785554886, 0.05832894518971443, 0.05159534886479378, 0.06538320332765579, 0.06260305643081665, 0.05206317827105522, 0.099940225481987, 0.09187261015176773, 0.09245941042900085, 0.07574766874313354, 0.16682212054729462, 0.09495493024587631, 0.06824460625648499, 0.06582631170749664, 0.14185482263565063, 0.05613143369555473, 0.3590230941772461, 0.10298527777194977, 0.15892060101032257, 0.04992404207587242, 0.30940499901771545, 0.12146938592195511, 0.050300102680921555, 0.06995009630918503, 0.07964030653238297, 0.03188991919159889, 0.026094956323504448, 0.0682656392455101, 0.09944633394479752, 0.18036021292209625, 0.09822846949100494, 0.24236463010311127, 0.3357706367969513, 0.3328402638435364, 0.1170864850282669, 0.06457142531871796, 0.030469175428152084, 0.053579896688461304, 0.13432668149471283, 0.2529962956905365, 0.09666065126657486, 0.16429071128368378, 0.2591703534126282, 0.32799237966537476, 0.5677950978279114, 0.3187503218650818, 0.2979918420314789, 0.5368831157684326, 0.611831784248352, 0.7577357888221741, 0.6859595775604248, 0.3298853635787964, 0.12192825227975845, 0.06188873574137688, 0.10025718063116074, 0.04820273444056511, 0.03838362544775009, 0.040839824825525284, 0.04702949523925781, 0.10718619078397751, 0.4013487994670868, 0.6033673286437988, 0.3924507200717926, 0.3997422158718109, 0.17387086153030396, 0.14557641744613647, 0.19081071019172668, 0.026221461594104767, 0.04841265827417374, 0.22256343066692352, 0.15555310249328613, 0.33780792355537415, 0.21142014861106873, 0.1429453045129776, 0.13741886615753174, 0.059213001281023026, 0.10096080601215363, 0.061640381813049316, 0.10813342779874802, 0.1828448325395584, 0.061108216643333435, 0.08908925205469131, 0.22758039832115173, 0.10167909413576126, 0.05284878984093666, 0.3678766191005707, 0.3676203191280365]</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.8604554533958435</v>
+        <v>0.7577357888221741</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
@@ -5943,10 +5943,10 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0.7154330000048503</v>
+        <v>0.714374700008193</v>
       </c>
       <c r="J135" t="n">
-        <v>0.005769620967781051</v>
+        <v>0.005761086290388654</v>
       </c>
     </row>
     <row r="136">
@@ -5965,11 +5965,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[0.06882881373167038, 0.05484703555703163, 0.04101587459445, 0.05637136474251747, 0.05100637674331665, 0.10787937790155411, 0.14941248297691345, 0.053550008684396744, 0.06953826546669006, 0.06682047247886658, 0.05608389526605606, 0.07635387778282166, 0.05317162722349167, 0.0812947228550911, 0.06497731804847717, 0.060232456773519516, 0.08421117067337036, 0.044883906841278076, 0.04939402639865875, 0.05995843559503555, 0.08215048164129257, 0.09154586493968964, 0.05609364062547684, 0.060526974499225616, 0.040505439043045044, 0.03600621968507767, 0.052587661892175674, 0.08011792600154877, 0.06472054123878479, 0.06692546606063843, 0.03145476430654526, 0.06255441904067993, 0.07576579600572586, 0.061167459934949875, 0.0885201245546341, 0.1539880335330963, 0.11824830621480942, 0.05616438761353493, 0.06940041482448578, 0.12271235883235931, 0.07584042847156525, 0.17381401360034943, 0.19748106598854065, 0.12019536644220352, 0.1330004781484604, 0.23573952913284302, 0.13857434689998627, 0.08309675753116608, 0.10853379964828491, 0.06371995806694031, 0.11636114120483398, 0.12296771258115768, 0.06686224788427353, 0.04662661254405975, 0.050630565732717514, 0.0961589366197586, 0.09259606897830963, 0.16099074482917786, 0.1165952980518341, 0.14905141294002533, 0.09348318725824356, 0.32529085874557495, 0.11914876848459244, 0.07452750951051712, 0.07056604325771332, 0.09750883281230927, 0.22040656208992004, 0.2142806202173233, 0.13364848494529724, 0.08128401637077332, 0.05923726037144661, 0.03423986956477165, 0.06520117074251175, 0.06523868441581726, 0.09058467298746109, 0.06502901762723923, 0.08189519494771957, 0.05928158387541771, 0.05466976389288902, 0.059517838060855865, 0.07035662978887558, 0.06897340714931488, 0.05915233492851257, 0.12820903956890106, 0.0794108435511589, 0.14385482668876648, 0.07380220293998718, 0.05731244385242462, 0.11895337700843811, 0.05905892327427864, 0.06618353724479675, 0.07725978642702103, 0.061617910861968994, 0.06268922984600067, 0.10610292106866837, 0.14364658296108246, 0.09967049956321716, 0.0452631451189518, 0.17382407188415527, 0.1423492580652237, 0.2619839608669281, 0.1672671139240265, 0.07112853229045868, 0.05089068040251732, 0.2625342607498169, 0.14229607582092285, 0.1261216700077057, 0.10372284054756165, 0.08931692689657211, 0.08092177659273148, 0.1133120134472847, 0.08211110532283783, 0.09678687900304794, 0.09991977363824844, 0.07716324180364609, 0.05050932615995407, 0.05412391200661659, 0.0442301481962204, 0.0506211519241333, 0.06908966600894928, 0.0712692141532898, 0.059869542717933655, 0.10874181985855103, 0.10260216891765594, 0.10305086523294449]</t>
+          <t>[0.09218555688858032, 0.06210925430059433, 0.035535916686058044, 0.05367881432175636, 0.041825272142887115, 0.16911359131336212, 0.2616006135940552, 0.040693193674087524, 0.061021506786346436, 0.05833156034350395, 0.056031983345746994, 0.0703083798289299, 0.03957535699009895, 0.08205471187829971, 0.0489886999130249, 0.044294800609350204, 0.08317612111568451, 0.047336094081401825, 0.05304586887359619, 0.056158605962991714, 0.07135940343141556, 0.07210592180490494, 0.05146397650241852, 0.054191116243600845, 0.022587917745113373, 0.03768215700984001, 0.04035895690321922, 0.07032041996717453, 0.09192980825901031, 0.10431956499814987, 0.03942534327507019, 0.07065494358539581, 0.07778747379779816, 0.03756856173276901, 0.12154316157102585, 0.21061891317367554, 0.09387040138244629, 0.05449070781469345, 0.08614588528871536, 0.25341376662254333, 0.08829513192176819, 0.1899598389863968, 0.23757793009281158, 0.15592341125011444, 0.15103237330913544, 0.38942256569862366, 0.16455504298210144, 0.07786037027835846, 0.10844828188419342, 0.07102858275175095, 0.20941060781478882, 0.17178384959697723, 0.0557546429336071, 0.03234901651740074, 0.03765987604856491, 0.08808308839797974, 0.07529633492231369, 0.15880633890628815, 0.1297452300786972, 0.18230891227722168, 0.10152039676904678, 0.4093645513057709, 0.15732046961784363, 0.041229501366615295, 0.07275500893592834, 0.11174570024013519, 0.2108413130044937, 0.23304612934589386, 0.11719387024641037, 0.07632714509963989, 0.05093906819820404, 0.023005926981568336, 0.051078323274850845, 0.05206187069416046, 0.12300638854503632, 0.07706473767757416, 0.06790630519390106, 0.05037970840930939, 0.03916466236114502, 0.031783465296030045, 0.04771075397729874, 0.059553176164627075, 0.05346405878663063, 0.12925022840499878, 0.049986597150564194, 0.12439083307981491, 0.04825153201818466, 0.04700593650341034, 0.23072096705436707, 0.08019530773162842, 0.09257057309150696, 0.084211066365242, 0.059819046407938004, 0.07587622106075287, 0.11983108520507812, 0.17414306104183197, 0.12932658195495605, 0.05024631321430206, 0.3641490638256073, 0.15611788630485535, 0.44366201758384705, 0.3035670220851898, 0.08296047151088715, 0.03933170810341835, 0.2946392595767975, 0.0927048772573471, 0.09437285363674164, 0.07552001625299454, 0.07658550888299942, 0.06274213641881943, 0.14560791850090027, 0.058433495461940765, 0.08972010016441345, 0.14563988149166107, 0.07504651695489883, 0.032026201486587524, 0.031717948615550995, 0.03415268659591675, 0.03304443508386612, 0.06186286360025406, 0.06113247200846672, 0.053724244236946106, 0.11645818501710892, 0.13042253255844116, 0.13031229376792908]</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.325290858745575</v>
+        <v>0.443662017583847</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
@@ -5983,10 +5983,10 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0.7163640999933705</v>
+        <v>0.720692599992617</v>
       </c>
       <c r="J136" t="n">
-        <v>0.005730912799946964</v>
+        <v>0.005765540799940936</v>
       </c>
     </row>
     <row r="137">
@@ -6005,11 +6005,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>[0.4664094150066376, 0.4182903468608856, 0.27530786395072937, 0.22377799451351166, 0.12743692100048065, 0.5140821933746338, 0.2907116711139679, 0.4369560182094574, 0.6604233980178833, 0.6521933674812317, 0.1863485872745514, 0.16516782343387604, 0.2582334280014038, 0.19256411492824554, 0.8179320693016052, 0.757684051990509, 0.628108561038971, 0.3089142441749573, 0.27864933013916016, 0.1990583837032318, 0.20245346426963806, 0.41487187147140503, 0.26009559631347656, 0.24777010083198547, 0.35731998085975647, 0.2656404376029968, 0.23451250791549683, 0.12210255116224289, 0.29412075877189636, 0.16765351593494415, 0.23155958950519562, 0.2970486879348755, 0.3756374418735504, 0.45739081501960754, 0.18473054468631744, 0.5529766082763672, 0.2948792278766632, 0.2971796691417694, 0.2646128237247467, 0.25442802906036377, 0.12459957599639893, 0.22013302147388458, 0.26344311237335205, 0.30983591079711914, 0.8368155360221863, 0.5738185048103333, 0.14202144742012024, 0.1603233516216278, 0.2650633156299591, 0.49814364314079285, 0.5916420817375183, 0.5231305360794067, 0.727795422077179, 0.8242039680480957, 0.6059294939041138, 0.40691545605659485, 0.6377914547920227, 0.1337643563747406, 0.11364011466503143, 0.1670358031988144, 0.14354120194911957, 0.11274392902851105, 0.06358872354030609, 0.19621342420578003, 0.13937857747077942, 0.09798428416252136, 0.15195491909980774, 0.12202702462673187, 0.11511486023664474, 0.12834051251411438, 0.12923136353492737, 0.131042018532753, 0.24522064626216888, 0.10006868094205856, 0.07043131440877914, 0.09371725469827652, 0.10848921537399292, 0.10527722537517548, 0.1650070995092392, 0.1060231551527977, 0.126078799366951, 0.14549757540225983, 0.18268053233623505, 0.13299156725406647, 0.1746218204498291, 0.09943248331546783, 0.10996386408805847, 0.688749372959137, 0.27766042947769165, 0.4273582398891449, 0.48611384630203247, 0.6211687326431274, 0.5240539312362671, 0.32348835468292236, 0.7365812659263611, 0.22238512337207794, 0.4607386291027069, 0.23665638267993927, 0.18872389197349548, 0.1556238830089569, 0.16957224905490875, 0.19388800859451294, 0.10943061858415604, 0.11929788440465927, 0.14525814354419708, 0.09195356070995331, 0.10711012035608292, 0.14667998254299164, 0.2272835671901703, 0.185510516166687, 0.1863807737827301, 0.2018149197101593, 0.2158357799053192, 0.15762650966644287, 0.14937976002693176, 0.19778476655483246, 0.22981750965118408, 0.1305021494626999, 0.11153817921876907, 0.12647774815559387, 0.12233329564332962, 0.16588938236236572, 0.1585969477891922, 0.15871405601501465]</t>
+          <t>[0.370024174451828, 0.3997258245944977, 0.19713489711284637, 0.18296842277050018, 0.07543250173330307, 0.3758038282394409, 0.273119181394577, 0.3374999165534973, 0.5585424304008484, 0.5461230874061584, 0.10150933265686035, 0.13714373111724854, 0.28898856043815613, 0.1660979688167572, 0.9291125535964966, 0.8796601295471191, 0.7277877330780029, 0.28862276673316956, 0.20931798219680786, 0.09235198050737381, 0.08256758749485016, 0.2584387958049774, 0.1288168877363205, 0.1890728771686554, 0.22027717530727386, 0.2426179051399231, 0.1775965690612793, 0.07754995673894882, 0.15601259469985962, 0.055353108793497086, 0.13631592690944672, 0.20057931542396545, 0.22783081233501434, 0.2809350788593292, 0.11797674000263214, 0.37171873450279236, 0.1981521099805832, 0.23675762116909027, 0.13466738164424896, 0.18568450212478638, 0.06244456395506859, 0.15210619568824768, 0.18265701830387115, 0.23082400858402252, 0.934219479560852, 0.6043153405189514, 0.12715350091457367, 0.0697706937789917, 0.2187587171792984, 0.3982856869697571, 0.5144435167312622, 0.27378201484680176, 0.692143976688385, 0.7800095677375793, 0.43495017290115356, 0.3326975107192993, 0.5909499526023865, 0.09937065094709396, 0.11464153975248337, 0.09283681958913803, 0.07365109771490097, 0.09747057408094406, 0.03680768981575966, 0.21616004407405853, 0.12397849559783936, 0.06013694778084755, 0.12211626768112183, 0.07473630458116531, 0.11003448814153671, 0.05935628339648247, 0.06597920507192612, 0.07718149572610855, 0.21248862147331238, 0.04014809429645538, 0.01864456944167614, 0.021692754700779915, 0.039729371666908264, 0.03675490990281105, 0.10283814370632172, 0.0763867050409317, 0.11144686490297318, 0.15130697190761566, 0.21861793100833893, 0.08487581461668015, 0.15527790784835815, 0.041877780109643936, 0.05589098855853081, 0.7368870973587036, 0.21605713665485382, 0.31598037481307983, 0.5054247379302979, 0.7325812578201294, 0.6140481233596802, 0.5239195823669434, 0.9272955656051636, 0.20076726377010345, 0.619839608669281, 0.508230984210968, 0.12672778964042664, 0.10053498297929764, 0.12276816368103027, 0.14343294501304626, 0.075150266289711, 0.14694805443286896, 0.10436180233955383, 0.05588198080658913, 0.05281137302517891, 0.11733211576938629, 0.18775464594364166, 0.25072112679481506, 0.20003750920295715, 0.16809338331222534, 0.18579991161823273, 0.07166599482297897, 0.06709397584199905, 0.09142903238534927, 0.08036244660615921, 0.04280151054263115, 0.03639814257621765, 0.03633374720811844, 0.025458982214331627, 0.04615480825304985, 0.05506811663508415, 0.055100295692682266]</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.8368155360221863</v>
+        <v>0.9342194795608521</v>
       </c>
       <c r="F137" t="n">
         <v>1</v>
@@ -6023,10 +6023,10 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0.7073807999840938</v>
+        <v>0.7026438000029884</v>
       </c>
       <c r="J137" t="n">
-        <v>0.005704683870839466</v>
+        <v>0.005666482258088616</v>
       </c>
     </row>
     <row r="138">
@@ -6045,11 +6045,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[0.8178413510322571, 0.9452704787254333, 0.8697337508201599, 0.744636058807373, 0.7809213399887085, 0.5394744873046875, 0.7902478575706482, 0.8022964000701904, 0.9284710884094238, 0.7814741134643555, 0.7065825462341309, 0.8373908400535583, 0.7067174911499023, 0.6617981195449829, 0.7652575373649597, 0.9091220498085022, 0.7227423787117004, 0.7016077637672424, 0.9168883562088013, 0.934131383895874, 0.8693802356719971, 0.6469779014587402, 0.8566349744796753, 0.9138926863670349, 0.8243483304977417, 0.9202684760093689, 0.6832444667816162, 0.8790123462677002, 0.8688700199127197, 0.9115322828292847, 0.9503316879272461, 0.9317364692687988, 0.8177573680877686, 0.888428807258606, 0.9323710799217224, 0.8682871460914612, 0.8711239099502563, 0.8812623620033264, 0.8867614269256592, 0.9477559924125671, 0.8151328563690186, 0.9252591729164124, 0.9459160566329956, 0.7263798713684082, 0.8237190246582031, 0.9743452668190002, 0.9470233917236328, 0.8905302286148071, 0.7975531220436096, 0.7513083815574646, 0.9526777863502502, 0.936420738697052, 0.773245096206665, 0.5203226208686829, 0.4723922312259674, 0.19982841610908508, 0.8141924142837524, 0.5720486044883728, 0.5828083157539368, 0.6987035274505615, 0.8089746236801147, 0.8531093597412109, 0.7223492860794067, 0.8878413438796997, 0.8934998512268066, 0.877709150314331, 0.7886046171188354, 0.7659300565719604, 0.5120882987976074, 0.3332132399082184, 0.3672618269920349, 0.39221614599227905, 0.5625765919685364, 0.7455351948738098, 0.7450900077819824, 0.7744207382202148, 0.41351568698883057, 0.3359163701534271, 0.37345001101493835, 0.577586829662323, 0.6023390293121338, 0.8075828552246094, 0.35390836000442505, 0.77059006690979, 0.7908470034599304, 0.7069666981697083, 0.6108088493347168, 0.5480973124504089, 0.6070178747177124, 0.3981625735759735, 0.5063555240631104, 0.7699047923088074, 0.7301366329193115, 0.5674024224281311, 0.24870021641254425, 0.09048978984355927, 0.18454769253730774, 0.3267320692539215, 0.3418380320072174, 0.4947334825992584, 0.6352496147155762, 0.3723985552787781, 0.20935961604118347, 0.3526178002357483, 0.13453376293182373, 0.25623250007629395, 0.3446443974971771, 0.2943919599056244, 0.3136601448059082, 0.523036003112793, 0.2692812979221344, 0.4259060025215149, 0.2789785861968994, 0.4868479371070862, 0.617822527885437, 0.8760510087013245, 0.8194908499717712, 0.5048887729644775, 0.6182512044906616, 0.5946313142776489, 0.5561328530311584, 0.5420531034469604, 0.19005301594734192, 0.1894632875919342]</t>
+          <t>[0.3502887189388275, 0.7126713991165161, 0.5844391584396362, 0.3467745780944824, 0.4325217604637146, 0.3105550706386566, 0.48352760076522827, 0.5481563210487366, 0.6326760053634644, 0.2725631594657898, 0.4261023998260498, 0.6139243841171265, 0.3653567135334015, 0.27585870027542114, 0.4526832401752472, 0.6699408292770386, 0.3950430154800415, 0.3749600648880005, 0.7325947284698486, 0.7742771506309509, 0.5263749361038208, 0.3351497948169708, 0.5688852071762085, 0.6635070443153381, 0.5428925156593323, 0.6725978255271912, 0.3572048246860504, 0.5410328507423401, 0.5785425901412964, 0.6264515519142151, 0.7696704864501953, 0.6987459063529968, 0.6738068461418152, 0.8345972895622253, 0.8763574361801147, 0.7168081402778625, 0.6342695355415344, 0.6745922565460205, 0.6445783376693726, 0.8726913928985596, 0.7061323523521423, 0.8694370985031128, 0.837805986404419, 0.501375675201416, 0.6044883131980896, 0.851097047328949, 0.7767875790596008, 0.46428799629211426, 0.49644356966018677, 0.4582327902317047, 0.7307249903678894, 0.7453152537345886, 0.490409255027771, 0.4472065567970276, 0.22842493653297424, 0.04445957392454147, 0.5434303879737854, 0.31266114115715027, 0.225572407245636, 0.5548372864723206, 0.5563514828681946, 0.5912744998931885, 0.49099472165107727, 0.6592817306518555, 0.6962916254997253, 0.7547948956489563, 0.648601233959198, 0.43020135164260864, 0.3243737816810608, 0.12407281249761581, 0.26700663566589355, 0.16123007237911224, 0.287774920463562, 0.5351468324661255, 0.401119202375412, 0.5138048529624939, 0.20594361424446106, 0.22923274338245392, 0.3697773516178131, 0.49982866644859314, 0.48956534266471863, 0.782172679901123, 0.25264865159988403, 0.45447325706481934, 0.590166449546814, 0.6559945940971375, 0.5419833660125732, 0.4253319203853607, 0.4426964819431305, 0.1665136069059372, 0.3399815857410431, 0.5742725133895874, 0.4475262761116028, 0.28227168321609497, 0.1319267302751541, 0.04678624868392944, 0.07552282512187958, 0.16766871511936188, 0.2015577107667923, 0.24242548644542694, 0.32882100343704224, 0.19575832784175873, 0.08149036020040512, 0.18081028759479523, 0.06666931509971619, 0.13914915919303894, 0.226721853017807, 0.22728385031223297, 0.23231932520866394, 0.40678316354751587, 0.19371262192726135, 0.4507536292076111, 0.19361154735088348, 0.35096219182014465, 0.5460015535354614, 0.8223837018013, 0.8184191584587097, 0.4565613269805908, 0.4835425615310669, 0.4104761481285095, 0.407578706741333, 0.5109453201293945, 0.12036047130823135, 0.12014900147914886]</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.9743452668190002</v>
+        <v>0.8763574361801147</v>
       </c>
       <c r="F138" t="n">
         <v>1</v>
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0.7089460999995936</v>
+        <v>0.7173246000020299</v>
       </c>
       <c r="J138" t="n">
-        <v>0.005717307258061239</v>
+        <v>0.005784875806467983</v>
       </c>
     </row>
     <row r="139">
@@ -6085,11 +6085,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[0.31151604652404785, 0.10970927029848099, 0.06213473528623581, 0.08888796716928482, 0.07170014828443527, 0.0814189538359642, 0.09379219263792038, 0.10404045879840851, 0.1432323455810547, 0.2037312388420105, 0.0837341919541359, 0.09115011990070343, 0.10949601978063583, 0.12225648015737534, 0.07635540515184402, 0.18006765842437744, 0.20427273213863373, 0.24870245158672333, 0.19337822496891022, 0.35576337575912476, 0.16829374432563782, 0.14298632740974426, 0.18542766571044922, 0.13137230277061462, 0.10948190093040466, 0.15791143476963043, 0.09483758360147476, 0.1744968742132187, 0.08838710188865662, 0.23921138048171997, 0.18008816242218018, 0.15525856614112854, 0.4596438705921173, 0.3576907813549042, 0.4913189113140106, 0.3690156042575836, 0.6399692296981812, 0.5767677426338196, 0.5841872692108154, 0.29235273599624634, 0.21713288128376007, 0.163084015250206, 0.11979241669178009, 0.1264677494764328, 0.2206774652004242, 0.46817514300346375, 0.2512614130973816, 0.18663334846496582, 0.1764393299818039, 0.21851353347301483, 0.36701926589012146, 0.31670957803726196, 0.2129221260547638, 0.23594824969768524, 0.16331562399864197, 0.13730661571025848, 0.14824089407920837, 0.18703436851501465, 0.14977461099624634, 0.15229082107543945, 0.10957996547222137, 0.11672225594520569, 0.11872303485870361, 0.1965472400188446, 0.11328580975532532, 0.143546462059021, 0.10834838449954987, 0.12098544090986252, 0.19413504004478455, 0.5538578629493713, 0.30557456612586975, 0.36414480209350586, 0.27536633610725403, 0.6064654588699341, 0.6885265707969666, 0.15699402987957, 0.18347519636154175, 0.25238990783691406, 0.18041417002677917, 0.3204096555709839, 0.29928311705589294, 0.2594589591026306, 0.1333499699831009, 0.11890482157468796, 0.14356328547000885, 0.1310073584318161, 0.0865408405661583, 0.0743536427617073, 0.07762222737073898, 0.11451565474271774, 0.1910969763994217, 0.27348873019218445, 0.3128463327884674, 0.3303823471069336, 0.7566633820533752, 0.33205941319465637, 0.12858077883720398, 0.1076708659529686, 0.17354372143745422, 0.11614710837602615, 0.08250590413808823, 0.11339975148439407, 0.1843782514333725, 0.13154679536819458, 0.13238045573234558, 0.09312057495117188, 0.09834368526935577, 0.1779104322195053, 0.6410045623779297, 0.21966609358787537, 0.06699411571025848, 0.07503590732812881, 0.12415512651205063, 0.2213224321603775, 0.23285460472106934, 0.1329578459262848, 0.08977416157722473, 0.13174830377101898, 0.11877218633890152, 0.09494166076183319, 0.05829845368862152, 0.04145970568060875, 0.041413433849811554, 0.0418444499373436]</t>
+          <t>[0.34104567766189575, 0.07681457698345184, 0.03300892561674118, 0.0694277286529541, 0.025851944461464882, 0.05920916795730591, 0.12073617428541183, 0.20471897721290588, 0.20132628083229065, 0.22356177866458893, 0.05289827659726143, 0.06971894204616547, 0.0861315056681633, 0.08480099588632584, 0.047644589096307755, 0.24741216003894806, 0.23167011141777039, 0.2511802315711975, 0.17689722776412964, 0.28622230887413025, 0.10135454684495926, 0.08678197115659714, 0.1760193258523941, 0.07722770422697067, 0.06736758351325989, 0.09608132392168045, 0.05370704457163811, 0.07106202095746994, 0.03203978016972542, 0.18566328287124634, 0.12549355626106262, 0.05220526456832886, 0.6291722059249878, 0.2880145013332367, 0.41549620032310486, 0.27319151163101196, 0.7000438570976257, 0.8745999336242676, 0.8329392671585083, 0.24157345294952393, 0.10474633425474167, 0.06094493716955185, 0.06798914074897766, 0.061268795281648636, 0.12805326282978058, 0.5058760046958923, 0.21658797562122345, 0.1447989046573639, 0.12297139316797256, 0.10668543726205826, 0.2763643264770508, 0.21127697825431824, 0.06136849522590637, 0.11473740637302399, 0.059865400195121765, 0.05220206826925278, 0.06269852072000504, 0.11149532347917557, 0.09026329964399338, 0.06683749705553055, 0.04531048610806465, 0.056053195148706436, 0.04413226991891861, 0.08686110377311707, 0.04616986960172653, 0.0817776620388031, 0.0449381060898304, 0.055453065782785416, 0.34230589866638184, 0.5849204659461975, 0.243064746260643, 0.3466711640357971, 0.21978190541267395, 0.8835064172744751, 0.9275566339492798, 0.11560668796300888, 0.12992526590824127, 0.2393180876970291, 0.14154104888439178, 0.5528087615966797, 0.4113580584526062, 0.19556136429309845, 0.06295842677354813, 0.0566290020942688, 0.062015190720558167, 0.05044916272163391, 0.01734156720340252, 0.012661556713283062, 0.028959423303604126, 0.04143065586686134, 0.08280257135629654, 0.14029555022716522, 0.18053407967090607, 0.33485281467437744, 0.8369338512420654, 0.39862295985221863, 0.10443013906478882, 0.07918529957532883, 0.08401088416576385, 0.031211206689476967, 0.02776476740837097, 0.043080754578113556, 0.06129147857427597, 0.042345963418483734, 0.09263236820697784, 0.027752958238124847, 0.021077027544379234, 0.05778410658240318, 0.8784170746803284, 0.18213523924350739, 0.019315486773848534, 0.020343558862805367, 0.03198303282260895, 0.1350092589855194, 0.0827496275305748, 0.03206370398402214, 0.023785840719938278, 0.035615481436252594, 0.04402892664074898, 0.02620999701321125, 0.01596616953611374, 0.011393966153264046, 0.009883862920105457, 0.009994236752390862]</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.7566633820533752</v>
+        <v>0.9275566339492798</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
@@ -6103,10 +6103,10 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0.7032217000087257</v>
+        <v>0.7027990000060527</v>
       </c>
       <c r="J139" t="n">
-        <v>0.005671142742005853</v>
+        <v>0.005667733871016553</v>
       </c>
     </row>
     <row r="140">
@@ -6125,11 +6125,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>[0.2564246952533722, 0.14254258573055267, 0.12502826750278473, 0.10917489975690842, 0.21768461167812347, 0.12834171950817108, 0.2630581557750702, 0.29240456223487854, 0.3452392518520355, 0.40568333864212036, 0.24266520142555237, 0.3516370952129364, 0.2437979131937027, 0.2213500291109085, 0.22338038682937622, 0.1937282830476761, 0.2278941124677658, 0.09117209166288376, 0.10607970505952835, 0.1452987790107727, 0.43638843297958374, 0.6161585450172424, 0.7410936951637268, 0.3893739879131317, 0.2761503756046295, 0.2520076632499695, 0.25730594992637634, 0.34494853019714355, 0.5083504915237427, 0.27271923422813416, 0.4018149971961975, 0.15610116720199585, 0.3203910291194916, 0.30848219990730286, 0.26604166626930237, 0.15421055257320404, 0.0991189107298851, 0.18828268349170685, 0.3332578241825104, 0.3875877559185028, 0.553699791431427, 0.7947710156440735, 0.7519710063934326, 0.6808786988258362, 0.6861065626144409, 0.7521858811378479, 0.6165826320648193, 0.4552537202835083, 0.3561340868473053, 0.38683488965034485, 0.31941428780555725, 0.2665609121322632, 0.18614737689495087, 0.18457573652267456, 0.15923047065734863, 0.27123579382896423, 0.41106319427490234, 0.5530805587768555, 0.1532965898513794, 0.21290017664432526, 0.24081391096115112, 0.5389515161514282, 0.5415552258491516, 0.41876962780952454, 0.28165239095687866, 0.41000062227249146, 0.23256108164787292, 0.23628777265548706, 0.19601787626743317, 0.41982927918434143, 0.4729679822921753, 0.5536391735076904, 0.5976582765579224, 0.3154284656047821, 0.4600042998790741, 0.2955184578895569, 0.7971111536026001, 0.45535600185394287, 0.3824046552181244, 0.6038278937339783, 0.35944321751594543, 0.5922101140022278, 0.39120417833328247, 0.3309919238090515, 0.7696707844734192, 0.4835277497768402, 0.581246554851532, 0.6421630382537842, 0.6551893949508667, 0.34176257252693176, 0.39431852102279663, 0.1529192179441452, 0.17318584024906158, 0.043871063739061356, 0.08643403649330139, 0.0733986496925354, 0.058710236102342606, 0.0682782232761383, 0.2894033193588257, 0.541530191898346, 0.17944969236850739, 0.47938480973243713, 0.2550327479839325, 0.20871198177337646, 0.13806580007076263, 0.17084428668022156, 0.20279467105865479, 0.17090289294719696, 0.2143935263156891, 0.24416010081768036, 0.1488959938287735, 0.3503137528896332, 0.348003089427948, 0.360992431640625, 0.2997864782810211, 0.2956465184688568, 0.2681697607040405, 0.37331733107566833, 0.2249724417924881, 0.1304631233215332, 0.15139257907867432, 0.4643223285675049, 0.2323145866394043, 0.23037762939929962]</t>
+          <t>[0.11878220736980438, 0.06752334535121918, 0.07049360871315002, 0.07802373915910721, 0.15506406128406525, 0.09581302851438522, 0.19677291810512543, 0.2350018322467804, 0.23356854915618896, 0.33973661065101624, 0.1720663458108902, 0.2735605239868164, 0.17640843987464905, 0.14060693979263306, 0.14962051808834076, 0.1465783268213272, 0.20870280265808105, 0.053092632442712784, 0.06525711715221405, 0.08904549479484558, 0.27706971764564514, 0.4993392825126648, 0.6705656051635742, 0.18679510056972504, 0.08877318352460861, 0.08390000462532043, 0.07928270846605301, 0.17952339351177216, 0.25559884309768677, 0.155467227101326, 0.18494649231433868, 0.062341127544641495, 0.11216321587562561, 0.10428488254547119, 0.11203504353761673, 0.06464990973472595, 0.04998202621936798, 0.10428689420223236, 0.18080373108386993, 0.3544132709503174, 0.3871007561683655, 0.5176418423652649, 0.6611061096191406, 0.4756353497505188, 0.4853454530239105, 0.48798197507858276, 0.36317288875579834, 0.2462950497865677, 0.15754468739032745, 0.14966312050819397, 0.17063719034194946, 0.14697909355163574, 0.10081430524587631, 0.09448806196451187, 0.08026733994483948, 0.21186789870262146, 0.23188550770282745, 0.4489192068576813, 0.04697524011135101, 0.08460801839828491, 0.0889786034822464, 0.24331745505332947, 0.29581430554389954, 0.167363703250885, 0.08854032307863235, 0.1310006082057953, 0.06605216860771179, 0.05515046417713165, 0.07758710533380508, 0.12270484864711761, 0.19715581834316254, 0.22408176958560944, 0.26642441749572754, 0.09124185889959335, 0.14449046552181244, 0.0869264006614685, 0.37678757309913635, 0.1293012946844101, 0.16887027025222778, 0.35373806953430176, 0.2196003645658493, 0.4589942693710327, 0.26711180806159973, 0.16773168742656708, 0.5089046955108643, 0.1777404099702835, 0.3266257345676422, 0.45609888434410095, 0.5552535653114319, 0.16795140504837036, 0.17271161079406738, 0.04205735772848129, 0.05069727078080177, 0.014547646045684814, 0.02672651596367359, 0.022499078884720802, 0.014486257918179035, 0.016346408054232597, 0.2257750779390335, 0.4014431834220886, 0.1025468185544014, 0.40734201669692993, 0.2059711217880249, 0.18218091130256653, 0.1065065860748291, 0.18614886701107025, 0.11595100909471512, 0.11576061695814133, 0.1794348657131195, 0.22247277200222015, 0.16459864377975464, 0.2276969999074936, 0.2169884443283081, 0.26406359672546387, 0.26365113258361816, 0.3699880838394165, 0.18833059072494507, 0.27505603432655334, 0.22562964260578156, 0.07930344343185425, 0.10265365988016129, 0.3437316119670868, 0.14605368673801422, 0.14432209730148315]</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.7971111536026001</v>
+        <v>0.6705656051635742</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
@@ -6143,10 +6143,10 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>0.7151019000157248</v>
+        <v>0.7064410000020871</v>
       </c>
       <c r="J140" t="n">
-        <v>0.005766950806578426</v>
+        <v>0.005697104838726509</v>
       </c>
     </row>
     <row r="141">
@@ -6165,11 +6165,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>[0.44827982783317566, 0.1098400205373764, 0.15913544595241547, 0.22749373316764832, 0.15953177213668823, 0.06913357973098755, 0.1250416487455368, 0.06964203715324402, 0.11953699588775635, 0.10065023601055145, 0.09770875424146652, 0.09768491238355637, 0.11210868507623672, 0.0901351198554039, 0.14310790598392487, 0.14346569776535034, 0.3513103127479553, 0.20262734591960907, 0.9604482650756836, 0.9898765683174133, 0.9789938926696777, 0.9948804378509521, 0.9907397031784058, 0.9957048296928406, 0.9952937960624695, 0.9920921921730042, 0.9896905422210693, 0.9876400828361511, 0.9666498899459839, 0.9683271050453186, 0.7617507576942444, 0.6390506029129028, 0.7060332894325256, 0.9430794715881348, 0.9461410641670227, 0.9914599657058716, 0.9842909574508667, 0.9853969216346741, 0.9900767207145691, 0.9878880381584167, 0.9677423238754272, 0.9757424592971802, 0.9828936457633972, 0.9266006350517273, 0.37435075640678406, 0.7420784831047058, 0.6948180794715881, 0.8368523716926575, 0.6129609942436218, 0.33757200837135315, 0.22840532660484314, 0.19178399443626404, 0.6324978470802307, 0.6167536377906799, 0.9621334671974182, 0.9730377197265625, 0.9593544602394104, 0.9822485446929932, 0.9938170313835144, 0.9843448996543884, 0.8905177116394043, 0.8979911804199219, 0.953306257724762, 0.9802237749099731, 0.9681025743484497, 0.6778686046600342, 0.46664169430732727, 0.6154215335845947, 0.8159224987030029, 0.985089123249054, 0.9948427081108093, 0.9954732060432434, 0.9974253177642822, 0.9952442049980164, 0.9951217770576477, 0.9872056245803833, 0.9866397976875305, 0.9801201224327087, 0.9559664130210876, 0.9831026196479797, 0.994471549987793, 0.9881667494773865, 0.9949806332588196, 0.9955522418022156, 0.9741714596748352, 0.9317997097969055, 0.94395911693573, 0.9553986191749573, 0.9824188351631165, 0.9889035820960999, 0.9371123313903809, 0.98990797996521, 0.9954835176467896, 0.9203121066093445, 0.7446545958518982, 0.7402894496917725, 0.6034455895423889, 0.7324101328849792, 0.6279045343399048, 0.7218237519264221, 0.4797022044658661, 0.6201935410499573, 0.9157556295394897, 0.960220456123352, 0.9685816764831543, 0.9917646050453186, 0.9436326026916504, 0.9701416492462158, 0.9713248610496521, 0.8764561414718628, 0.9632065296173096, 0.9721901416778564, 0.993618369102478, 0.9826761484146118, 0.9967473745346069, 0.9632853865623474, 0.7675930261611938, 0.47203919291496277, 0.6308742761611938, 0.47559377551078796, 0.4397498071193695, 0.43144428730010986, 0.6619367599487305, 0.5380635857582092, 0.5348971486091614]</t>
+          <t>[0.7957941889762878, 0.036080874502658844, 0.06275205314159393, 0.09076786786317825, 0.04736781492829323, 0.014396165497601032, 0.044477976858615875, 0.015113605186343193, 0.042698491364717484, 0.034833066165447235, 0.019884666427969933, 0.022812139242887497, 0.027402199804782867, 0.024940775707364082, 0.0483182854950428, 0.06416314095258713, 0.14300575852394104, 0.12590035796165466, 0.9771933555603027, 0.9914754629135132, 0.9798173308372498, 0.9947185516357422, 0.9850925803184509, 0.9940078258514404, 0.9929460883140564, 0.9891166090965271, 0.9869041442871094, 0.9877073168754578, 0.9456884264945984, 0.9183576703071594, 0.4879196584224701, 0.4575731158256531, 0.6245563626289368, 0.9129973649978638, 0.9455923438072205, 0.9794155359268188, 0.9702519178390503, 0.9653968214988708, 0.9851614236831665, 0.979273796081543, 0.9392482042312622, 0.9545392394065857, 0.9708074927330017, 0.856584370136261, 0.17069539427757263, 0.6184149980545044, 0.480044424533844, 0.7791117429733276, 0.5728821754455566, 0.21707747876644135, 0.12211324274539948, 0.10669541358947754, 0.4765647053718567, 0.4571700394153595, 0.9692944884300232, 0.9560191035270691, 0.9232680201530457, 0.9743602871894836, 0.9953734278678894, 0.9895119071006775, 0.9069057703018188, 0.8907411098480225, 0.9295796751976013, 0.9789101481437683, 0.9576384425163269, 0.5527696013450623, 0.2601012885570526, 0.46191486716270447, 0.832146942615509, 0.9884458780288696, 0.9954160451889038, 0.9968200922012329, 0.9982324242591858, 0.9958240985870361, 0.9944281578063965, 0.9799055457115173, 0.9833295941352844, 0.968062698841095, 0.9046788811683655, 0.9822930693626404, 0.9948433637619019, 0.9847115278244019, 0.9918558597564697, 0.9902951717376709, 0.9235913753509521, 0.8307796120643616, 0.9474867582321167, 0.9484477639198303, 0.9641212821006775, 0.9670054912567139, 0.8326737880706787, 0.9771056175231934, 0.987371563911438, 0.7904740571975708, 0.43878868222236633, 0.39382508397102356, 0.3034139573574066, 0.4235159456729889, 0.29500067234039307, 0.5330296158790588, 0.26099449396133423, 0.35606515407562256, 0.7872093915939331, 0.8994061350822449, 0.9341112971305847, 0.9844948649406433, 0.8763487339019775, 0.9207105040550232, 0.9341771602630615, 0.8144210577011108, 0.9076009392738342, 0.8951050043106079, 0.9702010750770569, 0.9457314014434814, 0.9947583079338074, 0.9472606778144836, 0.6551467776298523, 0.22064991295337677, 0.3039732575416565, 0.20160958170890808, 0.15077975392341614, 0.22009560465812683, 0.3458121120929718, 0.29519686102867126, 0.292218416929245]</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.9974253177642822</v>
+        <v>0.9982324242591858</v>
       </c>
       <c r="F141" t="n">
         <v>1</v>
@@ -6183,10 +6183,10 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>0.7148706000007223</v>
+        <v>0.7181379999965429</v>
       </c>
       <c r="J141" t="n">
-        <v>0.005718964800005779</v>
+        <v>0.005745103999972343</v>
       </c>
     </row>
     <row r="142">
@@ -6205,11 +6205,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>[0.11405566334724426, 0.12872925400733948, 0.10062962025403976, 0.28425759077072144, 0.3080591857433319, 0.8249097466468811, 0.47550079226493835, 0.7728095650672913, 0.9906736016273499, 0.9809060096740723, 0.9906798005104065, 0.9895117878913879, 0.9973071813583374, 0.9882127642631531, 0.9938997030258179, 0.9896485209465027, 0.995442271232605, 0.9933110475540161, 0.99289870262146, 0.9939261078834534, 0.9785353541374207, 0.9737982749938965, 0.9878892302513123, 0.9943135976791382, 0.9948839545249939, 0.993485152721405, 0.9962211847305298, 0.9973413348197937, 0.9978190660476685, 0.9980846643447876, 0.9975640773773193, 0.9977501034736633, 0.9969303011894226, 0.998599112033844, 0.9962724447250366, 0.9976931214332581, 0.9986636638641357, 0.9942052960395813, 0.9830647110939026, 0.9908393025398254, 0.9828819036483765, 0.9914166331291199, 0.9947876930236816, 0.9982402324676514, 0.9925682544708252, 0.9966939687728882, 0.9968724846839905, 0.99798583984375, 0.9985200762748718, 0.9984366297721863, 0.9973345994949341, 0.991051197052002, 0.9820911288261414, 0.9921446442604065, 0.9942975640296936, 0.9894763231277466, 0.9801278114318848, 0.9603275656700134, 0.9682028293609619, 0.9629674553871155, 0.8645502328872681, 0.9351637959480286, 0.8107271790504456, 0.9518057703971863, 0.9332549571990967, 0.9372166991233826, 0.967082142829895, 0.996547281742096, 0.9784705638885498, 0.9931633472442627, 0.9825780987739563, 0.9864733219146729, 0.9907757639884949, 0.9870413541793823, 0.995381236076355, 0.9951860308647156, 0.9920215010643005, 0.98624587059021, 0.9885268211364746, 0.9757208824157715, 0.9901579022407532, 0.996644914150238, 0.9934642910957336, 0.9608615636825562, 0.995595395565033, 0.9963120818138123, 0.9964213371276855, 0.9949116110801697, 0.9974290728569031, 0.9905951023101807, 0.9975447058677673, 0.9976650476455688, 0.9976060390472412, 0.9977611303329468, 0.9980792999267578, 0.9975976347923279, 0.9937720894813538, 0.9974229335784912, 0.9972358345985413, 0.9977774024009705, 0.99015873670578, 0.993680477142334, 0.9941750168800354, 0.9931093454360962, 0.994629442691803, 0.9912891387939453, 0.9820687174797058, 0.9952042102813721, 0.994286835193634, 0.9917119741439819, 0.9941799640655518, 0.9982492923736572, 0.9979457259178162, 0.9977534413337708, 0.9984186887741089, 0.9982549548149109, 0.9977370500564575, 0.9989814162254333, 0.9987733960151672, 0.9973506927490234, 0.9976632595062256, 0.9961552023887634, 0.996816098690033, 0.9967855215072632]</t>
+          <t>[0.030572310090065002, 0.03628787770867348, 0.04981336370110512, 0.11140727996826172, 0.12176476418972015, 0.48303279280662537, 0.15018360316753387, 0.428284615278244, 0.9725703597068787, 0.9590349793434143, 0.9767433404922485, 0.9806453585624695, 0.9956004619598389, 0.9581074118614197, 0.9863415360450745, 0.9718989133834839, 0.9912399649620056, 0.990646243095398, 0.9891226887702942, 0.9871736764907837, 0.9539893865585327, 0.9681049585342407, 0.9828377962112427, 0.9869548678398132, 0.9845077991485596, 0.9902796149253845, 0.9942358136177063, 0.9957799911499023, 0.9955356121063232, 0.9962144494056702, 0.995434582233429, 0.9951136708259583, 0.9950805902481079, 0.9982070922851562, 0.995245635509491, 0.9973714351654053, 0.998895525932312, 0.9923506379127502, 0.9854084849357605, 0.9909480214118958, 0.9840859174728394, 0.9951032400131226, 0.9951045513153076, 0.9985893368721008, 0.9949690699577332, 0.9978506565093994, 0.9985087513923645, 0.9986104965209961, 0.9985001087188721, 0.998456597328186, 0.9964458346366882, 0.9847027659416199, 0.9819913506507874, 0.986922562122345, 0.9918140172958374, 0.982139527797699, 0.9736841320991516, 0.9415650367736816, 0.9515386819839478, 0.9675503373146057, 0.8298994898796082, 0.9480315446853638, 0.8558824062347412, 0.9511646032333374, 0.8866127133369446, 0.9100149869918823, 0.9429500102996826, 0.9927505254745483, 0.9624350666999817, 0.9886965751647949, 0.9667475819587708, 0.9817589521408081, 0.9859685897827148, 0.9733155965805054, 0.9918020367622375, 0.9959914088249207, 0.9885911345481873, 0.9790465831756592, 0.9786602854728699, 0.9474930763244629, 0.9723411798477173, 0.990470290184021, 0.9811936020851135, 0.9106817841529846, 0.9916604161262512, 0.9966788291931152, 0.9949615001678467, 0.9940051436424255, 0.9969260096549988, 0.9858314990997314, 0.9963263869285583, 0.9969069361686707, 0.9965215921401978, 0.9978415966033936, 0.9971449971199036, 0.9969387054443359, 0.9931803941726685, 0.9974572062492371, 0.9977362155914307, 0.9968159794807434, 0.9847822785377502, 0.9939019680023193, 0.9912113547325134, 0.9891037940979004, 0.9930098056793213, 0.97404545545578, 0.9626365900039673, 0.9869036674499512, 0.987505316734314, 0.9883947372436523, 0.9927835464477539, 0.9978477954864502, 0.9980721473693848, 0.9954468607902527, 0.9983592629432678, 0.9976853132247925, 0.9966332316398621, 0.9983547329902649, 0.9974330067634583, 0.996581494808197, 0.9943528175354004, 0.9898659586906433, 0.9930845499038696, 0.9929547905921936]</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.9989814162254333</v>
+        <v>0.998895525932312</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
@@ -6223,10 +6223,10 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0.7047169999859761</v>
+        <v>0.7055080999998609</v>
       </c>
       <c r="J142" t="n">
-        <v>0.00568320161279013</v>
+        <v>0.005689581451611781</v>
       </c>
     </row>
     <row r="143">
@@ -6245,11 +6245,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>[0.9772276282310486, 0.9442161321640015, 0.9858128428459167, 0.9085626602172852, 0.8111398816108704, 0.948280394077301, 0.9325079917907715, 0.9615504145622253, 0.9030140042304993, 0.964892566204071, 0.9285677075386047, 0.9566867351531982, 0.9400811195373535, 0.9752686023712158, 0.9918036460876465, 0.9897996187210083, 0.9625681042671204, 0.9694792032241821, 0.9306601881980896, 0.9782475829124451, 0.9856804609298706, 0.9662326574325562, 0.9415681958198547, 0.9074481129646301, 0.9178082942962646, 0.9826614260673523, 0.9844356179237366, 0.9798945784568787, 0.9834813475608826, 0.9841338396072388, 0.9829976558685303, 0.9907541275024414, 0.9839164614677429, 0.9421566128730774, 0.9323335886001587, 0.959967315196991, 0.18856854736804962, 0.23577161133289337, 0.28327247500419617, 0.5793887376785278, 0.7134800553321838, 0.7842075228691101, 0.5479540824890137, 0.7691634893417358, 0.9360929727554321, 0.9083031415939331, 0.9621025919914246, 0.6123335361480713, 0.9364498257637024, 0.9829157590866089, 0.9947322607040405, 0.9969587326049805, 0.9936496615409851, 0.99308842420578, 0.991465151309967, 0.9917934536933899, 0.9938103556632996, 0.9929346442222595, 0.982038676738739, 0.9241483211517334, 0.7600396871566772, 0.520494818687439, 0.6877791285514832, 0.9549487829208374, 0.9690772891044617, 0.9908498525619507, 0.9934480786323547, 0.9907214641571045, 0.9963143467903137, 0.9947829842567444, 0.9951725602149963, 0.9954485297203064, 0.9945488572120667, 0.9976255297660828, 0.9867936968803406, 0.9663093686103821, 0.9514609575271606, 0.9947850108146667, 0.9907302260398865, 0.9902209043502808, 0.9911864399909973, 0.9896989464759827, 0.9925525188446045, 0.9918110370635986, 0.97395259141922, 0.9667275547981262, 0.954351007938385, 0.9851562976837158, 0.9954633116722107, 0.9948678016662598, 0.9895436763763428, 0.9846550226211548, 0.916158139705658, 0.9782338738441467, 0.9234890341758728, 0.88559889793396, 0.9693204760551453, 0.8744629621505737, 0.9315993785858154, 0.9860225915908813, 0.9378457069396973, 0.9127737283706665, 0.9654471278190613, 0.7697113156318665, 0.7273448705673218, 0.85811448097229, 0.932336688041687, 0.956965982913971, 0.925588846206665, 0.9087928533554077, 0.7964089512825012, 0.8124963641166687, 0.8010019063949585, 0.41013211011886597, 0.10896680504083633, 0.2961791753768921, 0.4403187334537506, 0.7324954271316528, 0.732922375202179]</t>
+          <t>[0.9821583032608032, 0.9762538075447083, 0.9922664761543274, 0.9690458178520203, 0.8905624151229858, 0.9551974534988403, 0.9583850502967834, 0.9715956449508667, 0.9151980876922607, 0.9879807829856873, 0.9720751643180847, 0.9733308553695679, 0.9528471231460571, 0.9806749224662781, 0.9950594902038574, 0.9926482439041138, 0.9757876992225647, 0.9864632487297058, 0.9535785913467407, 0.9858458638191223, 0.9851314425468445, 0.9829346537590027, 0.943753719329834, 0.9578922390937805, 0.982180118560791, 0.9943335056304932, 0.9943645000457764, 0.9911108016967773, 0.9955461025238037, 0.9935370087623596, 0.9956808090209961, 0.9973336458206177, 0.9948698282241821, 0.9856070280075073, 0.9803756475448608, 0.9814821481704712, 0.23775212466716766, 0.31448712944984436, 0.28422391414642334, 0.8078382611274719, 0.9192752242088318, 0.9498795866966248, 0.8735672831535339, 0.8965124487876892, 0.976810097694397, 0.940237820148468, 0.9776100516319275, 0.6183785200119019, 0.9768408536911011, 0.9904208183288574, 0.9967679977416992, 0.9976213574409485, 0.993640124797821, 0.9956523776054382, 0.9916763305664062, 0.9939093589782715, 0.994655966758728, 0.9963051080703735, 0.992158055305481, 0.9408880472183228, 0.8715603351593018, 0.6707280278205872, 0.8359278440475464, 0.9767224192619324, 0.9851417541503906, 0.9959076642990112, 0.9960533380508423, 0.9936097860336304, 0.9973775148391724, 0.9975590705871582, 0.9983592629432678, 0.9985017776489258, 0.9974859952926636, 0.9986898303031921, 0.9947171807289124, 0.9752698540687561, 0.9773110747337341, 0.9975372552871704, 0.9943968057632446, 0.9928212761878967, 0.9928747415542603, 0.9875369668006897, 0.9921085238456726, 0.9900292754173279, 0.9648345112800598, 0.9635249376296997, 0.9467881917953491, 0.9844821691513062, 0.995665967464447, 0.995660126209259, 0.9907979965209961, 0.9938483834266663, 0.9635511636734009, 0.9929987192153931, 0.9415151476860046, 0.9545481204986572, 0.983850359916687, 0.9596877098083496, 0.982810378074646, 0.9972238540649414, 0.987307071685791, 0.9655377268791199, 0.9905775785446167, 0.9242233633995056, 0.9213671088218689, 0.9764447808265686, 0.9695424437522888, 0.9708277583122253, 0.972786545753479, 0.9519209265708923, 0.9055473804473877, 0.9088985323905945, 0.9310019612312317, 0.4899609386920929, 0.11062496155500412, 0.38976502418518066, 0.5551561117172241, 0.712403416633606, 0.7123668193817139]</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.9976255297660828</v>
+        <v>0.9986898303031921</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
@@ -6263,10 +6263,10 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0.6868837000220083</v>
+        <v>0.7018253999995068</v>
       </c>
       <c r="J143" t="n">
-        <v>0.005772131932958053</v>
+        <v>0.005897692436970645</v>
       </c>
     </row>
     <row r="144">
@@ -6285,11 +6285,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>[0.20311303436756134, 0.28613564372062683, 0.6406345963478088, 0.39832964539527893, 0.8743083477020264, 0.7872911095619202, 0.7155978679656982, 0.9357975125312805, 0.4839061200618744, 0.23407627642154694, 0.290462851524353, 0.428453654050827, 0.32928839325904846, 0.5174025893211365, 0.5607699751853943, 0.40251120924949646, 0.49246451258659363, 0.7822552919387817, 0.8151862621307373, 0.9308583736419678, 0.931709349155426, 0.6716658473014832, 0.7583450078964233, 0.8630979061126709, 0.9014297723770142, 0.9311012029647827, 0.9777596592903137, 0.9341250061988831, 0.6927773952484131, 0.9241979122161865, 0.9696248769760132, 0.9388324618339539, 0.9746622443199158, 0.7037481665611267, 0.9711580872535706, 0.9755682349205017, 0.9651613235473633, 0.9148218631744385, 0.5568496584892273, 0.9411132335662842, 0.8486365079879761, 0.9401885867118835, 0.8955727815628052, 0.8053705096244812, 0.7938862442970276, 0.8090149164199829, 0.8376237154006958, 0.8456348180770874, 0.9433785676956177, 0.9466568827629089, 0.96722412109375, 0.9344353079795837, 0.9465193152427673, 0.5196802616119385, 0.589228093624115, 0.564361572265625, 0.5938639640808105, 0.3231981098651886, 0.32536187767982483, 0.24977506697177887, 0.37155064940452576, 0.5614520311355591, 0.2325553297996521, 0.38771072030067444, 0.4069162607192993, 0.6295742392539978, 0.5946076512336731, 0.5839818716049194, 0.614117443561554, 0.8010549545288086, 0.792011559009552, 0.7598954439163208, 0.7144783735275269, 0.6801161766052246, 0.58371502161026, 0.3610614538192749, 0.47139957547187805, 0.381583034992218, 0.7427549958229065, 0.9132309556007385, 0.7436317801475525, 0.8645424842834473, 0.6844858527183533, 0.879580557346344, 0.886401891708374, 0.9231107234954834, 0.9377724528312683, 0.9429429173469543, 0.9225095510482788, 0.6304976344108582, 0.7606467604637146, 0.9214714765548706, 0.9887909889221191, 0.9909067153930664, 0.9940289258956909, 0.9744096398353577, 0.9945579767227173, 0.9680152535438538, 0.9310147762298584, 0.8267386555671692, 0.6754857301712036, 0.4668825566768646, 0.8234555721282959, 0.6570602655410767, 0.66640305519104, 0.7870867252349854, 0.8694371581077576, 0.8801773190498352, 0.7636894583702087, 0.9529288411140442, 0.970011830329895, 0.8013285994529724, 0.9820325970649719, 0.9665592312812805, 0.9104511141777039, 0.7972367405891418, 0.824545681476593, 0.7295105457305908, 0.7295653223991394]</t>
+          <t>[0.2995786964893341, 0.43181607127189636, 0.8287070393562317, 0.4867725968360901, 0.9204830527305603, 0.8577258586883545, 0.6899507641792297, 0.923234760761261, 0.49519237875938416, 0.15637725591659546, 0.2509081959724426, 0.38414525985717773, 0.25229713320732117, 0.5144665837287903, 0.7013108730316162, 0.25086891651153564, 0.532395601272583, 0.9366310238838196, 0.7776150703430176, 0.9636000990867615, 0.9581228494644165, 0.5978516936302185, 0.6723796129226685, 0.8323872685432434, 0.920533299446106, 0.9172301292419434, 0.9654222726821899, 0.9509628415107727, 0.6414705514907837, 0.963290274143219, 0.979619026184082, 0.9669051766395569, 0.9911786913871765, 0.8926490545272827, 0.9586760401725769, 0.9730682373046875, 0.9719916582107544, 0.9218431115150452, 0.6602683067321777, 0.9552772045135498, 0.8195422887802124, 0.9254812002182007, 0.8886899352073669, 0.8367187976837158, 0.8208522796630859, 0.8219884037971497, 0.8531469106674194, 0.8362497687339783, 0.9554979801177979, 0.9643391370773315, 0.9778550863265991, 0.9741014242172241, 0.9648763537406921, 0.5991036295890808, 0.6871253848075867, 0.4658491015434265, 0.6673208475112915, 0.31153568625450134, 0.4287249445915222, 0.3448423445224762, 0.5432738661766052, 0.8341317772865295, 0.2605544626712799, 0.4703890383243561, 0.5830085277557373, 0.7718891501426697, 0.7678222060203552, 0.6727966070175171, 0.7024239301681519, 0.8024987578392029, 0.8644693493843079, 0.8828437924385071, 0.8347444534301758, 0.8199096322059631, 0.6079381704330444, 0.31709274649620056, 0.5301544666290283, 0.31989118456840515, 0.7233266830444336, 0.8924864530563354, 0.8248045444488525, 0.8600025773048401, 0.6491442918777466, 0.9055483937263489, 0.945564329624176, 0.952399730682373, 0.9488484859466553, 0.9682570099830627, 0.9517443180084229, 0.6675784587860107, 0.849035918712616, 0.8665172457695007, 0.9846434593200684, 0.9847571849822998, 0.9947952628135681, 0.9837417602539062, 0.9963124394416809, 0.9822297096252441, 0.960567057132721, 0.8591978549957275, 0.7287089824676514, 0.6056864261627197, 0.8957079648971558, 0.8467414379119873, 0.7937821745872498, 0.9108717441558838, 0.925452709197998, 0.8786754012107849, 0.786453902721405, 0.9525207281112671, 0.9635562300682068, 0.8977109789848328, 0.9823854565620422, 0.9789754748344421, 0.9361995458602905, 0.8854203820228577, 0.9237460494041443, 0.8148208856582642, 0.8148167133331299]</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.9945579767227173</v>
+        <v>0.9963124394416809</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
@@ -6303,10 +6303,10 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0.6864423000079114</v>
+        <v>0.6781840000039665</v>
       </c>
       <c r="J144" t="n">
-        <v>0.005768422689142113</v>
+        <v>0.005699025210117365</v>
       </c>
     </row>
     <row r="145">
@@ -6325,11 +6325,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>[0.07825116813182831, 0.07925895601511002, 0.09120725840330124, 0.06684960424900055, 0.07137531787157059, 0.06309867650270462, 0.07099972665309906, 0.07234438508749008, 0.10256035625934601, 0.09107208997011185, 0.07711876183748245, 0.4766577482223511, 0.5031063556671143, 0.3880521059036255, 0.3359938859939575, 0.3294631242752075, 0.6235600709915161, 0.15067896246910095, 0.3936850130558014, 0.4374362528324127, 0.7915409207344055, 0.37253084778785706, 0.7567924857139587, 0.8644790053367615, 0.8368947505950928, 0.7728981375694275, 0.57025545835495, 0.6541553139686584, 0.7843526601791382, 0.44898587465286255, 0.7856632471084595, 0.8077275156974792, 0.6037245392799377, 0.7469420433044434, 0.82643061876297, 0.8023293018341064, 0.776566207408905, 0.7612600922584534, 0.8511151671409607, 0.8584944605827332, 0.8238170742988586, 0.7869663238525391, 0.9554998278617859, 0.952029824256897, 0.9321191310882568, 0.9330035448074341, 0.8210194110870361, 0.7371261715888977, 0.7987474799156189, 0.906729519367218, 0.36812230944633484, 0.930303156375885, 0.912799060344696, 0.6967610120773315, 0.626042366027832, 0.8881787061691284, 0.5373568534851074, 0.06883122026920319, 0.12697552144527435, 0.06354770809412003, 0.030229849740862846, 0.0517834797501564, 0.06699104607105255, 0.048899076879024506, 0.043155692517757416, 0.03723059222102165, 0.043401774019002914, 0.05477211996912956, 0.04450814425945282, 0.05253194645047188, 0.05299213156104088, 0.033515751361846924, 0.03150726109743118, 0.0599311999976635, 0.09555727988481522, 0.09695418179035187, 0.3909165859222412, 0.21784332394599915, 0.24761322140693665, 0.2447497546672821, 0.4920749068260193, 0.8591930866241455, 0.6524617671966553, 0.7796995639801025, 0.6667178273200989, 0.5628408193588257, 0.8592604398727417, 0.4489145278930664, 0.6626367568969727, 0.592038094997406, 0.6719659566879272, 0.6256324052810669, 0.41221556067466736, 0.4893287122249603, 0.3506515920162201, 0.666287899017334, 0.576095461845398, 0.8707900643348694, 0.7621779441833496, 0.6023396253585815, 0.673184871673584, 0.985089898109436, 0.927240252494812, 0.856962263584137, 0.8759168982505798, 0.6360204219818115, 0.49177342653274536, 0.6735700964927673, 0.705033004283905, 0.7459893226623535, 0.2645041346549988, 0.3693382441997528, 0.9105318784713745, 0.8878664970397949, 0.9631363153457642, 0.8987382650375366, 0.6352586150169373, 0.6357854008674622]</t>
+          <t>[0.027486121281981468, 0.05453698709607124, 0.04655409976840019, 0.050202902406454086, 0.06889656186103821, 0.06020789593458176, 0.050046805292367935, 0.05196119472384453, 0.10907020419836044, 0.11546449363231659, 0.081352598965168, 0.4739531874656677, 0.47448402643203735, 0.3531522750854492, 0.3005475699901581, 0.4776628911495209, 0.6088224649429321, 0.09682408720254898, 0.30786609649658203, 0.3311489522457123, 0.8239611387252808, 0.23584681749343872, 0.8181522488594055, 0.8802684545516968, 0.9206862449645996, 0.8811171650886536, 0.5008121132850647, 0.6337197422981262, 0.85699063539505, 0.4745568335056305, 0.8338876366615295, 0.7797778248786926, 0.41123583912849426, 0.7393898963928223, 0.8059147596359253, 0.8407878875732422, 0.7692322731018066, 0.720179557800293, 0.8585165143013, 0.9255848526954651, 0.9277043342590332, 0.9331021308898926, 0.971080482006073, 0.9705295562744141, 0.9502355456352234, 0.962556004524231, 0.7856130599975586, 0.6307095289230347, 0.6224766969680786, 0.9148634672164917, 0.4189411401748657, 0.9514572024345398, 0.9586486220359802, 0.7341125011444092, 0.7882775068283081, 0.94401615858078, 0.7022408246994019, 0.07551192492246628, 0.2340690940618515, 0.06495239585638046, 0.010921744629740715, 0.02282123640179634, 0.08199010789394379, 0.01662885956466198, 0.02522285282611847, 0.022420601919293404, 0.029118943959474564, 0.05368246138095856, 0.03168788179755211, 0.03754756972193718, 0.055255595594644547, 0.02685619331896305, 0.04461425915360451, 0.11232780665159225, 0.1383807510137558, 0.11060444265604019, 0.7826754450798035, 0.4419308602809906, 0.5242472887039185, 0.3159928321838379, 0.6215123534202576, 0.9517863392829895, 0.8832667469978333, 0.8987104892730713, 0.7673285007476807, 0.832033634185791, 0.9269176125526428, 0.552887499332428, 0.7960065007209778, 0.7771150469779968, 0.835124135017395, 0.8140971064567566, 0.5784144401550293, 0.7285854816436768, 0.5720567107200623, 0.8050104379653931, 0.7477609515190125, 0.9504542946815491, 0.8963524699211121, 0.8585653305053711, 0.8884382247924805, 0.993802011013031, 0.9856908917427063, 0.9597724676132202, 0.9457341432571411, 0.7816422581672668, 0.7616907358169556, 0.8091907501220703, 0.7947849035263062, 0.8349621891975403, 0.24591408669948578, 0.3707308769226074, 0.9372810125350952, 0.9525633454322815, 0.9739117622375488, 0.9484798312187195, 0.7939757108688354, 0.7956303358078003]</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.985089898109436</v>
+        <v>0.993802011013031</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
@@ -6343,10 +6343,10 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0.6845966000109911</v>
+        <v>0.6746029000059934</v>
       </c>
       <c r="J145" t="n">
-        <v>0.00580166610178806</v>
+        <v>0.005716973728864351</v>
       </c>
     </row>
     <row r="146">
@@ -6365,11 +6365,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>[0.6955557465553284, 0.8975201845169067, 0.7675822377204895, 0.8029071092605591, 0.8626851439476013, 0.7753245830535889, 0.4769578278064728, 0.5307849645614624, 0.3614347577095032, 0.5059836506843567, 0.8067519068717957, 0.5200822353363037, 0.8949278593063354, 0.9004623293876648, 0.9859076142311096, 0.9896268844604492, 0.9040277004241943, 0.7260754704475403, 0.7075974345207214, 0.7452818751335144, 0.779086172580719, 0.9228755235671997, 0.9163812398910522, 0.9885581731796265, 0.963370680809021, 0.9472936987876892, 0.9157091975212097, 0.8654893040657043, 0.958229124546051, 0.7832870483398438, 0.8159253001213074, 0.6458351612091064, 0.7785249352455139, 0.7634559869766235, 0.8073263168334961, 0.8795738220214844, 0.6555958390235901, 0.8877750039100647, 0.7239938974380493, 0.6215894222259521, 0.4045422673225403, 0.6655868291854858, 0.5003462433815002, 0.684362530708313, 0.6662020087242126, 0.7866346836090088, 0.5021765828132629, 0.5713701844215393, 0.6117259860038757, 0.6780721545219421, 0.6591304540634155, 0.3508951663970947, 0.6683260798454285, 0.6259183883666992, 0.4476460814476013, 0.415057897567749, 0.3337970972061157, 0.6515531539916992, 0.6608022451400757, 0.5151250958442688, 0.7235525250434875, 0.340326726436615, 0.43432530760765076, 0.5051867365837097, 0.788438081741333, 0.5080580711364746, 0.6053552627563477, 0.6373372673988342, 0.7218763828277588, 0.7975053787231445, 0.7126216292381287, 0.7355875372886658, 0.7178789377212524, 0.5973421335220337, 0.63651442527771, 0.4686504006385803, 0.5466041564941406, 0.7031733989715576, 0.6878432631492615, 0.8290483355522156, 0.9530701637268066, 0.790432870388031, 0.9397831559181213, 0.6402250528335571, 0.648297131061554, 0.7364412546157837, 0.6071369051933289, 0.8687611222267151, 0.9193464517593384, 0.9545180201530457, 0.9021866321563721, 0.9660327434539795, 0.9758188128471375, 0.8861316442489624, 0.926103949546814, 0.946724534034729, 0.8253437876701355, 0.9102833867073059, 0.8788774013519287, 0.6124191880226135, 0.5365753769874573, 0.4485090672969818, 0.8359032273292542, 0.7495962977409363, 0.7177408933639526, 0.7538174986839294, 0.6006830334663391, 0.5069200396537781, 0.6056448221206665, 0.3867434859275818, 0.43324631452560425, 0.625756025314331, 0.6713659763336182, 0.5992476940155029, 0.3313032388687134, 0.48854607343673706, 0.47032204270362854, 0.47003448009490967]</t>
+          <t>[0.9224529266357422, 0.9691969752311707, 0.9282313585281372, 0.9635046720504761, 0.9711974263191223, 0.9399394392967224, 0.794365406036377, 0.8478131890296936, 0.5441907644271851, 0.6787406206130981, 0.9105746746063232, 0.7676655054092407, 0.9618105888366699, 0.9654665589332581, 0.994429886341095, 0.9976797699928284, 0.9726560711860657, 0.8737561702728271, 0.8914327621459961, 0.8706300258636475, 0.9179813265800476, 0.9800395369529724, 0.9786555767059326, 0.9939184188842773, 0.989081859588623, 0.9805488586425781, 0.97808438539505, 0.9747464060783386, 0.9894415140151978, 0.953603982925415, 0.9399181604385376, 0.8953987956047058, 0.9221037030220032, 0.8834623098373413, 0.9058516025543213, 0.9252916574478149, 0.8014540672302246, 0.9310387372970581, 0.837181568145752, 0.6861217021942139, 0.5703528523445129, 0.8282639384269714, 0.7243311405181885, 0.8202900290489197, 0.8745338916778564, 0.9327911138534546, 0.7585427165031433, 0.8112285733222961, 0.8579490780830383, 0.8713025450706482, 0.9034591317176819, 0.6658604145050049, 0.9045199155807495, 0.8841684460639954, 0.6230027079582214, 0.6362623572349548, 0.5181076526641846, 0.8743824362754822, 0.844565749168396, 0.7278518080711365, 0.8678876757621765, 0.3933725953102112, 0.5994840860366821, 0.7191303968429565, 0.9271010756492615, 0.6086488366127014, 0.6501784920692444, 0.7535630464553833, 0.8331344127655029, 0.884428858757019, 0.8337946534156799, 0.8082652688026428, 0.8544248938560486, 0.726568877696991, 0.7221657037734985, 0.6165881752967834, 0.6509497165679932, 0.7911643385887146, 0.8030310869216919, 0.9037500619888306, 0.9774103760719299, 0.9291638135910034, 0.9727551937103271, 0.8462084531784058, 0.8347751498222351, 0.8761956095695496, 0.851614773273468, 0.9412469267845154, 0.965913712978363, 0.9834995269775391, 0.9775636792182922, 0.9890551567077637, 0.9902778267860413, 0.9558023810386658, 0.9595901966094971, 0.9808351993560791, 0.9409154057502747, 0.9699251055717468, 0.9545885324478149, 0.8475245237350464, 0.6534882187843323, 0.5270065069198608, 0.9009982347488403, 0.9035804867744446, 0.9084699749946594, 0.9523603320121765, 0.8605133891105652, 0.7194148898124695, 0.7789523005485535, 0.5464979410171509, 0.6204689145088196, 0.8024060726165771, 0.7632424831390381, 0.7840754389762878, 0.5795698165893555, 0.7871922850608826, 0.7513405084609985, 0.7503942847251892]</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.9896268844604492</v>
+        <v>0.9976797699928284</v>
       </c>
       <c r="F146" t="n">
         <v>1</v>
@@ -6383,10 +6383,10 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0.673998100013705</v>
+        <v>0.6751842999947257</v>
       </c>
       <c r="J146" t="n">
-        <v>0.00571184830520089</v>
+        <v>0.00572190084741293</v>
       </c>
     </row>
     <row r="147">
@@ -6405,11 +6405,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[0.9830878376960754, 0.9825831651687622, 0.8693459033966064, 0.9580347537994385, 0.7390097975730896, 0.5985372066497803, 0.7080209851264954, 0.5328801870346069, 0.32177022099494934, 0.6286139488220215, 0.4029925763607025, 0.9548813700675964, 0.9978832602500916, 0.9873394966125488, 0.914093554019928, 0.8021500706672668, 0.6120933890342712, 0.293531596660614, 0.44807180762290955, 0.5195966362953186, 0.6564089059829712, 0.44759705662727356, 0.5920957922935486, 0.4750807583332062, 0.6414559483528137, 0.6800619959831238, 0.42945462465286255, 0.3549511432647705, 0.6200244426727295, 0.74175626039505, 0.5720585584640503, 0.7537531852722168, 0.6830489635467529, 0.41131481528282166, 0.23377525806427002, 0.2591497302055359, 0.34005746245384216, 0.2139396369457245, 0.171073779463768, 0.13098251819610596, 0.19357557594776154, 0.2086125761270523, 0.22624671459197998, 0.21003250777721405, 0.5384721755981445, 0.6317532658576965, 0.7433991432189941, 0.974250078201294, 0.9967722296714783, 0.9966663718223572, 0.998988687992096, 0.9978079199790955, 0.9986122846603394, 0.9987335801124573, 0.9986170530319214, 0.998781144618988, 0.9984772801399231, 0.9968932867050171, 0.9936328530311584, 0.9929901361465454, 0.9967964291572571, 0.9988911747932434, 0.998713493347168, 0.9984573125839233, 0.9989446997642517, 0.998847246170044, 0.9990215301513672, 0.9981608986854553, 0.9982312321662903, 0.9985076785087585, 0.9980326294898987, 0.9959595799446106, 0.9964235424995422, 0.9975399971008301, 0.9975759387016296, 0.9979305267333984, 0.9971412420272827, 0.9952278137207031, 0.9905042052268982, 0.9918010830879211, 0.9961422085762024, 0.9954797029495239, 0.9955211877822876, 0.9982970356941223, 0.997817873954773, 0.9973450303077698, 0.9976262450218201, 0.9933100938796997, 0.995265007019043, 0.9910951852798462, 0.9915293455123901, 0.9962393045425415, 0.9972423315048218, 0.9983879327774048, 0.998918890953064, 0.9981824159622192, 0.9982755184173584, 0.9969905614852905, 0.9938852190971375, 0.966416597366333, 0.9118202924728394, 0.9770167469978333, 0.9050942659378052, 0.8822581171989441, 0.9726229906082153, 0.9471979737281799, 0.9983036518096924, 0.99729984998703, 0.9988204836845398, 0.9989987015724182, 0.9962648749351501, 0.8411016464233398, 0.793921947479248, 0.8497360348701477, 0.8121554851531982, 0.8416287302970886, 0.8386949896812439, 0.8382850885391235]</t>
+          <t>[0.9849526286125183, 0.9848098158836365, 0.8613846898078918, 0.9664347171783447, 0.7553896307945251, 0.7705025672912598, 0.8300442099571228, 0.7275524139404297, 0.44454890489578247, 0.7057899832725525, 0.6084379553794861, 0.979387104511261, 0.9982032775878906, 0.9962735176086426, 0.9778255820274353, 0.8437962532043457, 0.5745666027069092, 0.21957136690616608, 0.5085061192512512, 0.6465005278587341, 0.6756352782249451, 0.7386077642440796, 0.8437231779098511, 0.7983399629592896, 0.923923909664154, 0.926821768283844, 0.5040467381477356, 0.4958208501338959, 0.8602043390274048, 0.9528075456619263, 0.7319695353507996, 0.8929290771484375, 0.8124582767486572, 0.5342787504196167, 0.14034390449523926, 0.20692762732505798, 0.3211405575275421, 0.21988430619239807, 0.20510399341583252, 0.08385585248470306, 0.16112257540225983, 0.22784459590911865, 0.2710801064968109, 0.14209018647670746, 0.6791201829910278, 0.7530093789100647, 0.9377989768981934, 0.9932271838188171, 0.9972661733627319, 0.9982821941375732, 0.9992176294326782, 0.9986003041267395, 0.9989027976989746, 0.9991281628608704, 0.998467743396759, 0.9987745881080627, 0.9988048076629639, 0.9971497654914856, 0.992607831954956, 0.99616938829422, 0.9975724816322327, 0.9992271661758423, 0.9991270899772644, 0.99871826171875, 0.9989282488822937, 0.9986183643341064, 0.9991375207901001, 0.9984614849090576, 0.9983773231506348, 0.9987867474555969, 0.9984410405158997, 0.9967623949050903, 0.9977686405181885, 0.9977432489395142, 0.9980996251106262, 0.9983810186386108, 0.9975441098213196, 0.995152473449707, 0.9906662106513977, 0.9913721084594727, 0.9964117407798767, 0.9959879517555237, 0.9947146773338318, 0.9984102249145508, 0.9976511597633362, 0.9964615702629089, 0.9965348243713379, 0.9912710189819336, 0.995788037776947, 0.9935283064842224, 0.9956050515174866, 0.9974079728126526, 0.9978539347648621, 0.9985122084617615, 0.9993860721588135, 0.9990443587303162, 0.9990532994270325, 0.9992340803146362, 0.9981096982955933, 0.9870722889900208, 0.9540658593177795, 0.993727445602417, 0.9706845283508301, 0.9637535214424133, 0.9944435954093933, 0.9874845147132874, 0.9988480806350708, 0.9985007047653198, 0.9990008473396301, 0.9988040924072266, 0.9977239966392517, 0.9372386932373047, 0.8724418878555298, 0.8959099054336548, 0.9022685289382935, 0.887675404548645, 0.9131197333335876, 0.9129424095153809]</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.9990215301513672</v>
+        <v>0.9993860721588135</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
@@ -6423,10 +6423,10 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0.6812695999979042</v>
+        <v>0.6742305000079796</v>
       </c>
       <c r="J147" t="n">
-        <v>0.005773471186422917</v>
+        <v>0.005713817796677793</v>
       </c>
     </row>
     <row r="148">
@@ -6445,11 +6445,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[0.5330415368080139, 0.2076621651649475, 0.11256121844053268, 0.17668919265270233, 0.11254458874464035, 0.07909902930259705, 0.278525710105896, 0.20561742782592773, 0.22220461070537567, 0.36272841691970825, 0.24987943470478058, 0.19340980052947998, 0.10804002732038498, 0.3121454417705536, 0.1429152637720108, 0.29381030797958374, 0.3207802474498749, 0.5351956486701965, 0.575447678565979, 0.24437662959098816, 0.4364200234413147, 0.42825794219970703, 0.4234042167663574, 0.5094746351242065, 0.5118054747581482, 0.4359976053237915, 0.4650506377220154, 0.8053217530250549, 0.6113435626029968, 0.5997010469436646, 0.5120482444763184, 0.3147032856941223, 0.4151102900505066, 0.5589403510093689, 0.6039304137229919, 0.9614928960800171, 0.8643308877944946, 0.6888505220413208, 0.7929043769836426, 0.5073625445365906, 0.25127965211868286, 0.3732385039329529, 0.11320904642343521, 0.30740293860435486, 0.19245491921901703, 0.188354954123497, 0.16215695440769196, 0.18016518652439117, 0.10409630835056305, 0.07310240715742111, 0.05041326582431793, 0.06445147097110748, 0.07370853424072266, 0.13543453812599182, 0.053527653217315674, 0.10722425580024719, 0.27130889892578125, 0.32182008028030396, 0.1751217544078827, 0.6087680459022522, 0.3540763854980469, 0.08842664957046509, 0.12713387608528137, 0.17208519577980042, 0.8133044242858887, 0.4582681953907013, 0.41801005601882935, 0.2041284590959549, 0.1838025152683258, 0.12236953526735306, 0.4217919707298279, 0.5663350224494934, 0.568795919418335, 0.5463655591011047, 0.2716841697692871, 0.15419894456863403, 0.3764272630214691, 0.28760120272636414, 0.646389365196228, 0.8957834243774414, 0.5387789011001587, 0.8983454704284668, 0.7631373405456543, 0.895034909248352, 0.5893824696540833, 0.26940637826919556, 0.35277125239372253, 0.1518257111310959, 0.1317351907491684, 0.1380513459444046, 0.19049681723117828, 0.20116589963436127, 0.23233430087566376, 0.44438353180885315, 0.32591715455055237, 0.617979109287262, 0.6663597226142883, 0.6100396513938904, 0.25139549374580383, 0.2296692579984665, 0.31457963585853577, 0.19227953255176544, 0.19917573034763336, 0.2141132801771164, 0.2981519103050232, 0.47873201966285706, 0.5015282034873962, 0.633433997631073, 0.3985101282596588, 0.3703017234802246, 0.18135270476341248, 0.3326907455921173, 0.3714776635169983, 0.28716787695884705, 0.18277572095394135, 0.28811031579971313, 0.2949945628643036, 0.29412397742271423]</t>
+          <t>[0.49667084217071533, 0.26067617535591125, 0.07787412405014038, 0.22638405859470367, 0.09262898564338684, 0.057154763489961624, 0.4320535957813263, 0.34952396154403687, 0.3330768346786499, 0.49069342017173767, 0.42906782031059265, 0.32167714834213257, 0.1811303347349167, 0.39544129371643066, 0.2108171582221985, 0.4302631616592407, 0.45598453283309937, 0.661440372467041, 0.7627951502799988, 0.33751243352890015, 0.6241024732589722, 0.5933149456977844, 0.45342347025871277, 0.6395959854125977, 0.6486771106719971, 0.7171173691749573, 0.5278826355934143, 0.832378625869751, 0.6523816585540771, 0.6241448521614075, 0.5314507484436035, 0.35563647747039795, 0.5541750192642212, 0.7431580424308777, 0.8867617845535278, 0.9895188212394714, 0.946528434753418, 0.8592861890792847, 0.9611784219741821, 0.7525226473808289, 0.42043814063072205, 0.6185652017593384, 0.11085453629493713, 0.4011814296245575, 0.1524142324924469, 0.22834162414073944, 0.19559450447559357, 0.1738419532775879, 0.07170488685369492, 0.052497997879981995, 0.027062799781560898, 0.07570815086364746, 0.1110725924372673, 0.26186540722846985, 0.048661183565855026, 0.23818112909793854, 0.6069396138191223, 0.6096317768096924, 0.4439874291419983, 0.9324371218681335, 0.7817410230636597, 0.19112496078014374, 0.34223076701164246, 0.6687975525856018, 0.9532602429389954, 0.7805142402648926, 0.6093554496765137, 0.37615281343460083, 0.2625255286693573, 0.12056127190589905, 0.5899656414985657, 0.8398787379264832, 0.7852235436439514, 0.8108282685279846, 0.5306244492530823, 0.30152150988578796, 0.44190433621406555, 0.42197945713996887, 0.7924618124961853, 0.9777830243110657, 0.9104092121124268, 0.966057300567627, 0.8925496339797974, 0.9860839247703552, 0.862023115158081, 0.335618257522583, 0.36924755573272705, 0.10968910157680511, 0.14736896753311157, 0.2329847514629364, 0.28857091069221497, 0.2616661489009857, 0.22572487592697144, 0.6329373717308044, 0.4133778512477875, 0.7743104696273804, 0.8471347689628601, 0.8414928913116455, 0.5482351183891296, 0.35606253147125244, 0.6622656583786011, 0.2766385078430176, 0.31251969933509827, 0.46973997354507446, 0.7122414112091064, 0.8630391955375671, 0.9020944833755493, 0.909552276134491, 0.622111439704895, 0.5946353077888489, 0.33554115891456604, 0.4454372525215149, 0.45034554600715637, 0.4079774022102356, 0.28127917647361755, 0.36714911460876465, 0.3934093713760376, 0.3928685784339905]</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.9614928960800171</v>
+        <v>0.9895188212394714</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
@@ -6463,10 +6463,10 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0.6794982999854255</v>
+        <v>0.6745260000025155</v>
       </c>
       <c r="J148" t="n">
-        <v>0.005758460169368014</v>
+        <v>0.005716322033919623</v>
       </c>
     </row>
     <row r="149">
@@ -6485,11 +6485,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>[0.7575413584709167, 0.44653335213661194, 0.8821077942848206, 0.8870282173156738, 0.9053575992584229, 0.6790662407875061, 0.7033310532569885, 0.6685991883277893, 0.5293675661087036, 0.32861655950546265, 0.2400175780057907, 0.3491549789905548, 0.347913533449173, 0.1990392953157425, 0.6321722865104675, 0.8980457782745361, 0.6946751475334167, 0.6034359335899353, 0.7232455611228943, 0.7829209566116333, 0.9038230776786804, 0.9524997472763062, 0.6971448659896851, 0.674365758895874, 0.8701701164245605, 0.9399945139884949, 0.9373376965522766, 0.9485037326812744, 0.7397609949111938, 0.6853007078170776, 0.6884046792984009, 0.7744982242584229, 0.5564776062965393, 0.5260798335075378, 0.19515171647071838, 0.41901668906211853, 0.6962172389030457, 0.7141222357749939, 0.6487684845924377, 0.8418003916740417, 0.48670727014541626, 0.32614922523498535, 0.4819343388080597, 0.5770583152770996, 0.8758240938186646, 0.9037117958068848, 0.9064067602157593, 0.9556902050971985, 0.9612537026405334, 0.9346794486045837, 0.8673635125160217, 0.8960399627685547, 0.7239447236061096, 0.9776435494422913, 0.8919427990913391, 0.8096274733543396, 0.5626776814460754, 0.579136073589325, 0.6668516397476196, 0.9549264907836914, 0.72930908203125, 0.4804302453994751, 0.5207458734512329, 0.5672640800476074, 0.8059300780296326, 0.6312406063079834, 0.7842308282852173, 0.6032047271728516, 0.47807610034942627, 0.23382702469825745, 0.6133082509040833, 0.47975489497184753, 0.5936128497123718, 0.09761221706867218, 0.19568634033203125, 0.12956246733665466, 0.34721076488494873, 0.5092517733573914, 0.37810003757476807, 0.3938083350658417, 0.6318236589431763, 0.41579607129096985, 0.15797819197177887, 0.32830560207366943, 0.4358743727207184, 0.33867552876472473, 0.42722153663635254, 0.5462684631347656, 0.26071295142173767, 0.27560389041900635, 0.24614334106445312, 0.09270461648702621, 0.14581884443759918, 0.19116909801959991, 0.40878522396087646, 0.2559857964515686, 0.25641220808029175, 0.43615245819091797, 0.5223742723464966, 0.44099584221839905, 0.5225328803062439, 0.6615229249000549, 0.6635904908180237, 0.6186062097549438, 0.6291693449020386, 0.8544431328773499, 0.643951416015625, 0.7084718346595764, 0.3475915789604187, 0.5433618426322937, 0.8412127494812012, 0.6374589800834656, 0.2705826163291931, 0.3023097813129425, 0.7737010717391968, 0.5197821259498596, 0.3567492663860321, 0.3564390242099762]</t>
+          <t>[0.6783298254013062, 0.36977317929267883, 0.8497319221496582, 0.8901448845863342, 0.9423400163650513, 0.7595476508140564, 0.8163682222366333, 0.7415456175804138, 0.740710973739624, 0.2758244276046753, 0.28188684582710266, 0.2677391469478607, 0.41459086537361145, 0.18819068372249603, 0.7143141031265259, 0.8239134550094604, 0.5763524174690247, 0.49731865525245667, 0.49950751662254333, 0.6308684349060059, 0.8800554871559143, 0.944866955280304, 0.6278772950172424, 0.578953206539154, 0.8841654658317566, 0.8957366943359375, 0.8882609009742737, 0.85438072681427, 0.5196226239204407, 0.5590963363647461, 0.5476864576339722, 0.7380073666572571, 0.5041301250457764, 0.508233368396759, 0.2114500254392624, 0.3417963981628418, 0.6085500717163086, 0.630425214767456, 0.6323052048683167, 0.8464133739471436, 0.5349706411361694, 0.30913445353507996, 0.44919559359550476, 0.683962345123291, 0.9006248116493225, 0.9513436555862427, 0.9292809367179871, 0.9638063311576843, 0.9594385027885437, 0.8818336129188538, 0.8749043941497803, 0.9232739806175232, 0.7159357666969299, 0.9687283039093018, 0.9307767748832703, 0.8593614101409912, 0.6635794639587402, 0.6479458212852478, 0.7527929544448853, 0.9788015484809875, 0.6419633030891418, 0.38279470801353455, 0.6530880928039551, 0.6939404606819153, 0.7962770462036133, 0.49999213218688965, 0.7672343850135803, 0.7144178152084351, 0.48733842372894287, 0.15867990255355835, 0.6093944907188416, 0.42954838275909424, 0.6641314625740051, 0.04343290999531746, 0.14609640836715698, 0.08490035682916641, 0.3961966037750244, 0.369730681180954, 0.30079635977745056, 0.3754369616508484, 0.49086475372314453, 0.4152483642101288, 0.14055222272872925, 0.2975976765155792, 0.4198518693447113, 0.2251996397972107, 0.2834151089191437, 0.500158965587616, 0.15195024013519287, 0.2780541777610779, 0.24824926257133484, 0.057683367282152176, 0.09201633185148239, 0.10843981057405472, 0.3582545816898346, 0.2308456152677536, 0.1953507661819458, 0.38776063919067383, 0.5886226892471313, 0.6294475197792053, 0.6448630094528198, 0.7338171005249023, 0.7720295786857605, 0.6985323429107666, 0.7488310933113098, 0.9285626411437988, 0.6920974850654602, 0.8279176950454712, 0.3312426209449768, 0.7072628736495972, 0.9067783951759338, 0.7185909748077393, 0.2607446014881134, 0.2606140077114105, 0.8214690685272217, 0.7076691389083862, 0.3437386155128479, 0.34392648935317993]</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.9776435494422913</v>
+        <v>0.9788015484809875</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
@@ -6503,10 +6503,10 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0.6660933000093792</v>
+        <v>0.6608356999931857</v>
       </c>
       <c r="J149" t="n">
-        <v>0.005644858474655756</v>
+        <v>0.005600302542315133</v>
       </c>
     </row>
     <row r="150">
@@ -6525,11 +6525,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>[0.13144132494926453, 0.11926787346601486, 0.10023979842662811, 0.21744641661643982, 0.3343404531478882, 0.34014892578125, 0.16356849670410156, 0.3420223295688629, 0.5417007207870483, 0.45130568742752075, 0.652661144733429, 0.7274320721626282, 0.5509124994277954, 0.4605080783367157, 0.5176936984062195, 0.3731590509414673, 0.14396829903125763, 0.3908159136772156, 0.33765092492103577, 0.3816189467906952, 0.3658561706542969, 0.26499342918395996, 0.37776345014572144, 0.39993733167648315, 0.2613542377948761, 0.1875186711549759, 0.19386139512062073, 0.22097691893577576, 0.2389063835144043, 0.20704564452171326, 0.21531067788600922, 0.2423497438430786, 0.20947855710983276, 0.1994192898273468, 0.2396049052476883, 0.23443856835365295, 0.24639306962490082, 0.3234271705150604, 0.7150353193283081, 0.2102823108434677, 0.1614820957183838, 0.3113744854927063, 0.4779069721698761, 0.6121614575386047, 0.23490594327449799, 0.25270965695381165, 0.1885395050048828, 0.3469166159629822, 0.30250343680381775, 0.22736650705337524, 0.14927305281162262, 0.31169354915618896, 0.267069011926651, 0.24175919592380524, 0.1797325760126114, 0.3766350746154785, 0.3650582432746887, 0.9806274771690369, 0.649354100227356, 0.1272241473197937, 0.07174916565418243, 0.16328884661197662, 0.15023723244667053, 0.39705756306648254, 0.5291575789451599, 0.5047521591186523, 0.9103276133537292, 0.813086986541748, 0.8178414702415466, 0.7169862389564514, 0.5939222574234009, 0.20285679399967194, 0.2898399829864502, 0.261715292930603, 0.4434487521648407, 0.6504871249198914, 0.3088853657245636, 0.7740918397903442, 0.3730020225048065, 0.2974967360496521, 0.21272987127304077, 0.06608431786298752, 0.07676136493682861, 0.18317919969558716, 0.08870674669742584, 0.09249263256788254, 0.10363703221082687, 0.08423866331577301, 0.10903158783912659, 0.08008444309234619, 0.18032649159431458, 0.15871083736419678, 0.10121790319681168, 0.12155601382255554, 0.179651141166687, 0.1441541612148285, 0.2818152904510498, 0.13409917056560516, 0.09062036126852036, 0.08527316898107529, 0.03867612034082413, 0.03038075566291809, 0.03741004690527916, 0.029607590287923813, 0.04698340222239494, 0.09625528752803802, 0.0814608633518219, 0.13214848935604095, 0.5980690717697144, 0.31490036845207214, 0.10488823801279068, 0.05423218011856079, 0.10342258960008621, 0.13363124430179596, 0.1145286038517952, 0.08388600498437881, 0.04451073706150055, 0.04473916068673134]</t>
+          <t>[0.07716753333806992, 0.07391849160194397, 0.06204637512564659, 0.4126358926296234, 0.5822924971580505, 0.5705174803733826, 0.1671840399503708, 0.4462352693080902, 0.7623226642608643, 0.6685906648635864, 0.8283965587615967, 0.6634613871574402, 0.591898500919342, 0.4214460551738739, 0.5441058874130249, 0.4178157448768616, 0.13930484652519226, 0.37617921829223633, 0.2877402901649475, 0.4325237572193146, 0.6509168744087219, 0.3571617603302002, 0.5086501836776733, 0.5280044078826904, 0.3317844271659851, 0.1383497267961502, 0.16474498808383942, 0.20010370016098022, 0.2492249757051468, 0.3061462342739105, 0.2892920970916748, 0.35716134309768677, 0.33379870653152466, 0.3072311580181122, 0.43830394744873047, 0.518851637840271, 0.3365980088710785, 0.42700621485710144, 0.915197491645813, 0.3800815939903259, 0.25790634751319885, 0.2876316010951996, 0.5191158652305603, 0.8175143003463745, 0.22072945535182953, 0.2687992453575134, 0.24202550947666168, 0.4994535446166992, 0.28372302651405334, 0.27152082324028015, 0.12451818585395813, 0.5027289390563965, 0.3267565071582794, 0.3669402599334717, 0.27901533246040344, 0.5591185688972473, 0.7122122049331665, 0.9847002029418945, 0.8592151999473572, 0.11727847158908844, 0.023583851754665375, 0.11238822340965271, 0.1951030045747757, 0.6018083691596985, 0.7919009327888489, 0.8078321814537048, 0.9840269088745117, 0.9438799023628235, 0.9232743978500366, 0.8688753247261047, 0.8273959755897522, 0.24198806285858154, 0.40484052896499634, 0.3125210106372833, 0.4570285975933075, 0.7804652452468872, 0.4132261574268341, 0.8867490887641907, 0.5355993509292603, 0.34934574365615845, 0.3619658648967743, 0.10433495044708252, 0.12191890180110931, 0.2607915997505188, 0.15282797813415527, 0.1302097588777542, 0.14335840940475464, 0.08426909893751144, 0.09882009029388428, 0.06884871423244476, 0.2412331998348236, 0.12850093841552734, 0.07461047917604446, 0.1044744923710823, 0.13809256255626678, 0.13259902596473694, 0.2731713056564331, 0.12337714433670044, 0.08363761752843857, 0.072837233543396, 0.05002124235033989, 0.05274195969104767, 0.052115924656391144, 0.03480173274874687, 0.05744311586022377, 0.09361438453197479, 0.11807150393724442, 0.14169247448444366, 0.6876563429832458, 0.4446520507335663, 0.10454190522432327, 0.0676894411444664, 0.1010742112994194, 0.19825661182403564, 0.1337910294532776, 0.11656652390956879, 0.06734684109687805, 0.06760096549987793]</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.9806274771690369</v>
+        <v>0.9847002029418945</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
@@ -6543,10 +6543,10 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0.6710912999988068</v>
+        <v>0.6755104000039864</v>
       </c>
       <c r="J150" t="n">
-        <v>0.005687214406769549</v>
+        <v>0.005724664406813444</v>
       </c>
     </row>
     <row r="151">
@@ -6565,11 +6565,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>[0.1527983844280243, 0.1218852773308754, 0.16740386188030243, 0.118710458278656, 0.10143553465604782, 0.07338088750839233, 0.11920632421970367, 0.054709453135728836, 0.05011693388223648, 0.33329078555107117, 0.862883985042572, 0.8552327156066895, 0.6572023034095764, 0.33423471450805664, 0.24887217581272125, 0.44381681084632874, 0.5990321636199951, 0.7674462199211121, 0.4731380045413971, 0.3580598533153534, 0.129493847489357, 0.2101738005876541, 0.10265474766492844, 0.12547567486763, 0.2005818784236908, 0.08054366707801819, 0.13505606353282928, 0.15435846149921417, 0.11724362522363663, 0.3420521020889282, 0.36167824268341064, 0.4000774919986725, 0.23539194464683533, 0.6848523616790771, 0.31651759147644043, 0.1826973408460617, 0.15729540586471558, 0.15370909869670868, 0.0708061084151268, 0.18888266384601593, 0.062173761427402496, 0.12268166244029999, 0.20774374902248383, 0.24577659368515015, 0.41063717007637024, 0.3747275769710541, 0.46162691712379456, 0.5130308866500854, 0.31015342473983765, 0.2928934693336487, 0.16626478731632233, 0.1500406712293625, 0.07992318272590637, 0.5187436938285828, 0.6445859670639038, 0.7318661212921143, 0.15320619940757751, 0.22640497982501984, 0.21045537292957306, 0.4215225875377655, 0.11892916262149811, 0.2366456836462021, 0.12529851496219635, 0.3901146948337555, 0.7856539487838745, 0.7923182845115662, 0.9883520007133484, 0.9531726837158203, 0.9196508526802063, 0.7850790619850159, 0.45972204208374023, 0.3631480038166046, 0.202642560005188, 0.17691247165203094, 0.5558935403823853, 0.6550350189208984, 0.25181838870048523, 0.15589246153831482, 0.17748655378818512, 0.8587709069252014, 0.6140101552009583, 0.9739911556243896, 0.9927806258201599, 0.92808997631073, 0.9915255904197693, 0.8859879374504089, 0.1136951893568039, 0.1898023933172226, 0.12772104144096375, 0.09905075281858444, 0.17281337082386017, 0.10346046090126038, 0.15736322104930878, 0.8280078768730164, 0.8991398811340332, 0.3332877457141876, 0.32439786195755005, 0.2611614763736725, 0.16733135282993317, 0.24522989988327026, 0.2891286313533783, 0.8289711475372314, 0.7681616544723511, 0.5511415004730225, 0.9624757766723633, 0.5164475440979004, 0.41382652521133423, 0.9277530908584595, 0.4739142656326294, 0.18139654397964478, 0.3220551609992981, 0.22741641104221344, 0.37776678800582886, 0.19853122532367706, 0.1696583479642868, 0.0995139479637146, 0.152325838804245, 0.15254205465316772]</t>
+          <t>[0.11980971693992615, 0.04462353140115738, 0.13038954138755798, 0.07953176647424698, 0.0565626360476017, 0.037825535982847214, 0.12032118439674377, 0.036218151450157166, 0.0267720278352499, 0.42839664220809937, 0.9402209520339966, 0.9463596940040588, 0.6312380433082581, 0.22161027789115906, 0.41062748432159424, 0.675222635269165, 0.6496977210044861, 0.920697033405304, 0.6281828284263611, 0.6260776519775391, 0.13221630454063416, 0.4571503698825836, 0.07048329710960388, 0.12845461070537567, 0.17844431102275848, 0.07363667339086533, 0.12501293420791626, 0.28096455335617065, 0.10015285760164261, 0.4304892420768738, 0.6759212613105774, 0.6416094303131104, 0.34055426716804504, 0.7817937135696411, 0.4711982011795044, 0.18336541950702667, 0.09671210497617722, 0.06460466235876083, 0.02017166279256344, 0.10380499064922333, 0.021999850869178772, 0.06673560291528702, 0.19441725313663483, 0.2708131670951843, 0.49993932247161865, 0.3582565486431122, 0.5423744320869446, 0.7180108428001404, 0.427379846572876, 0.2878570556640625, 0.1248256266117096, 0.07822989672422409, 0.04801943153142929, 0.6208227276802063, 0.69886314868927, 0.6690652370452881, 0.102112777531147, 0.20084026455879211, 0.2164851725101471, 0.5157003402709961, 0.08012131601572037, 0.23698152601718903, 0.06262301653623581, 0.3386088013648987, 0.7964785695075989, 0.8000839352607727, 0.9893430471420288, 0.9719155430793762, 0.9535214900970459, 0.8918442726135254, 0.5057785511016846, 0.2922130823135376, 0.1572284996509552, 0.14759190380573273, 0.7532473206520081, 0.7144601941108704, 0.3335162401199341, 0.12798970937728882, 0.14824607968330383, 0.931614875793457, 0.8356215953826904, 0.9904935956001282, 0.9953588843345642, 0.972047746181488, 0.9941288232803345, 0.9578994512557983, 0.21945013105869293, 0.3187824487686157, 0.07367127388715744, 0.05900505185127258, 0.17209307849407196, 0.08242303133010864, 0.12221986800432205, 0.9861010909080505, 0.9833176136016846, 0.3802793025970459, 0.34213492274284363, 0.3952076733112335, 0.2571832835674286, 0.3513334393501282, 0.3755531311035156, 0.9526075720787048, 0.8121200203895569, 0.7976346015930176, 0.9735212922096252, 0.7547320127487183, 0.65766441822052, 0.984501302242279, 0.7660168409347534, 0.20561861991882324, 0.34822991490364075, 0.24557167291641235, 0.47085461020469666, 0.3093526363372803, 0.14219285547733307, 0.07965929061174393, 0.1655869483947754, 0.16568946838378906]</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.9927806258201599</v>
+        <v>0.9953588843345642</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -6583,10 +6583,10 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0.6657761000096798</v>
+        <v>0.6681274000002304</v>
       </c>
       <c r="J151" t="n">
-        <v>0.005642170339065083</v>
+        <v>0.005662096610171444</v>
       </c>
     </row>
     <row r="152">
@@ -6605,11 +6605,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>[0.10198795795440674, 0.3639388978481293, 0.5863799452781677, 0.435573935508728, 0.27672672271728516, 0.3085726797580719, 0.34397321939468384, 0.7827267646789551, 0.6919939517974854, 0.8784201741218567, 0.724010169506073, 0.2791561484336853, 0.10817533731460571, 0.03847084939479828, 0.21482722461223602, 0.12622417509555817, 0.13056053221225739, 0.28627273440361023, 0.21161507070064545, 0.40616950392723083, 0.293911874294281, 0.14761433005332947, 0.23628392815589905, 0.30755311250686646, 0.2776920795440674, 0.24524612724781036, 0.07365862280130386, 0.0458141528069973, 0.04825066775083542, 0.08288777619600296, 0.10791782289743423, 0.15666493773460388, 0.6249648332595825, 0.1556285321712494, 0.026353666558861732, 0.05573025718331337, 0.19099898636341095, 0.15654121339321136, 0.20263990759849548, 0.0261183213442564, 0.07052285224199295, 0.10069850087165833, 0.07203719764947891, 0.2197362780570984, 0.2864609658718109, 0.12366130948066711, 0.1853463500738144, 0.18424805998802185, 0.39765116572380066, 0.4545018970966339, 0.45343250036239624, 0.4310103952884674, 0.22595247626304626, 0.4968774616718292, 0.07867452502250671, 0.32733482122421265, 0.43394696712493896, 0.5441089868545532, 0.33449363708496094, 0.14608071744441986, 0.08148404210805893, 0.07426919788122177, 0.0796976387500763, 0.13425423204898834, 0.13904818892478943, 0.10358019173145294, 0.16319607198238373, 0.6523500084877014, 0.4185393452644348, 0.7469835877418518, 0.6066790223121643, 0.4546508491039276, 0.3063780665397644, 0.16581524908542633, 0.14726456999778748, 0.35572323203086853, 0.3000696003437042, 0.1497466117143631, 0.07069364935159683, 0.11330872774124146, 0.13127894699573517, 0.2357114851474762, 0.39299678802490234, 0.523921012878418, 0.10750918090343475, 0.16499921679496765, 0.20927385985851288, 0.16409331560134888, 0.2738015651702881, 0.10760261863470078, 0.20184960961341858, 0.25794166326522827, 0.24649770557880402, 0.43318742513656616, 0.4519181549549103, 0.2668696343898773, 0.6883770227432251, 0.5297804474830627, 0.2067689746618271, 0.14930403232574463, 0.06620783358812332, 0.13048198819160461, 0.1823880523443222, 0.13466152548789978, 0.44710293412208557, 0.20329473912715912, 0.14083564281463623, 0.16044414043426514, 0.2182677537202835, 0.21026669442653656, 0.23088929057121277, 0.1311637908220291, 0.15511548519134521, 0.11312948167324066, 0.12740854918956757, 0.13826070725917816, 0.25516682863235474, 0.2601640820503235]</t>
+          <t>[0.022006595507264137, 0.08319363743066788, 0.17521876096725464, 0.11995347589254379, 0.04639100655913353, 0.03968958929181099, 0.047446031123399734, 0.28832611441612244, 0.1944856494665146, 0.4721399247646332, 0.17295072972774506, 0.0863538458943367, 0.040982652455568314, 0.014678116887807846, 0.06818315386772156, 0.08806025981903076, 0.09730678051710129, 0.18766842782497406, 0.07703916728496552, 0.22691573202610016, 0.14234597980976105, 0.04045817255973816, 0.06866467744112015, 0.06829535961151123, 0.185111403465271, 0.11177640408277512, 0.0444641150534153, 0.027301929891109467, 0.026962537318468094, 0.04324031248688698, 0.03208469599485397, 0.03408101573586464, 0.13628250360488892, 0.08494966477155685, 0.011714481748640537, 0.029097802937030792, 0.06508174538612366, 0.05506160482764244, 0.056508056819438934, 0.013995873741805553, 0.0313834510743618, 0.09865221381187439, 0.03925574570894241, 0.31647491455078125, 0.25939512252807617, 0.06455733627080917, 0.12478321045637131, 0.101224385201931, 0.3565009534358978, 0.19460508227348328, 0.2841499149799347, 0.15484097599983215, 0.10675407201051712, 0.18509182333946228, 0.021382667124271393, 0.0778595358133316, 0.18606936931610107, 0.35267403721809387, 0.22120946645736694, 0.05706818774342537, 0.027856850996613503, 0.019681543111801147, 0.022746093571186066, 0.06491590291261673, 0.051659658551216125, 0.05351617932319641, 0.08794919401407242, 0.32928335666656494, 0.17650845646858215, 0.25335827469825745, 0.2666783928871155, 0.2925935387611389, 0.16807428002357483, 0.057172492146492004, 0.04500634968280792, 0.12472204864025116, 0.12545448541641235, 0.04120193049311638, 0.008606070652604103, 0.01836230419576168, 0.03574172407388687, 0.05000454559922218, 0.08600398153066635, 0.18798552453517914, 0.02421732433140278, 0.06204235553741455, 0.05795306712388992, 0.03922944888472557, 0.05710471048951149, 0.02970421127974987, 0.045544806867837906, 0.07140446454286575, 0.03576621040701866, 0.10324966162443161, 0.11325112730264664, 0.039239559322595596, 0.20359428226947784, 0.12123763561248779, 0.039648670703172684, 0.03340335562825203, 0.016324033960700035, 0.03044830448925495, 0.03362558037042618, 0.028262902051210403, 0.11042355000972748, 0.027483250945806503, 0.027681007981300354, 0.02984379604458809, 0.09478504210710526, 0.10907087475061417, 0.04885949194431305, 0.02469741553068161, 0.026942456141114235, 0.021410342305898666, 0.03048766776919365, 0.026763852685689926, 0.06855909526348114, 0.07159493863582611]</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.8784201741218567</v>
+        <v>0.4721399247646332</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
@@ -6623,10 +6623,10 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0.6674929000146221</v>
+        <v>0.66959279999719</v>
       </c>
       <c r="J152" t="n">
-        <v>0.00565671949164934</v>
+        <v>0.005674515254213475</v>
       </c>
     </row>
     <row r="153">
@@ -6645,11 +6645,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>[0.24909962713718414, 0.34392809867858887, 0.5137906670570374, 0.26881274580955505, 0.14899782836437225, 0.24521097540855408, 0.14598864316940308, 0.0854719802737236, 0.0888676792383194, 0.05998186022043228, 0.07630778849124908, 0.2976181209087372, 0.5606339573860168, 0.4693468511104584, 0.3699333667755127, 0.35113459825515747, 0.2656630575656891, 0.5028513073921204, 0.27738499641418457, 0.21817073225975037, 0.0792306438088417, 0.3368012607097626, 0.23398828506469727, 0.1430974304676056, 0.24497969448566437, 0.2693982422351837, 0.5575577616691589, 0.2048245221376419, 0.13368010520935059, 0.12033702433109283, 0.10974085330963135, 0.14544887840747833, 0.05143893510103226, 0.0636090412735939, 0.1959814727306366, 0.04195422679185867, 0.06988073885440826, 0.15437676012516022, 0.09783850610256195, 0.0752631425857544, 0.05741480737924576, 0.022780869156122208, 0.032533835619688034, 0.037497829645872116, 0.03141554072499275, 0.020526887848973274, 0.05587620660662651, 0.035703182220458984, 0.10215449333190918, 0.08837328851222992, 0.11424068361520767, 0.1145736426115036, 0.09156305342912674, 0.06281346827745438, 0.04646265134215355, 0.057565879076719284, 0.04868683964014053, 0.0677068829536438, 0.12977387011051178, 0.0839649960398674, 0.10336333513259888, 0.12181077897548676, 0.15219943225383759, 0.22760993242263794, 0.2904936671257019, 0.2576402723789215, 0.17323189973831177, 0.09768161177635193, 0.22652313113212585, 0.22745820879936218, 0.17055726051330566, 0.11122220009565353, 0.11124225705862045, 0.04093736782670021, 0.15648989379405975, 0.14928559958934784, 0.1283172219991684, 0.09887850284576416, 0.04247447848320007, 0.03948367014527321, 0.017706850543618202, 0.057201094925403595, 0.04728992283344269, 0.0492871031165123, 0.19874878227710724, 0.10462851822376251, 0.04721710458397865, 0.04718126729130745, 0.07642889022827148, 0.04999072104692459, 0.09964781999588013, 0.03473459184169769, 0.03489990159869194, 0.05580046772956848, 0.0716332346200943, 0.051634691655635834, 0.038197241723537445, 0.05050003528594971, 0.11431043595075607, 0.052946995943784714, 0.04368099942803383, 0.05472677946090698, 0.07450403273105621, 0.07412000745534897, 0.04663452133536339, 0.0736563578248024, 0.07405703514814377, 0.06793761253356934, 0.10148601979017258, 0.04768752306699753, 0.059833966195583344, 0.04129914194345474, 0.0519217811524868, 0.035340551286935806, 0.13151812553405762, 0.4570586681365967, 0.502594530582428, 0.49950724840164185]</t>
+          <t>[0.18902677297592163, 0.2534969449043274, 0.4194614887237549, 0.10938075929880142, 0.06131547689437866, 0.102519690990448, 0.06540913134813309, 0.03197632357478142, 0.03645354509353638, 0.029268644750118256, 0.022284284234046936, 0.16359250247478485, 0.28038322925567627, 0.265536367893219, 0.1528540700674057, 0.20238268375396729, 0.12697434425354004, 0.21424725651741028, 0.09537208080291748, 0.09682567417621613, 0.021089881658554077, 0.1187044158577919, 0.04453624039888382, 0.015517102554440498, 0.022481657564640045, 0.03013908863067627, 0.12700074911117554, 0.03709685429930687, 0.030556131154298782, 0.02697719819843769, 0.017190197482705116, 0.04516606777906418, 0.02006734348833561, 0.01715809293091297, 0.05318472534418106, 0.009835278615355492, 0.02155405469238758, 0.05082728713750839, 0.03344659134745598, 0.021832764148712158, 0.022581595927476883, 0.00787304062396288, 0.006485669873654842, 0.008738454431295395, 0.005445408169180155, 0.0031817276030778885, 0.005177993327379227, 0.005021102260798216, 0.02708006650209427, 0.015774624422192574, 0.021007101982831955, 0.029224036261439323, 0.01608414202928543, 0.00910657737404108, 0.007938876748085022, 0.00881801638752222, 0.012525549158453941, 0.015928007662296295, 0.029677608981728554, 0.012545264326035976, 0.017069613561034203, 0.01950785703957081, 0.02532433345913887, 0.05400018021464348, 0.10117064416408539, 0.07024815678596497, 0.05218635872006416, 0.02633320353925228, 0.045389652252197266, 0.07107561826705933, 0.028753744438290596, 0.020609749481081963, 0.022636305540800095, 0.008356625214219093, 0.026734210550785065, 0.02294459380209446, 0.022322475910186768, 0.01576886512339115, 0.008489429019391537, 0.0078012035228312016, 0.0031298361718654633, 0.011331016197800636, 0.012360851280391216, 0.012609497644007206, 0.06745301932096481, 0.03425968810915947, 0.00943432841449976, 0.015742864459753036, 0.03919287025928497, 0.020944902673363686, 0.040721431374549866, 0.022113999351859093, 0.014336423017084599, 0.015950286760926247, 0.023770330473780632, 0.016292929649353027, 0.013711933977901936, 0.014021579176187515, 0.04906204715371132, 0.016262182965874672, 0.015605454333126545, 0.012636669911444187, 0.023104118183255196, 0.03140272572636604, 0.016348883509635925, 0.02657199651002884, 0.02442602626979351, 0.02901015430688858, 0.02964060567319393, 0.01183306984603405, 0.0178826916962862, 0.018957385793328285, 0.014645698480308056, 0.023315073922276497, 0.09432768821716309, 0.36957693099975586, 0.3389911949634552, 0.33634909987449646]</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.5606339573860168</v>
+        <v>0.4194614887237549</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
@@ -6663,10 +6663,10 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0.6631078000064008</v>
+        <v>0.672823699991568</v>
       </c>
       <c r="J153" t="n">
-        <v>0.005619557627172888</v>
+        <v>0.005701895762640407</v>
       </c>
     </row>
     <row r="154">
@@ -6685,11 +6685,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>[0.088361456990242, 0.059757545590400696, 0.07183079421520233, 0.11390308290719986, 0.08883053809404373, 0.18827404081821442, 0.4213933050632477, 0.14415448904037476, 0.11648481339216232, 0.22149774432182312, 0.1482473760843277, 0.25918132066726685, 0.20765520632266998, 0.3906089663505554, 0.030627386644482613, 0.12055652588605881, 0.39222627878189087, 0.7891950011253357, 0.4672984778881073, 0.6562015414237976, 0.2823335826396942, 0.8196431398391724, 0.47543224692344666, 0.10820960998535156, 0.05189848318696022, 0.03854190558195114, 0.025712644681334496, 0.03329848125576973, 0.08026999235153198, 0.12663738429546356, 0.02950812689960003, 0.023194797337055206, 0.038604736328125, 0.05785718560218811, 0.10184302926063538, 0.10584045201539993, 0.1629142016172409, 0.3753036558628082, 0.4767948389053345, 0.35346683859825134, 0.684561014175415, 0.4716600477695465, 0.3480220437049866, 0.12216458469629288, 0.05872755125164986, 0.053034767508506775, 0.06473993510007858, 0.07607575505971909, 0.10736443847417831, 0.05803951248526573, 0.03778480738401413, 0.03609922155737877, 0.03942073881626129, 0.02780419960618019, 0.02966875582933426, 0.027676036581397057, 0.040571801364421844, 0.0404578298330307, 0.039247043430805206, 0.04491809383034706, 0.03694652020931244, 0.04799845814704895, 0.11201530694961548, 0.2808896005153656, 0.20137640833854675, 0.3446633517742157, 0.08891277760267258, 0.0977383553981781, 0.15615947544574738, 0.15147118270397186, 0.10388606786727905, 0.07835805416107178, 0.05405467003583908, 0.07233618944883347, 0.10507228970527649, 0.047275856137275696, 0.1041952520608902, 0.0827026441693306, 0.3272399306297302, 0.4003816843032837, 0.4633919298648834, 0.7132705450057983, 0.21692414581775665, 0.5735864043235779, 0.3974404036998749, 0.71305912733078, 0.5338430404663086, 0.32689812779426575, 0.6505666971206665, 0.21558037400245667, 0.25781339406967163, 0.2147625982761383, 0.16265790164470673, 0.35700827836990356, 0.26046082377433777, 0.2757206857204437, 0.2537846565246582, 0.2848777174949646, 0.29393261671066284, 0.5651648640632629, 0.6886261105537415, 0.3283129036426544, 0.21677878499031067, 0.15617741644382477, 0.0446060374379158, 0.07965079694986343, 0.10930857807397842, 0.7264657616615295, 0.3081132471561432, 0.17102788388729095, 0.24004937708377838, 0.6536538600921631, 0.4370131492614746, 0.2802118957042694, 0.6132637858390808, 0.7442420125007629, 0.7558069825172424, 0.7555052042007446]</t>
+          <t>[0.027748962864279747, 0.017223889008164406, 0.020011505112051964, 0.03828602656722069, 0.03314439207315445, 0.06899493932723999, 0.18397094309329987, 0.03870219364762306, 0.017370056360960007, 0.04692033305764198, 0.05138426274061203, 0.06900667399168015, 0.05255131796002388, 0.07655521482229233, 0.005801189225167036, 0.043430935591459274, 0.2024620920419693, 0.47173547744750977, 0.19604440033435822, 0.33673590421676636, 0.0567738339304924, 0.39059898257255554, 0.13894107937812805, 0.010004323907196522, 0.007040505297482014, 0.007688978221267462, 0.004911391064524651, 0.006779341958463192, 0.03842783346772194, 0.07529047131538391, 0.008568803779780865, 0.010849579237401485, 0.017004651948809624, 0.030976474285125732, 0.06270594894886017, 0.06125742197036743, 0.09799627959728241, 0.14984211325645447, 0.20158356428146362, 0.11198113858699799, 0.3612794578075409, 0.24539291858673096, 0.17744804918766022, 0.03902929276227951, 0.014029011130332947, 0.013280273415148258, 0.02722511999309063, 0.02507600747048855, 0.04627205803990364, 0.018952520564198494, 0.010892017744481564, 0.010347377508878708, 0.010512139648199081, 0.007971374318003654, 0.010497289709746838, 0.010369688272476196, 0.014866260811686516, 0.011825211346149445, 0.012697171419858932, 0.016838084906339645, 0.015331379137933254, 0.014385499060153961, 0.01921522058546543, 0.05069706216454506, 0.05620494484901428, 0.06155799701809883, 0.026579054072499275, 0.026889488101005554, 0.05569453909993172, 0.049285899847745895, 0.01988246850669384, 0.011720666661858559, 0.013786747120320797, 0.01570839248597622, 0.02762959897518158, 0.011381709948182106, 0.019653890281915665, 0.02505963295698166, 0.08192427456378937, 0.10738394409418106, 0.09107410907745361, 0.3263774514198303, 0.05091729015111923, 0.25067922472953796, 0.16621585190296173, 0.5587456822395325, 0.2855515778064728, 0.1594971865415573, 0.4408283829689026, 0.1263504922389984, 0.180463969707489, 0.12213321030139923, 0.08622964471578598, 0.2795460522174835, 0.14419281482696533, 0.2675386667251587, 0.21047711372375488, 0.15719284117221832, 0.16521823406219482, 0.39849987626075745, 0.6151199340820312, 0.26178669929504395, 0.06911949813365936, 0.06026167422533035, 0.014236905612051487, 0.026132002472877502, 0.04912961646914482, 0.5038375854492188, 0.1799897998571396, 0.08135565370321274, 0.13158701360225677, 0.5115979313850403, 0.4497290551662445, 0.24628561735153198, 0.3984224796295166, 0.5625916123390198, 0.3366023600101471, 0.33619225025177]</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.8196431398391724</v>
+        <v>0.6151199340820312</v>
       </c>
       <c r="F154" t="n">
         <v>1</v>
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0.6740661000076216</v>
+        <v>0.6696551999921212</v>
       </c>
       <c r="J154" t="n">
-        <v>0.005712424576335776</v>
+        <v>0.005675044067729841</v>
       </c>
     </row>
     <row r="155">
@@ -6725,11 +6725,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[0.31199902296066284, 0.26940760016441345, 0.5356598496437073, 0.23860953748226166, 0.3806265890598297, 0.45440658926963806, 0.2933695614337921, 0.2897668182849884, 0.1418118178844452, 0.1965971738100052, 0.21411938965320587, 0.2483663558959961, 0.09769677370786667, 0.12201498448848724, 0.07124069333076477, 0.04966583475470543, 0.035634685307741165, 0.03169982507824898, 0.1271546632051468, 0.13879233598709106, 0.13054922223091125, 0.1359662115573883, 0.05328438803553581, 0.11435844749212265, 0.2752407193183899, 0.11666462570428848, 0.5937873125076294, 0.29331985116004944, 0.2974366843700409, 0.2158522754907608, 0.1480567753314972, 0.12829144299030304, 0.11114075034856796, 0.07954604923725128, 0.129848450422287, 0.0476430244743824, 0.11617278307676315, 0.1809653788805008, 0.18221387267112732, 0.1291213482618332, 0.20797790586948395, 0.11940411478281021, 0.04037326201796532, 0.04247048497200012, 0.03787882253527641, 0.049332574009895325, 0.0525413379073143, 0.06509169936180115, 0.1889580488204956, 0.06361005455255508, 0.07755665481090546, 0.06569750607013702, 0.04253947362303734, 0.09679730236530304, 0.09120386093854904, 0.13150177896022797, 0.2578091323375702, 0.1834459751844406, 0.05038529634475708, 0.04614761471748352, 0.18664659559726715, 0.2640395760536194, 0.16756120324134827, 0.2722160518169403, 0.11211273819208145, 0.34813907742500305, 0.30473071336746216, 0.6127252578735352, 0.11208507418632507, 0.056630536913871765, 0.05011405423283577, 0.18357984721660614, 0.1703374832868576, 0.36556559801101685, 0.18042999505996704, 0.2622615098953247, 0.18399283289909363, 0.22118888795375824, 0.11337901651859283, 0.3368489742279053, 0.2986777424812317, 0.40750595927238464, 0.27495941519737244, 0.1285349428653717, 0.16162537038326263, 0.1463191658258438, 0.13030113279819489, 0.08636578917503357, 0.09423765540122986, 0.21904180943965912, 0.16640016436576843, 0.2746099829673767, 0.17537645995616913, 0.14339867234230042, 0.2550283372402191, 0.1950821876525879, 0.09634390473365784, 0.1337147057056427, 0.12753356993198395, 0.22800156474113464, 0.09730382263660431, 0.11727054417133331, 0.11984667927026749, 0.16493189334869385, 0.29725921154022217, 0.1050570160150528, 0.13263747096061707, 0.18490353226661682, 0.17286644876003265, 0.1332654505968094, 0.19606006145477295, 0.16105221211910248, 0.22248300909996033, 0.3612556457519531, 0.22981055080890656, 0.09043503552675247, 0.05595393851399422, 0.05668048933148384]</t>
+          <t>[0.10688158869743347, 0.06590130925178528, 0.16027560830116272, 0.05901848524808884, 0.08259224146604538, 0.1277141124010086, 0.07008222490549088, 0.06402435898780823, 0.04146048426628113, 0.06518673896789551, 0.0908009260892868, 0.2013622522354126, 0.1053188368678093, 0.18799106776714325, 0.10021525621414185, 0.029478127136826515, 0.014451330527663231, 0.018199779093265533, 0.06530829519033432, 0.058986879885196686, 0.08485212177038193, 0.08423764258623123, 0.032150257378816605, 0.088442862033844, 0.1487065553665161, 0.03858456760644913, 0.21766133606433868, 0.20351052284240723, 0.2555582523345947, 0.14267177879810333, 0.05723622813820839, 0.14782845973968506, 0.08046208322048187, 0.03642907738685608, 0.09566821157932281, 0.028612632304430008, 0.12736175954341888, 0.14801748096942902, 0.15039876103401184, 0.07723300904035568, 0.08918224275112152, 0.052574340254068375, 0.02301960624754429, 0.025923345237970352, 0.01617816463112831, 0.03850077837705612, 0.036194443702697754, 0.02843899466097355, 0.09490498900413513, 0.03141150251030922, 0.028205886483192444, 0.018840866163372993, 0.017089953646063805, 0.05828056484460831, 0.05833526328206062, 0.1322844922542572, 0.23269717395305634, 0.09546247124671936, 0.03016005828976631, 0.03640343248844147, 0.10518021881580353, 0.11814221739768982, 0.1969447135925293, 0.18805108964443207, 0.08914186805486679, 0.3539063334465027, 0.24928179383277893, 0.6238808035850525, 0.0796852707862854, 0.044613081961870193, 0.03471370413899422, 0.10805229842662811, 0.08098474889993668, 0.17614449560642242, 0.11155835539102554, 0.1028018519282341, 0.07858752459287643, 0.15159957110881805, 0.05410119891166687, 0.32053911685943604, 0.13579516112804413, 0.20120489597320557, 0.07490584999322891, 0.04293542355298996, 0.06518777459859848, 0.04859400913119316, 0.04570863023400307, 0.02651604823768139, 0.026829661801457405, 0.0507141649723053, 0.03280193731188774, 0.07844284921884537, 0.03792433813214302, 0.02639498934149742, 0.05998370051383972, 0.04790736734867096, 0.028329862281680107, 0.03182264417409897, 0.028860317543148994, 0.08159328997135162, 0.0257605891674757, 0.03506726026535034, 0.05032123625278473, 0.03449714928865433, 0.09474406391382217, 0.027920952066779137, 0.02830270119011402, 0.037142302840948105, 0.025718683376908302, 0.02471877448260784, 0.045649293810129166, 0.040325116366147995, 0.06617571413516998, 0.05736393854022026, 0.0770987793803215, 0.024211609736084938, 0.010949285700917244, 0.010997445322573185]</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.6127252578735352</v>
+        <v>0.6238808035850525</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
@@ -6743,10 +6743,10 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0.8026785000110976</v>
+        <v>0.8182054000062635</v>
       </c>
       <c r="J155" t="n">
-        <v>0.006802360169585573</v>
+        <v>0.006933944067849691</v>
       </c>
     </row>
     <row r="156">
@@ -6765,11 +6765,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>[0.09057127684354782, 0.13467590510845184, 0.27093929052352905, 0.16663560271263123, 0.04486899822950363, 0.06300190836191177, 0.3953966796398163, 0.2334693819284439, 0.4765286445617676, 0.8565542101860046, 0.6562736630439758, 0.5040985345840454, 0.5755412578582764, 0.41910257935523987, 0.6869248747825623, 0.39606648683547974, 0.3592005968093872, 0.48938700556755066, 0.3250792622566223, 0.06582006812095642, 0.027116790413856506, 0.05101180076599121, 0.09010675549507141, 0.17625588178634644, 0.18032488226890564, 0.10324937105178833, 0.06782843172550201, 0.6792603135108948, 0.6771218776702881, 0.7552568912506104, 0.5523631572723389, 0.7169067859649658, 0.1723288595676422, 0.3623932898044586, 0.616923987865448, 0.5149427056312561, 0.46450674533843994, 0.16770897805690765, 0.06279557943344116, 0.20114435255527496, 0.18736381828784943, 0.5256518125534058, 0.14955498278141022, 0.038437895476818085, 0.03876195102930069, 0.03086959756910801, 0.02323787659406662, 0.021976104006171227, 0.04610586166381836, 0.046153683215379715, 0.03727009519934654, 0.0324958860874176, 0.05498174577951431, 0.05355342477560043, 0.0610445961356163, 0.06106426194310188, 0.05039266124367714, 0.034067440778017044, 0.020819103345274925, 0.027917027473449707, 0.023131905123591423, 0.026582494378089905, 0.046596840023994446, 0.043726321309804916, 0.04770462587475777, 0.04655838385224342, 0.05549085885286331, 0.05173477530479431, 0.05857576057314873, 0.21461491286754608, 0.08960961550474167, 0.020764147862792015, 0.019863899797201157, 0.013482761569321156, 0.05499229207634926, 0.06867723912000656, 0.060014963150024414, 0.040602248162031174, 0.03525962680578232, 0.020716816186904907, 0.016232244670391083, 0.03935564309358597, 0.03234793245792389, 0.07815683633089066, 0.08017688989639282, 0.17231521010398865, 0.10544462502002716, 0.16957223415374756, 0.1985602229833603, 0.2265280932188034, 0.10552375018596649, 0.06774090230464935, 0.0824156254529953, 0.3189448118209839, 0.3674013912677765, 0.2975621521472931, 0.5736595988273621, 0.6687058806419373, 0.9456903338432312, 0.9211410880088806, 0.8928861021995544, 0.8297694325447083, 0.18739452958106995, 0.03480363264679909, 0.09372971951961517, 0.20528417825698853, 0.4421972632408142, 0.1879369020462036, 0.14606089890003204, 0.0520164892077446, 0.1058013066649437, 0.3086918592453003, 0.21128030121326447, 0.6294196248054504, 0.8844990134239197, 0.7692255973815918, 0.7391733527183533, 0.7398266196250916]</t>
+          <t>[0.03775831311941147, 0.04400313273072243, 0.20267802476882935, 0.10857647657394409, 0.02864839695394039, 0.03020118735730648, 0.5834124684333801, 0.1319337636232376, 0.2515151798725128, 0.6886913180351257, 0.4293000102043152, 0.4941045641899109, 0.2113468050956726, 0.25374913215637207, 0.39281970262527466, 0.16504135727882385, 0.11893420666456223, 0.2953370213508606, 0.2137003242969513, 0.043064508587121964, 0.012540468014776707, 0.01860898733139038, 0.029014764353632927, 0.06055770441889763, 0.10957473516464233, 0.0363704152405262, 0.026170987635850906, 0.49145185947418213, 0.31025004386901855, 0.38870763778686523, 0.23341213166713715, 0.4528587758541107, 0.05972868949174881, 0.17368343472480774, 0.27350395917892456, 0.1857757270336151, 0.1622423529624939, 0.055894941091537476, 0.02404790371656418, 0.1014740914106369, 0.14742077887058258, 0.4535026550292969, 0.17201362550258636, 0.04248996824026108, 0.028236156329512596, 0.011848067864775658, 0.022291922941803932, 0.0065269167535007, 0.010426974855363369, 0.016954710707068443, 0.018528927117586136, 0.009847363457083702, 0.032849401235580444, 0.020501164719462395, 0.04782847315073013, 0.037119023501873016, 0.040103547275066376, 0.03446200489997864, 0.010782508179545403, 0.0188828706741333, 0.0073106675408780575, 0.009866229258477688, 0.01318707037717104, 0.01303785014897585, 0.021090710535645485, 0.022438177838921547, 0.017519962042570114, 0.012224969454109669, 0.02576911635696888, 0.16161057353019714, 0.023810632526874542, 0.004812053870409727, 0.00669778510928154, 0.0038939956575632095, 0.034033313393592834, 0.05310007557272911, 0.03372131660580635, 0.019550852477550507, 0.017997315153479576, 0.009884956292808056, 0.0082030538469553, 0.01745985820889473, 0.01860053278505802, 0.033427659422159195, 0.05199164152145386, 0.0751151293516159, 0.052898455411195755, 0.0875411257147789, 0.2085026651620865, 0.1553778201341629, 0.05467311665415764, 0.04100574180483818, 0.0873120054602623, 0.49475011229515076, 0.580776572227478, 0.6424733996391296, 0.7706816792488098, 0.7706905007362366, 0.9484855532646179, 0.9122132062911987, 0.8892505168914795, 0.7668509483337402, 0.16621193289756775, 0.010327547788619995, 0.057404711842536926, 0.11024484038352966, 0.15198422968387604, 0.052347294986248016, 0.05959801748394966, 0.012985778972506523, 0.02489468827843666, 0.07541582733392715, 0.05877920985221863, 0.2755032181739807, 0.6750741600990295, 0.5824013352394104, 0.6641362309455872, 0.6694895625114441]</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.9456903338432312</v>
+        <v>0.9484855532646179</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
@@ -6783,10 +6783,10 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0.6724094999954104</v>
+        <v>0.6676195000036387</v>
       </c>
       <c r="J156" t="n">
-        <v>0.005698385593181444</v>
+        <v>0.005657792372912192</v>
       </c>
     </row>
     <row r="157">
@@ -6805,11 +6805,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>[0.6040545105934143, 0.7680758237838745, 0.7432616949081421, 0.5205080509185791, 0.6311164498329163, 0.6989519000053406, 0.5863595604896545, 0.7795507311820984, 0.8960793018341064, 0.9444287419319153, 0.6437766551971436, 0.6773713827133179, 0.3976605236530304, 0.3408329486846924, 0.36908096075057983, 0.3644416630268097, 0.3661540746688843, 0.267727792263031, 0.5996564030647278, 0.47866520285606384, 0.2542720437049866, 0.23499204218387604, 0.10048343986272812, 0.27202972769737244, 0.2312406301498413, 0.1589195728302002, 0.13514068722724915, 0.19401635229587555, 0.35759711265563965, 0.2228512316942215, 0.14296409487724304, 0.12538199126720428, 0.11161310225725174, 0.23627600073814392, 0.1153821274638176, 0.13934753835201263, 0.2046527862548828, 0.2819743752479553, 0.1665412336587906, 0.2470570057630539, 0.1770816445350647, 0.14626288414001465, 0.32456693053245544, 0.4714635908603668, 0.6358169913291931, 0.6042865514755249, 0.5835512280464172, 0.7691363096237183, 0.7413923144340515, 0.7767549157142639, 0.6775100231170654, 0.8805413842201233, 0.9384496212005615, 0.8432530760765076, 0.6856067776679993, 0.7808471918106079, 0.7614915370941162, 0.7031658887863159, 0.8481515645980835, 0.9599031209945679, 0.8399892449378967, 0.9133095741271973, 0.684930145740509, 0.9491220116615295, 0.8154938220977783, 0.7806525826454163, 0.6673413515090942, 0.5919564962387085, 0.36569175124168396, 0.4057168960571289, 0.32649755477905273, 0.30923354625701904, 0.17120781540870667, 0.30198583006858826, 0.653925895690918, 0.4131411015987396, 0.48624372482299805, 0.426448255777359, 0.37208494544029236, 0.365850567817688, 0.3662336468696594, 0.2113221138715744, 0.21701280772686005, 0.31492409110069275, 0.6684535145759583, 0.7714102268218994, 0.7638588547706604, 0.9126015901565552, 0.6216066479682922, 0.46354344487190247, 0.4138149619102478, 0.357925683259964, 0.31392982602119446, 0.4440213143825531, 0.5563516020774841, 0.534801721572876, 0.6723441481590271, 0.7535385489463806, 0.5169022083282471, 0.4297083914279938, 0.6282458901405334, 0.6875605583190918, 0.5886252522468567, 0.6766255497932434, 0.8310642242431641, 0.834661602973938, 0.8441627621650696, 0.5275542140007019, 0.8221961855888367, 0.9416470527648926, 0.9134800434112549, 0.8617699146270752, 0.9300239682197571, 0.45370614528656006, 0.7049778699874878, 0.6845239400863647, 0.9369106292724609, 0.9368812441825867]</t>
+          <t>[0.2899109125137329, 0.37115058302879333, 0.19288232922554016, 0.1380886286497116, 0.14061278104782104, 0.1598702371120453, 0.12996767461299896, 0.25977304577827454, 0.4751199781894684, 0.6140108108520508, 0.2726641595363617, 0.19114123284816742, 0.10040971636772156, 0.07792434841394424, 0.10775547474622726, 0.098135806620121, 0.0810411125421524, 0.04012848064303398, 0.12269571423530579, 0.10914327204227448, 0.03887683153152466, 0.039841800928115845, 0.019071020185947418, 0.035789504647254944, 0.05278697982430458, 0.03521869704127312, 0.030412526801228523, 0.047124214470386505, 0.083037368953228, 0.08228076994419098, 0.039818115532398224, 0.04769377410411835, 0.03766312822699547, 0.07495135813951492, 0.021206120029091835, 0.02523081749677658, 0.03490491583943367, 0.07206469774246216, 0.06066253036260605, 0.06732024997472763, 0.04467380419373512, 0.02619946375489235, 0.10086997598409653, 0.09142664074897766, 0.15579856932163239, 0.1515270471572876, 0.19515183568000793, 0.3553493022918701, 0.33298757672309875, 0.27114519476890564, 0.23964239656925201, 0.376698762178421, 0.6245468854904175, 0.45015934109687805, 0.149439737200737, 0.16711556911468506, 0.2738884389400482, 0.17647138237953186, 0.3534195125102997, 0.7752100229263306, 0.23949748277664185, 0.6622090935707092, 0.23163945972919464, 0.7394953966140747, 0.3419455289840698, 0.33334630727767944, 0.2572672665119171, 0.17493796348571777, 0.13323798775672913, 0.09341126680374146, 0.052666179835796356, 0.062442246824502945, 0.04499881714582443, 0.08569913357496262, 0.17623834311962128, 0.1236148551106453, 0.08541316539049149, 0.07789120078086853, 0.06925332546234131, 0.08959942311048508, 0.0941193476319313, 0.05054702237248421, 0.051213908940553665, 0.08116856962442398, 0.4744032919406891, 0.6180989146232605, 0.6997720003128052, 0.8781658411026001, 0.39559462666511536, 0.30460572242736816, 0.35085639357566833, 0.28846293687820435, 0.28470379114151, 0.36200565099716187, 0.4292807877063751, 0.3883773684501648, 0.6492205858230591, 0.6527824401855469, 0.4671861529350281, 0.3300515115261078, 0.2976076602935791, 0.3521558940410614, 0.3476322889328003, 0.3522363305091858, 0.48605862259864807, 0.5541510581970215, 0.5937771201133728, 0.27696773409843445, 0.4544046223163605, 0.6616764664649963, 0.8056407570838928, 0.5747523903846741, 0.7120079398155212, 0.15271900594234467, 0.25762224197387695, 0.23726068437099457, 0.8136498332023621, 0.8134576678276062]</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.9599031209945679</v>
+        <v>0.8781658411026001</v>
       </c>
       <c r="F157" t="n">
         <v>1</v>
@@ -6823,10 +6823,10 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0.6608168999955524</v>
+        <v>0.6679050000093412</v>
       </c>
       <c r="J157" t="n">
-        <v>0.005600143220301291</v>
+        <v>0.005660211864485942</v>
       </c>
     </row>
     <row r="158">
@@ -6845,11 +6845,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>[0.06479794532060623, 0.1027165949344635, 0.08384491503238678, 0.038317158818244934, 0.04154365509748459, 0.02442394196987152, 0.14877614378929138, 0.09514250606298447, 0.17519892752170563, 0.11646977812051773, 0.11109067499637604, 0.0796065405011177, 0.11265997588634491, 0.04294722527265549, 0.03495848923921585, 0.032267533242702484, 0.02355792187154293, 0.018083615228533745, 0.02013181522488594, 0.030265556648373604, 0.029831213876605034, 0.02657582052052021, 0.02100173570215702, 0.02528725378215313, 0.04080990329384804, 0.06340677291154861, 0.01955116167664528, 0.015633724629878998, 0.02260889858007431, 0.04424877092242241, 0.13488222658634186, 0.1263289600610733, 0.1259569227695465, 0.3232525587081909, 0.3825801610946655, 0.13721515238285065, 0.13111048936843872, 0.1727946251630783, 0.26585903763771057, 0.49644896388053894, 0.32943135499954224, 0.4178788959980011, 0.8721234202384949, 0.8318276405334473, 0.9805406928062439, 0.6522272825241089, 0.3685462176799774, 0.7206434011459351, 0.8197413682937622, 0.8203450441360474, 0.710665762424469, 0.3561325669288635, 0.7099030613899231, 0.6897985935211182, 0.09252924472093582, 0.08925426751375198, 0.09239523857831955, 0.14175154268741608, 0.10410089045763016, 0.5446054935455322, 0.8076480031013489, 0.7628287672996521, 0.40190136432647705, 0.3214819133281708, 0.2944341003894806, 0.4393685758113861, 0.15865515172481537, 0.045128267258405685, 0.14772269129753113, 0.12690654397010803, 0.4061242341995239, 0.8035736083984375, 0.6856299638748169, 0.3262364864349365, 0.28107380867004395, 0.118874691426754, 0.07545367628335953, 0.08105583488941193, 0.026511793956160545, 0.061187583953142166, 0.0913984477519989, 0.18232201039791107, 0.26429483294487, 0.3079783022403717, 0.7331042289733887, 0.4461492896080017, 0.4944736957550049, 0.9633617401123047, 0.8538011908531189, 0.6836241483688354, 0.35786157846450806, 0.32789137959480286, 0.5669884085655212, 0.782848596572876, 0.48818549513816833, 0.3696412146091461, 0.21271206438541412, 0.052734460681676865, 0.08256347477436066, 0.09251242130994797, 0.17889370024204254, 0.1586054265499115, 0.07385463267564774, 0.14807066321372986, 0.15049636363983154, 0.41987261176109314, 0.1868320107460022, 0.07206099480390549, 0.031007476150989532, 0.026219826191663742, 0.018492255359888077, 0.04049811139702797, 0.1199703961610794, 0.15316201746463776, 0.3898259997367859, 0.842875599861145, 0.2962968945503235, 0.2969589829444885]</t>
+          <t>[0.03269786015152931, 0.06282514333724976, 0.030745025724172592, 0.020140595734119415, 0.020741837099194527, 0.015732450410723686, 0.056639380753040314, 0.045914020389318466, 0.06934615969657898, 0.05579887330532074, 0.07913950830698013, 0.05960474908351898, 0.08356745541095734, 0.025293009355664253, 0.02234381064772606, 0.01682092435657978, 0.012779157608747482, 0.00893986877053976, 0.008151352405548096, 0.021504947915673256, 0.017376471310853958, 0.014346091076731682, 0.01155823189765215, 0.009909206070005894, 0.019649069756269455, 0.06101679056882858, 0.01640651561319828, 0.007683217991143465, 0.01052810251712799, 0.013845290057361126, 0.055604685097932816, 0.07696561515331268, 0.05562647804617882, 0.1864469349384308, 0.1697128713130951, 0.03298714756965637, 0.04570323973894119, 0.05423664301633835, 0.11234613507986069, 0.296482115983963, 0.2868921458721161, 0.30782946944236755, 0.6384074091911316, 0.6494624018669128, 0.9664068818092346, 0.3896060585975647, 0.14564818143844604, 0.42667803168296814, 0.6972138285636902, 0.820820152759552, 0.5137386322021484, 0.3039618134498596, 0.28633007407188416, 0.2576177716255188, 0.034937914460897446, 0.046003613620996475, 0.049773920327425, 0.059144385159015656, 0.042786482721567154, 0.2374696284532547, 0.5406318306922913, 0.5172321796417236, 0.19321146607398987, 0.15916989743709564, 0.0915743038058281, 0.20255030691623688, 0.06006168574094772, 0.020893968641757965, 0.061926111578941345, 0.03284045308828354, 0.17692381143569946, 0.5249338150024414, 0.3570333421230316, 0.25287336111068726, 0.18245038390159607, 0.04418078437447548, 0.06636032462120056, 0.0719655454158783, 0.012625480070710182, 0.014241171069443226, 0.03566773608326912, 0.11764329671859741, 0.1365654319524765, 0.15648987889289856, 0.5721335411071777, 0.24772979319095612, 0.3897940516471863, 0.9334542751312256, 0.5986086130142212, 0.31413182616233826, 0.19680972397327423, 0.1398421972990036, 0.3736317753791809, 0.6644324064254761, 0.2705690562725067, 0.16593168675899506, 0.11848133057355881, 0.022689593955874443, 0.02840322069823742, 0.04265442490577698, 0.0491214245557785, 0.04893331974744797, 0.020714515820145607, 0.04564063251018524, 0.06647677719593048, 0.18693913519382477, 0.09400786459445953, 0.031620461493730545, 0.015690786764025688, 0.016464630141854286, 0.013912064954638481, 0.02257927507162094, 0.09006393700838089, 0.05126474052667618, 0.18216513097286224, 0.5365702509880066, 0.07783153653144836, 0.07800239324569702]</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.9805406928062439</v>
+        <v>0.9664068818092346</v>
       </c>
       <c r="F158" t="n">
         <v>1</v>
@@ -6863,10 +6863,10 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0.6588227000029292</v>
+        <v>0.6633519000024535</v>
       </c>
       <c r="J158" t="n">
-        <v>0.005583243220363807</v>
+        <v>0.005621626271207233</v>
       </c>
     </row>
     <row r="159">
@@ -6885,11 +6885,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>[0.5003332495689392, 0.9851329326629639, 0.47899261116981506, 0.1196347326040268, 0.1510125696659088, 0.20254391431808472, 0.3583080470561981, 0.5732569098472595, 0.30238017439842224, 0.5457055568695068, 0.5925021171569824, 0.5077341198921204, 0.6306236982345581, 0.8168861269950867, 0.32367458939552307, 0.35618773102760315, 0.7950646877288818, 0.12071532756090164, 0.2586503028869629, 0.5286246538162231, 0.20377765595912933, 0.19683273136615753, 0.5235300660133362, 0.2960922420024872, 0.15759053826332092, 0.5201351046562195, 0.9311902523040771, 0.8750476241111755, 0.41136640310287476, 0.46700745820999146, 0.6191104054450989, 0.4857752323150635, 0.44883206486701965, 0.5473433136940002, 0.6210325360298157, 0.753124475479126, 0.49751824140548706, 0.6571312546730042, 0.7102435231208801, 0.32335811853408813, 0.3582835793495178, 0.14094288647174835, 0.46420523524284363, 0.4778997004032135, 0.25596883893013, 0.14330831170082092, 0.26871904730796814, 0.09483528137207031, 0.11622235178947449, 0.08726008236408234, 0.225812166929245, 0.11863605678081512, 0.13261155784130096, 0.13855454325675964, 0.1144847571849823, 0.1354304403066635, 0.0768764317035675, 0.05896347388625145, 0.1470971554517746, 0.08354950696229935, 0.05668069049715996, 0.07094706594944, 0.08882266283035278, 0.06448721140623093, 0.0851239338517189, 0.10218726843595505, 0.2571601867675781, 0.13591086864471436, 0.15146400034427643, 0.2679981291294098, 0.14586466550827026, 0.204398512840271, 0.3588092625141144, 0.12016317248344421, 0.06629959493875504, 0.03640761598944664, 0.05720072239637375, 0.05663242191076279, 0.05231466889381409, 0.07133868336677551, 0.08111777156591415, 0.05935891345143318, 0.06396212428808212, 0.10641664266586304, 0.0752657800912857, 0.043594613671302795, 0.05321957916021347, 0.05656103044748306, 0.05227852612733841, 0.07137149572372437, 0.061592236161231995, 0.06277729570865631, 0.14994674921035767, 0.105132095515728, 0.03682607039809227, 0.07469677180051804, 0.05898895859718323, 0.05690360814332962, 0.07145620882511139, 0.03442468121647835, 0.07800309360027313, 0.04182436317205429, 0.05828077346086502, 0.05697368457913399, 0.058051031082868576, 0.06529367715120316, 0.07264772057533264, 0.09086978435516357, 0.1260795146226883, 0.14397981762886047, 0.09271369129419327, 0.08492784947156906, 0.2223486751317978, 0.10626731067895889, 0.14311954379081726, 0.06780567765235901, 0.09275330603122711, 0.09153570979833603]</t>
+          <t>[0.8416698575019836, 0.9863108396530151, 0.5827191472053528, 0.09314659982919693, 0.1526489555835724, 0.3010946214199066, 0.6314191222190857, 0.9197670817375183, 0.5045376420021057, 0.7198209762573242, 0.901054859161377, 0.7208955883979797, 0.7700424194335938, 0.8510656952857971, 0.431196004152298, 0.6254313588142395, 0.8565094470977783, 0.1228974312543869, 0.4232461452484131, 0.7699243426322937, 0.3681758940219879, 0.29570508003234863, 0.5972291827201843, 0.26970386505126953, 0.16920167207717896, 0.6290594339370728, 0.9074212908744812, 0.8702301383018494, 0.5773290395736694, 0.6427536010742188, 0.775371253490448, 0.7264620065689087, 0.5029473304748535, 0.4692320227622986, 0.4528333842754364, 0.7350101470947266, 0.5685567259788513, 0.6660839915275574, 0.6926125884056091, 0.33120253682136536, 0.39767512679100037, 0.17161817848682404, 0.41856133937835693, 0.3107578754425049, 0.2423422932624817, 0.11963090300559998, 0.24422720074653625, 0.07341644912958145, 0.14371535181999207, 0.10934989899396896, 0.21100710332393646, 0.13525579869747162, 0.13805949687957764, 0.19203631579875946, 0.15744422376155853, 0.17919698357582092, 0.07116124033927917, 0.0469520278275013, 0.15662306547164917, 0.04508955404162407, 0.021952057257294655, 0.033958762884140015, 0.0571909137070179, 0.039926525205373764, 0.07096545398235321, 0.1097337156534195, 0.3258229196071625, 0.11213375627994537, 0.18522563576698303, 0.3860616981983185, 0.09963873773813248, 0.2936550974845886, 0.4017046093940735, 0.12286282330751419, 0.050269391387701035, 0.0292502511292696, 0.05731053650379181, 0.03144793212413788, 0.03090948425233364, 0.027848292142152786, 0.027068516239523888, 0.01700899563729763, 0.0371730662882328, 0.07018774002790451, 0.1531200408935547, 0.029990028589963913, 0.02780553326010704, 0.03558919578790665, 0.032073576003313065, 0.04174114391207695, 0.043936822563409805, 0.107839435338974, 0.2707695960998535, 0.20327278971672058, 0.020166167989373207, 0.04001893475651741, 0.04098193347454071, 0.034475844353437424, 0.050344012677669525, 0.012249990366399288, 0.04795629531145096, 0.023262102156877518, 0.03768191114068031, 0.05553419142961502, 0.0516996793448925, 0.05436699464917183, 0.0423271507024765, 0.06983606517314911, 0.07542673498392105, 0.11768405884504318, 0.05680031329393387, 0.06386246532201767, 0.28705960512161255, 0.07306070625782013, 0.13459248840808868, 0.06336858123540878, 0.08615466952323914, 0.08350226283073425]</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.9851329326629639</v>
+        <v>0.9863108396530151</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -6903,10 +6903,10 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0.6829968999954872</v>
+        <v>0.6750182999967365</v>
       </c>
       <c r="J159" t="n">
-        <v>0.005788109321995654</v>
+        <v>0.005720494067768953</v>
       </c>
     </row>
     <row r="160">
@@ -6925,11 +6925,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[0.10669460147619247, 0.1459996998310089, 0.17922522127628326, 0.2405102401971817, 0.3392254710197449, 0.2912888824939728, 0.2709215581417084, 0.2597004473209381, 0.19759789109230042, 0.1296633630990982, 0.10907627642154694, 0.0692124292254448, 0.07193019241094589, 0.14348013699054718, 0.2104645073413849, 0.11981918662786484, 0.14947077631950378, 0.11972704529762268, 0.123977892100811, 0.10762637853622437, 0.1074800118803978, 0.08719214051961899, 0.0983954668045044, 0.08788943290710449, 0.0963960811495781, 0.08326651155948639, 0.061425067484378815, 0.09297286719083786, 0.2448701411485672, 0.22778372466564178, 0.19231554865837097, 0.13382671773433685, 0.27490076422691345, 0.12821069359779358, 0.14414264261722565, 0.06485100090503693, 0.09365783631801605, 0.1987132728099823, 0.34365296363830566, 0.2731859087944031, 0.24429967999458313, 0.27770233154296875, 0.1814199984073639, 0.12242602556943893, 0.14057500660419464, 0.15836478769779205, 0.13387835025787354, 0.12218964099884033, 0.1500602513551712, 0.10754194110631943, 0.09216880798339844, 0.18485325574874878, 0.08413878828287125, 0.08271798491477966, 0.22118541598320007, 0.151631698012352, 0.11281754076480865, 0.16909073293209076, 0.16442163288593292, 0.14122049510478973, 0.14926399290561676, 0.1326022893190384, 0.12007730454206467, 0.1588287204504013, 0.14909029006958008, 0.1167793795466423, 0.12021709233522415, 0.13362589478492737, 0.29814839363098145, 0.2229893058538437, 0.21304698288440704, 0.2955379784107208, 0.2044324278831482, 0.1446763128042221, 0.2833881974220276, 0.20519044995307922, 0.15266618132591248, 0.09385097771883011, 0.0802534818649292, 0.23705458641052246, 0.18140903115272522, 0.2850003242492676, 0.13090331852436066, 0.13220585882663727, 0.29588136076927185, 0.2159360647201538, 0.18593920767307281, 0.16004812717437744, 0.20332419872283936, 0.19505487382411957, 0.1308882236480713, 0.2350923866033554, 0.29154425859451294, 0.11857452243566513, 0.1326916664838791, 0.22610726952552795, 0.18711727857589722, 0.15814661979675293, 0.17242129147052765, 0.10952331125736237, 0.22412851452827454, 0.21108461916446686, 0.1640118509531021, 0.1519646793603897, 0.13369594514369965, 0.1091977208852768, 0.12346489727497101, 0.1478184461593628, 0.12743575870990753, 0.27907848358154297, 0.34347832202911377, 0.40999743342399597, 0.14166192710399628, 0.11144404113292694, 0.14220494031906128, 0.1504419595003128, 0.14615638554096222, 0.1460362672805786]</t>
+          <t>[0.03708522021770477, 0.05709049478173256, 0.06846881657838821, 0.15979525446891785, 0.26257026195526123, 0.16403084993362427, 0.28012898564338684, 0.22856499254703522, 0.17569856345653534, 0.060700125992298126, 0.07328089326620102, 0.03287721425294876, 0.05344081297516823, 0.160378560423851, 0.2934351861476898, 0.09826689213514328, 0.19408605992794037, 0.14016462862491608, 0.17179322242736816, 0.14132294058799744, 0.12566052377223969, 0.08401015400886536, 0.08655033260583878, 0.07159300148487091, 0.11748237907886505, 0.08968010544776917, 0.0325629822909832, 0.06770575046539307, 0.20549340546131134, 0.17115986347198486, 0.2006513774394989, 0.12445960938930511, 0.33655115962028503, 0.14071184396743774, 0.13773830235004425, 0.04240645840764046, 0.0652310773730278, 0.16533152759075165, 0.36191821098327637, 0.2994643449783325, 0.288022518157959, 0.26348960399627686, 0.24710847437381744, 0.14730893075466156, 0.16774451732635498, 0.21023871004581451, 0.19654889404773712, 0.14688627421855927, 0.1951070874929428, 0.12011928856372833, 0.12236562371253967, 0.2234184741973877, 0.09108065068721771, 0.07438182085752487, 0.20217834413051605, 0.19162693619728088, 0.19500696659088135, 0.3039124608039856, 0.22097893059253693, 0.2183583676815033, 0.2068653702735901, 0.12311253696680069, 0.19414207339286804, 0.27356523275375366, 0.18571282923221588, 0.15922588109970093, 0.16562578082084656, 0.19805532693862915, 0.3748153746128082, 0.2524753510951996, 0.19538362324237823, 0.23422497510910034, 0.13319113850593567, 0.12764234840869904, 0.2882566452026367, 0.29583126306533813, 0.15442006289958954, 0.08539190143346786, 0.0639643445611, 0.33171018958091736, 0.23606599867343903, 0.39185357093811035, 0.16744692623615265, 0.14063838124275208, 0.34052690863609314, 0.3727385401725769, 0.24333423376083374, 0.20319870114326477, 0.17311987280845642, 0.24436551332473755, 0.16208721697330475, 0.3357566297054291, 0.3440711200237274, 0.11708202213048935, 0.13186749815940857, 0.18941256403923035, 0.1479901820421219, 0.17747431993484497, 0.22751735150814056, 0.14392851293087006, 0.29034700989723206, 0.32013022899627686, 0.22091253101825714, 0.12627160549163818, 0.12346301227807999, 0.13993623852729797, 0.15604712069034576, 0.2016129344701767, 0.22478821873664856, 0.5351924300193787, 0.5774752497673035, 0.5427601337432861, 0.1900452971458435, 0.11427384614944458, 0.1585765928030014, 0.26596054434776306, 0.19798684120178223, 0.19793957471847534]</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.409997433423996</v>
+        <v>0.5774752497673035</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
@@ -6943,10 +6943,10 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0.6748001000087243</v>
+        <v>0.6716825000039535</v>
       </c>
       <c r="J160" t="n">
-        <v>0.005718644915328172</v>
+        <v>0.005692224576304691</v>
       </c>
     </row>
     <row r="161">
@@ -6965,11 +6965,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[0.0342581532895565, 0.04907431825995445, 0.05040764808654785, 0.04408029094338417, 0.05638594925403595, 0.055084262043237686, 0.06151880696415901, 0.06200429052114487, 0.23442941904067993, 0.04830840229988098, 0.07356879860162735, 0.07074260711669922, 0.042998556047677994, 0.03300158679485321, 0.047705408185720444, 0.06537499278783798, 0.0815337672829628, 0.07878663390874863, 0.07067912071943283, 0.06532684713602066, 0.0746081992983818, 0.0631629079580307, 0.09842699021100998, 0.08427566289901733, 0.07956401258707047, 0.12914299964904785, 0.09016823768615723, 0.09186992049217224, 0.42159080505371094, 0.2723270654678345, 0.5466397404670715, 0.0918889194726944, 0.04413044825196266, 0.043086033314466476, 0.7616439461708069, 0.9434105753898621, 0.9186505675315857, 0.5553374886512756, 0.25471678376197815, 0.034069232642650604, 0.04115087911486626, 0.11497172713279724, 0.7654382586479187, 0.827998697757721, 0.6537705659866333, 0.9754149913787842, 0.9859979152679443, 0.46552935242652893, 0.5262801051139832, 0.9261183738708496, 0.45328837633132935, 0.11553607881069183, 0.06303062289953232, 0.0803946852684021, 0.06601785123348236, 0.10296927392482758, 0.1011078804731369, 0.07996080070734024, 0.09403648227453232, 0.06235932931303978, 0.06790832430124283, 0.0988631621003151, 0.08658750355243683, 0.08121932297945023, 0.08734937757253647, 0.04789068177342415, 0.046336088329553604, 0.042766839265823364, 0.039767373353242874, 0.03624888136982918, 0.29187390208244324, 0.7120619416236877, 0.9245239496231079, 0.9007883667945862, 0.8338376879692078, 0.18184152245521545, 0.057742174714803696, 0.07854145020246506, 0.04403090476989746, 0.05463417246937752, 0.04512038826942444, 0.04399934783577919, 0.09675359725952148, 0.3372502326965332, 0.08844813704490662, 0.12345218658447266, 0.059178173542022705, 0.03086123615503311, 0.04388030618429184, 0.058034155517816544, 0.06337665766477585, 0.06068272516131401, 0.06092546507716179, 0.07915924489498138, 0.08697321265935898, 0.0621110163629055, 0.09339652210474014, 0.05979887768626213, 0.05324816703796387, 0.04433927685022354, 0.08140209317207336, 0.09048985689878464, 0.08101911097764969, 0.07784684747457504, 0.0659652128815651, 0.05883844569325447, 0.05992288142442703, 0.08578687161207199, 0.06701076775789261, 0.04278068244457245, 0.7841209769248962, 0.9614585041999817, 0.877033531665802, 0.8285795450210571, 0.8977944254875183, 0.8475880026817322, 0.5608857870101929, 0.559847354888916]</t>
+          <t>[0.010807299055159092, 0.016499608755111694, 0.020637305453419685, 0.016432499513030052, 0.026702603325247765, 0.033107247203588486, 0.030088916420936584, 0.056666240096092224, 0.15627425909042358, 0.023355120792984962, 0.04173123836517334, 0.0297895185649395, 0.011319773271679878, 0.009061915799975395, 0.014432617463171482, 0.02407802641391754, 0.040503714233636856, 0.036499667912721634, 0.03502427786588669, 0.032514069229364395, 0.03371964395046234, 0.024647260084748268, 0.03487953916192055, 0.040595728904008865, 0.036145374178886414, 0.058741480112075806, 0.026613598689436913, 0.032162152230739594, 0.6427499651908875, 0.13461215794086456, 0.6071263551712036, 0.13079755008220673, 0.018986579030752182, 0.016773037612438202, 0.2802048325538635, 0.7403344511985779, 0.7887492179870605, 0.4820154905319214, 0.1586790531873703, 0.011117871850728989, 0.017091156914830208, 0.15143270790576935, 0.616222620010376, 0.5978183746337891, 0.3939068913459778, 0.9478792548179626, 0.948092520236969, 0.4896836280822754, 0.12447411566972733, 0.815845787525177, 0.3272852599620819, 0.044152986258268356, 0.020620886236429214, 0.025890571996569633, 0.027347402647137642, 0.03739702329039574, 0.033973485231399536, 0.02085430547595024, 0.027666661888360977, 0.018703140318393707, 0.021059485152363777, 0.03719579055905342, 0.02633867971599102, 0.032725680619478226, 0.02820281684398651, 0.014754446223378181, 0.01165100559592247, 0.01226786058396101, 0.014061358757317066, 0.01426550280302763, 0.17695783078670502, 0.26212596893310547, 0.49425095319747925, 0.45452210307121277, 0.5950393676757812, 0.1840517371892929, 0.06245017424225807, 0.06975775212049484, 0.01575636863708496, 0.01582159847021103, 0.015416502021253109, 0.016437048092484474, 0.061067771166563034, 0.3502975404262543, 0.03969991207122803, 0.05029841512441635, 0.032234687358140945, 0.011102301999926567, 0.018218249082565308, 0.022814158350229263, 0.022593790665268898, 0.018517127260565758, 0.02090919017791748, 0.021749677136540413, 0.028202608227729797, 0.020703190937638283, 0.03268038481473923, 0.024533983319997787, 0.0198687631636858, 0.013589837588369846, 0.0249739158898592, 0.03053070418536663, 0.026488998904824257, 0.02021746151149273, 0.022220397368073463, 0.02098766900599003, 0.02481684647500515, 0.024065176025032997, 0.022392936050891876, 0.020888525992631912, 0.44863301515579224, 0.9221145510673523, 0.570573627948761, 0.24442726373672485, 0.7108569145202637, 0.5789989829063416, 0.45072150230407715, 0.4497811794281006]</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.9859979152679443</v>
+        <v>0.948092520236969</v>
       </c>
       <c r="F161" t="n">
         <v>1</v>
@@ -6983,10 +6983,10 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0.6642481000162661</v>
+        <v>0.6632791999873007</v>
       </c>
       <c r="J161" t="n">
-        <v>0.005629221186578526</v>
+        <v>0.005621010169383904</v>
       </c>
     </row>
     <row r="162">
@@ -7005,11 +7005,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>[0.9536105990409851, 0.9346872568130493, 0.6736243963241577, 0.42315876483917236, 0.5165593028068542, 0.3055994212627411, 0.47966626286506653, 0.4507248103618622, 0.6971158385276794, 0.2930850684642792, 0.18278296291828156, 0.48181912302970886, 0.3630709648132324, 0.4506966769695282, 0.24672788381576538, 0.3243597149848938, 0.30156758427619934, 0.2789805233478546, 0.2898538112640381, 0.2849653959274292, 0.4201882481575012, 0.33770257234573364, 0.6064969301223755, 0.9743887186050415, 0.9390633702278137, 0.988854169845581, 0.9947891235351562, 0.9755619168281555, 0.8797510862350464, 0.909052848815918, 0.9395791888237, 0.749089241027832, 0.8232291340827942, 0.804835855960846, 0.6313081979751587, 0.3073258101940155, 0.38632580637931824, 0.6443014740943909, 0.6996108293533325, 0.9087125062942505, 0.9776960611343384, 0.9947146773338318, 0.9803321361541748, 0.8857471346855164, 0.3061453402042389, 0.515518069267273, 0.9022676348686218, 0.9591920971870422, 0.8515297174453735, 0.7836942076683044, 0.7054116725921631, 0.5911595821380615, 0.7968451380729675, 0.5482183694839478, 0.51100093126297, 0.9488345384597778, 0.9679626226425171, 0.8773227334022522, 0.8491882681846619, 0.9941376447677612, 0.9897655844688416, 0.9886549711227417, 0.8924480080604553, 0.329291433095932, 0.41024717688560486, 0.4896027445793152, 0.6483110189437866, 0.5926628112792969, 0.2476225346326828, 0.5344537496566772, 0.33422917127609253, 0.25540462136268616, 0.27471086382865906, 0.37691664695739746, 0.608212411403656, 0.47028622031211853, 0.7042859792709351, 0.3039856553077698, 0.8703942894935608, 0.9648249745368958, 0.9026498198509216, 0.6945505738258362, 0.5272744297981262, 0.7978968620300293, 0.825766921043396, 0.46859633922576904, 0.7657721638679504, 0.6031476259231567, 0.7616410851478577, 0.5584762692451477, 0.9075496792793274, 0.6670581698417664, 0.6316682696342468, 0.48663726449012756, 0.5077558159828186, 0.7318997383117676, 0.3115817606449127, 0.2895902097225189, 0.49508535861968994, 0.649813711643219, 0.5195192098617554, 0.4940219521522522, 0.9032846689224243, 0.6587935090065002, 0.8321104049682617, 0.8669451475143433, 0.7137501835823059, 0.7723091244697571, 0.905514657497406, 0.7078169584274292, 0.8201456665992737, 0.514911413192749, 0.9264259338378906, 0.9393973350524902, 0.7514439225196838, 0.47562137246131897, 0.7822384834289551, 0.7833678126335144]</t>
+          <t>[0.9277881979942322, 0.928638219833374, 0.7328275442123413, 0.41837644577026367, 0.3885810077190399, 0.24587829411029816, 0.412210077047348, 0.3501753509044647, 0.6691202521324158, 0.3449530005455017, 0.22752048075199127, 0.614088237285614, 0.37042832374572754, 0.48898568749427795, 0.31271111965179443, 0.36168378591537476, 0.3770125210285187, 0.21283362805843353, 0.2521461844444275, 0.34411853551864624, 0.3812336027622223, 0.3694457411766052, 0.6847361326217651, 0.9821057319641113, 0.9134551882743835, 0.9854955673217773, 0.991983950138092, 0.9559669494628906, 0.7409670948982239, 0.8959642052650452, 0.9342094659805298, 0.6984800100326538, 0.5730847120285034, 0.7711227536201477, 0.548541247844696, 0.2637099325656891, 0.21996279060840607, 0.5626824498176575, 0.6874615550041199, 0.966293215751648, 0.9766210913658142, 0.9936284422874451, 0.9818905591964722, 0.9083555340766907, 0.2871989607810974, 0.5791742205619812, 0.8967533111572266, 0.9573185443878174, 0.776944637298584, 0.7288612723350525, 0.6544853448867798, 0.589866042137146, 0.7754241824150085, 0.5217822194099426, 0.5689525604248047, 0.934516191482544, 0.9713836908340454, 0.8472786545753479, 0.8855107426643372, 0.9946063160896301, 0.9818445444107056, 0.9878290891647339, 0.8253720998764038, 0.18882858753204346, 0.2709290087223053, 0.20105403661727905, 0.38969552516937256, 0.36893752217292786, 0.1481006145477295, 0.31119975447654724, 0.16906748712062836, 0.1897052675485611, 0.19112719595432281, 0.14252635836601257, 0.22740522027015686, 0.3459300100803375, 0.5669782161712646, 0.14369943737983704, 0.6460555791854858, 0.9618796110153198, 0.8813983201980591, 0.5232135057449341, 0.43321338295936584, 0.7490432262420654, 0.7830811738967896, 0.4813743531703949, 0.7008663415908813, 0.5974331498146057, 0.8019618988037109, 0.40043890476226807, 0.8344073295593262, 0.5067815184593201, 0.512738823890686, 0.3867863118648529, 0.4591675400733948, 0.47490406036376953, 0.23380739986896515, 0.20880204439163208, 0.3113020360469818, 0.34784364700317383, 0.5554786324501038, 0.38525092601776123, 0.8713300228118896, 0.7190772294998169, 0.8170995712280273, 0.8273683786392212, 0.618150532245636, 0.799733579158783, 0.7829186320304871, 0.6023306250572205, 0.7341046333312988, 0.5848426222801208, 0.9138382077217102, 0.8434155583381653, 0.6506346464157104, 0.2959252893924713, 0.6713631749153137, 0.674405574798584]</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.9947891235351562</v>
+        <v>0.9946063160896301</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0.663013499986846</v>
+        <v>0.6655095000023721</v>
       </c>
       <c r="J162" t="n">
-        <v>0.005618758474464796</v>
+        <v>0.005639911016969255</v>
       </c>
     </row>
     <row r="163">
@@ -7045,11 +7045,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>[0.784082293510437, 0.07102067023515701, 0.14204810559749603, 0.7829742431640625, 0.5495240092277527, 0.3156987130641937, 0.5500442981719971, 0.7271193861961365, 0.757134735584259, 0.5161210894584656, 0.24087586998939514, 0.9465284943580627, 0.9517740607261658, 0.9105668663978577, 0.9422682523727417, 0.7841249704360962, 0.6262638568878174, 0.7724876403808594, 0.7619845867156982, 0.30916160345077515, 0.18418383598327637, 0.16153617203235626, 0.0880928710103035, 0.8670332431793213, 0.9438641667366028, 0.9856777787208557, 0.9829388856887817, 0.9893224835395813, 0.9413737654685974, 0.9124976396560669, 0.8269103765487671, 0.6998494863510132, 0.6186806559562683, 0.347971111536026, 0.16409161686897278, 0.3519478440284729, 0.8051761984825134, 0.9211509823799133, 0.9612876176834106, 0.968124508857727, 0.9756242036819458, 0.9667717814445496, 0.8429245948791504, 0.7656131982803345, 0.8665741682052612, 0.9488905668258667, 0.9686879515647888, 0.9747674465179443, 0.8216180205345154, 0.8841580748558044, 0.9607716798782349, 0.8336676359176636, 0.9424574375152588, 0.9408925175666809, 0.9254336357116699, 0.9415116310119629, 0.2890584468841553, 0.412680059671402, 0.2197980135679245, 0.21174800395965576, 0.16570673882961273, 0.159832164645195, 0.05227135494351387, 0.05094001069664955, 0.07101929187774658, 0.06285575032234192, 0.036082085222005844, 0.03754197061061859, 0.052286919206380844, 0.03374723345041275, 0.024678125977516174, 0.03549085557460785, 0.043562378734350204, 0.0256815068423748, 0.02670355513691902, 0.04807235673069954, 0.04924110323190689, 0.05433007702231407, 0.048640910536050797, 0.41955018043518066, 0.781426727771759, 0.8295177817344666, 0.7965059876441956, 0.7715758085250854, 0.8956478238105774, 0.736623227596283, 0.934639573097229, 0.9548550844192505, 0.9331834316253662, 0.7451962232589722, 0.8254225254058838, 0.6610615253448486, 0.905682384967804, 0.8904033303260803, 0.9553406238555908, 0.9663527607917786, 0.9853217601776123, 0.8839095234870911, 0.9005537629127502, 0.9023616313934326, 0.9444617033004761, 0.9588982462882996, 0.9693063497543335, 0.961329460144043, 0.9241696000099182, 0.9329199194908142, 0.9649184346199036, 0.9715526700019836, 0.9436348676681519, 0.9701433181762695, 0.9704756140708923, 0.9591326713562012, 0.9343907833099365, 0.97911137342453, 0.9889651536941528, 0.9886617660522461, 0.9864831566810608, 0.986531674861908]</t>
+          <t>[0.7285699248313904, 0.06385909765958786, 0.07736176252365112, 0.6318697929382324, 0.2994824945926666, 0.2346506416797638, 0.367352157831192, 0.5492890477180481, 0.6152045726776123, 0.49395129084587097, 0.22123496234416962, 0.9322679042816162, 0.928238034248352, 0.8370646238327026, 0.9208641052246094, 0.7388913035392761, 0.5728873014450073, 0.8087880611419678, 0.7964732646942139, 0.2750546336174011, 0.16754864156246185, 0.11030483990907669, 0.061747681349515915, 0.8699659109115601, 0.845376193523407, 0.9699000120162964, 0.9733442664146423, 0.9821510314941406, 0.8287619352340698, 0.8432626128196716, 0.7574261426925659, 0.6634325385093689, 0.3523911237716675, 0.4333989918231964, 0.23261667788028717, 0.4714284837245941, 0.8961573243141174, 0.8315969705581665, 0.9238328337669373, 0.9523224830627441, 0.9399457573890686, 0.9342222809791565, 0.7710846662521362, 0.7548044323921204, 0.9066822528839111, 0.961517333984375, 0.9746475219726562, 0.9879347085952759, 0.9450847506523132, 0.9528054594993591, 0.9637393355369568, 0.8480163216590881, 0.8756178617477417, 0.8441318273544312, 0.8859611749649048, 0.9263973832130432, 0.2582128643989563, 0.4172757863998413, 0.45164135098457336, 0.196030855178833, 0.11420457065105438, 0.10405038297176361, 0.04531847685575485, 0.06849216669797897, 0.08552229404449463, 0.0613526813685894, 0.03323331102728844, 0.04468823969364166, 0.047937359660863876, 0.023628229275345802, 0.01595722697675228, 0.03778621926903725, 0.06230062246322632, 0.023580031469464302, 0.020448965951800346, 0.052474286407232285, 0.06070373207330704, 0.04017503932118416, 0.035266365855932236, 0.4592655897140503, 0.6715649962425232, 0.8397573828697205, 0.7092177271842957, 0.7293604612350464, 0.815561830997467, 0.7407987713813782, 0.9353522062301636, 0.9569562673568726, 0.9297032952308655, 0.7096826434135437, 0.8315814137458801, 0.5457674860954285, 0.8638588786125183, 0.8788070678710938, 0.9588242769241333, 0.947957456111908, 0.9682701230049133, 0.8012673258781433, 0.9180885553359985, 0.9403966665267944, 0.9525596499443054, 0.9634183645248413, 0.965214729309082, 0.9267616271972656, 0.8700886964797974, 0.8543143272399902, 0.9277570843696594, 0.9701600074768066, 0.9119315147399902, 0.9394927024841309, 0.9518215656280518, 0.948215663433075, 0.9317351579666138, 0.9779855012893677, 0.9890163540840149, 0.9852258563041687, 0.9846556186676025, 0.9849503040313721]</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.9893224835395813</v>
+        <v>0.9890163540840149</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
@@ -7063,10 +7063,10 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0.6627835000108462</v>
+        <v>0.6815862000075867</v>
       </c>
       <c r="J163" t="n">
-        <v>0.005616809322125815</v>
+        <v>0.00577615423735243</v>
       </c>
     </row>
     <row r="164">
@@ -7085,11 +7085,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>[0.9567399621009827, 0.9801192283630371, 0.9322352409362793, 0.9613009095191956, 0.8064132332801819, 0.91925448179245, 0.9532354474067688, 0.8948690295219421, 0.3661637008190155, 0.5577516555786133, 0.4450152516365051, 0.5550521016120911, 0.4521881937980652, 0.3153105676174164, 0.26679494976997375, 0.3615972101688385, 0.5462738871574402, 0.9443404078483582, 0.9861125349998474, 0.8265558481216431, 0.6804801225662231, 0.6613133549690247, 0.37430447340011597, 0.5633412599563599, 0.3042048513889313, 0.48022305965423584, 0.7091384530067444, 0.5737887024879456, 0.43468672037124634, 0.37486276030540466, 0.27401167154312134, 0.8649587035179138, 0.4753227233886719, 0.638079047203064, 0.9938524961471558, 0.9923536777496338, 0.9964095950126648, 0.9811549782752991, 0.8905090689659119, 0.9725243449211121, 0.966060996055603, 0.9890180826187134, 0.9943339824676514, 0.9912545084953308, 0.9923231601715088, 0.9905520677566528, 0.09454317390918732, 0.31957077980041504, 0.9459459781646729, 0.5034247040748596, 0.05424484983086586, 0.06961316615343094, 0.11510509997606277, 0.5819761753082275, 0.6020097732543945, 0.3385372757911682, 0.17916622757911682, 0.3643447756767273, 0.2820267379283905, 0.9415528774261475, 0.9739812016487122, 0.9379884600639343, 0.8267173767089844, 0.9456678628921509, 0.980453372001648, 0.9836730360984802, 0.8750256896018982, 0.6671562790870667, 0.3399710953235626, 0.3668166995048523, 0.4139687716960907, 0.1810959428548813, 0.5944761633872986, 0.9735783338546753, 0.9844425320625305, 0.34343576431274414, 0.9426966905593872, 0.9502227306365967, 0.9830814003944397, 0.9861562252044678, 0.9921568632125854, 0.9950620532035828, 0.9960073828697205, 0.9964331388473511, 0.9975619316101074, 0.9941614270210266, 0.993423581123352, 0.9574321508407593, 0.9086320996284485, 0.7775027751922607, 0.3100230097770691, 0.26834914088249207, 0.1954100877046585, 0.12108831107616425, 0.18190018832683563, 0.30466020107269287, 0.2773653566837311, 0.22132115066051483, 0.18498578667640686, 0.10996753722429276, 0.6801635026931763, 0.3831869065761566, 0.10768730193376541, 0.10340143740177155, 0.15632326900959015, 0.1097828820347786, 0.11218521744012833, 0.9359833002090454, 0.7863199710845947, 0.2645639479160309, 0.989544689655304, 0.9641039967536926, 0.9716676473617554, 0.9365733861923218, 0.9069318175315857, 0.9931057095527649, 0.996781587600708, 0.9967904686927795]</t>
+          <t>[0.8429297804832458, 0.9008117914199829, 0.7993155717849731, 0.915951669216156, 0.5422068238258362, 0.7292759418487549, 0.8182528614997864, 0.7023887038230896, 0.2099834531545639, 0.280000776052475, 0.20562279224395752, 0.37384507060050964, 0.27573010325431824, 0.18299823999404907, 0.10101956129074097, 0.21588730812072754, 0.5127202868461609, 0.9190161824226379, 0.9759436845779419, 0.7227357625961304, 0.4680193364620209, 0.48262864351272583, 0.29677194356918335, 0.4312323331832886, 0.2516145706176758, 0.7025049924850464, 0.809866189956665, 0.6388976573944092, 0.3379371762275696, 0.23161529004573822, 0.10091564804315567, 0.651608943939209, 0.20478032529354095, 0.2516644597053528, 0.9937631487846375, 0.9917234778404236, 0.9973868727684021, 0.9834408760070801, 0.8603773713111877, 0.9064026474952698, 0.9096040725708008, 0.9749526977539062, 0.9795941114425659, 0.9775676727294922, 0.9806775450706482, 0.9887608885765076, 0.07486193627119064, 0.41081616282463074, 0.9377353191375732, 0.3724396228790283, 0.029710154980421066, 0.06073871999979019, 0.04251342639327049, 0.20726294815540314, 0.24912545084953308, 0.15183448791503906, 0.10879157483577728, 0.3173345923423767, 0.3577439785003662, 0.9199174046516418, 0.9601597785949707, 0.8760607838630676, 0.41978445649147034, 0.8277721405029297, 0.9645938873291016, 0.9617735147476196, 0.7909034490585327, 0.6481985449790955, 0.26399150490760803, 0.2545677125453949, 0.308920681476593, 0.1301891952753067, 0.47446584701538086, 0.9255995750427246, 0.9737880825996399, 0.13665258884429932, 0.9592894315719604, 0.8393957614898682, 0.9552881717681885, 0.9708404541015625, 0.9806770086288452, 0.988459050655365, 0.9921860694885254, 0.9911085367202759, 0.9963780045509338, 0.9892829656600952, 0.9848282933235168, 0.9173566102981567, 0.7898762226104736, 0.5420699119567871, 0.1964738368988037, 0.17069505155086517, 0.10413458943367004, 0.08255515247583389, 0.13723525404930115, 0.18370321393013, 0.2605964243412018, 0.1513562649488449, 0.12354114651679993, 0.07527501881122589, 0.40832334756851196, 0.3487405478954315, 0.06476005166769028, 0.06234324723482132, 0.13573312759399414, 0.10203985124826431, 0.15693263709545135, 0.953743577003479, 0.8270193934440613, 0.23979979753494263, 0.9937363862991333, 0.9709860682487488, 0.9847456216812134, 0.9572305083274841, 0.7581885457038879, 0.9732838273048401, 0.9943605065345764, 0.9943649768829346]</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.9975619316101074</v>
+        <v>0.9973868727684021</v>
       </c>
       <c r="F164" t="n">
         <v>1</v>
@@ -7103,10 +7103,10 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0.6613509000162594</v>
+        <v>0.6882459000044037</v>
       </c>
       <c r="J164" t="n">
-        <v>0.005604668644205588</v>
+        <v>0.005832592372918675</v>
       </c>
     </row>
     <row r="165">
@@ -7125,11 +7125,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>[0.9676775336265564, 0.98842853307724, 0.9905350804328918, 0.9844330549240112, 0.9848086833953857, 0.9923345446586609, 0.9921384453773499, 0.9889707565307617, 0.9867525100708008, 0.9902926683425903, 0.9801651239395142, 0.9531094431877136, 0.9660515189170837, 0.9466724991798401, 0.9502756595611572, 0.9882351160049438, 0.9747518301010132, 0.9780060052871704, 0.9170287847518921, 0.07831402122974396, 0.04867275804281235, 0.08990398049354553, 0.28782013058662415, 0.26633232831954956, 0.1651001274585724, 0.1676245480775833, 0.09615601599216461, 0.08990062773227692, 0.053717587143182755, 0.05730815231800079, 0.06074068322777748, 0.5118089914321899, 0.963300347328186, 0.9788931012153625, 0.9917448163032532, 0.9849281907081604, 0.9856772422790527, 0.9852821230888367, 0.9950763583183289, 0.9784892797470093, 0.9830119013786316, 0.9684047102928162, 0.9773998856544495, 0.9737024307250977, 0.9793835282325745, 0.9535093307495117, 0.9353697299957275, 0.9652870297431946, 0.9662381410598755, 0.9737802743911743, 0.9818803071975708, 0.9785789847373962, 0.9454329013824463, 0.9557989835739136, 0.932608962059021, 0.9742267727851868, 0.9762675166130066, 0.9736714363098145, 0.934203028678894, 0.9183882474899292, 0.8165789842605591, 0.901638925075531, 0.9830460548400879, 0.8471212387084961, 0.9550261497497559, 0.9459256529808044, 0.9601035118103027, 0.9541523456573486, 0.9461807012557983, 0.9724887013435364, 0.9750621914863586, 0.9598389863967896, 0.9742460250854492, 0.9797715544700623, 0.9755050539970398, 0.9284141659736633, 0.9605777263641357, 0.944464385509491, 0.9454947113990784, 0.9766005277633667, 0.9591724872589111, 0.9714280962944031, 0.958158552646637, 0.9264175295829773, 0.3976087272167206, 0.926594078540802, 0.9547305107116699, 0.9641081094741821, 0.9713616371154785, 0.9663854241371155, 0.961086630821228, 0.9820807576179504, 0.986187219619751, 0.9603475332260132, 0.9521194100379944, 0.9747704267501831, 0.9807480573654175, 0.29431071877479553, 0.12736736238002777, 0.34276264905929565, 0.5216020345687866, 0.5215914249420166]</t>
+          <t>[0.9584741592407227, 0.978634238243103, 0.9776633977890015, 0.9775208830833435, 0.9725224375724792, 0.9907045960426331, 0.9862959980964661, 0.9813398718833923, 0.978165328502655, 0.9783084988594055, 0.943868100643158, 0.8417577743530273, 0.8498578667640686, 0.8878094553947449, 0.9119448065757751, 0.982332170009613, 0.9661743640899658, 0.9749456644058228, 0.9227152466773987, 0.06548687070608139, 0.03578725829720497, 0.04609062895178795, 0.21219216287136078, 0.21104200184345245, 0.18149369955062866, 0.15147829055786133, 0.05102981999516487, 0.047144707292318344, 0.015530097298324108, 0.030414074659347534, 0.0319284126162529, 0.18753446638584137, 0.92964106798172, 0.9605557322502136, 0.9852702021598816, 0.9738847613334656, 0.9753990173339844, 0.9812295436859131, 0.9947608113288879, 0.960302472114563, 0.961390495300293, 0.9492488503456116, 0.9520521759986877, 0.9514318108558655, 0.9336252808570862, 0.923890233039856, 0.7707352638244629, 0.9073886275291443, 0.8789355158805847, 0.922883927822113, 0.9595593810081482, 0.972407877445221, 0.8980067372322083, 0.9655641317367554, 0.9509597420692444, 0.9770703315734863, 0.9766759276390076, 0.9565448760986328, 0.9459055066108704, 0.8962098956108093, 0.6095850467681885, 0.8571402430534363, 0.9693039059638977, 0.7298300862312317, 0.93991619348526, 0.9498102068901062, 0.9554021954536438, 0.9508067965507507, 0.9447759389877319, 0.9567397236824036, 0.9549560546875, 0.9596904516220093, 0.977661669254303, 0.9764727354049683, 0.9711796641349792, 0.8966332077980042, 0.9384417533874512, 0.8963306546211243, 0.9158576130867004, 0.9703284502029419, 0.9407997727394104, 0.9706346392631531, 0.971191942691803, 0.9447777271270752, 0.6276805400848389, 0.9535233974456787, 0.9612891674041748, 0.9759023785591125, 0.9833926558494568, 0.9704800248146057, 0.9663300514221191, 0.9763942360877991, 0.9805169701576233, 0.9598391056060791, 0.9424481987953186, 0.9724990129470825, 0.9878201484680176, 0.32094302773475647, 0.10229269415140152, 0.4144733250141144, 0.5265210866928101, 0.5265551209449768]</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.9950763583183289</v>
+        <v>0.9947608113288879</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
@@ -7143,10 +7143,10 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0.5799464999872725</v>
+        <v>0.6055750000086846</v>
       </c>
       <c r="J165" t="n">
-        <v>0.005685749999875221</v>
+        <v>0.005937009804006712</v>
       </c>
     </row>
     <row r="166">
@@ -7165,11 +7165,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>[0.5805785059928894, 0.6889770030975342, 0.6926159262657166, 0.5724074244499207, 0.33405137062072754, 0.6944347023963928, 0.7309306859970093, 0.7353930473327637, 0.9312691688537598, 0.9178541898727417, 0.8508105278015137, 0.5105672478675842, 0.7310028672218323, 0.6861581802368164, 0.758834958076477, 0.8845246434211731, 0.8373612761497498, 0.6289833188056946, 0.8184420466423035, 0.5615619421005249, 0.19660384953022003, 0.4192441701889038, 0.08738061785697937, 0.12699240446090698, 0.09919709712266922, 0.07077720761299133, 0.09569668769836426, 0.04286894574761391, 0.2366708219051361, 0.6509174704551697, 0.7269569039344788, 0.3428357243537903, 0.6883267760276794, 0.3169007897377014, 0.28089794516563416, 0.7104337811470032, 0.31488993763923645, 0.3006369173526764, 0.26643553376197815, 0.8296158909797668, 0.8595100045204163, 0.707288384437561, 0.8293935060501099, 0.7871875166893005, 0.8430777788162231, 0.8726228475570679, 0.7916478514671326, 0.47969910502433777, 0.6190872192382812, 0.15152622759342194, 0.6975486874580383, 0.757046103477478, 0.8073732256889343, 0.8116121888160706, 0.8723331093788147, 0.8273254036903381, 0.8529874682426453, 0.47828978300094604, 0.9641001224517822, 0.9645730257034302, 0.966776430606842, 0.9736571907997131, 0.9793838858604431, 0.9804294109344482, 0.9159256815910339, 0.7539005875587463, 0.549488365650177, 0.7296810746192932, 0.8493818640708923, 0.6723403334617615, 0.7449203133583069, 0.7623158693313599, 0.8591208457946777, 0.8167864680290222, 0.6639382839202881, 0.8066582083702087, 0.7798717617988586, 0.7561619281768799, 0.970641016960144, 0.7355542182922363, 0.6818423867225647, 0.5394943952560425, 0.2782454192638397, 0.7483106851577759, 0.3502352237701416, 0.09203901886940002, 0.31674423813819885, 0.5606701970100403, 0.810676097869873, 0.4264778196811676, 0.41856977343559265, 0.39983734488487244, 0.4270482063293457, 0.5338605046272278, 0.486826628446579, 0.6646826863288879, 0.41055217385292053, 0.36931082606315613, 0.33479270339012146, 0.4758709669113159, 0.7370778918266296, 0.2466363161802292, 0.24752523005008698]</t>
+          <t>[0.6773142218589783, 0.816429615020752, 0.7010411620140076, 0.6571541428565979, 0.4264208674430847, 0.6664160490036011, 0.8003218770027161, 0.708881139755249, 0.8955774307250977, 0.8874345421791077, 0.8904781937599182, 0.5176724791526794, 0.706852912902832, 0.6118431091308594, 0.6901177167892456, 0.8746976256370544, 0.8610225915908813, 0.7902486324310303, 0.9155358076095581, 0.7579218149185181, 0.32788896560668945, 0.681052565574646, 0.18122389912605286, 0.16983135044574738, 0.1291738599538803, 0.11046209931373596, 0.1901610642671585, 0.04723617061972618, 0.45367297530174255, 0.7321178913116455, 0.8082191944122314, 0.41926753520965576, 0.7225963473320007, 0.48286715149879456, 0.42476728558540344, 0.8024638295173645, 0.5275134444236755, 0.578372061252594, 0.49828895926475525, 0.8831921815872192, 0.8453094959259033, 0.7515513896942139, 0.9100267291069031, 0.9059197902679443, 0.931002676486969, 0.935315728187561, 0.9093745350837708, 0.7829708456993103, 0.8291294574737549, 0.24304993450641632, 0.8608837723731995, 0.8611366748809814, 0.8765559196472168, 0.8385306000709534, 0.899661660194397, 0.9191062450408936, 0.9135944843292236, 0.6208968162536621, 0.9810279607772827, 0.9708296656608582, 0.9695400595664978, 0.9730654954910278, 0.9777721166610718, 0.9784828424453735, 0.9222331643104553, 0.8471053242683411, 0.5645583271980286, 0.7492210865020752, 0.8745700120925903, 0.8026533722877502, 0.8487499952316284, 0.8181092739105225, 0.8800622224807739, 0.9028748273849487, 0.79703289270401, 0.8848493695259094, 0.8302406668663025, 0.8815850615501404, 0.9792999625205994, 0.851341724395752, 0.8234257698059082, 0.7824819087982178, 0.31229349970817566, 0.8272098898887634, 0.5372904539108276, 0.10770072788000107, 0.4839222729206085, 0.6675475239753723, 0.8751039505004883, 0.5026935935020447, 0.4879944920539856, 0.5655927658081055, 0.5965308547019958, 0.7778698801994324, 0.679947018623352, 0.8578144907951355, 0.6295437812805176, 0.5509417653083801, 0.6557707190513611, 0.6535900235176086, 0.912572979927063, 0.4480498731136322, 0.4494861662387848]</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.9804294109344482</v>
+        <v>0.9810279607772827</v>
       </c>
       <c r="F166" t="n">
         <v>1</v>
@@ -7183,10 +7183,10 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0.5851145000196993</v>
+        <v>0.5829595999966841</v>
       </c>
       <c r="J166" t="n">
-        <v>0.005680723301162129</v>
+        <v>0.00565980194171538</v>
       </c>
     </row>
     <row r="167">
@@ -7205,11 +7205,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>[0.14490126073360443, 0.12476202100515366, 0.09675012528896332, 0.0761389508843422, 0.08026730269193649, 0.06702253967523575, 0.08775368332862854, 0.04960741102695465, 0.043207596987485886, 0.12292597442865372, 0.31428831815719604, 0.592043399810791, 0.1637493520975113, 0.12158322334289551, 0.05193154886364937, 0.03710126504302025, 0.046334732323884964, 0.13128788769245148, 0.29558902978897095, 0.4725463092327118, 0.26581674814224243, 0.08165043592453003, 0.0584358274936676, 0.05342031270265579, 0.43205225467681885, 0.9208627939224243, 0.969767689704895, 0.9716787934303284, 0.9778687357902527, 0.9815791845321655, 0.964808464050293, 0.9734126925468445, 0.9837638139724731, 0.9647393226623535, 0.9675037860870361, 0.9802696108818054, 0.9716300368309021, 0.9687079787254333, 0.9666120409965515, 0.9638529419898987, 0.9355524778366089, 0.9737100005149841, 0.9289592504501343, 0.967103898525238, 0.9632679224014282, 0.9530447125434875, 0.9748020172119141, 0.977057695388794, 0.9747002124786377, 0.9771507978439331, 0.9853199124336243, 0.9846301674842834, 0.9799476861953735, 0.9713931083679199, 0.9379336833953857, 0.919582188129425, 0.9616867303848267, 0.9372828006744385, 0.9869549870491028, 0.980071485042572, 0.9838036894798279, 0.9661216139793396, 0.2300327867269516, 0.30206823348999023, 0.2555401921272278, 0.31112587451934814, 0.3017596900463104, 0.3135063350200653, 0.8657336831092834, 0.8675510883331299, 0.9414409399032593, 0.9615764021873474, 0.9220824241638184, 0.9779471755027771, 0.9352698922157288, 0.9175889492034912, 0.9396993517875671, 0.9883307218551636, 0.9447603225708008, 0.9550343155860901, 0.8816009759902954, 0.9512416124343872, 0.9660621881484985, 0.9526591897010803, 0.9256131649017334, 0.9434406161308289, 0.7046309113502502, 0.8715113401412964, 0.45061278343200684, 0.38109901547431946, 0.3987996578216553, 0.28198426961898804, 0.45606911182403564, 0.4887068271636963, 0.5654418468475342, 0.20495820045471191, 0.4980800449848175, 0.799295961856842, 0.8757927417755127, 0.9194530844688416, 0.9093841910362244, 0.9093828797340393]</t>
+          <t>[0.2956239879131317, 0.2673100531101227, 0.11592787504196167, 0.07623519748449326, 0.08329638093709946, 0.1238454058766365, 0.11351609230041504, 0.04559138044714928, 0.0566207692027092, 0.2462206333875656, 0.45223987102508545, 0.5399957895278931, 0.08254018425941467, 0.14937391877174377, 0.04541100934147835, 0.025107869878411293, 0.0343867689371109, 0.1419256180524826, 0.2702901065349579, 0.5024787783622742, 0.39324524998664856, 0.07370028644800186, 0.07210125774145126, 0.02525564655661583, 0.6050294041633606, 0.9039623737335205, 0.9685297012329102, 0.9572615027427673, 0.9748269319534302, 0.9807302951812744, 0.9674900770187378, 0.9746890664100647, 0.987389087677002, 0.9655318260192871, 0.963444709777832, 0.979415774345398, 0.9662975668907166, 0.9713690280914307, 0.9600852131843567, 0.9588914513587952, 0.9158263802528381, 0.9704205393791199, 0.9284804463386536, 0.965945303440094, 0.9719976782798767, 0.9478155374526978, 0.9690865278244019, 0.9734809398651123, 0.9617684483528137, 0.9545602798461914, 0.9683235287666321, 0.9730466604232788, 0.9739993214607239, 0.9598698616027832, 0.9238410592079163, 0.9253106117248535, 0.9715393781661987, 0.9447745680809021, 0.9866912364959717, 0.9735943675041199, 0.9872844219207764, 0.9756407737731934, 0.15719017386436462, 0.2625175714492798, 0.19582301378250122, 0.21341390907764435, 0.1770380288362503, 0.2761990427970886, 0.7908455729484558, 0.8364161849021912, 0.9224901795387268, 0.9676306843757629, 0.9291210174560547, 0.9750846028327942, 0.9310543537139893, 0.9151589870452881, 0.9442093372344971, 0.9890857338905334, 0.9387621879577637, 0.9488222599029541, 0.8328573703765869, 0.944233775138855, 0.9567804336547852, 0.9446654319763184, 0.9354678988456726, 0.9353690147399902, 0.6752246618270874, 0.8671069145202637, 0.5279249548912048, 0.4290342330932617, 0.464582622051239, 0.2666372060775757, 0.460222452878952, 0.49504268169403076, 0.7140806317329407, 0.18870285153388977, 0.6447933316230774, 0.827286422252655, 0.8982229232788086, 0.9502844214439392, 0.9137973189353943, 0.9137675166130066]</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.9883307218551636</v>
+        <v>0.9890857338905334</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
@@ -7223,10 +7223,10 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>0.5770420999906491</v>
+        <v>0.5953928999952041</v>
       </c>
       <c r="J167" t="n">
-        <v>0.005657275490104403</v>
+        <v>0.005837185294070628</v>
       </c>
     </row>
     <row r="168">
@@ -7245,11 +7245,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>[0.06385377794504166, 0.06345993280410767, 0.09824959188699722, 0.21299897134304047, 0.15210771560668945, 0.09848939627408981, 0.09653002768754959, 0.13756199181079865, 0.11842379719018936, 0.0736946240067482, 0.08027340471744537, 0.04866955056786537, 0.07760791480541229, 0.08366159349679947, 0.05589742586016655, 0.09336269646883011, 0.09722436964511871, 0.05366727337241173, 0.12249753624200821, 0.0997784286737442, 0.14597736299037933, 0.23468740284442902, 0.2832695543766022, 0.2061726599931717, 0.15815092623233795, 0.20825454592704773, 0.10442884266376495, 0.15969668328762054, 0.2377278357744217, 0.11107056587934494, 0.1445525884628296, 0.1114814430475235, 0.1186184287071228, 0.04927828907966614, 0.08720885217189789, 0.04998782277107239, 0.05023084208369255, 0.11303824931383133, 0.03811334818601608, 0.07921804487705231, 0.16400623321533203, 0.27149227261543274, 0.20188283920288086, 0.20535452663898468, 0.18753460049629211, 0.19878815114498138, 0.11578744649887085, 0.18718191981315613, 0.10059266537427902, 0.09510615468025208, 0.10833810269832611, 0.08096785843372345, 0.09167793393135071, 0.11211993545293808, 0.1179749071598053, 0.11613360792398453, 0.14333446323871613, 0.046676427125930786, 0.07477165013551712, 0.1873539239168167, 0.297913134098053, 0.3222087621688843, 0.5460479855537415, 0.3623729646205902, 0.3067436218261719, 0.32992517948150635, 0.6839661598205566, 0.5669229626655579, 0.3701898753643036, 0.22841954231262207, 0.22741900384426117, 0.36584821343421936, 0.1577385514974594, 0.1420178860425949, 0.10423491895198822, 0.12847763299942017, 0.07148134708404541, 0.0646834522485733, 0.10397876799106598, 0.11645589023828506, 0.04599909111857414, 0.04447990655899048, 0.09639444202184677, 0.04775674268603325, 0.030237330123782158, 0.035965386778116226, 0.08365454524755478, 0.1660393327474594, 0.29311543703079224, 0.14494189620018005, 0.0991826131939888, 0.12061553448438644, 0.19907252490520477, 0.10557380318641663, 0.20638839900493622, 0.14267155528068542, 0.3925272524356842, 0.20368506014347076, 0.2589319348335266, 0.3369881212711334, 0.37922269105911255, 0.37915027141571045]</t>
+          <t>[0.08600950986146927, 0.08740218728780746, 0.13584493100643158, 0.25386548042297363, 0.19889605045318604, 0.07556070387363434, 0.07707259058952332, 0.12450308352708817, 0.10733892023563385, 0.05437523499131203, 0.06256495416164398, 0.029278462752699852, 0.05570954829454422, 0.07143376767635345, 0.060980211943387985, 0.1060168519616127, 0.0952640101313591, 0.05878808721899986, 0.16500133275985718, 0.11439714580774307, 0.1606477051973343, 0.24261286854743958, 0.19162313640117645, 0.15398502349853516, 0.13296282291412354, 0.20058393478393555, 0.0690193846821785, 0.11083211749792099, 0.2384905368089676, 0.10261508822441101, 0.16436496376991272, 0.15929636359214783, 0.12638704478740692, 0.05453880503773689, 0.1285848170518875, 0.05304253473877907, 0.09408564120531082, 0.13932712376117706, 0.024819564074277878, 0.07539382576942444, 0.21202832460403442, 0.22860106825828552, 0.23650510609149933, 0.2906140387058258, 0.14761798083782196, 0.12751099467277527, 0.0886072888970375, 0.14500652253627777, 0.07210103422403336, 0.07052381336688995, 0.06483514606952667, 0.03223731741309166, 0.04121728613972664, 0.04810349643230438, 0.06146133691072464, 0.05688762292265892, 0.06734886765480042, 0.02501204051077366, 0.031642306596040726, 0.09804326295852661, 0.12252453714609146, 0.20410263538360596, 0.38653460144996643, 0.13680802285671234, 0.15180836617946625, 0.12487325817346573, 0.48003876209259033, 0.31524497270584106, 0.18036706745624542, 0.12328993529081345, 0.13219568133354187, 0.2346775084733963, 0.0897664949297905, 0.08053077757358551, 0.04045183211565018, 0.0634520873427391, 0.037901900708675385, 0.06381777673959732, 0.08656521886587143, 0.12321263551712036, 0.030085723847150803, 0.02272660844027996, 0.062148842960596085, 0.05196269229054451, 0.016523092985153198, 0.028013842180371284, 0.06851344555616379, 0.12813279032707214, 0.2351878136396408, 0.14228764176368713, 0.14087049663066864, 0.17587921023368835, 0.22859062254428864, 0.09847670793533325, 0.26610198616981506, 0.14706523716449738, 0.44680988788604736, 0.19845986366271973, 0.29721805453300476, 0.3613836169242859, 0.46893310546875, 0.4689114987850189]</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.6839661598205566</v>
+        <v>0.4800387620925903</v>
       </c>
       <c r="F168" t="n">
         <v>1</v>
@@ -7263,10 +7263,10 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0.5766529999964405</v>
+        <v>0.5904557999892859</v>
       </c>
       <c r="J168" t="n">
-        <v>0.005653460784278828</v>
+        <v>0.005788782352836136</v>
       </c>
     </row>
     <row r="169">
@@ -7285,11 +7285,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>[0.4975317120552063, 0.40485459566116333, 0.2789671719074249, 0.632293701171875, 0.7951989769935608, 0.8559344410896301, 0.5922365784645081, 0.7699039578437805, 0.850120484828949, 0.8796362280845642, 0.8614580631256104, 0.6018694043159485, 0.6173986196517944, 0.778085470199585, 0.41401347517967224, 0.3905032277107239, 0.5949955582618713, 0.36384421586990356, 0.333236426115036, 0.6743539571762085, 0.665441632270813, 0.9231740236282349, 0.796939492225647, 0.6530157923698425, 0.5009827017784119, 0.7511313557624817, 0.9500445127487183, 0.9513185620307922, 0.778438925743103, 0.8700724840164185, 0.7816696166992188, 0.9163215160369873, 0.9183111786842346, 0.8992161750793457, 0.884784460067749, 0.8935614228248596, 0.8424098491668701, 0.7493050694465637, 0.7772101759910583, 0.7095559239387512, 0.7568955421447754, 0.9444094896316528, 0.47297579050064087, 0.5795897841453552, 0.6078514456748962, 0.42037174105644226, 0.29119741916656494, 0.8099504113197327, 0.6569099426269531, 0.7973157167434692, 0.8272015452384949, 0.8093119859695435, 0.8595195412635803, 0.7736717462539673, 0.8675591349601746, 0.936911404132843, 0.675456166267395, 0.6680930852890015, 0.6696502566337585, 0.7536857724189758, 0.6336638331413269, 0.3351629972457886, 0.6273213028907776, 0.7665265798568726, 0.8444953560829163, 0.6139459013938904, 0.48772093653678894, 0.8100858926773071, 0.8648359775543213, 0.8851301074028015, 0.7297455668449402, 0.587878942489624, 0.842126727104187, 0.8217521905899048, 0.8049609065055847, 0.6511335968971252, 0.6755889058113098, 0.6420632004737854, 0.6557333469390869, 0.7583257555961609, 0.6521709561347961, 0.619573712348938, 0.7185540795326233, 0.8334318399429321, 0.8705043196678162, 0.7261710166931152, 0.5376074910163879, 0.4942289888858795, 0.45346906781196594, 0.5089124441146851, 0.365690141916275, 0.48608162999153137, 0.6463375091552734, 0.231521338224411, 0.29581737518310547, 0.420808881521225, 0.6273821592330933, 0.31811320781707764, 0.5012373924255371, 0.21783092617988586, 0.6085643768310547, 0.6083410978317261]</t>
+          <t>[0.3867664039134979, 0.23560316860675812, 0.18861737847328186, 0.5406740307807922, 0.64599609375, 0.6525619626045227, 0.27892962098121643, 0.4374326169490814, 0.6229960322380066, 0.6116561889648438, 0.7061349749565125, 0.47594359517097473, 0.7121621370315552, 0.8143755197525024, 0.5653787851333618, 0.5288756489753723, 0.7455820441246033, 0.48681530356407166, 0.48808470368385315, 0.8154281377792358, 0.8291833996772766, 0.9588385224342346, 0.8500444293022156, 0.7505261301994324, 0.7104266881942749, 0.862764835357666, 0.9671648740768433, 0.9748303294181824, 0.8530786633491516, 0.9028022885322571, 0.8134341239929199, 0.9457138776779175, 0.9101310968399048, 0.9344179034233093, 0.830780565738678, 0.8860974907875061, 0.7609981894493103, 0.5243656635284424, 0.45905187726020813, 0.5667134523391724, 0.7467066645622253, 0.8518288731575012, 0.24857284128665924, 0.18474754691123962, 0.20578065514564514, 0.14129790663719177, 0.10712487995624542, 0.5928947925567627, 0.49325913190841675, 0.7265892028808594, 0.7992207407951355, 0.8406715393066406, 0.7821741104125977, 0.7655035257339478, 0.8208498954772949, 0.93379145860672, 0.6332904696464539, 0.7334080338478088, 0.6227321624755859, 0.7626417875289917, 0.7483953833580017, 0.31097015738487244, 0.648250937461853, 0.7559943795204163, 0.8213089108467102, 0.7124221324920654, 0.5217393636703491, 0.8206318616867065, 0.8859151005744934, 0.9306862354278564, 0.8016025424003601, 0.6744107007980347, 0.8501158952713013, 0.8594471216201782, 0.8346391916275024, 0.7421060800552368, 0.7904008626937866, 0.6051960587501526, 0.6494553089141846, 0.7641692757606506, 0.7065097689628601, 0.6633161902427673, 0.5613759160041809, 0.8798301815986633, 0.848609447479248, 0.7164365649223328, 0.5783945918083191, 0.48449039459228516, 0.27707380056381226, 0.3977501094341278, 0.38520365953445435, 0.47575685381889343, 0.45531558990478516, 0.12555602192878723, 0.2789028286933899, 0.3773355782032013, 0.7458608150482178, 0.1851077824831009, 0.3824695944786072, 0.20527279376983643, 0.6275519728660583, 0.6273106932640076]</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.9513185620307922</v>
+        <v>0.9748303294181824</v>
       </c>
       <c r="F169" t="n">
         <v>1</v>
@@ -7303,10 +7303,10 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>0.5790835999941919</v>
+        <v>0.5893561999982921</v>
       </c>
       <c r="J169" t="n">
-        <v>0.00567729019602149</v>
+        <v>0.00577800196076757</v>
       </c>
     </row>
     <row r="170">
@@ -7325,11 +7325,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>[0.2195005565881729, 0.1645037978887558, 0.11754406243562698, 0.1514962911605835, 0.10361997038125992, 0.1820860058069229, 0.21817810833454132, 0.12373178452253342, 0.13435527682304382, 0.282968670129776, 0.3297654390335083, 0.11275670677423477, 0.1765812635421753, 0.07825975865125656, 0.10578703135251999, 0.19362755119800568, 0.16528591513633728, 0.18984398245811462, 0.08571477234363556, 0.14195112884044647, 0.11374633014202118, 0.1096440777182579, 0.21729670464992523, 0.544635534286499, 0.5745441913604736, 0.1746407151222229, 0.11410050839185715, 0.16584059596061707, 0.19724343717098236, 0.11496137082576752, 0.08880935609340668, 0.3059132695198059, 0.25275978446006775, 0.2144254595041275, 0.1546323299407959, 0.10730213671922684, 0.1465890258550644, 0.33815714716911316, 0.1609267145395279, 0.2554904520511627, 0.2779163420200348, 0.24240826070308685, 0.3195675313472748, 0.10513411462306976, 0.12388412654399872, 0.1335691213607788, 0.1496308147907257, 0.1617625653743744, 0.31773805618286133, 0.25057852268218994, 0.1324750930070877, 0.09221532940864563, 0.08515016734600067, 0.10580649226903915, 0.2044878751039505, 0.2780955731868744, 0.19562730193138123, 0.2618904709815979, 0.304828017950058, 0.22439709305763245, 0.6814064383506775, 0.44380345940589905, 0.3207190930843353, 0.3190034329891205, 0.2620059847831726, 0.1687760204076767, 0.17006772756576538, 0.10083877295255661, 0.13543665409088135, 0.1555643528699875, 0.11285862326622009, 0.07161077111959457, 0.21113036572933197, 0.12352053821086884, 0.11813974380493164, 0.06290765851736069, 0.032094817608594894, 0.05228110030293465, 0.11019789427518845, 0.11004283279180527, 0.1505831778049469, 0.14170484244823456, 0.15190540254116058, 0.0860276147723198, 0.16781257092952728, 0.15538010001182556, 0.1117132380604744, 0.13511532545089722, 0.1505613476037979, 0.1720970720052719, 0.16780687868595123, 0.07762262970209122, 0.12482968717813492, 0.1121511235833168, 0.11695557832717896, 0.22399696707725525, 0.14295713603496552, 0.17339222133159637, 0.1384444683790207, 0.20209568738937378, 0.1571032851934433, 0.1433381587266922, 0.20235204696655273, 0.2294960916042328, 0.13057999312877655, 0.10648081451654434, 0.07392491400241852, 0.10997849702835083, 0.139814555644989, 0.11730876564979553, 0.1060718446969986, 0.10612890869379044]</t>
+          <t>[0.13976113498210907, 0.10924918949604034, 0.05279083922505379, 0.061335187405347824, 0.07029146701097488, 0.12957948446273804, 0.220145583152771, 0.11684257537126541, 0.1261075884103775, 0.2103768140077591, 0.327976793050766, 0.07945746928453445, 0.10530178993940353, 0.034756917506456375, 0.05723869800567627, 0.2307005226612091, 0.14327819645404816, 0.2433178573846817, 0.1023874431848526, 0.21344254910945892, 0.18946906924247742, 0.12144442647695541, 0.25795286893844604, 0.7633881568908691, 0.6278810501098633, 0.21448516845703125, 0.08126594871282578, 0.12313060462474823, 0.23810358345508575, 0.07310261577367783, 0.07139728963375092, 0.41116926074028015, 0.3110824227333069, 0.3090647757053375, 0.21700485050678253, 0.06121606379747391, 0.062659852206707, 0.25966471433639526, 0.11078834533691406, 0.21337783336639404, 0.15182195603847504, 0.16415764391422272, 0.2170468121767044, 0.05561387911438942, 0.08885473757982254, 0.06386641412973404, 0.08633215725421906, 0.11966533958911896, 0.26660633087158203, 0.20209091901779175, 0.07489780336618423, 0.06511387228965759, 0.04131452739238739, 0.08594954758882523, 0.2191702127456665, 0.33373621106147766, 0.16201744973659515, 0.23716452717781067, 0.3712477385997772, 0.18046486377716064, 0.7482314705848694, 0.48598915338516235, 0.34267109632492065, 0.24359525740146637, 0.30718502402305603, 0.17580781877040863, 0.1565227210521698, 0.05146127566695213, 0.049457669258117676, 0.14042627811431885, 0.08054312318563461, 0.03679918497800827, 0.26351380348205566, 0.12116178870201111, 0.13522684574127197, 0.03539267182350159, 0.02570969983935356, 0.030767805874347687, 0.055036548525094986, 0.0576387420296669, 0.06967876851558685, 0.08975405991077423, 0.13333752751350403, 0.10950591415166855, 0.18968555331230164, 0.17034019529819489, 0.09269095957279205, 0.11170347034931183, 0.14990559220314026, 0.13489946722984314, 0.1308509111404419, 0.08353390544652939, 0.13683578372001648, 0.08365781605243683, 0.050278760492801666, 0.11196523904800415, 0.08675896376371384, 0.13448812067508698, 0.07665259391069412, 0.12357039749622345, 0.13982203602790833, 0.1255638152360916, 0.18019548058509827, 0.15935154259204865, 0.17370979487895966, 0.12807516753673553, 0.0808526873588562, 0.08898058533668518, 0.15351471304893494, 0.17157551646232605, 0.16309015452861786, 0.1631578505039215]</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.6814064383506775</v>
+        <v>0.7633881568908691</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -7343,10 +7343,10 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>0.6347584000031929</v>
+        <v>0.6317937000130769</v>
       </c>
       <c r="J170" t="n">
-        <v>0.005667485714314223</v>
+        <v>0.005641015178688187</v>
       </c>
     </row>
     <row r="171">
@@ -7365,11 +7365,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>[0.48921364545822144, 0.2470608502626419, 0.24420295655727386, 0.2027796357870102, 0.15065087378025055, 0.07062995433807373, 0.052292853593826294, 0.06873297691345215, 0.07761260867118835, 0.08667762577533722, 0.5020186305046082, 0.1428375393152237, 0.11276200413703918, 0.18066665530204773, 0.32062360644340515, 0.25587597489356995, 0.28389832377433777, 0.1938033550977707, 0.18087507784366608, 0.10102419555187225, 0.1478344202041626, 0.12259969115257263, 0.18766647577285767, 0.1473332792520523, 0.1610315442085266, 0.19455541670322418, 0.24560701847076416, 0.5496969223022461, 0.7218579053878784, 0.8326372504234314, 0.5076896548271179, 0.17243976891040802, 0.1324998438358307, 0.32666710019111633, 0.11757247895002365, 0.1368360072374344, 0.32488909363746643, 0.34224995970726013, 0.1570097804069519, 0.04724706709384918, 0.07826747000217438, 0.12694744765758514, 0.07954936474561691, 0.13008014857769012, 0.24108007550239563, 0.20323364436626434, 0.27257150411605835, 0.0896126851439476, 0.17821094393730164, 0.20172405242919922, 0.1357947438955307, 0.11001040041446686, 0.2877452075481415, 0.22218720614910126, 0.2372625768184662, 0.11377159506082535, 0.19669580459594727, 0.5072527527809143, 0.15269719064235687, 0.11439316719770432, 0.09394102543592453, 0.04213834926486015, 0.02855011075735092, 0.020902544260025024, 0.08914081007242203, 0.19054880738258362, 0.05129661783576012, 0.20847846567630768, 0.07861950993537903, 0.08742042630910873, 0.09992196410894394, 0.1172504723072052, 0.16698336601257324, 0.1695156842470169, 0.06677859276533127, 0.08204943686723709, 0.15316329896450043, 0.37919726967811584, 0.09729277342557907, 0.10218499600887299, 0.08210434764623642, 0.42038965225219727, 0.40856343507766724, 0.5764923691749573, 0.7414606809616089, 0.2652033567428589, 0.17309406399726868, 0.13406400382518768, 0.10530498623847961, 0.2840501666069031, 0.31740647554397583, 0.42043620347976685, 0.1937393993139267, 0.17844976484775543, 0.140742689371109, 0.08795367181301117, 0.19139553606510162, 0.1552724540233612, 0.18760180473327637, 0.43417519330978394, 0.34120720624923706, 0.5914404988288879, 0.7698174715042114, 0.5646263360977173, 0.5046027898788452, 0.20843088626861572, 0.2510301470756531, 0.16671185195446014, 0.3119886517524719, 0.2691195607185364, 0.26845210790634155]</t>
+          <t>[0.41663897037506104, 0.16946618258953094, 0.18957896530628204, 0.1936289221048355, 0.13594301044940948, 0.08333481103181839, 0.05656403675675392, 0.08277663588523865, 0.080082967877388, 0.07925037294626236, 0.428923100233078, 0.2407190501689911, 0.15203022956848145, 0.3245093822479248, 0.6016319990158081, 0.5620640516281128, 0.6338003873825073, 0.22133147716522217, 0.11142970621585846, 0.10049546509981155, 0.145047128200531, 0.08874240517616272, 0.1981482058763504, 0.17046073079109192, 0.3620426654815674, 0.30671438574790955, 0.340501606464386, 0.7998310923576355, 0.8571292161941528, 0.8633766174316406, 0.6011770367622375, 0.22880205512046814, 0.12919679284095764, 0.4765850007534027, 0.08184879273176193, 0.11056318879127502, 0.4557565748691559, 0.39785122871398926, 0.21022100746631622, 0.09610626101493835, 0.06954178214073181, 0.23905882239341736, 0.13261041045188904, 0.17649677395820618, 0.2479224056005478, 0.1891108602285385, 0.40610793232917786, 0.09467334300279617, 0.22760358452796936, 0.21204084157943726, 0.15056851506233215, 0.11351758241653442, 0.3393067717552185, 0.22434982657432556, 0.25524258613586426, 0.150738924741745, 0.2004856914281845, 0.5107812881469727, 0.07689501345157623, 0.09988978505134583, 0.08198849111795425, 0.043576113879680634, 0.021866783499717712, 0.014680936932563782, 0.12358474731445312, 0.11712220311164856, 0.05032978951931, 0.5000899434089661, 0.07549452036619186, 0.12232605367898941, 0.07928991317749023, 0.08965151757001877, 0.14545875787734985, 0.1580629050731659, 0.046946194022893906, 0.06614616513252258, 0.21001501381397247, 0.5385803580284119, 0.11183448135852814, 0.08225942403078079, 0.10288835316896439, 0.6381789445877075, 0.5668113231658936, 0.7415939569473267, 0.9070031046867371, 0.33115431666374207, 0.2865976393222809, 0.24012868106365204, 0.09299611300230026, 0.3237251341342926, 0.4482954144477844, 0.55400151014328, 0.22718922793865204, 0.16096095740795135, 0.12631884217262268, 0.11664296686649323, 0.2949802279472351, 0.1602775901556015, 0.25753647089004517, 0.48433277010917664, 0.4059313237667084, 0.6441173553466797, 0.8226498365402222, 0.7201440930366516, 0.6699066758155823, 0.2833043336868286, 0.4014910161495209, 0.19960208237171173, 0.36839061975479126, 0.3426221013069153, 0.3413092792034149]</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.8326372504234314</v>
+        <v>0.9070031046867371</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -7383,10 +7383,10 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0.6297081999946386</v>
+        <v>0.6331673999957275</v>
       </c>
       <c r="J171" t="n">
-        <v>0.005673046846798546</v>
+        <v>0.005704210810772319</v>
       </c>
     </row>
     <row r="172">
@@ -7405,11 +7405,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>[0.9327011704444885, 0.9418192505836487, 0.914719820022583, 0.9316413998603821, 0.9291123747825623, 0.9087393879890442, 0.9545814394950867, 0.9513288736343384, 0.9584966897964478, 0.9658508896827698, 0.966168224811554, 0.9482163190841675, 0.9321939945220947, 0.968730092048645, 0.9585438370704651, 0.9818878769874573, 0.9451145529747009, 0.944891095161438, 0.9712325930595398, 0.9614978432655334, 0.957065999507904, 0.972129762172699, 0.9415032863616943, 0.9659499526023865, 0.979198694229126, 0.9758223295211792, 0.9695039987564087, 0.965390682220459, 0.8735336065292358, 0.967728316783905, 0.9137722849845886, 0.9666904211044312, 0.9702516794204712, 0.9533185958862305, 0.944012463092804, 0.9528396725654602, 0.9366028904914856, 0.9395279288291931, 0.9227282404899597, 0.9395650625228882, 0.9026915431022644, 0.9050378799438477, 0.9377424716949463, 0.949205219745636, 0.9639585018157959, 0.973712682723999, 0.9380419254302979, 0.9759446382522583, 0.9600595831871033, 0.9611648917198181, 0.9768598079681396, 0.9665505290031433, 0.9792647361755371, 0.9717744588851929, 0.9936172962188721, 0.9884945750236511, 0.9902995824813843, 0.9881919026374817, 0.9941275119781494, 0.9884675145149231, 0.9907728433609009, 0.9932658672332764, 0.9950986504554749, 0.9878515601158142, 0.9805655479431152, 0.9846289157867432, 0.9782674312591553, 0.9421891570091248, 0.9626787304878235, 0.9635542631149292, 0.9481082558631897, 0.9534726142883301, 0.9474655389785767, 0.9538712501525879, 0.94053053855896, 0.941774308681488, 0.8970358967781067, 0.9363341331481934, 0.8848187327384949, 0.9339096546173096, 0.9451580047607422, 0.9166954755783081, 0.9748817682266235, 0.9433774948120117, 0.9713470935821533, 0.9793161749839783, 0.9842557311058044, 0.9702538251876831, 0.9758647084236145, 0.9534009695053101, 0.9714998602867126, 0.9199883341789246, 0.9828953742980957, 0.9778263568878174, 0.9746403694152832, 0.9525229930877686, 0.9074211716651917, 0.9227444529533386, 0.9596834182739258, 0.9639163017272949, 0.9503630995750427, 0.9584112763404846, 0.9538697600364685, 0.9505932331085205, 0.9575662612915039, 0.9279614090919495, 0.9750311374664307, 0.9701240062713623, 0.9822396039962769, 0.9709304571151733, 0.9710421562194824]</t>
+          <t>[0.9223164319992065, 0.9243570566177368, 0.8693390488624573, 0.9142138957977295, 0.8946215510368347, 0.8716495633125305, 0.9524517059326172, 0.9489156603813171, 0.9590227007865906, 0.9682636260986328, 0.9724147915840149, 0.9454300403594971, 0.9453631639480591, 0.9755375981330872, 0.9606612920761108, 0.9876262545585632, 0.9497628808021545, 0.9610854983329773, 0.974802553653717, 0.968741774559021, 0.9601691365242004, 0.9713125824928284, 0.9347156882286072, 0.9711595177650452, 0.9849216341972351, 0.9810616374015808, 0.9748319387435913, 0.9762386679649353, 0.8670496940612793, 0.9672386050224304, 0.9217595458030701, 0.9726075530052185, 0.9688593149185181, 0.9581065773963928, 0.9495247006416321, 0.9646608829498291, 0.9403465986251831, 0.9355756640434265, 0.9104111790657043, 0.9305142164230347, 0.9086132049560547, 0.9048085808753967, 0.9415974617004395, 0.9356321096420288, 0.968149721622467, 0.9773008227348328, 0.9524601697921753, 0.9735559821128845, 0.9502788186073303, 0.9612314105033875, 0.9715808033943176, 0.9651426672935486, 0.9814395308494568, 0.9712806344032288, 0.9942415952682495, 0.9891220927238464, 0.9935716390609741, 0.9888700246810913, 0.9941962957382202, 0.9889582395553589, 0.9929211735725403, 0.9946566820144653, 0.9962815642356873, 0.986359179019928, 0.9747741222381592, 0.9809654355049133, 0.9798839092254639, 0.9122985601425171, 0.9588329792022705, 0.9652702808380127, 0.9476998448371887, 0.9687820076942444, 0.9705567359924316, 0.9763286709785461, 0.9475284814834595, 0.9241020083427429, 0.8817658424377441, 0.9387329816818237, 0.8898296356201172, 0.9378361701965332, 0.9665983319282532, 0.9423993825912476, 0.9800378084182739, 0.93092280626297, 0.9732815027236938, 0.9828595519065857, 0.9894360303878784, 0.9799025654792786, 0.9780516028404236, 0.9644970297813416, 0.9687128663063049, 0.9242832660675049, 0.9842382073402405, 0.9821435809135437, 0.9779771566390991, 0.9674004316329956, 0.9326557517051697, 0.9296164512634277, 0.9677185416221619, 0.9619090557098389, 0.9410308599472046, 0.9646419882774353, 0.9540826082229614, 0.934414803981781, 0.9519436955451965, 0.9279468655586243, 0.9709531664848328, 0.9654444456100464, 0.9729171991348267, 0.9655452370643616, 0.9656797647476196]</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.9950986504554749</v>
+        <v>0.9962815642356873</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -7423,10 +7423,10 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0.6321670000033919</v>
+        <v>0.6255317999894032</v>
       </c>
       <c r="J172" t="n">
-        <v>0.005695198198228756</v>
+        <v>0.005635421621526155</v>
       </c>
     </row>
     <row r="173">
@@ -7445,11 +7445,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>[0.9348598718643188, 0.9369403719902039, 0.9723104238510132, 0.9272490739822388, 0.9790334105491638, 0.9800422787666321, 0.9717682600021362, 0.982094943523407, 0.9795230627059937, 0.9774128794670105, 0.9620856046676636, 0.9783012270927429, 0.9765744805335999, 0.9672926068305969, 0.9807425737380981, 0.9336334466934204, 0.9423187375068665, 0.9588531255722046, 0.9650581479072571, 0.9522610902786255, 0.9759305119514465, 0.9558919072151184, 0.959801435470581, 0.9359201192855835, 0.9754412174224854, 0.9673558473587036, 0.9757506251335144, 0.969585120677948, 0.9784024953842163, 0.9479818344116211, 0.9333233833312988, 0.980480968952179, 0.9585013389587402, 0.9429413676261902, 0.9524887204170227, 0.9379180669784546, 0.9375426173210144, 0.9390701055526733, 0.8832842707633972, 0.9163236021995544, 0.936257541179657, 0.9339768290519714, 0.9620301127433777, 0.9540232419967651, 0.967979371547699, 0.9613836407661438, 0.9837900996208191, 0.9604501128196716, 0.9568390846252441, 0.9498060345649719, 0.9590520858764648, 0.95797199010849, 0.9538792967796326, 0.9418163895606995, 0.9552934169769287, 0.9763081073760986, 0.9854164719581604, 0.9665383696556091, 0.9558629393577576, 0.9643288850784302, 0.9658802151679993, 0.9028270244598389, 0.9738699197769165, 0.9567679166793823, 0.9439553022384644, 0.9629524350166321, 0.9415175914764404, 0.9764739274978638, 0.9644067883491516, 0.9728014469146729, 0.968237578868866, 0.9772015810012817, 0.9812167286872864, 0.9671955704689026, 0.9679568409919739, 0.9824051260948181, 0.9600973725318909, 0.9789553880691528, 0.9661026000976562, 0.9704415202140808, 0.9731394648551941, 0.9557062983512878, 0.9589922428131104, 0.939597487449646, 0.9397301077842712, 0.9561066031455994, 0.9585705399513245, 0.9397984147071838, 0.9522589445114136, 0.9813636541366577, 0.9586377143859863, 0.9787432551383972, 0.9662523865699768, 0.9686670303344727, 0.9576845765113831, 0.944882869720459, 0.9672330021858215, 0.9780144691467285, 0.9615917205810547, 0.9910552501678467, 0.9767351746559143, 0.9808918833732605, 0.9572500586509705, 0.982569694519043, 0.9741708040237427, 0.9670102596282959, 0.9576160311698914, 0.9398934245109558, 0.9583004713058472, 0.969525933265686, 0.969510018825531]</t>
+          <t>[0.9580762386322021, 0.9398893117904663, 0.9793159365653992, 0.9428933262825012, 0.9835512042045593, 0.9805178642272949, 0.9748585224151611, 0.9822525978088379, 0.9766281843185425, 0.9845566749572754, 0.9746606349945068, 0.9851747155189514, 0.9771832227706909, 0.9564297199249268, 0.9823291897773743, 0.8832432627677917, 0.9194256663322449, 0.933131754398346, 0.948215663433075, 0.9412900805473328, 0.9695262908935547, 0.9470720291137695, 0.971693754196167, 0.957287073135376, 0.9747718572616577, 0.9558935165405273, 0.9865295886993408, 0.9786365032196045, 0.979000985622406, 0.9493793845176697, 0.9504671096801758, 0.9854425191879272, 0.967770516872406, 0.9429711103439331, 0.9369487166404724, 0.9407363533973694, 0.9393761157989502, 0.9446046352386475, 0.9059481620788574, 0.9528626203536987, 0.9371380805969238, 0.9621811509132385, 0.9688215255737305, 0.9641161561012268, 0.9549725651741028, 0.9622902870178223, 0.9855831861495972, 0.9674537777900696, 0.9644428491592407, 0.9357191324234009, 0.9633510708808899, 0.9532420039176941, 0.9245067238807678, 0.9422296285629272, 0.9696344137191772, 0.9853218793869019, 0.9819676876068115, 0.9694172739982605, 0.955710232257843, 0.9689478874206543, 0.9262353777885437, 0.8233160376548767, 0.9687781929969788, 0.9122046828269958, 0.8557868003845215, 0.910499632358551, 0.9284756183624268, 0.9731816649436951, 0.9479468464851379, 0.9647092223167419, 0.9475648999214172, 0.9635831713676453, 0.975090503692627, 0.9686492681503296, 0.9606453776359558, 0.9792189002037048, 0.9458199739456177, 0.972472608089447, 0.9634348750114441, 0.962285041809082, 0.9711920022964478, 0.9396920204162598, 0.9627593755722046, 0.917934000492096, 0.9352506399154663, 0.9605184197425842, 0.966080904006958, 0.9347688555717468, 0.963638961315155, 0.9860637784004211, 0.9697330594062805, 0.9694240689277649, 0.9540333151817322, 0.9382320642471313, 0.9069112539291382, 0.9183154702186584, 0.9358978867530823, 0.9557397365570068, 0.9176638126373291, 0.991230845451355, 0.9530184864997864, 0.983880341053009, 0.9580957293510437, 0.9826269745826721, 0.9619988799095154, 0.9465143084526062, 0.9380554556846619, 0.9214676022529602, 0.9481486678123474, 0.9610995054244995, 0.9611018896102905]</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.9910552501678467</v>
+        <v>0.991230845451355</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
@@ -7463,10 +7463,10 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>0.6238408999925014</v>
+        <v>0.6334413000004133</v>
       </c>
       <c r="J173" t="n">
-        <v>0.005620188288220733</v>
+        <v>0.005706678378382102</v>
       </c>
     </row>
     <row r="174">
@@ -7485,11 +7485,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>[0.8327409625053406, 0.49272865056991577, 0.5686571002006531, 0.5637421011924744, 0.6270971298217773, 0.8731627464294434, 0.5210422873497009, 0.5595431923866272, 0.4568120539188385, 0.505148708820343, 0.4108855128288269, 0.9022831916809082, 0.9873233437538147, 0.99577397108078, 0.9940090179443359, 0.9943031072616577, 0.9745969176292419, 0.8993061184883118, 0.923741340637207, 0.8374875783920288, 0.7733454704284668, 0.919506311416626, 0.9400544762611389, 0.974003255367279, 0.9151721596717834, 0.9162089824676514, 0.894030749797821, 0.8906790018081665, 0.8546271920204163, 0.5972917675971985, 0.6959275603294373, 0.8345558047294617, 0.8493964672088623, 0.7708261609077454, 0.8859832286834717, 0.9752634763717651, 0.9813475608825684, 0.9849087595939636, 0.9560256600379944, 0.9824761152267456, 0.9781038761138916, 0.9636508822441101, 0.9069257378578186, 0.9655126929283142, 0.9709979891777039, 0.9935784339904785, 0.9962207674980164, 0.9787095785140991, 0.9956289529800415, 0.9964166879653931, 0.9931581616401672, 0.9925060868263245, 0.9896327257156372, 0.9741147756576538, 0.8348339200019836, 0.7377499341964722, 0.3489418029785156, 0.26776444911956787, 0.3567722737789154, 0.6112485527992249, 0.9713767170906067, 0.9586255550384521, 0.9828115105628967, 0.9636940956115723, 0.981223464012146, 0.9848780035972595, 0.9294490814208984, 0.7560864686965942, 0.9158390164375305, 0.9336733818054199, 0.7795024514198303, 0.7286388874053955, 0.5943204760551453, 0.5342777967453003, 0.6052438020706177, 0.8546532392501831, 0.952406644821167, 0.9901432991027832, 0.9901279807090759, 0.9571316242218018, 0.9906564354896545, 0.9893518090248108, 0.9812718033790588, 0.9938088059425354, 0.9941556453704834, 0.99554044008255, 0.9818249344825745, 0.9917582869529724, 0.9907421469688416, 0.9918985366821289, 0.9937398433685303, 0.9795889258384705, 0.9885767102241516, 0.9947388768196106, 0.9930347204208374, 0.9942399263381958, 0.9962276220321655, 0.9953446984291077, 0.9955885410308838, 0.9906647205352783, 0.9835208654403687, 0.9099694490432739, 0.8568498492240906, 0.19416044652462006, 0.09425298124551773, 0.5341501235961914, 0.9627342820167542, 0.9872220158576965, 0.9439436197280884, 0.9583752751350403, 0.977995753288269, 0.977995753288269]</t>
+          <t>[0.7200484275817871, 0.3048985004425049, 0.3758971691131592, 0.18696753680706024, 0.23589226603507996, 0.5001692771911621, 0.12225431203842163, 0.2036607414484024, 0.14100594818592072, 0.08987867832183838, 0.11834661662578583, 0.7230794429779053, 0.9684191942214966, 0.9892676472663879, 0.9800257682800293, 0.9875859022140503, 0.9102988839149475, 0.5311605334281921, 0.6574328541755676, 0.5786643028259277, 0.4719519317150116, 0.7950923442840576, 0.7798680067062378, 0.934731125831604, 0.8179991841316223, 0.7293525338172913, 0.648868203163147, 0.6790404915809631, 0.49422261118888855, 0.2790573537349701, 0.3224622309207916, 0.5524250864982605, 0.6026568412780762, 0.4672291874885559, 0.6908959150314331, 0.9388964772224426, 0.9589725136756897, 0.9634129405021667, 0.886942982673645, 0.960329532623291, 0.9457952380180359, 0.9117391109466553, 0.6579827666282654, 0.935893177986145, 0.9334084391593933, 0.9895700216293335, 0.9920834302902222, 0.9376456141471863, 0.9920561909675598, 0.9950069189071655, 0.9905331134796143, 0.9881446361541748, 0.9821886420249939, 0.9196808934211731, 0.8321439027786255, 0.569118857383728, 0.2450435906648636, 0.16976870596408844, 0.17013776302337646, 0.4609426259994507, 0.9496490359306335, 0.9696676135063171, 0.9845628142356873, 0.9798975586891174, 0.9731666445732117, 0.969079852104187, 0.9148198366165161, 0.7040756940841675, 0.8167303204536438, 0.8974791765213013, 0.6853868961334229, 0.42689964175224304, 0.29779383540153503, 0.23893575370311737, 0.37398871779441833, 0.8117556571960449, 0.9433748722076416, 0.9917168021202087, 0.987194836139679, 0.9435847401618958, 0.9792709350585938, 0.9654815793037415, 0.9582475423812866, 0.9893811941146851, 0.9942789077758789, 0.9934611320495605, 0.9659674167633057, 0.9859549403190613, 0.9629446864128113, 0.9729275107383728, 0.9885927438735962, 0.9600067138671875, 0.9759230613708496, 0.9915894865989685, 0.9841280579566956, 0.9876705408096313, 0.9899340271949768, 0.9930753707885742, 0.9944849610328674, 0.9809967279434204, 0.9712193608283997, 0.7571820616722107, 0.6077802181243896, 0.07015474140644073, 0.03575204685330391, 0.6779766082763672, 0.9461210370063782, 0.9594400525093079, 0.8940890431404114, 0.9290673136711121, 0.9547266364097595, 0.9547266364097595]</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.9964166879653931</v>
+        <v>0.9950069189071655</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -7503,10 +7503,10 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0.6434290999895893</v>
+        <v>0.6277383999986341</v>
       </c>
       <c r="J174" t="n">
-        <v>0.005744902678478476</v>
+        <v>0.005604807142844948</v>
       </c>
     </row>
     <row r="175">
@@ -7525,11 +7525,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>[0.9925734996795654, 0.9891993999481201, 0.9877699017524719, 0.9814479351043701, 0.9834505319595337, 0.9498273134231567, 0.9795181155204773, 0.979195237159729, 0.9889727234840393, 0.9927394986152649, 0.9932646751403809, 0.9949367046356201, 0.9949672818183899, 0.9936434030532837, 0.9882122874259949, 0.991500973701477, 0.9876761436462402, 0.9789780974388123, 0.9720569252967834, 0.9910324215888977, 0.9884264469146729, 0.9869049191474915, 0.9742976427078247, 0.9613028168678284, 0.9720864295959473, 0.9699843525886536, 0.9646766185760498, 0.9806444048881531, 0.986257791519165, 0.9899840354919434, 0.9928696751594543, 0.9963310360908508, 0.9894401431083679, 0.9902073740959167, 0.9862749576568604, 0.982572078704834, 0.9769573211669922, 0.9730798602104187, 0.9917889833450317, 0.8898494243621826, 0.9596067667007446, 0.973173975944519, 0.9778051376342773, 0.983555257320404, 0.9878261685371399, 0.9873982667922974, 0.974922776222229, 0.985221803188324, 0.9868735671043396, 0.9772844314575195, 0.9836830496788025, 0.9682974815368652, 0.982528805732727, 0.9876819252967834, 0.9779518842697144, 0.9793804287910461, 0.9878317713737488, 0.9827699661254883, 0.9933227896690369, 0.986004650592804, 0.9930263757705688, 0.9831720590591431, 0.9711620211601257, 0.9599791765213013, 0.9894372224807739, 0.9763873219490051, 0.9918375611305237, 0.9946192502975464, 0.995094895362854, 0.9922593235969543, 0.9853458404541016, 0.9895747303962708, 0.9871441721916199, 0.9917070269584656, 0.9898346066474915, 0.9781615734100342, 0.9766404628753662, 0.976059079170227, 0.9783505201339722, 0.9880679249763489, 0.9912860989570618, 0.9768561720848083, 0.9661426544189453, 0.9732249975204468, 0.9824396371841431, 0.9809792041778564, 0.9892640709877014, 0.9793968200683594, 0.9898104667663574, 0.9838841557502747, 0.971771240234375, 0.9851976037025452, 0.9853076934814453, 0.9868055582046509, 0.9900932908058167, 0.9778531193733215, 0.9473559856414795, 0.9627546072006226, 0.9821057319641113, 0.9815143942832947, 0.9941070079803467, 0.9888222217559814, 0.9883050918579102, 0.9888695478439331, 0.9746988415718079, 0.9647048115730286, 0.8838286995887756, 0.9895336031913757, 0.9864712357521057, 0.9766229391098022, 0.9833487272262573, 0.9833487272262573]</t>
+          <t>[0.9911656975746155, 0.9599510431289673, 0.980048656463623, 0.955747127532959, 0.9740695357322693, 0.9380984902381897, 0.9651349186897278, 0.9614810943603516, 0.9708707928657532, 0.9783832430839539, 0.9758034944534302, 0.9863954782485962, 0.9862094521522522, 0.9880870580673218, 0.98097825050354, 0.9887397885322571, 0.9765638113021851, 0.9533363580703735, 0.9398738145828247, 0.9868396520614624, 0.9820630550384521, 0.9797240495681763, 0.9525824785232544, 0.9395701289176941, 0.9635795950889587, 0.9476176500320435, 0.951518714427948, 0.975840151309967, 0.983633816242218, 0.9852433204650879, 0.990445613861084, 0.994330644607544, 0.9817822575569153, 0.9855921268463135, 0.9685496091842651, 0.9550168514251709, 0.9470468759536743, 0.932063639163971, 0.9851968288421631, 0.874370276927948, 0.8877099752426147, 0.9492490887641907, 0.9705039262771606, 0.9755757451057434, 0.9853083491325378, 0.9845784306526184, 0.9671120643615723, 0.9839686155319214, 0.9807776808738708, 0.9627929329872131, 0.9799496531486511, 0.9578669667243958, 0.9839338660240173, 0.9886272549629211, 0.981988787651062, 0.9734798073768616, 0.983161449432373, 0.9805426597595215, 0.9922201037406921, 0.9781270027160645, 0.9891459941864014, 0.9796968102455139, 0.960728645324707, 0.9509074687957764, 0.9736654758453369, 0.9642496109008789, 0.9871206879615784, 0.9890303015708923, 0.9920055270195007, 0.9886494874954224, 0.9733772277832031, 0.9790083765983582, 0.9719128608703613, 0.9800810813903809, 0.9842029809951782, 0.9494522213935852, 0.9620667099952698, 0.9685268998146057, 0.958553671836853, 0.9800184369087219, 0.9869267344474792, 0.9613385796546936, 0.9542311429977417, 0.96795254945755, 0.9716399908065796, 0.9762887954711914, 0.9872352480888367, 0.9704023003578186, 0.98675936460495, 0.9807666540145874, 0.9409453868865967, 0.9811999201774597, 0.9720333814620972, 0.980097234249115, 0.9833820462226868, 0.9660744667053223, 0.9258543252944946, 0.9505777359008789, 0.9652583003044128, 0.9765077829360962, 0.9871741533279419, 0.9667086005210876, 0.9679915308952332, 0.9777578711509705, 0.9391624927520752, 0.8723154664039612, 0.634919285774231, 0.9687983393669128, 0.9544586539268494, 0.9705641269683838, 0.9679180383682251, 0.9679180383682251]</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.9963310360908508</v>
+        <v>0.9943306446075439</v>
       </c>
       <c r="F175" t="n">
         <v>1</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0.6490663999866229</v>
+        <v>0.6509852999879513</v>
       </c>
       <c r="J175" t="n">
-        <v>0.005795235714166276</v>
+        <v>0.005812368749892423</v>
       </c>
     </row>
     <row r="176">
@@ -7565,11 +7565,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>[0.5416420698165894, 0.7743975520133972, 0.8610841035842896, 0.7860804796218872, 0.8858948349952698, 0.8677034974098206, 0.932820737361908, 0.877466082572937, 0.9579938650131226, 0.9580122232437134, 0.9549424648284912, 0.9382116198539734, 0.9439054131507874, 0.9291401505470276, 0.9424532651901245, 0.9153349995613098, 0.9214684367179871, 0.9209731817245483, 0.9522301554679871, 0.931078314781189, 0.9451941847801208, 0.9588258266448975, 0.9649462699890137, 0.9626206159591675, 0.9843360185623169, 0.9828831553459167, 0.9913484454154968, 0.9933302998542786, 0.9833205342292786, 0.9749371409416199, 0.9929618239402771, 0.9855493903160095, 0.9896100759506226, 0.9832909107208252, 0.8751460313796997, 0.9859790205955505, 0.989183783531189, 0.9915961623191833, 0.9874861836433411, 0.982131838798523, 0.9886470437049866, 0.9913523197174072, 0.9923115372657776, 0.992520809173584, 0.9853426218032837, 0.9749342203140259, 0.9811355471611023, 0.9898378849029541, 0.9702211618423462, 0.9704941511154175, 0.7960143685340881, 0.9267962574958801, 0.8177013993263245, 0.9026603698730469, 0.8689863085746765, 0.9214461445808411, 0.9409253001213074, 0.9520379304885864, 0.9901143312454224, 0.9687333703041077, 0.9880402684211731, 0.9814165830612183, 0.9757859110832214, 0.9919771552085876, 0.9881040453910828, 0.9805143475532532, 0.9186223745346069, 0.4514913558959961, 0.290018230676651, 0.2659066915512085, 0.795136034488678, 0.7509361505508423, 0.8894392848014832, 0.9556838870048523, 0.9866223931312561, 0.9860050082206726, 0.9928440451622009, 0.9946075081825256, 0.9949872493743896, 0.9880018830299377, 0.9783994555473328, 0.9488377571105957, 0.9242678880691528, 0.9087508320808411, 0.8479083180427551, 0.9040944576263428, 0.919988214969635, 0.8482551574707031, 0.9003642201423645, 0.8944230675697327, 0.8207119107246399, 0.9049091935157776, 0.8940454125404358, 0.9399615526199341, 0.9189109802246094, 0.9390124678611755, 0.9004537463188171, 0.939667284488678, 0.9495766758918762, 0.9695592522621155, 0.977521538734436, 0.9275924563407898, 0.5203501582145691, 0.2651936113834381, 0.5550975203514099, 0.5950239300727844, 0.4468294680118561, 0.8989702463150024, 0.9791322946548462, 0.9894554018974304, 0.989474356174469]</t>
+          <t>[0.40286001563072205, 0.7193308472633362, 0.8056755065917969, 0.8318113684654236, 0.8730756044387817, 0.8738548159599304, 0.9087233543395996, 0.8521035313606262, 0.9026380181312561, 0.872247576713562, 0.8987252712249756, 0.8185106515884399, 0.8344100713729858, 0.8092281818389893, 0.8820812106132507, 0.8016666769981384, 0.8690811991691589, 0.9248191118240356, 0.9257798790931702, 0.8770041465759277, 0.9204627871513367, 0.9219260811805725, 0.9638723731040955, 0.9328504204750061, 0.9669873118400574, 0.970952033996582, 0.981726348400116, 0.982778012752533, 0.9531559348106384, 0.9305047988891602, 0.9810853004455566, 0.9719330072402954, 0.9719731211662292, 0.9546204805374146, 0.7807658314704895, 0.955371081829071, 0.9747459292411804, 0.981214165687561, 0.9466074705123901, 0.9493086934089661, 0.9631392955780029, 0.9742494225502014, 0.9773440957069397, 0.9819034337997437, 0.9638338088989258, 0.9296414852142334, 0.9591249227523804, 0.9760033488273621, 0.9468860030174255, 0.9375103116035461, 0.6279895901679993, 0.8973796367645264, 0.6583290696144104, 0.8063146471977234, 0.69536292552948, 0.8122439980506897, 0.7315033078193665, 0.857641339302063, 0.9716506600379944, 0.876990795135498, 0.9660389423370361, 0.9538747072219849, 0.950929582118988, 0.9885519742965698, 0.9774945378303528, 0.9672324657440186, 0.8827912211418152, 0.2752279043197632, 0.2056719809770584, 0.22540593147277832, 0.6817473769187927, 0.6586503982543945, 0.7767292857170105, 0.8824971318244934, 0.9650305509567261, 0.9629642367362976, 0.9778173565864563, 0.985335111618042, 0.9816659092903137, 0.9790472388267517, 0.9667870402336121, 0.9186146259307861, 0.8900308012962341, 0.815136730670929, 0.7699257731437683, 0.847156822681427, 0.8985529541969299, 0.8049849271774292, 0.8489614725112915, 0.809690535068512, 0.6859145164489746, 0.834204375743866, 0.8096264004707336, 0.911366879940033, 0.8066942691802979, 0.8431808352470398, 0.8485284447669983, 0.8551554679870605, 0.9108379483222961, 0.9238633513450623, 0.9522560238838196, 0.8187416791915894, 0.5205575823783875, 0.19572938978672028, 0.6942931413650513, 0.6275937557220459, 0.35529688000679016, 0.7555692791938782, 0.9259307980537415, 0.9623219966888428, 0.9623442888259888]</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.9949872493743896</v>
+        <v>0.9885519742965698</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0.6397622999793384</v>
+        <v>0.6355677999963518</v>
       </c>
       <c r="J176" t="n">
-        <v>0.005763624324138184</v>
+        <v>0.00572583603600317</v>
       </c>
     </row>
     <row r="177">
@@ -7605,11 +7605,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>[0.6862932443618774, 0.7626299858093262, 0.832293689250946, 0.6271846294403076, 0.385343462228775, 0.5027804374694824, 0.1826399862766266, 0.3908749222755432, 0.6235042810440063, 0.8612072467803955, 0.8254651427268982, 0.6465592980384827, 0.4162578284740448, 0.597761869430542, 0.2550279200077057, 0.2439248412847519, 0.27677297592163086, 0.29327914118766785, 0.23997710645198822, 0.2634536921977997, 0.21295784413814545, 0.3734856843948364, 0.1981106847524643, 0.3382195830345154, 0.38507261872291565, 0.20372766256332397, 0.324712872505188, 0.37349608540534973, 0.4954849183559418, 0.7749277353286743, 0.39172691106796265, 0.45215269923210144, 0.6620418429374695, 0.8164517879486084, 0.922155499458313, 0.856229841709137, 0.8047636151313782, 0.6485529541969299, 0.3755895495414734, 0.44022536277770996, 0.4789929986000061, 0.6969724297523499, 0.5610273480415344, 0.7282613515853882, 0.7277607321739197, 0.6811533570289612, 0.40312331914901733, 0.5933861136436462, 0.4102281928062439, 0.48929324746131897, 0.7621906399726868, 0.7275132536888123, 0.48465585708618164, 0.48551061749458313, 0.41608771681785583, 0.454965204000473, 0.5041317343711853, 0.5424503684043884, 0.90425705909729, 0.8816965222358704, 0.639123260974884, 0.387603223323822, 0.2556515336036682, 0.5314013361930847, 0.42572784423828125, 0.5200714468955994, 0.4817311763763428, 0.3694989085197449, 0.7133435010910034, 0.7072195410728455, 0.7666763663291931, 0.8419321775436401, 0.9392810463905334, 0.8699720501899719, 0.7631800770759583, 0.7117063999176025, 0.5813024640083313, 0.44031429290771484, 0.2825765013694763, 0.2551387548446655, 0.2951508164405823, 0.1693035066127777, 0.25912460684776306, 0.4137601852416992, 0.41882261633872986, 0.3324536681175232, 0.498762309551239, 0.6064932346343994, 0.21516558527946472, 0.193509042263031, 0.14143110811710358, 0.1946629136800766, 0.3019678294658661, 0.6246945858001709, 0.7914499640464783, 0.6256194114685059, 0.47057658433914185, 0.6020846962928772, 0.7055922746658325, 0.7787808179855347, 0.590334951877594, 0.725683331489563, 0.7087632417678833, 0.8132137656211853, 0.8101993203163147, 0.7035210728645325, 0.42560243606567383, 0.3651566207408905, 0.1546541303396225, 0.3636768162250519, 0.474539190530777, 0.3982914686203003, 0.4159717261791229, 0.3877469301223755, 0.5061500072479248, 0.4986901879310608, 0.3648851811885834, 0.5500806570053101, 0.7745389342308044, 0.7054924368858337, 0.5418087244033813, 0.8372333645820618, 0.6663106083869934, 0.9043132066726685, 0.9035439491271973, 0.9182971715927124, 0.8511576652526855, 0.8445796370506287, 0.8470687866210938, 0.8258845806121826, 0.6498671770095825, 0.6993610858917236, 0.491687148809433, 0.662865936756134, 0.3212025463581085, 0.3471803367137909, 0.2921335697174072, 0.4561694860458374, 0.45791053771972656]</t>
+          <t>[0.4658062160015106, 0.7144753932952881, 0.6925954818725586, 0.6402595639228821, 0.3792051374912262, 0.5459408760070801, 0.10088074207305908, 0.27855217456817627, 0.5268055200576782, 0.7703785300254822, 0.6985491514205933, 0.5265880227088928, 0.24068228900432587, 0.3654322326183319, 0.10678528994321823, 0.12079199403524399, 0.20706629753112793, 0.26759326457977295, 0.1692703366279602, 0.2642304301261902, 0.1846926510334015, 0.30386513471603394, 0.1606360375881195, 0.2428261935710907, 0.3382422924041748, 0.14582353830337524, 0.2999088764190674, 0.34109532833099365, 0.3859735131263733, 0.7454684972763062, 0.28700482845306396, 0.3647212088108063, 0.5243246555328369, 0.7990416884422302, 0.9038584232330322, 0.8175820708274841, 0.8322842717170715, 0.6290802955627441, 0.3131033480167389, 0.20876650512218475, 0.21185623109340668, 0.4522767663002014, 0.2760855555534363, 0.44595175981521606, 0.4980524182319641, 0.35566362738609314, 0.14167653024196625, 0.31426966190338135, 0.21283775568008423, 0.3325553834438324, 0.7354610562324524, 0.7069408893585205, 0.3962061107158661, 0.3609129786491394, 0.23088058829307556, 0.3368905782699585, 0.4020872116088867, 0.5853228569030762, 0.9204927682876587, 0.7539770007133484, 0.47000738978385925, 0.2480839490890503, 0.09910973906517029, 0.32527124881744385, 0.3009054958820343, 0.3974429666996002, 0.3585045337677002, 0.2131379246711731, 0.48877406120300293, 0.5870309472084045, 0.5448935031890869, 0.6576205492019653, 0.834152340888977, 0.7657390236854553, 0.7912099361419678, 0.6587933301925659, 0.41370996832847595, 0.3526575267314911, 0.11681706458330154, 0.11892089992761612, 0.11315133422613144, 0.052538782358169556, 0.08112291246652603, 0.1778336614370346, 0.15509912371635437, 0.09473028779029846, 0.23777267336845398, 0.18639643490314484, 0.06289949268102646, 0.08944069594144821, 0.050579022616147995, 0.13782678544521332, 0.23442372679710388, 0.5006775856018066, 0.8295775055885315, 0.7139095067977905, 0.39253804087638855, 0.39238211512565613, 0.48341819643974304, 0.4830187261104584, 0.36538052558898926, 0.47342416644096375, 0.5758401155471802, 0.5865070223808289, 0.5488005876541138, 0.4006073474884033, 0.2659533619880676, 0.23868516087532043, 0.082591712474823, 0.29348471760749817, 0.41179633140563965, 0.32112160325050354, 0.262876957654953, 0.22313439846038818, 0.2684084177017212, 0.2654297947883606, 0.2451423704624176, 0.5461006164550781, 0.755814254283905, 0.6407867074012756, 0.4952344596385956, 0.8014786243438721, 0.5803821682929993, 0.8677957057952881, 0.8269935250282288, 0.8746801018714905, 0.7542848587036133, 0.7118575572967529, 0.7563461661338806, 0.7378280162811279, 0.5786617994308472, 0.661189079284668, 0.465826153755188, 0.4940049946308136, 0.13939541578292847, 0.16696488857269287, 0.08930118381977081, 0.21619780361652374, 0.21518437564373016]</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.9392810463905334</v>
+        <v>0.9204927682876587</v>
       </c>
       <c r="F177" t="n">
         <v>1</v>
@@ -7623,10 +7623,10 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0.9150323999929242</v>
+        <v>0.941940099990461</v>
       </c>
       <c r="J177" t="n">
-        <v>0.006582966906423915</v>
+        <v>0.006776547481945763</v>
       </c>
     </row>
     <row r="178">
@@ -7645,11 +7645,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[0.05018574744462967, 0.10669998824596405, 0.06360859423875809, 0.11257045716047287, 0.07873639464378357, 0.1196863204240799, 0.07707381993532181, 0.0629587322473526, 0.04141935706138611, 0.08150952309370041, 0.06591521203517914, 0.05262753739953041, 0.049981046468019485, 0.0716349184513092, 0.08416949957609177, 0.09040595591068268, 0.0931408554315567, 0.10134051740169525, 0.13830538094043732, 0.12901900708675385, 0.09004328399896622, 0.052857715636491776, 0.061708737164735794, 0.05927370861172676, 0.027360012754797935, 0.03863782808184624, 0.06641215085983276, 0.04851224273443222, 0.04542073979973793, 0.09488864243030548, 0.07012111693620682, 0.08489426970481873, 0.14089243113994598, 0.1966981440782547, 0.1603006273508072, 0.1273384541273117, 0.17709968984127045, 0.2969004511833191, 0.24863319098949432, 0.20097357034683228, 0.1719278246164322, 0.24718646705150604, 0.16435787081718445, 0.1779256910085678, 0.15075814723968506, 0.08497752249240875, 0.05056093633174896, 0.07675541937351227, 0.08337859064340591, 0.12472755461931229, 0.06534454971551895, 0.11898970603942871, 0.15208700299263, 0.170918807387352, 0.15600289404392242, 0.18280616402626038, 0.16396836936473846, 0.11674841493368149, 0.09737569838762283, 0.1927020400762558, 0.08149198442697525, 0.11579927057027817, 0.06666727364063263, 0.09075417369604111, 0.062187690287828445, 0.05408864840865135, 0.048720747232437134, 0.0829671174287796, 0.05856392905116081, 0.09600155055522919, 0.06606042385101318, 0.05050574243068695, 0.03893965110182762, 0.06754548847675323, 0.13677123188972473, 0.09025222063064575, 0.043960604816675186, 0.0826064869761467, 0.09707647562026978, 0.1023387461900711, 0.08916851878166199, 0.12062356621026993, 0.09247962385416031, 0.11890248209238052, 0.07841785252094269, 0.060140859335660934, 0.04683403670787811, 0.07652654498815536, 0.08193080872297287, 0.06742243468761444, 0.13879863917827606, 0.1314816176891327, 0.07853972166776657, 0.16772155463695526, 0.14442570507526398, 0.15967556834220886, 0.10763759911060333, 0.11199280619621277, 0.10414400696754456, 0.11591091752052307, 0.11971758306026459, 0.13429492712020874, 0.0933699682354927, 0.08051076531410217, 0.08944406360387802, 0.12364239990711212, 0.1577686369419098, 0.18096858263015747, 0.13963042199611664, 0.15390300750732422, 0.16866719722747803, 0.1551644504070282, 0.1996358335018158, 0.22710508108139038, 0.1275336593389511, 0.12433718144893646, 0.19929251074790955, 0.13222627341747284, 0.11195608228445053, 0.07012301683425903, 0.0739951953291893, 0.10789632052183151, 0.093095563352108, 0.0613868273794651, 0.05312377214431763, 0.069113589823246, 0.09692243486642838, 0.10910503566265106, 0.09732016921043396, 0.1363653540611267, 0.08577869832515717, 0.06370525062084198, 0.0530710406601429, 0.04604613780975342, 0.04939566180109978, 0.03723524138331413, 0.03100777603685856, 0.03979143872857094, 0.03644886612892151, 0.03618290275335312]</t>
+          <t>[0.0910305604338646, 0.20782490074634552, 0.07572584599256516, 0.12770381569862366, 0.10457301139831543, 0.17175893485546112, 0.08661797642707825, 0.0612604059278965, 0.030883416533470154, 0.042952485382556915, 0.042431652545928955, 0.024208273738622665, 0.025083929300308228, 0.024637004360556602, 0.04549850896000862, 0.02941189333796501, 0.04076368734240532, 0.04850604012608528, 0.07698692381381989, 0.0592866949737072, 0.04916500672698021, 0.026380179449915886, 0.029294708743691444, 0.018450483679771423, 0.013152217492461205, 0.024461669847369194, 0.02880169451236725, 0.041431162506341934, 0.02708563581109047, 0.1020979955792427, 0.04587346687912941, 0.0424015186727047, 0.10563867539167404, 0.10946517437696457, 0.07914166152477264, 0.037005599588155746, 0.044218678027391434, 0.12651115655899048, 0.09748505055904388, 0.08358035236597061, 0.09162604808807373, 0.13196565210819244, 0.07855294644832611, 0.07610372453927994, 0.07656266540288925, 0.05768312141299248, 0.028659919276833534, 0.042460016906261444, 0.05397246778011322, 0.07535909116268158, 0.03002672642469406, 0.06394790858030319, 0.09528274089097977, 0.08699449896812439, 0.08859068155288696, 0.1125415712594986, 0.08286057412624359, 0.05344526469707489, 0.03820096328854561, 0.059424273669719696, 0.02571203000843525, 0.03625074401497841, 0.02163950726389885, 0.030002722516655922, 0.018923338502645493, 0.02861155942082405, 0.020157964900135994, 0.04369727894663811, 0.02653566189110279, 0.032815854996442795, 0.022363536059856415, 0.017052708193659782, 0.018516093492507935, 0.03745442256331444, 0.0779637023806572, 0.06850983947515488, 0.023973960429430008, 0.04339415580034256, 0.04761384800076485, 0.030163852497935295, 0.031215056777000427, 0.03556602820754051, 0.025810744613409042, 0.056303270161151886, 0.04430507868528366, 0.017103616148233414, 0.02005315199494362, 0.029672887176275253, 0.031514234840869904, 0.0277278870344162, 0.07594171911478043, 0.08691910654306412, 0.03332068398594856, 0.07647421956062317, 0.10529747605323792, 0.08646144717931747, 0.0614498034119606, 0.07947003841400146, 0.046929508447647095, 0.04677436500787735, 0.07187642902135849, 0.09708947688341141, 0.059447623789310455, 0.04025555029511452, 0.05013072490692139, 0.07221487909555435, 0.07142701745033264, 0.052020344883203506, 0.033539287745952606, 0.040016695857048035, 0.035619575530290604, 0.06232312321662903, 0.11226532608270645, 0.23820188641548157, 0.1239151805639267, 0.0738028809428215, 0.16020995378494263, 0.08745448291301727, 0.07639967650175095, 0.06526241451501846, 0.11228923499584198, 0.10981960594654083, 0.08176641166210175, 0.06213034689426422, 0.046308185905218124, 0.07202048599720001, 0.09699589759111404, 0.11769300699234009, 0.10568024218082428, 0.15472522377967834, 0.12192048132419586, 0.05709488317370415, 0.051865264773368835, 0.03637387603521347, 0.044704943895339966, 0.02410777099430561, 0.016952767968177795, 0.017865575850009918, 0.01749398745596409, 0.01748463697731495]</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.2969004511833191</v>
+        <v>0.2382018864154816</v>
       </c>
       <c r="F178" t="n">
         <v>1</v>
@@ -7663,10 +7663,10 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0.8057533000246622</v>
+        <v>0.7731020000064746</v>
       </c>
       <c r="J178" t="n">
-        <v>0.005755380714461873</v>
+        <v>0.005522157142903389</v>
       </c>
     </row>
     <row r="179">
@@ -7685,11 +7685,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[0.8757613301277161, 0.8611665368080139, 0.9022354483604431, 0.8813251852989197, 0.7848368883132935, 0.8322523236274719, 0.8435993194580078, 0.9597801566123962, 0.9122388362884521, 0.9652567505836487, 0.9321612119674683, 0.9233603477478027, 0.9213355183601379, 0.9818868637084961, 0.9356926083564758, 0.9005720615386963, 0.9376274943351746, 0.9475844502449036, 0.9683628678321838, 0.97022545337677, 0.9644683599472046, 0.922692060470581, 0.8360106945037842, 0.6869941353797913, 0.6229406595230103, 0.5936982035636902, 0.40702617168426514, 0.5357252955436707, 0.6285648941993713, 0.7169002294540405, 0.5943216681480408, 0.6106835603713989, 0.4802553951740265, 0.7906081080436707, 0.8923033475875854, 0.9755777716636658, 0.9794236421585083, 0.9718145728111267, 0.9507447481155396, 0.9694948792457581, 0.9707551598548889, 0.9635918736457825, 0.8051726222038269, 0.7977480292320251, 0.5939514636993408, 0.49694395065307617, 0.7253744006156921, 0.5457127094268799, 0.513064444065094, 0.7630578875541687, 0.754775881767273, 0.8414068818092346, 0.6228195428848267, 0.7919155955314636, 0.6535778641700745, 0.6409793496131897, 0.8543728590011597, 0.9725760817527771, 0.9206975698471069, 0.9242108464241028, 0.8346027135848999, 0.9210226535797119, 0.836783230304718, 0.7914250493049622, 0.6488882899284363, 0.8243163228034973, 0.7310786247253418, 0.5722028613090515, 0.612041175365448, 0.4949384331703186, 0.4719651937484741, 0.5339235663414001, 0.6892074346542358, 0.7006219625473022, 0.6903107762336731, 0.7638261914253235, 0.3618588149547577, 0.6205204129219055, 0.2648218274116516, 0.6748673319816589, 0.7396847605705261, 0.8362861275672913, 0.7714322805404663, 0.9080424904823303, 0.8499924540519714, 0.9611126184463501, 0.9215285181999207, 0.9158629775047302, 0.8153253197669983, 0.8406109809875488, 0.8192704319953918, 0.8163912892341614, 0.8991230130195618, 0.8960620760917664, 0.94912189245224, 0.9283843636512756, 0.8600176572799683, 0.899739146232605, 0.8987753987312317, 0.8752866387367249, 0.7546195983886719, 0.7036489248275757, 0.6009962558746338, 0.7694162726402283, 0.8216279149055481, 0.8646623492240906, 0.8890876770019531, 0.839635968208313, 0.5342512130737305, 0.8199257850646973, 0.783987820148468, 0.5231358408927917, 0.48674771189689636, 0.7160874605178833, 0.5814929604530334, 0.49403175711631775, 0.3768886923789978, 0.49858906865119934, 0.6566681265830994, 0.6471770405769348, 0.6407449245452881, 0.6891454458236694, 0.6658220291137695, 0.6966744661331177, 0.8221635818481445, 0.9108290672302246, 0.8028326630592346, 0.7590895891189575, 0.6777803301811218, 0.7688446044921875, 0.6690642833709717, 0.6097307205200195, 0.27776095271110535, 0.39162009954452515, 0.35356903076171875, 0.3034752309322357, 0.39789584279060364, 0.22138023376464844, 0.21884483098983765]</t>
+          <t>[0.907858669757843, 0.8569632172584534, 0.8875122666358948, 0.8703006505966187, 0.798346221446991, 0.863006591796875, 0.9234639406204224, 0.9792186617851257, 0.9445968866348267, 0.9858975410461426, 0.9649757742881775, 0.9508622884750366, 0.9541773200035095, 0.9924726486206055, 0.9730499386787415, 0.9467280507087708, 0.9724379777908325, 0.976565957069397, 0.986855685710907, 0.9854387044906616, 0.9854034781455994, 0.9593871831893921, 0.9237224459648132, 0.7520465850830078, 0.6486010551452637, 0.6104615330696106, 0.3094746470451355, 0.35115206241607666, 0.5403342247009277, 0.49508658051490784, 0.5397069454193115, 0.5200243592262268, 0.37305504083633423, 0.7908342480659485, 0.9606175422668457, 0.9896931052207947, 0.9945344924926758, 0.9938281178474426, 0.9900264739990234, 0.9906103014945984, 0.9870081543922424, 0.9792241454124451, 0.8054211139678955, 0.8109981417655945, 0.6330612301826477, 0.5440965890884399, 0.8266609907150269, 0.6923457384109497, 0.5790639519691467, 0.8476434946060181, 0.8462619781494141, 0.9050920605659485, 0.7709972858428955, 0.857447624206543, 0.6916189789772034, 0.672663688659668, 0.8898099660873413, 0.9717388153076172, 0.9497743844985962, 0.9465586543083191, 0.9171648621559143, 0.9666893482208252, 0.8908129930496216, 0.8860551118850708, 0.7893854379653931, 0.8755531311035156, 0.8133405447006226, 0.6550242304801941, 0.5881792902946472, 0.42770686745643616, 0.4506588578224182, 0.568238377571106, 0.804048478603363, 0.7188251614570618, 0.8110116124153137, 0.7896607518196106, 0.45283445715904236, 0.6797384023666382, 0.2190447449684143, 0.7472844123840332, 0.774762749671936, 0.9126985669136047, 0.8861631155014038, 0.9715752601623535, 0.9244818687438965, 0.9819725155830383, 0.9558454751968384, 0.9732287526130676, 0.9149329662322998, 0.9304074048995972, 0.8953003287315369, 0.8924047350883484, 0.9503934383392334, 0.9507521390914917, 0.9779881238937378, 0.9584910273551941, 0.9235369563102722, 0.9216378927230835, 0.9184194207191467, 0.8833770155906677, 0.5501134395599365, 0.6601957082748413, 0.698535680770874, 0.8272504210472107, 0.7751985788345337, 0.8631537556648254, 0.8842293620109558, 0.8857673406600952, 0.6032618284225464, 0.8832459449768066, 0.8302621245384216, 0.5607119798660278, 0.4876098036766052, 0.7414451837539673, 0.5794786214828491, 0.540939450263977, 0.4097159802913666, 0.47595787048339844, 0.6410882472991943, 0.6442121267318726, 0.6405826807022095, 0.6635481715202332, 0.6277687549591064, 0.7661573886871338, 0.8181423544883728, 0.9334345459938049, 0.7398324608802795, 0.7936719059944153, 0.7311930656433105, 0.8757662773132324, 0.7003458142280579, 0.6317330002784729, 0.18635396659374237, 0.4211724102497101, 0.3809832036495209, 0.3236261010169983, 0.3675961196422577, 0.1445537805557251, 0.14404496550559998]</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.9818868637084961</v>
+        <v>0.9945344924926758</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0.802945000003092</v>
+        <v>0.788733500012313</v>
       </c>
       <c r="J179" t="n">
-        <v>0.005776582733835195</v>
+        <v>0.005674341726707288</v>
       </c>
     </row>
     <row r="180">
@@ -7725,11 +7725,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[0.5386971235275269, 0.5970221757888794, 0.6032114028930664, 0.6273228526115417, 0.4989645481109619, 0.5047044157981873, 0.3319229781627655, 0.4918479025363922, 0.5718392729759216, 0.4746191203594208, 0.5739087462425232, 0.2919825613498688, 0.6513795256614685, 0.5547744631767273, 0.2232794314622879, 0.26901793479919434, 0.34197133779525757, 0.2902190685272217, 0.24045760929584503, 0.20481199026107788, 0.23525027930736542, 0.4026934504508972, 0.4491714537143707, 0.3205485939979553, 0.1710660606622696, 0.22720298171043396, 0.2606871724128723, 0.18369650840759277, 0.1366092711687088, 0.1974487602710724, 0.1485895961523056, 0.14224618673324585, 0.14006125926971436, 0.18896442651748657, 0.1914401650428772, 0.43411755561828613, 0.4445107579231262, 0.3320106565952301, 0.27996110916137695, 0.2025495320558548, 0.20702271163463593, 0.2286633402109146, 0.19145086407661438, 0.21526522934436798, 0.20385228097438812, 0.21336360275745392, 0.1628296971321106, 0.21106138825416565, 0.12314756214618683, 0.2897477447986603, 0.3209001421928406, 0.5841116309165955, 0.5471965074539185, 0.34357213973999023, 0.25108063220977783, 0.28725436329841614, 0.2919987440109253, 0.401825487613678, 0.24240295588970184, 0.2771579623222351, 0.4392307698726654, 0.498033732175827, 0.6496082544326782, 0.612503170967102, 0.4554254114627838, 0.5388748645782471, 0.41042324900627136, 0.42066019773483276, 0.2529900074005127, 0.3057554364204407, 0.2295019030570984, 0.2694040536880493, 0.23092104494571686, 0.38614651560783386, 0.4727485775947571, 0.4661387503147125, 0.4109066128730774, 0.2934695780277252, 0.21057695150375366, 0.18189063668251038, 0.27665960788726807, 0.24218307435512543, 0.5156921744346619, 0.5644186735153198, 0.34102779626846313, 0.30561473965644836, 0.19957321882247925, 0.07830917090177536, 0.23488537967205048, 0.1610344648361206, 0.14228664338588715, 0.1624068319797516, 0.14416086673736572, 0.1579500436782837, 0.15389606356620789, 0.2345825880765915, 0.25379088521003723, 0.34349721670150757, 0.24149052798748016, 0.3686738610267639, 0.30900824069976807, 0.244554802775383, 0.1347949057817459, 0.22488375008106232, 0.13797461986541748, 0.19053418934345245, 0.24965298175811768, 0.26857635378837585, 0.4149228036403656, 0.493463397026062, 0.5621899962425232, 0.5219828486442566, 0.35892677307128906, 0.41975703835487366, 0.331973135471344, 0.4530894160270691, 0.5179057717323303, 0.3765707314014435, 0.14894747734069824, 0.30589771270751953, 0.25683867931365967, 0.23348650336265564, 0.2529170513153076, 0.4185945391654968, 0.24539384245872498, 0.25973695516586304, 0.1749754697084427, 0.17982284724712372, 0.2873591184616089, 0.2426852136850357, 0.37825801968574524, 0.2650095820426941, 0.22578410804271698, 0.1833076775074005, 0.10860735923051834, 0.07665058970451355, 0.09896686673164368, 0.09286310523748398, 0.09759990125894547, 0.09620199352502823]</t>
+          <t>[0.4247976839542389, 0.48534610867500305, 0.61668461561203, 0.5998620986938477, 0.4594319462776184, 0.5706577897071838, 0.34014034271240234, 0.6080620884895325, 0.5333350300788879, 0.42797747254371643, 0.5646319389343262, 0.18907445669174194, 0.5543487071990967, 0.4488896429538727, 0.10831866413354874, 0.14232516288757324, 0.17478924989700317, 0.22109757363796234, 0.12443305552005768, 0.08430366963148117, 0.20111972093582153, 0.4352406859397888, 0.47481557726860046, 0.3505028784275055, 0.12131507694721222, 0.2627045512199402, 0.25079649686813354, 0.19097700715065002, 0.08116152137517929, 0.09217298030853271, 0.05785103887319565, 0.06446518003940582, 0.08253692090511322, 0.1103784590959549, 0.12903425097465515, 0.41453394293785095, 0.41366252303123474, 0.25505518913269043, 0.2589942514896393, 0.1760084182024002, 0.24228224158287048, 0.15039755403995514, 0.1353549212217331, 0.2030172497034073, 0.1617824286222458, 0.1379302740097046, 0.12075711786746979, 0.15539900958538055, 0.05959548056125641, 0.17091666162014008, 0.2532443702220917, 0.6770254373550415, 0.5566420555114746, 0.3232742249965668, 0.274585098028183, 0.24127519130706787, 0.1999332457780838, 0.3455216586589813, 0.2074299454689026, 0.1588098406791687, 0.3655973970890045, 0.4951452314853668, 0.6029447317123413, 0.5507179498672485, 0.3017062544822693, 0.4489343762397766, 0.3863290250301361, 0.49695321917533875, 0.2935769855976105, 0.3005253076553345, 0.1642029732465744, 0.1687602698802948, 0.12799488008022308, 0.313194215297699, 0.5339564085006714, 0.4493388831615448, 0.3726550340652466, 0.2279249131679535, 0.12004414200782776, 0.07747534662485123, 0.17755256593227386, 0.11770737171173096, 0.4135197401046753, 0.5040174722671509, 0.28027641773223877, 0.2534918487071991, 0.16002224385738373, 0.0405198410153389, 0.2060869336128235, 0.07205978035926819, 0.06247919797897339, 0.10785963386297226, 0.14466425776481628, 0.12587876617908478, 0.06975024938583374, 0.14093603193759918, 0.13574688136577606, 0.19363760948181152, 0.1181282252073288, 0.21658456325531006, 0.18040917813777924, 0.12459871172904968, 0.05691089853644371, 0.22026951611042023, 0.07865620404481888, 0.09580772370100021, 0.1737891435623169, 0.23853816092014313, 0.4244060218334198, 0.6005996465682983, 0.5915234684944153, 0.5454221963882446, 0.373570054769516, 0.30720075964927673, 0.1952674835920334, 0.3070186972618103, 0.3502791225910187, 0.18872372806072235, 0.05469255894422531, 0.18161748349666595, 0.1407012939453125, 0.12952491641044617, 0.1763240247964859, 0.369884729385376, 0.20172666013240814, 0.26477646827697754, 0.15692757070064545, 0.11263436079025269, 0.24574065208435059, 0.1710791289806366, 0.2613493502140045, 0.1857340782880783, 0.26130610704421997, 0.1317613422870636, 0.04988914728164673, 0.03982198238372803, 0.07293318957090378, 0.052927128970623016, 0.06306494772434235, 0.06111663207411766]</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.6513795256614685</v>
+        <v>0.6770254373550415</v>
       </c>
       <c r="F180" t="n">
         <v>1</v>
@@ -7743,10 +7743,10 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0.7993716000055429</v>
+        <v>0.7867223999928683</v>
       </c>
       <c r="J180" t="n">
-        <v>0.005709797142896734</v>
+        <v>0.005619445714234774</v>
       </c>
     </row>
     <row r="181">
@@ -7765,11 +7765,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>[0.10496515780687332, 0.27827486395835876, 0.24187079071998596, 0.47522327303886414, 0.45284849405288696, 0.31371286511421204, 0.4234578609466553, 0.3420950472354889, 0.21328359842300415, 0.35944831371307373, 0.34552082419395447, 0.20226600766181946, 0.27648016810417175, 0.30191245675086975, 0.30368009209632874, 0.490942120552063, 0.7970484495162964, 0.7150851488113403, 0.6342400908470154, 0.6765167117118835, 0.5838205218315125, 0.5151472687721252, 0.6086536049842834, 0.4574868381023407, 0.2785106897354126, 0.20133301615715027, 0.14720523357391357, 0.18824757635593414, 0.1611340045928955, 0.21934939920902252, 0.22097745537757874, 0.44462624192237854, 0.35555264353752136, 0.09279114007949829, 0.2665688395500183, 0.2946920394897461, 0.35295718908309937, 0.21199870109558105, 0.2514096796512604, 0.19918113946914673, 0.13448742032051086, 0.28485798835754395, 0.17996060848236084, 0.4380251467227936, 0.361971378326416, 0.6042839288711548, 0.4784870147705078, 0.5125557780265808, 0.44971346855163574, 0.6298037171363831, 0.2695968747138977, 0.6255492568016052, 0.582946240901947, 0.4429435431957245, 0.5109410285949707, 0.8837827444076538, 0.6977461576461792, 0.6181343793869019, 0.6819111704826355, 0.5284011363983154, 0.6332118511199951, 0.9236910939216614, 0.7724975347518921, 0.6095829606056213, 0.31633368134498596, 0.5528324842453003, 0.6053482890129089, 0.6385538578033447, 0.7084521055221558, 0.5662779211997986, 0.2575524151325226, 0.4617771804332733, 0.6612668633460999, 0.914017915725708, 0.8039355874061584, 0.7755497097969055, 0.7667418122291565, 0.9147270917892456, 0.786273181438446, 0.8042776584625244, 0.8513113260269165, 0.9591017365455627, 0.9548821449279785, 0.9575022459030151, 0.987177848815918, 0.8932039737701416, 0.7408762574195862, 0.952351450920105, 0.9687936902046204, 0.9592407941818237, 0.8555037975311279, 0.85701584815979, 0.6606219410896301, 0.6768825650215149, 0.5239670276641846, 0.7875427603721619, 0.6183133125305176, 0.5993892550468445, 0.3356025218963623, 0.8229977488517761, 0.8802101016044617, 0.8493416905403137, 0.7439110279083252, 0.6778481602668762, 0.667586624622345, 0.9168806672096252, 0.910072922706604, 0.9765447378158569, 0.929385781288147, 0.9421418905258179, 0.9641125202178955, 0.9314256906509399, 0.8179857134819031, 0.7938777208328247, 0.9033198952674866, 0.9527586102485657, 0.9643595814704895, 0.987330973148346, 0.9634664058685303, 0.9732560515403748, 0.9845050573348999, 0.9753933548927307, 0.9381171464920044, 0.968279242515564, 0.9610280394554138, 0.9711782932281494, 0.9506568312644958, 0.8302916884422302, 0.9311222434043884, 0.8933607935905457, 0.8124096989631653, 0.6466635465621948, 0.7534728646278381, 0.6220008134841919, 0.7268756628036499, 0.68328857421875, 0.3395274877548218, 0.253024697303772, 0.25103166699409485]</t>
+          <t>[0.04703032597899437, 0.2720309793949127, 0.15621159970760345, 0.3419564664363861, 0.3702690303325653, 0.2624690532684326, 0.2702699899673462, 0.18257614970207214, 0.15062713623046875, 0.28580692410469055, 0.3377765119075775, 0.12824596464633942, 0.17463961243629456, 0.22260677814483643, 0.19750098884105682, 0.3450052738189697, 0.7967126965522766, 0.7452216744422913, 0.6660677790641785, 0.605789065361023, 0.526605486869812, 0.46206316351890564, 0.6483115553855896, 0.6255921721458435, 0.34911662340164185, 0.14186425507068634, 0.1052408367395401, 0.21017275750637054, 0.08789657801389694, 0.20549167692661285, 0.14439383149147034, 0.2673785984516144, 0.23118837177753448, 0.04045291244983673, 0.1840643286705017, 0.23492372035980225, 0.3053382635116577, 0.11184588819742203, 0.1057216003537178, 0.08799271285533905, 0.055176544934511185, 0.09693442285060883, 0.08582883328199387, 0.27458569407463074, 0.2346305400133133, 0.5196415185928345, 0.5183495283126831, 0.41281476616859436, 0.3874487578868866, 0.5111276507377625, 0.19655826687812805, 0.5980008840560913, 0.6554483771324158, 0.5202691555023193, 0.5140594244003296, 0.9296666383743286, 0.7232615947723389, 0.6673429012298584, 0.8135779500007629, 0.5952532887458801, 0.6412637829780579, 0.9490258097648621, 0.8515522480010986, 0.5890945196151733, 0.19588932394981384, 0.43438488245010376, 0.5368673205375671, 0.6821601390838623, 0.6607673764228821, 0.694632351398468, 0.3118152320384979, 0.5346910953521729, 0.8373379111289978, 0.9542591571807861, 0.8981661796569824, 0.859072208404541, 0.8516538143157959, 0.9645521640777588, 0.8266615271568298, 0.8947516679763794, 0.8802079558372498, 0.9667121767997742, 0.9631734490394592, 0.9568130970001221, 0.9872485995292664, 0.9248887896537781, 0.8285874724388123, 0.9640995264053345, 0.9797199368476868, 0.9775452613830566, 0.9596357345581055, 0.9452699422836304, 0.8559879064559937, 0.8655529618263245, 0.7375797033309937, 0.9229477047920227, 0.741885244846344, 0.6862590909004211, 0.37947148084640503, 0.937299370765686, 0.9508273005485535, 0.9467853307723999, 0.8898566961288452, 0.8880068063735962, 0.8770462274551392, 0.9647711515426636, 0.9492005109786987, 0.9763175249099731, 0.9249025583267212, 0.9414696097373962, 0.9666920900344849, 0.9617866277694702, 0.9145758152008057, 0.89865642786026, 0.9581619501113892, 0.9741804003715515, 0.976608157157898, 0.9910731911659241, 0.9868698716163635, 0.9908073544502258, 0.9896360039710999, 0.9862218499183655, 0.9693393111228943, 0.9797331094741821, 0.9739030599594116, 0.9807420969009399, 0.9682788252830505, 0.8217534422874451, 0.9446113705635071, 0.9462690353393555, 0.9022430181503296, 0.6586931347846985, 0.7830212712287903, 0.696505606174469, 0.8317572474479675, 0.7367602586746216, 0.3111873269081116, 0.2683524191379547, 0.2710444927215576]</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.9873309731483459</v>
+        <v>0.9910731911659241</v>
       </c>
       <c r="F181" t="n">
         <v>1</v>
@@ -7783,10 +7783,10 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>0.7685201000131201</v>
+        <v>0.7772289999993518</v>
       </c>
       <c r="J181" t="n">
-        <v>0.005528921582828202</v>
+        <v>0.005591575539563682</v>
       </c>
     </row>
     <row r="182">
@@ -7805,11 +7805,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>[0.1971724033355713, 0.15440557897090912, 0.095967598259449, 0.1431361734867096, 0.07967845350503922, 0.21405315399169922, 0.4533292055130005, 0.16099534928798676, 0.14727231860160828, 0.11904177069664001, 0.14367103576660156, 0.12111760675907135, 0.09129824489355087, 0.05886565521359444, 0.055622734129428864, 0.08751308917999268, 0.08926583081483841, 0.1108817458152771, 0.11026474833488464, 0.080813929438591, 0.09352318197488785, 0.08189325034618378, 0.06001049280166626, 0.0468406155705452, 0.04580511152744293, 0.044972024857997894, 0.05621740594506264, 0.02640032209455967, 0.02504896931350231, 0.04853818938136101, 0.1070585623383522, 0.0966791957616806, 0.13678225874900818, 0.19728223979473114, 0.21116222441196442, 0.17260593175888062, 0.15424340963363647, 0.13288025557994843, 0.16240929067134857, 0.20163552463054657, 0.4352415204048157, 0.26341381669044495, 0.2618706226348877, 0.07620791345834732, 0.050424471497535706, 0.03623896837234497, 0.036388788372278214, 0.06125501170754433, 0.059386976063251495, 0.04717870056629181, 0.10629192739725113, 0.0455988273024559, 0.05297139286994934, 0.05113751068711281, 0.061487652361392975, 0.040943920612335205, 0.024687709286808968, 0.02913518063724041, 0.027146179229021072, 0.020167121663689613, 0.021197060123085976, 0.023359106853604317, 0.02240443415939808, 0.08060292899608612, 0.10600940883159637, 0.14039190113544464, 0.1592574268579483, 0.08795513957738876, 0.0547315776348114, 0.045480821281671524, 0.05604938790202141, 0.07634400576353073, 0.05551574006676674, 0.06496938318014145, 0.0562998503446579, 0.05508605018258095, 0.04738455265760422, 0.07173866778612137, 0.050559550523757935, 0.04953160136938095, 0.03443929925560951, 0.03613962605595589, 0.02852191962301731, 0.04382999986410141, 0.03504910692572594, 0.04957984387874603, 0.024278875440359116, 0.03441409021615982, 0.03234955668449402, 0.04203571751713753, 0.030495554208755493, 0.03137023746967316, 0.023978138342499733, 0.03298718109726906, 0.02910117246210575, 0.04169624671339989, 0.07008514553308487, 0.055302154272794724, 0.04600706323981285, 0.15616323053836823, 0.06069324165582657, 0.04944669082760811, 0.05186782404780388, 0.051763374358415604, 0.04346553608775139, 0.06825795024633408, 0.05899890884757042, 0.04757566377520561, 0.0287761352956295, 0.03456699103116989, 0.04572677239775658, 0.055558957159519196, 0.05841609463095665, 0.06862068176269531, 0.060998886823654175, 0.05191024765372276, 0.03412848711013794, 0.03937895968556404, 0.03163405507802963, 0.019465869292616844, 0.014514255337417126, 0.020172322168946266, 0.01941465586423874, 0.032290514558553696, 0.025513581931591034, 0.04311563819646835, 0.046317655593156815, 0.0334724523127079, 0.043934814631938934, 0.054597724229097366, 0.07848707586526871, 0.05381966382265091, 0.03452659025788307, 0.08312194049358368, 0.07033930718898773, 0.04931356757879257, 0.05409523472189903, 0.044080935418605804, 0.045238543301820755]</t>
+          <t>[0.16795389354228973, 0.2130214422941208, 0.06475162506103516, 0.16636668145656586, 0.04711556062102318, 0.17003843188285828, 0.3189862370491028, 0.09663236886262894, 0.06326614320278168, 0.04503096640110016, 0.0725066289305687, 0.0785607397556305, 0.061385925859212875, 0.021922169253230095, 0.020149705931544304, 0.030154578387737274, 0.02956058643758297, 0.03902945667505264, 0.06313320994377136, 0.028175145387649536, 0.04464362561702728, 0.03765983507037163, 0.02503383159637451, 0.02464335970580578, 0.02706032618880272, 0.02592509426176548, 0.03181972727179527, 0.011446836404502392, 0.015261071734130383, 0.0311119481921196, 0.08946755528450012, 0.08581258356571198, 0.09012360125780106, 0.21052491664886475, 0.183878555893898, 0.11651472747325897, 0.09072044491767883, 0.0874781608581543, 0.12726162374019623, 0.10004884749650955, 0.2057339996099472, 0.12050511687994003, 0.19910989701747894, 0.0522259846329689, 0.025660013779997826, 0.019364554435014725, 0.02570417709648609, 0.06417017430067062, 0.05410351604223251, 0.022551346570253372, 0.04925200343132019, 0.019071826711297035, 0.026145409792661667, 0.03289136290550232, 0.03458346426486969, 0.033093515783548355, 0.017927274107933044, 0.017288878560066223, 0.014714054763317108, 0.01152063813060522, 0.010497413575649261, 0.018837643787264824, 0.01810498908162117, 0.0796084925532341, 0.11788981407880783, 0.1814039945602417, 0.1883714199066162, 0.0796862244606018, 0.05278721824288368, 0.05739496275782585, 0.08839476853609085, 0.06998247653245926, 0.04094570130109787, 0.04507189616560936, 0.03278243914246559, 0.02631540596485138, 0.030864281579852104, 0.04364762082695961, 0.02579534612596035, 0.02315950021147728, 0.01227024756371975, 0.022080091759562492, 0.012775205075740814, 0.022464999929070473, 0.01728474721312523, 0.028904451057314873, 0.010524258948862553, 0.014186843298375607, 0.01992100290954113, 0.02232182025909424, 0.01733909174799919, 0.027490681037306786, 0.020571818575263023, 0.027951030060648918, 0.018928173929452896, 0.04310842603445053, 0.05118304863572121, 0.02638177201151848, 0.020061733201146126, 0.0958409383893013, 0.022899478673934937, 0.018797028809785843, 0.01681685447692871, 0.018729474395513535, 0.015607606619596481, 0.020903531461954117, 0.013315428048372269, 0.011227831244468689, 0.006840119604021311, 0.006979366764426231, 0.012160326354205608, 0.022991180419921875, 0.019242724403738976, 0.03005625493824482, 0.014040835201740265, 0.015311113558709621, 0.009721536189317703, 0.01823803037405014, 0.01517934538424015, 0.013142559677362442, 0.008881624788045883, 0.008092517033219337, 0.012814059853553772, 0.018945880234241486, 0.013456356711685658, 0.02279253490269184, 0.01566212624311447, 0.011497539468109608, 0.015464410185813904, 0.02088763564825058, 0.023715225979685783, 0.016036348417401314, 0.010072982870042324, 0.03640196844935417, 0.050608180463314056, 0.03845178335905075, 0.028815362602472305, 0.01739404909312725, 0.01792788691818714]</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.4533292055130005</v>
+        <v>0.3189862370491028</v>
       </c>
       <c r="F182" t="n">
         <v>1</v>
@@ -7823,10 +7823,10 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>0.7712248000025284</v>
+        <v>0.7884407999954419</v>
       </c>
       <c r="J182" t="n">
-        <v>0.005548379856133298</v>
+        <v>0.005672235971190229</v>
       </c>
     </row>
     <row r="183">
@@ -7845,11 +7845,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[0.9972714781761169, 0.998325526714325, 0.9963920712471008, 0.9988065958023071, 0.9988351464271545, 0.9972436428070068, 0.9965818524360657, 0.9973861575126648, 0.9962891340255737, 0.9951776266098022, 0.9968846440315247, 0.9924765229225159, 0.9719998836517334, 0.9818177819252014, 0.9934826493263245, 0.9940126538276672, 0.9949970245361328, 0.9970307350158691, 0.9922418594360352, 0.9965041875839233, 0.9980792999267578, 0.9968525767326355, 0.9977830052375793, 0.9979519248008728, 0.9983035326004028, 0.9986326098442078, 0.9957636594772339, 0.9975026249885559, 0.9886158108711243, 0.9906428456306458, 0.9940240979194641, 0.9950563907623291, 0.9940366744995117, 0.9972344040870667, 0.9963237047195435, 0.9973458647727966, 0.9945874214172363, 0.9979525804519653, 0.9989120960235596, 0.9973748922348022, 0.9958950281143188, 0.9981012940406799, 0.9985916018486023, 0.998171329498291, 0.998715877532959, 0.9981058835983276, 0.9985082745552063, 0.9979798197746277, 0.9964800477027893, 0.9972612857818604, 0.9962628483772278, 0.996874213218689, 0.9970338344573975, 0.996717631816864, 0.9954296350479126, 0.9950789213180542, 0.9926798343658447, 0.9960011839866638, 0.9916989803314209, 0.9963691234588623, 0.9944420456886292, 0.9976065158843994, 0.9960744380950928, 0.9976202845573425, 0.9927131533622742, 0.9961212277412415, 0.9971778392791748, 0.9979530572891235, 0.9956669807434082, 0.9968197345733643, 0.9958826303482056, 0.9963579773902893, 0.9964836835861206, 0.9945819973945618, 0.9948204755783081, 0.9973102807998657, 0.9962642788887024, 0.9965044260025024, 0.9970947504043579, 0.9960430860519409, 0.9966339468955994, 0.9982134103775024, 0.9979565143585205, 0.9988881945610046, 0.9983084201812744, 0.9968986511230469, 0.9802897572517395, 0.986510694026947, 0.9414182305335999, 0.980786144733429, 0.9878051280975342, 0.9963220357894897, 0.9968854784965515, 0.9973548650741577, 0.9903908967971802, 0.9924336671829224, 0.9939504861831665, 0.9910649657249451, 0.9907007217407227, 0.9952115416526794, 0.995934247970581, 0.9982512593269348, 0.9948635697364807, 0.9946593642234802, 0.9904391765594482, 0.994751513004303, 0.9981312155723572, 0.9954654574394226, 0.9907686114311218, 0.9964444041252136, 0.9978444576263428, 0.9978474378585815, 0.9982927441596985, 0.9973399043083191, 0.9929793477058411, 0.9969872832298279, 0.9977431297302246, 0.9983362555503845, 0.998499870300293, 0.9974583983421326, 0.9963954091072083, 0.9977591037750244, 0.9971326589584351, 0.9960319399833679, 0.9973800778388977, 0.9982240796089172, 0.9960605502128601, 0.9981839060783386, 0.995557963848114, 0.9981934428215027, 0.9962813258171082, 0.9938331842422485, 0.9959836006164551, 0.9971791505813599, 0.9968520998954773, 0.9977387189865112, 0.995084822177887, 0.9977141618728638, 0.9971068501472473, 0.9972437620162964]</t>
+          <t>[0.9986421465873718, 0.9988388419151306, 0.9981409311294556, 0.9991986155509949, 0.9993695616722107, 0.9988387227058411, 0.9984267950057983, 0.9991413354873657, 0.9987359642982483, 0.9974963068962097, 0.9983336329460144, 0.9959736466407776, 0.9903632998466492, 0.9895380735397339, 0.9929861426353455, 0.9948613047599792, 0.9974262118339539, 0.997718870639801, 0.995845377445221, 0.9980727434158325, 0.9989449381828308, 0.9988180994987488, 0.9991600513458252, 0.9992092251777649, 0.9992358684539795, 0.9994341731071472, 0.9983188509941101, 0.9992699027061462, 0.9955624341964722, 0.9948133230209351, 0.9968456625938416, 0.9966673254966736, 0.9963384866714478, 0.9979686141014099, 0.9960929751396179, 0.99753737449646, 0.9971504807472229, 0.9984664916992188, 0.9992930889129639, 0.9981282353401184, 0.9977178573608398, 0.9991926550865173, 0.9992945194244385, 0.9991163611412048, 0.9992908239364624, 0.9988566637039185, 0.9990481734275818, 0.9988871216773987, 0.9980387091636658, 0.9985271692276001, 0.9975720047950745, 0.9981683492660522, 0.9982163310050964, 0.9976515173912048, 0.9976842403411865, 0.9978212118148804, 0.9958305954933167, 0.9985055923461914, 0.9973042011260986, 0.9988382458686829, 0.9982927441596985, 0.9991695880889893, 0.9982191920280457, 0.9988114833831787, 0.9965065121650696, 0.997755229473114, 0.9982195496559143, 0.9984210729598999, 0.9976513981819153, 0.9984022974967957, 0.9979185461997986, 0.9981085062026978, 0.9983957409858704, 0.9969895482063293, 0.9965872764587402, 0.9981538653373718, 0.9972827434539795, 0.9974095225334167, 0.9979561567306519, 0.9977977275848389, 0.9978700876235962, 0.9991410970687866, 0.9992107152938843, 0.9995026588439941, 0.9991176724433899, 0.9980315566062927, 0.988396167755127, 0.9949883222579956, 0.9787510633468628, 0.9888558983802795, 0.9956079125404358, 0.9979999661445618, 0.9983441829681396, 0.9990012049674988, 0.9959887862205505, 0.9958946704864502, 0.9958078861236572, 0.9939416646957397, 0.9928459525108337, 0.9962911605834961, 0.9972009658813477, 0.9991740584373474, 0.9977613687515259, 0.9977535605430603, 0.9959648847579956, 0.9975582361221313, 0.9991889595985413, 0.998045802116394, 0.9946674108505249, 0.9977053999900818, 0.9985263347625732, 0.99873286485672, 0.9991198182106018, 0.9985553622245789, 0.9960252046585083, 0.9980624318122864, 0.9984386563301086, 0.9989042282104492, 0.999086856842041, 0.9978923201560974, 0.9967279434204102, 0.9986099004745483, 0.9988974332809448, 0.997470498085022, 0.9978979825973511, 0.9986656904220581, 0.9980186223983765, 0.9990378618240356, 0.9977721571922302, 0.9985775947570801, 0.9975317716598511, 0.9950063228607178, 0.9974886178970337, 0.998547375202179, 0.9988133907318115, 0.9985779523849487, 0.9974013566970825, 0.9986953139305115, 0.9981803894042969, 0.9982965588569641]</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.9989120960235596</v>
+        <v>0.9995026588439941</v>
       </c>
       <c r="F183" t="n">
         <v>1</v>
@@ -7863,10 +7863,10 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>0.7814454000035767</v>
+        <v>0.7882812000025297</v>
       </c>
       <c r="J183" t="n">
-        <v>0.005581752857168405</v>
+        <v>0.005630580000018069</v>
       </c>
     </row>
     <row r="184">
@@ -7885,11 +7885,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>[0.9549751877784729, 0.6049861907958984, 0.3318943977355957, 0.2229316085577011, 0.12704266607761383, 0.1087261512875557, 0.14007289707660675, 0.168701633810997, 0.11298613250255585, 0.24660304188728333, 0.33400508761405945, 0.2776340842247009, 0.4154154360294342, 0.45194318890571594, 0.27683892846107483, 0.15998438000679016, 0.162131667137146, 0.17949828505516052, 0.3148094117641449, 0.6191825866699219, 0.12917202711105347, 0.09198393672704697, 0.09272826462984085, 0.12995806336402893, 0.1655319631099701, 0.39766833186149597, 0.4418969750404358, 0.5833062529563904, 0.12448397278785706, 0.21407732367515564, 0.7589405179023743, 0.7664175033569336, 0.5177622437477112, 0.34161755442619324, 0.3386777341365814, 0.5718370079994202, 0.7634698152542114, 0.6775349974632263, 0.5719917416572571, 0.17998012900352478, 0.2049315720796585, 0.09091279655694962, 0.08268770575523376, 0.07757313549518585, 0.12419267743825912, 0.20477831363677979, 0.10031066089868546, 0.10797404497861862, 0.15810753405094147, 0.2114168256521225, 0.09025014191865921, 0.07245319336652756, 0.06697326898574829, 0.10509143769741058, 0.0565306656062603, 0.0500330813229084, 0.07396288216114044, 0.05628417432308197, 0.06034169718623161, 0.08319121599197388, 0.0843757838010788, 0.14203070104122162, 0.22056974470615387, 0.16149193048477173, 0.2709594964981079, 0.28562113642692566, 0.4772087335586548, 0.5707280039787292, 0.43752187490463257, 0.38670122623443604, 0.5261386632919312, 0.9337465167045593, 0.8586050271987915, 0.9172433018684387, 0.7904830574989319, 0.7513818740844727, 0.95955890417099, 0.8496267795562744, 0.5822165608406067, 0.4391930103302002, 0.5221289396286011, 0.26168015599250793, 0.18541494011878967, 0.2212381511926651, 0.10349112004041672, 0.19212281703948975, 0.1373715102672577, 0.1733836680650711, 0.21904943883419037, 0.4515807032585144, 0.40809619426727295, 0.6481990218162537, 0.39712563157081604, 0.2669139802455902, 0.21591420471668243, 0.3521006107330322, 0.31304359436035156, 0.3604384958744049, 0.7300487160682678, 0.7638429403305054, 0.5471457242965698, 0.32647690176963806, 0.8037214279174805, 0.8030860424041748, 0.7910103797912598, 0.9666093587875366, 0.976803183555603, 0.997634768486023, 0.9963728189468384, 0.994979202747345, 0.9917904138565063, 0.8609750270843506, 0.9017928838729858, 0.8650676012039185, 0.555820107460022, 0.923660397529602, 0.9605128169059753, 0.9685000777244568, 0.9489002227783203, 0.6813405752182007, 0.8398997783660889, 0.9582513570785522, 0.3897566795349121, 0.36551374197006226, 0.3763645887374878, 0.24169234931468964, 0.2628632187843323, 0.41315126419067383, 0.19288623332977295, 0.16621433198451996, 0.23444609344005585, 0.19847144186496735, 0.1885373443365097, 0.2036600112915039, 0.23041126132011414, 0.32069358229637146, 0.1992839276790619, 0.5144486427307129, 0.5538555979728699, 0.5576377511024475]</t>
+          <t>[0.9855319857597351, 0.8365457653999329, 0.4837360978126526, 0.3459986448287964, 0.11058753728866577, 0.1095380187034607, 0.16886475682258606, 0.16707274317741394, 0.1010778397321701, 0.361471563577652, 0.5596703886985779, 0.2740169167518616, 0.38660526275634766, 0.5631542205810547, 0.30364513397216797, 0.1254540979862213, 0.17068573832511902, 0.215289905667305, 0.30247583985328674, 0.8581122159957886, 0.14448906481266022, 0.13759690523147583, 0.07681100815534592, 0.22510774433612823, 0.245976522564888, 0.6379928588867188, 0.6819542050361633, 0.8130294680595398, 0.1054866835474968, 0.41076603531837463, 0.938802182674408, 0.9332623481750488, 0.7154273986816406, 0.5829805731773376, 0.7268458604812622, 0.8733651638031006, 0.9618679285049438, 0.9266063570976257, 0.8648581504821777, 0.2169656604528427, 0.3255626857280731, 0.08401161432266235, 0.07516288757324219, 0.053252194076776505, 0.13394299149513245, 0.2985987663269043, 0.15629494190216064, 0.14520351588726044, 0.5332248210906982, 0.5853075385093689, 0.11018236726522446, 0.07250690460205078, 0.049738653004169464, 0.05438560992479324, 0.038315169513225555, 0.03400598093867302, 0.06006179749965668, 0.0345473438501358, 0.038707319647073746, 0.057520542293787, 0.0992361530661583, 0.3259509801864624, 0.7118978500366211, 0.34812411665916443, 0.434876024723053, 0.3621867895126343, 0.7177375555038452, 0.7719322443008423, 0.5984852313995361, 0.6348723769187927, 0.7466345429420471, 0.9800713658332825, 0.940941572189331, 0.9763869643211365, 0.9246933460235596, 0.929785966873169, 0.9864425659179688, 0.9631766676902771, 0.9106909036636353, 0.8210414052009583, 0.8167031407356262, 0.5000238418579102, 0.4250889718532562, 0.4900723099708557, 0.2392832636833191, 0.4538712501525879, 0.22787357866764069, 0.34741348028182983, 0.37137362360954285, 0.7161014080047607, 0.7397119998931885, 0.9061416387557983, 0.7057012915611267, 0.45249974727630615, 0.3211298882961273, 0.6527665853500366, 0.6817590594291687, 0.7005447745323181, 0.9296970367431641, 0.9722387194633484, 0.941145122051239, 0.7414098978042603, 0.9480631947517395, 0.9225231409072876, 0.9225580096244812, 0.9863409399986267, 0.9915137887001038, 0.9984428286552429, 0.9976953864097595, 0.9965332746505737, 0.9921795129776001, 0.8827958703041077, 0.9107173085212708, 0.8852899074554443, 0.636416494846344, 0.9490910768508911, 0.977429986000061, 0.9797942042350769, 0.9654412269592285, 0.8161411285400391, 0.8907614350318909, 0.9804076552391052, 0.5761948227882385, 0.40679121017456055, 0.4333663284778595, 0.23355230689048767, 0.3183269202709198, 0.5399667024612427, 0.24584916234016418, 0.1743345409631729, 0.2661338150501251, 0.2998346984386444, 0.2353750765323639, 0.22457846999168396, 0.29570090770721436, 0.42735597491264343, 0.32765355706214905, 0.6650508046150208, 0.8439362049102783, 0.8450412750244141]</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.9976347684860229</v>
+        <v>0.9984428286552429</v>
       </c>
       <c r="F184" t="n">
         <v>1</v>
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0.7769239000044763</v>
+        <v>0.7831604999955744</v>
       </c>
       <c r="J184" t="n">
-        <v>0.005549456428603402</v>
+        <v>0.005594003571396959</v>
       </c>
     </row>
     <row r="185">
@@ -7925,11 +7925,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>[0.031422995030879974, 0.05718636140227318, 0.06032006815075874, 0.07585537433624268, 0.04208986088633537, 0.05014444887638092, 0.04541056603193283, 0.04157222807407379, 0.039789292961359024, 0.07373423874378204, 0.04459241032600403, 0.03444289043545723, 0.03523816168308258, 0.042916830629110336, 0.05684005841612816, 0.09758594632148743, 0.10995081812143326, 0.05355872958898544, 0.03956886753439903, 0.040366899222135544, 0.07132121175527573, 0.12869544327259064, 0.08472424745559692, 0.06346391141414642, 0.0623454749584198, 0.11251125484704971, 0.08345922082662582, 0.11556150764226913, 0.3634687066078186, 0.2976275384426117, 0.5768032670021057, 0.5051702260971069, 0.16606399416923523, 0.3945004343986511, 0.2284144163131714, 0.19115838408470154, 0.09080585092306137, 0.06302345544099808, 0.026606649160385132, 0.031380314379930496, 0.024162517860531807, 0.023988503962755203, 0.01634715124964714, 0.016512790694832802, 0.017666179686784744, 0.014752707444131374, 0.01159529760479927, 0.015600861050188541, 0.02313234657049179, 0.03246521204710007, 0.04593111202120781, 0.04907294735312462, 0.030877651646733284, 0.029688429087400436, 0.02848326787352562, 0.037395212799310684, 0.025677766650915146, 0.03294358029961586, 0.03268281742930412, 0.026200000196695328, 0.01747138798236847, 0.017761480063199997, 0.020468702539801598, 0.033808670938014984, 0.031200282275676727, 0.02972801774740219, 0.037753552198410034, 0.041743647307157516, 0.039131831377744675, 0.042515430599451065, 0.04437753185629845, 0.04603154584765434, 0.037540800869464874, 0.03880113363265991, 0.031412575393915176, 0.028868291527032852, 0.020618584007024765, 0.021350273862481117, 0.020417876541614532, 0.022864555940032005, 0.014674979262053967, 0.016272757202386856, 0.018635530024766922, 0.018627818673849106, 0.016883591189980507, 0.029513217508792877, 0.03799941763281822, 0.052031729370355606, 0.03725762292742729, 0.04726391285657883, 0.053274232894182205, 0.07817990332841873, 0.04447954148054123, 0.0407225601375103, 0.02656123973429203, 0.0346534363925457, 0.03384679928421974, 0.04675687849521637, 0.03269084915518761, 0.03405287116765976, 0.037310998886823654, 0.04326145350933075, 0.039634380489587784, 0.045737579464912415, 0.04029477387666702, 0.04598154127597809, 0.03581351414322853, 0.052945755422115326, 0.0662354975938797, 0.07851435989141464, 0.056382447481155396, 0.09336084872484207, 0.07012299448251724, 0.10983920097351074, 0.11798212677240372, 0.20340517163276672, 0.0757221132516861, 0.11033206433057785, 0.13060684502124786, 0.12452714890241623, 0.07802563160657883, 0.10007914155721664, 0.05981796979904175, 0.05762171745300293, 0.04075021296739578, 0.04707302525639534, 0.0499386265873909, 0.06227393448352814, 0.04942992702126503, 0.06642497330904007, 0.051020801067352295, 0.0709235668182373, 0.05477138236165047, 0.056037139147520065, 0.05009821057319641, 0.07828447967767715, 0.051108501851558685, 0.04680263251066208, 0.06750692427158356, 0.06767971068620682]</t>
+          <t>[0.013215177692472935, 0.03045092150568962, 0.028868500143289566, 0.052288565784692764, 0.020701222121715546, 0.028000498190522194, 0.027492418885231018, 0.028721321374177933, 0.025792919099330902, 0.05337435007095337, 0.026406142860651016, 0.021547138690948486, 0.018772071227431297, 0.033627402037382126, 0.04828914254903793, 0.1032286062836647, 0.10500121861696243, 0.040144335478544235, 0.036809492856264114, 0.037373024970293045, 0.06112831085920334, 0.1658921092748642, 0.06331426650285721, 0.04969100281596184, 0.04937795177102089, 0.11870253831148148, 0.07756407558917999, 0.10441630333662033, 0.47643011808395386, 0.31144896149635315, 0.6120454668998718, 0.35461047291755676, 0.20388759672641754, 0.4810173511505127, 0.32069993019104004, 0.232476606965065, 0.10094304382801056, 0.059612248092889786, 0.019129782915115356, 0.02025550976395607, 0.015428636223077774, 0.01509585790336132, 0.010451731272041798, 0.010499855503439903, 0.00950460322201252, 0.00801224447786808, 0.006500906310975552, 0.01046689786016941, 0.013997978530824184, 0.01949988678097725, 0.02726944163441658, 0.045362140983343124, 0.018587011843919754, 0.021001772955060005, 0.02169899269938469, 0.029962647706270218, 0.01232030801475048, 0.019031278789043427, 0.01728975400328636, 0.013261883519589901, 0.006692030001431704, 0.008126230910420418, 0.010419892147183418, 0.01735076680779457, 0.015149910002946854, 0.013969799503684044, 0.016478387638926506, 0.026873109862208366, 0.024327684193849564, 0.029509393498301506, 0.03592152148485184, 0.0372270904481411, 0.02982310764491558, 0.04114307835698128, 0.028729284182190895, 0.0219642985612154, 0.008585505187511444, 0.011494748294353485, 0.009572921320796013, 0.011896342970430851, 0.006140216253697872, 0.006400939077138901, 0.007448588032275438, 0.00825685728341341, 0.0077051641419529915, 0.018234949558973312, 0.02043181285262108, 0.031683117151260376, 0.016082104295492172, 0.02891368605196476, 0.03875523433089256, 0.06740249693393707, 0.02651274763047695, 0.026590142399072647, 0.013284178450703621, 0.018678193911910057, 0.014921327121555805, 0.02454313635826111, 0.01531562115997076, 0.014614557847380638, 0.015944642946124077, 0.021902771666646004, 0.019582118839025497, 0.020352212712168694, 0.016847962513566017, 0.02318919077515602, 0.016057496890425682, 0.029320325702428818, 0.04938386753201485, 0.04265811666846275, 0.028805023059248924, 0.04099535197019577, 0.03792788088321686, 0.07544660568237305, 0.08562803268432617, 0.20433932542800903, 0.028903566300868988, 0.06874992698431015, 0.09121976047754288, 0.07698895037174225, 0.06369323283433914, 0.08580967783927917, 0.036522239446640015, 0.03245047852396965, 0.026449063792824745, 0.029049811884760857, 0.03154068440198898, 0.039594102650880814, 0.027552686631679535, 0.04355119541287422, 0.03032641112804413, 0.05094900727272034, 0.03520246967673302, 0.0524599552154541, 0.038853906095027924, 0.05218931660056114, 0.03756003826856613, 0.030267594382166862, 0.04690644145011902, 0.047028422355651855]</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.5768032670021057</v>
+        <v>0.6120454668998718</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
@@ -7943,10 +7943,10 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0.7790291999990586</v>
+        <v>0.7817199999990407</v>
       </c>
       <c r="J185" t="n">
-        <v>0.005564494285707561</v>
+        <v>0.005583714285707433</v>
       </c>
     </row>
     <row r="186">
@@ -7965,11 +7965,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>[0.04602384194731712, 0.06219127029180527, 0.06582863628864288, 0.09047307819128036, 0.04547499492764473, 0.1021629199385643, 0.09126383066177368, 0.09823020547628403, 0.07715996354818344, 0.09022559970617294, 0.117024265229702, 0.1563522070646286, 0.10887859016656876, 0.13608968257904053, 0.08068416267633438, 0.18880511820316315, 0.13656698167324066, 0.10017215460538864, 0.17310264706611633, 0.24995870888233185, 0.3436814546585083, 0.33915260434150696, 0.1925632357597351, 0.2749815285205841, 0.12489882111549377, 0.1694578230381012, 0.39520323276519775, 0.3103901445865631, 0.22955410182476044, 0.16078214347362518, 0.06290382146835327, 0.13200099766254425, 0.0634131133556366, 0.09002560377120972, 0.0660734474658966, 0.052435919642448425, 0.08896465599536896, 0.13683773577213287, 0.1724436730146408, 0.2684582769870758, 0.19302721321582794, 0.15091463923454285, 0.2960216701030731, 0.20658792555332184, 0.1787641942501068, 0.20505593717098236, 0.16949322819709778, 0.180757075548172, 0.18404719233512878, 0.09952087700366974, 0.1716548502445221, 0.2413211613893509, 0.14609631896018982, 0.24548311531543732, 0.1514006108045578, 0.2681712210178375, 0.13628758490085602, 0.2038283348083496, 0.14485453069210052, 0.21378715336322784, 0.1727539449930191, 0.16731290519237518, 0.16397754848003387, 0.09815886616706848, 0.07555139064788818, 0.07832692563533783, 0.10684459656476974, 0.11783303320407867, 0.062112849205732346, 0.3368038833141327, 0.40091556310653687, 0.34731483459472656, 0.17737814784049988, 0.4116227626800537, 0.4405272901058197, 0.5844200253486633, 0.26478269696235657, 0.32981130480766296, 0.09132271260023117, 0.2695319950580597, 0.11455034464597702, 0.0958845242857933, 0.10077133029699326, 0.0484711229801178, 0.043845225125551224, 0.04286719113588333, 0.06185074895620346, 0.06081710383296013, 0.028133943676948547, 0.02934485301375389, 0.053207624703645706, 0.06669452786445618, 0.09388528764247894, 0.07513454556465149, 0.11547384411096573, 0.16516683995723724, 0.177398219704628, 0.22494302690029144, 0.20446135103702545, 0.1252603977918625, 0.07392411679029465, 0.11669982224702835, 0.10856441408395767, 0.2002773880958557, 0.21665938198566437, 0.8597151637077332, 0.8140079379081726, 0.2850777804851532, 0.12015002965927124, 0.0824018344283104, 0.05931214243173599, 0.06346721202135086, 0.06061976030468941, 0.06785791367292404, 0.047836657613515854, 0.02868593856692314, 0.01850615069270134, 0.024281620979309082, 0.03414225950837135, 0.0332084484398365, 0.03435956686735153, 0.03865251690149307, 0.04504606872797012, 0.07246391475200653, 0.059200529009103775, 0.11380153894424438, 0.15060485899448395, 0.1389378011226654, 0.15587468445301056, 0.13157705962657928, 0.11179659515619278, 0.1428712159395218, 0.10196297615766525, 0.10130743682384491, 0.17444992065429688, 0.46497294306755066, 0.2253890484571457, 0.2557401657104492, 0.2599013149738312]</t>
+          <t>[0.026106253266334534, 0.03834729641675949, 0.039803825318813324, 0.06501694768667221, 0.041121646761894226, 0.08129788190126419, 0.06175973266363144, 0.060536619275808334, 0.051039163023233414, 0.0655994787812233, 0.1415601372718811, 0.21717284619808197, 0.13034938275814056, 0.20068961381912231, 0.09942962229251862, 0.2815535068511963, 0.15662455558776855, 0.06046368181705475, 0.09584542363882065, 0.1968117207288742, 0.3976728916168213, 0.539090633392334, 0.1988205462694168, 0.24826884269714355, 0.17292241752147675, 0.24059739708900452, 0.5357329249382019, 0.43351131677627563, 0.17640084028244019, 0.1279495805501938, 0.04195545241236687, 0.21475785970687866, 0.03565794974565506, 0.07751385867595673, 0.039047203958034515, 0.03507675230503082, 0.046139031648635864, 0.12522625923156738, 0.2394288182258606, 0.4963417947292328, 0.22562658786773682, 0.14309874176979065, 0.325124055147171, 0.2990266680717468, 0.18633173406124115, 0.3165602385997772, 0.23403558135032654, 0.21403905749320984, 0.3110128343105316, 0.12886731326580048, 0.24778109788894653, 0.4390678107738495, 0.21103540062904358, 0.22679975628852844, 0.12360620498657227, 0.2377563714981079, 0.07211203128099442, 0.10459902882575989, 0.06136004626750946, 0.09633436053991318, 0.07648831605911255, 0.08959972858428955, 0.06458072364330292, 0.0323944166302681, 0.021607069298624992, 0.031133802607655525, 0.051441460847854614, 0.08559659123420715, 0.02349007874727249, 0.2224847376346588, 0.36071574687957764, 0.3179861605167389, 0.11832820624113083, 0.3246517777442932, 0.47327756881713867, 0.6446093320846558, 0.17421716451644897, 0.3203181028366089, 0.08583111315965652, 0.2512994408607483, 0.07783185690641403, 0.11243515461683273, 0.10066845268011093, 0.020159795880317688, 0.029153455048799515, 0.027360238134860992, 0.060276031494140625, 0.04791361838579178, 0.019766831770539284, 0.024382296949625015, 0.05258859694004059, 0.056397877633571625, 0.10301364958286285, 0.054651569575071335, 0.0698259174823761, 0.06098830699920654, 0.0678144097328186, 0.16003023087978363, 0.15831208229064941, 0.0825003907084465, 0.045067816972732544, 0.12869533896446228, 0.11296195536851883, 0.17219135165214539, 0.19462834298610687, 0.8945363163948059, 0.8905289173126221, 0.32213374972343445, 0.09329336136579514, 0.0631403774023056, 0.03790461644530296, 0.04011108726263046, 0.02873675338923931, 0.031751714646816254, 0.016578666865825653, 0.01029236987233162, 0.005734670907258987, 0.008794109337031841, 0.014227000065147877, 0.011730585247278214, 0.013722378760576248, 0.02060185745358467, 0.02336183190345764, 0.08065566420555115, 0.03409680351614952, 0.09018435329198837, 0.11921590566635132, 0.09796234965324402, 0.08469707518815994, 0.07772687077522278, 0.08129370212554932, 0.20754189789295197, 0.11038533598184586, 0.10276423394680023, 0.16908487677574158, 0.4276232421398163, 0.1485183835029602, 0.19770190119743347, 0.20569893717765808]</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.8597151637077332</v>
+        <v>0.8945363163948059</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
@@ -7983,10 +7983,10 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0.7799256000143941</v>
+        <v>0.7841439000039827</v>
       </c>
       <c r="J186" t="n">
-        <v>0.005610975539671901</v>
+        <v>0.005641323021611386</v>
       </c>
     </row>
     <row r="187">
@@ -8005,11 +8005,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>[0.3481289744377136, 0.41850030422210693, 0.28717291355133057, 0.40186426043510437, 0.1892818659543991, 0.15015482902526855, 0.13464196026325226, 0.13029912114143372, 0.15395931899547577, 0.28071266412734985, 0.6813977956771851, 0.5716251134872437, 0.12538231909275055, 0.17373472452163696, 0.10343935340642929, 0.18907763063907623, 0.14657960832118988, 0.12140601873397827, 0.08398086577653885, 0.08194475620985031, 0.061071231961250305, 0.15071700513362885, 0.14251461625099182, 0.11148852109909058, 0.0835498720407486, 0.18490692973136902, 0.09789136052131653, 0.06175746023654938, 0.056886885315179825, 0.0907137393951416, 0.08751600980758667, 0.11858303844928741, 0.06765564531087875, 0.09783729910850525, 0.12374113500118256, 0.26505884528160095, 0.08850321918725967, 0.17438776791095734, 0.1739663928747177, 0.25615862011909485, 0.23522134125232697, 0.31116166710853577, 0.25942909717559814, 0.32297301292419434, 0.2818484604358673, 0.2670411169528961, 0.19769269227981567, 0.1143874078989029, 0.13716325163841248, 0.20990486443042755, 0.2994005084037781, 0.2305694818496704, 0.22246719896793365, 0.1364687979221344, 0.2623348832130432, 0.29707664251327515, 0.13913732767105103, 0.17068494856357574, 0.14141049981117249, 0.09007243812084198, 0.10159271955490112, 0.13747665286064148, 0.09394440799951553, 0.1448136419057846, 0.06069702282547951, 0.07233371585607529, 0.04049837589263916, 0.04288884624838829, 0.044001080095767975, 0.09903991967439651, 0.19847680628299713, 0.07902820408344269, 0.11847120523452759, 0.27112406492233276, 0.28554806113243103, 0.3502494692802429, 0.3434709310531616, 0.5030617713928223, 0.4981220066547394, 0.5758644342422485, 0.3253558874130249, 0.3865719735622406, 0.33246922492980957, 0.22156676650047302, 0.15427955985069275, 0.16148537397384644, 0.27727001905441284, 0.30612683296203613, 0.2053021788597107, 0.2748866677284241, 0.25969746708869934, 0.2238084226846695, 0.2014269381761551, 0.355363667011261, 0.1776963472366333, 0.22501935064792633, 0.23076660931110382, 0.6424108743667603, 0.2458929419517517, 0.3458952009677887, 0.21888917684555054, 0.23887917399406433, 0.10784010589122772, 0.14622943103313446, 0.13854366540908813, 0.1362421065568924, 0.16213302314281464, 0.1489487886428833, 0.14033736288547516, 0.0862443745136261, 0.12001203000545502, 0.15366734564304352, 0.07909348607063293, 0.07321913540363312, 0.07025329768657684, 0.06813711673021317, 0.09888550639152527, 0.07374794036149979, 0.10240159183740616, 0.1776619404554367, 0.2427496314048767, 0.3379592299461365, 0.30461132526397705, 0.36884233355522156, 0.276653915643692, 0.40976637601852417, 0.2387033998966217, 0.3059879541397095, 0.1596006453037262, 0.10720425099134445, 0.20938493311405182, 0.19634422659873962, 0.31738483905792236, 0.28982317447662354, 0.23389728367328644, 0.24314677715301514, 0.27103549242019653, 0.0498339906334877, 0.04958382248878479]</t>
+          <t>[0.3431887924671173, 0.4485204219818115, 0.25642549991607666, 0.4484386444091797, 0.15703102946281433, 0.1144254058599472, 0.11587923765182495, 0.11362981051206589, 0.13262277841567993, 0.3705672323703766, 0.6978183388710022, 0.5264021754264832, 0.09807468950748444, 0.25575798749923706, 0.12953661382198334, 0.23618684709072113, 0.12053427845239639, 0.09762726724147797, 0.0628436878323555, 0.05107690021395683, 0.03096395544707775, 0.08170018345117569, 0.08675725013017654, 0.045293789356946945, 0.030284954234957695, 0.09653876721858978, 0.04214641451835632, 0.02078273519873619, 0.018729738891124725, 0.04315080866217613, 0.04059736430644989, 0.07386630773544312, 0.020330270752310753, 0.059797801077365875, 0.11906877160072327, 0.3832162618637085, 0.09135723859071732, 0.1681232452392578, 0.14429032802581787, 0.26954275369644165, 0.2963259518146515, 0.26151779294013977, 0.19285808503627777, 0.2425765097141266, 0.2427026331424713, 0.26214826107025146, 0.20269934833049774, 0.07267150282859802, 0.08147021383047104, 0.15364442765712738, 0.2849758267402649, 0.20947381854057312, 0.3414398431777954, 0.151108980178833, 0.3670822083950043, 0.32364022731781006, 0.1059296578168869, 0.21384280920028687, 0.2654702961444855, 0.0977177768945694, 0.1634836345911026, 0.1753944456577301, 0.07954885810613632, 0.09701083600521088, 0.042431727051734924, 0.04513927921652794, 0.017326900735497475, 0.018502773717045784, 0.025221936404705048, 0.09188846498727798, 0.2523074150085449, 0.068060502409935, 0.1035097986459732, 0.36558544635772705, 0.44751253724098206, 0.42971765995025635, 0.4684045910835266, 0.6007876992225647, 0.6721271276473999, 0.645824670791626, 0.3285267949104309, 0.38703176379203796, 0.34587618708610535, 0.2221570461988449, 0.14515182375907898, 0.22007524967193604, 0.4427641034126282, 0.5158401131629944, 0.40620940923690796, 0.4865695536136627, 0.44899195432662964, 0.3689630627632141, 0.35400107502937317, 0.6867306232452393, 0.32466915249824524, 0.264587938785553, 0.269130676984787, 0.7932147979736328, 0.2637794613838196, 0.4216324985027313, 0.2213316410779953, 0.29709798097610474, 0.10420451313257217, 0.1923459768295288, 0.14622089266777039, 0.192245751619339, 0.23720043897628784, 0.16864228248596191, 0.09044220298528671, 0.05209057405591011, 0.12587013840675354, 0.1892414093017578, 0.055888593196868896, 0.042760610580444336, 0.04559606686234474, 0.03564583510160446, 0.07348909229040146, 0.04002150148153305, 0.06733427941799164, 0.29719117283821106, 0.37362411618232727, 0.46472832560539246, 0.5035880208015442, 0.45166143774986267, 0.47284752130508423, 0.5205352306365967, 0.3038642406463623, 0.4230993390083313, 0.2084663212299347, 0.08888030052185059, 0.1820206195116043, 0.16634097695350647, 0.2997989356517792, 0.2250133454799652, 0.17055067420005798, 0.20855951309204102, 0.22887955605983734, 0.021631568670272827, 0.021306846290826797]</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.6813977956771851</v>
+        <v>0.7932147979736328</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
@@ -8023,10 +8023,10 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0.7848103000142146</v>
+        <v>0.7886834999953862</v>
       </c>
       <c r="J187" t="n">
-        <v>0.005646117266289313</v>
+        <v>0.005673982014355297</v>
       </c>
     </row>
     <row r="188">
@@ -8045,11 +8045,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>[0.02978862263262272, 0.04275060072541237, 0.09336884319782257, 0.07237312197685242, 0.048336826264858246, 0.10102754086256027, 0.09570080786943436, 0.07268588244915009, 0.02207977883517742, 0.02096502296626568, 0.015318590216338634, 0.020259181037545204, 0.03269195556640625, 0.022138481959700584, 0.04826100170612335, 0.07161463052034378, 0.07995659112930298, 0.08394772559404373, 0.054624538868665695, 0.049968279898166656, 0.09987697750329971, 0.04582182690501213, 0.08062756061553955, 0.06569579243659973, 0.06398975104093552, 0.1857328861951828, 0.13182546198368073, 0.15207308530807495, 0.059001315385103226, 0.044816210865974426, 0.08526703715324402, 0.08585789799690247, 0.052810538560152054, 0.08586538583040237, 0.09922067821025848, 0.09709499031305313, 0.06743201613426208, 0.06474420428276062, 0.08057399094104767, 0.0474531315267086, 0.05052576959133148, 0.04728027060627937, 0.03163887560367584, 0.04080474376678467, 0.04862538352608681, 0.03973891958594322, 0.04221738502383232, 0.042404547333717346, 0.024348359555006027, 0.049246691167354584, 0.04969095066189766, 0.029106268659234047, 0.03463684394955635, 0.024085959419608116, 0.05544885993003845, 0.07256758213043213, 0.0699080377817154, 0.052751004695892334, 0.03588011488318443, 0.06918133050203323, 0.09766232222318649, 0.10820908099412918, 0.09630785137414932, 0.04033127799630165, 0.03569093719124794, 0.04628700017929077, 0.08455954492092133, 0.09108361601829529, 0.051199521869421005, 0.026251424103975296, 0.029909098520874977, 0.03928668424487114, 0.0516057088971138, 0.05494622513651848, 0.034880198538303375, 0.040577586740255356, 0.05574776232242584, 0.061935633420944214, 0.04924416542053223, 0.05211078003048897, 0.11740534752607346, 0.39823827147483826, 0.12870465219020844, 0.0697060078382492, 0.08093619346618652, 0.08008286356925964, 0.17303583025932312, 0.12103258073329926, 0.06956908851861954, 0.06492789089679718, 0.13411827385425568, 0.15119394659996033, 0.03402378037571907, 0.042242225259542465, 0.07956736534833908, 0.06749755144119263, 0.05121554061770439, 0.05943619832396507, 0.05971498042345047, 0.07168125361204147, 0.06554840505123138, 0.04011211171746254, 0.035613659769296646, 0.04460032656788826, 0.05269359052181244, 0.05869458243250847, 0.049319423735141754, 0.04820069670677185, 0.032218001782894135, 0.05869804695248604, 0.04746785759925842, 0.09464055299758911, 0.06356711685657501, 0.11162988841533661, 0.08343995362520218, 0.03164958208799362, 0.029520370066165924, 0.03042973019182682, 0.02598189003765583, 0.029585691168904305, 0.029704753309488297, 0.05282559245824814, 0.05313379690051079, 0.08139847218990326, 0.05106951668858528, 0.0366581492125988, 0.023219062015414238, 0.041073840111494064, 0.06382900476455688, 0.04835782200098038, 0.04754940792918205, 0.07181154191493988, 0.046863168478012085, 0.07137718051671982, 0.05266011878848076, 0.06895524263381958, 0.07125186920166016, 0.0893554762005806, 0.06482036411762238, 0.06257856637239456]</t>
+          <t>[0.012840396724641323, 0.01922806166112423, 0.0488910898566246, 0.04615442827343941, 0.02447812259197235, 0.04543641209602356, 0.053270358592271805, 0.02155119925737381, 0.006757677998393774, 0.006294887047261, 0.004706189502030611, 0.0070015667006373405, 0.010197573341429234, 0.007110381964594126, 0.018403606489300728, 0.02960239164531231, 0.039106834679841995, 0.037642061710357666, 0.03331291675567627, 0.016624076291918755, 0.03944617137312889, 0.017174284905195236, 0.05673738569021225, 0.045147042721509933, 0.03547206148505211, 0.1810176819562912, 0.14148692786693573, 0.16660787165164948, 0.04222823306918144, 0.033777449280023575, 0.050421092659235, 0.05192356929183006, 0.032668035477399826, 0.05489995703101158, 0.08126454055309296, 0.0605931282043457, 0.046845607459545135, 0.03621281683444977, 0.06745946407318115, 0.03700225427746773, 0.026946835219860077, 0.02694823034107685, 0.015543824061751366, 0.024286868050694466, 0.04037661477923393, 0.030731704086065292, 0.02102619782090187, 0.02799098752439022, 0.01644517481327057, 0.04587506875395775, 0.03079971671104431, 0.011334190145134926, 0.012689635157585144, 0.01055400911718607, 0.032442767173051834, 0.03317614644765854, 0.033380456268787384, 0.02641073614358902, 0.020081110298633575, 0.03819353133440018, 0.038798462599515915, 0.04419899359345436, 0.04524944722652435, 0.020002217963337898, 0.016555259004235268, 0.02237633988261223, 0.04366515576839447, 0.0444871187210083, 0.028893066570162773, 0.010736939497292042, 0.012157502584159374, 0.01733207330107689, 0.028698071837425232, 0.030467426404356956, 0.01611124724149704, 0.018228549510240555, 0.024680225178599358, 0.0460423082113266, 0.03040849231183529, 0.029843878000974655, 0.0704008936882019, 0.430685430765152, 0.13106441497802734, 0.05416552349925041, 0.05089786276221275, 0.03728034347295761, 0.09408321976661682, 0.08272525668144226, 0.046676088124513626, 0.038898441940546036, 0.10589174926280975, 0.14217597246170044, 0.016356339678168297, 0.017984265461564064, 0.03021026775240898, 0.028880657628178596, 0.0164739228785038, 0.01770467683672905, 0.019038312137126923, 0.031080620363354683, 0.02507779374718666, 0.011338829062879086, 0.00889902375638485, 0.01091779489070177, 0.013337855227291584, 0.01572447083890438, 0.01433046255260706, 0.012354938313364983, 0.010070249438285828, 0.015173365361988544, 0.013634713366627693, 0.035479094833135605, 0.022340940311551094, 0.04247578606009483, 0.0319782979786396, 0.010232429951429367, 0.011219179257750511, 0.011984501965343952, 0.008656219579279423, 0.012305717915296555, 0.010531858541071415, 0.017834758386015892, 0.016279255971312523, 0.025058379396796227, 0.017187008634209633, 0.01224604994058609, 0.007751864846795797, 0.01336024608463049, 0.02023446559906006, 0.017505185678601265, 0.01852753572165966, 0.025375179946422577, 0.015299182385206223, 0.0209574606269598, 0.01418029610067606, 0.017576783895492554, 0.01684470847249031, 0.024616753682494164, 0.018700817599892616, 0.017927736043930054]</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.3982382714748383</v>
+        <v>0.430685430765152</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
@@ -8063,10 +8063,10 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0.8115856999938842</v>
+        <v>0.786403899997822</v>
       </c>
       <c r="J188" t="n">
-        <v>0.00579704071424203</v>
+        <v>0.005617170714270157</v>
       </c>
     </row>
     <row r="189">
@@ -8085,11 +8085,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>[0.07477860152721405, 0.20581859350204468, 0.1307736337184906, 0.1412852555513382, 0.2505992650985718, 0.16051721572875977, 0.1397904008626938, 0.14858192205429077, 0.06131860613822937, 0.043764956295490265, 0.04818855598568916, 0.039320532232522964, 0.05639462172985077, 0.029291504994034767, 0.02836291864514351, 0.055425014346838, 0.07120996713638306, 0.04949844628572464, 0.09323444962501526, 0.05635891109704971, 0.03930096700787544, 0.04448016732931137, 0.043123576790094376, 0.02897305227816105, 0.03142722323536873, 0.017260950058698654, 0.023050587624311447, 0.017707593739032745, 0.021191591396927834, 0.03812890872359276, 0.05498723313212395, 0.036731570959091187, 0.02748206816613674, 0.05020054057240486, 0.10293566435575485, 0.07917997986078262, 0.046283237636089325, 0.030535154044628143, 0.03882969915866852, 0.038929376751184464, 0.0495036281645298, 0.04028622806072235, 0.11990579217672348, 0.07468115538358688, 0.16225330531597137, 0.12117211520671844, 0.10683728754520416, 0.12841325998306274, 0.047133710235357285, 0.09854988753795624, 0.18052460253238678, 0.19530577957630157, 0.3240148425102234, 0.08085747808218002, 0.09515144675970078, 0.09854613989591599, 0.09500368684530258, 0.2701842188835144, 0.21840718388557434, 0.15654918551445007, 0.22433677315711975, 0.3387279808521271, 0.24538131058216095, 0.3422910273075104, 0.15980298817157745, 0.15998420119285583, 0.15742290019989014, 0.1273505538702011, 0.0826801136136055, 0.07719234377145767, 0.17457397282123566, 0.10268864035606384, 0.06468704342842102, 0.05455227196216583, 0.07381441444158554, 0.057191554456949234, 0.06082138791680336, 0.09503881633281708, 0.09753947705030441, 0.07340056449174881, 0.13043846189975739, 0.13931934535503387, 0.11868859827518463, 0.15319760143756866, 0.11264306306838989, 0.08534165471792221, 0.10065511614084244, 0.13686653971672058, 0.2377564162015915, 0.21382693946361542, 0.18621863424777985, 0.1285063922405243, 0.09894127398729324, 0.06841114163398743, 0.09023100137710571, 0.1035572811961174, 0.06506812572479248, 0.08825299143791199, 0.051198381930589676, 0.11345069855451584, 0.47301167249679565, 0.18313981592655182, 0.08733567595481873, 0.08673461526632309, 0.08581624925136566, 0.1493968367576599, 0.1960594356060028, 0.10337688773870468, 0.1724894493818283, 0.15650804340839386, 0.10163206607103348, 0.11689189821481705, 0.1011965200304985, 0.10418035089969635, 0.14218783378601074, 0.1366090029478073, 0.1506674587726593, 0.15396231412887573, 0.1474262773990631, 0.18613989651203156, 0.22353066504001617, 0.23139849305152893, 0.2566986680030823, 0.18796558678150177, 0.09393876045942307, 0.06655436009168625, 0.09193471074104309, 0.11176105588674545, 0.159519225358963, 0.20072172582149506, 0.14285077154636383, 0.1652073711156845, 0.30788135528564453, 0.3613232672214508, 0.33154013752937317, 0.19434762001037598, 0.1992749273777008, 0.20812612771987915, 0.09626396000385284, 0.098662368953228]</t>
+          <t>[0.031806960701942444, 0.17429345846176147, 0.11461525410413742, 0.14055068790912628, 0.17126227915287018, 0.130295529961586, 0.13844411075115204, 0.12678653001785278, 0.038188815116882324, 0.018513238057494164, 0.016948018223047256, 0.013886073604226112, 0.029064586386084557, 0.01618349365890026, 0.010058843530714512, 0.02281981334090233, 0.0249661672860384, 0.025650642812252045, 0.03215791657567024, 0.017807332798838615, 0.014044796116650105, 0.01760251820087433, 0.016950583085417747, 0.01264625322073698, 0.010327166877686977, 0.005113079212605953, 0.006947242189198732, 0.005912721622735262, 0.0065221223048865795, 0.013367468491196632, 0.015811949968338013, 0.009852349758148193, 0.007745092734694481, 0.02054026909172535, 0.06255555897951126, 0.04150354117155075, 0.01776423491537571, 0.013650977984070778, 0.017670849338173866, 0.01756248064339161, 0.021194402128458023, 0.01902048848569393, 0.07212072610855103, 0.029438765719532967, 0.09303518384695053, 0.0792410746216774, 0.08550122380256653, 0.1373354196548462, 0.04269225150346756, 0.12038359045982361, 0.2900836765766144, 0.21031782031059265, 0.3736598491668701, 0.09850789606571198, 0.0455998033285141, 0.039508819580078125, 0.04144924134016037, 0.17671826481819153, 0.14104102551937103, 0.12394770234823227, 0.1921454668045044, 0.23818440735340118, 0.18337537348270416, 0.394803911447525, 0.12204986065626144, 0.08653335273265839, 0.12920185923576355, 0.09741716086864471, 0.05769921839237213, 0.03799240663647652, 0.13589823246002197, 0.05373849347233772, 0.02686651237308979, 0.017487267032265663, 0.021514220163226128, 0.012038798071444035, 0.016639241948723793, 0.039790451526641846, 0.02638668566942215, 0.02783419005572796, 0.040734075009822845, 0.08922712504863739, 0.049407709389925, 0.05250999704003334, 0.05650749430060387, 0.03970393165946007, 0.0607750341296196, 0.06638551503419876, 0.10174769163131714, 0.15083126723766327, 0.2044348120689392, 0.09712492674589157, 0.06479266285896301, 0.02528359182178974, 0.030638378113508224, 0.02823728695511818, 0.016958165913820267, 0.017757028341293335, 0.00822304468601942, 0.03814954683184624, 0.3211042284965515, 0.0840335339307785, 0.03612963855266571, 0.03365316987037659, 0.02799198590219021, 0.05019330978393555, 0.08286108076572418, 0.03903654217720032, 0.11443410068750381, 0.09205312281847, 0.08012381941080093, 0.08013829588890076, 0.033575963228940964, 0.02578439749777317, 0.04685892537236214, 0.058232713490724564, 0.06887149810791016, 0.0730590745806694, 0.05232200026512146, 0.086503766477108, 0.1148441955447197, 0.12071803212165833, 0.2428692728281021, 0.07774831354618073, 0.0319528728723526, 0.013557002879679203, 0.024538390338420868, 0.03199451044201851, 0.04264720156788826, 0.09726469963788986, 0.051017455756664276, 0.04905901104211807, 0.08248565346002579, 0.13991355895996094, 0.14897912740707397, 0.06675474345684052, 0.058174777776002884, 0.07154551893472672, 0.018060272559523582, 0.01855459436774254]</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.4730116724967957</v>
+        <v>0.394803911447525</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
@@ -8103,10 +8103,10 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0.7744631000095978</v>
+        <v>0.7819283999997424</v>
       </c>
       <c r="J189" t="n">
-        <v>0.005531879285782842</v>
+        <v>0.005585202857141017</v>
       </c>
     </row>
     <row r="190">
@@ -8125,11 +8125,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[0.14950917661190033, 0.22690576314926147, 0.41526341438293457, 0.6119102239608765, 0.2165580540895462, 0.5007646083831787, 0.5460513830184937, 0.21878080070018768, 0.11498475819826126, 0.30178314447402954, 0.21627908945083618, 0.13627609610557556, 0.12396898120641708, 0.18908831477165222, 0.11144229024648666, 0.20511263608932495, 0.3214455842971802, 0.13822099566459656, 0.09964559972286224, 0.13988809287548065, 0.2450251430273056, 0.7357987761497498, 0.45818212628364563, 0.2829801142215729, 0.5347480177879333, 0.628320038318634, 0.43571239709854126, 0.5531386137008667, 0.3939230442047119, 0.25425881147384644, 0.17133639752864838, 0.3394870162010193, 0.31847432255744934, 0.29086920619010925, 0.3251402974128723, 0.28586697578430176, 0.4632112979888916, 0.2177322506904602, 0.23613134026527405, 0.619427502155304, 0.2049265205860138, 0.0845847874879837, 0.1085403636097908, 0.13026373088359833, 0.11864453554153442, 0.13091403245925903, 0.12924766540527344, 0.1068674623966217, 0.14984282851219177, 0.22636836767196655, 0.14006993174552917, 0.1677645742893219, 0.10760664194822311, 0.1720171719789505, 0.09889902174472809, 0.19485169649124146, 0.09484317898750305, 0.2112659513950348, 0.24449202418327332, 0.29774197936058044, 0.4201771020889282, 0.7477288842201233, 0.9332850575447083, 0.7321034669876099, 0.2795020639896393, 0.23251567780971527, 0.35443323850631714, 0.5606380105018616, 0.40278157591819763, 0.2698557674884796, 0.3283165395259857, 0.22632934153079987, 0.22100913524627686, 0.24501456320285797, 0.30717048048973083, 0.4109266698360443, 0.19414377212524414, 0.2771387994289398, 0.19558316469192505, 0.2216598242521286, 0.1150016337633133, 0.13435247540473938, 0.21426893770694733, 0.20891225337982178, 0.1340802013874054, 0.2960655987262726, 0.20190460979938507, 0.2802062928676605, 0.08117947727441788, 0.12740293145179749, 0.09719055145978928, 0.12116247415542603, 0.19275304675102234, 0.1613457053899765, 0.12808939814567566, 0.18358418345451355, 0.23821638524532318, 0.360419362783432, 0.2478465437889099, 0.6761532425880432, 0.8093187808990479, 0.8134589791297913]</t>
+          <t>[0.08301249146461487, 0.10106871277093887, 0.17633092403411865, 0.20191620290279388, 0.08231804519891739, 0.1921522319316864, 0.3861004412174225, 0.1179901733994484, 0.06838556379079819, 0.11335165053606033, 0.12237881869077682, 0.06738262623548508, 0.06731969863176346, 0.09121554344892502, 0.07089079171419144, 0.17710652947425842, 0.2369217723608017, 0.12436886876821518, 0.05706692114472389, 0.06363730132579803, 0.21537548303604126, 0.7386758923530579, 0.23517994582653046, 0.1821403205394745, 0.34566012024879456, 0.5007040500640869, 0.2610855996608734, 0.441023051738739, 0.31938913464546204, 0.14145995676517487, 0.06619464606046677, 0.20411986112594604, 0.24037912487983704, 0.13949766755104065, 0.18121318519115448, 0.12474820762872696, 0.28720393776893616, 0.12002593278884888, 0.1382790505886078, 0.37066519260406494, 0.12886856496334076, 0.030928917229175568, 0.034635815769433975, 0.03348651900887489, 0.06679627299308777, 0.03704893961548805, 0.050768543034791946, 0.028162537142634392, 0.040424421429634094, 0.07183948159217834, 0.05504688248038292, 0.06633490324020386, 0.05098947510123253, 0.04251202568411827, 0.0215054452419281, 0.0717492401599884, 0.0407528430223465, 0.0970623642206192, 0.10912936180830002, 0.1317230612039566, 0.2374521940946579, 0.6819444298744202, 0.8541474938392639, 0.5215370059013367, 0.24260826408863068, 0.16556142270565033, 0.17887653410434723, 0.29328638315200806, 0.20483118295669556, 0.1339084655046463, 0.16538989543914795, 0.10567031800746918, 0.0781104639172554, 0.09235156327486038, 0.12234468013048172, 0.19119717180728912, 0.1280272901058197, 0.19257943332195282, 0.11761269718408585, 0.13519906997680664, 0.05577947571873665, 0.03961418196558952, 0.08139566332101822, 0.08132513612508774, 0.05471812188625336, 0.0910782590508461, 0.04528949037194252, 0.09108899533748627, 0.04940594360232353, 0.031034350395202637, 0.03530126065015793, 0.03830893710255623, 0.052149850875139236, 0.0584174282848835, 0.06474567949771881, 0.07980764657258987, 0.10184244066476822, 0.1895165741443634, 0.1235952228307724, 0.5990040898323059, 0.7102450132369995, 0.7172882556915283]</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.9332850575447083</v>
+        <v>0.8541474938392639</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0.5855271000182256</v>
+        <v>0.6109056999994209</v>
       </c>
       <c r="J190" t="n">
-        <v>0.005740461764884565</v>
+        <v>0.005989271568621774</v>
       </c>
     </row>
     <row r="191">
@@ -8165,11 +8165,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>[0.7992851734161377, 0.6142087578773499, 0.706226646900177, 0.7826608419418335, 0.5825438499450684, 0.7645356059074402, 0.7798468470573425, 0.7338647842407227, 0.46084651350975037, 0.7482765316963196, 0.7459081411361694, 0.7744709849357605, 0.6779423952102661, 0.5999286770820618, 0.6861454844474792, 0.7523961663246155, 0.4327826201915741, 0.7781770825386047, 0.6176671385765076, 0.679801344871521, 0.47099408507347107, 0.583240270614624, 0.5077846050262451, 0.7524114847183228, 0.304646372795105, 0.5187206864356995, 0.35850948095321655, 0.4448184669017792, 0.28605374693870544, 0.29934003949165344, 0.36153221130371094, 0.678074061870575, 0.4570065140724182, 0.6909447312355042, 0.8486805558204651, 0.7388380765914917, 0.6397308707237244, 0.67902672290802, 0.4110763370990753, 0.6793174147605896, 0.6089898943901062, 0.5118576884269714, 0.5885715484619141, 0.5202245116233826, 0.6615557670593262, 0.7755768299102783, 0.5034039616584778, 0.6079944372177124, 0.5047160387039185, 0.7592085599899292, 0.37962213158607483, 0.49781566858291626, 0.38756459951400757, 0.6404709815979004, 0.5135379433631897, 0.5772475004196167, 0.5034131407737732, 0.5111414194107056, 0.5215078592300415, 0.5037019848823547, 0.6050500869750977, 0.7384981513023376, 0.5832473635673523, 0.7111214995384216, 0.4501197934150696, 0.34450650215148926, 0.44636449217796326, 0.7278263568878174, 0.4911375045776367, 0.5085365176200867, 0.3328056037425995, 0.49871712923049927, 0.47509652376174927, 0.6677492260932922, 0.6388387084007263, 0.626721203327179, 0.4495605230331421, 0.7567048072814941, 0.5862014293670654, 0.8232967257499695, 0.4136304557323456, 0.5685731172561646, 0.22373080253601074, 0.24159376323223114, 0.31550830602645874, 0.27759161591529846, 0.3486095070838928, 0.4661155343055725, 0.5205802917480469, 0.518437922000885, 0.4780116677284241, 0.5878469347953796, 0.4817136824131012, 0.6976563930511475, 0.5766335725784302, 0.5489721894264221, 0.3770807683467865, 0.48033607006073, 0.5646777153015137, 0.2441840022802353, 0.4757516086101532, 0.4714488685131073]</t>
+          <t>[0.8221240043640137, 0.6086739301681519, 0.6809852719306946, 0.7021199464797974, 0.5345285534858704, 0.7811397910118103, 0.8080101013183594, 0.7683864235877991, 0.465093731880188, 0.8228925466537476, 0.754612386226654, 0.8215032815933228, 0.708767294883728, 0.6583102941513062, 0.7262216806411743, 0.8092017769813538, 0.4223857820034027, 0.7866376638412476, 0.7146874666213989, 0.7531576156616211, 0.5271353125572205, 0.606796145439148, 0.5300328731536865, 0.7706019282341003, 0.2938525080680847, 0.606388509273529, 0.3901895582675934, 0.4117022156715393, 0.2990299165248871, 0.256494402885437, 0.3513946533203125, 0.6896145343780518, 0.5326433777809143, 0.68253493309021, 0.8817972540855408, 0.6813756823539734, 0.5970010161399841, 0.7566184401512146, 0.5184811353683472, 0.6880978345870972, 0.6282019019126892, 0.5634117126464844, 0.6729689836502075, 0.6210811734199524, 0.7456621527671814, 0.8357855081558228, 0.6900249719619751, 0.6653366088867188, 0.5771281123161316, 0.841044008731842, 0.4279620945453644, 0.599109947681427, 0.41992297768592834, 0.6516934037208557, 0.543466329574585, 0.650031566619873, 0.615943193435669, 0.5661119818687439, 0.5676008462905884, 0.6318711042404175, 0.7123307585716248, 0.8365138173103333, 0.6786144971847534, 0.7711960077285767, 0.3867001533508301, 0.256942480802536, 0.3526560366153717, 0.7520312070846558, 0.5446294546127319, 0.50938880443573, 0.30140820145606995, 0.4946542978286743, 0.4061603844165802, 0.621512234210968, 0.5115275382995605, 0.47907546162605286, 0.2800755798816681, 0.6034648418426514, 0.5522969961166382, 0.8633111715316772, 0.46109864115715027, 0.6049159169197083, 0.3185235559940338, 0.3333735167980194, 0.42185142636299133, 0.34941351413726807, 0.3688010573387146, 0.5763823986053467, 0.5813416838645935, 0.6622697114944458, 0.6213881373405457, 0.6738279461860657, 0.48667293787002563, 0.8158881068229675, 0.6670510172843933, 0.622833788394928, 0.45342695713043213, 0.4018441438674927, 0.5747934579849243, 0.3059084415435791, 0.5384783744812012, 0.5362867116928101]</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.8486805558204651</v>
+        <v>0.8817972540855408</v>
       </c>
       <c r="F191" t="n">
         <v>1</v>
@@ -8183,10 +8183,10 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0.5843749000050593</v>
+        <v>0.5815892000100575</v>
       </c>
       <c r="J191" t="n">
-        <v>0.005729165686324111</v>
+        <v>0.005701854902059387</v>
       </c>
     </row>
     <row r="192">
@@ -8205,11 +8205,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>[0.5311431288719177, 0.45053571462631226, 0.43206149339675903, 0.4130241274833679, 0.44585728645324707, 0.2999027967453003, 0.19623345136642456, 0.19217678904533386, 0.10737361758947372, 0.32592126727104187, 0.17868410050868988, 0.4447077810764313, 0.7049380540847778, 0.41965562105178833, 0.3725173771381378, 0.4013989269733429, 0.3336356580257416, 0.5111223459243774, 0.23285362124443054, 0.32017645239830017, 0.5199758410453796, 0.315193772315979, 0.30427172780036926, 0.6353992223739624, 0.48337772488594055, 0.516558051109314, 0.39056169986724854, 0.363104909658432, 0.4125160872936249, 0.4136641323566437, 0.32748064398765564, 0.2903858423233032, 0.3300400674343109, 0.26498669385910034, 0.38644376397132874, 0.32344213128089905, 0.24399830400943756, 0.43418434262275696, 0.28971120715141296, 0.1815568208694458, 0.1630823165178299, 0.19996826350688934, 0.2513931691646576, 0.3201720714569092, 0.2578355371952057, 0.2253950983285904, 0.2536133825778961, 0.272379606962204, 0.3874416947364807, 0.5774196982383728, 0.2388102412223816, 0.16578230261802673, 0.16850470006465912, 0.46917033195495605, 0.2535249888896942, 0.42171958088874817, 0.308325856924057, 0.30733522772789, 0.20956508815288544, 0.22888924181461334, 0.30312132835388184, 0.6928809285163879, 0.1710038036108017, 0.33321481943130493, 0.18251316249370575, 0.23179730772972107, 0.12137450277805328, 0.17082922160625458, 0.19260352849960327, 0.47013428807258606, 0.4219890534877777, 0.21927019953727722, 0.3172585368156433, 0.24111317098140717, 0.16838239133358002, 0.09642914682626724, 0.19997824728488922, 0.12830130755901337, 0.18052470684051514, 0.12954439222812653, 0.3190048336982727, 0.2912667393684387, 0.35904157161712646, 0.3535254895687103, 0.2164364755153656, 0.24271443486213684, 0.3100435435771942, 0.2644316256046295, 0.1828462779521942, 0.16366705298423767, 0.2558279037475586, 0.22245334088802338, 0.15280726552009583, 0.09684852510690689, 0.1864321082830429, 0.09292476624250412, 0.18392305076122284, 0.1890726238489151, 0.22182215750217438, 0.12526282668113708, 0.2907026708126068, 0.34331241250038147, 0.3436462879180908]</t>
+          <t>[0.6694225668907166, 0.5291779637336731, 0.5361167192459106, 0.4753844439983368, 0.43283340334892273, 0.2730274498462677, 0.13156861066818237, 0.1352367103099823, 0.09499172866344452, 0.4116935729980469, 0.26914530992507935, 0.553609311580658, 0.823697030544281, 0.5210652947425842, 0.4504983723163605, 0.4746720790863037, 0.3920134902000427, 0.6281676888465881, 0.17958754301071167, 0.27151477336883545, 0.6211069822311401, 0.43074485659599304, 0.3986283540725708, 0.6724267601966858, 0.653148889541626, 0.5996095538139343, 0.6146481037139893, 0.4344383478164673, 0.4858172535896301, 0.45482274889945984, 0.41881802678108215, 0.31646281480789185, 0.3274359107017517, 0.3502969443798065, 0.3845294415950775, 0.3738800585269928, 0.32846203446388245, 0.4656943380832672, 0.25723996758461, 0.15406987071037292, 0.11112198233604431, 0.22033964097499847, 0.32232922315597534, 0.43741512298583984, 0.2653636336326599, 0.22733929753303528, 0.2917543351650238, 0.292787104845047, 0.6504234075546265, 0.6833043694496155, 0.2921488881111145, 0.15599147975444794, 0.1808640956878662, 0.6807447671890259, 0.21376359462738037, 0.5738959312438965, 0.4523066580295563, 0.3653109669685364, 0.20965518057346344, 0.17392846941947937, 0.30836325883865356, 0.845298707485199, 0.22590816020965576, 0.41323909163475037, 0.18636921048164368, 0.25239163637161255, 0.13321080803871155, 0.18093761801719666, 0.2633017897605896, 0.6453902125358582, 0.5532288551330566, 0.24048452079296112, 0.422206312417984, 0.43439748883247375, 0.2622532248497009, 0.1545245498418808, 0.4287894368171692, 0.13063949346542358, 0.21873626112937927, 0.1515243947505951, 0.5658932328224182, 0.4988739490509033, 0.7052033543586731, 0.5421716570854187, 0.3219751715660095, 0.24916139245033264, 0.4510100185871124, 0.32275503873825073, 0.22855600714683533, 0.14584602415561676, 0.39553433656692505, 0.26394879817962646, 0.2048431634902954, 0.10159043967723846, 0.26085567474365234, 0.07119204849004745, 0.2365136742591858, 0.2193811535835266, 0.3492153286933899, 0.1595691591501236, 0.49177682399749756, 0.44623833894729614, 0.4429566264152527]</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.7049380540847778</v>
+        <v>0.845298707485199</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
@@ -8223,10 +8223,10 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0.5839353000046685</v>
+        <v>0.6031551000050968</v>
       </c>
       <c r="J192" t="n">
-        <v>0.005669274757326879</v>
+        <v>0.005855874757331036</v>
       </c>
     </row>
     <row r="193">
@@ -8245,11 +8245,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[0.4759030044078827, 0.7278435230255127, 0.8227336406707764, 0.9287149906158447, 0.970054566860199, 0.9788378477096558, 0.9820782542228699, 0.9189461469650269, 0.9717621207237244, 0.9488351345062256, 0.9416183829307556, 0.9501585960388184, 0.9461174011230469, 0.9603995680809021, 0.9351025819778442, 0.3707674741744995, 0.45234477519989014, 0.8042681217193604, 0.25266319513320923, 0.4636806547641754, 0.17631714046001434, 0.4035751223564148, 0.15206672251224518, 0.5014851093292236, 0.27201324701309204, 0.6160365343093872, 0.7127235531806946, 0.7147305607795715, 0.4773247539997101, 0.8141254782676697, 0.40778714418411255, 0.3700661361217499, 0.7666253447532654, 0.8004473447799683, 0.7265497446060181, 0.3541721701622009, 0.3847620189189911, 0.5246360301971436, 0.8662481904029846, 0.498195081949234, 0.7647041082382202, 0.679196298122406, 0.9574577212333679, 0.9230765700340271, 0.7871670126914978, 0.9591864347457886, 0.9452866315841675, 0.8815281987190247, 0.4462559223175049, 0.8715831637382507, 0.5341408848762512, 0.9564977884292603, 0.966033399105072, 0.9503889679908752, 0.7652556300163269, 0.7186838984489441, 0.7182605266571045, 0.7794937491416931, 0.6304061412811279, 0.7351556420326233, 0.5657989978790283, 0.8097326159477234, 0.9112668633460999, 0.9192346334457397, 0.8689572811126709, 0.7470530867576599, 0.6168029308319092, 0.46656373143196106, 0.5860264897346497, 0.6751711368560791, 0.607333242893219, 0.8721147179603577, 0.5643569231033325, 0.9320427179336548, 0.9173992872238159, 0.9560214281082153, 0.8083696365356445, 0.8734274506568909, 0.871040403842926, 0.8098586201667786, 0.9458253383636475, 0.9202172756195068, 0.7174970507621765, 0.5411690473556519, 0.5855921506881714, 0.42650583386421204, 0.6873793601989746, 0.5570040345191956, 0.6639345288276672, 0.49103623628616333, 0.5261120796203613, 0.7637820839881897, 0.8698756098747253, 0.8869472742080688, 0.8681758046150208, 0.8047435879707336, 0.5030861496925354, 0.8703058362007141, 0.8000538945198059, 0.5781099796295166, 0.3986239433288574, 0.40081942081451416]</t>
+          <t>[0.6572529673576355, 0.7852603197097778, 0.8959978818893433, 0.9482123255729675, 0.974871814250946, 0.9733493328094482, 0.9797296524047852, 0.9265749454498291, 0.9732983112335205, 0.9542389512062073, 0.9459384679794312, 0.9409657716751099, 0.943092942237854, 0.9684526324272156, 0.9584441781044006, 0.42920947074890137, 0.3994714915752411, 0.8582214117050171, 0.24604462087154388, 0.4352433681488037, 0.08386370539665222, 0.416902095079422, 0.12762753665447235, 0.5724489092826843, 0.3798029124736786, 0.7253374457359314, 0.8406400084495544, 0.7768635749816895, 0.5475431680679321, 0.8735529184341431, 0.5665820240974426, 0.36946186423301697, 0.7818768620491028, 0.8239261507987976, 0.7216852307319641, 0.4815599322319031, 0.44889798760414124, 0.536382257938385, 0.8241060972213745, 0.3656000792980194, 0.7749218940734863, 0.7472886443138123, 0.9616982340812683, 0.9398488998413086, 0.8716464042663574, 0.9573632478713989, 0.9448056221008301, 0.852257251739502, 0.546370267868042, 0.8790249228477478, 0.45082995295524597, 0.9279197454452515, 0.9521083831787109, 0.9231982827186584, 0.6790087223052979, 0.6502582430839539, 0.7575010657310486, 0.6941788792610168, 0.6922687292098999, 0.6022757291793823, 0.5827353596687317, 0.7602558732032776, 0.9058685302734375, 0.9051570296287537, 0.8615947365760803, 0.7811031341552734, 0.5371190905570984, 0.36128008365631104, 0.5502264499664307, 0.6517899036407471, 0.6934542655944824, 0.8585077524185181, 0.4247293174266815, 0.8917134404182434, 0.8620573878288269, 0.8829225301742554, 0.6651656031608582, 0.692054033279419, 0.8096693754196167, 0.7977483868598938, 0.9411711692810059, 0.908275306224823, 0.6590707898139954, 0.4677746593952179, 0.6102030873298645, 0.3423212170600891, 0.641850471496582, 0.41673439741134644, 0.6349359154701233, 0.5176527500152588, 0.44442275166511536, 0.6244403719902039, 0.8062124252319336, 0.8139353394508362, 0.8445045351982117, 0.8001998066902161, 0.6670528054237366, 0.8881188035011292, 0.84855055809021, 0.5878465175628662, 0.3749736547470093, 0.37799856066703796]</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.9820782542228699</v>
+        <v>0.9797296524047852</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
@@ -8263,10 +8263,10 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>0.5728603000170551</v>
+        <v>0.5814436999935424</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0056162774511476</v>
+        <v>0.005700428431309239</v>
       </c>
     </row>
     <row r="194">
@@ -8285,11 +8285,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>[0.1045205369591713, 0.1659993976354599, 0.2089153379201889, 0.2460009902715683, 0.10166306048631668, 0.12675613164901733, 0.3127547800540924, 0.20025642216205597, 0.1583370864391327, 0.2883576452732086, 0.2537783980369568, 0.18663175404071808, 0.2118004858493805, 0.1297864466905594, 0.1350444108247757, 0.12501907348632812, 0.09638449549674988, 0.08727556467056274, 0.10253274440765381, 0.13955478370189667, 0.0980454757809639, 0.08841484785079956, 0.16478273272514343, 0.18768897652626038, 0.13619273900985718, 0.19237938523292542, 0.3266274631023407, 0.3189549446105957, 0.37535473704338074, 0.21518433094024658, 0.17640313506126404, 0.31558847427368164, 0.202571839094162, 0.33110249042510986, 0.5988920331001282, 0.48564642667770386, 0.207961305975914, 0.24049139022827148, 0.11541531980037689, 0.22841805219650269, 0.2745486795902252, 0.219098299741745, 0.2858130633831024, 0.43370428681373596, 0.22100432217121124, 0.19961951673030853, 0.1764226257801056, 0.5237403512001038, 0.3374587297439575, 0.25153377652168274, 0.28653159737586975, 0.3145337998867035, 0.4426972568035126, 0.3841010630130768, 0.21375173330307007, 0.2534550726413727, 0.30249372124671936, 0.23064479231834412, 0.3816075623035431, 0.23597604036331177, 0.2432134598493576, 0.22117924690246582, 0.31918084621429443, 0.41050785779953003, 0.17123456299304962, 0.1989327222108841, 0.11598760634660721, 0.27136656641960144, 0.27135413885116577, 0.2453286051750183, 0.09447703510522842, 0.2218322604894638, 0.20036493241786957, 0.16426773369312286, 0.2630530595779419, 0.30039161443710327, 0.1628209352493286, 0.3613635301589966, 0.18898235261440277, 0.2482554018497467, 0.3944315016269684, 0.2875688672065735, 0.23158232867717743, 0.17493996024131775, 0.2609306573867798, 0.6650015711784363, 0.1686437427997589, 0.19717904925346375, 0.20262810587882996, 0.13269507884979248, 0.33953383564949036, 0.3015056848526001, 0.21704502403736115, 0.3286168873310089, 0.15069249272346497, 0.16636449098587036, 0.20106863975524902, 0.16031841933727264, 0.2569091320037842, 0.2743467092514038, 0.10503765195608139, 0.10529006272554398]</t>
+          <t>[0.0952601283788681, 0.11322955042123795, 0.11923923343420029, 0.11267798393964767, 0.04772193729877472, 0.051799386739730835, 0.2065344750881195, 0.09288566559553146, 0.08210097998380661, 0.17502902448177338, 0.29753202199935913, 0.10687174648046494, 0.1323232799768448, 0.06982177495956421, 0.08125384151935577, 0.055879123508930206, 0.05525892600417137, 0.04505736380815506, 0.07115287333726883, 0.0954347625374794, 0.06837084889411926, 0.05161408334970474, 0.1215466558933258, 0.0969613790512085, 0.08893226832151413, 0.13948535919189453, 0.2033768743276596, 0.2527323365211487, 0.19780302047729492, 0.17362245917320251, 0.1112259104847908, 0.17267830669879913, 0.13651137053966522, 0.21224309504032135, 0.6248520016670227, 0.3694103956222534, 0.13789993524551392, 0.13622143864631653, 0.05930892750620842, 0.12862159311771393, 0.1801002472639084, 0.10603699833154678, 0.23995092511177063, 0.3706565201282501, 0.17233891785144806, 0.13030636310577393, 0.10354189574718475, 0.4560146927833557, 0.26673150062561035, 0.2001074105501175, 0.28811565041542053, 0.2922031581401825, 0.5434491038322449, 0.3081517815589905, 0.1413869708776474, 0.17981776595115662, 0.2386050969362259, 0.1471291333436966, 0.4156981110572815, 0.2118404060602188, 0.3165337145328522, 0.14454887807369232, 0.27197885513305664, 0.295937180519104, 0.12487267702817917, 0.15707643330097198, 0.08375348150730133, 0.20070992410182953, 0.2199001908302307, 0.16057105362415314, 0.060844723135232925, 0.12929901480674744, 0.16370363533496857, 0.10303663462400436, 0.13628222048282623, 0.20322611927986145, 0.10254579782485962, 0.20705614984035492, 0.11979607492685318, 0.1557973027229309, 0.38173699378967285, 0.15463662147521973, 0.17023608088493347, 0.1082691177725792, 0.234352245926857, 0.7117564678192139, 0.12673921883106232, 0.14841298758983612, 0.17410972714424133, 0.07595795392990112, 0.349103182554245, 0.2844395935535431, 0.22022861242294312, 0.19913281500339508, 0.09093573689460754, 0.12801425158977509, 0.10928576439619064, 0.11303190141916275, 0.23523880541324615, 0.21110202372074127, 0.079471156001091, 0.07994344085454941]</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.6650015711784363</v>
+        <v>0.7117564678192139</v>
       </c>
       <c r="F194" t="n">
         <v>1</v>
@@ -8303,10 +8303,10 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0.5789668000070378</v>
+        <v>0.5799432000058005</v>
       </c>
       <c r="J194" t="n">
-        <v>0.005676145098108214</v>
+        <v>0.005685717647115691</v>
       </c>
     </row>
     <row r="195">
@@ -8325,11 +8325,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>[0.22458115220069885, 0.17625150084495544, 0.3525914251804352, 0.5450575351715088, 0.23458285629749298, 0.33343303203582764, 0.3251158893108368, 0.24548964202404022, 0.18738147616386414, 0.41526058316230774, 0.29425036907196045, 0.24135750532150269, 0.14219023287296295, 0.2708579897880554, 0.28190556168556213, 0.2534361183643341, 0.09601199626922607, 0.14571383595466614, 0.12394167482852936, 0.3179505169391632, 0.16756455600261688, 0.15175385773181915, 0.329622745513916, 0.5293417572975159, 0.411668062210083, 0.3418600261211395, 0.12386051565408707, 0.1795867383480072, 0.32658448815345764, 0.12219669669866562, 0.1896139681339264, 0.20944485068321228, 0.35107147693634033, 0.33497220277786255, 0.2912386357784271, 0.45160219073295593, 0.5839478373527527, 0.5395975112915039, 0.27433669567108154, 0.36854857206344604, 0.08304423093795776, 0.12239302694797516, 0.3975791931152344, 0.18266649544239044, 0.1813393235206604, 0.2050294280052185, 0.15047547221183777, 0.2731461524963379, 0.2218816876411438, 0.1345997154712677, 0.12050861120223999, 0.28298354148864746, 0.2598288357257843, 0.2979733943939209, 0.1601615846157074, 0.5034200549125671, 0.19638438522815704, 0.09779293835163116, 0.1633015275001526, 0.10431358218193054, 0.08608172833919525, 0.16548588871955872, 0.14266715943813324, 0.5316019654273987, 0.21605882048606873, 0.1562075912952423, 0.1114865243434906, 0.08329654484987259, 0.16335424780845642, 0.1925869733095169, 0.06349651515483856, 0.12057999521493912, 0.15111275017261505, 0.20019811391830444, 0.3026774823665619, 0.12553800642490387, 0.2022920697927475, 0.2296386957168579, 0.5843349099159241, 0.3505870997905731, 0.2642640769481659, 0.2303590625524521, 0.17580944299697876, 0.20615382492542267, 0.09145254641771317, 0.07909302413463593, 0.10461855679750443, 0.2650083899497986, 0.1566774696111679, 0.12070456147193909, 0.10047672688961029, 0.21173644065856934, 0.11464742571115494, 0.10809770971536636, 0.05855067819356918, 0.055336322635412216, 0.10602882504463196, 0.11822926253080368, 0.12150858342647552, 0.17362897098064423, 0.1732650101184845, 0.17123575508594513]</t>
+          <t>[0.15046913921833038, 0.11344928294420242, 0.36510971188545227, 0.5039544701576233, 0.24945233762264252, 0.35992661118507385, 0.2954402267932892, 0.1991744041442871, 0.19266796112060547, 0.3878288269042969, 0.3091270923614502, 0.21815143525600433, 0.19095520675182343, 0.26158440113067627, 0.279564768075943, 0.24834972620010376, 0.07247007638216019, 0.11360441148281097, 0.07920711487531662, 0.21127288043498993, 0.10422739386558533, 0.09043910354375839, 0.3474799394607544, 0.5256755352020264, 0.34075191617012024, 0.30111560225486755, 0.1318356841802597, 0.17990754544734955, 0.347628116607666, 0.1249789297580719, 0.2523235082626343, 0.180486798286438, 0.3305712938308716, 0.27736687660217285, 0.28196045756340027, 0.34757566452026367, 0.5482029318809509, 0.5347570180892944, 0.2595275044441223, 0.33165737986564636, 0.050198763608932495, 0.11414977163076401, 0.4087395966053009, 0.1331431120634079, 0.26223883032798767, 0.20986603200435638, 0.08797435462474823, 0.24056477844715118, 0.16974934935569763, 0.11362806707620621, 0.07780279964208603, 0.24741053581237793, 0.2287335842847824, 0.27835023403167725, 0.1271609216928482, 0.44656041264533997, 0.1536673754453659, 0.06050458550453186, 0.11922530829906464, 0.09625515341758728, 0.07739613950252533, 0.13780824840068817, 0.09730053693056107, 0.4404129087924957, 0.2108316570520401, 0.10168387740850449, 0.0986320897936821, 0.06221723556518555, 0.19350486993789673, 0.21964293718338013, 0.03306295722723007, 0.09027609974145889, 0.16300944983959198, 0.1583450585603714, 0.26508697867393494, 0.10304141789674759, 0.20990119874477386, 0.20098595321178436, 0.4920509457588196, 0.28832364082336426, 0.26739513874053955, 0.1748170256614685, 0.11784583330154419, 0.15970054268836975, 0.06431769579648972, 0.06722597032785416, 0.0900857076048851, 0.2668082118034363, 0.10135509073734283, 0.06472497433423996, 0.061204906553030014, 0.15734431147575378, 0.105933777987957, 0.09171120822429657, 0.04535173624753952, 0.04974633455276489, 0.12906679511070251, 0.12812435626983643, 0.1037062257528305, 0.15097886323928833, 0.15531879663467407, 0.15097196400165558]</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.5843349099159241</v>
+        <v>0.5482029318809509</v>
       </c>
       <c r="F195" t="n">
         <v>1</v>
@@ -8343,10 +8343,10 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0.5829773000150453</v>
+        <v>0.5843741999997292</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0057154637256377</v>
+        <v>0.005729158823526756</v>
       </c>
     </row>
     <row r="196">
@@ -8365,11 +8365,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[0.7087758183479309, 0.7329827547073364, 0.6583590507507324, 0.8717355132102966, 0.9461585879325867, 0.8901523351669312, 0.9164276719093323, 0.8358500003814697, 0.5432540774345398, 0.509653627872467, 0.6017754077911377, 0.8290417790412903, 0.7614805102348328, 0.7348591685295105, 0.5962143540382385, 0.6142613291740417, 0.6143110394477844, 0.7670197486877441, 0.6739544868469238, 0.8706291913986206, 0.6847493052482605, 0.7007233500480652, 0.6629586219787598, 0.5244960784912109, 0.5894922614097595, 0.5467545986175537, 0.5909618735313416, 0.665730357170105, 0.6631014943122864, 0.6107257008552551, 0.41494688391685486, 0.729566752910614, 0.8547380566596985, 0.8644058108329773, 0.5862432718276978, 0.6827976703643799, 0.6304566860198975, 0.6686413288116455, 0.7962119579315186, 0.8398333191871643, 0.7762944102287292, 0.9106380939483643, 0.6086597442626953, 0.8614019751548767, 0.7489209771156311, 0.7599865198135376, 0.7043954730033875, 0.687471330165863, 0.481083482503891, 0.8368607759475708, 0.6099767088890076, 0.8512321710586548, 0.7470977306365967, 0.8653327226638794, 0.7486482262611389, 0.48702555894851685, 0.45072489976882935, 0.503969132900238, 0.5591146945953369, 0.636315107345581, 0.7988342046737671, 0.8295546770095825, 0.7407817840576172, 0.8432298302650452, 0.7504602670669556, 0.8494793176651001, 0.38290169835090637, 0.5988712906837463, 0.6321401000022888, 0.8191300630569458, 0.5683050751686096, 0.5640700459480286, 0.3578066825866699, 0.3786178231239319, 0.1971888542175293, 0.39010336995124817, 0.4955745339393616, 0.34785786271095276, 0.1390119343996048, 0.5611555576324463, 0.5769563913345337, 0.7540955543518066, 0.5653292536735535, 0.35218286514282227, 0.6465327739715576, 0.5493602156639099, 0.6115046739578247, 0.6128538846969604, 0.42039793729782104, 0.1794290393590927, 0.3720387816429138, 0.5917600989341736, 0.5225518345832825, 0.6379924416542053, 0.5790615677833557, 0.6708076000213623, 0.5458523631095886, 0.641724169254303, 0.5941364765167236, 0.6325627565383911, 0.6486144065856934, 0.533175528049469, 0.5324155688285828]</t>
+          <t>[0.7381613254547119, 0.7603106498718262, 0.6733084917068481, 0.8604028820991516, 0.9336301684379578, 0.8975409269332886, 0.9326943159103394, 0.8744358420372009, 0.4272151291370392, 0.5005075335502625, 0.6108353734016418, 0.8244644999504089, 0.7004753351211548, 0.618564784526825, 0.6110749244689941, 0.6617919206619263, 0.708473265171051, 0.7195793986320496, 0.6148132681846619, 0.8772201538085938, 0.5561937689781189, 0.6186344027519226, 0.6437956690788269, 0.605986475944519, 0.6576063632965088, 0.6338799595832825, 0.714275062084198, 0.6381973028182983, 0.6007251143455505, 0.7389972805976868, 0.45601460337638855, 0.6440677642822266, 0.7236720323562622, 0.7351066470146179, 0.4252975583076477, 0.4833828806877136, 0.39265766739845276, 0.44665396213531494, 0.5587471127510071, 0.775048553943634, 0.6769453287124634, 0.8459163904190063, 0.4129648506641388, 0.6985976099967957, 0.5893927812576294, 0.5099779367446899, 0.4436749517917633, 0.4427110552787781, 0.2974224388599396, 0.7549192309379578, 0.49108248949050903, 0.7455158829689026, 0.5840947031974792, 0.7877945899963379, 0.6570971012115479, 0.2794646918773651, 0.3955901861190796, 0.42152175307273865, 0.46072229743003845, 0.6101096272468567, 0.8212129473686218, 0.7990285754203796, 0.6976366639137268, 0.7593947052955627, 0.6567599177360535, 0.7365239858627319, 0.321548730134964, 0.4654732346534729, 0.5474696159362793, 0.7656335234642029, 0.4745689630508423, 0.3563714325428009, 0.31598395109176636, 0.29743021726608276, 0.1587315797805786, 0.3368978798389435, 0.3408646583557129, 0.21090368926525116, 0.11645688861608505, 0.3952309489250183, 0.42511314153671265, 0.37624600529670715, 0.33135029673576355, 0.1893569827079773, 0.43301916122436523, 0.39037320017814636, 0.504244327545166, 0.5170882344245911, 0.3586635887622833, 0.10865356773138046, 0.31688234210014343, 0.4602552354335785, 0.48550644516944885, 0.5760847926139832, 0.4711688160896301, 0.5622156262397766, 0.4382289946079254, 0.5224281549453735, 0.5892919301986694, 0.4843948185443878, 0.574317216873169, 0.47092315554618835, 0.4741002917289734]</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.9461585879325867</v>
+        <v>0.9336301684379578</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -8383,10 +8383,10 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0.5884882000100333</v>
+        <v>0.5853046999982325</v>
       </c>
       <c r="J196" t="n">
-        <v>0.005713477670000323</v>
+        <v>0.005682569902895462</v>
       </c>
     </row>
     <row r="197">
@@ -8405,11 +8405,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>[0.16876289248466492, 0.17851990461349487, 0.6512255072593689, 0.5634852051734924, 0.2971406579017639, 0.7664697766304016, 0.24570877850055695, 0.4404122531414032, 0.5277815461158752, 0.5992428660392761, 0.5760358572006226, 0.598345160484314, 0.6939504146575928, 0.46014317870140076, 0.19463607668876648, 0.2896641790866852, 0.40981724858283997, 0.4565684199333191, 0.4353163242340088, 0.20406755805015564, 0.5252110362052917, 0.47581928968429565, 0.5827905535697937, 0.6251698732376099, 0.3410486876964569, 0.24541927874088287, 0.3539065420627594, 0.3145439922809601, 0.21089814603328705, 0.5513281226158142, 0.20059819519519806, 0.48017433285713196, 0.4065876603126526, 0.2976221442222595, 0.12153580039739609, 0.12762770056724548, 0.06407581269741058, 0.07749855518341064, 0.0522468127310276, 0.09518717974424362, 0.0411868654191494, 0.16083793342113495, 0.41299641132354736, 0.669721245765686, 0.6723629236221313, 0.7566717267036438, 0.6530601382255554, 0.6740569472312927, 0.6817435026168823, 0.6842387914657593, 0.4250567853450775, 0.24103228747844696, 0.23031438887119293, 0.3318929076194763, 0.2149645835161209, 0.18543167412281036, 0.37153568863868713, 0.6768734455108643, 0.783174991607666, 0.5858207941055298, 0.47124531865119934, 0.48454931378364563, 0.2713260352611542, 0.5335018634796143, 0.25736284255981445, 0.5433673858642578, 0.21370412409305573, 0.24086540937423706, 0.191691592335701, 0.28626319766044617, 0.16315612196922302, 0.5644427537918091, 0.20165567100048065, 0.2819046378135681, 0.12548083066940308, 0.1260702908039093, 0.16210517287254333, 0.14138489961624146, 0.18075157701969147, 0.18035736680030823, 0.10852023214101791, 0.2580530643463135, 0.15568695962429047, 0.4173891842365265, 0.22491930425167084, 0.6989002823829651, 0.718562126159668, 0.4377392530441284, 0.1697055846452713, 0.24143058061599731, 0.2922249138355255, 0.48747625946998596, 0.3459269404411316, 0.7276582717895508, 0.6089603900909424, 0.4989660084247589, 0.33333051204681396, 0.3822188079357147, 0.21232576668262482, 0.22220122814178467, 0.13833202421665192, 0.2954704761505127, 0.29486510157585144]</t>
+          <t>[0.12032917141914368, 0.12190315127372742, 0.5120786428451538, 0.4448424279689789, 0.2281688004732132, 0.6784898042678833, 0.15791930258274078, 0.2844865918159485, 0.485505610704422, 0.48233523964881897, 0.47107797861099243, 0.4969835877418518, 0.6779071688652039, 0.30308040976524353, 0.13662242889404297, 0.14910635352134705, 0.26263299584388733, 0.3228648006916046, 0.2706211805343628, 0.10689414292573929, 0.39506790041923523, 0.3223918378353119, 0.5322262048721313, 0.6355999708175659, 0.19476474821567535, 0.25531983375549316, 0.3368762135505676, 0.2575455904006958, 0.13218188285827637, 0.5527357459068298, 0.15468627214431763, 0.574292778968811, 0.42358535528182983, 0.26898708939552307, 0.10313624888658524, 0.12465530633926392, 0.04088027402758598, 0.041560184210538864, 0.03673374652862549, 0.05306079611182213, 0.02004641480743885, 0.09552709013223648, 0.3507126569747925, 0.528356671333313, 0.5169052481651306, 0.5200411677360535, 0.6046578288078308, 0.5620782971382141, 0.4713965952396393, 0.44709113240242004, 0.2855709195137024, 0.13138657808303833, 0.11687891185283661, 0.2195286601781845, 0.11442910134792328, 0.1218748614192009, 0.23273588716983795, 0.5198549628257751, 0.5580694675445557, 0.5029039978981018, 0.4258529543876648, 0.23104941844940186, 0.1688564121723175, 0.35535818338394165, 0.11519857496023178, 0.33985909819602966, 0.16007860004901886, 0.1732608824968338, 0.13972994685173035, 0.16838334500789642, 0.09475336223840714, 0.47000324726104736, 0.19426865875720978, 0.3081890344619751, 0.1595342755317688, 0.18965457379817963, 0.1791016012430191, 0.17569570243358612, 0.13018901646137238, 0.12168043106794357, 0.06725353002548218, 0.16123586893081665, 0.12195784598588943, 0.4038408696651459, 0.19148163497447968, 0.5790630578994751, 0.6579036116600037, 0.345657616853714, 0.10485032200813293, 0.13107270002365112, 0.21374626457691193, 0.30056098103523254, 0.18258720636367798, 0.5700995326042175, 0.4942866861820221, 0.4156062602996826, 0.23390763998031616, 0.3417085111141205, 0.1533609926700592, 0.09311085939407349, 0.07019425183534622, 0.16500908136367798, 0.1633330136537552]</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.783174991607666</v>
+        <v>0.6784898042678833</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -8423,10 +8423,10 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>0.5835069000022486</v>
+        <v>0.5918816000048537</v>
       </c>
       <c r="J197" t="n">
-        <v>0.005665115534002414</v>
+        <v>0.005746423301017997</v>
       </c>
     </row>
     <row r="198">
@@ -8445,11 +8445,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>[0.948444128036499, 0.960480809211731, 0.9405511021614075, 0.9661557674407959, 0.9601675271987915, 0.9750607013702393, 0.9609069228172302, 0.9828186631202698, 0.9610759019851685, 0.9691305756568909, 0.9856265187263489, 0.9933339953422546, 0.9863386750221252, 0.9794921875, 0.9628996849060059, 0.9780408143997192, 0.9848558306694031, 0.9861430525779724, 0.9851896166801453, 0.9871591329574585, 0.9571933746337891, 0.8729363679885864, 0.8732922673225403, 0.9367235898971558, 0.9598806500434875, 0.9877383708953857, 0.9835528135299683, 0.983465313911438, 0.983132541179657, 0.9580742716789246, 0.9617817997932434, 0.948395848274231, 0.9359325170516968, 0.9003404378890991, 0.9077051281929016, 0.928197979927063, 0.948007345199585, 0.8848307728767395, 0.8767008781433105, 0.9576199650764465, 0.921301007270813, 0.919712245464325, 0.9154301285743713, 0.886688768863678, 0.7681279182434082, 0.6771453022956848, 0.6465052366256714, 0.76678866147995, 0.46853184700012207, 0.38773006200790405, 0.38127586245536804, 0.4844284951686859, 0.4797426760196686, 0.544607937335968, 0.5402122139930725, 0.4808949828147888, 0.5095788240432739, 0.369391530752182, 0.5889236927032471, 0.6987133622169495, 0.45751118659973145, 0.6905895471572876, 0.7306192517280579, 0.7532474994659424, 0.7152372002601624, 0.48787763714790344, 0.39616379141807556, 0.6535030007362366, 0.5294106006622314, 0.39969727396965027, 0.4755678176879883, 0.844844400882721, 0.6684029698371887, 0.773026168346405, 0.7417776584625244, 0.8413388133049011, 0.6784701943397522, 0.7043728232383728, 0.5332493782043457, 0.7512674331665039, 0.6252249479293823, 0.7961809635162354, 0.7016308307647705, 0.7729284763336182, 0.7189946174621582, 0.795597493648529, 0.7324429750442505, 0.7596895694732666, 0.6930450797080994, 0.7902928590774536, 0.7357667088508606, 0.821681797504425, 0.7397951483726501, 0.7611529231071472, 0.8172786831855774, 0.7187113165855408, 0.8181857466697693, 0.749431848526001, 0.6769368052482605, 0.6581169366836548, 0.4728531241416931, 0.5626186728477478, 0.6635742783546448, 0.6874396204948425, 0.5050207376480103, 0.6717690229415894, 0.6282278895378113, 0.5805873870849609, 0.47726917266845703, 0.4766618311405182, 0.3341372311115265, 0.3284682035446167]</t>
+          <t>[0.955375075340271, 0.9674261212348938, 0.9255519509315491, 0.950920820236206, 0.9461862444877625, 0.9427937269210815, 0.9321430325508118, 0.9670703411102295, 0.9505556225776672, 0.9710333943367004, 0.9859147071838379, 0.9927975535392761, 0.9879859089851379, 0.981652021408081, 0.962966799736023, 0.9748698472976685, 0.9833298325538635, 0.9854143857955933, 0.9852918386459351, 0.9820313453674316, 0.9530156850814819, 0.8568986654281616, 0.8608036041259766, 0.9039530158042908, 0.9421753287315369, 0.9843156933784485, 0.971869945526123, 0.9531235098838806, 0.9767957925796509, 0.9468219876289368, 0.9471386075019836, 0.9064542651176453, 0.8975297808647156, 0.8227267265319824, 0.8438536524772644, 0.8903185129165649, 0.9363046288490295, 0.9071969389915466, 0.8840062022209167, 0.9044652581214905, 0.8403170108795166, 0.7813979387283325, 0.7729508876800537, 0.53452068567276, 0.4731855094432831, 0.37341606616973877, 0.3716197907924652, 0.5129437446594238, 0.3554384708404541, 0.25818970799446106, 0.2411244809627533, 0.2898504137992859, 0.3451037108898163, 0.3515186011791229, 0.3845493197441101, 0.26594364643096924, 0.38962018489837646, 0.21622948348522186, 0.2696452736854553, 0.4216442406177521, 0.25753670930862427, 0.5113315582275391, 0.541598916053772, 0.6067392230033875, 0.5266553163528442, 0.3256763517856598, 0.21542294323444366, 0.40468162298202515, 0.2811698317527771, 0.26712220907211304, 0.24449287354946136, 0.6324406862258911, 0.42107993364334106, 0.5794311761856079, 0.549342691898346, 0.7248558402061462, 0.5621564984321594, 0.6194615960121155, 0.37799325585365295, 0.6091220378875732, 0.3932545781135559, 0.528010368347168, 0.5192997455596924, 0.6016805171966553, 0.4965830147266388, 0.6134322285652161, 0.5361772775650024, 0.552612841129303, 0.5201081037521362, 0.5291183590888977, 0.6526609063148499, 0.7426284551620483, 0.6134109497070312, 0.625197172164917, 0.6624738574028015, 0.5106868743896484, 0.7390612959861755, 0.6190087199211121, 0.6022980809211731, 0.6016349196434021, 0.32011184096336365, 0.47301915287971497, 0.6095467805862427, 0.5005646347999573, 0.4264742136001587, 0.5221672654151917, 0.4436762034893036, 0.47372519969940186, 0.3218134641647339, 0.3627014756202698, 0.24485470354557037, 0.2417474091053009]</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.9933339953422546</v>
+        <v>0.9927975535392761</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -8463,10 +8463,10 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>0.7610246000112966</v>
+        <v>0.7511601000005612</v>
       </c>
       <c r="J198" t="n">
-        <v>0.006794862500100862</v>
+        <v>0.006706786607147868</v>
       </c>
     </row>
   </sheetData>
